--- a/data/Antofagasta.xlsx
+++ b/data/Antofagasta.xlsx
@@ -11224,7 +11224,7 @@
       </c>
       <c r="B227" t="inlineStr">
         <is>
-          <t>Planta de Fabricación de Tuberías PEX (polietileno reticulado)</t>
+          <t>Transporte Interregional de Sustancias Peligrosas - AGREDUCAM VI Región</t>
         </is>
       </c>
       <c r="C227" t="inlineStr">
@@ -11234,16 +11234,16 @@
       </c>
       <c r="D227" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E227" t="inlineStr">
         <is>
-          <t>CROSSPIPE SYSTEMS S.A.</t>
+          <t>Asociación Gremial de Dueños de Camiones de la Sexta Región</t>
         </is>
       </c>
       <c r="F227" t="n">
-        <v>12400</v>
+        <v>1200</v>
       </c>
       <c r="G227" t="inlineStr">
         <is>
@@ -11257,7 +11257,7 @@
       </c>
       <c r="I227" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128954293&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128964620&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J227" t="inlineStr">
@@ -11272,7 +11272,7 @@
       </c>
       <c r="B228" t="inlineStr">
         <is>
-          <t>Transporte Interregional de Sustancias Peligrosas - AGREDUCAM VI Región</t>
+          <t>Transporte de Residuos Peligrosos por las Rutas Indicadas</t>
         </is>
       </c>
       <c r="C228" t="inlineStr">
@@ -11287,11 +11287,11 @@
       </c>
       <c r="E228" t="inlineStr">
         <is>
-          <t>Asociación Gremial de Dueños de Camiones de la Sexta Región</t>
+          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
         </is>
       </c>
       <c r="F228" t="n">
-        <v>1200</v>
+        <v>0</v>
       </c>
       <c r="G228" t="inlineStr">
         <is>
@@ -11305,7 +11305,7 @@
       </c>
       <c r="I228" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128964620&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128972489&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J228" t="inlineStr">
@@ -11320,7 +11320,7 @@
       </c>
       <c r="B229" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos por las Rutas Indicadas</t>
+          <t>Planta de Fabricación de Tuberías PEX (polietileno reticulado)</t>
         </is>
       </c>
       <c r="C229" t="inlineStr">
@@ -11330,16 +11330,16 @@
       </c>
       <c r="D229" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E229" t="inlineStr">
         <is>
-          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
+          <t>CROSSPIPE SYSTEMS S.A.</t>
         </is>
       </c>
       <c r="F229" t="n">
-        <v>0</v>
+        <v>12400</v>
       </c>
       <c r="G229" t="inlineStr">
         <is>
@@ -11353,7 +11353,7 @@
       </c>
       <c r="I229" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128972489&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128954293&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J229" t="inlineStr">
@@ -12952,26 +12952,26 @@
       </c>
       <c r="B263" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas Transaltisa Chile Ltda</t>
+          <t>RT Sulfuros</t>
         </is>
       </c>
       <c r="C263" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D263" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E263" t="inlineStr">
         <is>
-          <t>Transaltisa Chile Ltda.</t>
+          <t>CODELCO Chile, División Radomiro Tomic</t>
         </is>
       </c>
       <c r="F263" t="n">
-        <v>2050</v>
+        <v>5.4</v>
       </c>
       <c r="G263" t="inlineStr">
         <is>
@@ -12980,12 +12980,12 @@
       </c>
       <c r="H263" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I263" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8218613&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8210090&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J263" t="inlineStr">
@@ -13000,26 +13000,26 @@
       </c>
       <c r="B264" t="inlineStr">
         <is>
-          <t>RT Sulfuros</t>
+          <t>Transporte de Sustancias Peligrosas Transaltisa Chile Ltda</t>
         </is>
       </c>
       <c r="C264" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D264" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E264" t="inlineStr">
         <is>
-          <t>CODELCO Chile, División Radomiro Tomic</t>
+          <t>Transaltisa Chile Ltda.</t>
         </is>
       </c>
       <c r="F264" t="n">
-        <v>5.4</v>
+        <v>2050</v>
       </c>
       <c r="G264" t="inlineStr">
         <is>
@@ -13028,12 +13028,12 @@
       </c>
       <c r="H264" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I264" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8210090&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8218613&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J264" t="inlineStr">
@@ -15476,7 +15476,7 @@
       </c>
       <c r="H315" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Caducado</t>
         </is>
       </c>
       <c r="I315" t="inlineStr">
@@ -16648,7 +16648,7 @@
       </c>
       <c r="B340" t="inlineStr">
         <is>
-          <t>Modificación Proyecto Transporte de Acido Sulfurico a granel entre la Primera y Décima Regiones de Chile</t>
+          <t>Extracción de Áridos Empréstito E17L</t>
         </is>
       </c>
       <c r="C340" t="inlineStr">
@@ -16658,16 +16658,16 @@
       </c>
       <c r="D340" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E340" t="inlineStr">
         <is>
-          <t>Transportes Herrmann Limitada</t>
+          <t>Skanska Chile S.A.</t>
         </is>
       </c>
       <c r="F340" t="n">
-        <v>0</v>
+        <v>500</v>
       </c>
       <c r="G340" t="inlineStr">
         <is>
@@ -16676,12 +16676,12 @@
       </c>
       <c r="H340" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I340" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6159602&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6156264&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J340" t="inlineStr">
@@ -16696,7 +16696,7 @@
       </c>
       <c r="B341" t="inlineStr">
         <is>
-          <t>Extracción de Áridos Empréstito E17L</t>
+          <t>Modificación Proyecto Transporte de Acido Sulfurico a granel entre la Primera y Décima Regiones de Chile</t>
         </is>
       </c>
       <c r="C341" t="inlineStr">
@@ -16706,16 +16706,16 @@
       </c>
       <c r="D341" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E341" t="inlineStr">
         <is>
-          <t>Skanska Chile S.A.</t>
+          <t>Transportes Herrmann Limitada</t>
         </is>
       </c>
       <c r="F341" t="n">
-        <v>500</v>
+        <v>0</v>
       </c>
       <c r="G341" t="inlineStr">
         <is>
@@ -16724,12 +16724,12 @@
       </c>
       <c r="H341" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I341" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6156264&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6159602&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J341" t="inlineStr">
@@ -17176,7 +17176,7 @@
       </c>
       <c r="B351" t="inlineStr">
         <is>
-          <t>Nuevas Instalaciones para Mantención Mina</t>
+          <t>Transporte de Residuos Peligrosos</t>
         </is>
       </c>
       <c r="C351" t="inlineStr">
@@ -17186,16 +17186,16 @@
       </c>
       <c r="D351" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E351" t="inlineStr">
         <is>
-          <t>MINERA ESCONDIDA LIMITADA</t>
+          <t>Transportes TMS Limitada</t>
         </is>
       </c>
       <c r="F351" t="n">
-        <v>635000</v>
+        <v>200</v>
       </c>
       <c r="G351" t="inlineStr">
         <is>
@@ -17204,12 +17204,12 @@
       </c>
       <c r="H351" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I351" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5931343&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6003582&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J351" t="inlineStr">
@@ -17224,7 +17224,7 @@
       </c>
       <c r="B352" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos</t>
+          <t>Transporte de Sustancias Peligrosas entre la I, II y III Regiones"</t>
         </is>
       </c>
       <c r="C352" t="inlineStr">
@@ -17239,11 +17239,11 @@
       </c>
       <c r="E352" t="inlineStr">
         <is>
-          <t>Transportes TMS Limitada</t>
+          <t>Molina Quimicos S.A.</t>
         </is>
       </c>
       <c r="F352" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="G352" t="inlineStr">
         <is>
@@ -17257,7 +17257,7 @@
       </c>
       <c r="I352" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6003582&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6003607&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J352" t="inlineStr">
@@ -17272,7 +17272,7 @@
       </c>
       <c r="B353" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas entre la I, II y III Regiones"</t>
+          <t>Nuevas Instalaciones para Mantención Mina</t>
         </is>
       </c>
       <c r="C353" t="inlineStr">
@@ -17282,16 +17282,16 @@
       </c>
       <c r="D353" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E353" t="inlineStr">
         <is>
-          <t>Molina Quimicos S.A.</t>
+          <t>MINERA ESCONDIDA LIMITADA</t>
         </is>
       </c>
       <c r="F353" t="n">
-        <v>100</v>
+        <v>635000</v>
       </c>
       <c r="G353" t="inlineStr">
         <is>
@@ -17300,12 +17300,12 @@
       </c>
       <c r="H353" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I353" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6003607&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5931343&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J353" t="inlineStr">
@@ -19528,7 +19528,7 @@
       </c>
       <c r="B400" t="inlineStr">
         <is>
-          <t>II MODIFICACIÓN DIA "TRANSPORTE Y MANEJO IN SITU DE RESIDUOS SÓLIDOS Y LÍQUIDOS PELIGROSOS Y NO PELIGROSOS"</t>
+          <t>"Transporte de acido sulfurico concentrado para minera Las Cenizas, Taltal."</t>
         </is>
       </c>
       <c r="C400" t="inlineStr">
@@ -19538,16 +19538,16 @@
       </c>
       <c r="D400" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E400" t="inlineStr">
         <is>
-          <t>Mol Ambiente S.A.</t>
+          <t>Translog S.A.</t>
         </is>
       </c>
       <c r="F400" t="n">
-        <v>75000</v>
+        <v>600</v>
       </c>
       <c r="G400" t="inlineStr">
         <is>
@@ -19556,12 +19556,12 @@
       </c>
       <c r="H400" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I400" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5118945&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5114868&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J400" t="inlineStr">
@@ -19576,7 +19576,7 @@
       </c>
       <c r="B401" t="inlineStr">
         <is>
-          <t>"Transporte de acido sulfurico concentrado para minera Las Cenizas, Taltal."</t>
+          <t>II MODIFICACIÓN DIA "TRANSPORTE Y MANEJO IN SITU DE RESIDUOS SÓLIDOS Y LÍQUIDOS PELIGROSOS Y NO PELIGROSOS"</t>
         </is>
       </c>
       <c r="C401" t="inlineStr">
@@ -19586,16 +19586,16 @@
       </c>
       <c r="D401" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E401" t="inlineStr">
         <is>
-          <t>Translog S.A.</t>
+          <t>Mol Ambiente S.A.</t>
         </is>
       </c>
       <c r="F401" t="n">
-        <v>600</v>
+        <v>75000</v>
       </c>
       <c r="G401" t="inlineStr">
         <is>
@@ -19604,12 +19604,12 @@
       </c>
       <c r="H401" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I401" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5114868&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5118945&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J401" t="inlineStr">
@@ -21064,7 +21064,7 @@
       </c>
       <c r="B432" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE RESIDUOS PELIGROSOS POR RUTAS DE LA REGIÓN DE ANTOFAGASTA</t>
+          <t>Proyecto Laboratorios Químicos CIMM T&amp;S SA. La Negra</t>
         </is>
       </c>
       <c r="C432" t="inlineStr">
@@ -21079,11 +21079,11 @@
       </c>
       <c r="E432" t="inlineStr">
         <is>
-          <t>Limfosep S.A</t>
+          <t>Yancko Gonzalez Rozas</t>
         </is>
       </c>
       <c r="F432" t="n">
-        <v>1000</v>
+        <v>8000</v>
       </c>
       <c r="G432" t="inlineStr">
         <is>
@@ -21092,12 +21092,12 @@
       </c>
       <c r="H432" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I432" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4698232&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4670031&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J432" t="inlineStr">
@@ -21112,7 +21112,7 @@
       </c>
       <c r="B433" t="inlineStr">
         <is>
-          <t>Proyecto Laboratorios Químicos CIMM T&amp;S SA. La Negra</t>
+          <t>TRANSPORTE DE RESIDUOS PELIGROSOS POR RUTAS DE LA REGIÓN DE ANTOFAGASTA</t>
         </is>
       </c>
       <c r="C433" t="inlineStr">
@@ -21127,11 +21127,11 @@
       </c>
       <c r="E433" t="inlineStr">
         <is>
-          <t>Yancko Gonzalez Rozas</t>
+          <t>Limfosep S.A</t>
         </is>
       </c>
       <c r="F433" t="n">
-        <v>8000</v>
+        <v>1000</v>
       </c>
       <c r="G433" t="inlineStr">
         <is>
@@ -21140,12 +21140,12 @@
       </c>
       <c r="H433" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I433" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4670031&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4698232&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J433" t="inlineStr">
@@ -21544,7 +21544,7 @@
       </c>
       <c r="B442" t="inlineStr">
         <is>
-          <t>EXPANSION DEPOSITO DE RELAVES FILTRADOS FAENA EL PEÑÓN</t>
+          <t>Nuevo Transporte Interregional de Cianuro de Sodio</t>
         </is>
       </c>
       <c r="C442" t="inlineStr">
@@ -21554,16 +21554,16 @@
       </c>
       <c r="D442" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E442" t="inlineStr">
         <is>
-          <t>Minera Meridian Limitada</t>
+          <t>OXIQUIM S.A.</t>
         </is>
       </c>
       <c r="F442" t="n">
-        <v>688</v>
+        <v>85</v>
       </c>
       <c r="G442" t="inlineStr">
         <is>
@@ -21572,12 +21572,12 @@
       </c>
       <c r="H442" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I442" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4601640&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4594007&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J442" t="inlineStr">
@@ -21592,7 +21592,7 @@
       </c>
       <c r="B443" t="inlineStr">
         <is>
-          <t>Nuevo Transporte Interregional de Cianuro de Sodio</t>
+          <t>EXPANSION DEPOSITO DE RELAVES FILTRADOS FAENA EL PEÑÓN</t>
         </is>
       </c>
       <c r="C443" t="inlineStr">
@@ -21602,16 +21602,16 @@
       </c>
       <c r="D443" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E443" t="inlineStr">
         <is>
-          <t>OXIQUIM S.A.</t>
+          <t>Minera Meridian Limitada</t>
         </is>
       </c>
       <c r="F443" t="n">
-        <v>85</v>
+        <v>688</v>
       </c>
       <c r="G443" t="inlineStr">
         <is>
@@ -21620,12 +21620,12 @@
       </c>
       <c r="H443" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I443" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4594007&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4601640&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J443" t="inlineStr">
@@ -24088,7 +24088,7 @@
       </c>
       <c r="B495" t="inlineStr">
         <is>
-          <t>Proyecto Tratamiento de Polvos Metalurgicos de Otras Fundiciones (e-seia)</t>
+          <t>Transporte de Residuos Peligrosos CMR Norte (e-seia)</t>
         </is>
       </c>
       <c r="C495" t="inlineStr">
@@ -24103,11 +24103,11 @@
       </c>
       <c r="E495" t="inlineStr">
         <is>
-          <t>Complejo Metalurgico Altonorte S.A.</t>
+          <t>Soluciones Ambientales del Norte S. A.</t>
         </is>
       </c>
       <c r="F495" t="n">
-        <v>320</v>
+        <v>250</v>
       </c>
       <c r="G495" t="inlineStr">
         <is>
@@ -24121,7 +24121,7 @@
       </c>
       <c r="I495" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4061206&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4063042&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J495" t="inlineStr">
@@ -24136,7 +24136,7 @@
       </c>
       <c r="B496" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos CMR Norte (e-seia)</t>
+          <t>Proyecto Tratamiento de Polvos Metalurgicos de Otras Fundiciones (e-seia)</t>
         </is>
       </c>
       <c r="C496" t="inlineStr">
@@ -24151,11 +24151,11 @@
       </c>
       <c r="E496" t="inlineStr">
         <is>
-          <t>Soluciones Ambientales del Norte S. A.</t>
+          <t>Complejo Metalurgico Altonorte S.A.</t>
         </is>
       </c>
       <c r="F496" t="n">
-        <v>250</v>
+        <v>320</v>
       </c>
       <c r="G496" t="inlineStr">
         <is>
@@ -24169,7 +24169,7 @@
       </c>
       <c r="I496" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4063042&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4061206&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J496" t="inlineStr">

--- a/data/Antofagasta.xlsx
+++ b/data/Antofagasta.xlsx
@@ -15764,7 +15764,7 @@
       </c>
       <c r="H321" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Caducado</t>
         </is>
       </c>
       <c r="I321" t="inlineStr">
@@ -15812,7 +15812,7 @@
       </c>
       <c r="H322" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Caducado</t>
         </is>
       </c>
       <c r="I322" t="inlineStr">

--- a/data/Antofagasta.xlsx
+++ b/data/Antofagasta.xlsx
@@ -11060,7 +11060,7 @@
       </c>
       <c r="H223" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Caducado</t>
         </is>
       </c>
       <c r="I223" t="inlineStr">

--- a/data/Antofagasta.xlsx
+++ b/data/Antofagasta.xlsx
@@ -14756,7 +14756,7 @@
       </c>
       <c r="H300" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Caducado</t>
         </is>
       </c>
       <c r="I300" t="inlineStr">

--- a/data/Antofagasta.xlsx
+++ b/data/Antofagasta.xlsx
@@ -11224,7 +11224,7 @@
       </c>
       <c r="B227" t="inlineStr">
         <is>
-          <t>Transporte Interregional de Sustancias Peligrosas - AGREDUCAM VI Región</t>
+          <t>Planta de Fabricación de Tuberías PEX (polietileno reticulado)</t>
         </is>
       </c>
       <c r="C227" t="inlineStr">
@@ -11234,16 +11234,16 @@
       </c>
       <c r="D227" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E227" t="inlineStr">
         <is>
-          <t>Asociación Gremial de Dueños de Camiones de la Sexta Región</t>
+          <t>CROSSPIPE SYSTEMS S.A.</t>
         </is>
       </c>
       <c r="F227" t="n">
-        <v>1200</v>
+        <v>12400</v>
       </c>
       <c r="G227" t="inlineStr">
         <is>
@@ -11257,7 +11257,7 @@
       </c>
       <c r="I227" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128964620&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128954293&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J227" t="inlineStr">
@@ -11272,7 +11272,7 @@
       </c>
       <c r="B228" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos por las Rutas Indicadas</t>
+          <t>Transporte Interregional de Sustancias Peligrosas - AGREDUCAM VI Región</t>
         </is>
       </c>
       <c r="C228" t="inlineStr">
@@ -11287,11 +11287,11 @@
       </c>
       <c r="E228" t="inlineStr">
         <is>
-          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
+          <t>Asociación Gremial de Dueños de Camiones de la Sexta Región</t>
         </is>
       </c>
       <c r="F228" t="n">
-        <v>0</v>
+        <v>1200</v>
       </c>
       <c r="G228" t="inlineStr">
         <is>
@@ -11305,7 +11305,7 @@
       </c>
       <c r="I228" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128972489&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128964620&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J228" t="inlineStr">
@@ -11320,7 +11320,7 @@
       </c>
       <c r="B229" t="inlineStr">
         <is>
-          <t>Planta de Fabricación de Tuberías PEX (polietileno reticulado)</t>
+          <t>Transporte de Residuos Peligrosos por las Rutas Indicadas</t>
         </is>
       </c>
       <c r="C229" t="inlineStr">
@@ -11330,16 +11330,16 @@
       </c>
       <c r="D229" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E229" t="inlineStr">
         <is>
-          <t>CROSSPIPE SYSTEMS S.A.</t>
+          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
         </is>
       </c>
       <c r="F229" t="n">
-        <v>12400</v>
+        <v>0</v>
       </c>
       <c r="G229" t="inlineStr">
         <is>
@@ -11353,7 +11353,7 @@
       </c>
       <c r="I229" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128954293&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128972489&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J229" t="inlineStr">
@@ -12952,26 +12952,26 @@
       </c>
       <c r="B263" t="inlineStr">
         <is>
-          <t>RT Sulfuros</t>
+          <t>Transporte de Sustancias Peligrosas Transaltisa Chile Ltda</t>
         </is>
       </c>
       <c r="C263" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D263" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E263" t="inlineStr">
         <is>
-          <t>CODELCO Chile, División Radomiro Tomic</t>
+          <t>Transaltisa Chile Ltda.</t>
         </is>
       </c>
       <c r="F263" t="n">
-        <v>5.4</v>
+        <v>2050</v>
       </c>
       <c r="G263" t="inlineStr">
         <is>
@@ -12980,12 +12980,12 @@
       </c>
       <c r="H263" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I263" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8210090&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8218613&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J263" t="inlineStr">
@@ -13000,26 +13000,26 @@
       </c>
       <c r="B264" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas Transaltisa Chile Ltda</t>
+          <t>RT Sulfuros</t>
         </is>
       </c>
       <c r="C264" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D264" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E264" t="inlineStr">
         <is>
-          <t>Transaltisa Chile Ltda.</t>
+          <t>CODELCO Chile, División Radomiro Tomic</t>
         </is>
       </c>
       <c r="F264" t="n">
-        <v>2050</v>
+        <v>5.4</v>
       </c>
       <c r="G264" t="inlineStr">
         <is>
@@ -13028,12 +13028,12 @@
       </c>
       <c r="H264" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I264" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8218613&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8210090&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J264" t="inlineStr">
@@ -15688,7 +15688,7 @@
       </c>
       <c r="B320" t="inlineStr">
         <is>
-          <t>Parque Fotovoltaico Los Andes</t>
+          <t>CENTRO DE RECUPERACIÓN DE TAMBORES Y CONTENEDORES IBC CONTAMINADOS, PLAMBIENTAL LA NEGRA</t>
         </is>
       </c>
       <c r="C320" t="inlineStr">
@@ -15703,11 +15703,11 @@
       </c>
       <c r="E320" t="inlineStr">
         <is>
-          <t>Andes Solar SPA</t>
+          <t>VEOLIA SERVICIOS MINEROS INTEGRALES CHILE SpA</t>
         </is>
       </c>
       <c r="F320" t="n">
-        <v>572000</v>
+        <v>60</v>
       </c>
       <c r="G320" t="inlineStr">
         <is>
@@ -15716,12 +15716,12 @@
       </c>
       <c r="H320" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Caducado</t>
         </is>
       </c>
       <c r="I320" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6581267&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6592870&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J320" t="inlineStr">
@@ -15736,7 +15736,7 @@
       </c>
       <c r="B321" t="inlineStr">
         <is>
-          <t>CENTRO DE RECUPERACIÓN DE TAMBORES Y CONTENEDORES IBC CONTAMINADOS, PLAMBIENTAL LA NEGRA</t>
+          <t>CENTRO DE ALMACENAMIENTO DE RESIDUOS INDUSTRIALES, GESAM LA NEGRA</t>
         </is>
       </c>
       <c r="C321" t="inlineStr">
@@ -15755,7 +15755,7 @@
         </is>
       </c>
       <c r="F321" t="n">
-        <v>60</v>
+        <v>360</v>
       </c>
       <c r="G321" t="inlineStr">
         <is>
@@ -15769,7 +15769,7 @@
       </c>
       <c r="I321" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6592870&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6595234&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J321" t="inlineStr">
@@ -15784,7 +15784,7 @@
       </c>
       <c r="B322" t="inlineStr">
         <is>
-          <t>CENTRO DE ALMACENAMIENTO DE RESIDUOS INDUSTRIALES, GESAM LA NEGRA</t>
+          <t>Parque Fotovoltaico Los Andes</t>
         </is>
       </c>
       <c r="C322" t="inlineStr">
@@ -15799,11 +15799,11 @@
       </c>
       <c r="E322" t="inlineStr">
         <is>
-          <t>VEOLIA SERVICIOS MINEROS INTEGRALES CHILE SpA</t>
+          <t>Andes Solar SPA</t>
         </is>
       </c>
       <c r="F322" t="n">
-        <v>360</v>
+        <v>572000</v>
       </c>
       <c r="G322" t="inlineStr">
         <is>
@@ -15812,12 +15812,12 @@
       </c>
       <c r="H322" t="inlineStr">
         <is>
-          <t>Caducado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I322" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6595234&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6581267&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J322" t="inlineStr">
@@ -16648,7 +16648,7 @@
       </c>
       <c r="B340" t="inlineStr">
         <is>
-          <t>Extracción de Áridos Empréstito E17L</t>
+          <t>Modificación Proyecto Transporte de Acido Sulfurico a granel entre la Primera y Décima Regiones de Chile</t>
         </is>
       </c>
       <c r="C340" t="inlineStr">
@@ -16658,16 +16658,16 @@
       </c>
       <c r="D340" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E340" t="inlineStr">
         <is>
-          <t>Skanska Chile S.A.</t>
+          <t>Transportes Herrmann Limitada</t>
         </is>
       </c>
       <c r="F340" t="n">
-        <v>500</v>
+        <v>0</v>
       </c>
       <c r="G340" t="inlineStr">
         <is>
@@ -16676,12 +16676,12 @@
       </c>
       <c r="H340" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I340" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6156264&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6159602&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J340" t="inlineStr">
@@ -16696,7 +16696,7 @@
       </c>
       <c r="B341" t="inlineStr">
         <is>
-          <t>Modificación Proyecto Transporte de Acido Sulfurico a granel entre la Primera y Décima Regiones de Chile</t>
+          <t>Extracción de Áridos Empréstito E17L</t>
         </is>
       </c>
       <c r="C341" t="inlineStr">
@@ -16706,16 +16706,16 @@
       </c>
       <c r="D341" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E341" t="inlineStr">
         <is>
-          <t>Transportes Herrmann Limitada</t>
+          <t>Skanska Chile S.A.</t>
         </is>
       </c>
       <c r="F341" t="n">
-        <v>0</v>
+        <v>500</v>
       </c>
       <c r="G341" t="inlineStr">
         <is>
@@ -16724,12 +16724,12 @@
       </c>
       <c r="H341" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I341" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6159602&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6156264&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J341" t="inlineStr">
@@ -17176,7 +17176,7 @@
       </c>
       <c r="B351" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos</t>
+          <t>Nuevas Instalaciones para Mantención Mina</t>
         </is>
       </c>
       <c r="C351" t="inlineStr">
@@ -17186,16 +17186,16 @@
       </c>
       <c r="D351" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E351" t="inlineStr">
         <is>
-          <t>Transportes TMS Limitada</t>
+          <t>MINERA ESCONDIDA LIMITADA</t>
         </is>
       </c>
       <c r="F351" t="n">
-        <v>200</v>
+        <v>635000</v>
       </c>
       <c r="G351" t="inlineStr">
         <is>
@@ -17204,12 +17204,12 @@
       </c>
       <c r="H351" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I351" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6003582&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5931343&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J351" t="inlineStr">
@@ -17224,7 +17224,7 @@
       </c>
       <c r="B352" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas entre la I, II y III Regiones"</t>
+          <t>Transporte de Residuos Peligrosos</t>
         </is>
       </c>
       <c r="C352" t="inlineStr">
@@ -17239,11 +17239,11 @@
       </c>
       <c r="E352" t="inlineStr">
         <is>
-          <t>Molina Quimicos S.A.</t>
+          <t>Transportes TMS Limitada</t>
         </is>
       </c>
       <c r="F352" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="G352" t="inlineStr">
         <is>
@@ -17257,7 +17257,7 @@
       </c>
       <c r="I352" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6003607&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6003582&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J352" t="inlineStr">
@@ -17272,7 +17272,7 @@
       </c>
       <c r="B353" t="inlineStr">
         <is>
-          <t>Nuevas Instalaciones para Mantención Mina</t>
+          <t>Transporte de Sustancias Peligrosas entre la I, II y III Regiones"</t>
         </is>
       </c>
       <c r="C353" t="inlineStr">
@@ -17282,16 +17282,16 @@
       </c>
       <c r="D353" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E353" t="inlineStr">
         <is>
-          <t>MINERA ESCONDIDA LIMITADA</t>
+          <t>Molina Quimicos S.A.</t>
         </is>
       </c>
       <c r="F353" t="n">
-        <v>635000</v>
+        <v>100</v>
       </c>
       <c r="G353" t="inlineStr">
         <is>
@@ -17300,12 +17300,12 @@
       </c>
       <c r="H353" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I353" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5931343&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6003607&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J353" t="inlineStr">
@@ -19528,7 +19528,7 @@
       </c>
       <c r="B400" t="inlineStr">
         <is>
-          <t>"Transporte de acido sulfurico concentrado para minera Las Cenizas, Taltal."</t>
+          <t>II MODIFICACIÓN DIA "TRANSPORTE Y MANEJO IN SITU DE RESIDUOS SÓLIDOS Y LÍQUIDOS PELIGROSOS Y NO PELIGROSOS"</t>
         </is>
       </c>
       <c r="C400" t="inlineStr">
@@ -19538,16 +19538,16 @@
       </c>
       <c r="D400" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E400" t="inlineStr">
         <is>
-          <t>Translog S.A.</t>
+          <t>Mol Ambiente S.A.</t>
         </is>
       </c>
       <c r="F400" t="n">
-        <v>600</v>
+        <v>75000</v>
       </c>
       <c r="G400" t="inlineStr">
         <is>
@@ -19556,12 +19556,12 @@
       </c>
       <c r="H400" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I400" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5114868&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5118945&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J400" t="inlineStr">
@@ -19576,7 +19576,7 @@
       </c>
       <c r="B401" t="inlineStr">
         <is>
-          <t>II MODIFICACIÓN DIA "TRANSPORTE Y MANEJO IN SITU DE RESIDUOS SÓLIDOS Y LÍQUIDOS PELIGROSOS Y NO PELIGROSOS"</t>
+          <t>"Transporte de acido sulfurico concentrado para minera Las Cenizas, Taltal."</t>
         </is>
       </c>
       <c r="C401" t="inlineStr">
@@ -19586,16 +19586,16 @@
       </c>
       <c r="D401" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E401" t="inlineStr">
         <is>
-          <t>Mol Ambiente S.A.</t>
+          <t>Translog S.A.</t>
         </is>
       </c>
       <c r="F401" t="n">
-        <v>75000</v>
+        <v>600</v>
       </c>
       <c r="G401" t="inlineStr">
         <is>
@@ -19604,12 +19604,12 @@
       </c>
       <c r="H401" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I401" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5118945&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5114868&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J401" t="inlineStr">
@@ -21064,7 +21064,7 @@
       </c>
       <c r="B432" t="inlineStr">
         <is>
-          <t>Proyecto Laboratorios Químicos CIMM T&amp;S SA. La Negra</t>
+          <t>TRANSPORTE DE RESIDUOS PELIGROSOS POR RUTAS DE LA REGIÓN DE ANTOFAGASTA</t>
         </is>
       </c>
       <c r="C432" t="inlineStr">
@@ -21079,11 +21079,11 @@
       </c>
       <c r="E432" t="inlineStr">
         <is>
-          <t>Yancko Gonzalez Rozas</t>
+          <t>Limfosep S.A</t>
         </is>
       </c>
       <c r="F432" t="n">
-        <v>8000</v>
+        <v>1000</v>
       </c>
       <c r="G432" t="inlineStr">
         <is>
@@ -21092,12 +21092,12 @@
       </c>
       <c r="H432" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I432" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4670031&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4698232&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J432" t="inlineStr">
@@ -21112,7 +21112,7 @@
       </c>
       <c r="B433" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE RESIDUOS PELIGROSOS POR RUTAS DE LA REGIÓN DE ANTOFAGASTA</t>
+          <t>Proyecto Laboratorios Químicos CIMM T&amp;S SA. La Negra</t>
         </is>
       </c>
       <c r="C433" t="inlineStr">
@@ -21127,11 +21127,11 @@
       </c>
       <c r="E433" t="inlineStr">
         <is>
-          <t>Limfosep S.A</t>
+          <t>Yancko Gonzalez Rozas</t>
         </is>
       </c>
       <c r="F433" t="n">
-        <v>1000</v>
+        <v>8000</v>
       </c>
       <c r="G433" t="inlineStr">
         <is>
@@ -21140,12 +21140,12 @@
       </c>
       <c r="H433" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I433" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4698232&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4670031&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J433" t="inlineStr">
@@ -21544,7 +21544,7 @@
       </c>
       <c r="B442" t="inlineStr">
         <is>
-          <t>Nuevo Transporte Interregional de Cianuro de Sodio</t>
+          <t>EXPANSION DEPOSITO DE RELAVES FILTRADOS FAENA EL PEÑÓN</t>
         </is>
       </c>
       <c r="C442" t="inlineStr">
@@ -21554,16 +21554,16 @@
       </c>
       <c r="D442" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E442" t="inlineStr">
         <is>
-          <t>OXIQUIM S.A.</t>
+          <t>Minera Meridian Limitada</t>
         </is>
       </c>
       <c r="F442" t="n">
-        <v>85</v>
+        <v>688</v>
       </c>
       <c r="G442" t="inlineStr">
         <is>
@@ -21572,12 +21572,12 @@
       </c>
       <c r="H442" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I442" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4594007&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4601640&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J442" t="inlineStr">
@@ -21592,7 +21592,7 @@
       </c>
       <c r="B443" t="inlineStr">
         <is>
-          <t>EXPANSION DEPOSITO DE RELAVES FILTRADOS FAENA EL PEÑÓN</t>
+          <t>Nuevo Transporte Interregional de Cianuro de Sodio</t>
         </is>
       </c>
       <c r="C443" t="inlineStr">
@@ -21602,16 +21602,16 @@
       </c>
       <c r="D443" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E443" t="inlineStr">
         <is>
-          <t>Minera Meridian Limitada</t>
+          <t>OXIQUIM S.A.</t>
         </is>
       </c>
       <c r="F443" t="n">
-        <v>688</v>
+        <v>85</v>
       </c>
       <c r="G443" t="inlineStr">
         <is>
@@ -21620,12 +21620,12 @@
       </c>
       <c r="H443" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I443" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4601640&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4594007&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J443" t="inlineStr">
@@ -24088,7 +24088,7 @@
       </c>
       <c r="B495" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos CMR Norte (e-seia)</t>
+          <t>Proyecto Tratamiento de Polvos Metalurgicos de Otras Fundiciones (e-seia)</t>
         </is>
       </c>
       <c r="C495" t="inlineStr">
@@ -24103,11 +24103,11 @@
       </c>
       <c r="E495" t="inlineStr">
         <is>
-          <t>Soluciones Ambientales del Norte S. A.</t>
+          <t>Complejo Metalurgico Altonorte S.A.</t>
         </is>
       </c>
       <c r="F495" t="n">
-        <v>250</v>
+        <v>320</v>
       </c>
       <c r="G495" t="inlineStr">
         <is>
@@ -24121,7 +24121,7 @@
       </c>
       <c r="I495" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4063042&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4061206&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J495" t="inlineStr">
@@ -24136,7 +24136,7 @@
       </c>
       <c r="B496" t="inlineStr">
         <is>
-          <t>Proyecto Tratamiento de Polvos Metalurgicos de Otras Fundiciones (e-seia)</t>
+          <t>Transporte de Residuos Peligrosos CMR Norte (e-seia)</t>
         </is>
       </c>
       <c r="C496" t="inlineStr">
@@ -24151,11 +24151,11 @@
       </c>
       <c r="E496" t="inlineStr">
         <is>
-          <t>Complejo Metalurgico Altonorte S.A.</t>
+          <t>Soluciones Ambientales del Norte S. A.</t>
         </is>
       </c>
       <c r="F496" t="n">
-        <v>320</v>
+        <v>250</v>
       </c>
       <c r="G496" t="inlineStr">
         <is>
@@ -24169,7 +24169,7 @@
       </c>
       <c r="I496" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4061206&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4063042&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J496" t="inlineStr">

--- a/data/Antofagasta.xlsx
+++ b/data/Antofagasta.xlsx
@@ -11224,7 +11224,7 @@
       </c>
       <c r="B227" t="inlineStr">
         <is>
-          <t>Planta de Fabricación de Tuberías PEX (polietileno reticulado)</t>
+          <t>Transporte Interregional de Sustancias Peligrosas - AGREDUCAM VI Región</t>
         </is>
       </c>
       <c r="C227" t="inlineStr">
@@ -11234,16 +11234,16 @@
       </c>
       <c r="D227" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E227" t="inlineStr">
         <is>
-          <t>CROSSPIPE SYSTEMS S.A.</t>
+          <t>Asociación Gremial de Dueños de Camiones de la Sexta Región</t>
         </is>
       </c>
       <c r="F227" t="n">
-        <v>12400</v>
+        <v>1200</v>
       </c>
       <c r="G227" t="inlineStr">
         <is>
@@ -11257,7 +11257,7 @@
       </c>
       <c r="I227" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128954293&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128964620&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J227" t="inlineStr">
@@ -11272,7 +11272,7 @@
       </c>
       <c r="B228" t="inlineStr">
         <is>
-          <t>Transporte Interregional de Sustancias Peligrosas - AGREDUCAM VI Región</t>
+          <t>Transporte de Residuos Peligrosos por las Rutas Indicadas</t>
         </is>
       </c>
       <c r="C228" t="inlineStr">
@@ -11287,11 +11287,11 @@
       </c>
       <c r="E228" t="inlineStr">
         <is>
-          <t>Asociación Gremial de Dueños de Camiones de la Sexta Región</t>
+          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
         </is>
       </c>
       <c r="F228" t="n">
-        <v>1200</v>
+        <v>0</v>
       </c>
       <c r="G228" t="inlineStr">
         <is>
@@ -11305,7 +11305,7 @@
       </c>
       <c r="I228" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128964620&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128972489&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J228" t="inlineStr">
@@ -11320,7 +11320,7 @@
       </c>
       <c r="B229" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos por las Rutas Indicadas</t>
+          <t>Planta de Fabricación de Tuberías PEX (polietileno reticulado)</t>
         </is>
       </c>
       <c r="C229" t="inlineStr">
@@ -11330,16 +11330,16 @@
       </c>
       <c r="D229" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E229" t="inlineStr">
         <is>
-          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
+          <t>CROSSPIPE SYSTEMS S.A.</t>
         </is>
       </c>
       <c r="F229" t="n">
-        <v>0</v>
+        <v>12400</v>
       </c>
       <c r="G229" t="inlineStr">
         <is>
@@ -11353,7 +11353,7 @@
       </c>
       <c r="I229" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128972489&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128954293&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J229" t="inlineStr">
@@ -12952,26 +12952,26 @@
       </c>
       <c r="B263" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas Transaltisa Chile Ltda</t>
+          <t>RT Sulfuros</t>
         </is>
       </c>
       <c r="C263" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D263" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E263" t="inlineStr">
         <is>
-          <t>Transaltisa Chile Ltda.</t>
+          <t>CODELCO Chile, División Radomiro Tomic</t>
         </is>
       </c>
       <c r="F263" t="n">
-        <v>2050</v>
+        <v>5.4</v>
       </c>
       <c r="G263" t="inlineStr">
         <is>
@@ -12980,12 +12980,12 @@
       </c>
       <c r="H263" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I263" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8218613&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8210090&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J263" t="inlineStr">
@@ -13000,26 +13000,26 @@
       </c>
       <c r="B264" t="inlineStr">
         <is>
-          <t>RT Sulfuros</t>
+          <t>Transporte de Sustancias Peligrosas Transaltisa Chile Ltda</t>
         </is>
       </c>
       <c r="C264" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D264" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E264" t="inlineStr">
         <is>
-          <t>CODELCO Chile, División Radomiro Tomic</t>
+          <t>Transaltisa Chile Ltda.</t>
         </is>
       </c>
       <c r="F264" t="n">
-        <v>5.4</v>
+        <v>2050</v>
       </c>
       <c r="G264" t="inlineStr">
         <is>
@@ -13028,12 +13028,12 @@
       </c>
       <c r="H264" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I264" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8210090&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8218613&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J264" t="inlineStr">
@@ -15688,7 +15688,7 @@
       </c>
       <c r="B320" t="inlineStr">
         <is>
-          <t>CENTRO DE RECUPERACIÓN DE TAMBORES Y CONTENEDORES IBC CONTAMINADOS, PLAMBIENTAL LA NEGRA</t>
+          <t>Parque Fotovoltaico Los Andes</t>
         </is>
       </c>
       <c r="C320" t="inlineStr">
@@ -15703,11 +15703,11 @@
       </c>
       <c r="E320" t="inlineStr">
         <is>
-          <t>VEOLIA SERVICIOS MINEROS INTEGRALES CHILE SpA</t>
+          <t>Andes Solar SPA</t>
         </is>
       </c>
       <c r="F320" t="n">
-        <v>60</v>
+        <v>572000</v>
       </c>
       <c r="G320" t="inlineStr">
         <is>
@@ -15716,12 +15716,12 @@
       </c>
       <c r="H320" t="inlineStr">
         <is>
-          <t>Caducado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I320" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6592870&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6581267&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J320" t="inlineStr">
@@ -15736,7 +15736,7 @@
       </c>
       <c r="B321" t="inlineStr">
         <is>
-          <t>CENTRO DE ALMACENAMIENTO DE RESIDUOS INDUSTRIALES, GESAM LA NEGRA</t>
+          <t>CENTRO DE RECUPERACIÓN DE TAMBORES Y CONTENEDORES IBC CONTAMINADOS, PLAMBIENTAL LA NEGRA</t>
         </is>
       </c>
       <c r="C321" t="inlineStr">
@@ -15755,7 +15755,7 @@
         </is>
       </c>
       <c r="F321" t="n">
-        <v>360</v>
+        <v>60</v>
       </c>
       <c r="G321" t="inlineStr">
         <is>
@@ -15769,7 +15769,7 @@
       </c>
       <c r="I321" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6595234&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6592870&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J321" t="inlineStr">
@@ -15784,7 +15784,7 @@
       </c>
       <c r="B322" t="inlineStr">
         <is>
-          <t>Parque Fotovoltaico Los Andes</t>
+          <t>CENTRO DE ALMACENAMIENTO DE RESIDUOS INDUSTRIALES, GESAM LA NEGRA</t>
         </is>
       </c>
       <c r="C322" t="inlineStr">
@@ -15799,11 +15799,11 @@
       </c>
       <c r="E322" t="inlineStr">
         <is>
-          <t>Andes Solar SPA</t>
+          <t>VEOLIA SERVICIOS MINEROS INTEGRALES CHILE SpA</t>
         </is>
       </c>
       <c r="F322" t="n">
-        <v>572000</v>
+        <v>360</v>
       </c>
       <c r="G322" t="inlineStr">
         <is>
@@ -15812,12 +15812,12 @@
       </c>
       <c r="H322" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Caducado</t>
         </is>
       </c>
       <c r="I322" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6581267&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6595234&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J322" t="inlineStr">
@@ -16648,7 +16648,7 @@
       </c>
       <c r="B340" t="inlineStr">
         <is>
-          <t>Modificación Proyecto Transporte de Acido Sulfurico a granel entre la Primera y Décima Regiones de Chile</t>
+          <t>Extracción de Áridos Empréstito E17L</t>
         </is>
       </c>
       <c r="C340" t="inlineStr">
@@ -16658,16 +16658,16 @@
       </c>
       <c r="D340" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E340" t="inlineStr">
         <is>
-          <t>Transportes Herrmann Limitada</t>
+          <t>Skanska Chile S.A.</t>
         </is>
       </c>
       <c r="F340" t="n">
-        <v>0</v>
+        <v>500</v>
       </c>
       <c r="G340" t="inlineStr">
         <is>
@@ -16676,12 +16676,12 @@
       </c>
       <c r="H340" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I340" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6159602&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6156264&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J340" t="inlineStr">
@@ -16696,7 +16696,7 @@
       </c>
       <c r="B341" t="inlineStr">
         <is>
-          <t>Extracción de Áridos Empréstito E17L</t>
+          <t>Modificación Proyecto Transporte de Acido Sulfurico a granel entre la Primera y Décima Regiones de Chile</t>
         </is>
       </c>
       <c r="C341" t="inlineStr">
@@ -16706,16 +16706,16 @@
       </c>
       <c r="D341" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E341" t="inlineStr">
         <is>
-          <t>Skanska Chile S.A.</t>
+          <t>Transportes Herrmann Limitada</t>
         </is>
       </c>
       <c r="F341" t="n">
-        <v>500</v>
+        <v>0</v>
       </c>
       <c r="G341" t="inlineStr">
         <is>
@@ -16724,12 +16724,12 @@
       </c>
       <c r="H341" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I341" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6156264&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6159602&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J341" t="inlineStr">
@@ -17176,7 +17176,7 @@
       </c>
       <c r="B351" t="inlineStr">
         <is>
-          <t>Nuevas Instalaciones para Mantención Mina</t>
+          <t>Transporte de Residuos Peligrosos</t>
         </is>
       </c>
       <c r="C351" t="inlineStr">
@@ -17186,16 +17186,16 @@
       </c>
       <c r="D351" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E351" t="inlineStr">
         <is>
-          <t>MINERA ESCONDIDA LIMITADA</t>
+          <t>Transportes TMS Limitada</t>
         </is>
       </c>
       <c r="F351" t="n">
-        <v>635000</v>
+        <v>200</v>
       </c>
       <c r="G351" t="inlineStr">
         <is>
@@ -17204,12 +17204,12 @@
       </c>
       <c r="H351" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I351" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5931343&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6003582&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J351" t="inlineStr">
@@ -17224,7 +17224,7 @@
       </c>
       <c r="B352" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos</t>
+          <t>Transporte de Sustancias Peligrosas entre la I, II y III Regiones"</t>
         </is>
       </c>
       <c r="C352" t="inlineStr">
@@ -17239,11 +17239,11 @@
       </c>
       <c r="E352" t="inlineStr">
         <is>
-          <t>Transportes TMS Limitada</t>
+          <t>Molina Quimicos S.A.</t>
         </is>
       </c>
       <c r="F352" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="G352" t="inlineStr">
         <is>
@@ -17257,7 +17257,7 @@
       </c>
       <c r="I352" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6003582&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6003607&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J352" t="inlineStr">
@@ -17272,7 +17272,7 @@
       </c>
       <c r="B353" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas entre la I, II y III Regiones"</t>
+          <t>Nuevas Instalaciones para Mantención Mina</t>
         </is>
       </c>
       <c r="C353" t="inlineStr">
@@ -17282,16 +17282,16 @@
       </c>
       <c r="D353" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E353" t="inlineStr">
         <is>
-          <t>Molina Quimicos S.A.</t>
+          <t>MINERA ESCONDIDA LIMITADA</t>
         </is>
       </c>
       <c r="F353" t="n">
-        <v>100</v>
+        <v>635000</v>
       </c>
       <c r="G353" t="inlineStr">
         <is>
@@ -17300,12 +17300,12 @@
       </c>
       <c r="H353" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I353" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6003607&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5931343&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J353" t="inlineStr">
@@ -19528,7 +19528,7 @@
       </c>
       <c r="B400" t="inlineStr">
         <is>
-          <t>II MODIFICACIÓN DIA "TRANSPORTE Y MANEJO IN SITU DE RESIDUOS SÓLIDOS Y LÍQUIDOS PELIGROSOS Y NO PELIGROSOS"</t>
+          <t>"Transporte de acido sulfurico concentrado para minera Las Cenizas, Taltal."</t>
         </is>
       </c>
       <c r="C400" t="inlineStr">
@@ -19538,16 +19538,16 @@
       </c>
       <c r="D400" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E400" t="inlineStr">
         <is>
-          <t>Mol Ambiente S.A.</t>
+          <t>Translog S.A.</t>
         </is>
       </c>
       <c r="F400" t="n">
-        <v>75000</v>
+        <v>600</v>
       </c>
       <c r="G400" t="inlineStr">
         <is>
@@ -19556,12 +19556,12 @@
       </c>
       <c r="H400" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I400" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5118945&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5114868&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J400" t="inlineStr">
@@ -19576,7 +19576,7 @@
       </c>
       <c r="B401" t="inlineStr">
         <is>
-          <t>"Transporte de acido sulfurico concentrado para minera Las Cenizas, Taltal."</t>
+          <t>II MODIFICACIÓN DIA "TRANSPORTE Y MANEJO IN SITU DE RESIDUOS SÓLIDOS Y LÍQUIDOS PELIGROSOS Y NO PELIGROSOS"</t>
         </is>
       </c>
       <c r="C401" t="inlineStr">
@@ -19586,16 +19586,16 @@
       </c>
       <c r="D401" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E401" t="inlineStr">
         <is>
-          <t>Translog S.A.</t>
+          <t>Mol Ambiente S.A.</t>
         </is>
       </c>
       <c r="F401" t="n">
-        <v>600</v>
+        <v>75000</v>
       </c>
       <c r="G401" t="inlineStr">
         <is>
@@ -19604,12 +19604,12 @@
       </c>
       <c r="H401" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I401" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5114868&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5118945&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J401" t="inlineStr">
@@ -21064,7 +21064,7 @@
       </c>
       <c r="B432" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE RESIDUOS PELIGROSOS POR RUTAS DE LA REGIÓN DE ANTOFAGASTA</t>
+          <t>Proyecto Laboratorios Químicos CIMM T&amp;S SA. La Negra</t>
         </is>
       </c>
       <c r="C432" t="inlineStr">
@@ -21079,11 +21079,11 @@
       </c>
       <c r="E432" t="inlineStr">
         <is>
-          <t>Limfosep S.A</t>
+          <t>Yancko Gonzalez Rozas</t>
         </is>
       </c>
       <c r="F432" t="n">
-        <v>1000</v>
+        <v>8000</v>
       </c>
       <c r="G432" t="inlineStr">
         <is>
@@ -21092,12 +21092,12 @@
       </c>
       <c r="H432" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I432" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4698232&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4670031&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J432" t="inlineStr">
@@ -21112,7 +21112,7 @@
       </c>
       <c r="B433" t="inlineStr">
         <is>
-          <t>Proyecto Laboratorios Químicos CIMM T&amp;S SA. La Negra</t>
+          <t>TRANSPORTE DE RESIDUOS PELIGROSOS POR RUTAS DE LA REGIÓN DE ANTOFAGASTA</t>
         </is>
       </c>
       <c r="C433" t="inlineStr">
@@ -21127,11 +21127,11 @@
       </c>
       <c r="E433" t="inlineStr">
         <is>
-          <t>Yancko Gonzalez Rozas</t>
+          <t>Limfosep S.A</t>
         </is>
       </c>
       <c r="F433" t="n">
-        <v>8000</v>
+        <v>1000</v>
       </c>
       <c r="G433" t="inlineStr">
         <is>
@@ -21140,12 +21140,12 @@
       </c>
       <c r="H433" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I433" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4670031&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4698232&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J433" t="inlineStr">
@@ -21544,7 +21544,7 @@
       </c>
       <c r="B442" t="inlineStr">
         <is>
-          <t>EXPANSION DEPOSITO DE RELAVES FILTRADOS FAENA EL PEÑÓN</t>
+          <t>Nuevo Transporte Interregional de Cianuro de Sodio</t>
         </is>
       </c>
       <c r="C442" t="inlineStr">
@@ -21554,16 +21554,16 @@
       </c>
       <c r="D442" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E442" t="inlineStr">
         <is>
-          <t>Minera Meridian Limitada</t>
+          <t>OXIQUIM S.A.</t>
         </is>
       </c>
       <c r="F442" t="n">
-        <v>688</v>
+        <v>85</v>
       </c>
       <c r="G442" t="inlineStr">
         <is>
@@ -21572,12 +21572,12 @@
       </c>
       <c r="H442" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I442" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4601640&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4594007&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J442" t="inlineStr">
@@ -21592,7 +21592,7 @@
       </c>
       <c r="B443" t="inlineStr">
         <is>
-          <t>Nuevo Transporte Interregional de Cianuro de Sodio</t>
+          <t>EXPANSION DEPOSITO DE RELAVES FILTRADOS FAENA EL PEÑÓN</t>
         </is>
       </c>
       <c r="C443" t="inlineStr">
@@ -21602,16 +21602,16 @@
       </c>
       <c r="D443" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E443" t="inlineStr">
         <is>
-          <t>OXIQUIM S.A.</t>
+          <t>Minera Meridian Limitada</t>
         </is>
       </c>
       <c r="F443" t="n">
-        <v>85</v>
+        <v>688</v>
       </c>
       <c r="G443" t="inlineStr">
         <is>
@@ -21620,12 +21620,12 @@
       </c>
       <c r="H443" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I443" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4594007&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4601640&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J443" t="inlineStr">
@@ -24088,7 +24088,7 @@
       </c>
       <c r="B495" t="inlineStr">
         <is>
-          <t>Proyecto Tratamiento de Polvos Metalurgicos de Otras Fundiciones (e-seia)</t>
+          <t>Transporte de Residuos Peligrosos CMR Norte (e-seia)</t>
         </is>
       </c>
       <c r="C495" t="inlineStr">
@@ -24103,11 +24103,11 @@
       </c>
       <c r="E495" t="inlineStr">
         <is>
-          <t>Complejo Metalurgico Altonorte S.A.</t>
+          <t>Soluciones Ambientales del Norte S. A.</t>
         </is>
       </c>
       <c r="F495" t="n">
-        <v>320</v>
+        <v>250</v>
       </c>
       <c r="G495" t="inlineStr">
         <is>
@@ -24121,7 +24121,7 @@
       </c>
       <c r="I495" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4061206&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4063042&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J495" t="inlineStr">
@@ -24136,7 +24136,7 @@
       </c>
       <c r="B496" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos CMR Norte (e-seia)</t>
+          <t>Proyecto Tratamiento de Polvos Metalurgicos de Otras Fundiciones (e-seia)</t>
         </is>
       </c>
       <c r="C496" t="inlineStr">
@@ -24151,11 +24151,11 @@
       </c>
       <c r="E496" t="inlineStr">
         <is>
-          <t>Soluciones Ambientales del Norte S. A.</t>
+          <t>Complejo Metalurgico Altonorte S.A.</t>
         </is>
       </c>
       <c r="F496" t="n">
-        <v>250</v>
+        <v>320</v>
       </c>
       <c r="G496" t="inlineStr">
         <is>
@@ -24169,7 +24169,7 @@
       </c>
       <c r="I496" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4063042&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4061206&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J496" t="inlineStr">

--- a/data/Antofagasta.xlsx
+++ b/data/Antofagasta.xlsx
@@ -11272,7 +11272,7 @@
       </c>
       <c r="B228" t="inlineStr">
         <is>
-          <t>Transporte Interregional de Sustancias Peligrosas - AGREDUCAM VI Región</t>
+          <t>Planta de Fabricación de Tuberías PEX (polietileno reticulado)</t>
         </is>
       </c>
       <c r="C228" t="inlineStr">
@@ -11282,16 +11282,16 @@
       </c>
       <c r="D228" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E228" t="inlineStr">
         <is>
-          <t>Asociación Gremial de Dueños de Camiones de la Sexta Región</t>
+          <t>CROSSPIPE SYSTEMS S.A.</t>
         </is>
       </c>
       <c r="F228" t="n">
-        <v>1200</v>
+        <v>12400</v>
       </c>
       <c r="G228" t="inlineStr">
         <is>
@@ -11305,7 +11305,7 @@
       </c>
       <c r="I228" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128964620&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128954293&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J228" t="inlineStr">
@@ -11320,7 +11320,7 @@
       </c>
       <c r="B229" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos por las Rutas Indicadas</t>
+          <t>Transporte Interregional de Sustancias Peligrosas - AGREDUCAM VI Región</t>
         </is>
       </c>
       <c r="C229" t="inlineStr">
@@ -11335,11 +11335,11 @@
       </c>
       <c r="E229" t="inlineStr">
         <is>
-          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
+          <t>Asociación Gremial de Dueños de Camiones de la Sexta Región</t>
         </is>
       </c>
       <c r="F229" t="n">
-        <v>0</v>
+        <v>1200</v>
       </c>
       <c r="G229" t="inlineStr">
         <is>
@@ -11353,7 +11353,7 @@
       </c>
       <c r="I229" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128972489&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128964620&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J229" t="inlineStr">
@@ -11368,7 +11368,7 @@
       </c>
       <c r="B230" t="inlineStr">
         <is>
-          <t>Planta de Fabricación de Tuberías PEX (polietileno reticulado)</t>
+          <t>Transporte de Residuos Peligrosos por las Rutas Indicadas</t>
         </is>
       </c>
       <c r="C230" t="inlineStr">
@@ -11378,16 +11378,16 @@
       </c>
       <c r="D230" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E230" t="inlineStr">
         <is>
-          <t>CROSSPIPE SYSTEMS S.A.</t>
+          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
         </is>
       </c>
       <c r="F230" t="n">
-        <v>12400</v>
+        <v>0</v>
       </c>
       <c r="G230" t="inlineStr">
         <is>
@@ -11401,7 +11401,7 @@
       </c>
       <c r="I230" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128954293&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128972489&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J230" t="inlineStr">
@@ -13000,26 +13000,26 @@
       </c>
       <c r="B264" t="inlineStr">
         <is>
-          <t>RT Sulfuros</t>
+          <t>Transporte de Sustancias Peligrosas Transaltisa Chile Ltda</t>
         </is>
       </c>
       <c r="C264" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D264" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E264" t="inlineStr">
         <is>
-          <t>CODELCO Chile, División Radomiro Tomic</t>
+          <t>Transaltisa Chile Ltda.</t>
         </is>
       </c>
       <c r="F264" t="n">
-        <v>5.4</v>
+        <v>2050</v>
       </c>
       <c r="G264" t="inlineStr">
         <is>
@@ -13028,12 +13028,12 @@
       </c>
       <c r="H264" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I264" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8210090&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8218613&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J264" t="inlineStr">
@@ -13048,26 +13048,26 @@
       </c>
       <c r="B265" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas Transaltisa Chile Ltda</t>
+          <t>RT Sulfuros</t>
         </is>
       </c>
       <c r="C265" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D265" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E265" t="inlineStr">
         <is>
-          <t>Transaltisa Chile Ltda.</t>
+          <t>CODELCO Chile, División Radomiro Tomic</t>
         </is>
       </c>
       <c r="F265" t="n">
-        <v>2050</v>
+        <v>5.4</v>
       </c>
       <c r="G265" t="inlineStr">
         <is>
@@ -13076,12 +13076,12 @@
       </c>
       <c r="H265" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I265" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8218613&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8210090&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J265" t="inlineStr">
@@ -15736,7 +15736,7 @@
       </c>
       <c r="B321" t="inlineStr">
         <is>
-          <t>Parque Fotovoltaico Los Andes</t>
+          <t>CENTRO DE RECUPERACIÓN DE TAMBORES Y CONTENEDORES IBC CONTAMINADOS, PLAMBIENTAL LA NEGRA</t>
         </is>
       </c>
       <c r="C321" t="inlineStr">
@@ -15751,11 +15751,11 @@
       </c>
       <c r="E321" t="inlineStr">
         <is>
-          <t>Andes Solar SPA</t>
+          <t>VEOLIA SERVICIOS MINEROS INTEGRALES CHILE SpA</t>
         </is>
       </c>
       <c r="F321" t="n">
-        <v>572000</v>
+        <v>60</v>
       </c>
       <c r="G321" t="inlineStr">
         <is>
@@ -15764,12 +15764,12 @@
       </c>
       <c r="H321" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Caducado</t>
         </is>
       </c>
       <c r="I321" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6581267&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6592870&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J321" t="inlineStr">
@@ -15784,7 +15784,7 @@
       </c>
       <c r="B322" t="inlineStr">
         <is>
-          <t>CENTRO DE RECUPERACIÓN DE TAMBORES Y CONTENEDORES IBC CONTAMINADOS, PLAMBIENTAL LA NEGRA</t>
+          <t>CENTRO DE ALMACENAMIENTO DE RESIDUOS INDUSTRIALES, GESAM LA NEGRA</t>
         </is>
       </c>
       <c r="C322" t="inlineStr">
@@ -15803,7 +15803,7 @@
         </is>
       </c>
       <c r="F322" t="n">
-        <v>60</v>
+        <v>360</v>
       </c>
       <c r="G322" t="inlineStr">
         <is>
@@ -15817,7 +15817,7 @@
       </c>
       <c r="I322" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6592870&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6595234&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J322" t="inlineStr">
@@ -15832,7 +15832,7 @@
       </c>
       <c r="B323" t="inlineStr">
         <is>
-          <t>CENTRO DE ALMACENAMIENTO DE RESIDUOS INDUSTRIALES, GESAM LA NEGRA</t>
+          <t>Parque Fotovoltaico Los Andes</t>
         </is>
       </c>
       <c r="C323" t="inlineStr">
@@ -15847,11 +15847,11 @@
       </c>
       <c r="E323" t="inlineStr">
         <is>
-          <t>VEOLIA SERVICIOS MINEROS INTEGRALES CHILE SpA</t>
+          <t>Andes Solar SPA</t>
         </is>
       </c>
       <c r="F323" t="n">
-        <v>360</v>
+        <v>572000</v>
       </c>
       <c r="G323" t="inlineStr">
         <is>
@@ -15860,12 +15860,12 @@
       </c>
       <c r="H323" t="inlineStr">
         <is>
-          <t>Caducado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I323" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6595234&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6581267&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J323" t="inlineStr">
@@ -16696,7 +16696,7 @@
       </c>
       <c r="B341" t="inlineStr">
         <is>
-          <t>Extracción de Áridos Empréstito E17L</t>
+          <t>Modificación Proyecto Transporte de Acido Sulfurico a granel entre la Primera y Décima Regiones de Chile</t>
         </is>
       </c>
       <c r="C341" t="inlineStr">
@@ -16706,16 +16706,16 @@
       </c>
       <c r="D341" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E341" t="inlineStr">
         <is>
-          <t>Skanska Chile S.A.</t>
+          <t>Transportes Herrmann Limitada</t>
         </is>
       </c>
       <c r="F341" t="n">
-        <v>500</v>
+        <v>0</v>
       </c>
       <c r="G341" t="inlineStr">
         <is>
@@ -16724,12 +16724,12 @@
       </c>
       <c r="H341" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I341" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6156264&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6159602&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J341" t="inlineStr">
@@ -16744,7 +16744,7 @@
       </c>
       <c r="B342" t="inlineStr">
         <is>
-          <t>Modificación Proyecto Transporte de Acido Sulfurico a granel entre la Primera y Décima Regiones de Chile</t>
+          <t>Extracción de Áridos Empréstito E17L</t>
         </is>
       </c>
       <c r="C342" t="inlineStr">
@@ -16754,16 +16754,16 @@
       </c>
       <c r="D342" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E342" t="inlineStr">
         <is>
-          <t>Transportes Herrmann Limitada</t>
+          <t>Skanska Chile S.A.</t>
         </is>
       </c>
       <c r="F342" t="n">
-        <v>0</v>
+        <v>500</v>
       </c>
       <c r="G342" t="inlineStr">
         <is>
@@ -16772,12 +16772,12 @@
       </c>
       <c r="H342" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I342" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6159602&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6156264&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J342" t="inlineStr">
@@ -17224,7 +17224,7 @@
       </c>
       <c r="B352" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos</t>
+          <t>Nuevas Instalaciones para Mantención Mina</t>
         </is>
       </c>
       <c r="C352" t="inlineStr">
@@ -17234,16 +17234,16 @@
       </c>
       <c r="D352" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E352" t="inlineStr">
         <is>
-          <t>Transportes TMS Limitada</t>
+          <t>MINERA ESCONDIDA LIMITADA</t>
         </is>
       </c>
       <c r="F352" t="n">
-        <v>200</v>
+        <v>635000</v>
       </c>
       <c r="G352" t="inlineStr">
         <is>
@@ -17252,12 +17252,12 @@
       </c>
       <c r="H352" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I352" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6003582&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5931343&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J352" t="inlineStr">
@@ -17272,7 +17272,7 @@
       </c>
       <c r="B353" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas entre la I, II y III Regiones"</t>
+          <t>Transporte de Residuos Peligrosos</t>
         </is>
       </c>
       <c r="C353" t="inlineStr">
@@ -17287,11 +17287,11 @@
       </c>
       <c r="E353" t="inlineStr">
         <is>
-          <t>Molina Quimicos S.A.</t>
+          <t>Transportes TMS Limitada</t>
         </is>
       </c>
       <c r="F353" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="G353" t="inlineStr">
         <is>
@@ -17305,7 +17305,7 @@
       </c>
       <c r="I353" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6003607&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6003582&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J353" t="inlineStr">
@@ -17320,7 +17320,7 @@
       </c>
       <c r="B354" t="inlineStr">
         <is>
-          <t>Nuevas Instalaciones para Mantención Mina</t>
+          <t>Transporte de Sustancias Peligrosas entre la I, II y III Regiones"</t>
         </is>
       </c>
       <c r="C354" t="inlineStr">
@@ -17330,16 +17330,16 @@
       </c>
       <c r="D354" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E354" t="inlineStr">
         <is>
-          <t>MINERA ESCONDIDA LIMITADA</t>
+          <t>Molina Quimicos S.A.</t>
         </is>
       </c>
       <c r="F354" t="n">
-        <v>635000</v>
+        <v>100</v>
       </c>
       <c r="G354" t="inlineStr">
         <is>
@@ -17348,12 +17348,12 @@
       </c>
       <c r="H354" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I354" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5931343&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6003607&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J354" t="inlineStr">
@@ -19576,7 +19576,7 @@
       </c>
       <c r="B401" t="inlineStr">
         <is>
-          <t>"Transporte de acido sulfurico concentrado para minera Las Cenizas, Taltal."</t>
+          <t>II MODIFICACIÓN DIA "TRANSPORTE Y MANEJO IN SITU DE RESIDUOS SÓLIDOS Y LÍQUIDOS PELIGROSOS Y NO PELIGROSOS"</t>
         </is>
       </c>
       <c r="C401" t="inlineStr">
@@ -19586,16 +19586,16 @@
       </c>
       <c r="D401" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E401" t="inlineStr">
         <is>
-          <t>Translog S.A.</t>
+          <t>Mol Ambiente S.A.</t>
         </is>
       </c>
       <c r="F401" t="n">
-        <v>600</v>
+        <v>75000</v>
       </c>
       <c r="G401" t="inlineStr">
         <is>
@@ -19604,12 +19604,12 @@
       </c>
       <c r="H401" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I401" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5114868&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5118945&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J401" t="inlineStr">
@@ -19624,7 +19624,7 @@
       </c>
       <c r="B402" t="inlineStr">
         <is>
-          <t>II MODIFICACIÓN DIA "TRANSPORTE Y MANEJO IN SITU DE RESIDUOS SÓLIDOS Y LÍQUIDOS PELIGROSOS Y NO PELIGROSOS"</t>
+          <t>"Transporte de acido sulfurico concentrado para minera Las Cenizas, Taltal."</t>
         </is>
       </c>
       <c r="C402" t="inlineStr">
@@ -19634,16 +19634,16 @@
       </c>
       <c r="D402" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E402" t="inlineStr">
         <is>
-          <t>Mol Ambiente S.A.</t>
+          <t>Translog S.A.</t>
         </is>
       </c>
       <c r="F402" t="n">
-        <v>75000</v>
+        <v>600</v>
       </c>
       <c r="G402" t="inlineStr">
         <is>
@@ -19652,12 +19652,12 @@
       </c>
       <c r="H402" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I402" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5118945&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5114868&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J402" t="inlineStr">
@@ -21112,7 +21112,7 @@
       </c>
       <c r="B433" t="inlineStr">
         <is>
-          <t>Proyecto Laboratorios Químicos CIMM T&amp;S SA. La Negra</t>
+          <t>TRANSPORTE DE RESIDUOS PELIGROSOS POR RUTAS DE LA REGIÓN DE ANTOFAGASTA</t>
         </is>
       </c>
       <c r="C433" t="inlineStr">
@@ -21127,11 +21127,11 @@
       </c>
       <c r="E433" t="inlineStr">
         <is>
-          <t>Yancko Gonzalez Rozas</t>
+          <t>Limfosep S.A</t>
         </is>
       </c>
       <c r="F433" t="n">
-        <v>8000</v>
+        <v>1000</v>
       </c>
       <c r="G433" t="inlineStr">
         <is>
@@ -21140,12 +21140,12 @@
       </c>
       <c r="H433" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I433" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4670031&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4698232&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J433" t="inlineStr">
@@ -21160,7 +21160,7 @@
       </c>
       <c r="B434" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE RESIDUOS PELIGROSOS POR RUTAS DE LA REGIÓN DE ANTOFAGASTA</t>
+          <t>Proyecto Laboratorios Químicos CIMM T&amp;S SA. La Negra</t>
         </is>
       </c>
       <c r="C434" t="inlineStr">
@@ -21175,11 +21175,11 @@
       </c>
       <c r="E434" t="inlineStr">
         <is>
-          <t>Limfosep S.A</t>
+          <t>Yancko Gonzalez Rozas</t>
         </is>
       </c>
       <c r="F434" t="n">
-        <v>1000</v>
+        <v>8000</v>
       </c>
       <c r="G434" t="inlineStr">
         <is>
@@ -21188,12 +21188,12 @@
       </c>
       <c r="H434" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I434" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4698232&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4670031&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J434" t="inlineStr">
@@ -21592,7 +21592,7 @@
       </c>
       <c r="B443" t="inlineStr">
         <is>
-          <t>Nuevo Transporte Interregional de Cianuro de Sodio</t>
+          <t>EXPANSION DEPOSITO DE RELAVES FILTRADOS FAENA EL PEÑÓN</t>
         </is>
       </c>
       <c r="C443" t="inlineStr">
@@ -21602,16 +21602,16 @@
       </c>
       <c r="D443" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E443" t="inlineStr">
         <is>
-          <t>OXIQUIM S.A.</t>
+          <t>Minera Meridian Limitada</t>
         </is>
       </c>
       <c r="F443" t="n">
-        <v>85</v>
+        <v>688</v>
       </c>
       <c r="G443" t="inlineStr">
         <is>
@@ -21620,12 +21620,12 @@
       </c>
       <c r="H443" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I443" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4594007&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4601640&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J443" t="inlineStr">
@@ -21640,7 +21640,7 @@
       </c>
       <c r="B444" t="inlineStr">
         <is>
-          <t>EXPANSION DEPOSITO DE RELAVES FILTRADOS FAENA EL PEÑÓN</t>
+          <t>Nuevo Transporte Interregional de Cianuro de Sodio</t>
         </is>
       </c>
       <c r="C444" t="inlineStr">
@@ -21650,16 +21650,16 @@
       </c>
       <c r="D444" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E444" t="inlineStr">
         <is>
-          <t>Minera Meridian Limitada</t>
+          <t>OXIQUIM S.A.</t>
         </is>
       </c>
       <c r="F444" t="n">
-        <v>688</v>
+        <v>85</v>
       </c>
       <c r="G444" t="inlineStr">
         <is>
@@ -21668,12 +21668,12 @@
       </c>
       <c r="H444" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I444" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4601640&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4594007&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J444" t="inlineStr">
@@ -22408,7 +22408,7 @@
       </c>
       <c r="B460" t="inlineStr">
         <is>
-          <t>Transporte de Barros Anódicos</t>
+          <t>Transporte de Residuos Peligroso, Transporte Bello</t>
         </is>
       </c>
       <c r="C460" t="inlineStr">
@@ -22423,11 +22423,11 @@
       </c>
       <c r="E460" t="inlineStr">
         <is>
-          <t>CODELCO CHILE</t>
+          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
         </is>
       </c>
       <c r="F460" t="n">
-        <v>0</v>
+        <v>4050</v>
       </c>
       <c r="G460" t="inlineStr">
         <is>
@@ -22441,7 +22441,7 @@
       </c>
       <c r="I460" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4429880&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4455518&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J460" t="inlineStr">
@@ -22456,7 +22456,7 @@
       </c>
       <c r="B461" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligroso, Transporte Bello</t>
+          <t>Transporte de Barros Anódicos</t>
         </is>
       </c>
       <c r="C461" t="inlineStr">
@@ -22471,11 +22471,11 @@
       </c>
       <c r="E461" t="inlineStr">
         <is>
-          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
+          <t>CODELCO CHILE</t>
         </is>
       </c>
       <c r="F461" t="n">
-        <v>4050</v>
+        <v>0</v>
       </c>
       <c r="G461" t="inlineStr">
         <is>
@@ -22489,7 +22489,7 @@
       </c>
       <c r="I461" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4455518&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4429880&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J461" t="inlineStr">
@@ -22600,7 +22600,7 @@
       </c>
       <c r="B464" t="inlineStr">
         <is>
-          <t>Transporte y Almacenamiento temporal de Residuos Peligrosos M&amp;M ltda.</t>
+          <t>Modificacion Proyecto Minero Algorta Sector Pampa</t>
         </is>
       </c>
       <c r="C464" t="inlineStr">
@@ -22610,16 +22610,16 @@
       </c>
       <c r="D464" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E464" t="inlineStr">
         <is>
-          <t>Transportes Moscoso y Moscoso Ltda.</t>
+          <t>Algorta Norte S.A</t>
         </is>
       </c>
       <c r="F464" t="n">
-        <v>41075</v>
+        <v>6400</v>
       </c>
       <c r="G464" t="inlineStr">
         <is>
@@ -22633,7 +22633,7 @@
       </c>
       <c r="I464" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4422237&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4432700&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J464" t="inlineStr">
@@ -22648,7 +22648,7 @@
       </c>
       <c r="B465" t="inlineStr">
         <is>
-          <t>Modificacion Proyecto Minero Algorta Sector Pampa</t>
+          <t>Transporte y Almacenamiento temporal de Residuos Peligrosos M&amp;M ltda.</t>
         </is>
       </c>
       <c r="C465" t="inlineStr">
@@ -22658,16 +22658,16 @@
       </c>
       <c r="D465" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E465" t="inlineStr">
         <is>
-          <t>Algorta Norte S.A</t>
+          <t>Transportes Moscoso y Moscoso Ltda.</t>
         </is>
       </c>
       <c r="F465" t="n">
-        <v>6400</v>
+        <v>41075</v>
       </c>
       <c r="G465" t="inlineStr">
         <is>
@@ -22681,7 +22681,7 @@
       </c>
       <c r="I465" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4432700&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4422237&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J465" t="inlineStr">
@@ -24136,7 +24136,7 @@
       </c>
       <c r="B496" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos CMR Norte (e-seia)</t>
+          <t>Proyecto Tratamiento de Polvos Metalurgicos de Otras Fundiciones (e-seia)</t>
         </is>
       </c>
       <c r="C496" t="inlineStr">
@@ -24151,11 +24151,11 @@
       </c>
       <c r="E496" t="inlineStr">
         <is>
-          <t>Soluciones Ambientales del Norte S. A.</t>
+          <t>Complejo Metalurgico Altonorte S.A.</t>
         </is>
       </c>
       <c r="F496" t="n">
-        <v>250</v>
+        <v>320</v>
       </c>
       <c r="G496" t="inlineStr">
         <is>
@@ -24169,7 +24169,7 @@
       </c>
       <c r="I496" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4063042&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4061206&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J496" t="inlineStr">
@@ -24184,7 +24184,7 @@
       </c>
       <c r="B497" t="inlineStr">
         <is>
-          <t>Proyecto Tratamiento de Polvos Metalurgicos de Otras Fundiciones (e-seia)</t>
+          <t>Transporte de Residuos Peligrosos CMR Norte (e-seia)</t>
         </is>
       </c>
       <c r="C497" t="inlineStr">
@@ -24199,11 +24199,11 @@
       </c>
       <c r="E497" t="inlineStr">
         <is>
-          <t>Complejo Metalurgico Altonorte S.A.</t>
+          <t>Soluciones Ambientales del Norte S. A.</t>
         </is>
       </c>
       <c r="F497" t="n">
-        <v>320</v>
+        <v>250</v>
       </c>
       <c r="G497" t="inlineStr">
         <is>
@@ -24217,7 +24217,7 @@
       </c>
       <c r="I497" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4061206&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4063042&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J497" t="inlineStr">

--- a/data/Antofagasta.xlsx
+++ b/data/Antofagasta.xlsx
@@ -11272,7 +11272,7 @@
       </c>
       <c r="B228" t="inlineStr">
         <is>
-          <t>Planta de Fabricación de Tuberías PEX (polietileno reticulado)</t>
+          <t>Transporte Interregional de Sustancias Peligrosas - AGREDUCAM VI Región</t>
         </is>
       </c>
       <c r="C228" t="inlineStr">
@@ -11282,16 +11282,16 @@
       </c>
       <c r="D228" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E228" t="inlineStr">
         <is>
-          <t>CROSSPIPE SYSTEMS S.A.</t>
+          <t>Asociación Gremial de Dueños de Camiones de la Sexta Región</t>
         </is>
       </c>
       <c r="F228" t="n">
-        <v>12400</v>
+        <v>1200</v>
       </c>
       <c r="G228" t="inlineStr">
         <is>
@@ -11305,7 +11305,7 @@
       </c>
       <c r="I228" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128954293&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128964620&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J228" t="inlineStr">
@@ -11320,7 +11320,7 @@
       </c>
       <c r="B229" t="inlineStr">
         <is>
-          <t>Transporte Interregional de Sustancias Peligrosas - AGREDUCAM VI Región</t>
+          <t>Transporte de Residuos Peligrosos por las Rutas Indicadas</t>
         </is>
       </c>
       <c r="C229" t="inlineStr">
@@ -11335,11 +11335,11 @@
       </c>
       <c r="E229" t="inlineStr">
         <is>
-          <t>Asociación Gremial de Dueños de Camiones de la Sexta Región</t>
+          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
         </is>
       </c>
       <c r="F229" t="n">
-        <v>1200</v>
+        <v>0</v>
       </c>
       <c r="G229" t="inlineStr">
         <is>
@@ -11353,7 +11353,7 @@
       </c>
       <c r="I229" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128964620&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128972489&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J229" t="inlineStr">
@@ -11368,7 +11368,7 @@
       </c>
       <c r="B230" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos por las Rutas Indicadas</t>
+          <t>Planta de Fabricación de Tuberías PEX (polietileno reticulado)</t>
         </is>
       </c>
       <c r="C230" t="inlineStr">
@@ -11378,16 +11378,16 @@
       </c>
       <c r="D230" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E230" t="inlineStr">
         <is>
-          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
+          <t>CROSSPIPE SYSTEMS S.A.</t>
         </is>
       </c>
       <c r="F230" t="n">
-        <v>0</v>
+        <v>12400</v>
       </c>
       <c r="G230" t="inlineStr">
         <is>
@@ -11401,7 +11401,7 @@
       </c>
       <c r="I230" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128972489&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128954293&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J230" t="inlineStr">
@@ -13000,26 +13000,26 @@
       </c>
       <c r="B264" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas Transaltisa Chile Ltda</t>
+          <t>RT Sulfuros</t>
         </is>
       </c>
       <c r="C264" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D264" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E264" t="inlineStr">
         <is>
-          <t>Transaltisa Chile Ltda.</t>
+          <t>CODELCO Chile, División Radomiro Tomic</t>
         </is>
       </c>
       <c r="F264" t="n">
-        <v>2050</v>
+        <v>5.4</v>
       </c>
       <c r="G264" t="inlineStr">
         <is>
@@ -13028,12 +13028,12 @@
       </c>
       <c r="H264" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I264" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8218613&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8210090&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J264" t="inlineStr">
@@ -13048,26 +13048,26 @@
       </c>
       <c r="B265" t="inlineStr">
         <is>
-          <t>RT Sulfuros</t>
+          <t>Transporte de Sustancias Peligrosas Transaltisa Chile Ltda</t>
         </is>
       </c>
       <c r="C265" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D265" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E265" t="inlineStr">
         <is>
-          <t>CODELCO Chile, División Radomiro Tomic</t>
+          <t>Transaltisa Chile Ltda.</t>
         </is>
       </c>
       <c r="F265" t="n">
-        <v>5.4</v>
+        <v>2050</v>
       </c>
       <c r="G265" t="inlineStr">
         <is>
@@ -13076,12 +13076,12 @@
       </c>
       <c r="H265" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I265" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8210090&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8218613&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J265" t="inlineStr">
@@ -15736,7 +15736,7 @@
       </c>
       <c r="B321" t="inlineStr">
         <is>
-          <t>CENTRO DE RECUPERACIÓN DE TAMBORES Y CONTENEDORES IBC CONTAMINADOS, PLAMBIENTAL LA NEGRA</t>
+          <t>Parque Fotovoltaico Los Andes</t>
         </is>
       </c>
       <c r="C321" t="inlineStr">
@@ -15751,11 +15751,11 @@
       </c>
       <c r="E321" t="inlineStr">
         <is>
-          <t>VEOLIA SERVICIOS MINEROS INTEGRALES CHILE SpA</t>
+          <t>Andes Solar SPA</t>
         </is>
       </c>
       <c r="F321" t="n">
-        <v>60</v>
+        <v>572000</v>
       </c>
       <c r="G321" t="inlineStr">
         <is>
@@ -15764,12 +15764,12 @@
       </c>
       <c r="H321" t="inlineStr">
         <is>
-          <t>Caducado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I321" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6592870&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6581267&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J321" t="inlineStr">
@@ -15784,7 +15784,7 @@
       </c>
       <c r="B322" t="inlineStr">
         <is>
-          <t>CENTRO DE ALMACENAMIENTO DE RESIDUOS INDUSTRIALES, GESAM LA NEGRA</t>
+          <t>CENTRO DE RECUPERACIÓN DE TAMBORES Y CONTENEDORES IBC CONTAMINADOS, PLAMBIENTAL LA NEGRA</t>
         </is>
       </c>
       <c r="C322" t="inlineStr">
@@ -15803,7 +15803,7 @@
         </is>
       </c>
       <c r="F322" t="n">
-        <v>360</v>
+        <v>60</v>
       </c>
       <c r="G322" t="inlineStr">
         <is>
@@ -15817,7 +15817,7 @@
       </c>
       <c r="I322" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6595234&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6592870&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J322" t="inlineStr">
@@ -15832,7 +15832,7 @@
       </c>
       <c r="B323" t="inlineStr">
         <is>
-          <t>Parque Fotovoltaico Los Andes</t>
+          <t>CENTRO DE ALMACENAMIENTO DE RESIDUOS INDUSTRIALES, GESAM LA NEGRA</t>
         </is>
       </c>
       <c r="C323" t="inlineStr">
@@ -15847,11 +15847,11 @@
       </c>
       <c r="E323" t="inlineStr">
         <is>
-          <t>Andes Solar SPA</t>
+          <t>VEOLIA SERVICIOS MINEROS INTEGRALES CHILE SpA</t>
         </is>
       </c>
       <c r="F323" t="n">
-        <v>572000</v>
+        <v>360</v>
       </c>
       <c r="G323" t="inlineStr">
         <is>
@@ -15860,12 +15860,12 @@
       </c>
       <c r="H323" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Caducado</t>
         </is>
       </c>
       <c r="I323" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6581267&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6595234&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J323" t="inlineStr">
@@ -16696,7 +16696,7 @@
       </c>
       <c r="B341" t="inlineStr">
         <is>
-          <t>Modificación Proyecto Transporte de Acido Sulfurico a granel entre la Primera y Décima Regiones de Chile</t>
+          <t>Extracción de Áridos Empréstito E17L</t>
         </is>
       </c>
       <c r="C341" t="inlineStr">
@@ -16706,16 +16706,16 @@
       </c>
       <c r="D341" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E341" t="inlineStr">
         <is>
-          <t>Transportes Herrmann Limitada</t>
+          <t>Skanska Chile S.A.</t>
         </is>
       </c>
       <c r="F341" t="n">
-        <v>0</v>
+        <v>500</v>
       </c>
       <c r="G341" t="inlineStr">
         <is>
@@ -16724,12 +16724,12 @@
       </c>
       <c r="H341" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I341" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6159602&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6156264&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J341" t="inlineStr">
@@ -16744,7 +16744,7 @@
       </c>
       <c r="B342" t="inlineStr">
         <is>
-          <t>Extracción de Áridos Empréstito E17L</t>
+          <t>Modificación Proyecto Transporte de Acido Sulfurico a granel entre la Primera y Décima Regiones de Chile</t>
         </is>
       </c>
       <c r="C342" t="inlineStr">
@@ -16754,16 +16754,16 @@
       </c>
       <c r="D342" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E342" t="inlineStr">
         <is>
-          <t>Skanska Chile S.A.</t>
+          <t>Transportes Herrmann Limitada</t>
         </is>
       </c>
       <c r="F342" t="n">
-        <v>500</v>
+        <v>0</v>
       </c>
       <c r="G342" t="inlineStr">
         <is>
@@ -16772,12 +16772,12 @@
       </c>
       <c r="H342" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I342" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6156264&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6159602&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J342" t="inlineStr">
@@ -17224,7 +17224,7 @@
       </c>
       <c r="B352" t="inlineStr">
         <is>
-          <t>Nuevas Instalaciones para Mantención Mina</t>
+          <t>Transporte de Residuos Peligrosos</t>
         </is>
       </c>
       <c r="C352" t="inlineStr">
@@ -17234,16 +17234,16 @@
       </c>
       <c r="D352" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E352" t="inlineStr">
         <is>
-          <t>MINERA ESCONDIDA LIMITADA</t>
+          <t>Transportes TMS Limitada</t>
         </is>
       </c>
       <c r="F352" t="n">
-        <v>635000</v>
+        <v>200</v>
       </c>
       <c r="G352" t="inlineStr">
         <is>
@@ -17252,12 +17252,12 @@
       </c>
       <c r="H352" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I352" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5931343&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6003582&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J352" t="inlineStr">
@@ -17272,7 +17272,7 @@
       </c>
       <c r="B353" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos</t>
+          <t>Transporte de Sustancias Peligrosas entre la I, II y III Regiones"</t>
         </is>
       </c>
       <c r="C353" t="inlineStr">
@@ -17287,11 +17287,11 @@
       </c>
       <c r="E353" t="inlineStr">
         <is>
-          <t>Transportes TMS Limitada</t>
+          <t>Molina Quimicos S.A.</t>
         </is>
       </c>
       <c r="F353" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="G353" t="inlineStr">
         <is>
@@ -17305,7 +17305,7 @@
       </c>
       <c r="I353" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6003582&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6003607&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J353" t="inlineStr">
@@ -17320,7 +17320,7 @@
       </c>
       <c r="B354" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas entre la I, II y III Regiones"</t>
+          <t>Nuevas Instalaciones para Mantención Mina</t>
         </is>
       </c>
       <c r="C354" t="inlineStr">
@@ -17330,16 +17330,16 @@
       </c>
       <c r="D354" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E354" t="inlineStr">
         <is>
-          <t>Molina Quimicos S.A.</t>
+          <t>MINERA ESCONDIDA LIMITADA</t>
         </is>
       </c>
       <c r="F354" t="n">
-        <v>100</v>
+        <v>635000</v>
       </c>
       <c r="G354" t="inlineStr">
         <is>
@@ -17348,12 +17348,12 @@
       </c>
       <c r="H354" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I354" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6003607&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5931343&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J354" t="inlineStr">
@@ -19576,7 +19576,7 @@
       </c>
       <c r="B401" t="inlineStr">
         <is>
-          <t>II MODIFICACIÓN DIA "TRANSPORTE Y MANEJO IN SITU DE RESIDUOS SÓLIDOS Y LÍQUIDOS PELIGROSOS Y NO PELIGROSOS"</t>
+          <t>"Transporte de acido sulfurico concentrado para minera Las Cenizas, Taltal."</t>
         </is>
       </c>
       <c r="C401" t="inlineStr">
@@ -19586,16 +19586,16 @@
       </c>
       <c r="D401" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E401" t="inlineStr">
         <is>
-          <t>Mol Ambiente S.A.</t>
+          <t>Translog S.A.</t>
         </is>
       </c>
       <c r="F401" t="n">
-        <v>75000</v>
+        <v>600</v>
       </c>
       <c r="G401" t="inlineStr">
         <is>
@@ -19604,12 +19604,12 @@
       </c>
       <c r="H401" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I401" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5118945&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5114868&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J401" t="inlineStr">
@@ -19624,7 +19624,7 @@
       </c>
       <c r="B402" t="inlineStr">
         <is>
-          <t>"Transporte de acido sulfurico concentrado para minera Las Cenizas, Taltal."</t>
+          <t>II MODIFICACIÓN DIA "TRANSPORTE Y MANEJO IN SITU DE RESIDUOS SÓLIDOS Y LÍQUIDOS PELIGROSOS Y NO PELIGROSOS"</t>
         </is>
       </c>
       <c r="C402" t="inlineStr">
@@ -19634,16 +19634,16 @@
       </c>
       <c r="D402" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E402" t="inlineStr">
         <is>
-          <t>Translog S.A.</t>
+          <t>Mol Ambiente S.A.</t>
         </is>
       </c>
       <c r="F402" t="n">
-        <v>600</v>
+        <v>75000</v>
       </c>
       <c r="G402" t="inlineStr">
         <is>
@@ -19652,12 +19652,12 @@
       </c>
       <c r="H402" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I402" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5114868&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5118945&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J402" t="inlineStr">
@@ -21112,7 +21112,7 @@
       </c>
       <c r="B433" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE RESIDUOS PELIGROSOS POR RUTAS DE LA REGIÓN DE ANTOFAGASTA</t>
+          <t>Proyecto Laboratorios Químicos CIMM T&amp;S SA. La Negra</t>
         </is>
       </c>
       <c r="C433" t="inlineStr">
@@ -21127,11 +21127,11 @@
       </c>
       <c r="E433" t="inlineStr">
         <is>
-          <t>Limfosep S.A</t>
+          <t>Yancko Gonzalez Rozas</t>
         </is>
       </c>
       <c r="F433" t="n">
-        <v>1000</v>
+        <v>8000</v>
       </c>
       <c r="G433" t="inlineStr">
         <is>
@@ -21140,12 +21140,12 @@
       </c>
       <c r="H433" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I433" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4698232&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4670031&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J433" t="inlineStr">
@@ -21160,7 +21160,7 @@
       </c>
       <c r="B434" t="inlineStr">
         <is>
-          <t>Proyecto Laboratorios Químicos CIMM T&amp;S SA. La Negra</t>
+          <t>TRANSPORTE DE RESIDUOS PELIGROSOS POR RUTAS DE LA REGIÓN DE ANTOFAGASTA</t>
         </is>
       </c>
       <c r="C434" t="inlineStr">
@@ -21175,11 +21175,11 @@
       </c>
       <c r="E434" t="inlineStr">
         <is>
-          <t>Yancko Gonzalez Rozas</t>
+          <t>Limfosep S.A</t>
         </is>
       </c>
       <c r="F434" t="n">
-        <v>8000</v>
+        <v>1000</v>
       </c>
       <c r="G434" t="inlineStr">
         <is>
@@ -21188,12 +21188,12 @@
       </c>
       <c r="H434" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I434" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4670031&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4698232&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J434" t="inlineStr">
@@ -21592,7 +21592,7 @@
       </c>
       <c r="B443" t="inlineStr">
         <is>
-          <t>EXPANSION DEPOSITO DE RELAVES FILTRADOS FAENA EL PEÑÓN</t>
+          <t>Nuevo Transporte Interregional de Cianuro de Sodio</t>
         </is>
       </c>
       <c r="C443" t="inlineStr">
@@ -21602,16 +21602,16 @@
       </c>
       <c r="D443" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E443" t="inlineStr">
         <is>
-          <t>Minera Meridian Limitada</t>
+          <t>OXIQUIM S.A.</t>
         </is>
       </c>
       <c r="F443" t="n">
-        <v>688</v>
+        <v>85</v>
       </c>
       <c r="G443" t="inlineStr">
         <is>
@@ -21620,12 +21620,12 @@
       </c>
       <c r="H443" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I443" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4601640&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4594007&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J443" t="inlineStr">
@@ -21640,7 +21640,7 @@
       </c>
       <c r="B444" t="inlineStr">
         <is>
-          <t>Nuevo Transporte Interregional de Cianuro de Sodio</t>
+          <t>EXPANSION DEPOSITO DE RELAVES FILTRADOS FAENA EL PEÑÓN</t>
         </is>
       </c>
       <c r="C444" t="inlineStr">
@@ -21650,16 +21650,16 @@
       </c>
       <c r="D444" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E444" t="inlineStr">
         <is>
-          <t>OXIQUIM S.A.</t>
+          <t>Minera Meridian Limitada</t>
         </is>
       </c>
       <c r="F444" t="n">
-        <v>85</v>
+        <v>688</v>
       </c>
       <c r="G444" t="inlineStr">
         <is>
@@ -21668,12 +21668,12 @@
       </c>
       <c r="H444" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I444" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4594007&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4601640&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J444" t="inlineStr">
@@ -22408,7 +22408,7 @@
       </c>
       <c r="B460" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligroso, Transporte Bello</t>
+          <t>Transporte de Barros Anódicos</t>
         </is>
       </c>
       <c r="C460" t="inlineStr">
@@ -22423,11 +22423,11 @@
       </c>
       <c r="E460" t="inlineStr">
         <is>
-          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
+          <t>CODELCO CHILE</t>
         </is>
       </c>
       <c r="F460" t="n">
-        <v>4050</v>
+        <v>0</v>
       </c>
       <c r="G460" t="inlineStr">
         <is>
@@ -22441,7 +22441,7 @@
       </c>
       <c r="I460" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4455518&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4429880&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J460" t="inlineStr">
@@ -22456,7 +22456,7 @@
       </c>
       <c r="B461" t="inlineStr">
         <is>
-          <t>Transporte de Barros Anódicos</t>
+          <t>Transporte de Residuos Peligroso, Transporte Bello</t>
         </is>
       </c>
       <c r="C461" t="inlineStr">
@@ -22471,11 +22471,11 @@
       </c>
       <c r="E461" t="inlineStr">
         <is>
-          <t>CODELCO CHILE</t>
+          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
         </is>
       </c>
       <c r="F461" t="n">
-        <v>0</v>
+        <v>4050</v>
       </c>
       <c r="G461" t="inlineStr">
         <is>
@@ -22489,7 +22489,7 @@
       </c>
       <c r="I461" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4429880&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4455518&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J461" t="inlineStr">
@@ -22600,7 +22600,7 @@
       </c>
       <c r="B464" t="inlineStr">
         <is>
-          <t>Modificacion Proyecto Minero Algorta Sector Pampa</t>
+          <t>Transporte y Almacenamiento temporal de Residuos Peligrosos M&amp;M ltda.</t>
         </is>
       </c>
       <c r="C464" t="inlineStr">
@@ -22610,16 +22610,16 @@
       </c>
       <c r="D464" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E464" t="inlineStr">
         <is>
-          <t>Algorta Norte S.A</t>
+          <t>Transportes Moscoso y Moscoso Ltda.</t>
         </is>
       </c>
       <c r="F464" t="n">
-        <v>6400</v>
+        <v>41075</v>
       </c>
       <c r="G464" t="inlineStr">
         <is>
@@ -22633,7 +22633,7 @@
       </c>
       <c r="I464" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4432700&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4422237&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J464" t="inlineStr">
@@ -22648,7 +22648,7 @@
       </c>
       <c r="B465" t="inlineStr">
         <is>
-          <t>Transporte y Almacenamiento temporal de Residuos Peligrosos M&amp;M ltda.</t>
+          <t>Modificacion Proyecto Minero Algorta Sector Pampa</t>
         </is>
       </c>
       <c r="C465" t="inlineStr">
@@ -22658,16 +22658,16 @@
       </c>
       <c r="D465" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E465" t="inlineStr">
         <is>
-          <t>Transportes Moscoso y Moscoso Ltda.</t>
+          <t>Algorta Norte S.A</t>
         </is>
       </c>
       <c r="F465" t="n">
-        <v>41075</v>
+        <v>6400</v>
       </c>
       <c r="G465" t="inlineStr">
         <is>
@@ -22681,7 +22681,7 @@
       </c>
       <c r="I465" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4422237&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4432700&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J465" t="inlineStr">
@@ -24136,7 +24136,7 @@
       </c>
       <c r="B496" t="inlineStr">
         <is>
-          <t>Proyecto Tratamiento de Polvos Metalurgicos de Otras Fundiciones (e-seia)</t>
+          <t>Transporte de Residuos Peligrosos CMR Norte (e-seia)</t>
         </is>
       </c>
       <c r="C496" t="inlineStr">
@@ -24151,11 +24151,11 @@
       </c>
       <c r="E496" t="inlineStr">
         <is>
-          <t>Complejo Metalurgico Altonorte S.A.</t>
+          <t>Soluciones Ambientales del Norte S. A.</t>
         </is>
       </c>
       <c r="F496" t="n">
-        <v>320</v>
+        <v>250</v>
       </c>
       <c r="G496" t="inlineStr">
         <is>
@@ -24169,7 +24169,7 @@
       </c>
       <c r="I496" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4061206&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4063042&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J496" t="inlineStr">
@@ -24184,7 +24184,7 @@
       </c>
       <c r="B497" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos CMR Norte (e-seia)</t>
+          <t>Proyecto Tratamiento de Polvos Metalurgicos de Otras Fundiciones (e-seia)</t>
         </is>
       </c>
       <c r="C497" t="inlineStr">
@@ -24199,11 +24199,11 @@
       </c>
       <c r="E497" t="inlineStr">
         <is>
-          <t>Soluciones Ambientales del Norte S. A.</t>
+          <t>Complejo Metalurgico Altonorte S.A.</t>
         </is>
       </c>
       <c r="F497" t="n">
-        <v>250</v>
+        <v>320</v>
       </c>
       <c r="G497" t="inlineStr">
         <is>
@@ -24217,7 +24217,7 @@
       </c>
       <c r="I497" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4063042&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4061206&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J497" t="inlineStr">

--- a/data/Antofagasta.xlsx
+++ b/data/Antofagasta.xlsx
@@ -11320,7 +11320,7 @@
       </c>
       <c r="B229" t="inlineStr">
         <is>
-          <t>Planta de Fabricación de Tuberías PEX (polietileno reticulado)</t>
+          <t>Transporte Interregional de Sustancias Peligrosas - AGREDUCAM VI Región</t>
         </is>
       </c>
       <c r="C229" t="inlineStr">
@@ -11330,16 +11330,16 @@
       </c>
       <c r="D229" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E229" t="inlineStr">
         <is>
-          <t>CROSSPIPE SYSTEMS S.A.</t>
+          <t>Asociación Gremial de Dueños de Camiones de la Sexta Región</t>
         </is>
       </c>
       <c r="F229" t="n">
-        <v>12400</v>
+        <v>1200</v>
       </c>
       <c r="G229" t="inlineStr">
         <is>
@@ -11353,7 +11353,7 @@
       </c>
       <c r="I229" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128954293&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128964620&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J229" t="inlineStr">
@@ -11368,7 +11368,7 @@
       </c>
       <c r="B230" t="inlineStr">
         <is>
-          <t>Transporte Interregional de Sustancias Peligrosas - AGREDUCAM VI Región</t>
+          <t>Transporte de Residuos Peligrosos por las Rutas Indicadas</t>
         </is>
       </c>
       <c r="C230" t="inlineStr">
@@ -11383,11 +11383,11 @@
       </c>
       <c r="E230" t="inlineStr">
         <is>
-          <t>Asociación Gremial de Dueños de Camiones de la Sexta Región</t>
+          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
         </is>
       </c>
       <c r="F230" t="n">
-        <v>1200</v>
+        <v>0</v>
       </c>
       <c r="G230" t="inlineStr">
         <is>
@@ -11401,7 +11401,7 @@
       </c>
       <c r="I230" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128964620&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128972489&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J230" t="inlineStr">
@@ -11416,7 +11416,7 @@
       </c>
       <c r="B231" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos por las Rutas Indicadas</t>
+          <t>Planta de Fabricación de Tuberías PEX (polietileno reticulado)</t>
         </is>
       </c>
       <c r="C231" t="inlineStr">
@@ -11426,16 +11426,16 @@
       </c>
       <c r="D231" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E231" t="inlineStr">
         <is>
-          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
+          <t>CROSSPIPE SYSTEMS S.A.</t>
         </is>
       </c>
       <c r="F231" t="n">
-        <v>0</v>
+        <v>12400</v>
       </c>
       <c r="G231" t="inlineStr">
         <is>
@@ -11449,7 +11449,7 @@
       </c>
       <c r="I231" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128972489&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128954293&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J231" t="inlineStr">
@@ -13048,26 +13048,26 @@
       </c>
       <c r="B265" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas Transaltisa Chile Ltda</t>
+          <t>RT Sulfuros</t>
         </is>
       </c>
       <c r="C265" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D265" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E265" t="inlineStr">
         <is>
-          <t>Transaltisa Chile Ltda.</t>
+          <t>CODELCO Chile, División Radomiro Tomic</t>
         </is>
       </c>
       <c r="F265" t="n">
-        <v>2050</v>
+        <v>5.4</v>
       </c>
       <c r="G265" t="inlineStr">
         <is>
@@ -13076,12 +13076,12 @@
       </c>
       <c r="H265" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I265" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8218613&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8210090&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J265" t="inlineStr">
@@ -13096,26 +13096,26 @@
       </c>
       <c r="B266" t="inlineStr">
         <is>
-          <t>RT Sulfuros</t>
+          <t>Transporte de Sustancias Peligrosas Transaltisa Chile Ltda</t>
         </is>
       </c>
       <c r="C266" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D266" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E266" t="inlineStr">
         <is>
-          <t>CODELCO Chile, División Radomiro Tomic</t>
+          <t>Transaltisa Chile Ltda.</t>
         </is>
       </c>
       <c r="F266" t="n">
-        <v>5.4</v>
+        <v>2050</v>
       </c>
       <c r="G266" t="inlineStr">
         <is>
@@ -13124,12 +13124,12 @@
       </c>
       <c r="H266" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I266" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8210090&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8218613&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J266" t="inlineStr">
@@ -15784,7 +15784,7 @@
       </c>
       <c r="B322" t="inlineStr">
         <is>
-          <t>CENTRO DE RECUPERACIÓN DE TAMBORES Y CONTENEDORES IBC CONTAMINADOS, PLAMBIENTAL LA NEGRA</t>
+          <t>Parque Fotovoltaico Los Andes</t>
         </is>
       </c>
       <c r="C322" t="inlineStr">
@@ -15799,11 +15799,11 @@
       </c>
       <c r="E322" t="inlineStr">
         <is>
-          <t>VEOLIA SERVICIOS MINEROS INTEGRALES CHILE SpA</t>
+          <t>Andes Solar SPA</t>
         </is>
       </c>
       <c r="F322" t="n">
-        <v>60</v>
+        <v>572000</v>
       </c>
       <c r="G322" t="inlineStr">
         <is>
@@ -15812,12 +15812,12 @@
       </c>
       <c r="H322" t="inlineStr">
         <is>
-          <t>Caducado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I322" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6592870&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6581267&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J322" t="inlineStr">
@@ -15832,7 +15832,7 @@
       </c>
       <c r="B323" t="inlineStr">
         <is>
-          <t>CENTRO DE ALMACENAMIENTO DE RESIDUOS INDUSTRIALES, GESAM LA NEGRA</t>
+          <t>CENTRO DE RECUPERACIÓN DE TAMBORES Y CONTENEDORES IBC CONTAMINADOS, PLAMBIENTAL LA NEGRA</t>
         </is>
       </c>
       <c r="C323" t="inlineStr">
@@ -15851,7 +15851,7 @@
         </is>
       </c>
       <c r="F323" t="n">
-        <v>360</v>
+        <v>60</v>
       </c>
       <c r="G323" t="inlineStr">
         <is>
@@ -15865,7 +15865,7 @@
       </c>
       <c r="I323" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6595234&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6592870&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J323" t="inlineStr">
@@ -15880,7 +15880,7 @@
       </c>
       <c r="B324" t="inlineStr">
         <is>
-          <t>Parque Fotovoltaico Los Andes</t>
+          <t>CENTRO DE ALMACENAMIENTO DE RESIDUOS INDUSTRIALES, GESAM LA NEGRA</t>
         </is>
       </c>
       <c r="C324" t="inlineStr">
@@ -15895,11 +15895,11 @@
       </c>
       <c r="E324" t="inlineStr">
         <is>
-          <t>Andes Solar SPA</t>
+          <t>VEOLIA SERVICIOS MINEROS INTEGRALES CHILE SpA</t>
         </is>
       </c>
       <c r="F324" t="n">
-        <v>572000</v>
+        <v>360</v>
       </c>
       <c r="G324" t="inlineStr">
         <is>
@@ -15908,12 +15908,12 @@
       </c>
       <c r="H324" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Caducado</t>
         </is>
       </c>
       <c r="I324" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6581267&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6595234&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J324" t="inlineStr">
@@ -16744,7 +16744,7 @@
       </c>
       <c r="B342" t="inlineStr">
         <is>
-          <t>Modificación Proyecto Transporte de Acido Sulfurico a granel entre la Primera y Décima Regiones de Chile</t>
+          <t>Extracción de Áridos Empréstito E17L</t>
         </is>
       </c>
       <c r="C342" t="inlineStr">
@@ -16754,16 +16754,16 @@
       </c>
       <c r="D342" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E342" t="inlineStr">
         <is>
-          <t>Transportes Herrmann Limitada</t>
+          <t>Skanska Chile S.A.</t>
         </is>
       </c>
       <c r="F342" t="n">
-        <v>0</v>
+        <v>500</v>
       </c>
       <c r="G342" t="inlineStr">
         <is>
@@ -16772,12 +16772,12 @@
       </c>
       <c r="H342" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I342" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6159602&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6156264&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J342" t="inlineStr">
@@ -16792,7 +16792,7 @@
       </c>
       <c r="B343" t="inlineStr">
         <is>
-          <t>Extracción de Áridos Empréstito E17L</t>
+          <t>Modificación Proyecto Transporte de Acido Sulfurico a granel entre la Primera y Décima Regiones de Chile</t>
         </is>
       </c>
       <c r="C343" t="inlineStr">
@@ -16802,16 +16802,16 @@
       </c>
       <c r="D343" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E343" t="inlineStr">
         <is>
-          <t>Skanska Chile S.A.</t>
+          <t>Transportes Herrmann Limitada</t>
         </is>
       </c>
       <c r="F343" t="n">
-        <v>500</v>
+        <v>0</v>
       </c>
       <c r="G343" t="inlineStr">
         <is>
@@ -16820,12 +16820,12 @@
       </c>
       <c r="H343" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I343" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6156264&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6159602&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J343" t="inlineStr">
@@ -17272,7 +17272,7 @@
       </c>
       <c r="B353" t="inlineStr">
         <is>
-          <t>Nuevas Instalaciones para Mantención Mina</t>
+          <t>Transporte de Residuos Peligrosos</t>
         </is>
       </c>
       <c r="C353" t="inlineStr">
@@ -17282,16 +17282,16 @@
       </c>
       <c r="D353" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E353" t="inlineStr">
         <is>
-          <t>MINERA ESCONDIDA LIMITADA</t>
+          <t>Transportes TMS Limitada</t>
         </is>
       </c>
       <c r="F353" t="n">
-        <v>635000</v>
+        <v>200</v>
       </c>
       <c r="G353" t="inlineStr">
         <is>
@@ -17300,12 +17300,12 @@
       </c>
       <c r="H353" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I353" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5931343&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6003582&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J353" t="inlineStr">
@@ -17320,7 +17320,7 @@
       </c>
       <c r="B354" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos</t>
+          <t>Transporte de Sustancias Peligrosas entre la I, II y III Regiones"</t>
         </is>
       </c>
       <c r="C354" t="inlineStr">
@@ -17335,11 +17335,11 @@
       </c>
       <c r="E354" t="inlineStr">
         <is>
-          <t>Transportes TMS Limitada</t>
+          <t>Molina Quimicos S.A.</t>
         </is>
       </c>
       <c r="F354" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="G354" t="inlineStr">
         <is>
@@ -17353,7 +17353,7 @@
       </c>
       <c r="I354" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6003582&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6003607&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J354" t="inlineStr">
@@ -17368,7 +17368,7 @@
       </c>
       <c r="B355" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas entre la I, II y III Regiones"</t>
+          <t>Nuevas Instalaciones para Mantención Mina</t>
         </is>
       </c>
       <c r="C355" t="inlineStr">
@@ -17378,16 +17378,16 @@
       </c>
       <c r="D355" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E355" t="inlineStr">
         <is>
-          <t>Molina Quimicos S.A.</t>
+          <t>MINERA ESCONDIDA LIMITADA</t>
         </is>
       </c>
       <c r="F355" t="n">
-        <v>100</v>
+        <v>635000</v>
       </c>
       <c r="G355" t="inlineStr">
         <is>
@@ -17396,12 +17396,12 @@
       </c>
       <c r="H355" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I355" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6003607&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5931343&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J355" t="inlineStr">
@@ -19624,7 +19624,7 @@
       </c>
       <c r="B402" t="inlineStr">
         <is>
-          <t>II MODIFICACIÓN DIA "TRANSPORTE Y MANEJO IN SITU DE RESIDUOS SÓLIDOS Y LÍQUIDOS PELIGROSOS Y NO PELIGROSOS"</t>
+          <t>"Transporte de acido sulfurico concentrado para minera Las Cenizas, Taltal."</t>
         </is>
       </c>
       <c r="C402" t="inlineStr">
@@ -19634,16 +19634,16 @@
       </c>
       <c r="D402" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E402" t="inlineStr">
         <is>
-          <t>Mol Ambiente S.A.</t>
+          <t>Translog S.A.</t>
         </is>
       </c>
       <c r="F402" t="n">
-        <v>75000</v>
+        <v>600</v>
       </c>
       <c r="G402" t="inlineStr">
         <is>
@@ -19652,12 +19652,12 @@
       </c>
       <c r="H402" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I402" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5118945&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5114868&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J402" t="inlineStr">
@@ -19672,7 +19672,7 @@
       </c>
       <c r="B403" t="inlineStr">
         <is>
-          <t>"Transporte de acido sulfurico concentrado para minera Las Cenizas, Taltal."</t>
+          <t>II MODIFICACIÓN DIA "TRANSPORTE Y MANEJO IN SITU DE RESIDUOS SÓLIDOS Y LÍQUIDOS PELIGROSOS Y NO PELIGROSOS"</t>
         </is>
       </c>
       <c r="C403" t="inlineStr">
@@ -19682,16 +19682,16 @@
       </c>
       <c r="D403" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E403" t="inlineStr">
         <is>
-          <t>Translog S.A.</t>
+          <t>Mol Ambiente S.A.</t>
         </is>
       </c>
       <c r="F403" t="n">
-        <v>600</v>
+        <v>75000</v>
       </c>
       <c r="G403" t="inlineStr">
         <is>
@@ -19700,12 +19700,12 @@
       </c>
       <c r="H403" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I403" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5114868&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5118945&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J403" t="inlineStr">
@@ -21160,7 +21160,7 @@
       </c>
       <c r="B434" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE RESIDUOS PELIGROSOS POR RUTAS DE LA REGIÓN DE ANTOFAGASTA</t>
+          <t>Proyecto Laboratorios Químicos CIMM T&amp;S SA. La Negra</t>
         </is>
       </c>
       <c r="C434" t="inlineStr">
@@ -21175,11 +21175,11 @@
       </c>
       <c r="E434" t="inlineStr">
         <is>
-          <t>Limfosep S.A</t>
+          <t>Yancko Gonzalez Rozas</t>
         </is>
       </c>
       <c r="F434" t="n">
-        <v>1000</v>
+        <v>8000</v>
       </c>
       <c r="G434" t="inlineStr">
         <is>
@@ -21188,12 +21188,12 @@
       </c>
       <c r="H434" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I434" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4698232&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4670031&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J434" t="inlineStr">
@@ -21208,7 +21208,7 @@
       </c>
       <c r="B435" t="inlineStr">
         <is>
-          <t>Proyecto Laboratorios Químicos CIMM T&amp;S SA. La Negra</t>
+          <t>TRANSPORTE DE RESIDUOS PELIGROSOS POR RUTAS DE LA REGIÓN DE ANTOFAGASTA</t>
         </is>
       </c>
       <c r="C435" t="inlineStr">
@@ -21223,11 +21223,11 @@
       </c>
       <c r="E435" t="inlineStr">
         <is>
-          <t>Yancko Gonzalez Rozas</t>
+          <t>Limfosep S.A</t>
         </is>
       </c>
       <c r="F435" t="n">
-        <v>8000</v>
+        <v>1000</v>
       </c>
       <c r="G435" t="inlineStr">
         <is>
@@ -21236,12 +21236,12 @@
       </c>
       <c r="H435" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I435" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4670031&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4698232&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J435" t="inlineStr">
@@ -21640,7 +21640,7 @@
       </c>
       <c r="B444" t="inlineStr">
         <is>
-          <t>EXPANSION DEPOSITO DE RELAVES FILTRADOS FAENA EL PEÑÓN</t>
+          <t>Nuevo Transporte Interregional de Cianuro de Sodio</t>
         </is>
       </c>
       <c r="C444" t="inlineStr">
@@ -21650,16 +21650,16 @@
       </c>
       <c r="D444" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E444" t="inlineStr">
         <is>
-          <t>Minera Meridian Limitada</t>
+          <t>OXIQUIM S.A.</t>
         </is>
       </c>
       <c r="F444" t="n">
-        <v>688</v>
+        <v>85</v>
       </c>
       <c r="G444" t="inlineStr">
         <is>
@@ -21668,12 +21668,12 @@
       </c>
       <c r="H444" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I444" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4601640&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4594007&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J444" t="inlineStr">
@@ -21688,7 +21688,7 @@
       </c>
       <c r="B445" t="inlineStr">
         <is>
-          <t>Nuevo Transporte Interregional de Cianuro de Sodio</t>
+          <t>EXPANSION DEPOSITO DE RELAVES FILTRADOS FAENA EL PEÑÓN</t>
         </is>
       </c>
       <c r="C445" t="inlineStr">
@@ -21698,16 +21698,16 @@
       </c>
       <c r="D445" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E445" t="inlineStr">
         <is>
-          <t>OXIQUIM S.A.</t>
+          <t>Minera Meridian Limitada</t>
         </is>
       </c>
       <c r="F445" t="n">
-        <v>85</v>
+        <v>688</v>
       </c>
       <c r="G445" t="inlineStr">
         <is>
@@ -21716,12 +21716,12 @@
       </c>
       <c r="H445" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I445" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4594007&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4601640&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J445" t="inlineStr">
@@ -22456,7 +22456,7 @@
       </c>
       <c r="B461" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligroso, Transporte Bello</t>
+          <t>Transporte de Barros Anódicos</t>
         </is>
       </c>
       <c r="C461" t="inlineStr">
@@ -22471,11 +22471,11 @@
       </c>
       <c r="E461" t="inlineStr">
         <is>
-          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
+          <t>CODELCO CHILE</t>
         </is>
       </c>
       <c r="F461" t="n">
-        <v>4050</v>
+        <v>0</v>
       </c>
       <c r="G461" t="inlineStr">
         <is>
@@ -22489,7 +22489,7 @@
       </c>
       <c r="I461" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4455518&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4429880&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J461" t="inlineStr">
@@ -22504,7 +22504,7 @@
       </c>
       <c r="B462" t="inlineStr">
         <is>
-          <t>Transporte de Barros Anódicos</t>
+          <t>Transporte de Residuos Peligroso, Transporte Bello</t>
         </is>
       </c>
       <c r="C462" t="inlineStr">
@@ -22519,11 +22519,11 @@
       </c>
       <c r="E462" t="inlineStr">
         <is>
-          <t>CODELCO CHILE</t>
+          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
         </is>
       </c>
       <c r="F462" t="n">
-        <v>0</v>
+        <v>4050</v>
       </c>
       <c r="G462" t="inlineStr">
         <is>
@@ -22537,7 +22537,7 @@
       </c>
       <c r="I462" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4429880&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4455518&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J462" t="inlineStr">
@@ -22648,7 +22648,7 @@
       </c>
       <c r="B465" t="inlineStr">
         <is>
-          <t>Modificacion Proyecto Minero Algorta Sector Pampa</t>
+          <t>Transporte y Almacenamiento temporal de Residuos Peligrosos M&amp;M ltda.</t>
         </is>
       </c>
       <c r="C465" t="inlineStr">
@@ -22658,16 +22658,16 @@
       </c>
       <c r="D465" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E465" t="inlineStr">
         <is>
-          <t>Algorta Norte S.A</t>
+          <t>Transportes Moscoso y Moscoso Ltda.</t>
         </is>
       </c>
       <c r="F465" t="n">
-        <v>6400</v>
+        <v>41075</v>
       </c>
       <c r="G465" t="inlineStr">
         <is>
@@ -22681,7 +22681,7 @@
       </c>
       <c r="I465" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4432700&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4422237&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J465" t="inlineStr">
@@ -22696,7 +22696,7 @@
       </c>
       <c r="B466" t="inlineStr">
         <is>
-          <t>Transporte y Almacenamiento temporal de Residuos Peligrosos M&amp;M ltda.</t>
+          <t>Modificacion Proyecto Minero Algorta Sector Pampa</t>
         </is>
       </c>
       <c r="C466" t="inlineStr">
@@ -22706,16 +22706,16 @@
       </c>
       <c r="D466" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E466" t="inlineStr">
         <is>
-          <t>Transportes Moscoso y Moscoso Ltda.</t>
+          <t>Algorta Norte S.A</t>
         </is>
       </c>
       <c r="F466" t="n">
-        <v>41075</v>
+        <v>6400</v>
       </c>
       <c r="G466" t="inlineStr">
         <is>
@@ -22729,7 +22729,7 @@
       </c>
       <c r="I466" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4422237&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4432700&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J466" t="inlineStr">
@@ -24184,7 +24184,7 @@
       </c>
       <c r="B497" t="inlineStr">
         <is>
-          <t>Proyecto Tratamiento de Polvos Metalurgicos de Otras Fundiciones (e-seia)</t>
+          <t>Transporte de Residuos Peligrosos CMR Norte (e-seia)</t>
         </is>
       </c>
       <c r="C497" t="inlineStr">
@@ -24199,11 +24199,11 @@
       </c>
       <c r="E497" t="inlineStr">
         <is>
-          <t>Complejo Metalurgico Altonorte S.A.</t>
+          <t>Soluciones Ambientales del Norte S. A.</t>
         </is>
       </c>
       <c r="F497" t="n">
-        <v>320</v>
+        <v>250</v>
       </c>
       <c r="G497" t="inlineStr">
         <is>
@@ -24217,7 +24217,7 @@
       </c>
       <c r="I497" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4061206&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4063042&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J497" t="inlineStr">
@@ -24232,7 +24232,7 @@
       </c>
       <c r="B498" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos CMR Norte (e-seia)</t>
+          <t>Proyecto Tratamiento de Polvos Metalurgicos de Otras Fundiciones (e-seia)</t>
         </is>
       </c>
       <c r="C498" t="inlineStr">
@@ -24247,11 +24247,11 @@
       </c>
       <c r="E498" t="inlineStr">
         <is>
-          <t>Soluciones Ambientales del Norte S. A.</t>
+          <t>Complejo Metalurgico Altonorte S.A.</t>
         </is>
       </c>
       <c r="F498" t="n">
-        <v>250</v>
+        <v>320</v>
       </c>
       <c r="G498" t="inlineStr">
         <is>
@@ -24265,7 +24265,7 @@
       </c>
       <c r="I498" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4063042&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4061206&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J498" t="inlineStr">

--- a/data/Antofagasta.xlsx
+++ b/data/Antofagasta.xlsx
@@ -424,12 +424,12 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Aguas Marítimas</t>
+          <t>Bodega de Sustancias Peligrosas FG</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -439,11 +439,11 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>CRAMSA INFRAESTRUCTURA SPA</t>
+          <t>FG LOGÍSTICA SpA.</t>
         </is>
       </c>
       <c r="F2" t="n">
-        <v>5</v>
+        <v>150</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
@@ -452,12 +452,12 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>En Admisión</t>
+          <t>En Calificación</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2155217256&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2155186708&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
@@ -472,12 +472,12 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Almacenamiento de Sustancias Peligrosas, Clase 6 y 8, Bodegas DIXIE, Antofagasta</t>
+          <t>Aguas Marítimas</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -487,15 +487,15 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Plásticos DIXIE SpA</t>
+          <t>CRAMSA INFRAESTRUCTURA SPA</t>
         </is>
       </c>
       <c r="F3" t="n">
-        <v>1000</v>
+        <v>5</v>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>22/02/2022</t>
+          <t>24/02/2022</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
@@ -505,7 +505,7 @@
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2155185100&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2155217256&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
@@ -520,7 +520,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Bodega de Sustancias Peligrosas FG</t>
+          <t>Almacenamiento de Sustancias Peligrosas, Clase 6 y 8, Bodegas DIXIE, Antofagasta</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -535,15 +535,15 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>FG LOGÍSTICA SpA.</t>
+          <t>Plásticos DIXIE SpA</t>
         </is>
       </c>
       <c r="F4" t="n">
-        <v>150</v>
+        <v>1000</v>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>18/02/2022</t>
+          <t>22/02/2022</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
@@ -553,7 +553,7 @@
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2155186708&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2155185100&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
@@ -1268,7 +1268,7 @@
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>En Calificación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">

--- a/data/Antofagasta.xlsx
+++ b/data/Antofagasta.xlsx
@@ -11368,7 +11368,7 @@
       </c>
       <c r="B230" t="inlineStr">
         <is>
-          <t>Transporte Interregional de Sustancias Peligrosas - AGREDUCAM VI Región</t>
+          <t>Planta de Fabricación de Tuberías PEX (polietileno reticulado)</t>
         </is>
       </c>
       <c r="C230" t="inlineStr">
@@ -11378,16 +11378,16 @@
       </c>
       <c r="D230" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E230" t="inlineStr">
         <is>
-          <t>Asociación Gremial de Dueños de Camiones de la Sexta Región</t>
+          <t>CROSSPIPE SYSTEMS S.A.</t>
         </is>
       </c>
       <c r="F230" t="n">
-        <v>1200</v>
+        <v>12400</v>
       </c>
       <c r="G230" t="inlineStr">
         <is>
@@ -11401,7 +11401,7 @@
       </c>
       <c r="I230" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128964620&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128954293&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J230" t="inlineStr">
@@ -11416,7 +11416,7 @@
       </c>
       <c r="B231" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos por las Rutas Indicadas</t>
+          <t>Transporte Interregional de Sustancias Peligrosas - AGREDUCAM VI Región</t>
         </is>
       </c>
       <c r="C231" t="inlineStr">
@@ -11431,11 +11431,11 @@
       </c>
       <c r="E231" t="inlineStr">
         <is>
-          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
+          <t>Asociación Gremial de Dueños de Camiones de la Sexta Región</t>
         </is>
       </c>
       <c r="F231" t="n">
-        <v>0</v>
+        <v>1200</v>
       </c>
       <c r="G231" t="inlineStr">
         <is>
@@ -11449,7 +11449,7 @@
       </c>
       <c r="I231" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128972489&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128964620&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J231" t="inlineStr">
@@ -11464,7 +11464,7 @@
       </c>
       <c r="B232" t="inlineStr">
         <is>
-          <t>Planta de Fabricación de Tuberías PEX (polietileno reticulado)</t>
+          <t>Transporte de Residuos Peligrosos por las Rutas Indicadas</t>
         </is>
       </c>
       <c r="C232" t="inlineStr">
@@ -11474,16 +11474,16 @@
       </c>
       <c r="D232" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E232" t="inlineStr">
         <is>
-          <t>CROSSPIPE SYSTEMS S.A.</t>
+          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
         </is>
       </c>
       <c r="F232" t="n">
-        <v>12400</v>
+        <v>0</v>
       </c>
       <c r="G232" t="inlineStr">
         <is>
@@ -11497,7 +11497,7 @@
       </c>
       <c r="I232" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128954293&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128972489&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J232" t="inlineStr">
@@ -13096,26 +13096,26 @@
       </c>
       <c r="B266" t="inlineStr">
         <is>
-          <t>RT Sulfuros</t>
+          <t>Transporte de Sustancias Peligrosas Transaltisa Chile Ltda</t>
         </is>
       </c>
       <c r="C266" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D266" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E266" t="inlineStr">
         <is>
-          <t>CODELCO Chile, División Radomiro Tomic</t>
+          <t>Transaltisa Chile Ltda.</t>
         </is>
       </c>
       <c r="F266" t="n">
-        <v>5.4</v>
+        <v>2050</v>
       </c>
       <c r="G266" t="inlineStr">
         <is>
@@ -13124,12 +13124,12 @@
       </c>
       <c r="H266" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I266" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8210090&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8218613&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J266" t="inlineStr">
@@ -13144,26 +13144,26 @@
       </c>
       <c r="B267" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas Transaltisa Chile Ltda</t>
+          <t>RT Sulfuros</t>
         </is>
       </c>
       <c r="C267" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D267" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E267" t="inlineStr">
         <is>
-          <t>Transaltisa Chile Ltda.</t>
+          <t>CODELCO Chile, División Radomiro Tomic</t>
         </is>
       </c>
       <c r="F267" t="n">
-        <v>2050</v>
+        <v>5.4</v>
       </c>
       <c r="G267" t="inlineStr">
         <is>
@@ -13172,12 +13172,12 @@
       </c>
       <c r="H267" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I267" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8218613&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8210090&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J267" t="inlineStr">
@@ -15832,7 +15832,7 @@
       </c>
       <c r="B323" t="inlineStr">
         <is>
-          <t>Parque Fotovoltaico Los Andes</t>
+          <t>CENTRO DE RECUPERACIÓN DE TAMBORES Y CONTENEDORES IBC CONTAMINADOS, PLAMBIENTAL LA NEGRA</t>
         </is>
       </c>
       <c r="C323" t="inlineStr">
@@ -15847,11 +15847,11 @@
       </c>
       <c r="E323" t="inlineStr">
         <is>
-          <t>Andes Solar SPA</t>
+          <t>VEOLIA SERVICIOS MINEROS INTEGRALES CHILE SpA</t>
         </is>
       </c>
       <c r="F323" t="n">
-        <v>572000</v>
+        <v>60</v>
       </c>
       <c r="G323" t="inlineStr">
         <is>
@@ -15860,12 +15860,12 @@
       </c>
       <c r="H323" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Caducado</t>
         </is>
       </c>
       <c r="I323" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6581267&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6592870&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J323" t="inlineStr">
@@ -15880,7 +15880,7 @@
       </c>
       <c r="B324" t="inlineStr">
         <is>
-          <t>CENTRO DE RECUPERACIÓN DE TAMBORES Y CONTENEDORES IBC CONTAMINADOS, PLAMBIENTAL LA NEGRA</t>
+          <t>CENTRO DE ALMACENAMIENTO DE RESIDUOS INDUSTRIALES, GESAM LA NEGRA</t>
         </is>
       </c>
       <c r="C324" t="inlineStr">
@@ -15899,7 +15899,7 @@
         </is>
       </c>
       <c r="F324" t="n">
-        <v>60</v>
+        <v>360</v>
       </c>
       <c r="G324" t="inlineStr">
         <is>
@@ -15913,7 +15913,7 @@
       </c>
       <c r="I324" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6592870&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6595234&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J324" t="inlineStr">
@@ -15928,7 +15928,7 @@
       </c>
       <c r="B325" t="inlineStr">
         <is>
-          <t>CENTRO DE ALMACENAMIENTO DE RESIDUOS INDUSTRIALES, GESAM LA NEGRA</t>
+          <t>Parque Fotovoltaico Los Andes</t>
         </is>
       </c>
       <c r="C325" t="inlineStr">
@@ -15943,11 +15943,11 @@
       </c>
       <c r="E325" t="inlineStr">
         <is>
-          <t>VEOLIA SERVICIOS MINEROS INTEGRALES CHILE SpA</t>
+          <t>Andes Solar SPA</t>
         </is>
       </c>
       <c r="F325" t="n">
-        <v>360</v>
+        <v>572000</v>
       </c>
       <c r="G325" t="inlineStr">
         <is>
@@ -15956,12 +15956,12 @@
       </c>
       <c r="H325" t="inlineStr">
         <is>
-          <t>Caducado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I325" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6595234&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6581267&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J325" t="inlineStr">
@@ -16120,7 +16120,7 @@
       </c>
       <c r="B329" t="inlineStr">
         <is>
-          <t>MODIFICACION DE LA DECLARACIÓN DE IMPACTO AMBIENTAL PROYECTO TRANSPORTE DE SULFHIDRATO DE SODIO EN LA PRIMERA Y SEGUNDA REGION</t>
+          <t>Transporte de Residuos Peligrosos</t>
         </is>
       </c>
       <c r="C329" t="inlineStr">
@@ -16135,11 +16135,11 @@
       </c>
       <c r="E329" t="inlineStr">
         <is>
-          <t>Sociedad de Transportes Camaro Ltda.</t>
+          <t>Transportes TMS Limitada</t>
         </is>
       </c>
       <c r="F329" t="n">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="G329" t="inlineStr">
         <is>
@@ -16153,7 +16153,7 @@
       </c>
       <c r="I329" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6450945&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6479568&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J329" t="inlineStr">
@@ -16168,7 +16168,7 @@
       </c>
       <c r="B330" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos</t>
+          <t>MODIFICACION DE LA DECLARACIÓN DE IMPACTO AMBIENTAL PROYECTO TRANSPORTE DE SULFHIDRATO DE SODIO EN LA PRIMERA Y SEGUNDA REGION</t>
         </is>
       </c>
       <c r="C330" t="inlineStr">
@@ -16183,11 +16183,11 @@
       </c>
       <c r="E330" t="inlineStr">
         <is>
-          <t>Transportes TMS Limitada</t>
+          <t>Sociedad de Transportes Camaro Ltda.</t>
         </is>
       </c>
       <c r="F330" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="G330" t="inlineStr">
         <is>
@@ -16201,7 +16201,7 @@
       </c>
       <c r="I330" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6479568&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6450945&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J330" t="inlineStr">
@@ -16792,7 +16792,7 @@
       </c>
       <c r="B343" t="inlineStr">
         <is>
-          <t>Extracción de Áridos Empréstito E17L</t>
+          <t>Modificación Proyecto Transporte de Acido Sulfurico a granel entre la Primera y Décima Regiones de Chile</t>
         </is>
       </c>
       <c r="C343" t="inlineStr">
@@ -16802,16 +16802,16 @@
       </c>
       <c r="D343" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E343" t="inlineStr">
         <is>
-          <t>Skanska Chile S.A.</t>
+          <t>Transportes Herrmann Limitada</t>
         </is>
       </c>
       <c r="F343" t="n">
-        <v>500</v>
+        <v>0</v>
       </c>
       <c r="G343" t="inlineStr">
         <is>
@@ -16820,12 +16820,12 @@
       </c>
       <c r="H343" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I343" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6156264&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6159602&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J343" t="inlineStr">
@@ -16840,7 +16840,7 @@
       </c>
       <c r="B344" t="inlineStr">
         <is>
-          <t>Modificación Proyecto Transporte de Acido Sulfurico a granel entre la Primera y Décima Regiones de Chile</t>
+          <t>Extracción de Áridos Empréstito E17L</t>
         </is>
       </c>
       <c r="C344" t="inlineStr">
@@ -16850,16 +16850,16 @@
       </c>
       <c r="D344" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E344" t="inlineStr">
         <is>
-          <t>Transportes Herrmann Limitada</t>
+          <t>Skanska Chile S.A.</t>
         </is>
       </c>
       <c r="F344" t="n">
-        <v>0</v>
+        <v>500</v>
       </c>
       <c r="G344" t="inlineStr">
         <is>
@@ -16868,12 +16868,12 @@
       </c>
       <c r="H344" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I344" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6159602&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6156264&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J344" t="inlineStr">
@@ -17032,7 +17032,7 @@
       </c>
       <c r="B348" t="inlineStr">
         <is>
-          <t>Extracción de Áridos Empréstito E-63</t>
+          <t>Proyecto Optimización de Emplazamiento de Instalaciones en Minera Escondida</t>
         </is>
       </c>
       <c r="C348" t="inlineStr">
@@ -17047,11 +17047,11 @@
       </c>
       <c r="E348" t="inlineStr">
         <is>
-          <t>Skanska Chile S.A.</t>
+          <t>MINERA ESCONDIDA LIMITADA</t>
         </is>
       </c>
       <c r="F348" t="n">
-        <v>500</v>
+        <v>120000</v>
       </c>
       <c r="G348" t="inlineStr">
         <is>
@@ -17065,7 +17065,7 @@
       </c>
       <c r="I348" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6092873&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6080052&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J348" t="inlineStr">
@@ -17080,7 +17080,7 @@
       </c>
       <c r="B349" t="inlineStr">
         <is>
-          <t>Proyecto Optimización de Emplazamiento de Instalaciones en Minera Escondida</t>
+          <t>Extracción de Áridos Empréstito E-63</t>
         </is>
       </c>
       <c r="C349" t="inlineStr">
@@ -17095,11 +17095,11 @@
       </c>
       <c r="E349" t="inlineStr">
         <is>
-          <t>MINERA ESCONDIDA LIMITADA</t>
+          <t>Skanska Chile S.A.</t>
         </is>
       </c>
       <c r="F349" t="n">
-        <v>120000</v>
+        <v>500</v>
       </c>
       <c r="G349" t="inlineStr">
         <is>
@@ -17113,7 +17113,7 @@
       </c>
       <c r="I349" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6080052&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6092873&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J349" t="inlineStr">
@@ -17320,7 +17320,7 @@
       </c>
       <c r="B354" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos</t>
+          <t>Nuevas Instalaciones para Mantención Mina</t>
         </is>
       </c>
       <c r="C354" t="inlineStr">
@@ -17330,16 +17330,16 @@
       </c>
       <c r="D354" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E354" t="inlineStr">
         <is>
-          <t>Transportes TMS Limitada</t>
+          <t>MINERA ESCONDIDA LIMITADA</t>
         </is>
       </c>
       <c r="F354" t="n">
-        <v>200</v>
+        <v>635000</v>
       </c>
       <c r="G354" t="inlineStr">
         <is>
@@ -17348,12 +17348,12 @@
       </c>
       <c r="H354" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I354" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6003582&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5931343&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J354" t="inlineStr">
@@ -17368,7 +17368,7 @@
       </c>
       <c r="B355" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas entre la I, II y III Regiones"</t>
+          <t>Transporte de Residuos Peligrosos</t>
         </is>
       </c>
       <c r="C355" t="inlineStr">
@@ -17383,11 +17383,11 @@
       </c>
       <c r="E355" t="inlineStr">
         <is>
-          <t>Molina Quimicos S.A.</t>
+          <t>Transportes TMS Limitada</t>
         </is>
       </c>
       <c r="F355" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="G355" t="inlineStr">
         <is>
@@ -17401,7 +17401,7 @@
       </c>
       <c r="I355" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6003607&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6003582&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J355" t="inlineStr">
@@ -17416,7 +17416,7 @@
       </c>
       <c r="B356" t="inlineStr">
         <is>
-          <t>Nuevas Instalaciones para Mantención Mina</t>
+          <t>Transporte de Sustancias Peligrosas entre la I, II y III Regiones"</t>
         </is>
       </c>
       <c r="C356" t="inlineStr">
@@ -17426,16 +17426,16 @@
       </c>
       <c r="D356" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E356" t="inlineStr">
         <is>
-          <t>MINERA ESCONDIDA LIMITADA</t>
+          <t>Molina Quimicos S.A.</t>
         </is>
       </c>
       <c r="F356" t="n">
-        <v>635000</v>
+        <v>100</v>
       </c>
       <c r="G356" t="inlineStr">
         <is>
@@ -17444,12 +17444,12 @@
       </c>
       <c r="H356" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I356" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5931343&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6003607&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J356" t="inlineStr">
@@ -19672,7 +19672,7 @@
       </c>
       <c r="B403" t="inlineStr">
         <is>
-          <t>"Transporte de acido sulfurico concentrado para minera Las Cenizas, Taltal."</t>
+          <t>II MODIFICACIÓN DIA "TRANSPORTE Y MANEJO IN SITU DE RESIDUOS SÓLIDOS Y LÍQUIDOS PELIGROSOS Y NO PELIGROSOS"</t>
         </is>
       </c>
       <c r="C403" t="inlineStr">
@@ -19682,16 +19682,16 @@
       </c>
       <c r="D403" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E403" t="inlineStr">
         <is>
-          <t>Translog S.A.</t>
+          <t>Mol Ambiente S.A.</t>
         </is>
       </c>
       <c r="F403" t="n">
-        <v>600</v>
+        <v>75000</v>
       </c>
       <c r="G403" t="inlineStr">
         <is>
@@ -19700,12 +19700,12 @@
       </c>
       <c r="H403" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I403" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5114868&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5118945&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J403" t="inlineStr">
@@ -19720,7 +19720,7 @@
       </c>
       <c r="B404" t="inlineStr">
         <is>
-          <t>II MODIFICACIÓN DIA "TRANSPORTE Y MANEJO IN SITU DE RESIDUOS SÓLIDOS Y LÍQUIDOS PELIGROSOS Y NO PELIGROSOS"</t>
+          <t>"Transporte de acido sulfurico concentrado para minera Las Cenizas, Taltal."</t>
         </is>
       </c>
       <c r="C404" t="inlineStr">
@@ -19730,16 +19730,16 @@
       </c>
       <c r="D404" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E404" t="inlineStr">
         <is>
-          <t>Mol Ambiente S.A.</t>
+          <t>Translog S.A.</t>
         </is>
       </c>
       <c r="F404" t="n">
-        <v>75000</v>
+        <v>600</v>
       </c>
       <c r="G404" t="inlineStr">
         <is>
@@ -19748,12 +19748,12 @@
       </c>
       <c r="H404" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I404" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5118945&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5114868&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J404" t="inlineStr">
@@ -21208,7 +21208,7 @@
       </c>
       <c r="B435" t="inlineStr">
         <is>
-          <t>Proyecto Laboratorios Químicos CIMM T&amp;S SA. La Negra</t>
+          <t>TRANSPORTE DE RESIDUOS PELIGROSOS POR RUTAS DE LA REGIÓN DE ANTOFAGASTA</t>
         </is>
       </c>
       <c r="C435" t="inlineStr">
@@ -21223,11 +21223,11 @@
       </c>
       <c r="E435" t="inlineStr">
         <is>
-          <t>Yancko Gonzalez Rozas</t>
+          <t>Limfosep S.A</t>
         </is>
       </c>
       <c r="F435" t="n">
-        <v>8000</v>
+        <v>1000</v>
       </c>
       <c r="G435" t="inlineStr">
         <is>
@@ -21236,12 +21236,12 @@
       </c>
       <c r="H435" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I435" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4670031&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4698232&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J435" t="inlineStr">
@@ -21256,7 +21256,7 @@
       </c>
       <c r="B436" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE RESIDUOS PELIGROSOS POR RUTAS DE LA REGIÓN DE ANTOFAGASTA</t>
+          <t>Proyecto Laboratorios Químicos CIMM T&amp;S SA. La Negra</t>
         </is>
       </c>
       <c r="C436" t="inlineStr">
@@ -21271,11 +21271,11 @@
       </c>
       <c r="E436" t="inlineStr">
         <is>
-          <t>Limfosep S.A</t>
+          <t>Yancko Gonzalez Rozas</t>
         </is>
       </c>
       <c r="F436" t="n">
-        <v>1000</v>
+        <v>8000</v>
       </c>
       <c r="G436" t="inlineStr">
         <is>
@@ -21284,12 +21284,12 @@
       </c>
       <c r="H436" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I436" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4698232&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4670031&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J436" t="inlineStr">
@@ -21688,7 +21688,7 @@
       </c>
       <c r="B445" t="inlineStr">
         <is>
-          <t>Nuevo Transporte Interregional de Cianuro de Sodio</t>
+          <t>EXPANSION DEPOSITO DE RELAVES FILTRADOS FAENA EL PEÑÓN</t>
         </is>
       </c>
       <c r="C445" t="inlineStr">
@@ -21698,16 +21698,16 @@
       </c>
       <c r="D445" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E445" t="inlineStr">
         <is>
-          <t>OXIQUIM S.A.</t>
+          <t>Minera Meridian Limitada</t>
         </is>
       </c>
       <c r="F445" t="n">
-        <v>85</v>
+        <v>688</v>
       </c>
       <c r="G445" t="inlineStr">
         <is>
@@ -21716,12 +21716,12 @@
       </c>
       <c r="H445" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I445" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4594007&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4601640&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J445" t="inlineStr">
@@ -21736,7 +21736,7 @@
       </c>
       <c r="B446" t="inlineStr">
         <is>
-          <t>EXPANSION DEPOSITO DE RELAVES FILTRADOS FAENA EL PEÑÓN</t>
+          <t>Nuevo Transporte Interregional de Cianuro de Sodio</t>
         </is>
       </c>
       <c r="C446" t="inlineStr">
@@ -21746,16 +21746,16 @@
       </c>
       <c r="D446" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E446" t="inlineStr">
         <is>
-          <t>Minera Meridian Limitada</t>
+          <t>OXIQUIM S.A.</t>
         </is>
       </c>
       <c r="F446" t="n">
-        <v>688</v>
+        <v>85</v>
       </c>
       <c r="G446" t="inlineStr">
         <is>
@@ -21764,12 +21764,12 @@
       </c>
       <c r="H446" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I446" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4601640&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4594007&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J446" t="inlineStr">
@@ -22504,7 +22504,7 @@
       </c>
       <c r="B462" t="inlineStr">
         <is>
-          <t>Transporte de Barros Anódicos</t>
+          <t>Transporte de Residuos Peligroso, Transporte Bello</t>
         </is>
       </c>
       <c r="C462" t="inlineStr">
@@ -22519,11 +22519,11 @@
       </c>
       <c r="E462" t="inlineStr">
         <is>
-          <t>CODELCO CHILE</t>
+          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
         </is>
       </c>
       <c r="F462" t="n">
-        <v>0</v>
+        <v>4050</v>
       </c>
       <c r="G462" t="inlineStr">
         <is>
@@ -22537,7 +22537,7 @@
       </c>
       <c r="I462" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4429880&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4455518&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J462" t="inlineStr">
@@ -22552,7 +22552,7 @@
       </c>
       <c r="B463" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligroso, Transporte Bello</t>
+          <t>Transporte de Barros Anódicos</t>
         </is>
       </c>
       <c r="C463" t="inlineStr">
@@ -22567,11 +22567,11 @@
       </c>
       <c r="E463" t="inlineStr">
         <is>
-          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
+          <t>CODELCO CHILE</t>
         </is>
       </c>
       <c r="F463" t="n">
-        <v>4050</v>
+        <v>0</v>
       </c>
       <c r="G463" t="inlineStr">
         <is>
@@ -22585,7 +22585,7 @@
       </c>
       <c r="I463" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4455518&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4429880&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J463" t="inlineStr">
@@ -22696,7 +22696,7 @@
       </c>
       <c r="B466" t="inlineStr">
         <is>
-          <t>Transporte y Almacenamiento temporal de Residuos Peligrosos M&amp;M ltda.</t>
+          <t>Modificacion Proyecto Minero Algorta Sector Pampa</t>
         </is>
       </c>
       <c r="C466" t="inlineStr">
@@ -22706,16 +22706,16 @@
       </c>
       <c r="D466" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E466" t="inlineStr">
         <is>
-          <t>Transportes Moscoso y Moscoso Ltda.</t>
+          <t>Algorta Norte S.A</t>
         </is>
       </c>
       <c r="F466" t="n">
-        <v>41075</v>
+        <v>6400</v>
       </c>
       <c r="G466" t="inlineStr">
         <is>
@@ -22729,7 +22729,7 @@
       </c>
       <c r="I466" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4422237&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4432700&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J466" t="inlineStr">
@@ -22744,7 +22744,7 @@
       </c>
       <c r="B467" t="inlineStr">
         <is>
-          <t>Modificacion Proyecto Minero Algorta Sector Pampa</t>
+          <t>Transporte y Almacenamiento temporal de Residuos Peligrosos M&amp;M ltda.</t>
         </is>
       </c>
       <c r="C467" t="inlineStr">
@@ -22754,16 +22754,16 @@
       </c>
       <c r="D467" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E467" t="inlineStr">
         <is>
-          <t>Algorta Norte S.A</t>
+          <t>Transportes Moscoso y Moscoso Ltda.</t>
         </is>
       </c>
       <c r="F467" t="n">
-        <v>6400</v>
+        <v>41075</v>
       </c>
       <c r="G467" t="inlineStr">
         <is>
@@ -22777,7 +22777,7 @@
       </c>
       <c r="I467" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4432700&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4422237&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J467" t="inlineStr">
@@ -24232,7 +24232,7 @@
       </c>
       <c r="B498" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos CMR Norte (e-seia)</t>
+          <t>Proyecto Tratamiento de Polvos Metalurgicos de Otras Fundiciones (e-seia)</t>
         </is>
       </c>
       <c r="C498" t="inlineStr">
@@ -24247,11 +24247,11 @@
       </c>
       <c r="E498" t="inlineStr">
         <is>
-          <t>Soluciones Ambientales del Norte S. A.</t>
+          <t>Complejo Metalurgico Altonorte S.A.</t>
         </is>
       </c>
       <c r="F498" t="n">
-        <v>250</v>
+        <v>320</v>
       </c>
       <c r="G498" t="inlineStr">
         <is>
@@ -24265,7 +24265,7 @@
       </c>
       <c r="I498" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4063042&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4061206&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J498" t="inlineStr">
@@ -24280,7 +24280,7 @@
       </c>
       <c r="B499" t="inlineStr">
         <is>
-          <t>Proyecto Tratamiento de Polvos Metalurgicos de Otras Fundiciones (e-seia)</t>
+          <t>Transporte de Residuos Peligrosos CMR Norte (e-seia)</t>
         </is>
       </c>
       <c r="C499" t="inlineStr">
@@ -24295,11 +24295,11 @@
       </c>
       <c r="E499" t="inlineStr">
         <is>
-          <t>Complejo Metalurgico Altonorte S.A.</t>
+          <t>Soluciones Ambientales del Norte S. A.</t>
         </is>
       </c>
       <c r="F499" t="n">
-        <v>320</v>
+        <v>250</v>
       </c>
       <c r="G499" t="inlineStr">
         <is>
@@ -24313,7 +24313,7 @@
       </c>
       <c r="I499" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4061206&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4063042&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J499" t="inlineStr">

--- a/data/Antofagasta.xlsx
+++ b/data/Antofagasta.xlsx
@@ -11368,7 +11368,7 @@
       </c>
       <c r="B230" t="inlineStr">
         <is>
-          <t>Planta de Fabricación de Tuberías PEX (polietileno reticulado)</t>
+          <t>Transporte Interregional de Sustancias Peligrosas - AGREDUCAM VI Región</t>
         </is>
       </c>
       <c r="C230" t="inlineStr">
@@ -11378,16 +11378,16 @@
       </c>
       <c r="D230" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E230" t="inlineStr">
         <is>
-          <t>CROSSPIPE SYSTEMS S.A.</t>
+          <t>Asociación Gremial de Dueños de Camiones de la Sexta Región</t>
         </is>
       </c>
       <c r="F230" t="n">
-        <v>12400</v>
+        <v>1200</v>
       </c>
       <c r="G230" t="inlineStr">
         <is>
@@ -11401,7 +11401,7 @@
       </c>
       <c r="I230" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128954293&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128964620&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J230" t="inlineStr">
@@ -11416,7 +11416,7 @@
       </c>
       <c r="B231" t="inlineStr">
         <is>
-          <t>Transporte Interregional de Sustancias Peligrosas - AGREDUCAM VI Región</t>
+          <t>Transporte de Residuos Peligrosos por las Rutas Indicadas</t>
         </is>
       </c>
       <c r="C231" t="inlineStr">
@@ -11431,11 +11431,11 @@
       </c>
       <c r="E231" t="inlineStr">
         <is>
-          <t>Asociación Gremial de Dueños de Camiones de la Sexta Región</t>
+          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
         </is>
       </c>
       <c r="F231" t="n">
-        <v>1200</v>
+        <v>0</v>
       </c>
       <c r="G231" t="inlineStr">
         <is>
@@ -11449,7 +11449,7 @@
       </c>
       <c r="I231" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128964620&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128972489&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J231" t="inlineStr">
@@ -11464,7 +11464,7 @@
       </c>
       <c r="B232" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos por las Rutas Indicadas</t>
+          <t>Planta de Fabricación de Tuberías PEX (polietileno reticulado)</t>
         </is>
       </c>
       <c r="C232" t="inlineStr">
@@ -11474,16 +11474,16 @@
       </c>
       <c r="D232" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E232" t="inlineStr">
         <is>
-          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
+          <t>CROSSPIPE SYSTEMS S.A.</t>
         </is>
       </c>
       <c r="F232" t="n">
-        <v>0</v>
+        <v>12400</v>
       </c>
       <c r="G232" t="inlineStr">
         <is>
@@ -11497,7 +11497,7 @@
       </c>
       <c r="I232" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128972489&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128954293&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J232" t="inlineStr">
@@ -13096,26 +13096,26 @@
       </c>
       <c r="B266" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas Transaltisa Chile Ltda</t>
+          <t>RT Sulfuros</t>
         </is>
       </c>
       <c r="C266" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D266" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E266" t="inlineStr">
         <is>
-          <t>Transaltisa Chile Ltda.</t>
+          <t>CODELCO Chile, División Radomiro Tomic</t>
         </is>
       </c>
       <c r="F266" t="n">
-        <v>2050</v>
+        <v>5.4</v>
       </c>
       <c r="G266" t="inlineStr">
         <is>
@@ -13124,12 +13124,12 @@
       </c>
       <c r="H266" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I266" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8218613&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8210090&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J266" t="inlineStr">
@@ -13144,26 +13144,26 @@
       </c>
       <c r="B267" t="inlineStr">
         <is>
-          <t>RT Sulfuros</t>
+          <t>Transporte de Sustancias Peligrosas Transaltisa Chile Ltda</t>
         </is>
       </c>
       <c r="C267" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D267" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E267" t="inlineStr">
         <is>
-          <t>CODELCO Chile, División Radomiro Tomic</t>
+          <t>Transaltisa Chile Ltda.</t>
         </is>
       </c>
       <c r="F267" t="n">
-        <v>5.4</v>
+        <v>2050</v>
       </c>
       <c r="G267" t="inlineStr">
         <is>
@@ -13172,12 +13172,12 @@
       </c>
       <c r="H267" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I267" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8210090&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8218613&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J267" t="inlineStr">
@@ -15832,7 +15832,7 @@
       </c>
       <c r="B323" t="inlineStr">
         <is>
-          <t>CENTRO DE RECUPERACIÓN DE TAMBORES Y CONTENEDORES IBC CONTAMINADOS, PLAMBIENTAL LA NEGRA</t>
+          <t>Parque Fotovoltaico Los Andes</t>
         </is>
       </c>
       <c r="C323" t="inlineStr">
@@ -15847,11 +15847,11 @@
       </c>
       <c r="E323" t="inlineStr">
         <is>
-          <t>VEOLIA SERVICIOS MINEROS INTEGRALES CHILE SpA</t>
+          <t>Andes Solar SPA</t>
         </is>
       </c>
       <c r="F323" t="n">
-        <v>60</v>
+        <v>572000</v>
       </c>
       <c r="G323" t="inlineStr">
         <is>
@@ -15860,12 +15860,12 @@
       </c>
       <c r="H323" t="inlineStr">
         <is>
-          <t>Caducado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I323" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6592870&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6581267&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J323" t="inlineStr">
@@ -15880,7 +15880,7 @@
       </c>
       <c r="B324" t="inlineStr">
         <is>
-          <t>CENTRO DE ALMACENAMIENTO DE RESIDUOS INDUSTRIALES, GESAM LA NEGRA</t>
+          <t>CENTRO DE RECUPERACIÓN DE TAMBORES Y CONTENEDORES IBC CONTAMINADOS, PLAMBIENTAL LA NEGRA</t>
         </is>
       </c>
       <c r="C324" t="inlineStr">
@@ -15899,7 +15899,7 @@
         </is>
       </c>
       <c r="F324" t="n">
-        <v>360</v>
+        <v>60</v>
       </c>
       <c r="G324" t="inlineStr">
         <is>
@@ -15913,7 +15913,7 @@
       </c>
       <c r="I324" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6595234&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6592870&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J324" t="inlineStr">
@@ -15928,7 +15928,7 @@
       </c>
       <c r="B325" t="inlineStr">
         <is>
-          <t>Parque Fotovoltaico Los Andes</t>
+          <t>CENTRO DE ALMACENAMIENTO DE RESIDUOS INDUSTRIALES, GESAM LA NEGRA</t>
         </is>
       </c>
       <c r="C325" t="inlineStr">
@@ -15943,11 +15943,11 @@
       </c>
       <c r="E325" t="inlineStr">
         <is>
-          <t>Andes Solar SPA</t>
+          <t>VEOLIA SERVICIOS MINEROS INTEGRALES CHILE SpA</t>
         </is>
       </c>
       <c r="F325" t="n">
-        <v>572000</v>
+        <v>360</v>
       </c>
       <c r="G325" t="inlineStr">
         <is>
@@ -15956,12 +15956,12 @@
       </c>
       <c r="H325" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Caducado</t>
         </is>
       </c>
       <c r="I325" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6581267&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6595234&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J325" t="inlineStr">
@@ -16120,7 +16120,7 @@
       </c>
       <c r="B329" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos</t>
+          <t>MODIFICACION DE LA DECLARACIÓN DE IMPACTO AMBIENTAL PROYECTO TRANSPORTE DE SULFHIDRATO DE SODIO EN LA PRIMERA Y SEGUNDA REGION</t>
         </is>
       </c>
       <c r="C329" t="inlineStr">
@@ -16135,11 +16135,11 @@
       </c>
       <c r="E329" t="inlineStr">
         <is>
-          <t>Transportes TMS Limitada</t>
+          <t>Sociedad de Transportes Camaro Ltda.</t>
         </is>
       </c>
       <c r="F329" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="G329" t="inlineStr">
         <is>
@@ -16153,7 +16153,7 @@
       </c>
       <c r="I329" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6479568&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6450945&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J329" t="inlineStr">
@@ -16168,7 +16168,7 @@
       </c>
       <c r="B330" t="inlineStr">
         <is>
-          <t>MODIFICACION DE LA DECLARACIÓN DE IMPACTO AMBIENTAL PROYECTO TRANSPORTE DE SULFHIDRATO DE SODIO EN LA PRIMERA Y SEGUNDA REGION</t>
+          <t>Transporte de Residuos Peligrosos</t>
         </is>
       </c>
       <c r="C330" t="inlineStr">
@@ -16183,11 +16183,11 @@
       </c>
       <c r="E330" t="inlineStr">
         <is>
-          <t>Sociedad de Transportes Camaro Ltda.</t>
+          <t>Transportes TMS Limitada</t>
         </is>
       </c>
       <c r="F330" t="n">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="G330" t="inlineStr">
         <is>
@@ -16201,7 +16201,7 @@
       </c>
       <c r="I330" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6450945&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6479568&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J330" t="inlineStr">
@@ -16792,7 +16792,7 @@
       </c>
       <c r="B343" t="inlineStr">
         <is>
-          <t>Modificación Proyecto Transporte de Acido Sulfurico a granel entre la Primera y Décima Regiones de Chile</t>
+          <t>Extracción de Áridos Empréstito E17L</t>
         </is>
       </c>
       <c r="C343" t="inlineStr">
@@ -16802,16 +16802,16 @@
       </c>
       <c r="D343" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E343" t="inlineStr">
         <is>
-          <t>Transportes Herrmann Limitada</t>
+          <t>Skanska Chile S.A.</t>
         </is>
       </c>
       <c r="F343" t="n">
-        <v>0</v>
+        <v>500</v>
       </c>
       <c r="G343" t="inlineStr">
         <is>
@@ -16820,12 +16820,12 @@
       </c>
       <c r="H343" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I343" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6159602&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6156264&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J343" t="inlineStr">
@@ -16840,7 +16840,7 @@
       </c>
       <c r="B344" t="inlineStr">
         <is>
-          <t>Extracción de Áridos Empréstito E17L</t>
+          <t>Modificación Proyecto Transporte de Acido Sulfurico a granel entre la Primera y Décima Regiones de Chile</t>
         </is>
       </c>
       <c r="C344" t="inlineStr">
@@ -16850,16 +16850,16 @@
       </c>
       <c r="D344" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E344" t="inlineStr">
         <is>
-          <t>Skanska Chile S.A.</t>
+          <t>Transportes Herrmann Limitada</t>
         </is>
       </c>
       <c r="F344" t="n">
-        <v>500</v>
+        <v>0</v>
       </c>
       <c r="G344" t="inlineStr">
         <is>
@@ -16868,12 +16868,12 @@
       </c>
       <c r="H344" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I344" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6156264&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6159602&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J344" t="inlineStr">
@@ -17032,7 +17032,7 @@
       </c>
       <c r="B348" t="inlineStr">
         <is>
-          <t>Proyecto Optimización de Emplazamiento de Instalaciones en Minera Escondida</t>
+          <t>Extracción de Áridos Empréstito E-63</t>
         </is>
       </c>
       <c r="C348" t="inlineStr">
@@ -17047,11 +17047,11 @@
       </c>
       <c r="E348" t="inlineStr">
         <is>
-          <t>MINERA ESCONDIDA LIMITADA</t>
+          <t>Skanska Chile S.A.</t>
         </is>
       </c>
       <c r="F348" t="n">
-        <v>120000</v>
+        <v>500</v>
       </c>
       <c r="G348" t="inlineStr">
         <is>
@@ -17065,7 +17065,7 @@
       </c>
       <c r="I348" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6080052&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6092873&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J348" t="inlineStr">
@@ -17080,7 +17080,7 @@
       </c>
       <c r="B349" t="inlineStr">
         <is>
-          <t>Extracción de Áridos Empréstito E-63</t>
+          <t>Proyecto Optimización de Emplazamiento de Instalaciones en Minera Escondida</t>
         </is>
       </c>
       <c r="C349" t="inlineStr">
@@ -17095,11 +17095,11 @@
       </c>
       <c r="E349" t="inlineStr">
         <is>
-          <t>Skanska Chile S.A.</t>
+          <t>MINERA ESCONDIDA LIMITADA</t>
         </is>
       </c>
       <c r="F349" t="n">
-        <v>500</v>
+        <v>120000</v>
       </c>
       <c r="G349" t="inlineStr">
         <is>
@@ -17113,7 +17113,7 @@
       </c>
       <c r="I349" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6092873&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6080052&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J349" t="inlineStr">
@@ -17320,7 +17320,7 @@
       </c>
       <c r="B354" t="inlineStr">
         <is>
-          <t>Nuevas Instalaciones para Mantención Mina</t>
+          <t>Transporte de Residuos Peligrosos</t>
         </is>
       </c>
       <c r="C354" t="inlineStr">
@@ -17330,16 +17330,16 @@
       </c>
       <c r="D354" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E354" t="inlineStr">
         <is>
-          <t>MINERA ESCONDIDA LIMITADA</t>
+          <t>Transportes TMS Limitada</t>
         </is>
       </c>
       <c r="F354" t="n">
-        <v>635000</v>
+        <v>200</v>
       </c>
       <c r="G354" t="inlineStr">
         <is>
@@ -17348,12 +17348,12 @@
       </c>
       <c r="H354" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I354" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5931343&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6003582&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J354" t="inlineStr">
@@ -17368,7 +17368,7 @@
       </c>
       <c r="B355" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos</t>
+          <t>Transporte de Sustancias Peligrosas entre la I, II y III Regiones"</t>
         </is>
       </c>
       <c r="C355" t="inlineStr">
@@ -17383,11 +17383,11 @@
       </c>
       <c r="E355" t="inlineStr">
         <is>
-          <t>Transportes TMS Limitada</t>
+          <t>Molina Quimicos S.A.</t>
         </is>
       </c>
       <c r="F355" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="G355" t="inlineStr">
         <is>
@@ -17401,7 +17401,7 @@
       </c>
       <c r="I355" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6003582&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6003607&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J355" t="inlineStr">
@@ -17416,7 +17416,7 @@
       </c>
       <c r="B356" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas entre la I, II y III Regiones"</t>
+          <t>Nuevas Instalaciones para Mantención Mina</t>
         </is>
       </c>
       <c r="C356" t="inlineStr">
@@ -17426,16 +17426,16 @@
       </c>
       <c r="D356" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E356" t="inlineStr">
         <is>
-          <t>Molina Quimicos S.A.</t>
+          <t>MINERA ESCONDIDA LIMITADA</t>
         </is>
       </c>
       <c r="F356" t="n">
-        <v>100</v>
+        <v>635000</v>
       </c>
       <c r="G356" t="inlineStr">
         <is>
@@ -17444,12 +17444,12 @@
       </c>
       <c r="H356" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I356" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6003607&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5931343&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J356" t="inlineStr">
@@ -19672,7 +19672,7 @@
       </c>
       <c r="B403" t="inlineStr">
         <is>
-          <t>II MODIFICACIÓN DIA "TRANSPORTE Y MANEJO IN SITU DE RESIDUOS SÓLIDOS Y LÍQUIDOS PELIGROSOS Y NO PELIGROSOS"</t>
+          <t>"Transporte de acido sulfurico concentrado para minera Las Cenizas, Taltal."</t>
         </is>
       </c>
       <c r="C403" t="inlineStr">
@@ -19682,16 +19682,16 @@
       </c>
       <c r="D403" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E403" t="inlineStr">
         <is>
-          <t>Mol Ambiente S.A.</t>
+          <t>Translog S.A.</t>
         </is>
       </c>
       <c r="F403" t="n">
-        <v>75000</v>
+        <v>600</v>
       </c>
       <c r="G403" t="inlineStr">
         <is>
@@ -19700,12 +19700,12 @@
       </c>
       <c r="H403" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I403" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5118945&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5114868&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J403" t="inlineStr">
@@ -19720,7 +19720,7 @@
       </c>
       <c r="B404" t="inlineStr">
         <is>
-          <t>"Transporte de acido sulfurico concentrado para minera Las Cenizas, Taltal."</t>
+          <t>II MODIFICACIÓN DIA "TRANSPORTE Y MANEJO IN SITU DE RESIDUOS SÓLIDOS Y LÍQUIDOS PELIGROSOS Y NO PELIGROSOS"</t>
         </is>
       </c>
       <c r="C404" t="inlineStr">
@@ -19730,16 +19730,16 @@
       </c>
       <c r="D404" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E404" t="inlineStr">
         <is>
-          <t>Translog S.A.</t>
+          <t>Mol Ambiente S.A.</t>
         </is>
       </c>
       <c r="F404" t="n">
-        <v>600</v>
+        <v>75000</v>
       </c>
       <c r="G404" t="inlineStr">
         <is>
@@ -19748,12 +19748,12 @@
       </c>
       <c r="H404" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I404" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5114868&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5118945&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J404" t="inlineStr">
@@ -21208,7 +21208,7 @@
       </c>
       <c r="B435" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE RESIDUOS PELIGROSOS POR RUTAS DE LA REGIÓN DE ANTOFAGASTA</t>
+          <t>Proyecto Laboratorios Químicos CIMM T&amp;S SA. La Negra</t>
         </is>
       </c>
       <c r="C435" t="inlineStr">
@@ -21223,11 +21223,11 @@
       </c>
       <c r="E435" t="inlineStr">
         <is>
-          <t>Limfosep S.A</t>
+          <t>Yancko Gonzalez Rozas</t>
         </is>
       </c>
       <c r="F435" t="n">
-        <v>1000</v>
+        <v>8000</v>
       </c>
       <c r="G435" t="inlineStr">
         <is>
@@ -21236,12 +21236,12 @@
       </c>
       <c r="H435" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I435" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4698232&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4670031&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J435" t="inlineStr">
@@ -21256,7 +21256,7 @@
       </c>
       <c r="B436" t="inlineStr">
         <is>
-          <t>Proyecto Laboratorios Químicos CIMM T&amp;S SA. La Negra</t>
+          <t>TRANSPORTE DE RESIDUOS PELIGROSOS POR RUTAS DE LA REGIÓN DE ANTOFAGASTA</t>
         </is>
       </c>
       <c r="C436" t="inlineStr">
@@ -21271,11 +21271,11 @@
       </c>
       <c r="E436" t="inlineStr">
         <is>
-          <t>Yancko Gonzalez Rozas</t>
+          <t>Limfosep S.A</t>
         </is>
       </c>
       <c r="F436" t="n">
-        <v>8000</v>
+        <v>1000</v>
       </c>
       <c r="G436" t="inlineStr">
         <is>
@@ -21284,12 +21284,12 @@
       </c>
       <c r="H436" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I436" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4670031&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4698232&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J436" t="inlineStr">
@@ -21688,7 +21688,7 @@
       </c>
       <c r="B445" t="inlineStr">
         <is>
-          <t>EXPANSION DEPOSITO DE RELAVES FILTRADOS FAENA EL PEÑÓN</t>
+          <t>Nuevo Transporte Interregional de Cianuro de Sodio</t>
         </is>
       </c>
       <c r="C445" t="inlineStr">
@@ -21698,16 +21698,16 @@
       </c>
       <c r="D445" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E445" t="inlineStr">
         <is>
-          <t>Minera Meridian Limitada</t>
+          <t>OXIQUIM S.A.</t>
         </is>
       </c>
       <c r="F445" t="n">
-        <v>688</v>
+        <v>85</v>
       </c>
       <c r="G445" t="inlineStr">
         <is>
@@ -21716,12 +21716,12 @@
       </c>
       <c r="H445" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I445" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4601640&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4594007&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J445" t="inlineStr">
@@ -21736,7 +21736,7 @@
       </c>
       <c r="B446" t="inlineStr">
         <is>
-          <t>Nuevo Transporte Interregional de Cianuro de Sodio</t>
+          <t>EXPANSION DEPOSITO DE RELAVES FILTRADOS FAENA EL PEÑÓN</t>
         </is>
       </c>
       <c r="C446" t="inlineStr">
@@ -21746,16 +21746,16 @@
       </c>
       <c r="D446" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E446" t="inlineStr">
         <is>
-          <t>OXIQUIM S.A.</t>
+          <t>Minera Meridian Limitada</t>
         </is>
       </c>
       <c r="F446" t="n">
-        <v>85</v>
+        <v>688</v>
       </c>
       <c r="G446" t="inlineStr">
         <is>
@@ -21764,12 +21764,12 @@
       </c>
       <c r="H446" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I446" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4594007&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4601640&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J446" t="inlineStr">
@@ -22504,7 +22504,7 @@
       </c>
       <c r="B462" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligroso, Transporte Bello</t>
+          <t>Transporte de Barros Anódicos</t>
         </is>
       </c>
       <c r="C462" t="inlineStr">
@@ -22519,11 +22519,11 @@
       </c>
       <c r="E462" t="inlineStr">
         <is>
-          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
+          <t>CODELCO CHILE</t>
         </is>
       </c>
       <c r="F462" t="n">
-        <v>4050</v>
+        <v>0</v>
       </c>
       <c r="G462" t="inlineStr">
         <is>
@@ -22537,7 +22537,7 @@
       </c>
       <c r="I462" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4455518&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4429880&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J462" t="inlineStr">
@@ -22552,7 +22552,7 @@
       </c>
       <c r="B463" t="inlineStr">
         <is>
-          <t>Transporte de Barros Anódicos</t>
+          <t>Transporte de Residuos Peligroso, Transporte Bello</t>
         </is>
       </c>
       <c r="C463" t="inlineStr">
@@ -22567,11 +22567,11 @@
       </c>
       <c r="E463" t="inlineStr">
         <is>
-          <t>CODELCO CHILE</t>
+          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
         </is>
       </c>
       <c r="F463" t="n">
-        <v>0</v>
+        <v>4050</v>
       </c>
       <c r="G463" t="inlineStr">
         <is>
@@ -22585,7 +22585,7 @@
       </c>
       <c r="I463" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4429880&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4455518&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J463" t="inlineStr">
@@ -22696,7 +22696,7 @@
       </c>
       <c r="B466" t="inlineStr">
         <is>
-          <t>Modificacion Proyecto Minero Algorta Sector Pampa</t>
+          <t>Transporte y Almacenamiento temporal de Residuos Peligrosos M&amp;M ltda.</t>
         </is>
       </c>
       <c r="C466" t="inlineStr">
@@ -22706,16 +22706,16 @@
       </c>
       <c r="D466" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E466" t="inlineStr">
         <is>
-          <t>Algorta Norte S.A</t>
+          <t>Transportes Moscoso y Moscoso Ltda.</t>
         </is>
       </c>
       <c r="F466" t="n">
-        <v>6400</v>
+        <v>41075</v>
       </c>
       <c r="G466" t="inlineStr">
         <is>
@@ -22729,7 +22729,7 @@
       </c>
       <c r="I466" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4432700&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4422237&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J466" t="inlineStr">
@@ -22744,7 +22744,7 @@
       </c>
       <c r="B467" t="inlineStr">
         <is>
-          <t>Transporte y Almacenamiento temporal de Residuos Peligrosos M&amp;M ltda.</t>
+          <t>Modificacion Proyecto Minero Algorta Sector Pampa</t>
         </is>
       </c>
       <c r="C467" t="inlineStr">
@@ -22754,16 +22754,16 @@
       </c>
       <c r="D467" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E467" t="inlineStr">
         <is>
-          <t>Transportes Moscoso y Moscoso Ltda.</t>
+          <t>Algorta Norte S.A</t>
         </is>
       </c>
       <c r="F467" t="n">
-        <v>41075</v>
+        <v>6400</v>
       </c>
       <c r="G467" t="inlineStr">
         <is>
@@ -22777,7 +22777,7 @@
       </c>
       <c r="I467" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4422237&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4432700&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J467" t="inlineStr">
@@ -24232,7 +24232,7 @@
       </c>
       <c r="B498" t="inlineStr">
         <is>
-          <t>Proyecto Tratamiento de Polvos Metalurgicos de Otras Fundiciones (e-seia)</t>
+          <t>Transporte de Residuos Peligrosos CMR Norte (e-seia)</t>
         </is>
       </c>
       <c r="C498" t="inlineStr">
@@ -24247,11 +24247,11 @@
       </c>
       <c r="E498" t="inlineStr">
         <is>
-          <t>Complejo Metalurgico Altonorte S.A.</t>
+          <t>Soluciones Ambientales del Norte S. A.</t>
         </is>
       </c>
       <c r="F498" t="n">
-        <v>320</v>
+        <v>250</v>
       </c>
       <c r="G498" t="inlineStr">
         <is>
@@ -24265,7 +24265,7 @@
       </c>
       <c r="I498" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4061206&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4063042&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J498" t="inlineStr">
@@ -24280,7 +24280,7 @@
       </c>
       <c r="B499" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos CMR Norte (e-seia)</t>
+          <t>Proyecto Tratamiento de Polvos Metalurgicos de Otras Fundiciones (e-seia)</t>
         </is>
       </c>
       <c r="C499" t="inlineStr">
@@ -24295,11 +24295,11 @@
       </c>
       <c r="E499" t="inlineStr">
         <is>
-          <t>Soluciones Ambientales del Norte S. A.</t>
+          <t>Complejo Metalurgico Altonorte S.A.</t>
         </is>
       </c>
       <c r="F499" t="n">
-        <v>250</v>
+        <v>320</v>
       </c>
       <c r="G499" t="inlineStr">
         <is>
@@ -24313,7 +24313,7 @@
       </c>
       <c r="I499" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4063042&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4061206&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J499" t="inlineStr">

--- a/data/Antofagasta.xlsx
+++ b/data/Antofagasta.xlsx
@@ -1460,7 +1460,7 @@
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>En Calificación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I23" t="inlineStr">
@@ -11368,7 +11368,7 @@
       </c>
       <c r="B230" t="inlineStr">
         <is>
-          <t>Planta de Fabricación de Tuberías PEX (polietileno reticulado)</t>
+          <t>Transporte Interregional de Sustancias Peligrosas - AGREDUCAM VI Región</t>
         </is>
       </c>
       <c r="C230" t="inlineStr">
@@ -11378,16 +11378,16 @@
       </c>
       <c r="D230" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E230" t="inlineStr">
         <is>
-          <t>CROSSPIPE SYSTEMS S.A.</t>
+          <t>Asociación Gremial de Dueños de Camiones de la Sexta Región</t>
         </is>
       </c>
       <c r="F230" t="n">
-        <v>12400</v>
+        <v>1200</v>
       </c>
       <c r="G230" t="inlineStr">
         <is>
@@ -11401,7 +11401,7 @@
       </c>
       <c r="I230" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128954293&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128964620&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J230" t="inlineStr">
@@ -11416,7 +11416,7 @@
       </c>
       <c r="B231" t="inlineStr">
         <is>
-          <t>Transporte Interregional de Sustancias Peligrosas - AGREDUCAM VI Región</t>
+          <t>Transporte de Residuos Peligrosos por las Rutas Indicadas</t>
         </is>
       </c>
       <c r="C231" t="inlineStr">
@@ -11431,11 +11431,11 @@
       </c>
       <c r="E231" t="inlineStr">
         <is>
-          <t>Asociación Gremial de Dueños de Camiones de la Sexta Región</t>
+          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
         </is>
       </c>
       <c r="F231" t="n">
-        <v>1200</v>
+        <v>0</v>
       </c>
       <c r="G231" t="inlineStr">
         <is>
@@ -11449,7 +11449,7 @@
       </c>
       <c r="I231" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128964620&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128972489&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J231" t="inlineStr">
@@ -11464,7 +11464,7 @@
       </c>
       <c r="B232" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos por las Rutas Indicadas</t>
+          <t>Planta de Fabricación de Tuberías PEX (polietileno reticulado)</t>
         </is>
       </c>
       <c r="C232" t="inlineStr">
@@ -11474,16 +11474,16 @@
       </c>
       <c r="D232" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E232" t="inlineStr">
         <is>
-          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
+          <t>CROSSPIPE SYSTEMS S.A.</t>
         </is>
       </c>
       <c r="F232" t="n">
-        <v>0</v>
+        <v>12400</v>
       </c>
       <c r="G232" t="inlineStr">
         <is>
@@ -11497,7 +11497,7 @@
       </c>
       <c r="I232" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128972489&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128954293&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J232" t="inlineStr">
@@ -13096,26 +13096,26 @@
       </c>
       <c r="B266" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas Transaltisa Chile Ltda</t>
+          <t>RT Sulfuros</t>
         </is>
       </c>
       <c r="C266" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D266" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E266" t="inlineStr">
         <is>
-          <t>Transaltisa Chile Ltda.</t>
+          <t>CODELCO Chile, División Radomiro Tomic</t>
         </is>
       </c>
       <c r="F266" t="n">
-        <v>2050</v>
+        <v>5.4</v>
       </c>
       <c r="G266" t="inlineStr">
         <is>
@@ -13124,12 +13124,12 @@
       </c>
       <c r="H266" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I266" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8218613&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8210090&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J266" t="inlineStr">
@@ -13144,26 +13144,26 @@
       </c>
       <c r="B267" t="inlineStr">
         <is>
-          <t>RT Sulfuros</t>
+          <t>Transporte de Sustancias Peligrosas Transaltisa Chile Ltda</t>
         </is>
       </c>
       <c r="C267" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D267" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E267" t="inlineStr">
         <is>
-          <t>CODELCO Chile, División Radomiro Tomic</t>
+          <t>Transaltisa Chile Ltda.</t>
         </is>
       </c>
       <c r="F267" t="n">
-        <v>5.4</v>
+        <v>2050</v>
       </c>
       <c r="G267" t="inlineStr">
         <is>
@@ -13172,12 +13172,12 @@
       </c>
       <c r="H267" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I267" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8210090&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8218613&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J267" t="inlineStr">
@@ -15832,7 +15832,7 @@
       </c>
       <c r="B323" t="inlineStr">
         <is>
-          <t>CENTRO DE RECUPERACIÓN DE TAMBORES Y CONTENEDORES IBC CONTAMINADOS, PLAMBIENTAL LA NEGRA</t>
+          <t>Parque Fotovoltaico Los Andes</t>
         </is>
       </c>
       <c r="C323" t="inlineStr">
@@ -15847,11 +15847,11 @@
       </c>
       <c r="E323" t="inlineStr">
         <is>
-          <t>VEOLIA SERVICIOS MINEROS INTEGRALES CHILE SpA</t>
+          <t>Andes Solar SPA</t>
         </is>
       </c>
       <c r="F323" t="n">
-        <v>60</v>
+        <v>572000</v>
       </c>
       <c r="G323" t="inlineStr">
         <is>
@@ -15860,12 +15860,12 @@
       </c>
       <c r="H323" t="inlineStr">
         <is>
-          <t>Caducado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I323" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6592870&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6581267&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J323" t="inlineStr">
@@ -15880,7 +15880,7 @@
       </c>
       <c r="B324" t="inlineStr">
         <is>
-          <t>CENTRO DE ALMACENAMIENTO DE RESIDUOS INDUSTRIALES, GESAM LA NEGRA</t>
+          <t>CENTRO DE RECUPERACIÓN DE TAMBORES Y CONTENEDORES IBC CONTAMINADOS, PLAMBIENTAL LA NEGRA</t>
         </is>
       </c>
       <c r="C324" t="inlineStr">
@@ -15899,7 +15899,7 @@
         </is>
       </c>
       <c r="F324" t="n">
-        <v>360</v>
+        <v>60</v>
       </c>
       <c r="G324" t="inlineStr">
         <is>
@@ -15913,7 +15913,7 @@
       </c>
       <c r="I324" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6595234&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6592870&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J324" t="inlineStr">
@@ -15928,7 +15928,7 @@
       </c>
       <c r="B325" t="inlineStr">
         <is>
-          <t>Parque Fotovoltaico Los Andes</t>
+          <t>CENTRO DE ALMACENAMIENTO DE RESIDUOS INDUSTRIALES, GESAM LA NEGRA</t>
         </is>
       </c>
       <c r="C325" t="inlineStr">
@@ -15943,11 +15943,11 @@
       </c>
       <c r="E325" t="inlineStr">
         <is>
-          <t>Andes Solar SPA</t>
+          <t>VEOLIA SERVICIOS MINEROS INTEGRALES CHILE SpA</t>
         </is>
       </c>
       <c r="F325" t="n">
-        <v>572000</v>
+        <v>360</v>
       </c>
       <c r="G325" t="inlineStr">
         <is>
@@ -15956,12 +15956,12 @@
       </c>
       <c r="H325" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Caducado</t>
         </is>
       </c>
       <c r="I325" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6581267&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6595234&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J325" t="inlineStr">
@@ -16120,7 +16120,7 @@
       </c>
       <c r="B329" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos</t>
+          <t>MODIFICACION DE LA DECLARACIÓN DE IMPACTO AMBIENTAL PROYECTO TRANSPORTE DE SULFHIDRATO DE SODIO EN LA PRIMERA Y SEGUNDA REGION</t>
         </is>
       </c>
       <c r="C329" t="inlineStr">
@@ -16135,11 +16135,11 @@
       </c>
       <c r="E329" t="inlineStr">
         <is>
-          <t>Transportes TMS Limitada</t>
+          <t>Sociedad de Transportes Camaro Ltda.</t>
         </is>
       </c>
       <c r="F329" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="G329" t="inlineStr">
         <is>
@@ -16153,7 +16153,7 @@
       </c>
       <c r="I329" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6479568&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6450945&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J329" t="inlineStr">
@@ -16168,7 +16168,7 @@
       </c>
       <c r="B330" t="inlineStr">
         <is>
-          <t>MODIFICACION DE LA DECLARACIÓN DE IMPACTO AMBIENTAL PROYECTO TRANSPORTE DE SULFHIDRATO DE SODIO EN LA PRIMERA Y SEGUNDA REGION</t>
+          <t>Transporte de Residuos Peligrosos</t>
         </is>
       </c>
       <c r="C330" t="inlineStr">
@@ -16183,11 +16183,11 @@
       </c>
       <c r="E330" t="inlineStr">
         <is>
-          <t>Sociedad de Transportes Camaro Ltda.</t>
+          <t>Transportes TMS Limitada</t>
         </is>
       </c>
       <c r="F330" t="n">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="G330" t="inlineStr">
         <is>
@@ -16201,7 +16201,7 @@
       </c>
       <c r="I330" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6450945&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6479568&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J330" t="inlineStr">
@@ -16792,7 +16792,7 @@
       </c>
       <c r="B343" t="inlineStr">
         <is>
-          <t>Modificación Proyecto Transporte de Acido Sulfurico a granel entre la Primera y Décima Regiones de Chile</t>
+          <t>Extracción de Áridos Empréstito E17L</t>
         </is>
       </c>
       <c r="C343" t="inlineStr">
@@ -16802,16 +16802,16 @@
       </c>
       <c r="D343" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E343" t="inlineStr">
         <is>
-          <t>Transportes Herrmann Limitada</t>
+          <t>Skanska Chile S.A.</t>
         </is>
       </c>
       <c r="F343" t="n">
-        <v>0</v>
+        <v>500</v>
       </c>
       <c r="G343" t="inlineStr">
         <is>
@@ -16820,12 +16820,12 @@
       </c>
       <c r="H343" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I343" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6159602&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6156264&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J343" t="inlineStr">
@@ -16840,7 +16840,7 @@
       </c>
       <c r="B344" t="inlineStr">
         <is>
-          <t>Extracción de Áridos Empréstito E17L</t>
+          <t>Modificación Proyecto Transporte de Acido Sulfurico a granel entre la Primera y Décima Regiones de Chile</t>
         </is>
       </c>
       <c r="C344" t="inlineStr">
@@ -16850,16 +16850,16 @@
       </c>
       <c r="D344" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E344" t="inlineStr">
         <is>
-          <t>Skanska Chile S.A.</t>
+          <t>Transportes Herrmann Limitada</t>
         </is>
       </c>
       <c r="F344" t="n">
-        <v>500</v>
+        <v>0</v>
       </c>
       <c r="G344" t="inlineStr">
         <is>
@@ -16868,12 +16868,12 @@
       </c>
       <c r="H344" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I344" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6156264&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6159602&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J344" t="inlineStr">
@@ -17032,7 +17032,7 @@
       </c>
       <c r="B348" t="inlineStr">
         <is>
-          <t>Proyecto Optimización de Emplazamiento de Instalaciones en Minera Escondida</t>
+          <t>Extracción de Áridos Empréstito E-63</t>
         </is>
       </c>
       <c r="C348" t="inlineStr">
@@ -17047,11 +17047,11 @@
       </c>
       <c r="E348" t="inlineStr">
         <is>
-          <t>MINERA ESCONDIDA LIMITADA</t>
+          <t>Skanska Chile S.A.</t>
         </is>
       </c>
       <c r="F348" t="n">
-        <v>120000</v>
+        <v>500</v>
       </c>
       <c r="G348" t="inlineStr">
         <is>
@@ -17065,7 +17065,7 @@
       </c>
       <c r="I348" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6080052&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6092873&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J348" t="inlineStr">
@@ -17080,7 +17080,7 @@
       </c>
       <c r="B349" t="inlineStr">
         <is>
-          <t>Extracción de Áridos Empréstito E-63</t>
+          <t>Proyecto Optimización de Emplazamiento de Instalaciones en Minera Escondida</t>
         </is>
       </c>
       <c r="C349" t="inlineStr">
@@ -17095,11 +17095,11 @@
       </c>
       <c r="E349" t="inlineStr">
         <is>
-          <t>Skanska Chile S.A.</t>
+          <t>MINERA ESCONDIDA LIMITADA</t>
         </is>
       </c>
       <c r="F349" t="n">
-        <v>500</v>
+        <v>120000</v>
       </c>
       <c r="G349" t="inlineStr">
         <is>
@@ -17113,7 +17113,7 @@
       </c>
       <c r="I349" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6092873&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6080052&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J349" t="inlineStr">
@@ -17320,7 +17320,7 @@
       </c>
       <c r="B354" t="inlineStr">
         <is>
-          <t>Nuevas Instalaciones para Mantención Mina</t>
+          <t>Transporte de Residuos Peligrosos</t>
         </is>
       </c>
       <c r="C354" t="inlineStr">
@@ -17330,16 +17330,16 @@
       </c>
       <c r="D354" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E354" t="inlineStr">
         <is>
-          <t>MINERA ESCONDIDA LIMITADA</t>
+          <t>Transportes TMS Limitada</t>
         </is>
       </c>
       <c r="F354" t="n">
-        <v>635000</v>
+        <v>200</v>
       </c>
       <c r="G354" t="inlineStr">
         <is>
@@ -17348,12 +17348,12 @@
       </c>
       <c r="H354" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I354" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5931343&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6003582&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J354" t="inlineStr">
@@ -17368,7 +17368,7 @@
       </c>
       <c r="B355" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos</t>
+          <t>Transporte de Sustancias Peligrosas entre la I, II y III Regiones"</t>
         </is>
       </c>
       <c r="C355" t="inlineStr">
@@ -17383,11 +17383,11 @@
       </c>
       <c r="E355" t="inlineStr">
         <is>
-          <t>Transportes TMS Limitada</t>
+          <t>Molina Quimicos S.A.</t>
         </is>
       </c>
       <c r="F355" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="G355" t="inlineStr">
         <is>
@@ -17401,7 +17401,7 @@
       </c>
       <c r="I355" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6003582&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6003607&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J355" t="inlineStr">
@@ -17416,7 +17416,7 @@
       </c>
       <c r="B356" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas entre la I, II y III Regiones"</t>
+          <t>Nuevas Instalaciones para Mantención Mina</t>
         </is>
       </c>
       <c r="C356" t="inlineStr">
@@ -17426,16 +17426,16 @@
       </c>
       <c r="D356" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E356" t="inlineStr">
         <is>
-          <t>Molina Quimicos S.A.</t>
+          <t>MINERA ESCONDIDA LIMITADA</t>
         </is>
       </c>
       <c r="F356" t="n">
-        <v>100</v>
+        <v>635000</v>
       </c>
       <c r="G356" t="inlineStr">
         <is>
@@ -17444,12 +17444,12 @@
       </c>
       <c r="H356" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I356" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6003607&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5931343&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J356" t="inlineStr">
@@ -19672,7 +19672,7 @@
       </c>
       <c r="B403" t="inlineStr">
         <is>
-          <t>II MODIFICACIÓN DIA "TRANSPORTE Y MANEJO IN SITU DE RESIDUOS SÓLIDOS Y LÍQUIDOS PELIGROSOS Y NO PELIGROSOS"</t>
+          <t>"Transporte de acido sulfurico concentrado para minera Las Cenizas, Taltal."</t>
         </is>
       </c>
       <c r="C403" t="inlineStr">
@@ -19682,16 +19682,16 @@
       </c>
       <c r="D403" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E403" t="inlineStr">
         <is>
-          <t>Mol Ambiente S.A.</t>
+          <t>Translog S.A.</t>
         </is>
       </c>
       <c r="F403" t="n">
-        <v>75000</v>
+        <v>600</v>
       </c>
       <c r="G403" t="inlineStr">
         <is>
@@ -19700,12 +19700,12 @@
       </c>
       <c r="H403" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I403" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5118945&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5114868&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J403" t="inlineStr">
@@ -19720,7 +19720,7 @@
       </c>
       <c r="B404" t="inlineStr">
         <is>
-          <t>"Transporte de acido sulfurico concentrado para minera Las Cenizas, Taltal."</t>
+          <t>II MODIFICACIÓN DIA "TRANSPORTE Y MANEJO IN SITU DE RESIDUOS SÓLIDOS Y LÍQUIDOS PELIGROSOS Y NO PELIGROSOS"</t>
         </is>
       </c>
       <c r="C404" t="inlineStr">
@@ -19730,16 +19730,16 @@
       </c>
       <c r="D404" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E404" t="inlineStr">
         <is>
-          <t>Translog S.A.</t>
+          <t>Mol Ambiente S.A.</t>
         </is>
       </c>
       <c r="F404" t="n">
-        <v>600</v>
+        <v>75000</v>
       </c>
       <c r="G404" t="inlineStr">
         <is>
@@ -19748,12 +19748,12 @@
       </c>
       <c r="H404" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I404" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5114868&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5118945&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J404" t="inlineStr">
@@ -21208,7 +21208,7 @@
       </c>
       <c r="B435" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE RESIDUOS PELIGROSOS POR RUTAS DE LA REGIÓN DE ANTOFAGASTA</t>
+          <t>Proyecto Laboratorios Químicos CIMM T&amp;S SA. La Negra</t>
         </is>
       </c>
       <c r="C435" t="inlineStr">
@@ -21223,11 +21223,11 @@
       </c>
       <c r="E435" t="inlineStr">
         <is>
-          <t>Limfosep S.A</t>
+          <t>Yancko Gonzalez Rozas</t>
         </is>
       </c>
       <c r="F435" t="n">
-        <v>1000</v>
+        <v>8000</v>
       </c>
       <c r="G435" t="inlineStr">
         <is>
@@ -21236,12 +21236,12 @@
       </c>
       <c r="H435" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I435" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4698232&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4670031&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J435" t="inlineStr">
@@ -21256,7 +21256,7 @@
       </c>
       <c r="B436" t="inlineStr">
         <is>
-          <t>Proyecto Laboratorios Químicos CIMM T&amp;S SA. La Negra</t>
+          <t>TRANSPORTE DE RESIDUOS PELIGROSOS POR RUTAS DE LA REGIÓN DE ANTOFAGASTA</t>
         </is>
       </c>
       <c r="C436" t="inlineStr">
@@ -21271,11 +21271,11 @@
       </c>
       <c r="E436" t="inlineStr">
         <is>
-          <t>Yancko Gonzalez Rozas</t>
+          <t>Limfosep S.A</t>
         </is>
       </c>
       <c r="F436" t="n">
-        <v>8000</v>
+        <v>1000</v>
       </c>
       <c r="G436" t="inlineStr">
         <is>
@@ -21284,12 +21284,12 @@
       </c>
       <c r="H436" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I436" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4670031&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4698232&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J436" t="inlineStr">
@@ -21688,7 +21688,7 @@
       </c>
       <c r="B445" t="inlineStr">
         <is>
-          <t>EXPANSION DEPOSITO DE RELAVES FILTRADOS FAENA EL PEÑÓN</t>
+          <t>Nuevo Transporte Interregional de Cianuro de Sodio</t>
         </is>
       </c>
       <c r="C445" t="inlineStr">
@@ -21698,16 +21698,16 @@
       </c>
       <c r="D445" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E445" t="inlineStr">
         <is>
-          <t>Minera Meridian Limitada</t>
+          <t>OXIQUIM S.A.</t>
         </is>
       </c>
       <c r="F445" t="n">
-        <v>688</v>
+        <v>85</v>
       </c>
       <c r="G445" t="inlineStr">
         <is>
@@ -21716,12 +21716,12 @@
       </c>
       <c r="H445" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I445" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4601640&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4594007&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J445" t="inlineStr">
@@ -21736,7 +21736,7 @@
       </c>
       <c r="B446" t="inlineStr">
         <is>
-          <t>Nuevo Transporte Interregional de Cianuro de Sodio</t>
+          <t>EXPANSION DEPOSITO DE RELAVES FILTRADOS FAENA EL PEÑÓN</t>
         </is>
       </c>
       <c r="C446" t="inlineStr">
@@ -21746,16 +21746,16 @@
       </c>
       <c r="D446" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E446" t="inlineStr">
         <is>
-          <t>OXIQUIM S.A.</t>
+          <t>Minera Meridian Limitada</t>
         </is>
       </c>
       <c r="F446" t="n">
-        <v>85</v>
+        <v>688</v>
       </c>
       <c r="G446" t="inlineStr">
         <is>
@@ -21764,12 +21764,12 @@
       </c>
       <c r="H446" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I446" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4594007&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4601640&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J446" t="inlineStr">
@@ -22504,7 +22504,7 @@
       </c>
       <c r="B462" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligroso, Transporte Bello</t>
+          <t>Transporte de Barros Anódicos</t>
         </is>
       </c>
       <c r="C462" t="inlineStr">
@@ -22519,11 +22519,11 @@
       </c>
       <c r="E462" t="inlineStr">
         <is>
-          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
+          <t>CODELCO CHILE</t>
         </is>
       </c>
       <c r="F462" t="n">
-        <v>4050</v>
+        <v>0</v>
       </c>
       <c r="G462" t="inlineStr">
         <is>
@@ -22537,7 +22537,7 @@
       </c>
       <c r="I462" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4455518&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4429880&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J462" t="inlineStr">
@@ -22552,7 +22552,7 @@
       </c>
       <c r="B463" t="inlineStr">
         <is>
-          <t>Transporte de Barros Anódicos</t>
+          <t>Transporte de Residuos Peligroso, Transporte Bello</t>
         </is>
       </c>
       <c r="C463" t="inlineStr">
@@ -22567,11 +22567,11 @@
       </c>
       <c r="E463" t="inlineStr">
         <is>
-          <t>CODELCO CHILE</t>
+          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
         </is>
       </c>
       <c r="F463" t="n">
-        <v>0</v>
+        <v>4050</v>
       </c>
       <c r="G463" t="inlineStr">
         <is>
@@ -22585,7 +22585,7 @@
       </c>
       <c r="I463" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4429880&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4455518&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J463" t="inlineStr">
@@ -22696,7 +22696,7 @@
       </c>
       <c r="B466" t="inlineStr">
         <is>
-          <t>Modificacion Proyecto Minero Algorta Sector Pampa</t>
+          <t>Transporte y Almacenamiento temporal de Residuos Peligrosos M&amp;M ltda.</t>
         </is>
       </c>
       <c r="C466" t="inlineStr">
@@ -22706,16 +22706,16 @@
       </c>
       <c r="D466" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E466" t="inlineStr">
         <is>
-          <t>Algorta Norte S.A</t>
+          <t>Transportes Moscoso y Moscoso Ltda.</t>
         </is>
       </c>
       <c r="F466" t="n">
-        <v>6400</v>
+        <v>41075</v>
       </c>
       <c r="G466" t="inlineStr">
         <is>
@@ -22729,7 +22729,7 @@
       </c>
       <c r="I466" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4432700&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4422237&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J466" t="inlineStr">
@@ -22744,7 +22744,7 @@
       </c>
       <c r="B467" t="inlineStr">
         <is>
-          <t>Transporte y Almacenamiento temporal de Residuos Peligrosos M&amp;M ltda.</t>
+          <t>Modificacion Proyecto Minero Algorta Sector Pampa</t>
         </is>
       </c>
       <c r="C467" t="inlineStr">
@@ -22754,16 +22754,16 @@
       </c>
       <c r="D467" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E467" t="inlineStr">
         <is>
-          <t>Transportes Moscoso y Moscoso Ltda.</t>
+          <t>Algorta Norte S.A</t>
         </is>
       </c>
       <c r="F467" t="n">
-        <v>41075</v>
+        <v>6400</v>
       </c>
       <c r="G467" t="inlineStr">
         <is>
@@ -22777,7 +22777,7 @@
       </c>
       <c r="I467" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4422237&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4432700&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J467" t="inlineStr">
@@ -24232,7 +24232,7 @@
       </c>
       <c r="B498" t="inlineStr">
         <is>
-          <t>Proyecto Tratamiento de Polvos Metalurgicos de Otras Fundiciones (e-seia)</t>
+          <t>Transporte de Residuos Peligrosos CMR Norte (e-seia)</t>
         </is>
       </c>
       <c r="C498" t="inlineStr">
@@ -24247,11 +24247,11 @@
       </c>
       <c r="E498" t="inlineStr">
         <is>
-          <t>Complejo Metalurgico Altonorte S.A.</t>
+          <t>Soluciones Ambientales del Norte S. A.</t>
         </is>
       </c>
       <c r="F498" t="n">
-        <v>320</v>
+        <v>250</v>
       </c>
       <c r="G498" t="inlineStr">
         <is>
@@ -24265,7 +24265,7 @@
       </c>
       <c r="I498" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4061206&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4063042&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J498" t="inlineStr">
@@ -24280,7 +24280,7 @@
       </c>
       <c r="B499" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos CMR Norte (e-seia)</t>
+          <t>Proyecto Tratamiento de Polvos Metalurgicos de Otras Fundiciones (e-seia)</t>
         </is>
       </c>
       <c r="C499" t="inlineStr">
@@ -24295,11 +24295,11 @@
       </c>
       <c r="E499" t="inlineStr">
         <is>
-          <t>Soluciones Ambientales del Norte S. A.</t>
+          <t>Complejo Metalurgico Altonorte S.A.</t>
         </is>
       </c>
       <c r="F499" t="n">
-        <v>250</v>
+        <v>320</v>
       </c>
       <c r="G499" t="inlineStr">
         <is>
@@ -24313,7 +24313,7 @@
       </c>
       <c r="I499" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4063042&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4061206&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J499" t="inlineStr">

--- a/data/Antofagasta.xlsx
+++ b/data/Antofagasta.xlsx
@@ -11368,7 +11368,7 @@
       </c>
       <c r="B230" t="inlineStr">
         <is>
-          <t>Transporte Interregional de Sustancias Peligrosas - AGREDUCAM VI Región</t>
+          <t>Planta de Fabricación de Tuberías PEX (polietileno reticulado)</t>
         </is>
       </c>
       <c r="C230" t="inlineStr">
@@ -11378,16 +11378,16 @@
       </c>
       <c r="D230" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E230" t="inlineStr">
         <is>
-          <t>Asociación Gremial de Dueños de Camiones de la Sexta Región</t>
+          <t>CROSSPIPE SYSTEMS S.A.</t>
         </is>
       </c>
       <c r="F230" t="n">
-        <v>1200</v>
+        <v>12400</v>
       </c>
       <c r="G230" t="inlineStr">
         <is>
@@ -11401,7 +11401,7 @@
       </c>
       <c r="I230" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128964620&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128954293&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J230" t="inlineStr">
@@ -11416,7 +11416,7 @@
       </c>
       <c r="B231" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos por las Rutas Indicadas</t>
+          <t>Transporte Interregional de Sustancias Peligrosas - AGREDUCAM VI Región</t>
         </is>
       </c>
       <c r="C231" t="inlineStr">
@@ -11431,11 +11431,11 @@
       </c>
       <c r="E231" t="inlineStr">
         <is>
-          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
+          <t>Asociación Gremial de Dueños de Camiones de la Sexta Región</t>
         </is>
       </c>
       <c r="F231" t="n">
-        <v>0</v>
+        <v>1200</v>
       </c>
       <c r="G231" t="inlineStr">
         <is>
@@ -11449,7 +11449,7 @@
       </c>
       <c r="I231" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128972489&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128964620&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J231" t="inlineStr">
@@ -11464,7 +11464,7 @@
       </c>
       <c r="B232" t="inlineStr">
         <is>
-          <t>Planta de Fabricación de Tuberías PEX (polietileno reticulado)</t>
+          <t>Transporte de Residuos Peligrosos por las Rutas Indicadas</t>
         </is>
       </c>
       <c r="C232" t="inlineStr">
@@ -11474,16 +11474,16 @@
       </c>
       <c r="D232" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E232" t="inlineStr">
         <is>
-          <t>CROSSPIPE SYSTEMS S.A.</t>
+          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
         </is>
       </c>
       <c r="F232" t="n">
-        <v>12400</v>
+        <v>0</v>
       </c>
       <c r="G232" t="inlineStr">
         <is>
@@ -11497,7 +11497,7 @@
       </c>
       <c r="I232" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128954293&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128972489&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J232" t="inlineStr">
@@ -13096,26 +13096,26 @@
       </c>
       <c r="B266" t="inlineStr">
         <is>
-          <t>RT Sulfuros</t>
+          <t>Transporte de Sustancias Peligrosas Transaltisa Chile Ltda</t>
         </is>
       </c>
       <c r="C266" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D266" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E266" t="inlineStr">
         <is>
-          <t>CODELCO Chile, División Radomiro Tomic</t>
+          <t>Transaltisa Chile Ltda.</t>
         </is>
       </c>
       <c r="F266" t="n">
-        <v>5.4</v>
+        <v>2050</v>
       </c>
       <c r="G266" t="inlineStr">
         <is>
@@ -13124,12 +13124,12 @@
       </c>
       <c r="H266" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I266" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8210090&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8218613&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J266" t="inlineStr">
@@ -13144,26 +13144,26 @@
       </c>
       <c r="B267" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas Transaltisa Chile Ltda</t>
+          <t>RT Sulfuros</t>
         </is>
       </c>
       <c r="C267" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D267" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E267" t="inlineStr">
         <is>
-          <t>Transaltisa Chile Ltda.</t>
+          <t>CODELCO Chile, División Radomiro Tomic</t>
         </is>
       </c>
       <c r="F267" t="n">
-        <v>2050</v>
+        <v>5.4</v>
       </c>
       <c r="G267" t="inlineStr">
         <is>
@@ -13172,12 +13172,12 @@
       </c>
       <c r="H267" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I267" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8218613&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8210090&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J267" t="inlineStr">
@@ -15832,7 +15832,7 @@
       </c>
       <c r="B323" t="inlineStr">
         <is>
-          <t>Parque Fotovoltaico Los Andes</t>
+          <t>CENTRO DE RECUPERACIÓN DE TAMBORES Y CONTENEDORES IBC CONTAMINADOS, PLAMBIENTAL LA NEGRA</t>
         </is>
       </c>
       <c r="C323" t="inlineStr">
@@ -15847,11 +15847,11 @@
       </c>
       <c r="E323" t="inlineStr">
         <is>
-          <t>Andes Solar SPA</t>
+          <t>VEOLIA SERVICIOS MINEROS INTEGRALES CHILE SpA</t>
         </is>
       </c>
       <c r="F323" t="n">
-        <v>572000</v>
+        <v>60</v>
       </c>
       <c r="G323" t="inlineStr">
         <is>
@@ -15860,12 +15860,12 @@
       </c>
       <c r="H323" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Caducado</t>
         </is>
       </c>
       <c r="I323" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6581267&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6592870&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J323" t="inlineStr">
@@ -15880,7 +15880,7 @@
       </c>
       <c r="B324" t="inlineStr">
         <is>
-          <t>CENTRO DE RECUPERACIÓN DE TAMBORES Y CONTENEDORES IBC CONTAMINADOS, PLAMBIENTAL LA NEGRA</t>
+          <t>CENTRO DE ALMACENAMIENTO DE RESIDUOS INDUSTRIALES, GESAM LA NEGRA</t>
         </is>
       </c>
       <c r="C324" t="inlineStr">
@@ -15899,7 +15899,7 @@
         </is>
       </c>
       <c r="F324" t="n">
-        <v>60</v>
+        <v>360</v>
       </c>
       <c r="G324" t="inlineStr">
         <is>
@@ -15913,7 +15913,7 @@
       </c>
       <c r="I324" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6592870&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6595234&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J324" t="inlineStr">
@@ -15928,7 +15928,7 @@
       </c>
       <c r="B325" t="inlineStr">
         <is>
-          <t>CENTRO DE ALMACENAMIENTO DE RESIDUOS INDUSTRIALES, GESAM LA NEGRA</t>
+          <t>Parque Fotovoltaico Los Andes</t>
         </is>
       </c>
       <c r="C325" t="inlineStr">
@@ -15943,11 +15943,11 @@
       </c>
       <c r="E325" t="inlineStr">
         <is>
-          <t>VEOLIA SERVICIOS MINEROS INTEGRALES CHILE SpA</t>
+          <t>Andes Solar SPA</t>
         </is>
       </c>
       <c r="F325" t="n">
-        <v>360</v>
+        <v>572000</v>
       </c>
       <c r="G325" t="inlineStr">
         <is>
@@ -15956,12 +15956,12 @@
       </c>
       <c r="H325" t="inlineStr">
         <is>
-          <t>Caducado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I325" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6595234&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6581267&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J325" t="inlineStr">
@@ -16792,7 +16792,7 @@
       </c>
       <c r="B343" t="inlineStr">
         <is>
-          <t>Extracción de Áridos Empréstito E17L</t>
+          <t>Modificación Proyecto Transporte de Acido Sulfurico a granel entre la Primera y Décima Regiones de Chile</t>
         </is>
       </c>
       <c r="C343" t="inlineStr">
@@ -16802,16 +16802,16 @@
       </c>
       <c r="D343" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E343" t="inlineStr">
         <is>
-          <t>Skanska Chile S.A.</t>
+          <t>Transportes Herrmann Limitada</t>
         </is>
       </c>
       <c r="F343" t="n">
-        <v>500</v>
+        <v>0</v>
       </c>
       <c r="G343" t="inlineStr">
         <is>
@@ -16820,12 +16820,12 @@
       </c>
       <c r="H343" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I343" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6156264&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6159602&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J343" t="inlineStr">
@@ -16840,7 +16840,7 @@
       </c>
       <c r="B344" t="inlineStr">
         <is>
-          <t>Modificación Proyecto Transporte de Acido Sulfurico a granel entre la Primera y Décima Regiones de Chile</t>
+          <t>Extracción de Áridos Empréstito E17L</t>
         </is>
       </c>
       <c r="C344" t="inlineStr">
@@ -16850,16 +16850,16 @@
       </c>
       <c r="D344" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E344" t="inlineStr">
         <is>
-          <t>Transportes Herrmann Limitada</t>
+          <t>Skanska Chile S.A.</t>
         </is>
       </c>
       <c r="F344" t="n">
-        <v>0</v>
+        <v>500</v>
       </c>
       <c r="G344" t="inlineStr">
         <is>
@@ -16868,12 +16868,12 @@
       </c>
       <c r="H344" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I344" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6159602&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6156264&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J344" t="inlineStr">
@@ -17320,7 +17320,7 @@
       </c>
       <c r="B354" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos</t>
+          <t>Nuevas Instalaciones para Mantención Mina</t>
         </is>
       </c>
       <c r="C354" t="inlineStr">
@@ -17330,16 +17330,16 @@
       </c>
       <c r="D354" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E354" t="inlineStr">
         <is>
-          <t>Transportes TMS Limitada</t>
+          <t>MINERA ESCONDIDA LIMITADA</t>
         </is>
       </c>
       <c r="F354" t="n">
-        <v>200</v>
+        <v>635000</v>
       </c>
       <c r="G354" t="inlineStr">
         <is>
@@ -17348,12 +17348,12 @@
       </c>
       <c r="H354" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I354" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6003582&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5931343&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J354" t="inlineStr">
@@ -17368,7 +17368,7 @@
       </c>
       <c r="B355" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas entre la I, II y III Regiones"</t>
+          <t>Transporte de Residuos Peligrosos</t>
         </is>
       </c>
       <c r="C355" t="inlineStr">
@@ -17383,11 +17383,11 @@
       </c>
       <c r="E355" t="inlineStr">
         <is>
-          <t>Molina Quimicos S.A.</t>
+          <t>Transportes TMS Limitada</t>
         </is>
       </c>
       <c r="F355" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="G355" t="inlineStr">
         <is>
@@ -17401,7 +17401,7 @@
       </c>
       <c r="I355" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6003607&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6003582&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J355" t="inlineStr">
@@ -17416,7 +17416,7 @@
       </c>
       <c r="B356" t="inlineStr">
         <is>
-          <t>Nuevas Instalaciones para Mantención Mina</t>
+          <t>Transporte de Sustancias Peligrosas entre la I, II y III Regiones"</t>
         </is>
       </c>
       <c r="C356" t="inlineStr">
@@ -17426,16 +17426,16 @@
       </c>
       <c r="D356" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E356" t="inlineStr">
         <is>
-          <t>MINERA ESCONDIDA LIMITADA</t>
+          <t>Molina Quimicos S.A.</t>
         </is>
       </c>
       <c r="F356" t="n">
-        <v>635000</v>
+        <v>100</v>
       </c>
       <c r="G356" t="inlineStr">
         <is>
@@ -17444,12 +17444,12 @@
       </c>
       <c r="H356" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I356" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5931343&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6003607&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J356" t="inlineStr">
@@ -19672,7 +19672,7 @@
       </c>
       <c r="B403" t="inlineStr">
         <is>
-          <t>"Transporte de acido sulfurico concentrado para minera Las Cenizas, Taltal."</t>
+          <t>II MODIFICACIÓN DIA "TRANSPORTE Y MANEJO IN SITU DE RESIDUOS SÓLIDOS Y LÍQUIDOS PELIGROSOS Y NO PELIGROSOS"</t>
         </is>
       </c>
       <c r="C403" t="inlineStr">
@@ -19682,16 +19682,16 @@
       </c>
       <c r="D403" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E403" t="inlineStr">
         <is>
-          <t>Translog S.A.</t>
+          <t>Mol Ambiente S.A.</t>
         </is>
       </c>
       <c r="F403" t="n">
-        <v>600</v>
+        <v>75000</v>
       </c>
       <c r="G403" t="inlineStr">
         <is>
@@ -19700,12 +19700,12 @@
       </c>
       <c r="H403" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I403" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5114868&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5118945&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J403" t="inlineStr">
@@ -19720,7 +19720,7 @@
       </c>
       <c r="B404" t="inlineStr">
         <is>
-          <t>II MODIFICACIÓN DIA "TRANSPORTE Y MANEJO IN SITU DE RESIDUOS SÓLIDOS Y LÍQUIDOS PELIGROSOS Y NO PELIGROSOS"</t>
+          <t>"Transporte de acido sulfurico concentrado para minera Las Cenizas, Taltal."</t>
         </is>
       </c>
       <c r="C404" t="inlineStr">
@@ -19730,16 +19730,16 @@
       </c>
       <c r="D404" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E404" t="inlineStr">
         <is>
-          <t>Mol Ambiente S.A.</t>
+          <t>Translog S.A.</t>
         </is>
       </c>
       <c r="F404" t="n">
-        <v>75000</v>
+        <v>600</v>
       </c>
       <c r="G404" t="inlineStr">
         <is>
@@ -19748,12 +19748,12 @@
       </c>
       <c r="H404" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I404" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5118945&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5114868&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J404" t="inlineStr">
@@ -21208,7 +21208,7 @@
       </c>
       <c r="B435" t="inlineStr">
         <is>
-          <t>Proyecto Laboratorios Químicos CIMM T&amp;S SA. La Negra</t>
+          <t>TRANSPORTE DE RESIDUOS PELIGROSOS POR RUTAS DE LA REGIÓN DE ANTOFAGASTA</t>
         </is>
       </c>
       <c r="C435" t="inlineStr">
@@ -21223,11 +21223,11 @@
       </c>
       <c r="E435" t="inlineStr">
         <is>
-          <t>Yancko Gonzalez Rozas</t>
+          <t>Limfosep S.A</t>
         </is>
       </c>
       <c r="F435" t="n">
-        <v>8000</v>
+        <v>1000</v>
       </c>
       <c r="G435" t="inlineStr">
         <is>
@@ -21236,12 +21236,12 @@
       </c>
       <c r="H435" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I435" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4670031&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4698232&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J435" t="inlineStr">
@@ -21256,7 +21256,7 @@
       </c>
       <c r="B436" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE RESIDUOS PELIGROSOS POR RUTAS DE LA REGIÓN DE ANTOFAGASTA</t>
+          <t>Proyecto Laboratorios Químicos CIMM T&amp;S SA. La Negra</t>
         </is>
       </c>
       <c r="C436" t="inlineStr">
@@ -21271,11 +21271,11 @@
       </c>
       <c r="E436" t="inlineStr">
         <is>
-          <t>Limfosep S.A</t>
+          <t>Yancko Gonzalez Rozas</t>
         </is>
       </c>
       <c r="F436" t="n">
-        <v>1000</v>
+        <v>8000</v>
       </c>
       <c r="G436" t="inlineStr">
         <is>
@@ -21284,12 +21284,12 @@
       </c>
       <c r="H436" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I436" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4698232&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4670031&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J436" t="inlineStr">
@@ -21688,7 +21688,7 @@
       </c>
       <c r="B445" t="inlineStr">
         <is>
-          <t>Nuevo Transporte Interregional de Cianuro de Sodio</t>
+          <t>EXPANSION DEPOSITO DE RELAVES FILTRADOS FAENA EL PEÑÓN</t>
         </is>
       </c>
       <c r="C445" t="inlineStr">
@@ -21698,16 +21698,16 @@
       </c>
       <c r="D445" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E445" t="inlineStr">
         <is>
-          <t>OXIQUIM S.A.</t>
+          <t>Minera Meridian Limitada</t>
         </is>
       </c>
       <c r="F445" t="n">
-        <v>85</v>
+        <v>688</v>
       </c>
       <c r="G445" t="inlineStr">
         <is>
@@ -21716,12 +21716,12 @@
       </c>
       <c r="H445" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I445" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4594007&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4601640&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J445" t="inlineStr">
@@ -21736,7 +21736,7 @@
       </c>
       <c r="B446" t="inlineStr">
         <is>
-          <t>EXPANSION DEPOSITO DE RELAVES FILTRADOS FAENA EL PEÑÓN</t>
+          <t>Nuevo Transporte Interregional de Cianuro de Sodio</t>
         </is>
       </c>
       <c r="C446" t="inlineStr">
@@ -21746,16 +21746,16 @@
       </c>
       <c r="D446" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E446" t="inlineStr">
         <is>
-          <t>Minera Meridian Limitada</t>
+          <t>OXIQUIM S.A.</t>
         </is>
       </c>
       <c r="F446" t="n">
-        <v>688</v>
+        <v>85</v>
       </c>
       <c r="G446" t="inlineStr">
         <is>
@@ -21764,12 +21764,12 @@
       </c>
       <c r="H446" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I446" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4601640&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4594007&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J446" t="inlineStr">
@@ -22504,7 +22504,7 @@
       </c>
       <c r="B462" t="inlineStr">
         <is>
-          <t>Transporte de Barros Anódicos</t>
+          <t>Transporte de Residuos Peligroso, Transporte Bello</t>
         </is>
       </c>
       <c r="C462" t="inlineStr">
@@ -22519,11 +22519,11 @@
       </c>
       <c r="E462" t="inlineStr">
         <is>
-          <t>CODELCO CHILE</t>
+          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
         </is>
       </c>
       <c r="F462" t="n">
-        <v>0</v>
+        <v>4050</v>
       </c>
       <c r="G462" t="inlineStr">
         <is>
@@ -22537,7 +22537,7 @@
       </c>
       <c r="I462" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4429880&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4455518&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J462" t="inlineStr">
@@ -22552,7 +22552,7 @@
       </c>
       <c r="B463" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligroso, Transporte Bello</t>
+          <t>Transporte de Barros Anódicos</t>
         </is>
       </c>
       <c r="C463" t="inlineStr">
@@ -22567,11 +22567,11 @@
       </c>
       <c r="E463" t="inlineStr">
         <is>
-          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
+          <t>CODELCO CHILE</t>
         </is>
       </c>
       <c r="F463" t="n">
-        <v>4050</v>
+        <v>0</v>
       </c>
       <c r="G463" t="inlineStr">
         <is>
@@ -22585,7 +22585,7 @@
       </c>
       <c r="I463" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4455518&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4429880&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J463" t="inlineStr">
@@ -22696,7 +22696,7 @@
       </c>
       <c r="B466" t="inlineStr">
         <is>
-          <t>Transporte y Almacenamiento temporal de Residuos Peligrosos M&amp;M ltda.</t>
+          <t>Modificacion Proyecto Minero Algorta Sector Pampa</t>
         </is>
       </c>
       <c r="C466" t="inlineStr">
@@ -22706,16 +22706,16 @@
       </c>
       <c r="D466" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E466" t="inlineStr">
         <is>
-          <t>Transportes Moscoso y Moscoso Ltda.</t>
+          <t>Algorta Norte S.A</t>
         </is>
       </c>
       <c r="F466" t="n">
-        <v>41075</v>
+        <v>6400</v>
       </c>
       <c r="G466" t="inlineStr">
         <is>
@@ -22729,7 +22729,7 @@
       </c>
       <c r="I466" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4422237&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4432700&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J466" t="inlineStr">
@@ -22744,7 +22744,7 @@
       </c>
       <c r="B467" t="inlineStr">
         <is>
-          <t>Modificacion Proyecto Minero Algorta Sector Pampa</t>
+          <t>Transporte y Almacenamiento temporal de Residuos Peligrosos M&amp;M ltda.</t>
         </is>
       </c>
       <c r="C467" t="inlineStr">
@@ -22754,16 +22754,16 @@
       </c>
       <c r="D467" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E467" t="inlineStr">
         <is>
-          <t>Algorta Norte S.A</t>
+          <t>Transportes Moscoso y Moscoso Ltda.</t>
         </is>
       </c>
       <c r="F467" t="n">
-        <v>6400</v>
+        <v>41075</v>
       </c>
       <c r="G467" t="inlineStr">
         <is>
@@ -22777,7 +22777,7 @@
       </c>
       <c r="I467" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4432700&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4422237&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J467" t="inlineStr">
@@ -24232,7 +24232,7 @@
       </c>
       <c r="B498" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos CMR Norte (e-seia)</t>
+          <t>Proyecto Tratamiento de Polvos Metalurgicos de Otras Fundiciones (e-seia)</t>
         </is>
       </c>
       <c r="C498" t="inlineStr">
@@ -24247,11 +24247,11 @@
       </c>
       <c r="E498" t="inlineStr">
         <is>
-          <t>Soluciones Ambientales del Norte S. A.</t>
+          <t>Complejo Metalurgico Altonorte S.A.</t>
         </is>
       </c>
       <c r="F498" t="n">
-        <v>250</v>
+        <v>320</v>
       </c>
       <c r="G498" t="inlineStr">
         <is>
@@ -24265,7 +24265,7 @@
       </c>
       <c r="I498" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4063042&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4061206&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J498" t="inlineStr">
@@ -24280,7 +24280,7 @@
       </c>
       <c r="B499" t="inlineStr">
         <is>
-          <t>Proyecto Tratamiento de Polvos Metalurgicos de Otras Fundiciones (e-seia)</t>
+          <t>Transporte de Residuos Peligrosos CMR Norte (e-seia)</t>
         </is>
       </c>
       <c r="C499" t="inlineStr">
@@ -24295,11 +24295,11 @@
       </c>
       <c r="E499" t="inlineStr">
         <is>
-          <t>Complejo Metalurgico Altonorte S.A.</t>
+          <t>Soluciones Ambientales del Norte S. A.</t>
         </is>
       </c>
       <c r="F499" t="n">
-        <v>320</v>
+        <v>250</v>
       </c>
       <c r="G499" t="inlineStr">
         <is>
@@ -24313,7 +24313,7 @@
       </c>
       <c r="I499" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4061206&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4063042&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J499" t="inlineStr">

--- a/data/Antofagasta.xlsx
+++ b/data/Antofagasta.xlsx
@@ -596,7 +596,7 @@
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>En Admisión</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
@@ -11416,7 +11416,7 @@
       </c>
       <c r="B231" t="inlineStr">
         <is>
-          <t>Planta de Fabricación de Tuberías PEX (polietileno reticulado)</t>
+          <t>Transporte Interregional de Sustancias Peligrosas - AGREDUCAM VI Región</t>
         </is>
       </c>
       <c r="C231" t="inlineStr">
@@ -11426,16 +11426,16 @@
       </c>
       <c r="D231" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E231" t="inlineStr">
         <is>
-          <t>CROSSPIPE SYSTEMS S.A.</t>
+          <t>Asociación Gremial de Dueños de Camiones de la Sexta Región</t>
         </is>
       </c>
       <c r="F231" t="n">
-        <v>12400</v>
+        <v>1200</v>
       </c>
       <c r="G231" t="inlineStr">
         <is>
@@ -11449,7 +11449,7 @@
       </c>
       <c r="I231" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128954293&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128964620&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J231" t="inlineStr">
@@ -11464,7 +11464,7 @@
       </c>
       <c r="B232" t="inlineStr">
         <is>
-          <t>Transporte Interregional de Sustancias Peligrosas - AGREDUCAM VI Región</t>
+          <t>Transporte de Residuos Peligrosos por las Rutas Indicadas</t>
         </is>
       </c>
       <c r="C232" t="inlineStr">
@@ -11479,11 +11479,11 @@
       </c>
       <c r="E232" t="inlineStr">
         <is>
-          <t>Asociación Gremial de Dueños de Camiones de la Sexta Región</t>
+          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
         </is>
       </c>
       <c r="F232" t="n">
-        <v>1200</v>
+        <v>0</v>
       </c>
       <c r="G232" t="inlineStr">
         <is>
@@ -11497,7 +11497,7 @@
       </c>
       <c r="I232" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128964620&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128972489&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J232" t="inlineStr">
@@ -11512,7 +11512,7 @@
       </c>
       <c r="B233" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos por las Rutas Indicadas</t>
+          <t>Planta de Fabricación de Tuberías PEX (polietileno reticulado)</t>
         </is>
       </c>
       <c r="C233" t="inlineStr">
@@ -11522,16 +11522,16 @@
       </c>
       <c r="D233" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E233" t="inlineStr">
         <is>
-          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
+          <t>CROSSPIPE SYSTEMS S.A.</t>
         </is>
       </c>
       <c r="F233" t="n">
-        <v>0</v>
+        <v>12400</v>
       </c>
       <c r="G233" t="inlineStr">
         <is>
@@ -11545,7 +11545,7 @@
       </c>
       <c r="I233" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128972489&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128954293&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J233" t="inlineStr">
@@ -13144,26 +13144,26 @@
       </c>
       <c r="B267" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas Transaltisa Chile Ltda</t>
+          <t>RT Sulfuros</t>
         </is>
       </c>
       <c r="C267" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D267" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E267" t="inlineStr">
         <is>
-          <t>Transaltisa Chile Ltda.</t>
+          <t>CODELCO Chile, División Radomiro Tomic</t>
         </is>
       </c>
       <c r="F267" t="n">
-        <v>2050</v>
+        <v>5.4</v>
       </c>
       <c r="G267" t="inlineStr">
         <is>
@@ -13172,12 +13172,12 @@
       </c>
       <c r="H267" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I267" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8218613&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8210090&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J267" t="inlineStr">
@@ -13192,26 +13192,26 @@
       </c>
       <c r="B268" t="inlineStr">
         <is>
-          <t>RT Sulfuros</t>
+          <t>Transporte de Sustancias Peligrosas Transaltisa Chile Ltda</t>
         </is>
       </c>
       <c r="C268" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D268" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E268" t="inlineStr">
         <is>
-          <t>CODELCO Chile, División Radomiro Tomic</t>
+          <t>Transaltisa Chile Ltda.</t>
         </is>
       </c>
       <c r="F268" t="n">
-        <v>5.4</v>
+        <v>2050</v>
       </c>
       <c r="G268" t="inlineStr">
         <is>
@@ -13220,12 +13220,12 @@
       </c>
       <c r="H268" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I268" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8210090&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8218613&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J268" t="inlineStr">
@@ -15880,7 +15880,7 @@
       </c>
       <c r="B324" t="inlineStr">
         <is>
-          <t>CENTRO DE RECUPERACIÓN DE TAMBORES Y CONTENEDORES IBC CONTAMINADOS, PLAMBIENTAL LA NEGRA</t>
+          <t>Parque Fotovoltaico Los Andes</t>
         </is>
       </c>
       <c r="C324" t="inlineStr">
@@ -15895,11 +15895,11 @@
       </c>
       <c r="E324" t="inlineStr">
         <is>
-          <t>VEOLIA SERVICIOS MINEROS INTEGRALES CHILE SpA</t>
+          <t>Andes Solar SPA</t>
         </is>
       </c>
       <c r="F324" t="n">
-        <v>60</v>
+        <v>572000</v>
       </c>
       <c r="G324" t="inlineStr">
         <is>
@@ -15908,12 +15908,12 @@
       </c>
       <c r="H324" t="inlineStr">
         <is>
-          <t>Caducado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I324" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6592870&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6581267&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J324" t="inlineStr">
@@ -15928,7 +15928,7 @@
       </c>
       <c r="B325" t="inlineStr">
         <is>
-          <t>CENTRO DE ALMACENAMIENTO DE RESIDUOS INDUSTRIALES, GESAM LA NEGRA</t>
+          <t>CENTRO DE RECUPERACIÓN DE TAMBORES Y CONTENEDORES IBC CONTAMINADOS, PLAMBIENTAL LA NEGRA</t>
         </is>
       </c>
       <c r="C325" t="inlineStr">
@@ -15947,7 +15947,7 @@
         </is>
       </c>
       <c r="F325" t="n">
-        <v>360</v>
+        <v>60</v>
       </c>
       <c r="G325" t="inlineStr">
         <is>
@@ -15961,7 +15961,7 @@
       </c>
       <c r="I325" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6595234&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6592870&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J325" t="inlineStr">
@@ -15976,7 +15976,7 @@
       </c>
       <c r="B326" t="inlineStr">
         <is>
-          <t>Parque Fotovoltaico Los Andes</t>
+          <t>CENTRO DE ALMACENAMIENTO DE RESIDUOS INDUSTRIALES, GESAM LA NEGRA</t>
         </is>
       </c>
       <c r="C326" t="inlineStr">
@@ -15991,11 +15991,11 @@
       </c>
       <c r="E326" t="inlineStr">
         <is>
-          <t>Andes Solar SPA</t>
+          <t>VEOLIA SERVICIOS MINEROS INTEGRALES CHILE SpA</t>
         </is>
       </c>
       <c r="F326" t="n">
-        <v>572000</v>
+        <v>360</v>
       </c>
       <c r="G326" t="inlineStr">
         <is>
@@ -16004,12 +16004,12 @@
       </c>
       <c r="H326" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Caducado</t>
         </is>
       </c>
       <c r="I326" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6581267&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6595234&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J326" t="inlineStr">
@@ -16840,7 +16840,7 @@
       </c>
       <c r="B344" t="inlineStr">
         <is>
-          <t>Modificación Proyecto Transporte de Acido Sulfurico a granel entre la Primera y Décima Regiones de Chile</t>
+          <t>Extracción de Áridos Empréstito E17L</t>
         </is>
       </c>
       <c r="C344" t="inlineStr">
@@ -16850,16 +16850,16 @@
       </c>
       <c r="D344" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E344" t="inlineStr">
         <is>
-          <t>Transportes Herrmann Limitada</t>
+          <t>Skanska Chile S.A.</t>
         </is>
       </c>
       <c r="F344" t="n">
-        <v>0</v>
+        <v>500</v>
       </c>
       <c r="G344" t="inlineStr">
         <is>
@@ -16868,12 +16868,12 @@
       </c>
       <c r="H344" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I344" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6159602&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6156264&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J344" t="inlineStr">
@@ -16888,7 +16888,7 @@
       </c>
       <c r="B345" t="inlineStr">
         <is>
-          <t>Extracción de Áridos Empréstito E17L</t>
+          <t>Modificación Proyecto Transporte de Acido Sulfurico a granel entre la Primera y Décima Regiones de Chile</t>
         </is>
       </c>
       <c r="C345" t="inlineStr">
@@ -16898,16 +16898,16 @@
       </c>
       <c r="D345" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E345" t="inlineStr">
         <is>
-          <t>Skanska Chile S.A.</t>
+          <t>Transportes Herrmann Limitada</t>
         </is>
       </c>
       <c r="F345" t="n">
-        <v>500</v>
+        <v>0</v>
       </c>
       <c r="G345" t="inlineStr">
         <is>
@@ -16916,12 +16916,12 @@
       </c>
       <c r="H345" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I345" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6156264&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6159602&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J345" t="inlineStr">
@@ -17368,7 +17368,7 @@
       </c>
       <c r="B355" t="inlineStr">
         <is>
-          <t>Nuevas Instalaciones para Mantención Mina</t>
+          <t>Transporte de Residuos Peligrosos</t>
         </is>
       </c>
       <c r="C355" t="inlineStr">
@@ -17378,16 +17378,16 @@
       </c>
       <c r="D355" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E355" t="inlineStr">
         <is>
-          <t>MINERA ESCONDIDA LIMITADA</t>
+          <t>Transportes TMS Limitada</t>
         </is>
       </c>
       <c r="F355" t="n">
-        <v>635000</v>
+        <v>200</v>
       </c>
       <c r="G355" t="inlineStr">
         <is>
@@ -17396,12 +17396,12 @@
       </c>
       <c r="H355" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I355" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5931343&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6003582&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J355" t="inlineStr">
@@ -17416,7 +17416,7 @@
       </c>
       <c r="B356" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos</t>
+          <t>Transporte de Sustancias Peligrosas entre la I, II y III Regiones"</t>
         </is>
       </c>
       <c r="C356" t="inlineStr">
@@ -17431,11 +17431,11 @@
       </c>
       <c r="E356" t="inlineStr">
         <is>
-          <t>Transportes TMS Limitada</t>
+          <t>Molina Quimicos S.A.</t>
         </is>
       </c>
       <c r="F356" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="G356" t="inlineStr">
         <is>
@@ -17449,7 +17449,7 @@
       </c>
       <c r="I356" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6003582&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6003607&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J356" t="inlineStr">
@@ -17464,7 +17464,7 @@
       </c>
       <c r="B357" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas entre la I, II y III Regiones"</t>
+          <t>Nuevas Instalaciones para Mantención Mina</t>
         </is>
       </c>
       <c r="C357" t="inlineStr">
@@ -17474,16 +17474,16 @@
       </c>
       <c r="D357" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E357" t="inlineStr">
         <is>
-          <t>Molina Quimicos S.A.</t>
+          <t>MINERA ESCONDIDA LIMITADA</t>
         </is>
       </c>
       <c r="F357" t="n">
-        <v>100</v>
+        <v>635000</v>
       </c>
       <c r="G357" t="inlineStr">
         <is>
@@ -17492,12 +17492,12 @@
       </c>
       <c r="H357" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I357" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6003607&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5931343&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J357" t="inlineStr">
@@ -19720,7 +19720,7 @@
       </c>
       <c r="B404" t="inlineStr">
         <is>
-          <t>II MODIFICACIÓN DIA "TRANSPORTE Y MANEJO IN SITU DE RESIDUOS SÓLIDOS Y LÍQUIDOS PELIGROSOS Y NO PELIGROSOS"</t>
+          <t>"Transporte de acido sulfurico concentrado para minera Las Cenizas, Taltal."</t>
         </is>
       </c>
       <c r="C404" t="inlineStr">
@@ -19730,16 +19730,16 @@
       </c>
       <c r="D404" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E404" t="inlineStr">
         <is>
-          <t>Mol Ambiente S.A.</t>
+          <t>Translog S.A.</t>
         </is>
       </c>
       <c r="F404" t="n">
-        <v>75000</v>
+        <v>600</v>
       </c>
       <c r="G404" t="inlineStr">
         <is>
@@ -19748,12 +19748,12 @@
       </c>
       <c r="H404" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I404" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5118945&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5114868&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J404" t="inlineStr">
@@ -19768,7 +19768,7 @@
       </c>
       <c r="B405" t="inlineStr">
         <is>
-          <t>"Transporte de acido sulfurico concentrado para minera Las Cenizas, Taltal."</t>
+          <t>II MODIFICACIÓN DIA "TRANSPORTE Y MANEJO IN SITU DE RESIDUOS SÓLIDOS Y LÍQUIDOS PELIGROSOS Y NO PELIGROSOS"</t>
         </is>
       </c>
       <c r="C405" t="inlineStr">
@@ -19778,16 +19778,16 @@
       </c>
       <c r="D405" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E405" t="inlineStr">
         <is>
-          <t>Translog S.A.</t>
+          <t>Mol Ambiente S.A.</t>
         </is>
       </c>
       <c r="F405" t="n">
-        <v>600</v>
+        <v>75000</v>
       </c>
       <c r="G405" t="inlineStr">
         <is>
@@ -19796,12 +19796,12 @@
       </c>
       <c r="H405" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I405" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5114868&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5118945&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J405" t="inlineStr">
@@ -21256,7 +21256,7 @@
       </c>
       <c r="B436" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE RESIDUOS PELIGROSOS POR RUTAS DE LA REGIÓN DE ANTOFAGASTA</t>
+          <t>Proyecto Laboratorios Químicos CIMM T&amp;S SA. La Negra</t>
         </is>
       </c>
       <c r="C436" t="inlineStr">
@@ -21271,11 +21271,11 @@
       </c>
       <c r="E436" t="inlineStr">
         <is>
-          <t>Limfosep S.A</t>
+          <t>Yancko Gonzalez Rozas</t>
         </is>
       </c>
       <c r="F436" t="n">
-        <v>1000</v>
+        <v>8000</v>
       </c>
       <c r="G436" t="inlineStr">
         <is>
@@ -21284,12 +21284,12 @@
       </c>
       <c r="H436" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I436" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4698232&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4670031&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J436" t="inlineStr">
@@ -21304,7 +21304,7 @@
       </c>
       <c r="B437" t="inlineStr">
         <is>
-          <t>Proyecto Laboratorios Químicos CIMM T&amp;S SA. La Negra</t>
+          <t>TRANSPORTE DE RESIDUOS PELIGROSOS POR RUTAS DE LA REGIÓN DE ANTOFAGASTA</t>
         </is>
       </c>
       <c r="C437" t="inlineStr">
@@ -21319,11 +21319,11 @@
       </c>
       <c r="E437" t="inlineStr">
         <is>
-          <t>Yancko Gonzalez Rozas</t>
+          <t>Limfosep S.A</t>
         </is>
       </c>
       <c r="F437" t="n">
-        <v>8000</v>
+        <v>1000</v>
       </c>
       <c r="G437" t="inlineStr">
         <is>
@@ -21332,12 +21332,12 @@
       </c>
       <c r="H437" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I437" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4670031&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4698232&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J437" t="inlineStr">
@@ -21736,7 +21736,7 @@
       </c>
       <c r="B446" t="inlineStr">
         <is>
-          <t>EXPANSION DEPOSITO DE RELAVES FILTRADOS FAENA EL PEÑÓN</t>
+          <t>Nuevo Transporte Interregional de Cianuro de Sodio</t>
         </is>
       </c>
       <c r="C446" t="inlineStr">
@@ -21746,16 +21746,16 @@
       </c>
       <c r="D446" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E446" t="inlineStr">
         <is>
-          <t>Minera Meridian Limitada</t>
+          <t>OXIQUIM S.A.</t>
         </is>
       </c>
       <c r="F446" t="n">
-        <v>688</v>
+        <v>85</v>
       </c>
       <c r="G446" t="inlineStr">
         <is>
@@ -21764,12 +21764,12 @@
       </c>
       <c r="H446" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I446" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4601640&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4594007&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J446" t="inlineStr">
@@ -21784,7 +21784,7 @@
       </c>
       <c r="B447" t="inlineStr">
         <is>
-          <t>Nuevo Transporte Interregional de Cianuro de Sodio</t>
+          <t>EXPANSION DEPOSITO DE RELAVES FILTRADOS FAENA EL PEÑÓN</t>
         </is>
       </c>
       <c r="C447" t="inlineStr">
@@ -21794,16 +21794,16 @@
       </c>
       <c r="D447" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E447" t="inlineStr">
         <is>
-          <t>OXIQUIM S.A.</t>
+          <t>Minera Meridian Limitada</t>
         </is>
       </c>
       <c r="F447" t="n">
-        <v>85</v>
+        <v>688</v>
       </c>
       <c r="G447" t="inlineStr">
         <is>
@@ -21812,12 +21812,12 @@
       </c>
       <c r="H447" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I447" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4594007&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4601640&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J447" t="inlineStr">
@@ -22552,7 +22552,7 @@
       </c>
       <c r="B463" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligroso, Transporte Bello</t>
+          <t>Transporte de Barros Anódicos</t>
         </is>
       </c>
       <c r="C463" t="inlineStr">
@@ -22567,11 +22567,11 @@
       </c>
       <c r="E463" t="inlineStr">
         <is>
-          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
+          <t>CODELCO CHILE</t>
         </is>
       </c>
       <c r="F463" t="n">
-        <v>4050</v>
+        <v>0</v>
       </c>
       <c r="G463" t="inlineStr">
         <is>
@@ -22585,7 +22585,7 @@
       </c>
       <c r="I463" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4455518&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4429880&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J463" t="inlineStr">
@@ -22600,7 +22600,7 @@
       </c>
       <c r="B464" t="inlineStr">
         <is>
-          <t>Transporte de Barros Anódicos</t>
+          <t>Transporte de Residuos Peligroso, Transporte Bello</t>
         </is>
       </c>
       <c r="C464" t="inlineStr">
@@ -22615,11 +22615,11 @@
       </c>
       <c r="E464" t="inlineStr">
         <is>
-          <t>CODELCO CHILE</t>
+          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
         </is>
       </c>
       <c r="F464" t="n">
-        <v>0</v>
+        <v>4050</v>
       </c>
       <c r="G464" t="inlineStr">
         <is>
@@ -22633,7 +22633,7 @@
       </c>
       <c r="I464" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4429880&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4455518&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J464" t="inlineStr">
@@ -22744,7 +22744,7 @@
       </c>
       <c r="B467" t="inlineStr">
         <is>
-          <t>Modificacion Proyecto Minero Algorta Sector Pampa</t>
+          <t>Transporte y Almacenamiento temporal de Residuos Peligrosos M&amp;M ltda.</t>
         </is>
       </c>
       <c r="C467" t="inlineStr">
@@ -22754,16 +22754,16 @@
       </c>
       <c r="D467" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E467" t="inlineStr">
         <is>
-          <t>Algorta Norte S.A</t>
+          <t>Transportes Moscoso y Moscoso Ltda.</t>
         </is>
       </c>
       <c r="F467" t="n">
-        <v>6400</v>
+        <v>41075</v>
       </c>
       <c r="G467" t="inlineStr">
         <is>
@@ -22777,7 +22777,7 @@
       </c>
       <c r="I467" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4432700&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4422237&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J467" t="inlineStr">
@@ -22792,7 +22792,7 @@
       </c>
       <c r="B468" t="inlineStr">
         <is>
-          <t>Transporte y Almacenamiento temporal de Residuos Peligrosos M&amp;M ltda.</t>
+          <t>Modificacion Proyecto Minero Algorta Sector Pampa</t>
         </is>
       </c>
       <c r="C468" t="inlineStr">
@@ -22802,16 +22802,16 @@
       </c>
       <c r="D468" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E468" t="inlineStr">
         <is>
-          <t>Transportes Moscoso y Moscoso Ltda.</t>
+          <t>Algorta Norte S.A</t>
         </is>
       </c>
       <c r="F468" t="n">
-        <v>41075</v>
+        <v>6400</v>
       </c>
       <c r="G468" t="inlineStr">
         <is>
@@ -22825,7 +22825,7 @@
       </c>
       <c r="I468" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4422237&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4432700&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J468" t="inlineStr">
@@ -24280,7 +24280,7 @@
       </c>
       <c r="B499" t="inlineStr">
         <is>
-          <t>Proyecto Tratamiento de Polvos Metalurgicos de Otras Fundiciones (e-seia)</t>
+          <t>Transporte de Residuos Peligrosos CMR Norte (e-seia)</t>
         </is>
       </c>
       <c r="C499" t="inlineStr">
@@ -24295,11 +24295,11 @@
       </c>
       <c r="E499" t="inlineStr">
         <is>
-          <t>Complejo Metalurgico Altonorte S.A.</t>
+          <t>Soluciones Ambientales del Norte S. A.</t>
         </is>
       </c>
       <c r="F499" t="n">
-        <v>320</v>
+        <v>250</v>
       </c>
       <c r="G499" t="inlineStr">
         <is>
@@ -24313,7 +24313,7 @@
       </c>
       <c r="I499" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4061206&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4063042&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J499" t="inlineStr">
@@ -24328,7 +24328,7 @@
       </c>
       <c r="B500" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos CMR Norte (e-seia)</t>
+          <t>Proyecto Tratamiento de Polvos Metalurgicos de Otras Fundiciones (e-seia)</t>
         </is>
       </c>
       <c r="C500" t="inlineStr">
@@ -24343,11 +24343,11 @@
       </c>
       <c r="E500" t="inlineStr">
         <is>
-          <t>Soluciones Ambientales del Norte S. A.</t>
+          <t>Complejo Metalurgico Altonorte S.A.</t>
         </is>
       </c>
       <c r="F500" t="n">
-        <v>250</v>
+        <v>320</v>
       </c>
       <c r="G500" t="inlineStr">
         <is>
@@ -24361,7 +24361,7 @@
       </c>
       <c r="I500" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4063042&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4061206&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J500" t="inlineStr">

--- a/data/Antofagasta.xlsx
+++ b/data/Antofagasta.xlsx
@@ -11416,7 +11416,7 @@
       </c>
       <c r="B231" t="inlineStr">
         <is>
-          <t>Transporte Interregional de Sustancias Peligrosas - AGREDUCAM VI Región</t>
+          <t>Planta de Fabricación de Tuberías PEX (polietileno reticulado)</t>
         </is>
       </c>
       <c r="C231" t="inlineStr">
@@ -11426,16 +11426,16 @@
       </c>
       <c r="D231" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E231" t="inlineStr">
         <is>
-          <t>Asociación Gremial de Dueños de Camiones de la Sexta Región</t>
+          <t>CROSSPIPE SYSTEMS S.A.</t>
         </is>
       </c>
       <c r="F231" t="n">
-        <v>1200</v>
+        <v>12400</v>
       </c>
       <c r="G231" t="inlineStr">
         <is>
@@ -11449,7 +11449,7 @@
       </c>
       <c r="I231" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128964620&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128954293&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J231" t="inlineStr">
@@ -11464,7 +11464,7 @@
       </c>
       <c r="B232" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos por las Rutas Indicadas</t>
+          <t>Transporte Interregional de Sustancias Peligrosas - AGREDUCAM VI Región</t>
         </is>
       </c>
       <c r="C232" t="inlineStr">
@@ -11479,11 +11479,11 @@
       </c>
       <c r="E232" t="inlineStr">
         <is>
-          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
+          <t>Asociación Gremial de Dueños de Camiones de la Sexta Región</t>
         </is>
       </c>
       <c r="F232" t="n">
-        <v>0</v>
+        <v>1200</v>
       </c>
       <c r="G232" t="inlineStr">
         <is>
@@ -11497,7 +11497,7 @@
       </c>
       <c r="I232" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128972489&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128964620&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J232" t="inlineStr">
@@ -11512,7 +11512,7 @@
       </c>
       <c r="B233" t="inlineStr">
         <is>
-          <t>Planta de Fabricación de Tuberías PEX (polietileno reticulado)</t>
+          <t>Transporte de Residuos Peligrosos por las Rutas Indicadas</t>
         </is>
       </c>
       <c r="C233" t="inlineStr">
@@ -11522,16 +11522,16 @@
       </c>
       <c r="D233" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E233" t="inlineStr">
         <is>
-          <t>CROSSPIPE SYSTEMS S.A.</t>
+          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
         </is>
       </c>
       <c r="F233" t="n">
-        <v>12400</v>
+        <v>0</v>
       </c>
       <c r="G233" t="inlineStr">
         <is>
@@ -11545,7 +11545,7 @@
       </c>
       <c r="I233" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128954293&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128972489&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J233" t="inlineStr">
@@ -13144,26 +13144,26 @@
       </c>
       <c r="B267" t="inlineStr">
         <is>
-          <t>RT Sulfuros</t>
+          <t>Transporte de Sustancias Peligrosas Transaltisa Chile Ltda</t>
         </is>
       </c>
       <c r="C267" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D267" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E267" t="inlineStr">
         <is>
-          <t>CODELCO Chile, División Radomiro Tomic</t>
+          <t>Transaltisa Chile Ltda.</t>
         </is>
       </c>
       <c r="F267" t="n">
-        <v>5.4</v>
+        <v>2050</v>
       </c>
       <c r="G267" t="inlineStr">
         <is>
@@ -13172,12 +13172,12 @@
       </c>
       <c r="H267" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I267" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8210090&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8218613&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J267" t="inlineStr">
@@ -13192,26 +13192,26 @@
       </c>
       <c r="B268" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas Transaltisa Chile Ltda</t>
+          <t>RT Sulfuros</t>
         </is>
       </c>
       <c r="C268" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D268" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E268" t="inlineStr">
         <is>
-          <t>Transaltisa Chile Ltda.</t>
+          <t>CODELCO Chile, División Radomiro Tomic</t>
         </is>
       </c>
       <c r="F268" t="n">
-        <v>2050</v>
+        <v>5.4</v>
       </c>
       <c r="G268" t="inlineStr">
         <is>
@@ -13220,12 +13220,12 @@
       </c>
       <c r="H268" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I268" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8218613&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8210090&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J268" t="inlineStr">
@@ -15880,7 +15880,7 @@
       </c>
       <c r="B324" t="inlineStr">
         <is>
-          <t>Parque Fotovoltaico Los Andes</t>
+          <t>CENTRO DE RECUPERACIÓN DE TAMBORES Y CONTENEDORES IBC CONTAMINADOS, PLAMBIENTAL LA NEGRA</t>
         </is>
       </c>
       <c r="C324" t="inlineStr">
@@ -15895,11 +15895,11 @@
       </c>
       <c r="E324" t="inlineStr">
         <is>
-          <t>Andes Solar SPA</t>
+          <t>VEOLIA SERVICIOS MINEROS INTEGRALES CHILE SpA</t>
         </is>
       </c>
       <c r="F324" t="n">
-        <v>572000</v>
+        <v>60</v>
       </c>
       <c r="G324" t="inlineStr">
         <is>
@@ -15908,12 +15908,12 @@
       </c>
       <c r="H324" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Caducado</t>
         </is>
       </c>
       <c r="I324" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6581267&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6592870&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J324" t="inlineStr">
@@ -15928,7 +15928,7 @@
       </c>
       <c r="B325" t="inlineStr">
         <is>
-          <t>CENTRO DE RECUPERACIÓN DE TAMBORES Y CONTENEDORES IBC CONTAMINADOS, PLAMBIENTAL LA NEGRA</t>
+          <t>CENTRO DE ALMACENAMIENTO DE RESIDUOS INDUSTRIALES, GESAM LA NEGRA</t>
         </is>
       </c>
       <c r="C325" t="inlineStr">
@@ -15947,7 +15947,7 @@
         </is>
       </c>
       <c r="F325" t="n">
-        <v>60</v>
+        <v>360</v>
       </c>
       <c r="G325" t="inlineStr">
         <is>
@@ -15961,7 +15961,7 @@
       </c>
       <c r="I325" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6592870&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6595234&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J325" t="inlineStr">
@@ -15976,7 +15976,7 @@
       </c>
       <c r="B326" t="inlineStr">
         <is>
-          <t>CENTRO DE ALMACENAMIENTO DE RESIDUOS INDUSTRIALES, GESAM LA NEGRA</t>
+          <t>Parque Fotovoltaico Los Andes</t>
         </is>
       </c>
       <c r="C326" t="inlineStr">
@@ -15991,11 +15991,11 @@
       </c>
       <c r="E326" t="inlineStr">
         <is>
-          <t>VEOLIA SERVICIOS MINEROS INTEGRALES CHILE SpA</t>
+          <t>Andes Solar SPA</t>
         </is>
       </c>
       <c r="F326" t="n">
-        <v>360</v>
+        <v>572000</v>
       </c>
       <c r="G326" t="inlineStr">
         <is>
@@ -16004,12 +16004,12 @@
       </c>
       <c r="H326" t="inlineStr">
         <is>
-          <t>Caducado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I326" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6595234&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6581267&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J326" t="inlineStr">
@@ -16840,7 +16840,7 @@
       </c>
       <c r="B344" t="inlineStr">
         <is>
-          <t>Extracción de Áridos Empréstito E17L</t>
+          <t>Modificación Proyecto Transporte de Acido Sulfurico a granel entre la Primera y Décima Regiones de Chile</t>
         </is>
       </c>
       <c r="C344" t="inlineStr">
@@ -16850,16 +16850,16 @@
       </c>
       <c r="D344" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E344" t="inlineStr">
         <is>
-          <t>Skanska Chile S.A.</t>
+          <t>Transportes Herrmann Limitada</t>
         </is>
       </c>
       <c r="F344" t="n">
-        <v>500</v>
+        <v>0</v>
       </c>
       <c r="G344" t="inlineStr">
         <is>
@@ -16868,12 +16868,12 @@
       </c>
       <c r="H344" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I344" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6156264&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6159602&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J344" t="inlineStr">
@@ -16888,7 +16888,7 @@
       </c>
       <c r="B345" t="inlineStr">
         <is>
-          <t>Modificación Proyecto Transporte de Acido Sulfurico a granel entre la Primera y Décima Regiones de Chile</t>
+          <t>Extracción de Áridos Empréstito E17L</t>
         </is>
       </c>
       <c r="C345" t="inlineStr">
@@ -16898,16 +16898,16 @@
       </c>
       <c r="D345" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E345" t="inlineStr">
         <is>
-          <t>Transportes Herrmann Limitada</t>
+          <t>Skanska Chile S.A.</t>
         </is>
       </c>
       <c r="F345" t="n">
-        <v>0</v>
+        <v>500</v>
       </c>
       <c r="G345" t="inlineStr">
         <is>
@@ -16916,12 +16916,12 @@
       </c>
       <c r="H345" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I345" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6159602&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6156264&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J345" t="inlineStr">
@@ -17368,7 +17368,7 @@
       </c>
       <c r="B355" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos</t>
+          <t>Nuevas Instalaciones para Mantención Mina</t>
         </is>
       </c>
       <c r="C355" t="inlineStr">
@@ -17378,16 +17378,16 @@
       </c>
       <c r="D355" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E355" t="inlineStr">
         <is>
-          <t>Transportes TMS Limitada</t>
+          <t>MINERA ESCONDIDA LIMITADA</t>
         </is>
       </c>
       <c r="F355" t="n">
-        <v>200</v>
+        <v>635000</v>
       </c>
       <c r="G355" t="inlineStr">
         <is>
@@ -17396,12 +17396,12 @@
       </c>
       <c r="H355" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I355" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6003582&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5931343&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J355" t="inlineStr">
@@ -17416,7 +17416,7 @@
       </c>
       <c r="B356" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas entre la I, II y III Regiones"</t>
+          <t>Transporte de Residuos Peligrosos</t>
         </is>
       </c>
       <c r="C356" t="inlineStr">
@@ -17431,11 +17431,11 @@
       </c>
       <c r="E356" t="inlineStr">
         <is>
-          <t>Molina Quimicos S.A.</t>
+          <t>Transportes TMS Limitada</t>
         </is>
       </c>
       <c r="F356" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="G356" t="inlineStr">
         <is>
@@ -17449,7 +17449,7 @@
       </c>
       <c r="I356" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6003607&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6003582&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J356" t="inlineStr">
@@ -17464,7 +17464,7 @@
       </c>
       <c r="B357" t="inlineStr">
         <is>
-          <t>Nuevas Instalaciones para Mantención Mina</t>
+          <t>Transporte de Sustancias Peligrosas entre la I, II y III Regiones"</t>
         </is>
       </c>
       <c r="C357" t="inlineStr">
@@ -17474,16 +17474,16 @@
       </c>
       <c r="D357" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E357" t="inlineStr">
         <is>
-          <t>MINERA ESCONDIDA LIMITADA</t>
+          <t>Molina Quimicos S.A.</t>
         </is>
       </c>
       <c r="F357" t="n">
-        <v>635000</v>
+        <v>100</v>
       </c>
       <c r="G357" t="inlineStr">
         <is>
@@ -17492,12 +17492,12 @@
       </c>
       <c r="H357" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I357" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5931343&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6003607&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J357" t="inlineStr">
@@ -19720,7 +19720,7 @@
       </c>
       <c r="B404" t="inlineStr">
         <is>
-          <t>"Transporte de acido sulfurico concentrado para minera Las Cenizas, Taltal."</t>
+          <t>II MODIFICACIÓN DIA "TRANSPORTE Y MANEJO IN SITU DE RESIDUOS SÓLIDOS Y LÍQUIDOS PELIGROSOS Y NO PELIGROSOS"</t>
         </is>
       </c>
       <c r="C404" t="inlineStr">
@@ -19730,16 +19730,16 @@
       </c>
       <c r="D404" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E404" t="inlineStr">
         <is>
-          <t>Translog S.A.</t>
+          <t>Mol Ambiente S.A.</t>
         </is>
       </c>
       <c r="F404" t="n">
-        <v>600</v>
+        <v>75000</v>
       </c>
       <c r="G404" t="inlineStr">
         <is>
@@ -19748,12 +19748,12 @@
       </c>
       <c r="H404" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I404" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5114868&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5118945&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J404" t="inlineStr">
@@ -19768,7 +19768,7 @@
       </c>
       <c r="B405" t="inlineStr">
         <is>
-          <t>II MODIFICACIÓN DIA "TRANSPORTE Y MANEJO IN SITU DE RESIDUOS SÓLIDOS Y LÍQUIDOS PELIGROSOS Y NO PELIGROSOS"</t>
+          <t>"Transporte de acido sulfurico concentrado para minera Las Cenizas, Taltal."</t>
         </is>
       </c>
       <c r="C405" t="inlineStr">
@@ -19778,16 +19778,16 @@
       </c>
       <c r="D405" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E405" t="inlineStr">
         <is>
-          <t>Mol Ambiente S.A.</t>
+          <t>Translog S.A.</t>
         </is>
       </c>
       <c r="F405" t="n">
-        <v>75000</v>
+        <v>600</v>
       </c>
       <c r="G405" t="inlineStr">
         <is>
@@ -19796,12 +19796,12 @@
       </c>
       <c r="H405" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I405" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5118945&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5114868&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J405" t="inlineStr">
@@ -21256,7 +21256,7 @@
       </c>
       <c r="B436" t="inlineStr">
         <is>
-          <t>Proyecto Laboratorios Químicos CIMM T&amp;S SA. La Negra</t>
+          <t>TRANSPORTE DE RESIDUOS PELIGROSOS POR RUTAS DE LA REGIÓN DE ANTOFAGASTA</t>
         </is>
       </c>
       <c r="C436" t="inlineStr">
@@ -21271,11 +21271,11 @@
       </c>
       <c r="E436" t="inlineStr">
         <is>
-          <t>Yancko Gonzalez Rozas</t>
+          <t>Limfosep S.A</t>
         </is>
       </c>
       <c r="F436" t="n">
-        <v>8000</v>
+        <v>1000</v>
       </c>
       <c r="G436" t="inlineStr">
         <is>
@@ -21284,12 +21284,12 @@
       </c>
       <c r="H436" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I436" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4670031&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4698232&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J436" t="inlineStr">
@@ -21304,7 +21304,7 @@
       </c>
       <c r="B437" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE RESIDUOS PELIGROSOS POR RUTAS DE LA REGIÓN DE ANTOFAGASTA</t>
+          <t>Proyecto Laboratorios Químicos CIMM T&amp;S SA. La Negra</t>
         </is>
       </c>
       <c r="C437" t="inlineStr">
@@ -21319,11 +21319,11 @@
       </c>
       <c r="E437" t="inlineStr">
         <is>
-          <t>Limfosep S.A</t>
+          <t>Yancko Gonzalez Rozas</t>
         </is>
       </c>
       <c r="F437" t="n">
-        <v>1000</v>
+        <v>8000</v>
       </c>
       <c r="G437" t="inlineStr">
         <is>
@@ -21332,12 +21332,12 @@
       </c>
       <c r="H437" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I437" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4698232&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4670031&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J437" t="inlineStr">
@@ -21736,7 +21736,7 @@
       </c>
       <c r="B446" t="inlineStr">
         <is>
-          <t>Nuevo Transporte Interregional de Cianuro de Sodio</t>
+          <t>EXPANSION DEPOSITO DE RELAVES FILTRADOS FAENA EL PEÑÓN</t>
         </is>
       </c>
       <c r="C446" t="inlineStr">
@@ -21746,16 +21746,16 @@
       </c>
       <c r="D446" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E446" t="inlineStr">
         <is>
-          <t>OXIQUIM S.A.</t>
+          <t>Minera Meridian Limitada</t>
         </is>
       </c>
       <c r="F446" t="n">
-        <v>85</v>
+        <v>688</v>
       </c>
       <c r="G446" t="inlineStr">
         <is>
@@ -21764,12 +21764,12 @@
       </c>
       <c r="H446" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I446" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4594007&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4601640&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J446" t="inlineStr">
@@ -21784,7 +21784,7 @@
       </c>
       <c r="B447" t="inlineStr">
         <is>
-          <t>EXPANSION DEPOSITO DE RELAVES FILTRADOS FAENA EL PEÑÓN</t>
+          <t>Nuevo Transporte Interregional de Cianuro de Sodio</t>
         </is>
       </c>
       <c r="C447" t="inlineStr">
@@ -21794,16 +21794,16 @@
       </c>
       <c r="D447" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E447" t="inlineStr">
         <is>
-          <t>Minera Meridian Limitada</t>
+          <t>OXIQUIM S.A.</t>
         </is>
       </c>
       <c r="F447" t="n">
-        <v>688</v>
+        <v>85</v>
       </c>
       <c r="G447" t="inlineStr">
         <is>
@@ -21812,12 +21812,12 @@
       </c>
       <c r="H447" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I447" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4601640&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4594007&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J447" t="inlineStr">
@@ -24280,7 +24280,7 @@
       </c>
       <c r="B499" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos CMR Norte (e-seia)</t>
+          <t>Proyecto Tratamiento de Polvos Metalurgicos de Otras Fundiciones (e-seia)</t>
         </is>
       </c>
       <c r="C499" t="inlineStr">
@@ -24295,11 +24295,11 @@
       </c>
       <c r="E499" t="inlineStr">
         <is>
-          <t>Soluciones Ambientales del Norte S. A.</t>
+          <t>Complejo Metalurgico Altonorte S.A.</t>
         </is>
       </c>
       <c r="F499" t="n">
-        <v>250</v>
+        <v>320</v>
       </c>
       <c r="G499" t="inlineStr">
         <is>
@@ -24313,7 +24313,7 @@
       </c>
       <c r="I499" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4063042&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4061206&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J499" t="inlineStr">
@@ -24328,7 +24328,7 @@
       </c>
       <c r="B500" t="inlineStr">
         <is>
-          <t>Proyecto Tratamiento de Polvos Metalurgicos de Otras Fundiciones (e-seia)</t>
+          <t>Transporte de Residuos Peligrosos CMR Norte (e-seia)</t>
         </is>
       </c>
       <c r="C500" t="inlineStr">
@@ -24343,11 +24343,11 @@
       </c>
       <c r="E500" t="inlineStr">
         <is>
-          <t>Complejo Metalurgico Altonorte S.A.</t>
+          <t>Soluciones Ambientales del Norte S. A.</t>
         </is>
       </c>
       <c r="F500" t="n">
-        <v>320</v>
+        <v>250</v>
       </c>
       <c r="G500" t="inlineStr">
         <is>
@@ -24361,7 +24361,7 @@
       </c>
       <c r="I500" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4061206&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4063042&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J500" t="inlineStr">

--- a/data/Antofagasta.xlsx
+++ b/data/Antofagasta.xlsx
@@ -11416,7 +11416,7 @@
       </c>
       <c r="B231" t="inlineStr">
         <is>
-          <t>Planta de Fabricación de Tuberías PEX (polietileno reticulado)</t>
+          <t>Transporte Interregional de Sustancias Peligrosas - AGREDUCAM VI Región</t>
         </is>
       </c>
       <c r="C231" t="inlineStr">
@@ -11426,16 +11426,16 @@
       </c>
       <c r="D231" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E231" t="inlineStr">
         <is>
-          <t>CROSSPIPE SYSTEMS S.A.</t>
+          <t>Asociación Gremial de Dueños de Camiones de la Sexta Región</t>
         </is>
       </c>
       <c r="F231" t="n">
-        <v>12400</v>
+        <v>1200</v>
       </c>
       <c r="G231" t="inlineStr">
         <is>
@@ -11449,7 +11449,7 @@
       </c>
       <c r="I231" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128954293&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128964620&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J231" t="inlineStr">
@@ -11464,7 +11464,7 @@
       </c>
       <c r="B232" t="inlineStr">
         <is>
-          <t>Transporte Interregional de Sustancias Peligrosas - AGREDUCAM VI Región</t>
+          <t>Transporte de Residuos Peligrosos por las Rutas Indicadas</t>
         </is>
       </c>
       <c r="C232" t="inlineStr">
@@ -11479,11 +11479,11 @@
       </c>
       <c r="E232" t="inlineStr">
         <is>
-          <t>Asociación Gremial de Dueños de Camiones de la Sexta Región</t>
+          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
         </is>
       </c>
       <c r="F232" t="n">
-        <v>1200</v>
+        <v>0</v>
       </c>
       <c r="G232" t="inlineStr">
         <is>
@@ -11497,7 +11497,7 @@
       </c>
       <c r="I232" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128964620&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128972489&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J232" t="inlineStr">
@@ -11512,7 +11512,7 @@
       </c>
       <c r="B233" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos por las Rutas Indicadas</t>
+          <t>Planta de Fabricación de Tuberías PEX (polietileno reticulado)</t>
         </is>
       </c>
       <c r="C233" t="inlineStr">
@@ -11522,16 +11522,16 @@
       </c>
       <c r="D233" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E233" t="inlineStr">
         <is>
-          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
+          <t>CROSSPIPE SYSTEMS S.A.</t>
         </is>
       </c>
       <c r="F233" t="n">
-        <v>0</v>
+        <v>12400</v>
       </c>
       <c r="G233" t="inlineStr">
         <is>
@@ -11545,7 +11545,7 @@
       </c>
       <c r="I233" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128972489&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128954293&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J233" t="inlineStr">
@@ -13144,26 +13144,26 @@
       </c>
       <c r="B267" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas Transaltisa Chile Ltda</t>
+          <t>RT Sulfuros</t>
         </is>
       </c>
       <c r="C267" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D267" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E267" t="inlineStr">
         <is>
-          <t>Transaltisa Chile Ltda.</t>
+          <t>CODELCO Chile, División Radomiro Tomic</t>
         </is>
       </c>
       <c r="F267" t="n">
-        <v>2050</v>
+        <v>5.4</v>
       </c>
       <c r="G267" t="inlineStr">
         <is>
@@ -13172,12 +13172,12 @@
       </c>
       <c r="H267" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I267" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8218613&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8210090&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J267" t="inlineStr">
@@ -13192,26 +13192,26 @@
       </c>
       <c r="B268" t="inlineStr">
         <is>
-          <t>RT Sulfuros</t>
+          <t>Transporte de Sustancias Peligrosas Transaltisa Chile Ltda</t>
         </is>
       </c>
       <c r="C268" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D268" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E268" t="inlineStr">
         <is>
-          <t>CODELCO Chile, División Radomiro Tomic</t>
+          <t>Transaltisa Chile Ltda.</t>
         </is>
       </c>
       <c r="F268" t="n">
-        <v>5.4</v>
+        <v>2050</v>
       </c>
       <c r="G268" t="inlineStr">
         <is>
@@ -13220,12 +13220,12 @@
       </c>
       <c r="H268" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I268" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8210090&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8218613&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J268" t="inlineStr">
@@ -15880,7 +15880,7 @@
       </c>
       <c r="B324" t="inlineStr">
         <is>
-          <t>CENTRO DE RECUPERACIÓN DE TAMBORES Y CONTENEDORES IBC CONTAMINADOS, PLAMBIENTAL LA NEGRA</t>
+          <t>Parque Fotovoltaico Los Andes</t>
         </is>
       </c>
       <c r="C324" t="inlineStr">
@@ -15895,11 +15895,11 @@
       </c>
       <c r="E324" t="inlineStr">
         <is>
-          <t>VEOLIA SERVICIOS MINEROS INTEGRALES CHILE SpA</t>
+          <t>Andes Solar SPA</t>
         </is>
       </c>
       <c r="F324" t="n">
-        <v>60</v>
+        <v>572000</v>
       </c>
       <c r="G324" t="inlineStr">
         <is>
@@ -15908,12 +15908,12 @@
       </c>
       <c r="H324" t="inlineStr">
         <is>
-          <t>Caducado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I324" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6592870&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6581267&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J324" t="inlineStr">
@@ -15928,7 +15928,7 @@
       </c>
       <c r="B325" t="inlineStr">
         <is>
-          <t>CENTRO DE ALMACENAMIENTO DE RESIDUOS INDUSTRIALES, GESAM LA NEGRA</t>
+          <t>CENTRO DE RECUPERACIÓN DE TAMBORES Y CONTENEDORES IBC CONTAMINADOS, PLAMBIENTAL LA NEGRA</t>
         </is>
       </c>
       <c r="C325" t="inlineStr">
@@ -15947,7 +15947,7 @@
         </is>
       </c>
       <c r="F325" t="n">
-        <v>360</v>
+        <v>60</v>
       </c>
       <c r="G325" t="inlineStr">
         <is>
@@ -15961,7 +15961,7 @@
       </c>
       <c r="I325" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6595234&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6592870&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J325" t="inlineStr">
@@ -15976,7 +15976,7 @@
       </c>
       <c r="B326" t="inlineStr">
         <is>
-          <t>Parque Fotovoltaico Los Andes</t>
+          <t>CENTRO DE ALMACENAMIENTO DE RESIDUOS INDUSTRIALES, GESAM LA NEGRA</t>
         </is>
       </c>
       <c r="C326" t="inlineStr">
@@ -15991,11 +15991,11 @@
       </c>
       <c r="E326" t="inlineStr">
         <is>
-          <t>Andes Solar SPA</t>
+          <t>VEOLIA SERVICIOS MINEROS INTEGRALES CHILE SpA</t>
         </is>
       </c>
       <c r="F326" t="n">
-        <v>572000</v>
+        <v>360</v>
       </c>
       <c r="G326" t="inlineStr">
         <is>
@@ -16004,12 +16004,12 @@
       </c>
       <c r="H326" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Caducado</t>
         </is>
       </c>
       <c r="I326" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6581267&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6595234&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J326" t="inlineStr">
@@ -16840,7 +16840,7 @@
       </c>
       <c r="B344" t="inlineStr">
         <is>
-          <t>Modificación Proyecto Transporte de Acido Sulfurico a granel entre la Primera y Décima Regiones de Chile</t>
+          <t>Extracción de Áridos Empréstito E17L</t>
         </is>
       </c>
       <c r="C344" t="inlineStr">
@@ -16850,16 +16850,16 @@
       </c>
       <c r="D344" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E344" t="inlineStr">
         <is>
-          <t>Transportes Herrmann Limitada</t>
+          <t>Skanska Chile S.A.</t>
         </is>
       </c>
       <c r="F344" t="n">
-        <v>0</v>
+        <v>500</v>
       </c>
       <c r="G344" t="inlineStr">
         <is>
@@ -16868,12 +16868,12 @@
       </c>
       <c r="H344" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I344" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6159602&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6156264&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J344" t="inlineStr">
@@ -16888,7 +16888,7 @@
       </c>
       <c r="B345" t="inlineStr">
         <is>
-          <t>Extracción de Áridos Empréstito E17L</t>
+          <t>Modificación Proyecto Transporte de Acido Sulfurico a granel entre la Primera y Décima Regiones de Chile</t>
         </is>
       </c>
       <c r="C345" t="inlineStr">
@@ -16898,16 +16898,16 @@
       </c>
       <c r="D345" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E345" t="inlineStr">
         <is>
-          <t>Skanska Chile S.A.</t>
+          <t>Transportes Herrmann Limitada</t>
         </is>
       </c>
       <c r="F345" t="n">
-        <v>500</v>
+        <v>0</v>
       </c>
       <c r="G345" t="inlineStr">
         <is>
@@ -16916,12 +16916,12 @@
       </c>
       <c r="H345" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I345" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6156264&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6159602&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J345" t="inlineStr">
@@ -17368,7 +17368,7 @@
       </c>
       <c r="B355" t="inlineStr">
         <is>
-          <t>Nuevas Instalaciones para Mantención Mina</t>
+          <t>Transporte de Residuos Peligrosos</t>
         </is>
       </c>
       <c r="C355" t="inlineStr">
@@ -17378,16 +17378,16 @@
       </c>
       <c r="D355" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E355" t="inlineStr">
         <is>
-          <t>MINERA ESCONDIDA LIMITADA</t>
+          <t>Transportes TMS Limitada</t>
         </is>
       </c>
       <c r="F355" t="n">
-        <v>635000</v>
+        <v>200</v>
       </c>
       <c r="G355" t="inlineStr">
         <is>
@@ -17396,12 +17396,12 @@
       </c>
       <c r="H355" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I355" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5931343&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6003582&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J355" t="inlineStr">
@@ -17416,7 +17416,7 @@
       </c>
       <c r="B356" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos</t>
+          <t>Transporte de Sustancias Peligrosas entre la I, II y III Regiones"</t>
         </is>
       </c>
       <c r="C356" t="inlineStr">
@@ -17431,11 +17431,11 @@
       </c>
       <c r="E356" t="inlineStr">
         <is>
-          <t>Transportes TMS Limitada</t>
+          <t>Molina Quimicos S.A.</t>
         </is>
       </c>
       <c r="F356" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="G356" t="inlineStr">
         <is>
@@ -17449,7 +17449,7 @@
       </c>
       <c r="I356" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6003582&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6003607&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J356" t="inlineStr">
@@ -17464,7 +17464,7 @@
       </c>
       <c r="B357" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas entre la I, II y III Regiones"</t>
+          <t>Nuevas Instalaciones para Mantención Mina</t>
         </is>
       </c>
       <c r="C357" t="inlineStr">
@@ -17474,16 +17474,16 @@
       </c>
       <c r="D357" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E357" t="inlineStr">
         <is>
-          <t>Molina Quimicos S.A.</t>
+          <t>MINERA ESCONDIDA LIMITADA</t>
         </is>
       </c>
       <c r="F357" t="n">
-        <v>100</v>
+        <v>635000</v>
       </c>
       <c r="G357" t="inlineStr">
         <is>
@@ -17492,12 +17492,12 @@
       </c>
       <c r="H357" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I357" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6003607&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5931343&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J357" t="inlineStr">
@@ -19720,7 +19720,7 @@
       </c>
       <c r="B404" t="inlineStr">
         <is>
-          <t>II MODIFICACIÓN DIA "TRANSPORTE Y MANEJO IN SITU DE RESIDUOS SÓLIDOS Y LÍQUIDOS PELIGROSOS Y NO PELIGROSOS"</t>
+          <t>"Transporte de acido sulfurico concentrado para minera Las Cenizas, Taltal."</t>
         </is>
       </c>
       <c r="C404" t="inlineStr">
@@ -19730,16 +19730,16 @@
       </c>
       <c r="D404" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E404" t="inlineStr">
         <is>
-          <t>Mol Ambiente S.A.</t>
+          <t>Translog S.A.</t>
         </is>
       </c>
       <c r="F404" t="n">
-        <v>75000</v>
+        <v>600</v>
       </c>
       <c r="G404" t="inlineStr">
         <is>
@@ -19748,12 +19748,12 @@
       </c>
       <c r="H404" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I404" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5118945&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5114868&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J404" t="inlineStr">
@@ -19768,7 +19768,7 @@
       </c>
       <c r="B405" t="inlineStr">
         <is>
-          <t>"Transporte de acido sulfurico concentrado para minera Las Cenizas, Taltal."</t>
+          <t>II MODIFICACIÓN DIA "TRANSPORTE Y MANEJO IN SITU DE RESIDUOS SÓLIDOS Y LÍQUIDOS PELIGROSOS Y NO PELIGROSOS"</t>
         </is>
       </c>
       <c r="C405" t="inlineStr">
@@ -19778,16 +19778,16 @@
       </c>
       <c r="D405" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E405" t="inlineStr">
         <is>
-          <t>Translog S.A.</t>
+          <t>Mol Ambiente S.A.</t>
         </is>
       </c>
       <c r="F405" t="n">
-        <v>600</v>
+        <v>75000</v>
       </c>
       <c r="G405" t="inlineStr">
         <is>
@@ -19796,12 +19796,12 @@
       </c>
       <c r="H405" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I405" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5114868&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5118945&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J405" t="inlineStr">
@@ -21256,7 +21256,7 @@
       </c>
       <c r="B436" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE RESIDUOS PELIGROSOS POR RUTAS DE LA REGIÓN DE ANTOFAGASTA</t>
+          <t>Proyecto Laboratorios Químicos CIMM T&amp;S SA. La Negra</t>
         </is>
       </c>
       <c r="C436" t="inlineStr">
@@ -21271,11 +21271,11 @@
       </c>
       <c r="E436" t="inlineStr">
         <is>
-          <t>Limfosep S.A</t>
+          <t>Yancko Gonzalez Rozas</t>
         </is>
       </c>
       <c r="F436" t="n">
-        <v>1000</v>
+        <v>8000</v>
       </c>
       <c r="G436" t="inlineStr">
         <is>
@@ -21284,12 +21284,12 @@
       </c>
       <c r="H436" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I436" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4698232&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4670031&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J436" t="inlineStr">
@@ -21304,7 +21304,7 @@
       </c>
       <c r="B437" t="inlineStr">
         <is>
-          <t>Proyecto Laboratorios Químicos CIMM T&amp;S SA. La Negra</t>
+          <t>TRANSPORTE DE RESIDUOS PELIGROSOS POR RUTAS DE LA REGIÓN DE ANTOFAGASTA</t>
         </is>
       </c>
       <c r="C437" t="inlineStr">
@@ -21319,11 +21319,11 @@
       </c>
       <c r="E437" t="inlineStr">
         <is>
-          <t>Yancko Gonzalez Rozas</t>
+          <t>Limfosep S.A</t>
         </is>
       </c>
       <c r="F437" t="n">
-        <v>8000</v>
+        <v>1000</v>
       </c>
       <c r="G437" t="inlineStr">
         <is>
@@ -21332,12 +21332,12 @@
       </c>
       <c r="H437" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I437" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4670031&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4698232&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J437" t="inlineStr">
@@ -21736,7 +21736,7 @@
       </c>
       <c r="B446" t="inlineStr">
         <is>
-          <t>EXPANSION DEPOSITO DE RELAVES FILTRADOS FAENA EL PEÑÓN</t>
+          <t>Nuevo Transporte Interregional de Cianuro de Sodio</t>
         </is>
       </c>
       <c r="C446" t="inlineStr">
@@ -21746,16 +21746,16 @@
       </c>
       <c r="D446" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E446" t="inlineStr">
         <is>
-          <t>Minera Meridian Limitada</t>
+          <t>OXIQUIM S.A.</t>
         </is>
       </c>
       <c r="F446" t="n">
-        <v>688</v>
+        <v>85</v>
       </c>
       <c r="G446" t="inlineStr">
         <is>
@@ -21764,12 +21764,12 @@
       </c>
       <c r="H446" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I446" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4601640&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4594007&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J446" t="inlineStr">
@@ -21784,7 +21784,7 @@
       </c>
       <c r="B447" t="inlineStr">
         <is>
-          <t>Nuevo Transporte Interregional de Cianuro de Sodio</t>
+          <t>EXPANSION DEPOSITO DE RELAVES FILTRADOS FAENA EL PEÑÓN</t>
         </is>
       </c>
       <c r="C447" t="inlineStr">
@@ -21794,16 +21794,16 @@
       </c>
       <c r="D447" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E447" t="inlineStr">
         <is>
-          <t>OXIQUIM S.A.</t>
+          <t>Minera Meridian Limitada</t>
         </is>
       </c>
       <c r="F447" t="n">
-        <v>85</v>
+        <v>688</v>
       </c>
       <c r="G447" t="inlineStr">
         <is>
@@ -21812,12 +21812,12 @@
       </c>
       <c r="H447" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I447" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4594007&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4601640&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J447" t="inlineStr">
@@ -24280,7 +24280,7 @@
       </c>
       <c r="B499" t="inlineStr">
         <is>
-          <t>Proyecto Tratamiento de Polvos Metalurgicos de Otras Fundiciones (e-seia)</t>
+          <t>Transporte de Residuos Peligrosos CMR Norte (e-seia)</t>
         </is>
       </c>
       <c r="C499" t="inlineStr">
@@ -24295,11 +24295,11 @@
       </c>
       <c r="E499" t="inlineStr">
         <is>
-          <t>Complejo Metalurgico Altonorte S.A.</t>
+          <t>Soluciones Ambientales del Norte S. A.</t>
         </is>
       </c>
       <c r="F499" t="n">
-        <v>320</v>
+        <v>250</v>
       </c>
       <c r="G499" t="inlineStr">
         <is>
@@ -24313,7 +24313,7 @@
       </c>
       <c r="I499" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4061206&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4063042&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J499" t="inlineStr">
@@ -24328,7 +24328,7 @@
       </c>
       <c r="B500" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos CMR Norte (e-seia)</t>
+          <t>Proyecto Tratamiento de Polvos Metalurgicos de Otras Fundiciones (e-seia)</t>
         </is>
       </c>
       <c r="C500" t="inlineStr">
@@ -24343,11 +24343,11 @@
       </c>
       <c r="E500" t="inlineStr">
         <is>
-          <t>Soluciones Ambientales del Norte S. A.</t>
+          <t>Complejo Metalurgico Altonorte S.A.</t>
         </is>
       </c>
       <c r="F500" t="n">
-        <v>250</v>
+        <v>320</v>
       </c>
       <c r="G500" t="inlineStr">
         <is>
@@ -24361,7 +24361,7 @@
       </c>
       <c r="I500" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4063042&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4061206&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J500" t="inlineStr">

--- a/data/Antofagasta.xlsx
+++ b/data/Antofagasta.xlsx
@@ -1268,7 +1268,7 @@
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>En Calificación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">

--- a/data/Antofagasta.xlsx
+++ b/data/Antofagasta.xlsx
@@ -11416,7 +11416,7 @@
       </c>
       <c r="B231" t="inlineStr">
         <is>
-          <t>Transporte Interregional de Sustancias Peligrosas - AGREDUCAM VI Región</t>
+          <t>Planta de Fabricación de Tuberías PEX (polietileno reticulado)</t>
         </is>
       </c>
       <c r="C231" t="inlineStr">
@@ -11426,16 +11426,16 @@
       </c>
       <c r="D231" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E231" t="inlineStr">
         <is>
-          <t>Asociación Gremial de Dueños de Camiones de la Sexta Región</t>
+          <t>CROSSPIPE SYSTEMS S.A.</t>
         </is>
       </c>
       <c r="F231" t="n">
-        <v>1200</v>
+        <v>12400</v>
       </c>
       <c r="G231" t="inlineStr">
         <is>
@@ -11449,7 +11449,7 @@
       </c>
       <c r="I231" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128964620&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128954293&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J231" t="inlineStr">
@@ -11464,7 +11464,7 @@
       </c>
       <c r="B232" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos por las Rutas Indicadas</t>
+          <t>Transporte Interregional de Sustancias Peligrosas - AGREDUCAM VI Región</t>
         </is>
       </c>
       <c r="C232" t="inlineStr">
@@ -11479,11 +11479,11 @@
       </c>
       <c r="E232" t="inlineStr">
         <is>
-          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
+          <t>Asociación Gremial de Dueños de Camiones de la Sexta Región</t>
         </is>
       </c>
       <c r="F232" t="n">
-        <v>0</v>
+        <v>1200</v>
       </c>
       <c r="G232" t="inlineStr">
         <is>
@@ -11497,7 +11497,7 @@
       </c>
       <c r="I232" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128972489&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128964620&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J232" t="inlineStr">
@@ -11512,7 +11512,7 @@
       </c>
       <c r="B233" t="inlineStr">
         <is>
-          <t>Planta de Fabricación de Tuberías PEX (polietileno reticulado)</t>
+          <t>Transporte de Residuos Peligrosos por las Rutas Indicadas</t>
         </is>
       </c>
       <c r="C233" t="inlineStr">
@@ -11522,16 +11522,16 @@
       </c>
       <c r="D233" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E233" t="inlineStr">
         <is>
-          <t>CROSSPIPE SYSTEMS S.A.</t>
+          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
         </is>
       </c>
       <c r="F233" t="n">
-        <v>12400</v>
+        <v>0</v>
       </c>
       <c r="G233" t="inlineStr">
         <is>
@@ -11545,7 +11545,7 @@
       </c>
       <c r="I233" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128954293&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128972489&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J233" t="inlineStr">
@@ -13144,26 +13144,26 @@
       </c>
       <c r="B267" t="inlineStr">
         <is>
-          <t>RT Sulfuros</t>
+          <t>Transporte de Sustancias Peligrosas Transaltisa Chile Ltda</t>
         </is>
       </c>
       <c r="C267" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D267" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E267" t="inlineStr">
         <is>
-          <t>CODELCO Chile, División Radomiro Tomic</t>
+          <t>Transaltisa Chile Ltda.</t>
         </is>
       </c>
       <c r="F267" t="n">
-        <v>5.4</v>
+        <v>2050</v>
       </c>
       <c r="G267" t="inlineStr">
         <is>
@@ -13172,12 +13172,12 @@
       </c>
       <c r="H267" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I267" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8210090&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8218613&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J267" t="inlineStr">
@@ -13192,26 +13192,26 @@
       </c>
       <c r="B268" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas Transaltisa Chile Ltda</t>
+          <t>RT Sulfuros</t>
         </is>
       </c>
       <c r="C268" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D268" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E268" t="inlineStr">
         <is>
-          <t>Transaltisa Chile Ltda.</t>
+          <t>CODELCO Chile, División Radomiro Tomic</t>
         </is>
       </c>
       <c r="F268" t="n">
-        <v>2050</v>
+        <v>5.4</v>
       </c>
       <c r="G268" t="inlineStr">
         <is>
@@ -13220,12 +13220,12 @@
       </c>
       <c r="H268" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I268" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8218613&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8210090&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J268" t="inlineStr">
@@ -15880,7 +15880,7 @@
       </c>
       <c r="B324" t="inlineStr">
         <is>
-          <t>Parque Fotovoltaico Los Andes</t>
+          <t>CENTRO DE RECUPERACIÓN DE TAMBORES Y CONTENEDORES IBC CONTAMINADOS, PLAMBIENTAL LA NEGRA</t>
         </is>
       </c>
       <c r="C324" t="inlineStr">
@@ -15895,11 +15895,11 @@
       </c>
       <c r="E324" t="inlineStr">
         <is>
-          <t>Andes Solar SPA</t>
+          <t>VEOLIA SERVICIOS MINEROS INTEGRALES CHILE SpA</t>
         </is>
       </c>
       <c r="F324" t="n">
-        <v>572000</v>
+        <v>60</v>
       </c>
       <c r="G324" t="inlineStr">
         <is>
@@ -15908,12 +15908,12 @@
       </c>
       <c r="H324" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Caducado</t>
         </is>
       </c>
       <c r="I324" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6581267&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6592870&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J324" t="inlineStr">
@@ -15928,7 +15928,7 @@
       </c>
       <c r="B325" t="inlineStr">
         <is>
-          <t>CENTRO DE RECUPERACIÓN DE TAMBORES Y CONTENEDORES IBC CONTAMINADOS, PLAMBIENTAL LA NEGRA</t>
+          <t>CENTRO DE ALMACENAMIENTO DE RESIDUOS INDUSTRIALES, GESAM LA NEGRA</t>
         </is>
       </c>
       <c r="C325" t="inlineStr">
@@ -15947,7 +15947,7 @@
         </is>
       </c>
       <c r="F325" t="n">
-        <v>60</v>
+        <v>360</v>
       </c>
       <c r="G325" t="inlineStr">
         <is>
@@ -15961,7 +15961,7 @@
       </c>
       <c r="I325" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6592870&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6595234&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J325" t="inlineStr">
@@ -15976,7 +15976,7 @@
       </c>
       <c r="B326" t="inlineStr">
         <is>
-          <t>CENTRO DE ALMACENAMIENTO DE RESIDUOS INDUSTRIALES, GESAM LA NEGRA</t>
+          <t>Parque Fotovoltaico Los Andes</t>
         </is>
       </c>
       <c r="C326" t="inlineStr">
@@ -15991,11 +15991,11 @@
       </c>
       <c r="E326" t="inlineStr">
         <is>
-          <t>VEOLIA SERVICIOS MINEROS INTEGRALES CHILE SpA</t>
+          <t>Andes Solar SPA</t>
         </is>
       </c>
       <c r="F326" t="n">
-        <v>360</v>
+        <v>572000</v>
       </c>
       <c r="G326" t="inlineStr">
         <is>
@@ -16004,12 +16004,12 @@
       </c>
       <c r="H326" t="inlineStr">
         <is>
-          <t>Caducado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I326" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6595234&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6581267&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J326" t="inlineStr">
@@ -16840,7 +16840,7 @@
       </c>
       <c r="B344" t="inlineStr">
         <is>
-          <t>Extracción de Áridos Empréstito E17L</t>
+          <t>Modificación Proyecto Transporte de Acido Sulfurico a granel entre la Primera y Décima Regiones de Chile</t>
         </is>
       </c>
       <c r="C344" t="inlineStr">
@@ -16850,16 +16850,16 @@
       </c>
       <c r="D344" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E344" t="inlineStr">
         <is>
-          <t>Skanska Chile S.A.</t>
+          <t>Transportes Herrmann Limitada</t>
         </is>
       </c>
       <c r="F344" t="n">
-        <v>500</v>
+        <v>0</v>
       </c>
       <c r="G344" t="inlineStr">
         <is>
@@ -16868,12 +16868,12 @@
       </c>
       <c r="H344" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I344" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6156264&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6159602&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J344" t="inlineStr">
@@ -16888,7 +16888,7 @@
       </c>
       <c r="B345" t="inlineStr">
         <is>
-          <t>Modificación Proyecto Transporte de Acido Sulfurico a granel entre la Primera y Décima Regiones de Chile</t>
+          <t>Extracción de Áridos Empréstito E17L</t>
         </is>
       </c>
       <c r="C345" t="inlineStr">
@@ -16898,16 +16898,16 @@
       </c>
       <c r="D345" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E345" t="inlineStr">
         <is>
-          <t>Transportes Herrmann Limitada</t>
+          <t>Skanska Chile S.A.</t>
         </is>
       </c>
       <c r="F345" t="n">
-        <v>0</v>
+        <v>500</v>
       </c>
       <c r="G345" t="inlineStr">
         <is>
@@ -16916,12 +16916,12 @@
       </c>
       <c r="H345" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I345" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6159602&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6156264&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J345" t="inlineStr">
@@ -17080,7 +17080,7 @@
       </c>
       <c r="B349" t="inlineStr">
         <is>
-          <t>Extracción de Áridos Empréstito E-63</t>
+          <t>Proyecto Optimización de Emplazamiento de Instalaciones en Minera Escondida</t>
         </is>
       </c>
       <c r="C349" t="inlineStr">
@@ -17095,11 +17095,11 @@
       </c>
       <c r="E349" t="inlineStr">
         <is>
-          <t>Skanska Chile S.A.</t>
+          <t>MINERA ESCONDIDA LIMITADA</t>
         </is>
       </c>
       <c r="F349" t="n">
-        <v>500</v>
+        <v>120000</v>
       </c>
       <c r="G349" t="inlineStr">
         <is>
@@ -17113,7 +17113,7 @@
       </c>
       <c r="I349" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6092873&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6080052&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J349" t="inlineStr">
@@ -17128,7 +17128,7 @@
       </c>
       <c r="B350" t="inlineStr">
         <is>
-          <t>Proyecto Optimización de Emplazamiento de Instalaciones en Minera Escondida</t>
+          <t>Extracción de Áridos Empréstito E-63</t>
         </is>
       </c>
       <c r="C350" t="inlineStr">
@@ -17143,11 +17143,11 @@
       </c>
       <c r="E350" t="inlineStr">
         <is>
-          <t>MINERA ESCONDIDA LIMITADA</t>
+          <t>Skanska Chile S.A.</t>
         </is>
       </c>
       <c r="F350" t="n">
-        <v>120000</v>
+        <v>500</v>
       </c>
       <c r="G350" t="inlineStr">
         <is>
@@ -17161,7 +17161,7 @@
       </c>
       <c r="I350" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6080052&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6092873&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J350" t="inlineStr">
@@ -17368,7 +17368,7 @@
       </c>
       <c r="B355" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos</t>
+          <t>Nuevas Instalaciones para Mantención Mina</t>
         </is>
       </c>
       <c r="C355" t="inlineStr">
@@ -17378,16 +17378,16 @@
       </c>
       <c r="D355" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E355" t="inlineStr">
         <is>
-          <t>Transportes TMS Limitada</t>
+          <t>MINERA ESCONDIDA LIMITADA</t>
         </is>
       </c>
       <c r="F355" t="n">
-        <v>200</v>
+        <v>635000</v>
       </c>
       <c r="G355" t="inlineStr">
         <is>
@@ -17396,12 +17396,12 @@
       </c>
       <c r="H355" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I355" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6003582&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5931343&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J355" t="inlineStr">
@@ -17416,7 +17416,7 @@
       </c>
       <c r="B356" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas entre la I, II y III Regiones"</t>
+          <t>Transporte de Residuos Peligrosos</t>
         </is>
       </c>
       <c r="C356" t="inlineStr">
@@ -17431,11 +17431,11 @@
       </c>
       <c r="E356" t="inlineStr">
         <is>
-          <t>Molina Quimicos S.A.</t>
+          <t>Transportes TMS Limitada</t>
         </is>
       </c>
       <c r="F356" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="G356" t="inlineStr">
         <is>
@@ -17449,7 +17449,7 @@
       </c>
       <c r="I356" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6003607&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6003582&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J356" t="inlineStr">
@@ -17464,7 +17464,7 @@
       </c>
       <c r="B357" t="inlineStr">
         <is>
-          <t>Nuevas Instalaciones para Mantención Mina</t>
+          <t>Transporte de Sustancias Peligrosas entre la I, II y III Regiones"</t>
         </is>
       </c>
       <c r="C357" t="inlineStr">
@@ -17474,16 +17474,16 @@
       </c>
       <c r="D357" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E357" t="inlineStr">
         <is>
-          <t>MINERA ESCONDIDA LIMITADA</t>
+          <t>Molina Quimicos S.A.</t>
         </is>
       </c>
       <c r="F357" t="n">
-        <v>635000</v>
+        <v>100</v>
       </c>
       <c r="G357" t="inlineStr">
         <is>
@@ -17492,12 +17492,12 @@
       </c>
       <c r="H357" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I357" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5931343&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6003607&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J357" t="inlineStr">
@@ -19720,7 +19720,7 @@
       </c>
       <c r="B404" t="inlineStr">
         <is>
-          <t>"Transporte de acido sulfurico concentrado para minera Las Cenizas, Taltal."</t>
+          <t>II MODIFICACIÓN DIA "TRANSPORTE Y MANEJO IN SITU DE RESIDUOS SÓLIDOS Y LÍQUIDOS PELIGROSOS Y NO PELIGROSOS"</t>
         </is>
       </c>
       <c r="C404" t="inlineStr">
@@ -19730,16 +19730,16 @@
       </c>
       <c r="D404" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E404" t="inlineStr">
         <is>
-          <t>Translog S.A.</t>
+          <t>Mol Ambiente S.A.</t>
         </is>
       </c>
       <c r="F404" t="n">
-        <v>600</v>
+        <v>75000</v>
       </c>
       <c r="G404" t="inlineStr">
         <is>
@@ -19748,12 +19748,12 @@
       </c>
       <c r="H404" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I404" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5114868&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5118945&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J404" t="inlineStr">
@@ -19768,7 +19768,7 @@
       </c>
       <c r="B405" t="inlineStr">
         <is>
-          <t>II MODIFICACIÓN DIA "TRANSPORTE Y MANEJO IN SITU DE RESIDUOS SÓLIDOS Y LÍQUIDOS PELIGROSOS Y NO PELIGROSOS"</t>
+          <t>"Transporte de acido sulfurico concentrado para minera Las Cenizas, Taltal."</t>
         </is>
       </c>
       <c r="C405" t="inlineStr">
@@ -19778,16 +19778,16 @@
       </c>
       <c r="D405" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E405" t="inlineStr">
         <is>
-          <t>Mol Ambiente S.A.</t>
+          <t>Translog S.A.</t>
         </is>
       </c>
       <c r="F405" t="n">
-        <v>75000</v>
+        <v>600</v>
       </c>
       <c r="G405" t="inlineStr">
         <is>
@@ -19796,12 +19796,12 @@
       </c>
       <c r="H405" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I405" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5118945&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5114868&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J405" t="inlineStr">
@@ -21256,7 +21256,7 @@
       </c>
       <c r="B436" t="inlineStr">
         <is>
-          <t>Proyecto Laboratorios Químicos CIMM T&amp;S SA. La Negra</t>
+          <t>TRANSPORTE DE RESIDUOS PELIGROSOS POR RUTAS DE LA REGIÓN DE ANTOFAGASTA</t>
         </is>
       </c>
       <c r="C436" t="inlineStr">
@@ -21271,11 +21271,11 @@
       </c>
       <c r="E436" t="inlineStr">
         <is>
-          <t>Yancko Gonzalez Rozas</t>
+          <t>Limfosep S.A</t>
         </is>
       </c>
       <c r="F436" t="n">
-        <v>8000</v>
+        <v>1000</v>
       </c>
       <c r="G436" t="inlineStr">
         <is>
@@ -21284,12 +21284,12 @@
       </c>
       <c r="H436" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I436" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4670031&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4698232&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J436" t="inlineStr">
@@ -21304,7 +21304,7 @@
       </c>
       <c r="B437" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE RESIDUOS PELIGROSOS POR RUTAS DE LA REGIÓN DE ANTOFAGASTA</t>
+          <t>Proyecto Laboratorios Químicos CIMM T&amp;S SA. La Negra</t>
         </is>
       </c>
       <c r="C437" t="inlineStr">
@@ -21319,11 +21319,11 @@
       </c>
       <c r="E437" t="inlineStr">
         <is>
-          <t>Limfosep S.A</t>
+          <t>Yancko Gonzalez Rozas</t>
         </is>
       </c>
       <c r="F437" t="n">
-        <v>1000</v>
+        <v>8000</v>
       </c>
       <c r="G437" t="inlineStr">
         <is>
@@ -21332,12 +21332,12 @@
       </c>
       <c r="H437" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I437" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4698232&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4670031&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J437" t="inlineStr">
@@ -21736,7 +21736,7 @@
       </c>
       <c r="B446" t="inlineStr">
         <is>
-          <t>Nuevo Transporte Interregional de Cianuro de Sodio</t>
+          <t>EXPANSION DEPOSITO DE RELAVES FILTRADOS FAENA EL PEÑÓN</t>
         </is>
       </c>
       <c r="C446" t="inlineStr">
@@ -21746,16 +21746,16 @@
       </c>
       <c r="D446" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E446" t="inlineStr">
         <is>
-          <t>OXIQUIM S.A.</t>
+          <t>Minera Meridian Limitada</t>
         </is>
       </c>
       <c r="F446" t="n">
-        <v>85</v>
+        <v>688</v>
       </c>
       <c r="G446" t="inlineStr">
         <is>
@@ -21764,12 +21764,12 @@
       </c>
       <c r="H446" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I446" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4594007&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4601640&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J446" t="inlineStr">
@@ -21784,7 +21784,7 @@
       </c>
       <c r="B447" t="inlineStr">
         <is>
-          <t>EXPANSION DEPOSITO DE RELAVES FILTRADOS FAENA EL PEÑÓN</t>
+          <t>Nuevo Transporte Interregional de Cianuro de Sodio</t>
         </is>
       </c>
       <c r="C447" t="inlineStr">
@@ -21794,16 +21794,16 @@
       </c>
       <c r="D447" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E447" t="inlineStr">
         <is>
-          <t>Minera Meridian Limitada</t>
+          <t>OXIQUIM S.A.</t>
         </is>
       </c>
       <c r="F447" t="n">
-        <v>688</v>
+        <v>85</v>
       </c>
       <c r="G447" t="inlineStr">
         <is>
@@ -21812,12 +21812,12 @@
       </c>
       <c r="H447" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I447" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4601640&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4594007&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J447" t="inlineStr">
@@ -22552,7 +22552,7 @@
       </c>
       <c r="B463" t="inlineStr">
         <is>
-          <t>Transporte de Barros Anódicos</t>
+          <t>Transporte de Residuos Peligroso, Transporte Bello</t>
         </is>
       </c>
       <c r="C463" t="inlineStr">
@@ -22567,11 +22567,11 @@
       </c>
       <c r="E463" t="inlineStr">
         <is>
-          <t>CODELCO CHILE</t>
+          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
         </is>
       </c>
       <c r="F463" t="n">
-        <v>0</v>
+        <v>4050</v>
       </c>
       <c r="G463" t="inlineStr">
         <is>
@@ -22585,7 +22585,7 @@
       </c>
       <c r="I463" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4429880&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4455518&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J463" t="inlineStr">
@@ -22600,7 +22600,7 @@
       </c>
       <c r="B464" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligroso, Transporte Bello</t>
+          <t>Transporte de Barros Anódicos</t>
         </is>
       </c>
       <c r="C464" t="inlineStr">
@@ -22615,11 +22615,11 @@
       </c>
       <c r="E464" t="inlineStr">
         <is>
-          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
+          <t>CODELCO CHILE</t>
         </is>
       </c>
       <c r="F464" t="n">
-        <v>4050</v>
+        <v>0</v>
       </c>
       <c r="G464" t="inlineStr">
         <is>
@@ -22633,7 +22633,7 @@
       </c>
       <c r="I464" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4455518&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4429880&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J464" t="inlineStr">
@@ -22744,7 +22744,7 @@
       </c>
       <c r="B467" t="inlineStr">
         <is>
-          <t>Transporte y Almacenamiento temporal de Residuos Peligrosos M&amp;M ltda.</t>
+          <t>Modificacion Proyecto Minero Algorta Sector Pampa</t>
         </is>
       </c>
       <c r="C467" t="inlineStr">
@@ -22754,16 +22754,16 @@
       </c>
       <c r="D467" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E467" t="inlineStr">
         <is>
-          <t>Transportes Moscoso y Moscoso Ltda.</t>
+          <t>Algorta Norte S.A</t>
         </is>
       </c>
       <c r="F467" t="n">
-        <v>41075</v>
+        <v>6400</v>
       </c>
       <c r="G467" t="inlineStr">
         <is>
@@ -22777,7 +22777,7 @@
       </c>
       <c r="I467" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4422237&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4432700&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J467" t="inlineStr">
@@ -22792,7 +22792,7 @@
       </c>
       <c r="B468" t="inlineStr">
         <is>
-          <t>Modificacion Proyecto Minero Algorta Sector Pampa</t>
+          <t>Transporte y Almacenamiento temporal de Residuos Peligrosos M&amp;M ltda.</t>
         </is>
       </c>
       <c r="C468" t="inlineStr">
@@ -22802,16 +22802,16 @@
       </c>
       <c r="D468" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E468" t="inlineStr">
         <is>
-          <t>Algorta Norte S.A</t>
+          <t>Transportes Moscoso y Moscoso Ltda.</t>
         </is>
       </c>
       <c r="F468" t="n">
-        <v>6400</v>
+        <v>41075</v>
       </c>
       <c r="G468" t="inlineStr">
         <is>
@@ -22825,7 +22825,7 @@
       </c>
       <c r="I468" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4432700&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4422237&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J468" t="inlineStr">
@@ -24280,7 +24280,7 @@
       </c>
       <c r="B499" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos CMR Norte (e-seia)</t>
+          <t>Proyecto Tratamiento de Polvos Metalurgicos de Otras Fundiciones (e-seia)</t>
         </is>
       </c>
       <c r="C499" t="inlineStr">
@@ -24295,11 +24295,11 @@
       </c>
       <c r="E499" t="inlineStr">
         <is>
-          <t>Soluciones Ambientales del Norte S. A.</t>
+          <t>Complejo Metalurgico Altonorte S.A.</t>
         </is>
       </c>
       <c r="F499" t="n">
-        <v>250</v>
+        <v>320</v>
       </c>
       <c r="G499" t="inlineStr">
         <is>
@@ -24313,7 +24313,7 @@
       </c>
       <c r="I499" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4063042&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4061206&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J499" t="inlineStr">
@@ -24328,7 +24328,7 @@
       </c>
       <c r="B500" t="inlineStr">
         <is>
-          <t>Proyecto Tratamiento de Polvos Metalurgicos de Otras Fundiciones (e-seia)</t>
+          <t>Transporte de Residuos Peligrosos CMR Norte (e-seia)</t>
         </is>
       </c>
       <c r="C500" t="inlineStr">
@@ -24343,11 +24343,11 @@
       </c>
       <c r="E500" t="inlineStr">
         <is>
-          <t>Complejo Metalurgico Altonorte S.A.</t>
+          <t>Soluciones Ambientales del Norte S. A.</t>
         </is>
       </c>
       <c r="F500" t="n">
-        <v>320</v>
+        <v>250</v>
       </c>
       <c r="G500" t="inlineStr">
         <is>
@@ -24361,7 +24361,7 @@
       </c>
       <c r="I500" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4061206&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4063042&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J500" t="inlineStr">

--- a/data/Antofagasta.xlsx
+++ b/data/Antofagasta.xlsx
@@ -11416,7 +11416,7 @@
       </c>
       <c r="B231" t="inlineStr">
         <is>
-          <t>Planta de Fabricación de Tuberías PEX (polietileno reticulado)</t>
+          <t>Transporte Interregional de Sustancias Peligrosas - AGREDUCAM VI Región</t>
         </is>
       </c>
       <c r="C231" t="inlineStr">
@@ -11426,16 +11426,16 @@
       </c>
       <c r="D231" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E231" t="inlineStr">
         <is>
-          <t>CROSSPIPE SYSTEMS S.A.</t>
+          <t>Asociación Gremial de Dueños de Camiones de la Sexta Región</t>
         </is>
       </c>
       <c r="F231" t="n">
-        <v>12400</v>
+        <v>1200</v>
       </c>
       <c r="G231" t="inlineStr">
         <is>
@@ -11449,7 +11449,7 @@
       </c>
       <c r="I231" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128954293&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128964620&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J231" t="inlineStr">
@@ -11464,7 +11464,7 @@
       </c>
       <c r="B232" t="inlineStr">
         <is>
-          <t>Transporte Interregional de Sustancias Peligrosas - AGREDUCAM VI Región</t>
+          <t>Transporte de Residuos Peligrosos por las Rutas Indicadas</t>
         </is>
       </c>
       <c r="C232" t="inlineStr">
@@ -11479,11 +11479,11 @@
       </c>
       <c r="E232" t="inlineStr">
         <is>
-          <t>Asociación Gremial de Dueños de Camiones de la Sexta Región</t>
+          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
         </is>
       </c>
       <c r="F232" t="n">
-        <v>1200</v>
+        <v>0</v>
       </c>
       <c r="G232" t="inlineStr">
         <is>
@@ -11497,7 +11497,7 @@
       </c>
       <c r="I232" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128964620&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128972489&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J232" t="inlineStr">
@@ -11512,7 +11512,7 @@
       </c>
       <c r="B233" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos por las Rutas Indicadas</t>
+          <t>Planta de Fabricación de Tuberías PEX (polietileno reticulado)</t>
         </is>
       </c>
       <c r="C233" t="inlineStr">
@@ -11522,16 +11522,16 @@
       </c>
       <c r="D233" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E233" t="inlineStr">
         <is>
-          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
+          <t>CROSSPIPE SYSTEMS S.A.</t>
         </is>
       </c>
       <c r="F233" t="n">
-        <v>0</v>
+        <v>12400</v>
       </c>
       <c r="G233" t="inlineStr">
         <is>
@@ -11545,7 +11545,7 @@
       </c>
       <c r="I233" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128972489&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128954293&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J233" t="inlineStr">
@@ -13144,26 +13144,26 @@
       </c>
       <c r="B267" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas Transaltisa Chile Ltda</t>
+          <t>RT Sulfuros</t>
         </is>
       </c>
       <c r="C267" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D267" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E267" t="inlineStr">
         <is>
-          <t>Transaltisa Chile Ltda.</t>
+          <t>CODELCO Chile, División Radomiro Tomic</t>
         </is>
       </c>
       <c r="F267" t="n">
-        <v>2050</v>
+        <v>5.4</v>
       </c>
       <c r="G267" t="inlineStr">
         <is>
@@ -13172,12 +13172,12 @@
       </c>
       <c r="H267" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I267" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8218613&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8210090&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J267" t="inlineStr">
@@ -13192,26 +13192,26 @@
       </c>
       <c r="B268" t="inlineStr">
         <is>
-          <t>RT Sulfuros</t>
+          <t>Transporte de Sustancias Peligrosas Transaltisa Chile Ltda</t>
         </is>
       </c>
       <c r="C268" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D268" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E268" t="inlineStr">
         <is>
-          <t>CODELCO Chile, División Radomiro Tomic</t>
+          <t>Transaltisa Chile Ltda.</t>
         </is>
       </c>
       <c r="F268" t="n">
-        <v>5.4</v>
+        <v>2050</v>
       </c>
       <c r="G268" t="inlineStr">
         <is>
@@ -13220,12 +13220,12 @@
       </c>
       <c r="H268" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I268" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8210090&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8218613&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J268" t="inlineStr">
@@ -15880,7 +15880,7 @@
       </c>
       <c r="B324" t="inlineStr">
         <is>
-          <t>CENTRO DE RECUPERACIÓN DE TAMBORES Y CONTENEDORES IBC CONTAMINADOS, PLAMBIENTAL LA NEGRA</t>
+          <t>Parque Fotovoltaico Los Andes</t>
         </is>
       </c>
       <c r="C324" t="inlineStr">
@@ -15895,11 +15895,11 @@
       </c>
       <c r="E324" t="inlineStr">
         <is>
-          <t>VEOLIA SERVICIOS MINEROS INTEGRALES CHILE SpA</t>
+          <t>Andes Solar SPA</t>
         </is>
       </c>
       <c r="F324" t="n">
-        <v>60</v>
+        <v>572000</v>
       </c>
       <c r="G324" t="inlineStr">
         <is>
@@ -15908,12 +15908,12 @@
       </c>
       <c r="H324" t="inlineStr">
         <is>
-          <t>Caducado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I324" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6592870&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6581267&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J324" t="inlineStr">
@@ -15928,7 +15928,7 @@
       </c>
       <c r="B325" t="inlineStr">
         <is>
-          <t>CENTRO DE ALMACENAMIENTO DE RESIDUOS INDUSTRIALES, GESAM LA NEGRA</t>
+          <t>CENTRO DE RECUPERACIÓN DE TAMBORES Y CONTENEDORES IBC CONTAMINADOS, PLAMBIENTAL LA NEGRA</t>
         </is>
       </c>
       <c r="C325" t="inlineStr">
@@ -15947,7 +15947,7 @@
         </is>
       </c>
       <c r="F325" t="n">
-        <v>360</v>
+        <v>60</v>
       </c>
       <c r="G325" t="inlineStr">
         <is>
@@ -15961,7 +15961,7 @@
       </c>
       <c r="I325" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6595234&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6592870&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J325" t="inlineStr">
@@ -15976,7 +15976,7 @@
       </c>
       <c r="B326" t="inlineStr">
         <is>
-          <t>Parque Fotovoltaico Los Andes</t>
+          <t>CENTRO DE ALMACENAMIENTO DE RESIDUOS INDUSTRIALES, GESAM LA NEGRA</t>
         </is>
       </c>
       <c r="C326" t="inlineStr">
@@ -15991,11 +15991,11 @@
       </c>
       <c r="E326" t="inlineStr">
         <is>
-          <t>Andes Solar SPA</t>
+          <t>VEOLIA SERVICIOS MINEROS INTEGRALES CHILE SpA</t>
         </is>
       </c>
       <c r="F326" t="n">
-        <v>572000</v>
+        <v>360</v>
       </c>
       <c r="G326" t="inlineStr">
         <is>
@@ -16004,12 +16004,12 @@
       </c>
       <c r="H326" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Caducado</t>
         </is>
       </c>
       <c r="I326" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6581267&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6595234&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J326" t="inlineStr">
@@ -16840,7 +16840,7 @@
       </c>
       <c r="B344" t="inlineStr">
         <is>
-          <t>Modificación Proyecto Transporte de Acido Sulfurico a granel entre la Primera y Décima Regiones de Chile</t>
+          <t>Extracción de Áridos Empréstito E17L</t>
         </is>
       </c>
       <c r="C344" t="inlineStr">
@@ -16850,16 +16850,16 @@
       </c>
       <c r="D344" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E344" t="inlineStr">
         <is>
-          <t>Transportes Herrmann Limitada</t>
+          <t>Skanska Chile S.A.</t>
         </is>
       </c>
       <c r="F344" t="n">
-        <v>0</v>
+        <v>500</v>
       </c>
       <c r="G344" t="inlineStr">
         <is>
@@ -16868,12 +16868,12 @@
       </c>
       <c r="H344" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I344" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6159602&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6156264&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J344" t="inlineStr">
@@ -16888,7 +16888,7 @@
       </c>
       <c r="B345" t="inlineStr">
         <is>
-          <t>Extracción de Áridos Empréstito E17L</t>
+          <t>Modificación Proyecto Transporte de Acido Sulfurico a granel entre la Primera y Décima Regiones de Chile</t>
         </is>
       </c>
       <c r="C345" t="inlineStr">
@@ -16898,16 +16898,16 @@
       </c>
       <c r="D345" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E345" t="inlineStr">
         <is>
-          <t>Skanska Chile S.A.</t>
+          <t>Transportes Herrmann Limitada</t>
         </is>
       </c>
       <c r="F345" t="n">
-        <v>500</v>
+        <v>0</v>
       </c>
       <c r="G345" t="inlineStr">
         <is>
@@ -16916,12 +16916,12 @@
       </c>
       <c r="H345" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I345" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6156264&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6159602&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J345" t="inlineStr">
@@ -17080,7 +17080,7 @@
       </c>
       <c r="B349" t="inlineStr">
         <is>
-          <t>Proyecto Optimización de Emplazamiento de Instalaciones en Minera Escondida</t>
+          <t>Extracción de Áridos Empréstito E-63</t>
         </is>
       </c>
       <c r="C349" t="inlineStr">
@@ -17095,11 +17095,11 @@
       </c>
       <c r="E349" t="inlineStr">
         <is>
-          <t>MINERA ESCONDIDA LIMITADA</t>
+          <t>Skanska Chile S.A.</t>
         </is>
       </c>
       <c r="F349" t="n">
-        <v>120000</v>
+        <v>500</v>
       </c>
       <c r="G349" t="inlineStr">
         <is>
@@ -17113,7 +17113,7 @@
       </c>
       <c r="I349" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6080052&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6092873&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J349" t="inlineStr">
@@ -17128,7 +17128,7 @@
       </c>
       <c r="B350" t="inlineStr">
         <is>
-          <t>Extracción de Áridos Empréstito E-63</t>
+          <t>Proyecto Optimización de Emplazamiento de Instalaciones en Minera Escondida</t>
         </is>
       </c>
       <c r="C350" t="inlineStr">
@@ -17143,11 +17143,11 @@
       </c>
       <c r="E350" t="inlineStr">
         <is>
-          <t>Skanska Chile S.A.</t>
+          <t>MINERA ESCONDIDA LIMITADA</t>
         </is>
       </c>
       <c r="F350" t="n">
-        <v>500</v>
+        <v>120000</v>
       </c>
       <c r="G350" t="inlineStr">
         <is>
@@ -17161,7 +17161,7 @@
       </c>
       <c r="I350" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6092873&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6080052&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J350" t="inlineStr">
@@ -17368,7 +17368,7 @@
       </c>
       <c r="B355" t="inlineStr">
         <is>
-          <t>Nuevas Instalaciones para Mantención Mina</t>
+          <t>Transporte de Residuos Peligrosos</t>
         </is>
       </c>
       <c r="C355" t="inlineStr">
@@ -17378,16 +17378,16 @@
       </c>
       <c r="D355" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E355" t="inlineStr">
         <is>
-          <t>MINERA ESCONDIDA LIMITADA</t>
+          <t>Transportes TMS Limitada</t>
         </is>
       </c>
       <c r="F355" t="n">
-        <v>635000</v>
+        <v>200</v>
       </c>
       <c r="G355" t="inlineStr">
         <is>
@@ -17396,12 +17396,12 @@
       </c>
       <c r="H355" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I355" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5931343&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6003582&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J355" t="inlineStr">
@@ -17416,7 +17416,7 @@
       </c>
       <c r="B356" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos</t>
+          <t>Transporte de Sustancias Peligrosas entre la I, II y III Regiones"</t>
         </is>
       </c>
       <c r="C356" t="inlineStr">
@@ -17431,11 +17431,11 @@
       </c>
       <c r="E356" t="inlineStr">
         <is>
-          <t>Transportes TMS Limitada</t>
+          <t>Molina Quimicos S.A.</t>
         </is>
       </c>
       <c r="F356" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="G356" t="inlineStr">
         <is>
@@ -17449,7 +17449,7 @@
       </c>
       <c r="I356" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6003582&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6003607&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J356" t="inlineStr">
@@ -17464,7 +17464,7 @@
       </c>
       <c r="B357" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas entre la I, II y III Regiones"</t>
+          <t>Nuevas Instalaciones para Mantención Mina</t>
         </is>
       </c>
       <c r="C357" t="inlineStr">
@@ -17474,16 +17474,16 @@
       </c>
       <c r="D357" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E357" t="inlineStr">
         <is>
-          <t>Molina Quimicos S.A.</t>
+          <t>MINERA ESCONDIDA LIMITADA</t>
         </is>
       </c>
       <c r="F357" t="n">
-        <v>100</v>
+        <v>635000</v>
       </c>
       <c r="G357" t="inlineStr">
         <is>
@@ -17492,12 +17492,12 @@
       </c>
       <c r="H357" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I357" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6003607&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5931343&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J357" t="inlineStr">
@@ -19720,7 +19720,7 @@
       </c>
       <c r="B404" t="inlineStr">
         <is>
-          <t>II MODIFICACIÓN DIA "TRANSPORTE Y MANEJO IN SITU DE RESIDUOS SÓLIDOS Y LÍQUIDOS PELIGROSOS Y NO PELIGROSOS"</t>
+          <t>"Transporte de acido sulfurico concentrado para minera Las Cenizas, Taltal."</t>
         </is>
       </c>
       <c r="C404" t="inlineStr">
@@ -19730,16 +19730,16 @@
       </c>
       <c r="D404" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E404" t="inlineStr">
         <is>
-          <t>Mol Ambiente S.A.</t>
+          <t>Translog S.A.</t>
         </is>
       </c>
       <c r="F404" t="n">
-        <v>75000</v>
+        <v>600</v>
       </c>
       <c r="G404" t="inlineStr">
         <is>
@@ -19748,12 +19748,12 @@
       </c>
       <c r="H404" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I404" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5118945&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5114868&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J404" t="inlineStr">
@@ -19768,7 +19768,7 @@
       </c>
       <c r="B405" t="inlineStr">
         <is>
-          <t>"Transporte de acido sulfurico concentrado para minera Las Cenizas, Taltal."</t>
+          <t>II MODIFICACIÓN DIA "TRANSPORTE Y MANEJO IN SITU DE RESIDUOS SÓLIDOS Y LÍQUIDOS PELIGROSOS Y NO PELIGROSOS"</t>
         </is>
       </c>
       <c r="C405" t="inlineStr">
@@ -19778,16 +19778,16 @@
       </c>
       <c r="D405" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E405" t="inlineStr">
         <is>
-          <t>Translog S.A.</t>
+          <t>Mol Ambiente S.A.</t>
         </is>
       </c>
       <c r="F405" t="n">
-        <v>600</v>
+        <v>75000</v>
       </c>
       <c r="G405" t="inlineStr">
         <is>
@@ -19796,12 +19796,12 @@
       </c>
       <c r="H405" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I405" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5114868&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5118945&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J405" t="inlineStr">
@@ -21256,7 +21256,7 @@
       </c>
       <c r="B436" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE RESIDUOS PELIGROSOS POR RUTAS DE LA REGIÓN DE ANTOFAGASTA</t>
+          <t>Proyecto Laboratorios Químicos CIMM T&amp;S SA. La Negra</t>
         </is>
       </c>
       <c r="C436" t="inlineStr">
@@ -21271,11 +21271,11 @@
       </c>
       <c r="E436" t="inlineStr">
         <is>
-          <t>Limfosep S.A</t>
+          <t>Yancko Gonzalez Rozas</t>
         </is>
       </c>
       <c r="F436" t="n">
-        <v>1000</v>
+        <v>8000</v>
       </c>
       <c r="G436" t="inlineStr">
         <is>
@@ -21284,12 +21284,12 @@
       </c>
       <c r="H436" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I436" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4698232&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4670031&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J436" t="inlineStr">
@@ -21304,7 +21304,7 @@
       </c>
       <c r="B437" t="inlineStr">
         <is>
-          <t>Proyecto Laboratorios Químicos CIMM T&amp;S SA. La Negra</t>
+          <t>TRANSPORTE DE RESIDUOS PELIGROSOS POR RUTAS DE LA REGIÓN DE ANTOFAGASTA</t>
         </is>
       </c>
       <c r="C437" t="inlineStr">
@@ -21319,11 +21319,11 @@
       </c>
       <c r="E437" t="inlineStr">
         <is>
-          <t>Yancko Gonzalez Rozas</t>
+          <t>Limfosep S.A</t>
         </is>
       </c>
       <c r="F437" t="n">
-        <v>8000</v>
+        <v>1000</v>
       </c>
       <c r="G437" t="inlineStr">
         <is>
@@ -21332,12 +21332,12 @@
       </c>
       <c r="H437" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I437" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4670031&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4698232&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J437" t="inlineStr">
@@ -21736,7 +21736,7 @@
       </c>
       <c r="B446" t="inlineStr">
         <is>
-          <t>EXPANSION DEPOSITO DE RELAVES FILTRADOS FAENA EL PEÑÓN</t>
+          <t>Nuevo Transporte Interregional de Cianuro de Sodio</t>
         </is>
       </c>
       <c r="C446" t="inlineStr">
@@ -21746,16 +21746,16 @@
       </c>
       <c r="D446" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E446" t="inlineStr">
         <is>
-          <t>Minera Meridian Limitada</t>
+          <t>OXIQUIM S.A.</t>
         </is>
       </c>
       <c r="F446" t="n">
-        <v>688</v>
+        <v>85</v>
       </c>
       <c r="G446" t="inlineStr">
         <is>
@@ -21764,12 +21764,12 @@
       </c>
       <c r="H446" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I446" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4601640&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4594007&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J446" t="inlineStr">
@@ -21784,7 +21784,7 @@
       </c>
       <c r="B447" t="inlineStr">
         <is>
-          <t>Nuevo Transporte Interregional de Cianuro de Sodio</t>
+          <t>EXPANSION DEPOSITO DE RELAVES FILTRADOS FAENA EL PEÑÓN</t>
         </is>
       </c>
       <c r="C447" t="inlineStr">
@@ -21794,16 +21794,16 @@
       </c>
       <c r="D447" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E447" t="inlineStr">
         <is>
-          <t>OXIQUIM S.A.</t>
+          <t>Minera Meridian Limitada</t>
         </is>
       </c>
       <c r="F447" t="n">
-        <v>85</v>
+        <v>688</v>
       </c>
       <c r="G447" t="inlineStr">
         <is>
@@ -21812,12 +21812,12 @@
       </c>
       <c r="H447" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I447" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4594007&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4601640&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J447" t="inlineStr">
@@ -22552,7 +22552,7 @@
       </c>
       <c r="B463" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligroso, Transporte Bello</t>
+          <t>Transporte de Barros Anódicos</t>
         </is>
       </c>
       <c r="C463" t="inlineStr">
@@ -22567,11 +22567,11 @@
       </c>
       <c r="E463" t="inlineStr">
         <is>
-          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
+          <t>CODELCO CHILE</t>
         </is>
       </c>
       <c r="F463" t="n">
-        <v>4050</v>
+        <v>0</v>
       </c>
       <c r="G463" t="inlineStr">
         <is>
@@ -22585,7 +22585,7 @@
       </c>
       <c r="I463" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4455518&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4429880&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J463" t="inlineStr">
@@ -22600,7 +22600,7 @@
       </c>
       <c r="B464" t="inlineStr">
         <is>
-          <t>Transporte de Barros Anódicos</t>
+          <t>Transporte de Residuos Peligroso, Transporte Bello</t>
         </is>
       </c>
       <c r="C464" t="inlineStr">
@@ -22615,11 +22615,11 @@
       </c>
       <c r="E464" t="inlineStr">
         <is>
-          <t>CODELCO CHILE</t>
+          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
         </is>
       </c>
       <c r="F464" t="n">
-        <v>0</v>
+        <v>4050</v>
       </c>
       <c r="G464" t="inlineStr">
         <is>
@@ -22633,7 +22633,7 @@
       </c>
       <c r="I464" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4429880&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4455518&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J464" t="inlineStr">
@@ -22744,7 +22744,7 @@
       </c>
       <c r="B467" t="inlineStr">
         <is>
-          <t>Modificacion Proyecto Minero Algorta Sector Pampa</t>
+          <t>Transporte y Almacenamiento temporal de Residuos Peligrosos M&amp;M ltda.</t>
         </is>
       </c>
       <c r="C467" t="inlineStr">
@@ -22754,16 +22754,16 @@
       </c>
       <c r="D467" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E467" t="inlineStr">
         <is>
-          <t>Algorta Norte S.A</t>
+          <t>Transportes Moscoso y Moscoso Ltda.</t>
         </is>
       </c>
       <c r="F467" t="n">
-        <v>6400</v>
+        <v>41075</v>
       </c>
       <c r="G467" t="inlineStr">
         <is>
@@ -22777,7 +22777,7 @@
       </c>
       <c r="I467" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4432700&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4422237&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J467" t="inlineStr">
@@ -22792,7 +22792,7 @@
       </c>
       <c r="B468" t="inlineStr">
         <is>
-          <t>Transporte y Almacenamiento temporal de Residuos Peligrosos M&amp;M ltda.</t>
+          <t>Modificacion Proyecto Minero Algorta Sector Pampa</t>
         </is>
       </c>
       <c r="C468" t="inlineStr">
@@ -22802,16 +22802,16 @@
       </c>
       <c r="D468" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E468" t="inlineStr">
         <is>
-          <t>Transportes Moscoso y Moscoso Ltda.</t>
+          <t>Algorta Norte S.A</t>
         </is>
       </c>
       <c r="F468" t="n">
-        <v>41075</v>
+        <v>6400</v>
       </c>
       <c r="G468" t="inlineStr">
         <is>
@@ -22825,7 +22825,7 @@
       </c>
       <c r="I468" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4422237&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4432700&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J468" t="inlineStr">
@@ -24280,7 +24280,7 @@
       </c>
       <c r="B499" t="inlineStr">
         <is>
-          <t>Proyecto Tratamiento de Polvos Metalurgicos de Otras Fundiciones (e-seia)</t>
+          <t>Transporte de Residuos Peligrosos CMR Norte (e-seia)</t>
         </is>
       </c>
       <c r="C499" t="inlineStr">
@@ -24295,11 +24295,11 @@
       </c>
       <c r="E499" t="inlineStr">
         <is>
-          <t>Complejo Metalurgico Altonorte S.A.</t>
+          <t>Soluciones Ambientales del Norte S. A.</t>
         </is>
       </c>
       <c r="F499" t="n">
-        <v>320</v>
+        <v>250</v>
       </c>
       <c r="G499" t="inlineStr">
         <is>
@@ -24313,7 +24313,7 @@
       </c>
       <c r="I499" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4061206&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4063042&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J499" t="inlineStr">
@@ -24328,7 +24328,7 @@
       </c>
       <c r="B500" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos CMR Norte (e-seia)</t>
+          <t>Proyecto Tratamiento de Polvos Metalurgicos de Otras Fundiciones (e-seia)</t>
         </is>
       </c>
       <c r="C500" t="inlineStr">
@@ -24343,11 +24343,11 @@
       </c>
       <c r="E500" t="inlineStr">
         <is>
-          <t>Soluciones Ambientales del Norte S. A.</t>
+          <t>Complejo Metalurgico Altonorte S.A.</t>
         </is>
       </c>
       <c r="F500" t="n">
-        <v>250</v>
+        <v>320</v>
       </c>
       <c r="G500" t="inlineStr">
         <is>
@@ -24361,7 +24361,7 @@
       </c>
       <c r="I500" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4063042&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4061206&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J500" t="inlineStr">

--- a/data/Antofagasta.xlsx
+++ b/data/Antofagasta.xlsx
@@ -447,12 +447,12 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>01/03/2022</t>
+          <t>07/03/2022</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>En Admisión</t>
+          <t>En Calificación</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">

--- a/data/Antofagasta.xlsx
+++ b/data/Antofagasta.xlsx
@@ -1604,7 +1604,7 @@
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>En Calificación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I26" t="inlineStr">
@@ -11416,7 +11416,7 @@
       </c>
       <c r="B231" t="inlineStr">
         <is>
-          <t>Transporte Interregional de Sustancias Peligrosas - AGREDUCAM VI Región</t>
+          <t>Planta de Fabricación de Tuberías PEX (polietileno reticulado)</t>
         </is>
       </c>
       <c r="C231" t="inlineStr">
@@ -11426,16 +11426,16 @@
       </c>
       <c r="D231" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E231" t="inlineStr">
         <is>
-          <t>Asociación Gremial de Dueños de Camiones de la Sexta Región</t>
+          <t>CROSSPIPE SYSTEMS S.A.</t>
         </is>
       </c>
       <c r="F231" t="n">
-        <v>1200</v>
+        <v>12400</v>
       </c>
       <c r="G231" t="inlineStr">
         <is>
@@ -11449,7 +11449,7 @@
       </c>
       <c r="I231" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128964620&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128954293&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J231" t="inlineStr">
@@ -11464,7 +11464,7 @@
       </c>
       <c r="B232" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos por las Rutas Indicadas</t>
+          <t>Transporte Interregional de Sustancias Peligrosas - AGREDUCAM VI Región</t>
         </is>
       </c>
       <c r="C232" t="inlineStr">
@@ -11479,11 +11479,11 @@
       </c>
       <c r="E232" t="inlineStr">
         <is>
-          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
+          <t>Asociación Gremial de Dueños de Camiones de la Sexta Región</t>
         </is>
       </c>
       <c r="F232" t="n">
-        <v>0</v>
+        <v>1200</v>
       </c>
       <c r="G232" t="inlineStr">
         <is>
@@ -11497,7 +11497,7 @@
       </c>
       <c r="I232" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128972489&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128964620&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J232" t="inlineStr">
@@ -11512,7 +11512,7 @@
       </c>
       <c r="B233" t="inlineStr">
         <is>
-          <t>Planta de Fabricación de Tuberías PEX (polietileno reticulado)</t>
+          <t>Transporte de Residuos Peligrosos por las Rutas Indicadas</t>
         </is>
       </c>
       <c r="C233" t="inlineStr">
@@ -11522,16 +11522,16 @@
       </c>
       <c r="D233" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E233" t="inlineStr">
         <is>
-          <t>CROSSPIPE SYSTEMS S.A.</t>
+          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
         </is>
       </c>
       <c r="F233" t="n">
-        <v>12400</v>
+        <v>0</v>
       </c>
       <c r="G233" t="inlineStr">
         <is>
@@ -11545,7 +11545,7 @@
       </c>
       <c r="I233" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128954293&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128972489&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J233" t="inlineStr">
@@ -13144,26 +13144,26 @@
       </c>
       <c r="B267" t="inlineStr">
         <is>
-          <t>RT Sulfuros</t>
+          <t>Transporte de Sustancias Peligrosas Transaltisa Chile Ltda</t>
         </is>
       </c>
       <c r="C267" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D267" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E267" t="inlineStr">
         <is>
-          <t>CODELCO Chile, División Radomiro Tomic</t>
+          <t>Transaltisa Chile Ltda.</t>
         </is>
       </c>
       <c r="F267" t="n">
-        <v>5.4</v>
+        <v>2050</v>
       </c>
       <c r="G267" t="inlineStr">
         <is>
@@ -13172,12 +13172,12 @@
       </c>
       <c r="H267" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I267" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8210090&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8218613&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J267" t="inlineStr">
@@ -13192,26 +13192,26 @@
       </c>
       <c r="B268" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas Transaltisa Chile Ltda</t>
+          <t>RT Sulfuros</t>
         </is>
       </c>
       <c r="C268" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D268" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E268" t="inlineStr">
         <is>
-          <t>Transaltisa Chile Ltda.</t>
+          <t>CODELCO Chile, División Radomiro Tomic</t>
         </is>
       </c>
       <c r="F268" t="n">
-        <v>2050</v>
+        <v>5.4</v>
       </c>
       <c r="G268" t="inlineStr">
         <is>
@@ -13220,12 +13220,12 @@
       </c>
       <c r="H268" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I268" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8218613&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8210090&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J268" t="inlineStr">
@@ -15880,7 +15880,7 @@
       </c>
       <c r="B324" t="inlineStr">
         <is>
-          <t>Parque Fotovoltaico Los Andes</t>
+          <t>CENTRO DE RECUPERACIÓN DE TAMBORES Y CONTENEDORES IBC CONTAMINADOS, PLAMBIENTAL LA NEGRA</t>
         </is>
       </c>
       <c r="C324" t="inlineStr">
@@ -15895,11 +15895,11 @@
       </c>
       <c r="E324" t="inlineStr">
         <is>
-          <t>Andes Solar SPA</t>
+          <t>VEOLIA SERVICIOS MINEROS INTEGRALES CHILE SpA</t>
         </is>
       </c>
       <c r="F324" t="n">
-        <v>572000</v>
+        <v>60</v>
       </c>
       <c r="G324" t="inlineStr">
         <is>
@@ -15908,12 +15908,12 @@
       </c>
       <c r="H324" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Caducado</t>
         </is>
       </c>
       <c r="I324" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6581267&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6592870&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J324" t="inlineStr">
@@ -15928,7 +15928,7 @@
       </c>
       <c r="B325" t="inlineStr">
         <is>
-          <t>CENTRO DE RECUPERACIÓN DE TAMBORES Y CONTENEDORES IBC CONTAMINADOS, PLAMBIENTAL LA NEGRA</t>
+          <t>CENTRO DE ALMACENAMIENTO DE RESIDUOS INDUSTRIALES, GESAM LA NEGRA</t>
         </is>
       </c>
       <c r="C325" t="inlineStr">
@@ -15947,7 +15947,7 @@
         </is>
       </c>
       <c r="F325" t="n">
-        <v>60</v>
+        <v>360</v>
       </c>
       <c r="G325" t="inlineStr">
         <is>
@@ -15961,7 +15961,7 @@
       </c>
       <c r="I325" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6592870&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6595234&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J325" t="inlineStr">
@@ -15976,7 +15976,7 @@
       </c>
       <c r="B326" t="inlineStr">
         <is>
-          <t>CENTRO DE ALMACENAMIENTO DE RESIDUOS INDUSTRIALES, GESAM LA NEGRA</t>
+          <t>Parque Fotovoltaico Los Andes</t>
         </is>
       </c>
       <c r="C326" t="inlineStr">
@@ -15991,11 +15991,11 @@
       </c>
       <c r="E326" t="inlineStr">
         <is>
-          <t>VEOLIA SERVICIOS MINEROS INTEGRALES CHILE SpA</t>
+          <t>Andes Solar SPA</t>
         </is>
       </c>
       <c r="F326" t="n">
-        <v>360</v>
+        <v>572000</v>
       </c>
       <c r="G326" t="inlineStr">
         <is>
@@ -16004,12 +16004,12 @@
       </c>
       <c r="H326" t="inlineStr">
         <is>
-          <t>Caducado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I326" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6595234&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6581267&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J326" t="inlineStr">
@@ -16840,7 +16840,7 @@
       </c>
       <c r="B344" t="inlineStr">
         <is>
-          <t>Extracción de Áridos Empréstito E17L</t>
+          <t>Modificación Proyecto Transporte de Acido Sulfurico a granel entre la Primera y Décima Regiones de Chile</t>
         </is>
       </c>
       <c r="C344" t="inlineStr">
@@ -16850,16 +16850,16 @@
       </c>
       <c r="D344" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E344" t="inlineStr">
         <is>
-          <t>Skanska Chile S.A.</t>
+          <t>Transportes Herrmann Limitada</t>
         </is>
       </c>
       <c r="F344" t="n">
-        <v>500</v>
+        <v>0</v>
       </c>
       <c r="G344" t="inlineStr">
         <is>
@@ -16868,12 +16868,12 @@
       </c>
       <c r="H344" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I344" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6156264&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6159602&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J344" t="inlineStr">
@@ -16888,7 +16888,7 @@
       </c>
       <c r="B345" t="inlineStr">
         <is>
-          <t>Modificación Proyecto Transporte de Acido Sulfurico a granel entre la Primera y Décima Regiones de Chile</t>
+          <t>Extracción de Áridos Empréstito E17L</t>
         </is>
       </c>
       <c r="C345" t="inlineStr">
@@ -16898,16 +16898,16 @@
       </c>
       <c r="D345" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E345" t="inlineStr">
         <is>
-          <t>Transportes Herrmann Limitada</t>
+          <t>Skanska Chile S.A.</t>
         </is>
       </c>
       <c r="F345" t="n">
-        <v>0</v>
+        <v>500</v>
       </c>
       <c r="G345" t="inlineStr">
         <is>
@@ -16916,12 +16916,12 @@
       </c>
       <c r="H345" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I345" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6159602&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6156264&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J345" t="inlineStr">
@@ -17368,7 +17368,7 @@
       </c>
       <c r="B355" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos</t>
+          <t>Nuevas Instalaciones para Mantención Mina</t>
         </is>
       </c>
       <c r="C355" t="inlineStr">
@@ -17378,16 +17378,16 @@
       </c>
       <c r="D355" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E355" t="inlineStr">
         <is>
-          <t>Transportes TMS Limitada</t>
+          <t>MINERA ESCONDIDA LIMITADA</t>
         </is>
       </c>
       <c r="F355" t="n">
-        <v>200</v>
+        <v>635000</v>
       </c>
       <c r="G355" t="inlineStr">
         <is>
@@ -17396,12 +17396,12 @@
       </c>
       <c r="H355" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I355" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6003582&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5931343&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J355" t="inlineStr">
@@ -17416,7 +17416,7 @@
       </c>
       <c r="B356" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas entre la I, II y III Regiones"</t>
+          <t>Transporte de Residuos Peligrosos</t>
         </is>
       </c>
       <c r="C356" t="inlineStr">
@@ -17431,11 +17431,11 @@
       </c>
       <c r="E356" t="inlineStr">
         <is>
-          <t>Molina Quimicos S.A.</t>
+          <t>Transportes TMS Limitada</t>
         </is>
       </c>
       <c r="F356" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="G356" t="inlineStr">
         <is>
@@ -17449,7 +17449,7 @@
       </c>
       <c r="I356" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6003607&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6003582&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J356" t="inlineStr">
@@ -17464,7 +17464,7 @@
       </c>
       <c r="B357" t="inlineStr">
         <is>
-          <t>Nuevas Instalaciones para Mantención Mina</t>
+          <t>Transporte de Sustancias Peligrosas entre la I, II y III Regiones"</t>
         </is>
       </c>
       <c r="C357" t="inlineStr">
@@ -17474,16 +17474,16 @@
       </c>
       <c r="D357" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E357" t="inlineStr">
         <is>
-          <t>MINERA ESCONDIDA LIMITADA</t>
+          <t>Molina Quimicos S.A.</t>
         </is>
       </c>
       <c r="F357" t="n">
-        <v>635000</v>
+        <v>100</v>
       </c>
       <c r="G357" t="inlineStr">
         <is>
@@ -17492,12 +17492,12 @@
       </c>
       <c r="H357" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I357" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5931343&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6003607&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J357" t="inlineStr">
@@ -19720,7 +19720,7 @@
       </c>
       <c r="B404" t="inlineStr">
         <is>
-          <t>"Transporte de acido sulfurico concentrado para minera Las Cenizas, Taltal."</t>
+          <t>II MODIFICACIÓN DIA "TRANSPORTE Y MANEJO IN SITU DE RESIDUOS SÓLIDOS Y LÍQUIDOS PELIGROSOS Y NO PELIGROSOS"</t>
         </is>
       </c>
       <c r="C404" t="inlineStr">
@@ -19730,16 +19730,16 @@
       </c>
       <c r="D404" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E404" t="inlineStr">
         <is>
-          <t>Translog S.A.</t>
+          <t>Mol Ambiente S.A.</t>
         </is>
       </c>
       <c r="F404" t="n">
-        <v>600</v>
+        <v>75000</v>
       </c>
       <c r="G404" t="inlineStr">
         <is>
@@ -19748,12 +19748,12 @@
       </c>
       <c r="H404" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I404" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5114868&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5118945&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J404" t="inlineStr">
@@ -19768,7 +19768,7 @@
       </c>
       <c r="B405" t="inlineStr">
         <is>
-          <t>II MODIFICACIÓN DIA "TRANSPORTE Y MANEJO IN SITU DE RESIDUOS SÓLIDOS Y LÍQUIDOS PELIGROSOS Y NO PELIGROSOS"</t>
+          <t>"Transporte de acido sulfurico concentrado para minera Las Cenizas, Taltal."</t>
         </is>
       </c>
       <c r="C405" t="inlineStr">
@@ -19778,16 +19778,16 @@
       </c>
       <c r="D405" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E405" t="inlineStr">
         <is>
-          <t>Mol Ambiente S.A.</t>
+          <t>Translog S.A.</t>
         </is>
       </c>
       <c r="F405" t="n">
-        <v>75000</v>
+        <v>600</v>
       </c>
       <c r="G405" t="inlineStr">
         <is>
@@ -19796,12 +19796,12 @@
       </c>
       <c r="H405" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I405" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5118945&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5114868&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J405" t="inlineStr">
@@ -21256,7 +21256,7 @@
       </c>
       <c r="B436" t="inlineStr">
         <is>
-          <t>Proyecto Laboratorios Químicos CIMM T&amp;S SA. La Negra</t>
+          <t>TRANSPORTE DE RESIDUOS PELIGROSOS POR RUTAS DE LA REGIÓN DE ANTOFAGASTA</t>
         </is>
       </c>
       <c r="C436" t="inlineStr">
@@ -21271,11 +21271,11 @@
       </c>
       <c r="E436" t="inlineStr">
         <is>
-          <t>Yancko Gonzalez Rozas</t>
+          <t>Limfosep S.A</t>
         </is>
       </c>
       <c r="F436" t="n">
-        <v>8000</v>
+        <v>1000</v>
       </c>
       <c r="G436" t="inlineStr">
         <is>
@@ -21284,12 +21284,12 @@
       </c>
       <c r="H436" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I436" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4670031&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4698232&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J436" t="inlineStr">
@@ -21304,7 +21304,7 @@
       </c>
       <c r="B437" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE RESIDUOS PELIGROSOS POR RUTAS DE LA REGIÓN DE ANTOFAGASTA</t>
+          <t>Proyecto Laboratorios Químicos CIMM T&amp;S SA. La Negra</t>
         </is>
       </c>
       <c r="C437" t="inlineStr">
@@ -21319,11 +21319,11 @@
       </c>
       <c r="E437" t="inlineStr">
         <is>
-          <t>Limfosep S.A</t>
+          <t>Yancko Gonzalez Rozas</t>
         </is>
       </c>
       <c r="F437" t="n">
-        <v>1000</v>
+        <v>8000</v>
       </c>
       <c r="G437" t="inlineStr">
         <is>
@@ -21332,12 +21332,12 @@
       </c>
       <c r="H437" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I437" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4698232&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4670031&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J437" t="inlineStr">
@@ -21736,7 +21736,7 @@
       </c>
       <c r="B446" t="inlineStr">
         <is>
-          <t>Nuevo Transporte Interregional de Cianuro de Sodio</t>
+          <t>EXPANSION DEPOSITO DE RELAVES FILTRADOS FAENA EL PEÑÓN</t>
         </is>
       </c>
       <c r="C446" t="inlineStr">
@@ -21746,16 +21746,16 @@
       </c>
       <c r="D446" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E446" t="inlineStr">
         <is>
-          <t>OXIQUIM S.A.</t>
+          <t>Minera Meridian Limitada</t>
         </is>
       </c>
       <c r="F446" t="n">
-        <v>85</v>
+        <v>688</v>
       </c>
       <c r="G446" t="inlineStr">
         <is>
@@ -21764,12 +21764,12 @@
       </c>
       <c r="H446" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I446" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4594007&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4601640&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J446" t="inlineStr">
@@ -21784,7 +21784,7 @@
       </c>
       <c r="B447" t="inlineStr">
         <is>
-          <t>EXPANSION DEPOSITO DE RELAVES FILTRADOS FAENA EL PEÑÓN</t>
+          <t>Nuevo Transporte Interregional de Cianuro de Sodio</t>
         </is>
       </c>
       <c r="C447" t="inlineStr">
@@ -21794,16 +21794,16 @@
       </c>
       <c r="D447" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E447" t="inlineStr">
         <is>
-          <t>Minera Meridian Limitada</t>
+          <t>OXIQUIM S.A.</t>
         </is>
       </c>
       <c r="F447" t="n">
-        <v>688</v>
+        <v>85</v>
       </c>
       <c r="G447" t="inlineStr">
         <is>
@@ -21812,12 +21812,12 @@
       </c>
       <c r="H447" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I447" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4601640&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4594007&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J447" t="inlineStr">
@@ -22552,7 +22552,7 @@
       </c>
       <c r="B463" t="inlineStr">
         <is>
-          <t>Transporte de Barros Anódicos</t>
+          <t>Transporte de Residuos Peligroso, Transporte Bello</t>
         </is>
       </c>
       <c r="C463" t="inlineStr">
@@ -22567,11 +22567,11 @@
       </c>
       <c r="E463" t="inlineStr">
         <is>
-          <t>CODELCO CHILE</t>
+          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
         </is>
       </c>
       <c r="F463" t="n">
-        <v>0</v>
+        <v>4050</v>
       </c>
       <c r="G463" t="inlineStr">
         <is>
@@ -22585,7 +22585,7 @@
       </c>
       <c r="I463" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4429880&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4455518&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J463" t="inlineStr">
@@ -22600,7 +22600,7 @@
       </c>
       <c r="B464" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligroso, Transporte Bello</t>
+          <t>Transporte de Barros Anódicos</t>
         </is>
       </c>
       <c r="C464" t="inlineStr">
@@ -22615,11 +22615,11 @@
       </c>
       <c r="E464" t="inlineStr">
         <is>
-          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
+          <t>CODELCO CHILE</t>
         </is>
       </c>
       <c r="F464" t="n">
-        <v>4050</v>
+        <v>0</v>
       </c>
       <c r="G464" t="inlineStr">
         <is>
@@ -22633,7 +22633,7 @@
       </c>
       <c r="I464" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4455518&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4429880&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J464" t="inlineStr">
@@ -22744,7 +22744,7 @@
       </c>
       <c r="B467" t="inlineStr">
         <is>
-          <t>Transporte y Almacenamiento temporal de Residuos Peligrosos M&amp;M ltda.</t>
+          <t>Modificacion Proyecto Minero Algorta Sector Pampa</t>
         </is>
       </c>
       <c r="C467" t="inlineStr">
@@ -22754,16 +22754,16 @@
       </c>
       <c r="D467" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E467" t="inlineStr">
         <is>
-          <t>Transportes Moscoso y Moscoso Ltda.</t>
+          <t>Algorta Norte S.A</t>
         </is>
       </c>
       <c r="F467" t="n">
-        <v>41075</v>
+        <v>6400</v>
       </c>
       <c r="G467" t="inlineStr">
         <is>
@@ -22777,7 +22777,7 @@
       </c>
       <c r="I467" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4422237&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4432700&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J467" t="inlineStr">
@@ -22792,7 +22792,7 @@
       </c>
       <c r="B468" t="inlineStr">
         <is>
-          <t>Modificacion Proyecto Minero Algorta Sector Pampa</t>
+          <t>Transporte y Almacenamiento temporal de Residuos Peligrosos M&amp;M ltda.</t>
         </is>
       </c>
       <c r="C468" t="inlineStr">
@@ -22802,16 +22802,16 @@
       </c>
       <c r="D468" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E468" t="inlineStr">
         <is>
-          <t>Algorta Norte S.A</t>
+          <t>Transportes Moscoso y Moscoso Ltda.</t>
         </is>
       </c>
       <c r="F468" t="n">
-        <v>6400</v>
+        <v>41075</v>
       </c>
       <c r="G468" t="inlineStr">
         <is>
@@ -22825,7 +22825,7 @@
       </c>
       <c r="I468" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4432700&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4422237&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J468" t="inlineStr">
@@ -24280,7 +24280,7 @@
       </c>
       <c r="B499" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos CMR Norte (e-seia)</t>
+          <t>Proyecto Tratamiento de Polvos Metalurgicos de Otras Fundiciones (e-seia)</t>
         </is>
       </c>
       <c r="C499" t="inlineStr">
@@ -24295,11 +24295,11 @@
       </c>
       <c r="E499" t="inlineStr">
         <is>
-          <t>Soluciones Ambientales del Norte S. A.</t>
+          <t>Complejo Metalurgico Altonorte S.A.</t>
         </is>
       </c>
       <c r="F499" t="n">
-        <v>250</v>
+        <v>320</v>
       </c>
       <c r="G499" t="inlineStr">
         <is>
@@ -24313,7 +24313,7 @@
       </c>
       <c r="I499" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4063042&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4061206&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J499" t="inlineStr">
@@ -24328,7 +24328,7 @@
       </c>
       <c r="B500" t="inlineStr">
         <is>
-          <t>Proyecto Tratamiento de Polvos Metalurgicos de Otras Fundiciones (e-seia)</t>
+          <t>Transporte de Residuos Peligrosos CMR Norte (e-seia)</t>
         </is>
       </c>
       <c r="C500" t="inlineStr">
@@ -24343,11 +24343,11 @@
       </c>
       <c r="E500" t="inlineStr">
         <is>
-          <t>Complejo Metalurgico Altonorte S.A.</t>
+          <t>Soluciones Ambientales del Norte S. A.</t>
         </is>
       </c>
       <c r="F500" t="n">
-        <v>320</v>
+        <v>250</v>
       </c>
       <c r="G500" t="inlineStr">
         <is>
@@ -24361,7 +24361,7 @@
       </c>
       <c r="I500" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4061206&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4063042&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J500" t="inlineStr">

--- a/data/Antofagasta.xlsx
+++ b/data/Antofagasta.xlsx
@@ -11416,7 +11416,7 @@
       </c>
       <c r="B231" t="inlineStr">
         <is>
-          <t>Planta de Fabricación de Tuberías PEX (polietileno reticulado)</t>
+          <t>Transporte Interregional de Sustancias Peligrosas - AGREDUCAM VI Región</t>
         </is>
       </c>
       <c r="C231" t="inlineStr">
@@ -11426,16 +11426,16 @@
       </c>
       <c r="D231" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E231" t="inlineStr">
         <is>
-          <t>CROSSPIPE SYSTEMS S.A.</t>
+          <t>Asociación Gremial de Dueños de Camiones de la Sexta Región</t>
         </is>
       </c>
       <c r="F231" t="n">
-        <v>12400</v>
+        <v>1200</v>
       </c>
       <c r="G231" t="inlineStr">
         <is>
@@ -11449,7 +11449,7 @@
       </c>
       <c r="I231" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128954293&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128964620&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J231" t="inlineStr">
@@ -11464,7 +11464,7 @@
       </c>
       <c r="B232" t="inlineStr">
         <is>
-          <t>Transporte Interregional de Sustancias Peligrosas - AGREDUCAM VI Región</t>
+          <t>Transporte de Residuos Peligrosos por las Rutas Indicadas</t>
         </is>
       </c>
       <c r="C232" t="inlineStr">
@@ -11479,11 +11479,11 @@
       </c>
       <c r="E232" t="inlineStr">
         <is>
-          <t>Asociación Gremial de Dueños de Camiones de la Sexta Región</t>
+          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
         </is>
       </c>
       <c r="F232" t="n">
-        <v>1200</v>
+        <v>0</v>
       </c>
       <c r="G232" t="inlineStr">
         <is>
@@ -11497,7 +11497,7 @@
       </c>
       <c r="I232" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128964620&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128972489&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J232" t="inlineStr">
@@ -11512,7 +11512,7 @@
       </c>
       <c r="B233" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos por las Rutas Indicadas</t>
+          <t>Planta de Fabricación de Tuberías PEX (polietileno reticulado)</t>
         </is>
       </c>
       <c r="C233" t="inlineStr">
@@ -11522,16 +11522,16 @@
       </c>
       <c r="D233" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E233" t="inlineStr">
         <is>
-          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
+          <t>CROSSPIPE SYSTEMS S.A.</t>
         </is>
       </c>
       <c r="F233" t="n">
-        <v>0</v>
+        <v>12400</v>
       </c>
       <c r="G233" t="inlineStr">
         <is>
@@ -11545,7 +11545,7 @@
       </c>
       <c r="I233" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128972489&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128954293&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J233" t="inlineStr">
@@ -13144,26 +13144,26 @@
       </c>
       <c r="B267" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas Transaltisa Chile Ltda</t>
+          <t>RT Sulfuros</t>
         </is>
       </c>
       <c r="C267" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D267" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E267" t="inlineStr">
         <is>
-          <t>Transaltisa Chile Ltda.</t>
+          <t>CODELCO Chile, División Radomiro Tomic</t>
         </is>
       </c>
       <c r="F267" t="n">
-        <v>2050</v>
+        <v>5.4</v>
       </c>
       <c r="G267" t="inlineStr">
         <is>
@@ -13172,12 +13172,12 @@
       </c>
       <c r="H267" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I267" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8218613&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8210090&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J267" t="inlineStr">
@@ -13192,26 +13192,26 @@
       </c>
       <c r="B268" t="inlineStr">
         <is>
-          <t>RT Sulfuros</t>
+          <t>Transporte de Sustancias Peligrosas Transaltisa Chile Ltda</t>
         </is>
       </c>
       <c r="C268" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D268" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E268" t="inlineStr">
         <is>
-          <t>CODELCO Chile, División Radomiro Tomic</t>
+          <t>Transaltisa Chile Ltda.</t>
         </is>
       </c>
       <c r="F268" t="n">
-        <v>5.4</v>
+        <v>2050</v>
       </c>
       <c r="G268" t="inlineStr">
         <is>
@@ -13220,12 +13220,12 @@
       </c>
       <c r="H268" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I268" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8210090&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8218613&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J268" t="inlineStr">
@@ -15880,7 +15880,7 @@
       </c>
       <c r="B324" t="inlineStr">
         <is>
-          <t>CENTRO DE RECUPERACIÓN DE TAMBORES Y CONTENEDORES IBC CONTAMINADOS, PLAMBIENTAL LA NEGRA</t>
+          <t>Parque Fotovoltaico Los Andes</t>
         </is>
       </c>
       <c r="C324" t="inlineStr">
@@ -15895,11 +15895,11 @@
       </c>
       <c r="E324" t="inlineStr">
         <is>
-          <t>VEOLIA SERVICIOS MINEROS INTEGRALES CHILE SpA</t>
+          <t>Andes Solar SPA</t>
         </is>
       </c>
       <c r="F324" t="n">
-        <v>60</v>
+        <v>572000</v>
       </c>
       <c r="G324" t="inlineStr">
         <is>
@@ -15908,12 +15908,12 @@
       </c>
       <c r="H324" t="inlineStr">
         <is>
-          <t>Caducado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I324" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6592870&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6581267&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J324" t="inlineStr">
@@ -15928,7 +15928,7 @@
       </c>
       <c r="B325" t="inlineStr">
         <is>
-          <t>CENTRO DE ALMACENAMIENTO DE RESIDUOS INDUSTRIALES, GESAM LA NEGRA</t>
+          <t>CENTRO DE RECUPERACIÓN DE TAMBORES Y CONTENEDORES IBC CONTAMINADOS, PLAMBIENTAL LA NEGRA</t>
         </is>
       </c>
       <c r="C325" t="inlineStr">
@@ -15947,7 +15947,7 @@
         </is>
       </c>
       <c r="F325" t="n">
-        <v>360</v>
+        <v>60</v>
       </c>
       <c r="G325" t="inlineStr">
         <is>
@@ -15961,7 +15961,7 @@
       </c>
       <c r="I325" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6595234&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6592870&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J325" t="inlineStr">
@@ -15976,7 +15976,7 @@
       </c>
       <c r="B326" t="inlineStr">
         <is>
-          <t>Parque Fotovoltaico Los Andes</t>
+          <t>CENTRO DE ALMACENAMIENTO DE RESIDUOS INDUSTRIALES, GESAM LA NEGRA</t>
         </is>
       </c>
       <c r="C326" t="inlineStr">
@@ -15991,11 +15991,11 @@
       </c>
       <c r="E326" t="inlineStr">
         <is>
-          <t>Andes Solar SPA</t>
+          <t>VEOLIA SERVICIOS MINEROS INTEGRALES CHILE SpA</t>
         </is>
       </c>
       <c r="F326" t="n">
-        <v>572000</v>
+        <v>360</v>
       </c>
       <c r="G326" t="inlineStr">
         <is>
@@ -16004,12 +16004,12 @@
       </c>
       <c r="H326" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Caducado</t>
         </is>
       </c>
       <c r="I326" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6581267&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6595234&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J326" t="inlineStr">
@@ -16840,7 +16840,7 @@
       </c>
       <c r="B344" t="inlineStr">
         <is>
-          <t>Modificación Proyecto Transporte de Acido Sulfurico a granel entre la Primera y Décima Regiones de Chile</t>
+          <t>Extracción de Áridos Empréstito E17L</t>
         </is>
       </c>
       <c r="C344" t="inlineStr">
@@ -16850,16 +16850,16 @@
       </c>
       <c r="D344" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E344" t="inlineStr">
         <is>
-          <t>Transportes Herrmann Limitada</t>
+          <t>Skanska Chile S.A.</t>
         </is>
       </c>
       <c r="F344" t="n">
-        <v>0</v>
+        <v>500</v>
       </c>
       <c r="G344" t="inlineStr">
         <is>
@@ -16868,12 +16868,12 @@
       </c>
       <c r="H344" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I344" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6159602&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6156264&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J344" t="inlineStr">
@@ -16888,7 +16888,7 @@
       </c>
       <c r="B345" t="inlineStr">
         <is>
-          <t>Extracción de Áridos Empréstito E17L</t>
+          <t>Modificación Proyecto Transporte de Acido Sulfurico a granel entre la Primera y Décima Regiones de Chile</t>
         </is>
       </c>
       <c r="C345" t="inlineStr">
@@ -16898,16 +16898,16 @@
       </c>
       <c r="D345" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E345" t="inlineStr">
         <is>
-          <t>Skanska Chile S.A.</t>
+          <t>Transportes Herrmann Limitada</t>
         </is>
       </c>
       <c r="F345" t="n">
-        <v>500</v>
+        <v>0</v>
       </c>
       <c r="G345" t="inlineStr">
         <is>
@@ -16916,12 +16916,12 @@
       </c>
       <c r="H345" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I345" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6156264&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6159602&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J345" t="inlineStr">
@@ -17368,7 +17368,7 @@
       </c>
       <c r="B355" t="inlineStr">
         <is>
-          <t>Nuevas Instalaciones para Mantención Mina</t>
+          <t>Transporte de Residuos Peligrosos</t>
         </is>
       </c>
       <c r="C355" t="inlineStr">
@@ -17378,16 +17378,16 @@
       </c>
       <c r="D355" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E355" t="inlineStr">
         <is>
-          <t>MINERA ESCONDIDA LIMITADA</t>
+          <t>Transportes TMS Limitada</t>
         </is>
       </c>
       <c r="F355" t="n">
-        <v>635000</v>
+        <v>200</v>
       </c>
       <c r="G355" t="inlineStr">
         <is>
@@ -17396,12 +17396,12 @@
       </c>
       <c r="H355" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I355" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5931343&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6003582&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J355" t="inlineStr">
@@ -17416,7 +17416,7 @@
       </c>
       <c r="B356" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos</t>
+          <t>Transporte de Sustancias Peligrosas entre la I, II y III Regiones"</t>
         </is>
       </c>
       <c r="C356" t="inlineStr">
@@ -17431,11 +17431,11 @@
       </c>
       <c r="E356" t="inlineStr">
         <is>
-          <t>Transportes TMS Limitada</t>
+          <t>Molina Quimicos S.A.</t>
         </is>
       </c>
       <c r="F356" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="G356" t="inlineStr">
         <is>
@@ -17449,7 +17449,7 @@
       </c>
       <c r="I356" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6003582&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6003607&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J356" t="inlineStr">
@@ -17464,7 +17464,7 @@
       </c>
       <c r="B357" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas entre la I, II y III Regiones"</t>
+          <t>Nuevas Instalaciones para Mantención Mina</t>
         </is>
       </c>
       <c r="C357" t="inlineStr">
@@ -17474,16 +17474,16 @@
       </c>
       <c r="D357" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E357" t="inlineStr">
         <is>
-          <t>Molina Quimicos S.A.</t>
+          <t>MINERA ESCONDIDA LIMITADA</t>
         </is>
       </c>
       <c r="F357" t="n">
-        <v>100</v>
+        <v>635000</v>
       </c>
       <c r="G357" t="inlineStr">
         <is>
@@ -17492,12 +17492,12 @@
       </c>
       <c r="H357" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I357" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6003607&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5931343&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J357" t="inlineStr">
@@ -19720,7 +19720,7 @@
       </c>
       <c r="B404" t="inlineStr">
         <is>
-          <t>II MODIFICACIÓN DIA "TRANSPORTE Y MANEJO IN SITU DE RESIDUOS SÓLIDOS Y LÍQUIDOS PELIGROSOS Y NO PELIGROSOS"</t>
+          <t>"Transporte de acido sulfurico concentrado para minera Las Cenizas, Taltal."</t>
         </is>
       </c>
       <c r="C404" t="inlineStr">
@@ -19730,16 +19730,16 @@
       </c>
       <c r="D404" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E404" t="inlineStr">
         <is>
-          <t>Mol Ambiente S.A.</t>
+          <t>Translog S.A.</t>
         </is>
       </c>
       <c r="F404" t="n">
-        <v>75000</v>
+        <v>600</v>
       </c>
       <c r="G404" t="inlineStr">
         <is>
@@ -19748,12 +19748,12 @@
       </c>
       <c r="H404" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I404" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5118945&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5114868&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J404" t="inlineStr">
@@ -19768,7 +19768,7 @@
       </c>
       <c r="B405" t="inlineStr">
         <is>
-          <t>"Transporte de acido sulfurico concentrado para minera Las Cenizas, Taltal."</t>
+          <t>II MODIFICACIÓN DIA "TRANSPORTE Y MANEJO IN SITU DE RESIDUOS SÓLIDOS Y LÍQUIDOS PELIGROSOS Y NO PELIGROSOS"</t>
         </is>
       </c>
       <c r="C405" t="inlineStr">
@@ -19778,16 +19778,16 @@
       </c>
       <c r="D405" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E405" t="inlineStr">
         <is>
-          <t>Translog S.A.</t>
+          <t>Mol Ambiente S.A.</t>
         </is>
       </c>
       <c r="F405" t="n">
-        <v>600</v>
+        <v>75000</v>
       </c>
       <c r="G405" t="inlineStr">
         <is>
@@ -19796,12 +19796,12 @@
       </c>
       <c r="H405" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I405" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5114868&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5118945&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J405" t="inlineStr">
@@ -21256,7 +21256,7 @@
       </c>
       <c r="B436" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE RESIDUOS PELIGROSOS POR RUTAS DE LA REGIÓN DE ANTOFAGASTA</t>
+          <t>Proyecto Laboratorios Químicos CIMM T&amp;S SA. La Negra</t>
         </is>
       </c>
       <c r="C436" t="inlineStr">
@@ -21271,11 +21271,11 @@
       </c>
       <c r="E436" t="inlineStr">
         <is>
-          <t>Limfosep S.A</t>
+          <t>Yancko Gonzalez Rozas</t>
         </is>
       </c>
       <c r="F436" t="n">
-        <v>1000</v>
+        <v>8000</v>
       </c>
       <c r="G436" t="inlineStr">
         <is>
@@ -21284,12 +21284,12 @@
       </c>
       <c r="H436" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I436" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4698232&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4670031&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J436" t="inlineStr">
@@ -21304,7 +21304,7 @@
       </c>
       <c r="B437" t="inlineStr">
         <is>
-          <t>Proyecto Laboratorios Químicos CIMM T&amp;S SA. La Negra</t>
+          <t>TRANSPORTE DE RESIDUOS PELIGROSOS POR RUTAS DE LA REGIÓN DE ANTOFAGASTA</t>
         </is>
       </c>
       <c r="C437" t="inlineStr">
@@ -21319,11 +21319,11 @@
       </c>
       <c r="E437" t="inlineStr">
         <is>
-          <t>Yancko Gonzalez Rozas</t>
+          <t>Limfosep S.A</t>
         </is>
       </c>
       <c r="F437" t="n">
-        <v>8000</v>
+        <v>1000</v>
       </c>
       <c r="G437" t="inlineStr">
         <is>
@@ -21332,12 +21332,12 @@
       </c>
       <c r="H437" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I437" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4670031&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4698232&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J437" t="inlineStr">
@@ -21736,7 +21736,7 @@
       </c>
       <c r="B446" t="inlineStr">
         <is>
-          <t>EXPANSION DEPOSITO DE RELAVES FILTRADOS FAENA EL PEÑÓN</t>
+          <t>Nuevo Transporte Interregional de Cianuro de Sodio</t>
         </is>
       </c>
       <c r="C446" t="inlineStr">
@@ -21746,16 +21746,16 @@
       </c>
       <c r="D446" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E446" t="inlineStr">
         <is>
-          <t>Minera Meridian Limitada</t>
+          <t>OXIQUIM S.A.</t>
         </is>
       </c>
       <c r="F446" t="n">
-        <v>688</v>
+        <v>85</v>
       </c>
       <c r="G446" t="inlineStr">
         <is>
@@ -21764,12 +21764,12 @@
       </c>
       <c r="H446" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I446" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4601640&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4594007&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J446" t="inlineStr">
@@ -21784,7 +21784,7 @@
       </c>
       <c r="B447" t="inlineStr">
         <is>
-          <t>Nuevo Transporte Interregional de Cianuro de Sodio</t>
+          <t>EXPANSION DEPOSITO DE RELAVES FILTRADOS FAENA EL PEÑÓN</t>
         </is>
       </c>
       <c r="C447" t="inlineStr">
@@ -21794,16 +21794,16 @@
       </c>
       <c r="D447" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E447" t="inlineStr">
         <is>
-          <t>OXIQUIM S.A.</t>
+          <t>Minera Meridian Limitada</t>
         </is>
       </c>
       <c r="F447" t="n">
-        <v>85</v>
+        <v>688</v>
       </c>
       <c r="G447" t="inlineStr">
         <is>
@@ -21812,12 +21812,12 @@
       </c>
       <c r="H447" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I447" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4594007&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4601640&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J447" t="inlineStr">
@@ -22552,7 +22552,7 @@
       </c>
       <c r="B463" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligroso, Transporte Bello</t>
+          <t>Transporte de Barros Anódicos</t>
         </is>
       </c>
       <c r="C463" t="inlineStr">
@@ -22567,11 +22567,11 @@
       </c>
       <c r="E463" t="inlineStr">
         <is>
-          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
+          <t>CODELCO CHILE</t>
         </is>
       </c>
       <c r="F463" t="n">
-        <v>4050</v>
+        <v>0</v>
       </c>
       <c r="G463" t="inlineStr">
         <is>
@@ -22585,7 +22585,7 @@
       </c>
       <c r="I463" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4455518&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4429880&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J463" t="inlineStr">
@@ -22600,7 +22600,7 @@
       </c>
       <c r="B464" t="inlineStr">
         <is>
-          <t>Transporte de Barros Anódicos</t>
+          <t>Transporte de Residuos Peligroso, Transporte Bello</t>
         </is>
       </c>
       <c r="C464" t="inlineStr">
@@ -22615,11 +22615,11 @@
       </c>
       <c r="E464" t="inlineStr">
         <is>
-          <t>CODELCO CHILE</t>
+          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
         </is>
       </c>
       <c r="F464" t="n">
-        <v>0</v>
+        <v>4050</v>
       </c>
       <c r="G464" t="inlineStr">
         <is>
@@ -22633,7 +22633,7 @@
       </c>
       <c r="I464" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4429880&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4455518&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J464" t="inlineStr">
@@ -22744,7 +22744,7 @@
       </c>
       <c r="B467" t="inlineStr">
         <is>
-          <t>Modificacion Proyecto Minero Algorta Sector Pampa</t>
+          <t>Transporte y Almacenamiento temporal de Residuos Peligrosos M&amp;M ltda.</t>
         </is>
       </c>
       <c r="C467" t="inlineStr">
@@ -22754,16 +22754,16 @@
       </c>
       <c r="D467" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E467" t="inlineStr">
         <is>
-          <t>Algorta Norte S.A</t>
+          <t>Transportes Moscoso y Moscoso Ltda.</t>
         </is>
       </c>
       <c r="F467" t="n">
-        <v>6400</v>
+        <v>41075</v>
       </c>
       <c r="G467" t="inlineStr">
         <is>
@@ -22777,7 +22777,7 @@
       </c>
       <c r="I467" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4432700&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4422237&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J467" t="inlineStr">
@@ -22792,7 +22792,7 @@
       </c>
       <c r="B468" t="inlineStr">
         <is>
-          <t>Transporte y Almacenamiento temporal de Residuos Peligrosos M&amp;M ltda.</t>
+          <t>Modificacion Proyecto Minero Algorta Sector Pampa</t>
         </is>
       </c>
       <c r="C468" t="inlineStr">
@@ -22802,16 +22802,16 @@
       </c>
       <c r="D468" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E468" t="inlineStr">
         <is>
-          <t>Transportes Moscoso y Moscoso Ltda.</t>
+          <t>Algorta Norte S.A</t>
         </is>
       </c>
       <c r="F468" t="n">
-        <v>41075</v>
+        <v>6400</v>
       </c>
       <c r="G468" t="inlineStr">
         <is>
@@ -22825,7 +22825,7 @@
       </c>
       <c r="I468" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4422237&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4432700&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J468" t="inlineStr">
@@ -24280,7 +24280,7 @@
       </c>
       <c r="B499" t="inlineStr">
         <is>
-          <t>Proyecto Tratamiento de Polvos Metalurgicos de Otras Fundiciones (e-seia)</t>
+          <t>Transporte de Residuos Peligrosos CMR Norte (e-seia)</t>
         </is>
       </c>
       <c r="C499" t="inlineStr">
@@ -24295,11 +24295,11 @@
       </c>
       <c r="E499" t="inlineStr">
         <is>
-          <t>Complejo Metalurgico Altonorte S.A.</t>
+          <t>Soluciones Ambientales del Norte S. A.</t>
         </is>
       </c>
       <c r="F499" t="n">
-        <v>320</v>
+        <v>250</v>
       </c>
       <c r="G499" t="inlineStr">
         <is>
@@ -24313,7 +24313,7 @@
       </c>
       <c r="I499" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4061206&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4063042&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J499" t="inlineStr">
@@ -24328,7 +24328,7 @@
       </c>
       <c r="B500" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos CMR Norte (e-seia)</t>
+          <t>Proyecto Tratamiento de Polvos Metalurgicos de Otras Fundiciones (e-seia)</t>
         </is>
       </c>
       <c r="C500" t="inlineStr">
@@ -24343,11 +24343,11 @@
       </c>
       <c r="E500" t="inlineStr">
         <is>
-          <t>Soluciones Ambientales del Norte S. A.</t>
+          <t>Complejo Metalurgico Altonorte S.A.</t>
         </is>
       </c>
       <c r="F500" t="n">
-        <v>250</v>
+        <v>320</v>
       </c>
       <c r="G500" t="inlineStr">
         <is>
@@ -24361,7 +24361,7 @@
       </c>
       <c r="I500" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4063042&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4061206&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J500" t="inlineStr">

--- a/data/Antofagasta.xlsx
+++ b/data/Antofagasta.xlsx
@@ -11416,7 +11416,7 @@
       </c>
       <c r="B231" t="inlineStr">
         <is>
-          <t>Transporte Interregional de Sustancias Peligrosas - AGREDUCAM VI Región</t>
+          <t>Planta de Fabricación de Tuberías PEX (polietileno reticulado)</t>
         </is>
       </c>
       <c r="C231" t="inlineStr">
@@ -11426,16 +11426,16 @@
       </c>
       <c r="D231" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E231" t="inlineStr">
         <is>
-          <t>Asociación Gremial de Dueños de Camiones de la Sexta Región</t>
+          <t>CROSSPIPE SYSTEMS S.A.</t>
         </is>
       </c>
       <c r="F231" t="n">
-        <v>1200</v>
+        <v>12400</v>
       </c>
       <c r="G231" t="inlineStr">
         <is>
@@ -11449,7 +11449,7 @@
       </c>
       <c r="I231" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128964620&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128954293&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J231" t="inlineStr">
@@ -11464,7 +11464,7 @@
       </c>
       <c r="B232" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos por las Rutas Indicadas</t>
+          <t>Transporte Interregional de Sustancias Peligrosas - AGREDUCAM VI Región</t>
         </is>
       </c>
       <c r="C232" t="inlineStr">
@@ -11479,11 +11479,11 @@
       </c>
       <c r="E232" t="inlineStr">
         <is>
-          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
+          <t>Asociación Gremial de Dueños de Camiones de la Sexta Región</t>
         </is>
       </c>
       <c r="F232" t="n">
-        <v>0</v>
+        <v>1200</v>
       </c>
       <c r="G232" t="inlineStr">
         <is>
@@ -11497,7 +11497,7 @@
       </c>
       <c r="I232" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128972489&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128964620&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J232" t="inlineStr">
@@ -11512,7 +11512,7 @@
       </c>
       <c r="B233" t="inlineStr">
         <is>
-          <t>Planta de Fabricación de Tuberías PEX (polietileno reticulado)</t>
+          <t>Transporte de Residuos Peligrosos por las Rutas Indicadas</t>
         </is>
       </c>
       <c r="C233" t="inlineStr">
@@ -11522,16 +11522,16 @@
       </c>
       <c r="D233" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E233" t="inlineStr">
         <is>
-          <t>CROSSPIPE SYSTEMS S.A.</t>
+          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
         </is>
       </c>
       <c r="F233" t="n">
-        <v>12400</v>
+        <v>0</v>
       </c>
       <c r="G233" t="inlineStr">
         <is>
@@ -11545,7 +11545,7 @@
       </c>
       <c r="I233" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128954293&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128972489&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J233" t="inlineStr">
@@ -13144,26 +13144,26 @@
       </c>
       <c r="B267" t="inlineStr">
         <is>
-          <t>RT Sulfuros</t>
+          <t>Transporte de Sustancias Peligrosas Transaltisa Chile Ltda</t>
         </is>
       </c>
       <c r="C267" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D267" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E267" t="inlineStr">
         <is>
-          <t>CODELCO Chile, División Radomiro Tomic</t>
+          <t>Transaltisa Chile Ltda.</t>
         </is>
       </c>
       <c r="F267" t="n">
-        <v>5.4</v>
+        <v>2050</v>
       </c>
       <c r="G267" t="inlineStr">
         <is>
@@ -13172,12 +13172,12 @@
       </c>
       <c r="H267" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I267" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8210090&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8218613&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J267" t="inlineStr">
@@ -13192,26 +13192,26 @@
       </c>
       <c r="B268" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas Transaltisa Chile Ltda</t>
+          <t>RT Sulfuros</t>
         </is>
       </c>
       <c r="C268" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D268" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E268" t="inlineStr">
         <is>
-          <t>Transaltisa Chile Ltda.</t>
+          <t>CODELCO Chile, División Radomiro Tomic</t>
         </is>
       </c>
       <c r="F268" t="n">
-        <v>2050</v>
+        <v>5.4</v>
       </c>
       <c r="G268" t="inlineStr">
         <is>
@@ -13220,12 +13220,12 @@
       </c>
       <c r="H268" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I268" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8218613&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8210090&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J268" t="inlineStr">
@@ -15880,7 +15880,7 @@
       </c>
       <c r="B324" t="inlineStr">
         <is>
-          <t>Parque Fotovoltaico Los Andes</t>
+          <t>CENTRO DE RECUPERACIÓN DE TAMBORES Y CONTENEDORES IBC CONTAMINADOS, PLAMBIENTAL LA NEGRA</t>
         </is>
       </c>
       <c r="C324" t="inlineStr">
@@ -15895,11 +15895,11 @@
       </c>
       <c r="E324" t="inlineStr">
         <is>
-          <t>Andes Solar SPA</t>
+          <t>VEOLIA SERVICIOS MINEROS INTEGRALES CHILE SpA</t>
         </is>
       </c>
       <c r="F324" t="n">
-        <v>572000</v>
+        <v>60</v>
       </c>
       <c r="G324" t="inlineStr">
         <is>
@@ -15908,12 +15908,12 @@
       </c>
       <c r="H324" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Caducado</t>
         </is>
       </c>
       <c r="I324" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6581267&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6592870&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J324" t="inlineStr">
@@ -15928,7 +15928,7 @@
       </c>
       <c r="B325" t="inlineStr">
         <is>
-          <t>CENTRO DE RECUPERACIÓN DE TAMBORES Y CONTENEDORES IBC CONTAMINADOS, PLAMBIENTAL LA NEGRA</t>
+          <t>CENTRO DE ALMACENAMIENTO DE RESIDUOS INDUSTRIALES, GESAM LA NEGRA</t>
         </is>
       </c>
       <c r="C325" t="inlineStr">
@@ -15947,7 +15947,7 @@
         </is>
       </c>
       <c r="F325" t="n">
-        <v>60</v>
+        <v>360</v>
       </c>
       <c r="G325" t="inlineStr">
         <is>
@@ -15961,7 +15961,7 @@
       </c>
       <c r="I325" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6592870&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6595234&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J325" t="inlineStr">
@@ -15976,7 +15976,7 @@
       </c>
       <c r="B326" t="inlineStr">
         <is>
-          <t>CENTRO DE ALMACENAMIENTO DE RESIDUOS INDUSTRIALES, GESAM LA NEGRA</t>
+          <t>Parque Fotovoltaico Los Andes</t>
         </is>
       </c>
       <c r="C326" t="inlineStr">
@@ -15991,11 +15991,11 @@
       </c>
       <c r="E326" t="inlineStr">
         <is>
-          <t>VEOLIA SERVICIOS MINEROS INTEGRALES CHILE SpA</t>
+          <t>Andes Solar SPA</t>
         </is>
       </c>
       <c r="F326" t="n">
-        <v>360</v>
+        <v>572000</v>
       </c>
       <c r="G326" t="inlineStr">
         <is>
@@ -16004,12 +16004,12 @@
       </c>
       <c r="H326" t="inlineStr">
         <is>
-          <t>Caducado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I326" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6595234&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6581267&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J326" t="inlineStr">
@@ -16840,7 +16840,7 @@
       </c>
       <c r="B344" t="inlineStr">
         <is>
-          <t>Extracción de Áridos Empréstito E17L</t>
+          <t>Modificación Proyecto Transporte de Acido Sulfurico a granel entre la Primera y Décima Regiones de Chile</t>
         </is>
       </c>
       <c r="C344" t="inlineStr">
@@ -16850,16 +16850,16 @@
       </c>
       <c r="D344" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E344" t="inlineStr">
         <is>
-          <t>Skanska Chile S.A.</t>
+          <t>Transportes Herrmann Limitada</t>
         </is>
       </c>
       <c r="F344" t="n">
-        <v>500</v>
+        <v>0</v>
       </c>
       <c r="G344" t="inlineStr">
         <is>
@@ -16868,12 +16868,12 @@
       </c>
       <c r="H344" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I344" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6156264&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6159602&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J344" t="inlineStr">
@@ -16888,7 +16888,7 @@
       </c>
       <c r="B345" t="inlineStr">
         <is>
-          <t>Modificación Proyecto Transporte de Acido Sulfurico a granel entre la Primera y Décima Regiones de Chile</t>
+          <t>Extracción de Áridos Empréstito E17L</t>
         </is>
       </c>
       <c r="C345" t="inlineStr">
@@ -16898,16 +16898,16 @@
       </c>
       <c r="D345" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E345" t="inlineStr">
         <is>
-          <t>Transportes Herrmann Limitada</t>
+          <t>Skanska Chile S.A.</t>
         </is>
       </c>
       <c r="F345" t="n">
-        <v>0</v>
+        <v>500</v>
       </c>
       <c r="G345" t="inlineStr">
         <is>
@@ -16916,12 +16916,12 @@
       </c>
       <c r="H345" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I345" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6159602&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6156264&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J345" t="inlineStr">
@@ -17368,7 +17368,7 @@
       </c>
       <c r="B355" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos</t>
+          <t>Nuevas Instalaciones para Mantención Mina</t>
         </is>
       </c>
       <c r="C355" t="inlineStr">
@@ -17378,16 +17378,16 @@
       </c>
       <c r="D355" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E355" t="inlineStr">
         <is>
-          <t>Transportes TMS Limitada</t>
+          <t>MINERA ESCONDIDA LIMITADA</t>
         </is>
       </c>
       <c r="F355" t="n">
-        <v>200</v>
+        <v>635000</v>
       </c>
       <c r="G355" t="inlineStr">
         <is>
@@ -17396,12 +17396,12 @@
       </c>
       <c r="H355" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I355" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6003582&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5931343&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J355" t="inlineStr">
@@ -17416,7 +17416,7 @@
       </c>
       <c r="B356" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas entre la I, II y III Regiones"</t>
+          <t>Transporte de Residuos Peligrosos</t>
         </is>
       </c>
       <c r="C356" t="inlineStr">
@@ -17431,11 +17431,11 @@
       </c>
       <c r="E356" t="inlineStr">
         <is>
-          <t>Molina Quimicos S.A.</t>
+          <t>Transportes TMS Limitada</t>
         </is>
       </c>
       <c r="F356" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="G356" t="inlineStr">
         <is>
@@ -17449,7 +17449,7 @@
       </c>
       <c r="I356" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6003607&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6003582&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J356" t="inlineStr">
@@ -17464,7 +17464,7 @@
       </c>
       <c r="B357" t="inlineStr">
         <is>
-          <t>Nuevas Instalaciones para Mantención Mina</t>
+          <t>Transporte de Sustancias Peligrosas entre la I, II y III Regiones"</t>
         </is>
       </c>
       <c r="C357" t="inlineStr">
@@ -17474,16 +17474,16 @@
       </c>
       <c r="D357" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E357" t="inlineStr">
         <is>
-          <t>MINERA ESCONDIDA LIMITADA</t>
+          <t>Molina Quimicos S.A.</t>
         </is>
       </c>
       <c r="F357" t="n">
-        <v>635000</v>
+        <v>100</v>
       </c>
       <c r="G357" t="inlineStr">
         <is>
@@ -17492,12 +17492,12 @@
       </c>
       <c r="H357" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I357" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5931343&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6003607&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J357" t="inlineStr">
@@ -19720,7 +19720,7 @@
       </c>
       <c r="B404" t="inlineStr">
         <is>
-          <t>"Transporte de acido sulfurico concentrado para minera Las Cenizas, Taltal."</t>
+          <t>II MODIFICACIÓN DIA "TRANSPORTE Y MANEJO IN SITU DE RESIDUOS SÓLIDOS Y LÍQUIDOS PELIGROSOS Y NO PELIGROSOS"</t>
         </is>
       </c>
       <c r="C404" t="inlineStr">
@@ -19730,16 +19730,16 @@
       </c>
       <c r="D404" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E404" t="inlineStr">
         <is>
-          <t>Translog S.A.</t>
+          <t>Mol Ambiente S.A.</t>
         </is>
       </c>
       <c r="F404" t="n">
-        <v>600</v>
+        <v>75000</v>
       </c>
       <c r="G404" t="inlineStr">
         <is>
@@ -19748,12 +19748,12 @@
       </c>
       <c r="H404" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I404" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5114868&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5118945&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J404" t="inlineStr">
@@ -19768,7 +19768,7 @@
       </c>
       <c r="B405" t="inlineStr">
         <is>
-          <t>II MODIFICACIÓN DIA "TRANSPORTE Y MANEJO IN SITU DE RESIDUOS SÓLIDOS Y LÍQUIDOS PELIGROSOS Y NO PELIGROSOS"</t>
+          <t>"Transporte de acido sulfurico concentrado para minera Las Cenizas, Taltal."</t>
         </is>
       </c>
       <c r="C405" t="inlineStr">
@@ -19778,16 +19778,16 @@
       </c>
       <c r="D405" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E405" t="inlineStr">
         <is>
-          <t>Mol Ambiente S.A.</t>
+          <t>Translog S.A.</t>
         </is>
       </c>
       <c r="F405" t="n">
-        <v>75000</v>
+        <v>600</v>
       </c>
       <c r="G405" t="inlineStr">
         <is>
@@ -19796,12 +19796,12 @@
       </c>
       <c r="H405" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I405" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5118945&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5114868&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J405" t="inlineStr">
@@ -21256,7 +21256,7 @@
       </c>
       <c r="B436" t="inlineStr">
         <is>
-          <t>Proyecto Laboratorios Químicos CIMM T&amp;S SA. La Negra</t>
+          <t>TRANSPORTE DE RESIDUOS PELIGROSOS POR RUTAS DE LA REGIÓN DE ANTOFAGASTA</t>
         </is>
       </c>
       <c r="C436" t="inlineStr">
@@ -21271,11 +21271,11 @@
       </c>
       <c r="E436" t="inlineStr">
         <is>
-          <t>Yancko Gonzalez Rozas</t>
+          <t>Limfosep S.A</t>
         </is>
       </c>
       <c r="F436" t="n">
-        <v>8000</v>
+        <v>1000</v>
       </c>
       <c r="G436" t="inlineStr">
         <is>
@@ -21284,12 +21284,12 @@
       </c>
       <c r="H436" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I436" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4670031&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4698232&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J436" t="inlineStr">
@@ -21304,7 +21304,7 @@
       </c>
       <c r="B437" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE RESIDUOS PELIGROSOS POR RUTAS DE LA REGIÓN DE ANTOFAGASTA</t>
+          <t>Proyecto Laboratorios Químicos CIMM T&amp;S SA. La Negra</t>
         </is>
       </c>
       <c r="C437" t="inlineStr">
@@ -21319,11 +21319,11 @@
       </c>
       <c r="E437" t="inlineStr">
         <is>
-          <t>Limfosep S.A</t>
+          <t>Yancko Gonzalez Rozas</t>
         </is>
       </c>
       <c r="F437" t="n">
-        <v>1000</v>
+        <v>8000</v>
       </c>
       <c r="G437" t="inlineStr">
         <is>
@@ -21332,12 +21332,12 @@
       </c>
       <c r="H437" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I437" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4698232&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4670031&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J437" t="inlineStr">
@@ -21736,7 +21736,7 @@
       </c>
       <c r="B446" t="inlineStr">
         <is>
-          <t>Nuevo Transporte Interregional de Cianuro de Sodio</t>
+          <t>EXPANSION DEPOSITO DE RELAVES FILTRADOS FAENA EL PEÑÓN</t>
         </is>
       </c>
       <c r="C446" t="inlineStr">
@@ -21746,16 +21746,16 @@
       </c>
       <c r="D446" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E446" t="inlineStr">
         <is>
-          <t>OXIQUIM S.A.</t>
+          <t>Minera Meridian Limitada</t>
         </is>
       </c>
       <c r="F446" t="n">
-        <v>85</v>
+        <v>688</v>
       </c>
       <c r="G446" t="inlineStr">
         <is>
@@ -21764,12 +21764,12 @@
       </c>
       <c r="H446" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I446" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4594007&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4601640&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J446" t="inlineStr">
@@ -21784,7 +21784,7 @@
       </c>
       <c r="B447" t="inlineStr">
         <is>
-          <t>EXPANSION DEPOSITO DE RELAVES FILTRADOS FAENA EL PEÑÓN</t>
+          <t>Nuevo Transporte Interregional de Cianuro de Sodio</t>
         </is>
       </c>
       <c r="C447" t="inlineStr">
@@ -21794,16 +21794,16 @@
       </c>
       <c r="D447" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E447" t="inlineStr">
         <is>
-          <t>Minera Meridian Limitada</t>
+          <t>OXIQUIM S.A.</t>
         </is>
       </c>
       <c r="F447" t="n">
-        <v>688</v>
+        <v>85</v>
       </c>
       <c r="G447" t="inlineStr">
         <is>
@@ -21812,12 +21812,12 @@
       </c>
       <c r="H447" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I447" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4601640&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4594007&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J447" t="inlineStr">
@@ -22552,7 +22552,7 @@
       </c>
       <c r="B463" t="inlineStr">
         <is>
-          <t>Transporte de Barros Anódicos</t>
+          <t>Transporte de Residuos Peligroso, Transporte Bello</t>
         </is>
       </c>
       <c r="C463" t="inlineStr">
@@ -22567,11 +22567,11 @@
       </c>
       <c r="E463" t="inlineStr">
         <is>
-          <t>CODELCO CHILE</t>
+          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
         </is>
       </c>
       <c r="F463" t="n">
-        <v>0</v>
+        <v>4050</v>
       </c>
       <c r="G463" t="inlineStr">
         <is>
@@ -22585,7 +22585,7 @@
       </c>
       <c r="I463" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4429880&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4455518&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J463" t="inlineStr">
@@ -22600,7 +22600,7 @@
       </c>
       <c r="B464" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligroso, Transporte Bello</t>
+          <t>Transporte de Barros Anódicos</t>
         </is>
       </c>
       <c r="C464" t="inlineStr">
@@ -22615,11 +22615,11 @@
       </c>
       <c r="E464" t="inlineStr">
         <is>
-          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
+          <t>CODELCO CHILE</t>
         </is>
       </c>
       <c r="F464" t="n">
-        <v>4050</v>
+        <v>0</v>
       </c>
       <c r="G464" t="inlineStr">
         <is>
@@ -22633,7 +22633,7 @@
       </c>
       <c r="I464" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4455518&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4429880&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J464" t="inlineStr">
@@ -22744,7 +22744,7 @@
       </c>
       <c r="B467" t="inlineStr">
         <is>
-          <t>Transporte y Almacenamiento temporal de Residuos Peligrosos M&amp;M ltda.</t>
+          <t>Modificacion Proyecto Minero Algorta Sector Pampa</t>
         </is>
       </c>
       <c r="C467" t="inlineStr">
@@ -22754,16 +22754,16 @@
       </c>
       <c r="D467" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E467" t="inlineStr">
         <is>
-          <t>Transportes Moscoso y Moscoso Ltda.</t>
+          <t>Algorta Norte S.A</t>
         </is>
       </c>
       <c r="F467" t="n">
-        <v>41075</v>
+        <v>6400</v>
       </c>
       <c r="G467" t="inlineStr">
         <is>
@@ -22777,7 +22777,7 @@
       </c>
       <c r="I467" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4422237&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4432700&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J467" t="inlineStr">
@@ -22792,7 +22792,7 @@
       </c>
       <c r="B468" t="inlineStr">
         <is>
-          <t>Modificacion Proyecto Minero Algorta Sector Pampa</t>
+          <t>Transporte y Almacenamiento temporal de Residuos Peligrosos M&amp;M ltda.</t>
         </is>
       </c>
       <c r="C468" t="inlineStr">
@@ -22802,16 +22802,16 @@
       </c>
       <c r="D468" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E468" t="inlineStr">
         <is>
-          <t>Algorta Norte S.A</t>
+          <t>Transportes Moscoso y Moscoso Ltda.</t>
         </is>
       </c>
       <c r="F468" t="n">
-        <v>6400</v>
+        <v>41075</v>
       </c>
       <c r="G468" t="inlineStr">
         <is>
@@ -22825,7 +22825,7 @@
       </c>
       <c r="I468" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4432700&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4422237&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J468" t="inlineStr">
@@ -24280,7 +24280,7 @@
       </c>
       <c r="B499" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos CMR Norte (e-seia)</t>
+          <t>Proyecto Tratamiento de Polvos Metalurgicos de Otras Fundiciones (e-seia)</t>
         </is>
       </c>
       <c r="C499" t="inlineStr">
@@ -24295,11 +24295,11 @@
       </c>
       <c r="E499" t="inlineStr">
         <is>
-          <t>Soluciones Ambientales del Norte S. A.</t>
+          <t>Complejo Metalurgico Altonorte S.A.</t>
         </is>
       </c>
       <c r="F499" t="n">
-        <v>250</v>
+        <v>320</v>
       </c>
       <c r="G499" t="inlineStr">
         <is>
@@ -24313,7 +24313,7 @@
       </c>
       <c r="I499" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4063042&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4061206&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J499" t="inlineStr">
@@ -24328,7 +24328,7 @@
       </c>
       <c r="B500" t="inlineStr">
         <is>
-          <t>Proyecto Tratamiento de Polvos Metalurgicos de Otras Fundiciones (e-seia)</t>
+          <t>Transporte de Residuos Peligrosos CMR Norte (e-seia)</t>
         </is>
       </c>
       <c r="C500" t="inlineStr">
@@ -24343,11 +24343,11 @@
       </c>
       <c r="E500" t="inlineStr">
         <is>
-          <t>Complejo Metalurgico Altonorte S.A.</t>
+          <t>Soluciones Ambientales del Norte S. A.</t>
         </is>
       </c>
       <c r="F500" t="n">
-        <v>320</v>
+        <v>250</v>
       </c>
       <c r="G500" t="inlineStr">
         <is>
@@ -24361,7 +24361,7 @@
       </c>
       <c r="I500" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4061206&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4063042&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J500" t="inlineStr">

--- a/data/Antofagasta.xlsx
+++ b/data/Antofagasta.xlsx
@@ -1172,7 +1172,7 @@
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>En Calificación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">

--- a/data/Antofagasta.xlsx
+++ b/data/Antofagasta.xlsx
@@ -2084,7 +2084,7 @@
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>En Calificación</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I36" t="inlineStr">
@@ -11815,7 +11815,7 @@
       </c>
       <c r="E239" t="inlineStr">
         <is>
-          <t>Empresa Eléctrica de Antofagasta S.A ELECDA</t>
+          <t>CGE TRANSMISION S.A.</t>
         </is>
       </c>
       <c r="F239" t="n">
@@ -17080,7 +17080,7 @@
       </c>
       <c r="B349" t="inlineStr">
         <is>
-          <t>Extracción de Áridos Empréstito E-63</t>
+          <t>Proyecto Optimización de Emplazamiento de Instalaciones en Minera Escondida</t>
         </is>
       </c>
       <c r="C349" t="inlineStr">
@@ -17095,11 +17095,11 @@
       </c>
       <c r="E349" t="inlineStr">
         <is>
-          <t>Skanska Chile S.A.</t>
+          <t>MINERA ESCONDIDA LIMITADA</t>
         </is>
       </c>
       <c r="F349" t="n">
-        <v>500</v>
+        <v>120000</v>
       </c>
       <c r="G349" t="inlineStr">
         <is>
@@ -17113,7 +17113,7 @@
       </c>
       <c r="I349" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6092873&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6080052&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J349" t="inlineStr">
@@ -17128,7 +17128,7 @@
       </c>
       <c r="B350" t="inlineStr">
         <is>
-          <t>Proyecto Optimización de Emplazamiento de Instalaciones en Minera Escondida</t>
+          <t>Extracción de Áridos Empréstito E-63</t>
         </is>
       </c>
       <c r="C350" t="inlineStr">
@@ -17143,11 +17143,11 @@
       </c>
       <c r="E350" t="inlineStr">
         <is>
-          <t>MINERA ESCONDIDA LIMITADA</t>
+          <t>Skanska Chile S.A.</t>
         </is>
       </c>
       <c r="F350" t="n">
-        <v>120000</v>
+        <v>500</v>
       </c>
       <c r="G350" t="inlineStr">
         <is>
@@ -17161,7 +17161,7 @@
       </c>
       <c r="I350" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6080052&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6092873&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J350" t="inlineStr">

--- a/data/Antofagasta.xlsx
+++ b/data/Antofagasta.xlsx
@@ -1796,7 +1796,7 @@
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>En Calificación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I30" t="inlineStr">

--- a/data/Antofagasta.xlsx
+++ b/data/Antofagasta.xlsx
@@ -11464,7 +11464,7 @@
       </c>
       <c r="B232" t="inlineStr">
         <is>
-          <t>Transporte Interregional de Sustancias Peligrosas - AGREDUCAM VI Región</t>
+          <t>Planta de Fabricación de Tuberías PEX (polietileno reticulado)</t>
         </is>
       </c>
       <c r="C232" t="inlineStr">
@@ -11474,16 +11474,16 @@
       </c>
       <c r="D232" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E232" t="inlineStr">
         <is>
-          <t>Asociación Gremial de Dueños de Camiones de la Sexta Región</t>
+          <t>CROSSPIPE SYSTEMS S.A.</t>
         </is>
       </c>
       <c r="F232" t="n">
-        <v>1200</v>
+        <v>12400</v>
       </c>
       <c r="G232" t="inlineStr">
         <is>
@@ -11497,7 +11497,7 @@
       </c>
       <c r="I232" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128964620&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128954293&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J232" t="inlineStr">
@@ -11512,7 +11512,7 @@
       </c>
       <c r="B233" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos por las Rutas Indicadas</t>
+          <t>Transporte Interregional de Sustancias Peligrosas - AGREDUCAM VI Región</t>
         </is>
       </c>
       <c r="C233" t="inlineStr">
@@ -11527,11 +11527,11 @@
       </c>
       <c r="E233" t="inlineStr">
         <is>
-          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
+          <t>Asociación Gremial de Dueños de Camiones de la Sexta Región</t>
         </is>
       </c>
       <c r="F233" t="n">
-        <v>0</v>
+        <v>1200</v>
       </c>
       <c r="G233" t="inlineStr">
         <is>
@@ -11545,7 +11545,7 @@
       </c>
       <c r="I233" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128972489&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128964620&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J233" t="inlineStr">
@@ -11560,7 +11560,7 @@
       </c>
       <c r="B234" t="inlineStr">
         <is>
-          <t>Planta de Fabricación de Tuberías PEX (polietileno reticulado)</t>
+          <t>Transporte de Residuos Peligrosos por las Rutas Indicadas</t>
         </is>
       </c>
       <c r="C234" t="inlineStr">
@@ -11570,16 +11570,16 @@
       </c>
       <c r="D234" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E234" t="inlineStr">
         <is>
-          <t>CROSSPIPE SYSTEMS S.A.</t>
+          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
         </is>
       </c>
       <c r="F234" t="n">
-        <v>12400</v>
+        <v>0</v>
       </c>
       <c r="G234" t="inlineStr">
         <is>
@@ -11593,7 +11593,7 @@
       </c>
       <c r="I234" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128954293&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128972489&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J234" t="inlineStr">
@@ -13192,26 +13192,26 @@
       </c>
       <c r="B268" t="inlineStr">
         <is>
-          <t>RT Sulfuros</t>
+          <t>Transporte de Sustancias Peligrosas Transaltisa Chile Ltda</t>
         </is>
       </c>
       <c r="C268" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D268" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E268" t="inlineStr">
         <is>
-          <t>CODELCO Chile, División Radomiro Tomic</t>
+          <t>Transaltisa Chile Ltda.</t>
         </is>
       </c>
       <c r="F268" t="n">
-        <v>5.4</v>
+        <v>2050</v>
       </c>
       <c r="G268" t="inlineStr">
         <is>
@@ -13220,12 +13220,12 @@
       </c>
       <c r="H268" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I268" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8210090&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8218613&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J268" t="inlineStr">
@@ -13240,26 +13240,26 @@
       </c>
       <c r="B269" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas Transaltisa Chile Ltda</t>
+          <t>RT Sulfuros</t>
         </is>
       </c>
       <c r="C269" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D269" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E269" t="inlineStr">
         <is>
-          <t>Transaltisa Chile Ltda.</t>
+          <t>CODELCO Chile, División Radomiro Tomic</t>
         </is>
       </c>
       <c r="F269" t="n">
-        <v>2050</v>
+        <v>5.4</v>
       </c>
       <c r="G269" t="inlineStr">
         <is>
@@ -13268,12 +13268,12 @@
       </c>
       <c r="H269" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I269" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8218613&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8210090&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J269" t="inlineStr">
@@ -15928,7 +15928,7 @@
       </c>
       <c r="B325" t="inlineStr">
         <is>
-          <t>Parque Fotovoltaico Los Andes</t>
+          <t>CENTRO DE RECUPERACIÓN DE TAMBORES Y CONTENEDORES IBC CONTAMINADOS, PLAMBIENTAL LA NEGRA</t>
         </is>
       </c>
       <c r="C325" t="inlineStr">
@@ -15943,11 +15943,11 @@
       </c>
       <c r="E325" t="inlineStr">
         <is>
-          <t>Andes Solar SPA</t>
+          <t>VEOLIA SERVICIOS MINEROS INTEGRALES CHILE SpA</t>
         </is>
       </c>
       <c r="F325" t="n">
-        <v>572000</v>
+        <v>60</v>
       </c>
       <c r="G325" t="inlineStr">
         <is>
@@ -15956,12 +15956,12 @@
       </c>
       <c r="H325" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Caducado</t>
         </is>
       </c>
       <c r="I325" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6581267&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6592870&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J325" t="inlineStr">
@@ -15976,7 +15976,7 @@
       </c>
       <c r="B326" t="inlineStr">
         <is>
-          <t>CENTRO DE RECUPERACIÓN DE TAMBORES Y CONTENEDORES IBC CONTAMINADOS, PLAMBIENTAL LA NEGRA</t>
+          <t>CENTRO DE ALMACENAMIENTO DE RESIDUOS INDUSTRIALES, GESAM LA NEGRA</t>
         </is>
       </c>
       <c r="C326" t="inlineStr">
@@ -15995,7 +15995,7 @@
         </is>
       </c>
       <c r="F326" t="n">
-        <v>60</v>
+        <v>360</v>
       </c>
       <c r="G326" t="inlineStr">
         <is>
@@ -16009,7 +16009,7 @@
       </c>
       <c r="I326" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6592870&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6595234&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J326" t="inlineStr">
@@ -16024,7 +16024,7 @@
       </c>
       <c r="B327" t="inlineStr">
         <is>
-          <t>CENTRO DE ALMACENAMIENTO DE RESIDUOS INDUSTRIALES, GESAM LA NEGRA</t>
+          <t>Parque Fotovoltaico Los Andes</t>
         </is>
       </c>
       <c r="C327" t="inlineStr">
@@ -16039,11 +16039,11 @@
       </c>
       <c r="E327" t="inlineStr">
         <is>
-          <t>VEOLIA SERVICIOS MINEROS INTEGRALES CHILE SpA</t>
+          <t>Andes Solar SPA</t>
         </is>
       </c>
       <c r="F327" t="n">
-        <v>360</v>
+        <v>572000</v>
       </c>
       <c r="G327" t="inlineStr">
         <is>
@@ -16052,12 +16052,12 @@
       </c>
       <c r="H327" t="inlineStr">
         <is>
-          <t>Caducado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I327" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6595234&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6581267&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J327" t="inlineStr">
@@ -16888,7 +16888,7 @@
       </c>
       <c r="B345" t="inlineStr">
         <is>
-          <t>Extracción de Áridos Empréstito E17L</t>
+          <t>Modificación Proyecto Transporte de Acido Sulfurico a granel entre la Primera y Décima Regiones de Chile</t>
         </is>
       </c>
       <c r="C345" t="inlineStr">
@@ -16898,16 +16898,16 @@
       </c>
       <c r="D345" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E345" t="inlineStr">
         <is>
-          <t>Skanska Chile S.A.</t>
+          <t>Transportes Herrmann Limitada</t>
         </is>
       </c>
       <c r="F345" t="n">
-        <v>500</v>
+        <v>0</v>
       </c>
       <c r="G345" t="inlineStr">
         <is>
@@ -16916,12 +16916,12 @@
       </c>
       <c r="H345" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I345" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6156264&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6159602&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J345" t="inlineStr">
@@ -16936,7 +16936,7 @@
       </c>
       <c r="B346" t="inlineStr">
         <is>
-          <t>Modificación Proyecto Transporte de Acido Sulfurico a granel entre la Primera y Décima Regiones de Chile</t>
+          <t>Extracción de Áridos Empréstito E17L</t>
         </is>
       </c>
       <c r="C346" t="inlineStr">
@@ -16946,16 +16946,16 @@
       </c>
       <c r="D346" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E346" t="inlineStr">
         <is>
-          <t>Transportes Herrmann Limitada</t>
+          <t>Skanska Chile S.A.</t>
         </is>
       </c>
       <c r="F346" t="n">
-        <v>0</v>
+        <v>500</v>
       </c>
       <c r="G346" t="inlineStr">
         <is>
@@ -16964,12 +16964,12 @@
       </c>
       <c r="H346" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I346" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6159602&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6156264&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J346" t="inlineStr">
@@ -17416,7 +17416,7 @@
       </c>
       <c r="B356" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos</t>
+          <t>Nuevas Instalaciones para Mantención Mina</t>
         </is>
       </c>
       <c r="C356" t="inlineStr">
@@ -17426,16 +17426,16 @@
       </c>
       <c r="D356" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E356" t="inlineStr">
         <is>
-          <t>Transportes TMS Limitada</t>
+          <t>MINERA ESCONDIDA LIMITADA</t>
         </is>
       </c>
       <c r="F356" t="n">
-        <v>200</v>
+        <v>635000</v>
       </c>
       <c r="G356" t="inlineStr">
         <is>
@@ -17444,12 +17444,12 @@
       </c>
       <c r="H356" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I356" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6003582&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5931343&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J356" t="inlineStr">
@@ -17464,7 +17464,7 @@
       </c>
       <c r="B357" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas entre la I, II y III Regiones"</t>
+          <t>Transporte de Residuos Peligrosos</t>
         </is>
       </c>
       <c r="C357" t="inlineStr">
@@ -17479,11 +17479,11 @@
       </c>
       <c r="E357" t="inlineStr">
         <is>
-          <t>Molina Quimicos S.A.</t>
+          <t>Transportes TMS Limitada</t>
         </is>
       </c>
       <c r="F357" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="G357" t="inlineStr">
         <is>
@@ -17497,7 +17497,7 @@
       </c>
       <c r="I357" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6003607&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6003582&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J357" t="inlineStr">
@@ -17512,7 +17512,7 @@
       </c>
       <c r="B358" t="inlineStr">
         <is>
-          <t>Nuevas Instalaciones para Mantención Mina</t>
+          <t>Transporte de Sustancias Peligrosas entre la I, II y III Regiones"</t>
         </is>
       </c>
       <c r="C358" t="inlineStr">
@@ -17522,16 +17522,16 @@
       </c>
       <c r="D358" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E358" t="inlineStr">
         <is>
-          <t>MINERA ESCONDIDA LIMITADA</t>
+          <t>Molina Quimicos S.A.</t>
         </is>
       </c>
       <c r="F358" t="n">
-        <v>635000</v>
+        <v>100</v>
       </c>
       <c r="G358" t="inlineStr">
         <is>
@@ -17540,12 +17540,12 @@
       </c>
       <c r="H358" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I358" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5931343&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6003607&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J358" t="inlineStr">
@@ -19768,7 +19768,7 @@
       </c>
       <c r="B405" t="inlineStr">
         <is>
-          <t>"Transporte de acido sulfurico concentrado para minera Las Cenizas, Taltal."</t>
+          <t>II MODIFICACIÓN DIA "TRANSPORTE Y MANEJO IN SITU DE RESIDUOS SÓLIDOS Y LÍQUIDOS PELIGROSOS Y NO PELIGROSOS"</t>
         </is>
       </c>
       <c r="C405" t="inlineStr">
@@ -19778,16 +19778,16 @@
       </c>
       <c r="D405" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E405" t="inlineStr">
         <is>
-          <t>Translog S.A.</t>
+          <t>Mol Ambiente S.A.</t>
         </is>
       </c>
       <c r="F405" t="n">
-        <v>600</v>
+        <v>75000</v>
       </c>
       <c r="G405" t="inlineStr">
         <is>
@@ -19796,12 +19796,12 @@
       </c>
       <c r="H405" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I405" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5114868&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5118945&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J405" t="inlineStr">
@@ -19816,7 +19816,7 @@
       </c>
       <c r="B406" t="inlineStr">
         <is>
-          <t>II MODIFICACIÓN DIA "TRANSPORTE Y MANEJO IN SITU DE RESIDUOS SÓLIDOS Y LÍQUIDOS PELIGROSOS Y NO PELIGROSOS"</t>
+          <t>"Transporte de acido sulfurico concentrado para minera Las Cenizas, Taltal."</t>
         </is>
       </c>
       <c r="C406" t="inlineStr">
@@ -19826,16 +19826,16 @@
       </c>
       <c r="D406" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E406" t="inlineStr">
         <is>
-          <t>Mol Ambiente S.A.</t>
+          <t>Translog S.A.</t>
         </is>
       </c>
       <c r="F406" t="n">
-        <v>75000</v>
+        <v>600</v>
       </c>
       <c r="G406" t="inlineStr">
         <is>
@@ -19844,12 +19844,12 @@
       </c>
       <c r="H406" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I406" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5118945&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5114868&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J406" t="inlineStr">
@@ -21304,7 +21304,7 @@
       </c>
       <c r="B437" t="inlineStr">
         <is>
-          <t>Proyecto Laboratorios Químicos CIMM T&amp;S SA. La Negra</t>
+          <t>TRANSPORTE DE RESIDUOS PELIGROSOS POR RUTAS DE LA REGIÓN DE ANTOFAGASTA</t>
         </is>
       </c>
       <c r="C437" t="inlineStr">
@@ -21319,11 +21319,11 @@
       </c>
       <c r="E437" t="inlineStr">
         <is>
-          <t>Yancko Gonzalez Rozas</t>
+          <t>Limfosep S.A</t>
         </is>
       </c>
       <c r="F437" t="n">
-        <v>8000</v>
+        <v>1000</v>
       </c>
       <c r="G437" t="inlineStr">
         <is>
@@ -21332,12 +21332,12 @@
       </c>
       <c r="H437" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I437" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4670031&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4698232&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J437" t="inlineStr">
@@ -21352,7 +21352,7 @@
       </c>
       <c r="B438" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE RESIDUOS PELIGROSOS POR RUTAS DE LA REGIÓN DE ANTOFAGASTA</t>
+          <t>Proyecto Laboratorios Químicos CIMM T&amp;S SA. La Negra</t>
         </is>
       </c>
       <c r="C438" t="inlineStr">
@@ -21367,11 +21367,11 @@
       </c>
       <c r="E438" t="inlineStr">
         <is>
-          <t>Limfosep S.A</t>
+          <t>Yancko Gonzalez Rozas</t>
         </is>
       </c>
       <c r="F438" t="n">
-        <v>1000</v>
+        <v>8000</v>
       </c>
       <c r="G438" t="inlineStr">
         <is>
@@ -21380,12 +21380,12 @@
       </c>
       <c r="H438" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I438" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4698232&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4670031&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J438" t="inlineStr">
@@ -21784,7 +21784,7 @@
       </c>
       <c r="B447" t="inlineStr">
         <is>
-          <t>Nuevo Transporte Interregional de Cianuro de Sodio</t>
+          <t>EXPANSION DEPOSITO DE RELAVES FILTRADOS FAENA EL PEÑÓN</t>
         </is>
       </c>
       <c r="C447" t="inlineStr">
@@ -21794,16 +21794,16 @@
       </c>
       <c r="D447" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E447" t="inlineStr">
         <is>
-          <t>OXIQUIM S.A.</t>
+          <t>Minera Meridian Limitada</t>
         </is>
       </c>
       <c r="F447" t="n">
-        <v>85</v>
+        <v>688</v>
       </c>
       <c r="G447" t="inlineStr">
         <is>
@@ -21812,12 +21812,12 @@
       </c>
       <c r="H447" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I447" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4594007&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4601640&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J447" t="inlineStr">
@@ -21832,7 +21832,7 @@
       </c>
       <c r="B448" t="inlineStr">
         <is>
-          <t>EXPANSION DEPOSITO DE RELAVES FILTRADOS FAENA EL PEÑÓN</t>
+          <t>Nuevo Transporte Interregional de Cianuro de Sodio</t>
         </is>
       </c>
       <c r="C448" t="inlineStr">
@@ -21842,16 +21842,16 @@
       </c>
       <c r="D448" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E448" t="inlineStr">
         <is>
-          <t>Minera Meridian Limitada</t>
+          <t>OXIQUIM S.A.</t>
         </is>
       </c>
       <c r="F448" t="n">
-        <v>688</v>
+        <v>85</v>
       </c>
       <c r="G448" t="inlineStr">
         <is>
@@ -21860,12 +21860,12 @@
       </c>
       <c r="H448" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I448" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4601640&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4594007&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J448" t="inlineStr">
@@ -24328,7 +24328,7 @@
       </c>
       <c r="B500" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos CMR Norte (e-seia)</t>
+          <t>Proyecto Tratamiento de Polvos Metalurgicos de Otras Fundiciones (e-seia)</t>
         </is>
       </c>
       <c r="C500" t="inlineStr">
@@ -24343,11 +24343,11 @@
       </c>
       <c r="E500" t="inlineStr">
         <is>
-          <t>Soluciones Ambientales del Norte S. A.</t>
+          <t>Complejo Metalurgico Altonorte S.A.</t>
         </is>
       </c>
       <c r="F500" t="n">
-        <v>250</v>
+        <v>320</v>
       </c>
       <c r="G500" t="inlineStr">
         <is>
@@ -24361,7 +24361,7 @@
       </c>
       <c r="I500" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4063042&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4061206&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J500" t="inlineStr">
@@ -24376,7 +24376,7 @@
       </c>
       <c r="B501" t="inlineStr">
         <is>
-          <t>Proyecto Tratamiento de Polvos Metalurgicos de Otras Fundiciones (e-seia)</t>
+          <t>Transporte de Residuos Peligrosos CMR Norte (e-seia)</t>
         </is>
       </c>
       <c r="C501" t="inlineStr">
@@ -24391,11 +24391,11 @@
       </c>
       <c r="E501" t="inlineStr">
         <is>
-          <t>Complejo Metalurgico Altonorte S.A.</t>
+          <t>Soluciones Ambientales del Norte S. A.</t>
         </is>
       </c>
       <c r="F501" t="n">
-        <v>320</v>
+        <v>250</v>
       </c>
       <c r="G501" t="inlineStr">
         <is>
@@ -24409,7 +24409,7 @@
       </c>
       <c r="I501" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4061206&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4063042&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J501" t="inlineStr">

--- a/data/Antofagasta.xlsx
+++ b/data/Antofagasta.xlsx
@@ -11464,7 +11464,7 @@
       </c>
       <c r="B232" t="inlineStr">
         <is>
-          <t>Planta de Fabricación de Tuberías PEX (polietileno reticulado)</t>
+          <t>Transporte Interregional de Sustancias Peligrosas - AGREDUCAM VI Región</t>
         </is>
       </c>
       <c r="C232" t="inlineStr">
@@ -11474,16 +11474,16 @@
       </c>
       <c r="D232" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E232" t="inlineStr">
         <is>
-          <t>CROSSPIPE SYSTEMS S.A.</t>
+          <t>Asociación Gremial de Dueños de Camiones de la Sexta Región</t>
         </is>
       </c>
       <c r="F232" t="n">
-        <v>12400</v>
+        <v>1200</v>
       </c>
       <c r="G232" t="inlineStr">
         <is>
@@ -11497,7 +11497,7 @@
       </c>
       <c r="I232" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128954293&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128964620&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J232" t="inlineStr">
@@ -11512,7 +11512,7 @@
       </c>
       <c r="B233" t="inlineStr">
         <is>
-          <t>Transporte Interregional de Sustancias Peligrosas - AGREDUCAM VI Región</t>
+          <t>Transporte de Residuos Peligrosos por las Rutas Indicadas</t>
         </is>
       </c>
       <c r="C233" t="inlineStr">
@@ -11527,11 +11527,11 @@
       </c>
       <c r="E233" t="inlineStr">
         <is>
-          <t>Asociación Gremial de Dueños de Camiones de la Sexta Región</t>
+          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
         </is>
       </c>
       <c r="F233" t="n">
-        <v>1200</v>
+        <v>0</v>
       </c>
       <c r="G233" t="inlineStr">
         <is>
@@ -11545,7 +11545,7 @@
       </c>
       <c r="I233" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128964620&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128972489&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J233" t="inlineStr">
@@ -11560,7 +11560,7 @@
       </c>
       <c r="B234" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos por las Rutas Indicadas</t>
+          <t>Planta de Fabricación de Tuberías PEX (polietileno reticulado)</t>
         </is>
       </c>
       <c r="C234" t="inlineStr">
@@ -11570,16 +11570,16 @@
       </c>
       <c r="D234" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E234" t="inlineStr">
         <is>
-          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
+          <t>CROSSPIPE SYSTEMS S.A.</t>
         </is>
       </c>
       <c r="F234" t="n">
-        <v>0</v>
+        <v>12400</v>
       </c>
       <c r="G234" t="inlineStr">
         <is>
@@ -11593,7 +11593,7 @@
       </c>
       <c r="I234" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128972489&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128954293&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J234" t="inlineStr">
@@ -13192,26 +13192,26 @@
       </c>
       <c r="B268" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas Transaltisa Chile Ltda</t>
+          <t>RT Sulfuros</t>
         </is>
       </c>
       <c r="C268" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D268" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E268" t="inlineStr">
         <is>
-          <t>Transaltisa Chile Ltda.</t>
+          <t>CODELCO Chile, División Radomiro Tomic</t>
         </is>
       </c>
       <c r="F268" t="n">
-        <v>2050</v>
+        <v>5.4</v>
       </c>
       <c r="G268" t="inlineStr">
         <is>
@@ -13220,12 +13220,12 @@
       </c>
       <c r="H268" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I268" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8218613&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8210090&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J268" t="inlineStr">
@@ -13240,26 +13240,26 @@
       </c>
       <c r="B269" t="inlineStr">
         <is>
-          <t>RT Sulfuros</t>
+          <t>Transporte de Sustancias Peligrosas Transaltisa Chile Ltda</t>
         </is>
       </c>
       <c r="C269" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D269" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E269" t="inlineStr">
         <is>
-          <t>CODELCO Chile, División Radomiro Tomic</t>
+          <t>Transaltisa Chile Ltda.</t>
         </is>
       </c>
       <c r="F269" t="n">
-        <v>5.4</v>
+        <v>2050</v>
       </c>
       <c r="G269" t="inlineStr">
         <is>
@@ -13268,12 +13268,12 @@
       </c>
       <c r="H269" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I269" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8210090&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8218613&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J269" t="inlineStr">
@@ -15928,7 +15928,7 @@
       </c>
       <c r="B325" t="inlineStr">
         <is>
-          <t>CENTRO DE RECUPERACIÓN DE TAMBORES Y CONTENEDORES IBC CONTAMINADOS, PLAMBIENTAL LA NEGRA</t>
+          <t>Parque Fotovoltaico Los Andes</t>
         </is>
       </c>
       <c r="C325" t="inlineStr">
@@ -15943,11 +15943,11 @@
       </c>
       <c r="E325" t="inlineStr">
         <is>
-          <t>VEOLIA SERVICIOS MINEROS INTEGRALES CHILE SpA</t>
+          <t>Andes Solar SPA</t>
         </is>
       </c>
       <c r="F325" t="n">
-        <v>60</v>
+        <v>572000</v>
       </c>
       <c r="G325" t="inlineStr">
         <is>
@@ -15956,12 +15956,12 @@
       </c>
       <c r="H325" t="inlineStr">
         <is>
-          <t>Caducado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I325" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6592870&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6581267&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J325" t="inlineStr">
@@ -15976,7 +15976,7 @@
       </c>
       <c r="B326" t="inlineStr">
         <is>
-          <t>CENTRO DE ALMACENAMIENTO DE RESIDUOS INDUSTRIALES, GESAM LA NEGRA</t>
+          <t>CENTRO DE RECUPERACIÓN DE TAMBORES Y CONTENEDORES IBC CONTAMINADOS, PLAMBIENTAL LA NEGRA</t>
         </is>
       </c>
       <c r="C326" t="inlineStr">
@@ -15995,7 +15995,7 @@
         </is>
       </c>
       <c r="F326" t="n">
-        <v>360</v>
+        <v>60</v>
       </c>
       <c r="G326" t="inlineStr">
         <is>
@@ -16009,7 +16009,7 @@
       </c>
       <c r="I326" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6595234&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6592870&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J326" t="inlineStr">
@@ -16024,7 +16024,7 @@
       </c>
       <c r="B327" t="inlineStr">
         <is>
-          <t>Parque Fotovoltaico Los Andes</t>
+          <t>CENTRO DE ALMACENAMIENTO DE RESIDUOS INDUSTRIALES, GESAM LA NEGRA</t>
         </is>
       </c>
       <c r="C327" t="inlineStr">
@@ -16039,11 +16039,11 @@
       </c>
       <c r="E327" t="inlineStr">
         <is>
-          <t>Andes Solar SPA</t>
+          <t>VEOLIA SERVICIOS MINEROS INTEGRALES CHILE SpA</t>
         </is>
       </c>
       <c r="F327" t="n">
-        <v>572000</v>
+        <v>360</v>
       </c>
       <c r="G327" t="inlineStr">
         <is>
@@ -16052,12 +16052,12 @@
       </c>
       <c r="H327" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Caducado</t>
         </is>
       </c>
       <c r="I327" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6581267&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6595234&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J327" t="inlineStr">
@@ -16888,7 +16888,7 @@
       </c>
       <c r="B345" t="inlineStr">
         <is>
-          <t>Modificación Proyecto Transporte de Acido Sulfurico a granel entre la Primera y Décima Regiones de Chile</t>
+          <t>Extracción de Áridos Empréstito E17L</t>
         </is>
       </c>
       <c r="C345" t="inlineStr">
@@ -16898,16 +16898,16 @@
       </c>
       <c r="D345" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E345" t="inlineStr">
         <is>
-          <t>Transportes Herrmann Limitada</t>
+          <t>Skanska Chile S.A.</t>
         </is>
       </c>
       <c r="F345" t="n">
-        <v>0</v>
+        <v>500</v>
       </c>
       <c r="G345" t="inlineStr">
         <is>
@@ -16916,12 +16916,12 @@
       </c>
       <c r="H345" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I345" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6159602&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6156264&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J345" t="inlineStr">
@@ -16936,7 +16936,7 @@
       </c>
       <c r="B346" t="inlineStr">
         <is>
-          <t>Extracción de Áridos Empréstito E17L</t>
+          <t>Modificación Proyecto Transporte de Acido Sulfurico a granel entre la Primera y Décima Regiones de Chile</t>
         </is>
       </c>
       <c r="C346" t="inlineStr">
@@ -16946,16 +16946,16 @@
       </c>
       <c r="D346" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E346" t="inlineStr">
         <is>
-          <t>Skanska Chile S.A.</t>
+          <t>Transportes Herrmann Limitada</t>
         </is>
       </c>
       <c r="F346" t="n">
-        <v>500</v>
+        <v>0</v>
       </c>
       <c r="G346" t="inlineStr">
         <is>
@@ -16964,12 +16964,12 @@
       </c>
       <c r="H346" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I346" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6156264&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6159602&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J346" t="inlineStr">
@@ -17416,7 +17416,7 @@
       </c>
       <c r="B356" t="inlineStr">
         <is>
-          <t>Nuevas Instalaciones para Mantención Mina</t>
+          <t>Transporte de Residuos Peligrosos</t>
         </is>
       </c>
       <c r="C356" t="inlineStr">
@@ -17426,16 +17426,16 @@
       </c>
       <c r="D356" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E356" t="inlineStr">
         <is>
-          <t>MINERA ESCONDIDA LIMITADA</t>
+          <t>Transportes TMS Limitada</t>
         </is>
       </c>
       <c r="F356" t="n">
-        <v>635000</v>
+        <v>200</v>
       </c>
       <c r="G356" t="inlineStr">
         <is>
@@ -17444,12 +17444,12 @@
       </c>
       <c r="H356" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I356" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5931343&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6003582&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J356" t="inlineStr">
@@ -17464,7 +17464,7 @@
       </c>
       <c r="B357" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos</t>
+          <t>Transporte de Sustancias Peligrosas entre la I, II y III Regiones"</t>
         </is>
       </c>
       <c r="C357" t="inlineStr">
@@ -17479,11 +17479,11 @@
       </c>
       <c r="E357" t="inlineStr">
         <is>
-          <t>Transportes TMS Limitada</t>
+          <t>Molina Quimicos S.A.</t>
         </is>
       </c>
       <c r="F357" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="G357" t="inlineStr">
         <is>
@@ -17497,7 +17497,7 @@
       </c>
       <c r="I357" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6003582&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6003607&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J357" t="inlineStr">
@@ -17512,7 +17512,7 @@
       </c>
       <c r="B358" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas entre la I, II y III Regiones"</t>
+          <t>Nuevas Instalaciones para Mantención Mina</t>
         </is>
       </c>
       <c r="C358" t="inlineStr">
@@ -17522,16 +17522,16 @@
       </c>
       <c r="D358" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E358" t="inlineStr">
         <is>
-          <t>Molina Quimicos S.A.</t>
+          <t>MINERA ESCONDIDA LIMITADA</t>
         </is>
       </c>
       <c r="F358" t="n">
-        <v>100</v>
+        <v>635000</v>
       </c>
       <c r="G358" t="inlineStr">
         <is>
@@ -17540,12 +17540,12 @@
       </c>
       <c r="H358" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I358" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6003607&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5931343&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J358" t="inlineStr">
@@ -19768,7 +19768,7 @@
       </c>
       <c r="B405" t="inlineStr">
         <is>
-          <t>II MODIFICACIÓN DIA "TRANSPORTE Y MANEJO IN SITU DE RESIDUOS SÓLIDOS Y LÍQUIDOS PELIGROSOS Y NO PELIGROSOS"</t>
+          <t>"Transporte de acido sulfurico concentrado para minera Las Cenizas, Taltal."</t>
         </is>
       </c>
       <c r="C405" t="inlineStr">
@@ -19778,16 +19778,16 @@
       </c>
       <c r="D405" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E405" t="inlineStr">
         <is>
-          <t>Mol Ambiente S.A.</t>
+          <t>Translog S.A.</t>
         </is>
       </c>
       <c r="F405" t="n">
-        <v>75000</v>
+        <v>600</v>
       </c>
       <c r="G405" t="inlineStr">
         <is>
@@ -19796,12 +19796,12 @@
       </c>
       <c r="H405" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I405" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5118945&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5114868&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J405" t="inlineStr">
@@ -19816,7 +19816,7 @@
       </c>
       <c r="B406" t="inlineStr">
         <is>
-          <t>"Transporte de acido sulfurico concentrado para minera Las Cenizas, Taltal."</t>
+          <t>II MODIFICACIÓN DIA "TRANSPORTE Y MANEJO IN SITU DE RESIDUOS SÓLIDOS Y LÍQUIDOS PELIGROSOS Y NO PELIGROSOS"</t>
         </is>
       </c>
       <c r="C406" t="inlineStr">
@@ -19826,16 +19826,16 @@
       </c>
       <c r="D406" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E406" t="inlineStr">
         <is>
-          <t>Translog S.A.</t>
+          <t>Mol Ambiente S.A.</t>
         </is>
       </c>
       <c r="F406" t="n">
-        <v>600</v>
+        <v>75000</v>
       </c>
       <c r="G406" t="inlineStr">
         <is>
@@ -19844,12 +19844,12 @@
       </c>
       <c r="H406" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I406" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5114868&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5118945&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J406" t="inlineStr">
@@ -21304,7 +21304,7 @@
       </c>
       <c r="B437" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE RESIDUOS PELIGROSOS POR RUTAS DE LA REGIÓN DE ANTOFAGASTA</t>
+          <t>Proyecto Laboratorios Químicos CIMM T&amp;S SA. La Negra</t>
         </is>
       </c>
       <c r="C437" t="inlineStr">
@@ -21319,11 +21319,11 @@
       </c>
       <c r="E437" t="inlineStr">
         <is>
-          <t>Limfosep S.A</t>
+          <t>Yancko Gonzalez Rozas</t>
         </is>
       </c>
       <c r="F437" t="n">
-        <v>1000</v>
+        <v>8000</v>
       </c>
       <c r="G437" t="inlineStr">
         <is>
@@ -21332,12 +21332,12 @@
       </c>
       <c r="H437" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I437" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4698232&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4670031&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J437" t="inlineStr">
@@ -21352,7 +21352,7 @@
       </c>
       <c r="B438" t="inlineStr">
         <is>
-          <t>Proyecto Laboratorios Químicos CIMM T&amp;S SA. La Negra</t>
+          <t>TRANSPORTE DE RESIDUOS PELIGROSOS POR RUTAS DE LA REGIÓN DE ANTOFAGASTA</t>
         </is>
       </c>
       <c r="C438" t="inlineStr">
@@ -21367,11 +21367,11 @@
       </c>
       <c r="E438" t="inlineStr">
         <is>
-          <t>Yancko Gonzalez Rozas</t>
+          <t>Limfosep S.A</t>
         </is>
       </c>
       <c r="F438" t="n">
-        <v>8000</v>
+        <v>1000</v>
       </c>
       <c r="G438" t="inlineStr">
         <is>
@@ -21380,12 +21380,12 @@
       </c>
       <c r="H438" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I438" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4670031&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4698232&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J438" t="inlineStr">
@@ -21784,7 +21784,7 @@
       </c>
       <c r="B447" t="inlineStr">
         <is>
-          <t>EXPANSION DEPOSITO DE RELAVES FILTRADOS FAENA EL PEÑÓN</t>
+          <t>Nuevo Transporte Interregional de Cianuro de Sodio</t>
         </is>
       </c>
       <c r="C447" t="inlineStr">
@@ -21794,16 +21794,16 @@
       </c>
       <c r="D447" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E447" t="inlineStr">
         <is>
-          <t>Minera Meridian Limitada</t>
+          <t>OXIQUIM S.A.</t>
         </is>
       </c>
       <c r="F447" t="n">
-        <v>688</v>
+        <v>85</v>
       </c>
       <c r="G447" t="inlineStr">
         <is>
@@ -21812,12 +21812,12 @@
       </c>
       <c r="H447" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I447" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4601640&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4594007&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J447" t="inlineStr">
@@ -21832,7 +21832,7 @@
       </c>
       <c r="B448" t="inlineStr">
         <is>
-          <t>Nuevo Transporte Interregional de Cianuro de Sodio</t>
+          <t>EXPANSION DEPOSITO DE RELAVES FILTRADOS FAENA EL PEÑÓN</t>
         </is>
       </c>
       <c r="C448" t="inlineStr">
@@ -21842,16 +21842,16 @@
       </c>
       <c r="D448" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E448" t="inlineStr">
         <is>
-          <t>OXIQUIM S.A.</t>
+          <t>Minera Meridian Limitada</t>
         </is>
       </c>
       <c r="F448" t="n">
-        <v>85</v>
+        <v>688</v>
       </c>
       <c r="G448" t="inlineStr">
         <is>
@@ -21860,12 +21860,12 @@
       </c>
       <c r="H448" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I448" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4594007&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4601640&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J448" t="inlineStr">
@@ -24328,7 +24328,7 @@
       </c>
       <c r="B500" t="inlineStr">
         <is>
-          <t>Proyecto Tratamiento de Polvos Metalurgicos de Otras Fundiciones (e-seia)</t>
+          <t>Transporte de Residuos Peligrosos CMR Norte (e-seia)</t>
         </is>
       </c>
       <c r="C500" t="inlineStr">
@@ -24343,11 +24343,11 @@
       </c>
       <c r="E500" t="inlineStr">
         <is>
-          <t>Complejo Metalurgico Altonorte S.A.</t>
+          <t>Soluciones Ambientales del Norte S. A.</t>
         </is>
       </c>
       <c r="F500" t="n">
-        <v>320</v>
+        <v>250</v>
       </c>
       <c r="G500" t="inlineStr">
         <is>
@@ -24361,7 +24361,7 @@
       </c>
       <c r="I500" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4061206&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4063042&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J500" t="inlineStr">
@@ -24376,7 +24376,7 @@
       </c>
       <c r="B501" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos CMR Norte (e-seia)</t>
+          <t>Proyecto Tratamiento de Polvos Metalurgicos de Otras Fundiciones (e-seia)</t>
         </is>
       </c>
       <c r="C501" t="inlineStr">
@@ -24391,11 +24391,11 @@
       </c>
       <c r="E501" t="inlineStr">
         <is>
-          <t>Soluciones Ambientales del Norte S. A.</t>
+          <t>Complejo Metalurgico Altonorte S.A.</t>
         </is>
       </c>
       <c r="F501" t="n">
-        <v>250</v>
+        <v>320</v>
       </c>
       <c r="G501" t="inlineStr">
         <is>
@@ -24409,7 +24409,7 @@
       </c>
       <c r="I501" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4063042&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4061206&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J501" t="inlineStr">

--- a/data/Antofagasta.xlsx
+++ b/data/Antofagasta.xlsx
@@ -424,7 +424,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Transporte terrestre de ácido sulfúrico</t>
+          <t>Proyecto minero Comahue</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -439,25 +439,25 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>TRANSPORTES B&amp;S SPA</t>
+          <t>Next Minerals S.A.</t>
         </is>
       </c>
       <c r="F2" t="n">
-        <v>2576</v>
+        <v>55000</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>21/04/2022</t>
+          <t>22/04/2022</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>En Admisión</t>
+          <t>En Calificación</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2155689137&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2155491655&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
@@ -472,7 +472,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Proyecto minero Comahue</t>
+          <t>Transporte terrestre de ácido sulfúrico</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -487,15 +487,15 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Next Minerals S.A.</t>
+          <t>TRANSPORTES B&amp;S SPA</t>
         </is>
       </c>
       <c r="F3" t="n">
-        <v>55000</v>
+        <v>2576</v>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>18/04/2022</t>
+          <t>21/04/2022</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
@@ -505,7 +505,7 @@
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2155491655&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2155689137&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
@@ -11512,7 +11512,7 @@
       </c>
       <c r="B233" t="inlineStr">
         <is>
-          <t>Transporte Interregional de Sustancias Peligrosas - AGREDUCAM VI Región</t>
+          <t>Planta de Fabricación de Tuberías PEX (polietileno reticulado)</t>
         </is>
       </c>
       <c r="C233" t="inlineStr">
@@ -11522,16 +11522,16 @@
       </c>
       <c r="D233" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E233" t="inlineStr">
         <is>
-          <t>Asociación Gremial de Dueños de Camiones de la Sexta Región</t>
+          <t>CROSSPIPE SYSTEMS S.A.</t>
         </is>
       </c>
       <c r="F233" t="n">
-        <v>1200</v>
+        <v>12400</v>
       </c>
       <c r="G233" t="inlineStr">
         <is>
@@ -11545,7 +11545,7 @@
       </c>
       <c r="I233" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128964620&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128954293&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J233" t="inlineStr">
@@ -11560,7 +11560,7 @@
       </c>
       <c r="B234" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos por las Rutas Indicadas</t>
+          <t>Transporte Interregional de Sustancias Peligrosas - AGREDUCAM VI Región</t>
         </is>
       </c>
       <c r="C234" t="inlineStr">
@@ -11575,11 +11575,11 @@
       </c>
       <c r="E234" t="inlineStr">
         <is>
-          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
+          <t>Asociación Gremial de Dueños de Camiones de la Sexta Región</t>
         </is>
       </c>
       <c r="F234" t="n">
-        <v>0</v>
+        <v>1200</v>
       </c>
       <c r="G234" t="inlineStr">
         <is>
@@ -11593,7 +11593,7 @@
       </c>
       <c r="I234" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128972489&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128964620&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J234" t="inlineStr">
@@ -11608,7 +11608,7 @@
       </c>
       <c r="B235" t="inlineStr">
         <is>
-          <t>Planta de Fabricación de Tuberías PEX (polietileno reticulado)</t>
+          <t>Transporte de Residuos Peligrosos por las Rutas Indicadas</t>
         </is>
       </c>
       <c r="C235" t="inlineStr">
@@ -11618,16 +11618,16 @@
       </c>
       <c r="D235" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E235" t="inlineStr">
         <is>
-          <t>CROSSPIPE SYSTEMS S.A.</t>
+          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
         </is>
       </c>
       <c r="F235" t="n">
-        <v>12400</v>
+        <v>0</v>
       </c>
       <c r="G235" t="inlineStr">
         <is>
@@ -11641,7 +11641,7 @@
       </c>
       <c r="I235" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128954293&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128972489&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J235" t="inlineStr">
@@ -13240,26 +13240,26 @@
       </c>
       <c r="B269" t="inlineStr">
         <is>
-          <t>RT Sulfuros</t>
+          <t>Transporte de Sustancias Peligrosas Transaltisa Chile Ltda</t>
         </is>
       </c>
       <c r="C269" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D269" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E269" t="inlineStr">
         <is>
-          <t>CODELCO Chile, División Radomiro Tomic</t>
+          <t>Transaltisa Chile Ltda.</t>
         </is>
       </c>
       <c r="F269" t="n">
-        <v>5.4</v>
+        <v>2050</v>
       </c>
       <c r="G269" t="inlineStr">
         <is>
@@ -13268,12 +13268,12 @@
       </c>
       <c r="H269" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I269" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8210090&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8218613&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J269" t="inlineStr">
@@ -13288,26 +13288,26 @@
       </c>
       <c r="B270" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas Transaltisa Chile Ltda</t>
+          <t>RT Sulfuros</t>
         </is>
       </c>
       <c r="C270" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D270" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E270" t="inlineStr">
         <is>
-          <t>Transaltisa Chile Ltda.</t>
+          <t>CODELCO Chile, División Radomiro Tomic</t>
         </is>
       </c>
       <c r="F270" t="n">
-        <v>2050</v>
+        <v>5.4</v>
       </c>
       <c r="G270" t="inlineStr">
         <is>
@@ -13316,12 +13316,12 @@
       </c>
       <c r="H270" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I270" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8218613&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8210090&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J270" t="inlineStr">
@@ -15976,7 +15976,7 @@
       </c>
       <c r="B326" t="inlineStr">
         <is>
-          <t>Parque Fotovoltaico Los Andes</t>
+          <t>CENTRO DE RECUPERACIÓN DE TAMBORES Y CONTENEDORES IBC CONTAMINADOS, PLAMBIENTAL LA NEGRA</t>
         </is>
       </c>
       <c r="C326" t="inlineStr">
@@ -15991,11 +15991,11 @@
       </c>
       <c r="E326" t="inlineStr">
         <is>
-          <t>Andes Solar SPA</t>
+          <t>VEOLIA SERVICIOS MINEROS INTEGRALES CHILE SpA</t>
         </is>
       </c>
       <c r="F326" t="n">
-        <v>572000</v>
+        <v>60</v>
       </c>
       <c r="G326" t="inlineStr">
         <is>
@@ -16004,12 +16004,12 @@
       </c>
       <c r="H326" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Caducado</t>
         </is>
       </c>
       <c r="I326" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6581267&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6592870&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J326" t="inlineStr">
@@ -16024,7 +16024,7 @@
       </c>
       <c r="B327" t="inlineStr">
         <is>
-          <t>CENTRO DE RECUPERACIÓN DE TAMBORES Y CONTENEDORES IBC CONTAMINADOS, PLAMBIENTAL LA NEGRA</t>
+          <t>CENTRO DE ALMACENAMIENTO DE RESIDUOS INDUSTRIALES, GESAM LA NEGRA</t>
         </is>
       </c>
       <c r="C327" t="inlineStr">
@@ -16043,7 +16043,7 @@
         </is>
       </c>
       <c r="F327" t="n">
-        <v>60</v>
+        <v>360</v>
       </c>
       <c r="G327" t="inlineStr">
         <is>
@@ -16057,7 +16057,7 @@
       </c>
       <c r="I327" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6592870&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6595234&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J327" t="inlineStr">
@@ -16072,7 +16072,7 @@
       </c>
       <c r="B328" t="inlineStr">
         <is>
-          <t>CENTRO DE ALMACENAMIENTO DE RESIDUOS INDUSTRIALES, GESAM LA NEGRA</t>
+          <t>Parque Fotovoltaico Los Andes</t>
         </is>
       </c>
       <c r="C328" t="inlineStr">
@@ -16087,11 +16087,11 @@
       </c>
       <c r="E328" t="inlineStr">
         <is>
-          <t>VEOLIA SERVICIOS MINEROS INTEGRALES CHILE SpA</t>
+          <t>Andes Solar SPA</t>
         </is>
       </c>
       <c r="F328" t="n">
-        <v>360</v>
+        <v>572000</v>
       </c>
       <c r="G328" t="inlineStr">
         <is>
@@ -16100,12 +16100,12 @@
       </c>
       <c r="H328" t="inlineStr">
         <is>
-          <t>Caducado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I328" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6595234&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6581267&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J328" t="inlineStr">
@@ -16264,7 +16264,7 @@
       </c>
       <c r="B332" t="inlineStr">
         <is>
-          <t>MODIFICACION DE LA DECLARACIÓN DE IMPACTO AMBIENTAL PROYECTO TRANSPORTE DE SULFHIDRATO DE SODIO EN LA PRIMERA Y SEGUNDA REGION</t>
+          <t>Transporte de Residuos Peligrosos</t>
         </is>
       </c>
       <c r="C332" t="inlineStr">
@@ -16279,11 +16279,11 @@
       </c>
       <c r="E332" t="inlineStr">
         <is>
-          <t>Sociedad de Transportes Camaro Ltda.</t>
+          <t>Transportes TMS Limitada</t>
         </is>
       </c>
       <c r="F332" t="n">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="G332" t="inlineStr">
         <is>
@@ -16297,7 +16297,7 @@
       </c>
       <c r="I332" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6450945&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6479568&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J332" t="inlineStr">
@@ -16312,7 +16312,7 @@
       </c>
       <c r="B333" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos</t>
+          <t>MODIFICACION DE LA DECLARACIÓN DE IMPACTO AMBIENTAL PROYECTO TRANSPORTE DE SULFHIDRATO DE SODIO EN LA PRIMERA Y SEGUNDA REGION</t>
         </is>
       </c>
       <c r="C333" t="inlineStr">
@@ -16327,11 +16327,11 @@
       </c>
       <c r="E333" t="inlineStr">
         <is>
-          <t>Transportes TMS Limitada</t>
+          <t>Sociedad de Transportes Camaro Ltda.</t>
         </is>
       </c>
       <c r="F333" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="G333" t="inlineStr">
         <is>
@@ -16345,7 +16345,7 @@
       </c>
       <c r="I333" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6479568&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6450945&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J333" t="inlineStr">
@@ -16936,7 +16936,7 @@
       </c>
       <c r="B346" t="inlineStr">
         <is>
-          <t>Extracción de Áridos Empréstito E17L</t>
+          <t>Modificación Proyecto Transporte de Acido Sulfurico a granel entre la Primera y Décima Regiones de Chile</t>
         </is>
       </c>
       <c r="C346" t="inlineStr">
@@ -16946,16 +16946,16 @@
       </c>
       <c r="D346" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E346" t="inlineStr">
         <is>
-          <t>Skanska Chile S.A.</t>
+          <t>Transportes Herrmann Limitada</t>
         </is>
       </c>
       <c r="F346" t="n">
-        <v>500</v>
+        <v>0</v>
       </c>
       <c r="G346" t="inlineStr">
         <is>
@@ -16964,12 +16964,12 @@
       </c>
       <c r="H346" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I346" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6156264&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6159602&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J346" t="inlineStr">
@@ -16984,7 +16984,7 @@
       </c>
       <c r="B347" t="inlineStr">
         <is>
-          <t>Modificación Proyecto Transporte de Acido Sulfurico a granel entre la Primera y Décima Regiones de Chile</t>
+          <t>Extracción de Áridos Empréstito E17L</t>
         </is>
       </c>
       <c r="C347" t="inlineStr">
@@ -16994,16 +16994,16 @@
       </c>
       <c r="D347" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E347" t="inlineStr">
         <is>
-          <t>Transportes Herrmann Limitada</t>
+          <t>Skanska Chile S.A.</t>
         </is>
       </c>
       <c r="F347" t="n">
-        <v>0</v>
+        <v>500</v>
       </c>
       <c r="G347" t="inlineStr">
         <is>
@@ -17012,12 +17012,12 @@
       </c>
       <c r="H347" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I347" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6159602&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6156264&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J347" t="inlineStr">
@@ -17464,7 +17464,7 @@
       </c>
       <c r="B357" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos</t>
+          <t>Nuevas Instalaciones para Mantención Mina</t>
         </is>
       </c>
       <c r="C357" t="inlineStr">
@@ -17474,16 +17474,16 @@
       </c>
       <c r="D357" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E357" t="inlineStr">
         <is>
-          <t>Transportes TMS Limitada</t>
+          <t>MINERA ESCONDIDA LIMITADA</t>
         </is>
       </c>
       <c r="F357" t="n">
-        <v>200</v>
+        <v>635000</v>
       </c>
       <c r="G357" t="inlineStr">
         <is>
@@ -17492,12 +17492,12 @@
       </c>
       <c r="H357" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I357" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6003582&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5931343&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J357" t="inlineStr">
@@ -17512,7 +17512,7 @@
       </c>
       <c r="B358" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas entre la I, II y III Regiones"</t>
+          <t>Transporte de Residuos Peligrosos</t>
         </is>
       </c>
       <c r="C358" t="inlineStr">
@@ -17527,11 +17527,11 @@
       </c>
       <c r="E358" t="inlineStr">
         <is>
-          <t>Molina Quimicos S.A.</t>
+          <t>Transportes TMS Limitada</t>
         </is>
       </c>
       <c r="F358" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="G358" t="inlineStr">
         <is>
@@ -17545,7 +17545,7 @@
       </c>
       <c r="I358" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6003607&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6003582&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J358" t="inlineStr">
@@ -17560,7 +17560,7 @@
       </c>
       <c r="B359" t="inlineStr">
         <is>
-          <t>Nuevas Instalaciones para Mantención Mina</t>
+          <t>Transporte de Sustancias Peligrosas entre la I, II y III Regiones"</t>
         </is>
       </c>
       <c r="C359" t="inlineStr">
@@ -17570,16 +17570,16 @@
       </c>
       <c r="D359" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E359" t="inlineStr">
         <is>
-          <t>MINERA ESCONDIDA LIMITADA</t>
+          <t>Molina Quimicos S.A.</t>
         </is>
       </c>
       <c r="F359" t="n">
-        <v>635000</v>
+        <v>100</v>
       </c>
       <c r="G359" t="inlineStr">
         <is>
@@ -17588,12 +17588,12 @@
       </c>
       <c r="H359" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I359" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5931343&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6003607&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J359" t="inlineStr">
@@ -19816,7 +19816,7 @@
       </c>
       <c r="B406" t="inlineStr">
         <is>
-          <t>"Transporte de acido sulfurico concentrado para minera Las Cenizas, Taltal."</t>
+          <t>II MODIFICACIÓN DIA "TRANSPORTE Y MANEJO IN SITU DE RESIDUOS SÓLIDOS Y LÍQUIDOS PELIGROSOS Y NO PELIGROSOS"</t>
         </is>
       </c>
       <c r="C406" t="inlineStr">
@@ -19826,16 +19826,16 @@
       </c>
       <c r="D406" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E406" t="inlineStr">
         <is>
-          <t>Translog S.A.</t>
+          <t>Mol Ambiente S.A.</t>
         </is>
       </c>
       <c r="F406" t="n">
-        <v>600</v>
+        <v>75000</v>
       </c>
       <c r="G406" t="inlineStr">
         <is>
@@ -19844,12 +19844,12 @@
       </c>
       <c r="H406" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I406" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5114868&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5118945&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J406" t="inlineStr">
@@ -19864,7 +19864,7 @@
       </c>
       <c r="B407" t="inlineStr">
         <is>
-          <t>II MODIFICACIÓN DIA "TRANSPORTE Y MANEJO IN SITU DE RESIDUOS SÓLIDOS Y LÍQUIDOS PELIGROSOS Y NO PELIGROSOS"</t>
+          <t>"Transporte de acido sulfurico concentrado para minera Las Cenizas, Taltal."</t>
         </is>
       </c>
       <c r="C407" t="inlineStr">
@@ -19874,16 +19874,16 @@
       </c>
       <c r="D407" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E407" t="inlineStr">
         <is>
-          <t>Mol Ambiente S.A.</t>
+          <t>Translog S.A.</t>
         </is>
       </c>
       <c r="F407" t="n">
-        <v>75000</v>
+        <v>600</v>
       </c>
       <c r="G407" t="inlineStr">
         <is>
@@ -19892,12 +19892,12 @@
       </c>
       <c r="H407" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I407" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5118945&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5114868&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J407" t="inlineStr">
@@ -21352,7 +21352,7 @@
       </c>
       <c r="B438" t="inlineStr">
         <is>
-          <t>Proyecto Laboratorios Químicos CIMM T&amp;S SA. La Negra</t>
+          <t>TRANSPORTE DE RESIDUOS PELIGROSOS POR RUTAS DE LA REGIÓN DE ANTOFAGASTA</t>
         </is>
       </c>
       <c r="C438" t="inlineStr">
@@ -21367,11 +21367,11 @@
       </c>
       <c r="E438" t="inlineStr">
         <is>
-          <t>Yancko Gonzalez Rozas</t>
+          <t>Limfosep S.A</t>
         </is>
       </c>
       <c r="F438" t="n">
-        <v>8000</v>
+        <v>1000</v>
       </c>
       <c r="G438" t="inlineStr">
         <is>
@@ -21380,12 +21380,12 @@
       </c>
       <c r="H438" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I438" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4670031&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4698232&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J438" t="inlineStr">
@@ -21400,7 +21400,7 @@
       </c>
       <c r="B439" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE RESIDUOS PELIGROSOS POR RUTAS DE LA REGIÓN DE ANTOFAGASTA</t>
+          <t>Proyecto Laboratorios Químicos CIMM T&amp;S SA. La Negra</t>
         </is>
       </c>
       <c r="C439" t="inlineStr">
@@ -21415,11 +21415,11 @@
       </c>
       <c r="E439" t="inlineStr">
         <is>
-          <t>Limfosep S.A</t>
+          <t>Yancko Gonzalez Rozas</t>
         </is>
       </c>
       <c r="F439" t="n">
-        <v>1000</v>
+        <v>8000</v>
       </c>
       <c r="G439" t="inlineStr">
         <is>
@@ -21428,12 +21428,12 @@
       </c>
       <c r="H439" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I439" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4698232&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4670031&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J439" t="inlineStr">
@@ -21832,7 +21832,7 @@
       </c>
       <c r="B448" t="inlineStr">
         <is>
-          <t>Nuevo Transporte Interregional de Cianuro de Sodio</t>
+          <t>EXPANSION DEPOSITO DE RELAVES FILTRADOS FAENA EL PEÑÓN</t>
         </is>
       </c>
       <c r="C448" t="inlineStr">
@@ -21842,16 +21842,16 @@
       </c>
       <c r="D448" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E448" t="inlineStr">
         <is>
-          <t>OXIQUIM S.A.</t>
+          <t>Minera Meridian Limitada</t>
         </is>
       </c>
       <c r="F448" t="n">
-        <v>85</v>
+        <v>688</v>
       </c>
       <c r="G448" t="inlineStr">
         <is>
@@ -21860,12 +21860,12 @@
       </c>
       <c r="H448" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I448" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4594007&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4601640&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J448" t="inlineStr">
@@ -21880,7 +21880,7 @@
       </c>
       <c r="B449" t="inlineStr">
         <is>
-          <t>EXPANSION DEPOSITO DE RELAVES FILTRADOS FAENA EL PEÑÓN</t>
+          <t>Nuevo Transporte Interregional de Cianuro de Sodio</t>
         </is>
       </c>
       <c r="C449" t="inlineStr">
@@ -21890,16 +21890,16 @@
       </c>
       <c r="D449" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E449" t="inlineStr">
         <is>
-          <t>Minera Meridian Limitada</t>
+          <t>OXIQUIM S.A.</t>
         </is>
       </c>
       <c r="F449" t="n">
-        <v>688</v>
+        <v>85</v>
       </c>
       <c r="G449" t="inlineStr">
         <is>
@@ -21908,12 +21908,12 @@
       </c>
       <c r="H449" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I449" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4601640&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4594007&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J449" t="inlineStr">
@@ -22648,7 +22648,7 @@
       </c>
       <c r="B465" t="inlineStr">
         <is>
-          <t>Transporte de Barros Anódicos</t>
+          <t>Transporte de Residuos Peligroso, Transporte Bello</t>
         </is>
       </c>
       <c r="C465" t="inlineStr">
@@ -22663,11 +22663,11 @@
       </c>
       <c r="E465" t="inlineStr">
         <is>
-          <t>CODELCO CHILE</t>
+          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
         </is>
       </c>
       <c r="F465" t="n">
-        <v>0</v>
+        <v>4050</v>
       </c>
       <c r="G465" t="inlineStr">
         <is>
@@ -22681,7 +22681,7 @@
       </c>
       <c r="I465" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4429880&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4455518&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J465" t="inlineStr">
@@ -22696,7 +22696,7 @@
       </c>
       <c r="B466" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligroso, Transporte Bello</t>
+          <t>Transporte de Barros Anódicos</t>
         </is>
       </c>
       <c r="C466" t="inlineStr">
@@ -22711,11 +22711,11 @@
       </c>
       <c r="E466" t="inlineStr">
         <is>
-          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
+          <t>CODELCO CHILE</t>
         </is>
       </c>
       <c r="F466" t="n">
-        <v>4050</v>
+        <v>0</v>
       </c>
       <c r="G466" t="inlineStr">
         <is>
@@ -22729,7 +22729,7 @@
       </c>
       <c r="I466" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4455518&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4429880&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J466" t="inlineStr">
@@ -22840,7 +22840,7 @@
       </c>
       <c r="B469" t="inlineStr">
         <is>
-          <t>Transporte y Almacenamiento temporal de Residuos Peligrosos M&amp;M ltda.</t>
+          <t>Modificacion Proyecto Minero Algorta Sector Pampa</t>
         </is>
       </c>
       <c r="C469" t="inlineStr">
@@ -22850,16 +22850,16 @@
       </c>
       <c r="D469" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E469" t="inlineStr">
         <is>
-          <t>Transportes Moscoso y Moscoso Ltda.</t>
+          <t>Algorta Norte S.A</t>
         </is>
       </c>
       <c r="F469" t="n">
-        <v>41075</v>
+        <v>6400</v>
       </c>
       <c r="G469" t="inlineStr">
         <is>
@@ -22873,7 +22873,7 @@
       </c>
       <c r="I469" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4422237&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4432700&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J469" t="inlineStr">
@@ -22888,7 +22888,7 @@
       </c>
       <c r="B470" t="inlineStr">
         <is>
-          <t>Modificacion Proyecto Minero Algorta Sector Pampa</t>
+          <t>Transporte y Almacenamiento temporal de Residuos Peligrosos M&amp;M ltda.</t>
         </is>
       </c>
       <c r="C470" t="inlineStr">
@@ -22898,16 +22898,16 @@
       </c>
       <c r="D470" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E470" t="inlineStr">
         <is>
-          <t>Algorta Norte S.A</t>
+          <t>Transportes Moscoso y Moscoso Ltda.</t>
         </is>
       </c>
       <c r="F470" t="n">
-        <v>6400</v>
+        <v>41075</v>
       </c>
       <c r="G470" t="inlineStr">
         <is>
@@ -22921,7 +22921,7 @@
       </c>
       <c r="I470" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4432700&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4422237&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J470" t="inlineStr">
@@ -24376,7 +24376,7 @@
       </c>
       <c r="B501" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos CMR Norte (e-seia)</t>
+          <t>Proyecto Tratamiento de Polvos Metalurgicos de Otras Fundiciones (e-seia)</t>
         </is>
       </c>
       <c r="C501" t="inlineStr">
@@ -24391,11 +24391,11 @@
       </c>
       <c r="E501" t="inlineStr">
         <is>
-          <t>Soluciones Ambientales del Norte S. A.</t>
+          <t>Complejo Metalurgico Altonorte S.A.</t>
         </is>
       </c>
       <c r="F501" t="n">
-        <v>250</v>
+        <v>320</v>
       </c>
       <c r="G501" t="inlineStr">
         <is>
@@ -24409,7 +24409,7 @@
       </c>
       <c r="I501" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4063042&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4061206&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J501" t="inlineStr">

--- a/data/Antofagasta.xlsx
+++ b/data/Antofagasta.xlsx
@@ -11512,7 +11512,7 @@
       </c>
       <c r="B233" t="inlineStr">
         <is>
-          <t>Planta de Fabricación de Tuberías PEX (polietileno reticulado)</t>
+          <t>Transporte Interregional de Sustancias Peligrosas - AGREDUCAM VI Región</t>
         </is>
       </c>
       <c r="C233" t="inlineStr">
@@ -11522,16 +11522,16 @@
       </c>
       <c r="D233" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E233" t="inlineStr">
         <is>
-          <t>CROSSPIPE SYSTEMS S.A.</t>
+          <t>Asociación Gremial de Dueños de Camiones de la Sexta Región</t>
         </is>
       </c>
       <c r="F233" t="n">
-        <v>12400</v>
+        <v>1200</v>
       </c>
       <c r="G233" t="inlineStr">
         <is>
@@ -11545,7 +11545,7 @@
       </c>
       <c r="I233" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128954293&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128964620&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J233" t="inlineStr">
@@ -11560,7 +11560,7 @@
       </c>
       <c r="B234" t="inlineStr">
         <is>
-          <t>Transporte Interregional de Sustancias Peligrosas - AGREDUCAM VI Región</t>
+          <t>Transporte de Residuos Peligrosos por las Rutas Indicadas</t>
         </is>
       </c>
       <c r="C234" t="inlineStr">
@@ -11575,11 +11575,11 @@
       </c>
       <c r="E234" t="inlineStr">
         <is>
-          <t>Asociación Gremial de Dueños de Camiones de la Sexta Región</t>
+          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
         </is>
       </c>
       <c r="F234" t="n">
-        <v>1200</v>
+        <v>0</v>
       </c>
       <c r="G234" t="inlineStr">
         <is>
@@ -11593,7 +11593,7 @@
       </c>
       <c r="I234" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128964620&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128972489&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J234" t="inlineStr">
@@ -11608,7 +11608,7 @@
       </c>
       <c r="B235" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos por las Rutas Indicadas</t>
+          <t>Planta de Fabricación de Tuberías PEX (polietileno reticulado)</t>
         </is>
       </c>
       <c r="C235" t="inlineStr">
@@ -11618,16 +11618,16 @@
       </c>
       <c r="D235" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E235" t="inlineStr">
         <is>
-          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
+          <t>CROSSPIPE SYSTEMS S.A.</t>
         </is>
       </c>
       <c r="F235" t="n">
-        <v>0</v>
+        <v>12400</v>
       </c>
       <c r="G235" t="inlineStr">
         <is>
@@ -11641,7 +11641,7 @@
       </c>
       <c r="I235" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128972489&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128954293&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J235" t="inlineStr">
@@ -13240,26 +13240,26 @@
       </c>
       <c r="B269" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas Transaltisa Chile Ltda</t>
+          <t>RT Sulfuros</t>
         </is>
       </c>
       <c r="C269" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D269" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E269" t="inlineStr">
         <is>
-          <t>Transaltisa Chile Ltda.</t>
+          <t>CODELCO Chile, División Radomiro Tomic</t>
         </is>
       </c>
       <c r="F269" t="n">
-        <v>2050</v>
+        <v>5.4</v>
       </c>
       <c r="G269" t="inlineStr">
         <is>
@@ -13268,12 +13268,12 @@
       </c>
       <c r="H269" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I269" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8218613&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8210090&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J269" t="inlineStr">
@@ -13288,26 +13288,26 @@
       </c>
       <c r="B270" t="inlineStr">
         <is>
-          <t>RT Sulfuros</t>
+          <t>Transporte de Sustancias Peligrosas Transaltisa Chile Ltda</t>
         </is>
       </c>
       <c r="C270" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D270" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E270" t="inlineStr">
         <is>
-          <t>CODELCO Chile, División Radomiro Tomic</t>
+          <t>Transaltisa Chile Ltda.</t>
         </is>
       </c>
       <c r="F270" t="n">
-        <v>5.4</v>
+        <v>2050</v>
       </c>
       <c r="G270" t="inlineStr">
         <is>
@@ -13316,12 +13316,12 @@
       </c>
       <c r="H270" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I270" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8210090&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8218613&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J270" t="inlineStr">
@@ -15976,7 +15976,7 @@
       </c>
       <c r="B326" t="inlineStr">
         <is>
-          <t>CENTRO DE RECUPERACIÓN DE TAMBORES Y CONTENEDORES IBC CONTAMINADOS, PLAMBIENTAL LA NEGRA</t>
+          <t>Parque Fotovoltaico Los Andes</t>
         </is>
       </c>
       <c r="C326" t="inlineStr">
@@ -15991,11 +15991,11 @@
       </c>
       <c r="E326" t="inlineStr">
         <is>
-          <t>VEOLIA SERVICIOS MINEROS INTEGRALES CHILE SpA</t>
+          <t>Andes Solar SPA</t>
         </is>
       </c>
       <c r="F326" t="n">
-        <v>60</v>
+        <v>572000</v>
       </c>
       <c r="G326" t="inlineStr">
         <is>
@@ -16004,12 +16004,12 @@
       </c>
       <c r="H326" t="inlineStr">
         <is>
-          <t>Caducado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I326" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6592870&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6581267&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J326" t="inlineStr">
@@ -16024,7 +16024,7 @@
       </c>
       <c r="B327" t="inlineStr">
         <is>
-          <t>CENTRO DE ALMACENAMIENTO DE RESIDUOS INDUSTRIALES, GESAM LA NEGRA</t>
+          <t>CENTRO DE RECUPERACIÓN DE TAMBORES Y CONTENEDORES IBC CONTAMINADOS, PLAMBIENTAL LA NEGRA</t>
         </is>
       </c>
       <c r="C327" t="inlineStr">
@@ -16043,7 +16043,7 @@
         </is>
       </c>
       <c r="F327" t="n">
-        <v>360</v>
+        <v>60</v>
       </c>
       <c r="G327" t="inlineStr">
         <is>
@@ -16057,7 +16057,7 @@
       </c>
       <c r="I327" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6595234&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6592870&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J327" t="inlineStr">
@@ -16072,7 +16072,7 @@
       </c>
       <c r="B328" t="inlineStr">
         <is>
-          <t>Parque Fotovoltaico Los Andes</t>
+          <t>CENTRO DE ALMACENAMIENTO DE RESIDUOS INDUSTRIALES, GESAM LA NEGRA</t>
         </is>
       </c>
       <c r="C328" t="inlineStr">
@@ -16087,11 +16087,11 @@
       </c>
       <c r="E328" t="inlineStr">
         <is>
-          <t>Andes Solar SPA</t>
+          <t>VEOLIA SERVICIOS MINEROS INTEGRALES CHILE SpA</t>
         </is>
       </c>
       <c r="F328" t="n">
-        <v>572000</v>
+        <v>360</v>
       </c>
       <c r="G328" t="inlineStr">
         <is>
@@ -16100,12 +16100,12 @@
       </c>
       <c r="H328" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Caducado</t>
         </is>
       </c>
       <c r="I328" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6581267&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6595234&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J328" t="inlineStr">
@@ -16264,7 +16264,7 @@
       </c>
       <c r="B332" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos</t>
+          <t>MODIFICACION DE LA DECLARACIÓN DE IMPACTO AMBIENTAL PROYECTO TRANSPORTE DE SULFHIDRATO DE SODIO EN LA PRIMERA Y SEGUNDA REGION</t>
         </is>
       </c>
       <c r="C332" t="inlineStr">
@@ -16279,11 +16279,11 @@
       </c>
       <c r="E332" t="inlineStr">
         <is>
-          <t>Transportes TMS Limitada</t>
+          <t>Sociedad de Transportes Camaro Ltda.</t>
         </is>
       </c>
       <c r="F332" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="G332" t="inlineStr">
         <is>
@@ -16297,7 +16297,7 @@
       </c>
       <c r="I332" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6479568&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6450945&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J332" t="inlineStr">
@@ -16312,7 +16312,7 @@
       </c>
       <c r="B333" t="inlineStr">
         <is>
-          <t>MODIFICACION DE LA DECLARACIÓN DE IMPACTO AMBIENTAL PROYECTO TRANSPORTE DE SULFHIDRATO DE SODIO EN LA PRIMERA Y SEGUNDA REGION</t>
+          <t>Transporte de Residuos Peligrosos</t>
         </is>
       </c>
       <c r="C333" t="inlineStr">
@@ -16327,11 +16327,11 @@
       </c>
       <c r="E333" t="inlineStr">
         <is>
-          <t>Sociedad de Transportes Camaro Ltda.</t>
+          <t>Transportes TMS Limitada</t>
         </is>
       </c>
       <c r="F333" t="n">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="G333" t="inlineStr">
         <is>
@@ -16345,7 +16345,7 @@
       </c>
       <c r="I333" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6450945&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6479568&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J333" t="inlineStr">
@@ -16936,7 +16936,7 @@
       </c>
       <c r="B346" t="inlineStr">
         <is>
-          <t>Modificación Proyecto Transporte de Acido Sulfurico a granel entre la Primera y Décima Regiones de Chile</t>
+          <t>Extracción de Áridos Empréstito E17L</t>
         </is>
       </c>
       <c r="C346" t="inlineStr">
@@ -16946,16 +16946,16 @@
       </c>
       <c r="D346" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E346" t="inlineStr">
         <is>
-          <t>Transportes Herrmann Limitada</t>
+          <t>Skanska Chile S.A.</t>
         </is>
       </c>
       <c r="F346" t="n">
-        <v>0</v>
+        <v>500</v>
       </c>
       <c r="G346" t="inlineStr">
         <is>
@@ -16964,12 +16964,12 @@
       </c>
       <c r="H346" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I346" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6159602&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6156264&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J346" t="inlineStr">
@@ -16984,7 +16984,7 @@
       </c>
       <c r="B347" t="inlineStr">
         <is>
-          <t>Extracción de Áridos Empréstito E17L</t>
+          <t>Modificación Proyecto Transporte de Acido Sulfurico a granel entre la Primera y Décima Regiones de Chile</t>
         </is>
       </c>
       <c r="C347" t="inlineStr">
@@ -16994,16 +16994,16 @@
       </c>
       <c r="D347" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E347" t="inlineStr">
         <is>
-          <t>Skanska Chile S.A.</t>
+          <t>Transportes Herrmann Limitada</t>
         </is>
       </c>
       <c r="F347" t="n">
-        <v>500</v>
+        <v>0</v>
       </c>
       <c r="G347" t="inlineStr">
         <is>
@@ -17012,12 +17012,12 @@
       </c>
       <c r="H347" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I347" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6156264&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6159602&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J347" t="inlineStr">
@@ -17464,7 +17464,7 @@
       </c>
       <c r="B357" t="inlineStr">
         <is>
-          <t>Nuevas Instalaciones para Mantención Mina</t>
+          <t>Transporte de Residuos Peligrosos</t>
         </is>
       </c>
       <c r="C357" t="inlineStr">
@@ -17474,16 +17474,16 @@
       </c>
       <c r="D357" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E357" t="inlineStr">
         <is>
-          <t>MINERA ESCONDIDA LIMITADA</t>
+          <t>Transportes TMS Limitada</t>
         </is>
       </c>
       <c r="F357" t="n">
-        <v>635000</v>
+        <v>200</v>
       </c>
       <c r="G357" t="inlineStr">
         <is>
@@ -17492,12 +17492,12 @@
       </c>
       <c r="H357" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I357" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5931343&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6003582&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J357" t="inlineStr">
@@ -17512,7 +17512,7 @@
       </c>
       <c r="B358" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos</t>
+          <t>Transporte de Sustancias Peligrosas entre la I, II y III Regiones"</t>
         </is>
       </c>
       <c r="C358" t="inlineStr">
@@ -17527,11 +17527,11 @@
       </c>
       <c r="E358" t="inlineStr">
         <is>
-          <t>Transportes TMS Limitada</t>
+          <t>Molina Quimicos S.A.</t>
         </is>
       </c>
       <c r="F358" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="G358" t="inlineStr">
         <is>
@@ -17545,7 +17545,7 @@
       </c>
       <c r="I358" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6003582&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6003607&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J358" t="inlineStr">
@@ -17560,7 +17560,7 @@
       </c>
       <c r="B359" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas entre la I, II y III Regiones"</t>
+          <t>Nuevas Instalaciones para Mantención Mina</t>
         </is>
       </c>
       <c r="C359" t="inlineStr">
@@ -17570,16 +17570,16 @@
       </c>
       <c r="D359" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E359" t="inlineStr">
         <is>
-          <t>Molina Quimicos S.A.</t>
+          <t>MINERA ESCONDIDA LIMITADA</t>
         </is>
       </c>
       <c r="F359" t="n">
-        <v>100</v>
+        <v>635000</v>
       </c>
       <c r="G359" t="inlineStr">
         <is>
@@ -17588,12 +17588,12 @@
       </c>
       <c r="H359" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I359" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6003607&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5931343&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J359" t="inlineStr">
@@ -19816,7 +19816,7 @@
       </c>
       <c r="B406" t="inlineStr">
         <is>
-          <t>II MODIFICACIÓN DIA "TRANSPORTE Y MANEJO IN SITU DE RESIDUOS SÓLIDOS Y LÍQUIDOS PELIGROSOS Y NO PELIGROSOS"</t>
+          <t>"Transporte de acido sulfurico concentrado para minera Las Cenizas, Taltal."</t>
         </is>
       </c>
       <c r="C406" t="inlineStr">
@@ -19826,16 +19826,16 @@
       </c>
       <c r="D406" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E406" t="inlineStr">
         <is>
-          <t>Mol Ambiente S.A.</t>
+          <t>Translog S.A.</t>
         </is>
       </c>
       <c r="F406" t="n">
-        <v>75000</v>
+        <v>600</v>
       </c>
       <c r="G406" t="inlineStr">
         <is>
@@ -19844,12 +19844,12 @@
       </c>
       <c r="H406" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I406" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5118945&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5114868&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J406" t="inlineStr">
@@ -19864,7 +19864,7 @@
       </c>
       <c r="B407" t="inlineStr">
         <is>
-          <t>"Transporte de acido sulfurico concentrado para minera Las Cenizas, Taltal."</t>
+          <t>II MODIFICACIÓN DIA "TRANSPORTE Y MANEJO IN SITU DE RESIDUOS SÓLIDOS Y LÍQUIDOS PELIGROSOS Y NO PELIGROSOS"</t>
         </is>
       </c>
       <c r="C407" t="inlineStr">
@@ -19874,16 +19874,16 @@
       </c>
       <c r="D407" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E407" t="inlineStr">
         <is>
-          <t>Translog S.A.</t>
+          <t>Mol Ambiente S.A.</t>
         </is>
       </c>
       <c r="F407" t="n">
-        <v>600</v>
+        <v>75000</v>
       </c>
       <c r="G407" t="inlineStr">
         <is>
@@ -19892,12 +19892,12 @@
       </c>
       <c r="H407" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I407" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5114868&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5118945&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J407" t="inlineStr">
@@ -21352,7 +21352,7 @@
       </c>
       <c r="B438" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE RESIDUOS PELIGROSOS POR RUTAS DE LA REGIÓN DE ANTOFAGASTA</t>
+          <t>Proyecto Laboratorios Químicos CIMM T&amp;S SA. La Negra</t>
         </is>
       </c>
       <c r="C438" t="inlineStr">
@@ -21367,11 +21367,11 @@
       </c>
       <c r="E438" t="inlineStr">
         <is>
-          <t>Limfosep S.A</t>
+          <t>Yancko Gonzalez Rozas</t>
         </is>
       </c>
       <c r="F438" t="n">
-        <v>1000</v>
+        <v>8000</v>
       </c>
       <c r="G438" t="inlineStr">
         <is>
@@ -21380,12 +21380,12 @@
       </c>
       <c r="H438" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I438" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4698232&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4670031&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J438" t="inlineStr">
@@ -21400,7 +21400,7 @@
       </c>
       <c r="B439" t="inlineStr">
         <is>
-          <t>Proyecto Laboratorios Químicos CIMM T&amp;S SA. La Negra</t>
+          <t>TRANSPORTE DE RESIDUOS PELIGROSOS POR RUTAS DE LA REGIÓN DE ANTOFAGASTA</t>
         </is>
       </c>
       <c r="C439" t="inlineStr">
@@ -21415,11 +21415,11 @@
       </c>
       <c r="E439" t="inlineStr">
         <is>
-          <t>Yancko Gonzalez Rozas</t>
+          <t>Limfosep S.A</t>
         </is>
       </c>
       <c r="F439" t="n">
-        <v>8000</v>
+        <v>1000</v>
       </c>
       <c r="G439" t="inlineStr">
         <is>
@@ -21428,12 +21428,12 @@
       </c>
       <c r="H439" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I439" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4670031&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4698232&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J439" t="inlineStr">
@@ -21832,7 +21832,7 @@
       </c>
       <c r="B448" t="inlineStr">
         <is>
-          <t>EXPANSION DEPOSITO DE RELAVES FILTRADOS FAENA EL PEÑÓN</t>
+          <t>Nuevo Transporte Interregional de Cianuro de Sodio</t>
         </is>
       </c>
       <c r="C448" t="inlineStr">
@@ -21842,16 +21842,16 @@
       </c>
       <c r="D448" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E448" t="inlineStr">
         <is>
-          <t>Minera Meridian Limitada</t>
+          <t>OXIQUIM S.A.</t>
         </is>
       </c>
       <c r="F448" t="n">
-        <v>688</v>
+        <v>85</v>
       </c>
       <c r="G448" t="inlineStr">
         <is>
@@ -21860,12 +21860,12 @@
       </c>
       <c r="H448" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I448" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4601640&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4594007&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J448" t="inlineStr">
@@ -21880,7 +21880,7 @@
       </c>
       <c r="B449" t="inlineStr">
         <is>
-          <t>Nuevo Transporte Interregional de Cianuro de Sodio</t>
+          <t>EXPANSION DEPOSITO DE RELAVES FILTRADOS FAENA EL PEÑÓN</t>
         </is>
       </c>
       <c r="C449" t="inlineStr">
@@ -21890,16 +21890,16 @@
       </c>
       <c r="D449" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E449" t="inlineStr">
         <is>
-          <t>OXIQUIM S.A.</t>
+          <t>Minera Meridian Limitada</t>
         </is>
       </c>
       <c r="F449" t="n">
-        <v>85</v>
+        <v>688</v>
       </c>
       <c r="G449" t="inlineStr">
         <is>
@@ -21908,12 +21908,12 @@
       </c>
       <c r="H449" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I449" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4594007&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4601640&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J449" t="inlineStr">
@@ -22648,7 +22648,7 @@
       </c>
       <c r="B465" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligroso, Transporte Bello</t>
+          <t>Transporte de Barros Anódicos</t>
         </is>
       </c>
       <c r="C465" t="inlineStr">
@@ -22663,11 +22663,11 @@
       </c>
       <c r="E465" t="inlineStr">
         <is>
-          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
+          <t>CODELCO CHILE</t>
         </is>
       </c>
       <c r="F465" t="n">
-        <v>4050</v>
+        <v>0</v>
       </c>
       <c r="G465" t="inlineStr">
         <is>
@@ -22681,7 +22681,7 @@
       </c>
       <c r="I465" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4455518&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4429880&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J465" t="inlineStr">
@@ -22696,7 +22696,7 @@
       </c>
       <c r="B466" t="inlineStr">
         <is>
-          <t>Transporte de Barros Anódicos</t>
+          <t>Transporte de Residuos Peligroso, Transporte Bello</t>
         </is>
       </c>
       <c r="C466" t="inlineStr">
@@ -22711,11 +22711,11 @@
       </c>
       <c r="E466" t="inlineStr">
         <is>
-          <t>CODELCO CHILE</t>
+          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
         </is>
       </c>
       <c r="F466" t="n">
-        <v>0</v>
+        <v>4050</v>
       </c>
       <c r="G466" t="inlineStr">
         <is>
@@ -22729,7 +22729,7 @@
       </c>
       <c r="I466" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4429880&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4455518&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J466" t="inlineStr">
@@ -22840,7 +22840,7 @@
       </c>
       <c r="B469" t="inlineStr">
         <is>
-          <t>Modificacion Proyecto Minero Algorta Sector Pampa</t>
+          <t>Transporte y Almacenamiento temporal de Residuos Peligrosos M&amp;M ltda.</t>
         </is>
       </c>
       <c r="C469" t="inlineStr">
@@ -22850,16 +22850,16 @@
       </c>
       <c r="D469" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E469" t="inlineStr">
         <is>
-          <t>Algorta Norte S.A</t>
+          <t>Transportes Moscoso y Moscoso Ltda.</t>
         </is>
       </c>
       <c r="F469" t="n">
-        <v>6400</v>
+        <v>41075</v>
       </c>
       <c r="G469" t="inlineStr">
         <is>
@@ -22873,7 +22873,7 @@
       </c>
       <c r="I469" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4432700&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4422237&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J469" t="inlineStr">
@@ -22888,7 +22888,7 @@
       </c>
       <c r="B470" t="inlineStr">
         <is>
-          <t>Transporte y Almacenamiento temporal de Residuos Peligrosos M&amp;M ltda.</t>
+          <t>Modificacion Proyecto Minero Algorta Sector Pampa</t>
         </is>
       </c>
       <c r="C470" t="inlineStr">
@@ -22898,16 +22898,16 @@
       </c>
       <c r="D470" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E470" t="inlineStr">
         <is>
-          <t>Transportes Moscoso y Moscoso Ltda.</t>
+          <t>Algorta Norte S.A</t>
         </is>
       </c>
       <c r="F470" t="n">
-        <v>41075</v>
+        <v>6400</v>
       </c>
       <c r="G470" t="inlineStr">
         <is>
@@ -22921,7 +22921,7 @@
       </c>
       <c r="I470" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4422237&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4432700&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J470" t="inlineStr">
@@ -24376,7 +24376,7 @@
       </c>
       <c r="B501" t="inlineStr">
         <is>
-          <t>Proyecto Tratamiento de Polvos Metalurgicos de Otras Fundiciones (e-seia)</t>
+          <t>Transporte de Residuos Peligrosos CMR Norte (e-seia)</t>
         </is>
       </c>
       <c r="C501" t="inlineStr">
@@ -24391,11 +24391,11 @@
       </c>
       <c r="E501" t="inlineStr">
         <is>
-          <t>Complejo Metalurgico Altonorte S.A.</t>
+          <t>Soluciones Ambientales del Norte S. A.</t>
         </is>
       </c>
       <c r="F501" t="n">
-        <v>320</v>
+        <v>250</v>
       </c>
       <c r="G501" t="inlineStr">
         <is>
@@ -24409,7 +24409,7 @@
       </c>
       <c r="I501" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4061206&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4063042&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J501" t="inlineStr">

--- a/data/Antofagasta.xlsx
+++ b/data/Antofagasta.xlsx
@@ -11512,7 +11512,7 @@
       </c>
       <c r="B233" t="inlineStr">
         <is>
-          <t>Transporte Interregional de Sustancias Peligrosas - AGREDUCAM VI Región</t>
+          <t>Planta de Fabricación de Tuberías PEX (polietileno reticulado)</t>
         </is>
       </c>
       <c r="C233" t="inlineStr">
@@ -11522,16 +11522,16 @@
       </c>
       <c r="D233" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E233" t="inlineStr">
         <is>
-          <t>Asociación Gremial de Dueños de Camiones de la Sexta Región</t>
+          <t>CROSSPIPE SYSTEMS S.A.</t>
         </is>
       </c>
       <c r="F233" t="n">
-        <v>1200</v>
+        <v>12400</v>
       </c>
       <c r="G233" t="inlineStr">
         <is>
@@ -11545,7 +11545,7 @@
       </c>
       <c r="I233" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128964620&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128954293&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J233" t="inlineStr">
@@ -11560,7 +11560,7 @@
       </c>
       <c r="B234" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos por las Rutas Indicadas</t>
+          <t>Transporte Interregional de Sustancias Peligrosas - AGREDUCAM VI Región</t>
         </is>
       </c>
       <c r="C234" t="inlineStr">
@@ -11575,11 +11575,11 @@
       </c>
       <c r="E234" t="inlineStr">
         <is>
-          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
+          <t>Asociación Gremial de Dueños de Camiones de la Sexta Región</t>
         </is>
       </c>
       <c r="F234" t="n">
-        <v>0</v>
+        <v>1200</v>
       </c>
       <c r="G234" t="inlineStr">
         <is>
@@ -11593,7 +11593,7 @@
       </c>
       <c r="I234" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128972489&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128964620&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J234" t="inlineStr">
@@ -11608,7 +11608,7 @@
       </c>
       <c r="B235" t="inlineStr">
         <is>
-          <t>Planta de Fabricación de Tuberías PEX (polietileno reticulado)</t>
+          <t>Transporte de Residuos Peligrosos por las Rutas Indicadas</t>
         </is>
       </c>
       <c r="C235" t="inlineStr">
@@ -11618,16 +11618,16 @@
       </c>
       <c r="D235" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E235" t="inlineStr">
         <is>
-          <t>CROSSPIPE SYSTEMS S.A.</t>
+          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
         </is>
       </c>
       <c r="F235" t="n">
-        <v>12400</v>
+        <v>0</v>
       </c>
       <c r="G235" t="inlineStr">
         <is>
@@ -11641,7 +11641,7 @@
       </c>
       <c r="I235" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128954293&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128972489&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J235" t="inlineStr">
@@ -13240,26 +13240,26 @@
       </c>
       <c r="B269" t="inlineStr">
         <is>
-          <t>RT Sulfuros</t>
+          <t>Transporte de Sustancias Peligrosas Transaltisa Chile Ltda</t>
         </is>
       </c>
       <c r="C269" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D269" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E269" t="inlineStr">
         <is>
-          <t>CODELCO Chile, División Radomiro Tomic</t>
+          <t>Transaltisa Chile Ltda.</t>
         </is>
       </c>
       <c r="F269" t="n">
-        <v>5.4</v>
+        <v>2050</v>
       </c>
       <c r="G269" t="inlineStr">
         <is>
@@ -13268,12 +13268,12 @@
       </c>
       <c r="H269" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I269" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8210090&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8218613&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J269" t="inlineStr">
@@ -13288,26 +13288,26 @@
       </c>
       <c r="B270" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas Transaltisa Chile Ltda</t>
+          <t>RT Sulfuros</t>
         </is>
       </c>
       <c r="C270" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D270" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E270" t="inlineStr">
         <is>
-          <t>Transaltisa Chile Ltda.</t>
+          <t>CODELCO Chile, División Radomiro Tomic</t>
         </is>
       </c>
       <c r="F270" t="n">
-        <v>2050</v>
+        <v>5.4</v>
       </c>
       <c r="G270" t="inlineStr">
         <is>
@@ -13316,12 +13316,12 @@
       </c>
       <c r="H270" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I270" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8218613&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8210090&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J270" t="inlineStr">
@@ -15976,7 +15976,7 @@
       </c>
       <c r="B326" t="inlineStr">
         <is>
-          <t>Parque Fotovoltaico Los Andes</t>
+          <t>CENTRO DE RECUPERACIÓN DE TAMBORES Y CONTENEDORES IBC CONTAMINADOS, PLAMBIENTAL LA NEGRA</t>
         </is>
       </c>
       <c r="C326" t="inlineStr">
@@ -15991,11 +15991,11 @@
       </c>
       <c r="E326" t="inlineStr">
         <is>
-          <t>Andes Solar SPA</t>
+          <t>VEOLIA SERVICIOS MINEROS INTEGRALES CHILE SpA</t>
         </is>
       </c>
       <c r="F326" t="n">
-        <v>572000</v>
+        <v>60</v>
       </c>
       <c r="G326" t="inlineStr">
         <is>
@@ -16004,12 +16004,12 @@
       </c>
       <c r="H326" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Caducado</t>
         </is>
       </c>
       <c r="I326" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6581267&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6592870&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J326" t="inlineStr">
@@ -16024,7 +16024,7 @@
       </c>
       <c r="B327" t="inlineStr">
         <is>
-          <t>CENTRO DE RECUPERACIÓN DE TAMBORES Y CONTENEDORES IBC CONTAMINADOS, PLAMBIENTAL LA NEGRA</t>
+          <t>CENTRO DE ALMACENAMIENTO DE RESIDUOS INDUSTRIALES, GESAM LA NEGRA</t>
         </is>
       </c>
       <c r="C327" t="inlineStr">
@@ -16043,7 +16043,7 @@
         </is>
       </c>
       <c r="F327" t="n">
-        <v>60</v>
+        <v>360</v>
       </c>
       <c r="G327" t="inlineStr">
         <is>
@@ -16057,7 +16057,7 @@
       </c>
       <c r="I327" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6592870&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6595234&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J327" t="inlineStr">
@@ -16072,7 +16072,7 @@
       </c>
       <c r="B328" t="inlineStr">
         <is>
-          <t>CENTRO DE ALMACENAMIENTO DE RESIDUOS INDUSTRIALES, GESAM LA NEGRA</t>
+          <t>Parque Fotovoltaico Los Andes</t>
         </is>
       </c>
       <c r="C328" t="inlineStr">
@@ -16087,11 +16087,11 @@
       </c>
       <c r="E328" t="inlineStr">
         <is>
-          <t>VEOLIA SERVICIOS MINEROS INTEGRALES CHILE SpA</t>
+          <t>Andes Solar SPA</t>
         </is>
       </c>
       <c r="F328" t="n">
-        <v>360</v>
+        <v>572000</v>
       </c>
       <c r="G328" t="inlineStr">
         <is>
@@ -16100,12 +16100,12 @@
       </c>
       <c r="H328" t="inlineStr">
         <is>
-          <t>Caducado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I328" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6595234&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6581267&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J328" t="inlineStr">
@@ -16264,7 +16264,7 @@
       </c>
       <c r="B332" t="inlineStr">
         <is>
-          <t>MODIFICACION DE LA DECLARACIÓN DE IMPACTO AMBIENTAL PROYECTO TRANSPORTE DE SULFHIDRATO DE SODIO EN LA PRIMERA Y SEGUNDA REGION</t>
+          <t>Transporte de Residuos Peligrosos</t>
         </is>
       </c>
       <c r="C332" t="inlineStr">
@@ -16279,11 +16279,11 @@
       </c>
       <c r="E332" t="inlineStr">
         <is>
-          <t>Sociedad de Transportes Camaro Ltda.</t>
+          <t>Transportes TMS Limitada</t>
         </is>
       </c>
       <c r="F332" t="n">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="G332" t="inlineStr">
         <is>
@@ -16297,7 +16297,7 @@
       </c>
       <c r="I332" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6450945&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6479568&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J332" t="inlineStr">
@@ -16312,7 +16312,7 @@
       </c>
       <c r="B333" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos</t>
+          <t>MODIFICACION DE LA DECLARACIÓN DE IMPACTO AMBIENTAL PROYECTO TRANSPORTE DE SULFHIDRATO DE SODIO EN LA PRIMERA Y SEGUNDA REGION</t>
         </is>
       </c>
       <c r="C333" t="inlineStr">
@@ -16327,11 +16327,11 @@
       </c>
       <c r="E333" t="inlineStr">
         <is>
-          <t>Transportes TMS Limitada</t>
+          <t>Sociedad de Transportes Camaro Ltda.</t>
         </is>
       </c>
       <c r="F333" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="G333" t="inlineStr">
         <is>
@@ -16345,7 +16345,7 @@
       </c>
       <c r="I333" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6479568&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6450945&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J333" t="inlineStr">
@@ -16936,7 +16936,7 @@
       </c>
       <c r="B346" t="inlineStr">
         <is>
-          <t>Extracción de Áridos Empréstito E17L</t>
+          <t>Modificación Proyecto Transporte de Acido Sulfurico a granel entre la Primera y Décima Regiones de Chile</t>
         </is>
       </c>
       <c r="C346" t="inlineStr">
@@ -16946,16 +16946,16 @@
       </c>
       <c r="D346" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E346" t="inlineStr">
         <is>
-          <t>Skanska Chile S.A.</t>
+          <t>Transportes Herrmann Limitada</t>
         </is>
       </c>
       <c r="F346" t="n">
-        <v>500</v>
+        <v>0</v>
       </c>
       <c r="G346" t="inlineStr">
         <is>
@@ -16964,12 +16964,12 @@
       </c>
       <c r="H346" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I346" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6156264&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6159602&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J346" t="inlineStr">
@@ -16984,7 +16984,7 @@
       </c>
       <c r="B347" t="inlineStr">
         <is>
-          <t>Modificación Proyecto Transporte de Acido Sulfurico a granel entre la Primera y Décima Regiones de Chile</t>
+          <t>Extracción de Áridos Empréstito E17L</t>
         </is>
       </c>
       <c r="C347" t="inlineStr">
@@ -16994,16 +16994,16 @@
       </c>
       <c r="D347" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E347" t="inlineStr">
         <is>
-          <t>Transportes Herrmann Limitada</t>
+          <t>Skanska Chile S.A.</t>
         </is>
       </c>
       <c r="F347" t="n">
-        <v>0</v>
+        <v>500</v>
       </c>
       <c r="G347" t="inlineStr">
         <is>
@@ -17012,12 +17012,12 @@
       </c>
       <c r="H347" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I347" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6159602&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6156264&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J347" t="inlineStr">
@@ -17464,7 +17464,7 @@
       </c>
       <c r="B357" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos</t>
+          <t>Nuevas Instalaciones para Mantención Mina</t>
         </is>
       </c>
       <c r="C357" t="inlineStr">
@@ -17474,16 +17474,16 @@
       </c>
       <c r="D357" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E357" t="inlineStr">
         <is>
-          <t>Transportes TMS Limitada</t>
+          <t>MINERA ESCONDIDA LIMITADA</t>
         </is>
       </c>
       <c r="F357" t="n">
-        <v>200</v>
+        <v>635000</v>
       </c>
       <c r="G357" t="inlineStr">
         <is>
@@ -17492,12 +17492,12 @@
       </c>
       <c r="H357" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I357" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6003582&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5931343&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J357" t="inlineStr">
@@ -17512,7 +17512,7 @@
       </c>
       <c r="B358" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas entre la I, II y III Regiones"</t>
+          <t>Transporte de Residuos Peligrosos</t>
         </is>
       </c>
       <c r="C358" t="inlineStr">
@@ -17527,11 +17527,11 @@
       </c>
       <c r="E358" t="inlineStr">
         <is>
-          <t>Molina Quimicos S.A.</t>
+          <t>Transportes TMS Limitada</t>
         </is>
       </c>
       <c r="F358" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="G358" t="inlineStr">
         <is>
@@ -17545,7 +17545,7 @@
       </c>
       <c r="I358" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6003607&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6003582&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J358" t="inlineStr">
@@ -17560,7 +17560,7 @@
       </c>
       <c r="B359" t="inlineStr">
         <is>
-          <t>Nuevas Instalaciones para Mantención Mina</t>
+          <t>Transporte de Sustancias Peligrosas entre la I, II y III Regiones"</t>
         </is>
       </c>
       <c r="C359" t="inlineStr">
@@ -17570,16 +17570,16 @@
       </c>
       <c r="D359" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E359" t="inlineStr">
         <is>
-          <t>MINERA ESCONDIDA LIMITADA</t>
+          <t>Molina Quimicos S.A.</t>
         </is>
       </c>
       <c r="F359" t="n">
-        <v>635000</v>
+        <v>100</v>
       </c>
       <c r="G359" t="inlineStr">
         <is>
@@ -17588,12 +17588,12 @@
       </c>
       <c r="H359" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I359" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5931343&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6003607&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J359" t="inlineStr">
@@ -19816,7 +19816,7 @@
       </c>
       <c r="B406" t="inlineStr">
         <is>
-          <t>"Transporte de acido sulfurico concentrado para minera Las Cenizas, Taltal."</t>
+          <t>II MODIFICACIÓN DIA "TRANSPORTE Y MANEJO IN SITU DE RESIDUOS SÓLIDOS Y LÍQUIDOS PELIGROSOS Y NO PELIGROSOS"</t>
         </is>
       </c>
       <c r="C406" t="inlineStr">
@@ -19826,16 +19826,16 @@
       </c>
       <c r="D406" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E406" t="inlineStr">
         <is>
-          <t>Translog S.A.</t>
+          <t>Mol Ambiente S.A.</t>
         </is>
       </c>
       <c r="F406" t="n">
-        <v>600</v>
+        <v>75000</v>
       </c>
       <c r="G406" t="inlineStr">
         <is>
@@ -19844,12 +19844,12 @@
       </c>
       <c r="H406" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I406" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5114868&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5118945&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J406" t="inlineStr">
@@ -19864,7 +19864,7 @@
       </c>
       <c r="B407" t="inlineStr">
         <is>
-          <t>II MODIFICACIÓN DIA "TRANSPORTE Y MANEJO IN SITU DE RESIDUOS SÓLIDOS Y LÍQUIDOS PELIGROSOS Y NO PELIGROSOS"</t>
+          <t>"Transporte de acido sulfurico concentrado para minera Las Cenizas, Taltal."</t>
         </is>
       </c>
       <c r="C407" t="inlineStr">
@@ -19874,16 +19874,16 @@
       </c>
       <c r="D407" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E407" t="inlineStr">
         <is>
-          <t>Mol Ambiente S.A.</t>
+          <t>Translog S.A.</t>
         </is>
       </c>
       <c r="F407" t="n">
-        <v>75000</v>
+        <v>600</v>
       </c>
       <c r="G407" t="inlineStr">
         <is>
@@ -19892,12 +19892,12 @@
       </c>
       <c r="H407" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I407" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5118945&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5114868&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J407" t="inlineStr">
@@ -21352,7 +21352,7 @@
       </c>
       <c r="B438" t="inlineStr">
         <is>
-          <t>Proyecto Laboratorios Químicos CIMM T&amp;S SA. La Negra</t>
+          <t>TRANSPORTE DE RESIDUOS PELIGROSOS POR RUTAS DE LA REGIÓN DE ANTOFAGASTA</t>
         </is>
       </c>
       <c r="C438" t="inlineStr">
@@ -21367,11 +21367,11 @@
       </c>
       <c r="E438" t="inlineStr">
         <is>
-          <t>Yancko Gonzalez Rozas</t>
+          <t>Limfosep S.A</t>
         </is>
       </c>
       <c r="F438" t="n">
-        <v>8000</v>
+        <v>1000</v>
       </c>
       <c r="G438" t="inlineStr">
         <is>
@@ -21380,12 +21380,12 @@
       </c>
       <c r="H438" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I438" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4670031&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4698232&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J438" t="inlineStr">
@@ -21400,7 +21400,7 @@
       </c>
       <c r="B439" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE RESIDUOS PELIGROSOS POR RUTAS DE LA REGIÓN DE ANTOFAGASTA</t>
+          <t>Proyecto Laboratorios Químicos CIMM T&amp;S SA. La Negra</t>
         </is>
       </c>
       <c r="C439" t="inlineStr">
@@ -21415,11 +21415,11 @@
       </c>
       <c r="E439" t="inlineStr">
         <is>
-          <t>Limfosep S.A</t>
+          <t>Yancko Gonzalez Rozas</t>
         </is>
       </c>
       <c r="F439" t="n">
-        <v>1000</v>
+        <v>8000</v>
       </c>
       <c r="G439" t="inlineStr">
         <is>
@@ -21428,12 +21428,12 @@
       </c>
       <c r="H439" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I439" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4698232&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4670031&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J439" t="inlineStr">
@@ -21832,7 +21832,7 @@
       </c>
       <c r="B448" t="inlineStr">
         <is>
-          <t>Nuevo Transporte Interregional de Cianuro de Sodio</t>
+          <t>EXPANSION DEPOSITO DE RELAVES FILTRADOS FAENA EL PEÑÓN</t>
         </is>
       </c>
       <c r="C448" t="inlineStr">
@@ -21842,16 +21842,16 @@
       </c>
       <c r="D448" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E448" t="inlineStr">
         <is>
-          <t>OXIQUIM S.A.</t>
+          <t>Minera Meridian Limitada</t>
         </is>
       </c>
       <c r="F448" t="n">
-        <v>85</v>
+        <v>688</v>
       </c>
       <c r="G448" t="inlineStr">
         <is>
@@ -21860,12 +21860,12 @@
       </c>
       <c r="H448" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I448" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4594007&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4601640&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J448" t="inlineStr">
@@ -21880,7 +21880,7 @@
       </c>
       <c r="B449" t="inlineStr">
         <is>
-          <t>EXPANSION DEPOSITO DE RELAVES FILTRADOS FAENA EL PEÑÓN</t>
+          <t>Nuevo Transporte Interregional de Cianuro de Sodio</t>
         </is>
       </c>
       <c r="C449" t="inlineStr">
@@ -21890,16 +21890,16 @@
       </c>
       <c r="D449" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E449" t="inlineStr">
         <is>
-          <t>Minera Meridian Limitada</t>
+          <t>OXIQUIM S.A.</t>
         </is>
       </c>
       <c r="F449" t="n">
-        <v>688</v>
+        <v>85</v>
       </c>
       <c r="G449" t="inlineStr">
         <is>
@@ -21908,12 +21908,12 @@
       </c>
       <c r="H449" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I449" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4601640&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4594007&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J449" t="inlineStr">
@@ -22648,7 +22648,7 @@
       </c>
       <c r="B465" t="inlineStr">
         <is>
-          <t>Transporte de Barros Anódicos</t>
+          <t>Transporte de Residuos Peligroso, Transporte Bello</t>
         </is>
       </c>
       <c r="C465" t="inlineStr">
@@ -22663,11 +22663,11 @@
       </c>
       <c r="E465" t="inlineStr">
         <is>
-          <t>CODELCO CHILE</t>
+          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
         </is>
       </c>
       <c r="F465" t="n">
-        <v>0</v>
+        <v>4050</v>
       </c>
       <c r="G465" t="inlineStr">
         <is>
@@ -22681,7 +22681,7 @@
       </c>
       <c r="I465" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4429880&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4455518&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J465" t="inlineStr">
@@ -22696,7 +22696,7 @@
       </c>
       <c r="B466" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligroso, Transporte Bello</t>
+          <t>Transporte de Barros Anódicos</t>
         </is>
       </c>
       <c r="C466" t="inlineStr">
@@ -22711,11 +22711,11 @@
       </c>
       <c r="E466" t="inlineStr">
         <is>
-          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
+          <t>CODELCO CHILE</t>
         </is>
       </c>
       <c r="F466" t="n">
-        <v>4050</v>
+        <v>0</v>
       </c>
       <c r="G466" t="inlineStr">
         <is>
@@ -22729,7 +22729,7 @@
       </c>
       <c r="I466" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4455518&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4429880&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J466" t="inlineStr">
@@ -22840,7 +22840,7 @@
       </c>
       <c r="B469" t="inlineStr">
         <is>
-          <t>Transporte y Almacenamiento temporal de Residuos Peligrosos M&amp;M ltda.</t>
+          <t>Modificacion Proyecto Minero Algorta Sector Pampa</t>
         </is>
       </c>
       <c r="C469" t="inlineStr">
@@ -22850,16 +22850,16 @@
       </c>
       <c r="D469" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E469" t="inlineStr">
         <is>
-          <t>Transportes Moscoso y Moscoso Ltda.</t>
+          <t>Algorta Norte S.A</t>
         </is>
       </c>
       <c r="F469" t="n">
-        <v>41075</v>
+        <v>6400</v>
       </c>
       <c r="G469" t="inlineStr">
         <is>
@@ -22873,7 +22873,7 @@
       </c>
       <c r="I469" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4422237&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4432700&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J469" t="inlineStr">
@@ -22888,7 +22888,7 @@
       </c>
       <c r="B470" t="inlineStr">
         <is>
-          <t>Modificacion Proyecto Minero Algorta Sector Pampa</t>
+          <t>Transporte y Almacenamiento temporal de Residuos Peligrosos M&amp;M ltda.</t>
         </is>
       </c>
       <c r="C470" t="inlineStr">
@@ -22898,16 +22898,16 @@
       </c>
       <c r="D470" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E470" t="inlineStr">
         <is>
-          <t>Algorta Norte S.A</t>
+          <t>Transportes Moscoso y Moscoso Ltda.</t>
         </is>
       </c>
       <c r="F470" t="n">
-        <v>6400</v>
+        <v>41075</v>
       </c>
       <c r="G470" t="inlineStr">
         <is>
@@ -22921,7 +22921,7 @@
       </c>
       <c r="I470" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4432700&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4422237&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J470" t="inlineStr">
@@ -24376,7 +24376,7 @@
       </c>
       <c r="B501" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos CMR Norte (e-seia)</t>
+          <t>Proyecto Tratamiento de Polvos Metalurgicos de Otras Fundiciones (e-seia)</t>
         </is>
       </c>
       <c r="C501" t="inlineStr">
@@ -24391,11 +24391,11 @@
       </c>
       <c r="E501" t="inlineStr">
         <is>
-          <t>Soluciones Ambientales del Norte S. A.</t>
+          <t>Complejo Metalurgico Altonorte S.A.</t>
         </is>
       </c>
       <c r="F501" t="n">
-        <v>250</v>
+        <v>320</v>
       </c>
       <c r="G501" t="inlineStr">
         <is>
@@ -24409,7 +24409,7 @@
       </c>
       <c r="I501" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4063042&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4061206&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J501" t="inlineStr">

--- a/data/Antofagasta.xlsx
+++ b/data/Antofagasta.xlsx
@@ -424,7 +424,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Proyecto minero Comahue</t>
+          <t>Transporte terrestre de ácido sulfúrico</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -439,15 +439,15 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Next Minerals S.A.</t>
+          <t>TRANSPORTES B&amp;S SPA</t>
         </is>
       </c>
       <c r="F2" t="n">
-        <v>55000</v>
+        <v>2576</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>22/04/2022</t>
+          <t>26/04/2022</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
@@ -457,7 +457,7 @@
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2155491655&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2155689137&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
@@ -472,7 +472,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Transporte terrestre de ácido sulfúrico</t>
+          <t>Proyecto minero Comahue</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -487,25 +487,25 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>TRANSPORTES B&amp;S SPA</t>
+          <t>Next Minerals S.A.</t>
         </is>
       </c>
       <c r="F3" t="n">
-        <v>2576</v>
+        <v>55000</v>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>21/04/2022</t>
+          <t>22/04/2022</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>En Admisión</t>
+          <t>En Calificación</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2155689137&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2155491655&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">

--- a/data/Antofagasta.xlsx
+++ b/data/Antofagasta.xlsx
@@ -14839,7 +14839,7 @@
       </c>
       <c r="E302" t="inlineStr">
         <is>
-          <t>Empresa Nacional de Mineria</t>
+          <t>Empresa Nacional de Minería</t>
         </is>
       </c>
       <c r="F302" t="n">

--- a/data/Antofagasta.xlsx
+++ b/data/Antofagasta.xlsx
@@ -1028,7 +1028,7 @@
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>En Calificación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">

--- a/data/Antofagasta.xlsx
+++ b/data/Antofagasta.xlsx
@@ -1316,7 +1316,7 @@
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>En Calificación</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I20" t="inlineStr">

--- a/data/Antofagasta.xlsx
+++ b/data/Antofagasta.xlsx
@@ -11560,7 +11560,7 @@
       </c>
       <c r="B234" t="inlineStr">
         <is>
-          <t>Transporte Interregional de Sustancias Peligrosas - AGREDUCAM VI Región</t>
+          <t>Planta de Fabricación de Tuberías PEX (polietileno reticulado)</t>
         </is>
       </c>
       <c r="C234" t="inlineStr">
@@ -11570,16 +11570,16 @@
       </c>
       <c r="D234" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E234" t="inlineStr">
         <is>
-          <t>Asociación Gremial de Dueños de Camiones de la Sexta Región</t>
+          <t>CROSSPIPE SYSTEMS S.A.</t>
         </is>
       </c>
       <c r="F234" t="n">
-        <v>1200</v>
+        <v>12400</v>
       </c>
       <c r="G234" t="inlineStr">
         <is>
@@ -11593,7 +11593,7 @@
       </c>
       <c r="I234" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128964620&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128954293&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J234" t="inlineStr">
@@ -11608,7 +11608,7 @@
       </c>
       <c r="B235" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos por las Rutas Indicadas</t>
+          <t>Transporte Interregional de Sustancias Peligrosas - AGREDUCAM VI Región</t>
         </is>
       </c>
       <c r="C235" t="inlineStr">
@@ -11623,11 +11623,11 @@
       </c>
       <c r="E235" t="inlineStr">
         <is>
-          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
+          <t>Asociación Gremial de Dueños de Camiones de la Sexta Región</t>
         </is>
       </c>
       <c r="F235" t="n">
-        <v>0</v>
+        <v>1200</v>
       </c>
       <c r="G235" t="inlineStr">
         <is>
@@ -11641,7 +11641,7 @@
       </c>
       <c r="I235" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128972489&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128964620&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J235" t="inlineStr">
@@ -11656,7 +11656,7 @@
       </c>
       <c r="B236" t="inlineStr">
         <is>
-          <t>Planta de Fabricación de Tuberías PEX (polietileno reticulado)</t>
+          <t>Transporte de Residuos Peligrosos por las Rutas Indicadas</t>
         </is>
       </c>
       <c r="C236" t="inlineStr">
@@ -11666,16 +11666,16 @@
       </c>
       <c r="D236" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E236" t="inlineStr">
         <is>
-          <t>CROSSPIPE SYSTEMS S.A.</t>
+          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
         </is>
       </c>
       <c r="F236" t="n">
-        <v>12400</v>
+        <v>0</v>
       </c>
       <c r="G236" t="inlineStr">
         <is>
@@ -11689,7 +11689,7 @@
       </c>
       <c r="I236" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128954293&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128972489&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J236" t="inlineStr">
@@ -13288,26 +13288,26 @@
       </c>
       <c r="B270" t="inlineStr">
         <is>
-          <t>RT Sulfuros</t>
+          <t>Transporte de Sustancias Peligrosas Transaltisa Chile Ltda</t>
         </is>
       </c>
       <c r="C270" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D270" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E270" t="inlineStr">
         <is>
-          <t>CODELCO Chile, División Radomiro Tomic</t>
+          <t>Transaltisa Chile Ltda.</t>
         </is>
       </c>
       <c r="F270" t="n">
-        <v>5.4</v>
+        <v>2050</v>
       </c>
       <c r="G270" t="inlineStr">
         <is>
@@ -13316,12 +13316,12 @@
       </c>
       <c r="H270" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I270" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8210090&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8218613&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J270" t="inlineStr">
@@ -13336,26 +13336,26 @@
       </c>
       <c r="B271" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas Transaltisa Chile Ltda</t>
+          <t>RT Sulfuros</t>
         </is>
       </c>
       <c r="C271" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D271" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E271" t="inlineStr">
         <is>
-          <t>Transaltisa Chile Ltda.</t>
+          <t>CODELCO Chile, División Radomiro Tomic</t>
         </is>
       </c>
       <c r="F271" t="n">
-        <v>2050</v>
+        <v>5.4</v>
       </c>
       <c r="G271" t="inlineStr">
         <is>
@@ -13364,12 +13364,12 @@
       </c>
       <c r="H271" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I271" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8218613&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8210090&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J271" t="inlineStr">
@@ -16024,7 +16024,7 @@
       </c>
       <c r="B327" t="inlineStr">
         <is>
-          <t>Parque Fotovoltaico Los Andes</t>
+          <t>CENTRO DE RECUPERACIÓN DE TAMBORES Y CONTENEDORES IBC CONTAMINADOS, PLAMBIENTAL LA NEGRA</t>
         </is>
       </c>
       <c r="C327" t="inlineStr">
@@ -16039,11 +16039,11 @@
       </c>
       <c r="E327" t="inlineStr">
         <is>
-          <t>Andes Solar SPA</t>
+          <t>VEOLIA SERVICIOS MINEROS INTEGRALES CHILE SpA</t>
         </is>
       </c>
       <c r="F327" t="n">
-        <v>572000</v>
+        <v>60</v>
       </c>
       <c r="G327" t="inlineStr">
         <is>
@@ -16052,12 +16052,12 @@
       </c>
       <c r="H327" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Caducado</t>
         </is>
       </c>
       <c r="I327" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6581267&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6592870&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J327" t="inlineStr">
@@ -16072,7 +16072,7 @@
       </c>
       <c r="B328" t="inlineStr">
         <is>
-          <t>CENTRO DE RECUPERACIÓN DE TAMBORES Y CONTENEDORES IBC CONTAMINADOS, PLAMBIENTAL LA NEGRA</t>
+          <t>CENTRO DE ALMACENAMIENTO DE RESIDUOS INDUSTRIALES, GESAM LA NEGRA</t>
         </is>
       </c>
       <c r="C328" t="inlineStr">
@@ -16091,7 +16091,7 @@
         </is>
       </c>
       <c r="F328" t="n">
-        <v>60</v>
+        <v>360</v>
       </c>
       <c r="G328" t="inlineStr">
         <is>
@@ -16105,7 +16105,7 @@
       </c>
       <c r="I328" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6592870&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6595234&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J328" t="inlineStr">
@@ -16120,7 +16120,7 @@
       </c>
       <c r="B329" t="inlineStr">
         <is>
-          <t>CENTRO DE ALMACENAMIENTO DE RESIDUOS INDUSTRIALES, GESAM LA NEGRA</t>
+          <t>Parque Fotovoltaico Los Andes</t>
         </is>
       </c>
       <c r="C329" t="inlineStr">
@@ -16135,11 +16135,11 @@
       </c>
       <c r="E329" t="inlineStr">
         <is>
-          <t>VEOLIA SERVICIOS MINEROS INTEGRALES CHILE SpA</t>
+          <t>Andes Solar SPA</t>
         </is>
       </c>
       <c r="F329" t="n">
-        <v>360</v>
+        <v>572000</v>
       </c>
       <c r="G329" t="inlineStr">
         <is>
@@ -16148,12 +16148,12 @@
       </c>
       <c r="H329" t="inlineStr">
         <is>
-          <t>Caducado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I329" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6595234&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6581267&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J329" t="inlineStr">
@@ -17512,7 +17512,7 @@
       </c>
       <c r="B358" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos</t>
+          <t>Nuevas Instalaciones para Mantención Mina</t>
         </is>
       </c>
       <c r="C358" t="inlineStr">
@@ -17522,16 +17522,16 @@
       </c>
       <c r="D358" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E358" t="inlineStr">
         <is>
-          <t>Transportes TMS Limitada</t>
+          <t>MINERA ESCONDIDA LIMITADA</t>
         </is>
       </c>
       <c r="F358" t="n">
-        <v>200</v>
+        <v>635000</v>
       </c>
       <c r="G358" t="inlineStr">
         <is>
@@ -17540,12 +17540,12 @@
       </c>
       <c r="H358" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I358" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6003582&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5931343&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J358" t="inlineStr">
@@ -17560,7 +17560,7 @@
       </c>
       <c r="B359" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas entre la I, II y III Regiones"</t>
+          <t>Transporte de Residuos Peligrosos</t>
         </is>
       </c>
       <c r="C359" t="inlineStr">
@@ -17575,11 +17575,11 @@
       </c>
       <c r="E359" t="inlineStr">
         <is>
-          <t>Molina Quimicos S.A.</t>
+          <t>Transportes TMS Limitada</t>
         </is>
       </c>
       <c r="F359" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="G359" t="inlineStr">
         <is>
@@ -17593,7 +17593,7 @@
       </c>
       <c r="I359" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6003607&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6003582&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J359" t="inlineStr">
@@ -17608,7 +17608,7 @@
       </c>
       <c r="B360" t="inlineStr">
         <is>
-          <t>Nuevas Instalaciones para Mantención Mina</t>
+          <t>Transporte de Sustancias Peligrosas entre la I, II y III Regiones"</t>
         </is>
       </c>
       <c r="C360" t="inlineStr">
@@ -17618,16 +17618,16 @@
       </c>
       <c r="D360" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E360" t="inlineStr">
         <is>
-          <t>MINERA ESCONDIDA LIMITADA</t>
+          <t>Molina Quimicos S.A.</t>
         </is>
       </c>
       <c r="F360" t="n">
-        <v>635000</v>
+        <v>100</v>
       </c>
       <c r="G360" t="inlineStr">
         <is>
@@ -17636,12 +17636,12 @@
       </c>
       <c r="H360" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I360" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5931343&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6003607&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J360" t="inlineStr">
@@ -19864,7 +19864,7 @@
       </c>
       <c r="B407" t="inlineStr">
         <is>
-          <t>"Transporte de acido sulfurico concentrado para minera Las Cenizas, Taltal."</t>
+          <t>II MODIFICACIÓN DIA "TRANSPORTE Y MANEJO IN SITU DE RESIDUOS SÓLIDOS Y LÍQUIDOS PELIGROSOS Y NO PELIGROSOS"</t>
         </is>
       </c>
       <c r="C407" t="inlineStr">
@@ -19874,16 +19874,16 @@
       </c>
       <c r="D407" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E407" t="inlineStr">
         <is>
-          <t>Translog S.A.</t>
+          <t>Mol Ambiente S.A.</t>
         </is>
       </c>
       <c r="F407" t="n">
-        <v>600</v>
+        <v>75000</v>
       </c>
       <c r="G407" t="inlineStr">
         <is>
@@ -19892,12 +19892,12 @@
       </c>
       <c r="H407" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I407" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5114868&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5118945&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J407" t="inlineStr">
@@ -19912,7 +19912,7 @@
       </c>
       <c r="B408" t="inlineStr">
         <is>
-          <t>II MODIFICACIÓN DIA "TRANSPORTE Y MANEJO IN SITU DE RESIDUOS SÓLIDOS Y LÍQUIDOS PELIGROSOS Y NO PELIGROSOS"</t>
+          <t>"Transporte de acido sulfurico concentrado para minera Las Cenizas, Taltal."</t>
         </is>
       </c>
       <c r="C408" t="inlineStr">
@@ -19922,16 +19922,16 @@
       </c>
       <c r="D408" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E408" t="inlineStr">
         <is>
-          <t>Mol Ambiente S.A.</t>
+          <t>Translog S.A.</t>
         </is>
       </c>
       <c r="F408" t="n">
-        <v>75000</v>
+        <v>600</v>
       </c>
       <c r="G408" t="inlineStr">
         <is>
@@ -19940,12 +19940,12 @@
       </c>
       <c r="H408" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I408" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5118945&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5114868&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J408" t="inlineStr">
@@ -21400,7 +21400,7 @@
       </c>
       <c r="B439" t="inlineStr">
         <is>
-          <t>Proyecto Laboratorios Químicos CIMM T&amp;S SA. La Negra</t>
+          <t>TRANSPORTE DE RESIDUOS PELIGROSOS POR RUTAS DE LA REGIÓN DE ANTOFAGASTA</t>
         </is>
       </c>
       <c r="C439" t="inlineStr">
@@ -21415,11 +21415,11 @@
       </c>
       <c r="E439" t="inlineStr">
         <is>
-          <t>Yancko Gonzalez Rozas</t>
+          <t>Limfosep S.A</t>
         </is>
       </c>
       <c r="F439" t="n">
-        <v>8000</v>
+        <v>1000</v>
       </c>
       <c r="G439" t="inlineStr">
         <is>
@@ -21428,12 +21428,12 @@
       </c>
       <c r="H439" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I439" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4670031&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4698232&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J439" t="inlineStr">
@@ -21448,7 +21448,7 @@
       </c>
       <c r="B440" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE RESIDUOS PELIGROSOS POR RUTAS DE LA REGIÓN DE ANTOFAGASTA</t>
+          <t>Proyecto Laboratorios Químicos CIMM T&amp;S SA. La Negra</t>
         </is>
       </c>
       <c r="C440" t="inlineStr">
@@ -21463,11 +21463,11 @@
       </c>
       <c r="E440" t="inlineStr">
         <is>
-          <t>Limfosep S.A</t>
+          <t>Yancko Gonzalez Rozas</t>
         </is>
       </c>
       <c r="F440" t="n">
-        <v>1000</v>
+        <v>8000</v>
       </c>
       <c r="G440" t="inlineStr">
         <is>
@@ -21476,12 +21476,12 @@
       </c>
       <c r="H440" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I440" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4698232&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4670031&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J440" t="inlineStr">
@@ -21880,7 +21880,7 @@
       </c>
       <c r="B449" t="inlineStr">
         <is>
-          <t>Nuevo Transporte Interregional de Cianuro de Sodio</t>
+          <t>EXPANSION DEPOSITO DE RELAVES FILTRADOS FAENA EL PEÑÓN</t>
         </is>
       </c>
       <c r="C449" t="inlineStr">
@@ -21890,16 +21890,16 @@
       </c>
       <c r="D449" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E449" t="inlineStr">
         <is>
-          <t>OXIQUIM S.A.</t>
+          <t>Minera Meridian Limitada</t>
         </is>
       </c>
       <c r="F449" t="n">
-        <v>85</v>
+        <v>688</v>
       </c>
       <c r="G449" t="inlineStr">
         <is>
@@ -21908,12 +21908,12 @@
       </c>
       <c r="H449" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I449" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4594007&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4601640&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J449" t="inlineStr">
@@ -21928,7 +21928,7 @@
       </c>
       <c r="B450" t="inlineStr">
         <is>
-          <t>EXPANSION DEPOSITO DE RELAVES FILTRADOS FAENA EL PEÑÓN</t>
+          <t>Nuevo Transporte Interregional de Cianuro de Sodio</t>
         </is>
       </c>
       <c r="C450" t="inlineStr">
@@ -21938,16 +21938,16 @@
       </c>
       <c r="D450" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E450" t="inlineStr">
         <is>
-          <t>Minera Meridian Limitada</t>
+          <t>OXIQUIM S.A.</t>
         </is>
       </c>
       <c r="F450" t="n">
-        <v>688</v>
+        <v>85</v>
       </c>
       <c r="G450" t="inlineStr">
         <is>
@@ -21956,12 +21956,12 @@
       </c>
       <c r="H450" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I450" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4601640&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4594007&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J450" t="inlineStr">
@@ -22696,7 +22696,7 @@
       </c>
       <c r="B466" t="inlineStr">
         <is>
-          <t>Transporte de Barros Anódicos</t>
+          <t>Transporte de Residuos Peligroso, Transporte Bello</t>
         </is>
       </c>
       <c r="C466" t="inlineStr">
@@ -22711,11 +22711,11 @@
       </c>
       <c r="E466" t="inlineStr">
         <is>
-          <t>CODELCO CHILE</t>
+          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
         </is>
       </c>
       <c r="F466" t="n">
-        <v>0</v>
+        <v>4050</v>
       </c>
       <c r="G466" t="inlineStr">
         <is>
@@ -22729,7 +22729,7 @@
       </c>
       <c r="I466" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4429880&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4455518&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J466" t="inlineStr">
@@ -22744,7 +22744,7 @@
       </c>
       <c r="B467" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligroso, Transporte Bello</t>
+          <t>Transporte de Barros Anódicos</t>
         </is>
       </c>
       <c r="C467" t="inlineStr">
@@ -22759,11 +22759,11 @@
       </c>
       <c r="E467" t="inlineStr">
         <is>
-          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
+          <t>CODELCO CHILE</t>
         </is>
       </c>
       <c r="F467" t="n">
-        <v>4050</v>
+        <v>0</v>
       </c>
       <c r="G467" t="inlineStr">
         <is>
@@ -22777,7 +22777,7 @@
       </c>
       <c r="I467" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4455518&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4429880&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J467" t="inlineStr">
@@ -22888,7 +22888,7 @@
       </c>
       <c r="B470" t="inlineStr">
         <is>
-          <t>Transporte y Almacenamiento temporal de Residuos Peligrosos M&amp;M ltda.</t>
+          <t>Modificacion Proyecto Minero Algorta Sector Pampa</t>
         </is>
       </c>
       <c r="C470" t="inlineStr">
@@ -22898,16 +22898,16 @@
       </c>
       <c r="D470" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E470" t="inlineStr">
         <is>
-          <t>Transportes Moscoso y Moscoso Ltda.</t>
+          <t>Algorta Norte S.A</t>
         </is>
       </c>
       <c r="F470" t="n">
-        <v>41075</v>
+        <v>6400</v>
       </c>
       <c r="G470" t="inlineStr">
         <is>
@@ -22921,7 +22921,7 @@
       </c>
       <c r="I470" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4422237&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4432700&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J470" t="inlineStr">
@@ -22936,7 +22936,7 @@
       </c>
       <c r="B471" t="inlineStr">
         <is>
-          <t>Modificacion Proyecto Minero Algorta Sector Pampa</t>
+          <t>Transporte y Almacenamiento temporal de Residuos Peligrosos M&amp;M ltda.</t>
         </is>
       </c>
       <c r="C471" t="inlineStr">
@@ -22946,16 +22946,16 @@
       </c>
       <c r="D471" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E471" t="inlineStr">
         <is>
-          <t>Algorta Norte S.A</t>
+          <t>Transportes Moscoso y Moscoso Ltda.</t>
         </is>
       </c>
       <c r="F471" t="n">
-        <v>6400</v>
+        <v>41075</v>
       </c>
       <c r="G471" t="inlineStr">
         <is>
@@ -22969,7 +22969,7 @@
       </c>
       <c r="I471" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4432700&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4422237&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J471" t="inlineStr">

--- a/data/Antofagasta.xlsx
+++ b/data/Antofagasta.xlsx
@@ -11560,7 +11560,7 @@
       </c>
       <c r="B234" t="inlineStr">
         <is>
-          <t>Planta de Fabricación de Tuberías PEX (polietileno reticulado)</t>
+          <t>Transporte Interregional de Sustancias Peligrosas - AGREDUCAM VI Región</t>
         </is>
       </c>
       <c r="C234" t="inlineStr">
@@ -11570,16 +11570,16 @@
       </c>
       <c r="D234" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E234" t="inlineStr">
         <is>
-          <t>CROSSPIPE SYSTEMS S.A.</t>
+          <t>Asociación Gremial de Dueños de Camiones de la Sexta Región</t>
         </is>
       </c>
       <c r="F234" t="n">
-        <v>12400</v>
+        <v>1200</v>
       </c>
       <c r="G234" t="inlineStr">
         <is>
@@ -11593,7 +11593,7 @@
       </c>
       <c r="I234" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128954293&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128964620&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J234" t="inlineStr">
@@ -11608,7 +11608,7 @@
       </c>
       <c r="B235" t="inlineStr">
         <is>
-          <t>Transporte Interregional de Sustancias Peligrosas - AGREDUCAM VI Región</t>
+          <t>Transporte de Residuos Peligrosos por las Rutas Indicadas</t>
         </is>
       </c>
       <c r="C235" t="inlineStr">
@@ -11623,11 +11623,11 @@
       </c>
       <c r="E235" t="inlineStr">
         <is>
-          <t>Asociación Gremial de Dueños de Camiones de la Sexta Región</t>
+          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
         </is>
       </c>
       <c r="F235" t="n">
-        <v>1200</v>
+        <v>0</v>
       </c>
       <c r="G235" t="inlineStr">
         <is>
@@ -11641,7 +11641,7 @@
       </c>
       <c r="I235" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128964620&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128972489&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J235" t="inlineStr">
@@ -11656,7 +11656,7 @@
       </c>
       <c r="B236" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos por las Rutas Indicadas</t>
+          <t>Planta de Fabricación de Tuberías PEX (polietileno reticulado)</t>
         </is>
       </c>
       <c r="C236" t="inlineStr">
@@ -11666,16 +11666,16 @@
       </c>
       <c r="D236" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E236" t="inlineStr">
         <is>
-          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
+          <t>CROSSPIPE SYSTEMS S.A.</t>
         </is>
       </c>
       <c r="F236" t="n">
-        <v>0</v>
+        <v>12400</v>
       </c>
       <c r="G236" t="inlineStr">
         <is>
@@ -11689,7 +11689,7 @@
       </c>
       <c r="I236" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128972489&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128954293&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J236" t="inlineStr">
@@ -13288,26 +13288,26 @@
       </c>
       <c r="B270" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas Transaltisa Chile Ltda</t>
+          <t>RT Sulfuros</t>
         </is>
       </c>
       <c r="C270" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D270" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E270" t="inlineStr">
         <is>
-          <t>Transaltisa Chile Ltda.</t>
+          <t>CODELCO Chile, División Radomiro Tomic</t>
         </is>
       </c>
       <c r="F270" t="n">
-        <v>2050</v>
+        <v>5.4</v>
       </c>
       <c r="G270" t="inlineStr">
         <is>
@@ -13316,12 +13316,12 @@
       </c>
       <c r="H270" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I270" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8218613&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8210090&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J270" t="inlineStr">
@@ -13336,26 +13336,26 @@
       </c>
       <c r="B271" t="inlineStr">
         <is>
-          <t>RT Sulfuros</t>
+          <t>Transporte de Sustancias Peligrosas Transaltisa Chile Ltda</t>
         </is>
       </c>
       <c r="C271" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D271" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E271" t="inlineStr">
         <is>
-          <t>CODELCO Chile, División Radomiro Tomic</t>
+          <t>Transaltisa Chile Ltda.</t>
         </is>
       </c>
       <c r="F271" t="n">
-        <v>5.4</v>
+        <v>2050</v>
       </c>
       <c r="G271" t="inlineStr">
         <is>
@@ -13364,12 +13364,12 @@
       </c>
       <c r="H271" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I271" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8210090&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8218613&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J271" t="inlineStr">
@@ -16024,7 +16024,7 @@
       </c>
       <c r="B327" t="inlineStr">
         <is>
-          <t>CENTRO DE RECUPERACIÓN DE TAMBORES Y CONTENEDORES IBC CONTAMINADOS, PLAMBIENTAL LA NEGRA</t>
+          <t>Parque Fotovoltaico Los Andes</t>
         </is>
       </c>
       <c r="C327" t="inlineStr">
@@ -16039,11 +16039,11 @@
       </c>
       <c r="E327" t="inlineStr">
         <is>
-          <t>VEOLIA SERVICIOS MINEROS INTEGRALES CHILE SpA</t>
+          <t>Andes Solar SPA</t>
         </is>
       </c>
       <c r="F327" t="n">
-        <v>60</v>
+        <v>572000</v>
       </c>
       <c r="G327" t="inlineStr">
         <is>
@@ -16052,12 +16052,12 @@
       </c>
       <c r="H327" t="inlineStr">
         <is>
-          <t>Caducado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I327" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6592870&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6581267&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J327" t="inlineStr">
@@ -16072,7 +16072,7 @@
       </c>
       <c r="B328" t="inlineStr">
         <is>
-          <t>CENTRO DE ALMACENAMIENTO DE RESIDUOS INDUSTRIALES, GESAM LA NEGRA</t>
+          <t>CENTRO DE RECUPERACIÓN DE TAMBORES Y CONTENEDORES IBC CONTAMINADOS, PLAMBIENTAL LA NEGRA</t>
         </is>
       </c>
       <c r="C328" t="inlineStr">
@@ -16091,7 +16091,7 @@
         </is>
       </c>
       <c r="F328" t="n">
-        <v>360</v>
+        <v>60</v>
       </c>
       <c r="G328" t="inlineStr">
         <is>
@@ -16105,7 +16105,7 @@
       </c>
       <c r="I328" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6595234&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6592870&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J328" t="inlineStr">
@@ -16120,7 +16120,7 @@
       </c>
       <c r="B329" t="inlineStr">
         <is>
-          <t>Parque Fotovoltaico Los Andes</t>
+          <t>CENTRO DE ALMACENAMIENTO DE RESIDUOS INDUSTRIALES, GESAM LA NEGRA</t>
         </is>
       </c>
       <c r="C329" t="inlineStr">
@@ -16135,11 +16135,11 @@
       </c>
       <c r="E329" t="inlineStr">
         <is>
-          <t>Andes Solar SPA</t>
+          <t>VEOLIA SERVICIOS MINEROS INTEGRALES CHILE SpA</t>
         </is>
       </c>
       <c r="F329" t="n">
-        <v>572000</v>
+        <v>360</v>
       </c>
       <c r="G329" t="inlineStr">
         <is>
@@ -16148,12 +16148,12 @@
       </c>
       <c r="H329" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Caducado</t>
         </is>
       </c>
       <c r="I329" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6581267&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6595234&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J329" t="inlineStr">
@@ -17512,7 +17512,7 @@
       </c>
       <c r="B358" t="inlineStr">
         <is>
-          <t>Nuevas Instalaciones para Mantención Mina</t>
+          <t>Transporte de Residuos Peligrosos</t>
         </is>
       </c>
       <c r="C358" t="inlineStr">
@@ -17522,16 +17522,16 @@
       </c>
       <c r="D358" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E358" t="inlineStr">
         <is>
-          <t>MINERA ESCONDIDA LIMITADA</t>
+          <t>Transportes TMS Limitada</t>
         </is>
       </c>
       <c r="F358" t="n">
-        <v>635000</v>
+        <v>200</v>
       </c>
       <c r="G358" t="inlineStr">
         <is>
@@ -17540,12 +17540,12 @@
       </c>
       <c r="H358" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I358" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5931343&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6003582&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J358" t="inlineStr">
@@ -17560,7 +17560,7 @@
       </c>
       <c r="B359" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos</t>
+          <t>Transporte de Sustancias Peligrosas entre la I, II y III Regiones"</t>
         </is>
       </c>
       <c r="C359" t="inlineStr">
@@ -17575,11 +17575,11 @@
       </c>
       <c r="E359" t="inlineStr">
         <is>
-          <t>Transportes TMS Limitada</t>
+          <t>Molina Quimicos S.A.</t>
         </is>
       </c>
       <c r="F359" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="G359" t="inlineStr">
         <is>
@@ -17593,7 +17593,7 @@
       </c>
       <c r="I359" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6003582&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6003607&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J359" t="inlineStr">
@@ -17608,7 +17608,7 @@
       </c>
       <c r="B360" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas entre la I, II y III Regiones"</t>
+          <t>Nuevas Instalaciones para Mantención Mina</t>
         </is>
       </c>
       <c r="C360" t="inlineStr">
@@ -17618,16 +17618,16 @@
       </c>
       <c r="D360" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E360" t="inlineStr">
         <is>
-          <t>Molina Quimicos S.A.</t>
+          <t>MINERA ESCONDIDA LIMITADA</t>
         </is>
       </c>
       <c r="F360" t="n">
-        <v>100</v>
+        <v>635000</v>
       </c>
       <c r="G360" t="inlineStr">
         <is>
@@ -17636,12 +17636,12 @@
       </c>
       <c r="H360" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I360" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6003607&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5931343&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J360" t="inlineStr">
@@ -19864,7 +19864,7 @@
       </c>
       <c r="B407" t="inlineStr">
         <is>
-          <t>II MODIFICACIÓN DIA "TRANSPORTE Y MANEJO IN SITU DE RESIDUOS SÓLIDOS Y LÍQUIDOS PELIGROSOS Y NO PELIGROSOS"</t>
+          <t>"Transporte de acido sulfurico concentrado para minera Las Cenizas, Taltal."</t>
         </is>
       </c>
       <c r="C407" t="inlineStr">
@@ -19874,16 +19874,16 @@
       </c>
       <c r="D407" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E407" t="inlineStr">
         <is>
-          <t>Mol Ambiente S.A.</t>
+          <t>Translog S.A.</t>
         </is>
       </c>
       <c r="F407" t="n">
-        <v>75000</v>
+        <v>600</v>
       </c>
       <c r="G407" t="inlineStr">
         <is>
@@ -19892,12 +19892,12 @@
       </c>
       <c r="H407" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I407" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5118945&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5114868&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J407" t="inlineStr">
@@ -19912,7 +19912,7 @@
       </c>
       <c r="B408" t="inlineStr">
         <is>
-          <t>"Transporte de acido sulfurico concentrado para minera Las Cenizas, Taltal."</t>
+          <t>II MODIFICACIÓN DIA "TRANSPORTE Y MANEJO IN SITU DE RESIDUOS SÓLIDOS Y LÍQUIDOS PELIGROSOS Y NO PELIGROSOS"</t>
         </is>
       </c>
       <c r="C408" t="inlineStr">
@@ -19922,16 +19922,16 @@
       </c>
       <c r="D408" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E408" t="inlineStr">
         <is>
-          <t>Translog S.A.</t>
+          <t>Mol Ambiente S.A.</t>
         </is>
       </c>
       <c r="F408" t="n">
-        <v>600</v>
+        <v>75000</v>
       </c>
       <c r="G408" t="inlineStr">
         <is>
@@ -19940,12 +19940,12 @@
       </c>
       <c r="H408" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I408" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5114868&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5118945&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J408" t="inlineStr">
@@ -21400,7 +21400,7 @@
       </c>
       <c r="B439" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE RESIDUOS PELIGROSOS POR RUTAS DE LA REGIÓN DE ANTOFAGASTA</t>
+          <t>Proyecto Laboratorios Químicos CIMM T&amp;S SA. La Negra</t>
         </is>
       </c>
       <c r="C439" t="inlineStr">
@@ -21415,11 +21415,11 @@
       </c>
       <c r="E439" t="inlineStr">
         <is>
-          <t>Limfosep S.A</t>
+          <t>Yancko Gonzalez Rozas</t>
         </is>
       </c>
       <c r="F439" t="n">
-        <v>1000</v>
+        <v>8000</v>
       </c>
       <c r="G439" t="inlineStr">
         <is>
@@ -21428,12 +21428,12 @@
       </c>
       <c r="H439" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I439" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4698232&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4670031&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J439" t="inlineStr">
@@ -21448,7 +21448,7 @@
       </c>
       <c r="B440" t="inlineStr">
         <is>
-          <t>Proyecto Laboratorios Químicos CIMM T&amp;S SA. La Negra</t>
+          <t>TRANSPORTE DE RESIDUOS PELIGROSOS POR RUTAS DE LA REGIÓN DE ANTOFAGASTA</t>
         </is>
       </c>
       <c r="C440" t="inlineStr">
@@ -21463,11 +21463,11 @@
       </c>
       <c r="E440" t="inlineStr">
         <is>
-          <t>Yancko Gonzalez Rozas</t>
+          <t>Limfosep S.A</t>
         </is>
       </c>
       <c r="F440" t="n">
-        <v>8000</v>
+        <v>1000</v>
       </c>
       <c r="G440" t="inlineStr">
         <is>
@@ -21476,12 +21476,12 @@
       </c>
       <c r="H440" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I440" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4670031&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4698232&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J440" t="inlineStr">
@@ -21880,7 +21880,7 @@
       </c>
       <c r="B449" t="inlineStr">
         <is>
-          <t>EXPANSION DEPOSITO DE RELAVES FILTRADOS FAENA EL PEÑÓN</t>
+          <t>Nuevo Transporte Interregional de Cianuro de Sodio</t>
         </is>
       </c>
       <c r="C449" t="inlineStr">
@@ -21890,16 +21890,16 @@
       </c>
       <c r="D449" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E449" t="inlineStr">
         <is>
-          <t>Minera Meridian Limitada</t>
+          <t>OXIQUIM S.A.</t>
         </is>
       </c>
       <c r="F449" t="n">
-        <v>688</v>
+        <v>85</v>
       </c>
       <c r="G449" t="inlineStr">
         <is>
@@ -21908,12 +21908,12 @@
       </c>
       <c r="H449" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I449" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4601640&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4594007&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J449" t="inlineStr">
@@ -21928,7 +21928,7 @@
       </c>
       <c r="B450" t="inlineStr">
         <is>
-          <t>Nuevo Transporte Interregional de Cianuro de Sodio</t>
+          <t>EXPANSION DEPOSITO DE RELAVES FILTRADOS FAENA EL PEÑÓN</t>
         </is>
       </c>
       <c r="C450" t="inlineStr">
@@ -21938,16 +21938,16 @@
       </c>
       <c r="D450" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E450" t="inlineStr">
         <is>
-          <t>OXIQUIM S.A.</t>
+          <t>Minera Meridian Limitada</t>
         </is>
       </c>
       <c r="F450" t="n">
-        <v>85</v>
+        <v>688</v>
       </c>
       <c r="G450" t="inlineStr">
         <is>
@@ -21956,12 +21956,12 @@
       </c>
       <c r="H450" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I450" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4594007&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4601640&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J450" t="inlineStr">
@@ -22696,7 +22696,7 @@
       </c>
       <c r="B466" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligroso, Transporte Bello</t>
+          <t>Transporte de Barros Anódicos</t>
         </is>
       </c>
       <c r="C466" t="inlineStr">
@@ -22711,11 +22711,11 @@
       </c>
       <c r="E466" t="inlineStr">
         <is>
-          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
+          <t>CODELCO CHILE</t>
         </is>
       </c>
       <c r="F466" t="n">
-        <v>4050</v>
+        <v>0</v>
       </c>
       <c r="G466" t="inlineStr">
         <is>
@@ -22729,7 +22729,7 @@
       </c>
       <c r="I466" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4455518&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4429880&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J466" t="inlineStr">
@@ -22744,7 +22744,7 @@
       </c>
       <c r="B467" t="inlineStr">
         <is>
-          <t>Transporte de Barros Anódicos</t>
+          <t>Transporte de Residuos Peligroso, Transporte Bello</t>
         </is>
       </c>
       <c r="C467" t="inlineStr">
@@ -22759,11 +22759,11 @@
       </c>
       <c r="E467" t="inlineStr">
         <is>
-          <t>CODELCO CHILE</t>
+          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
         </is>
       </c>
       <c r="F467" t="n">
-        <v>0</v>
+        <v>4050</v>
       </c>
       <c r="G467" t="inlineStr">
         <is>
@@ -22777,7 +22777,7 @@
       </c>
       <c r="I467" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4429880&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4455518&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J467" t="inlineStr">
@@ -22888,7 +22888,7 @@
       </c>
       <c r="B470" t="inlineStr">
         <is>
-          <t>Modificacion Proyecto Minero Algorta Sector Pampa</t>
+          <t>Transporte y Almacenamiento temporal de Residuos Peligrosos M&amp;M ltda.</t>
         </is>
       </c>
       <c r="C470" t="inlineStr">
@@ -22898,16 +22898,16 @@
       </c>
       <c r="D470" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E470" t="inlineStr">
         <is>
-          <t>Algorta Norte S.A</t>
+          <t>Transportes Moscoso y Moscoso Ltda.</t>
         </is>
       </c>
       <c r="F470" t="n">
-        <v>6400</v>
+        <v>41075</v>
       </c>
       <c r="G470" t="inlineStr">
         <is>
@@ -22921,7 +22921,7 @@
       </c>
       <c r="I470" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4432700&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4422237&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J470" t="inlineStr">
@@ -22936,7 +22936,7 @@
       </c>
       <c r="B471" t="inlineStr">
         <is>
-          <t>Transporte y Almacenamiento temporal de Residuos Peligrosos M&amp;M ltda.</t>
+          <t>Modificacion Proyecto Minero Algorta Sector Pampa</t>
         </is>
       </c>
       <c r="C471" t="inlineStr">
@@ -22946,16 +22946,16 @@
       </c>
       <c r="D471" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E471" t="inlineStr">
         <is>
-          <t>Transportes Moscoso y Moscoso Ltda.</t>
+          <t>Algorta Norte S.A</t>
         </is>
       </c>
       <c r="F471" t="n">
-        <v>41075</v>
+        <v>6400</v>
       </c>
       <c r="G471" t="inlineStr">
         <is>
@@ -22969,7 +22969,7 @@
       </c>
       <c r="I471" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4422237&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4432700&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J471" t="inlineStr">

--- a/data/Antofagasta.xlsx
+++ b/data/Antofagasta.xlsx
@@ -447,12 +447,12 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>18/05/2022</t>
+          <t>23/05/2022</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>En Admisión</t>
+          <t>En Calificación</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
@@ -11560,7 +11560,7 @@
       </c>
       <c r="B234" t="inlineStr">
         <is>
-          <t>Planta de Fabricación de Tuberías PEX (polietileno reticulado)</t>
+          <t>Transporte Interregional de Sustancias Peligrosas - AGREDUCAM VI Región</t>
         </is>
       </c>
       <c r="C234" t="inlineStr">
@@ -11570,16 +11570,16 @@
       </c>
       <c r="D234" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E234" t="inlineStr">
         <is>
-          <t>CROSSPIPE SYSTEMS S.A.</t>
+          <t>Asociación Gremial de Dueños de Camiones de la Sexta Región</t>
         </is>
       </c>
       <c r="F234" t="n">
-        <v>12400</v>
+        <v>1200</v>
       </c>
       <c r="G234" t="inlineStr">
         <is>
@@ -11593,7 +11593,7 @@
       </c>
       <c r="I234" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128954293&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128964620&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J234" t="inlineStr">
@@ -11608,7 +11608,7 @@
       </c>
       <c r="B235" t="inlineStr">
         <is>
-          <t>Transporte Interregional de Sustancias Peligrosas - AGREDUCAM VI Región</t>
+          <t>Transporte de Residuos Peligrosos por las Rutas Indicadas</t>
         </is>
       </c>
       <c r="C235" t="inlineStr">
@@ -11623,11 +11623,11 @@
       </c>
       <c r="E235" t="inlineStr">
         <is>
-          <t>Asociación Gremial de Dueños de Camiones de la Sexta Región</t>
+          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
         </is>
       </c>
       <c r="F235" t="n">
-        <v>1200</v>
+        <v>0</v>
       </c>
       <c r="G235" t="inlineStr">
         <is>
@@ -11641,7 +11641,7 @@
       </c>
       <c r="I235" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128964620&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128972489&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J235" t="inlineStr">
@@ -11656,7 +11656,7 @@
       </c>
       <c r="B236" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos por las Rutas Indicadas</t>
+          <t>Planta de Fabricación de Tuberías PEX (polietileno reticulado)</t>
         </is>
       </c>
       <c r="C236" t="inlineStr">
@@ -11666,16 +11666,16 @@
       </c>
       <c r="D236" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E236" t="inlineStr">
         <is>
-          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
+          <t>CROSSPIPE SYSTEMS S.A.</t>
         </is>
       </c>
       <c r="F236" t="n">
-        <v>0</v>
+        <v>12400</v>
       </c>
       <c r="G236" t="inlineStr">
         <is>
@@ -11689,7 +11689,7 @@
       </c>
       <c r="I236" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128972489&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128954293&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J236" t="inlineStr">
@@ -13288,26 +13288,26 @@
       </c>
       <c r="B270" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas Transaltisa Chile Ltda</t>
+          <t>RT Sulfuros</t>
         </is>
       </c>
       <c r="C270" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D270" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E270" t="inlineStr">
         <is>
-          <t>Transaltisa Chile Ltda.</t>
+          <t>CODELCO Chile, División Radomiro Tomic</t>
         </is>
       </c>
       <c r="F270" t="n">
-        <v>2050</v>
+        <v>5.4</v>
       </c>
       <c r="G270" t="inlineStr">
         <is>
@@ -13316,12 +13316,12 @@
       </c>
       <c r="H270" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I270" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8218613&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8210090&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J270" t="inlineStr">
@@ -13336,26 +13336,26 @@
       </c>
       <c r="B271" t="inlineStr">
         <is>
-          <t>RT Sulfuros</t>
+          <t>Transporte de Sustancias Peligrosas Transaltisa Chile Ltda</t>
         </is>
       </c>
       <c r="C271" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D271" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E271" t="inlineStr">
         <is>
-          <t>CODELCO Chile, División Radomiro Tomic</t>
+          <t>Transaltisa Chile Ltda.</t>
         </is>
       </c>
       <c r="F271" t="n">
-        <v>5.4</v>
+        <v>2050</v>
       </c>
       <c r="G271" t="inlineStr">
         <is>
@@ -13364,12 +13364,12 @@
       </c>
       <c r="H271" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I271" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8210090&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8218613&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J271" t="inlineStr">
@@ -16024,7 +16024,7 @@
       </c>
       <c r="B327" t="inlineStr">
         <is>
-          <t>CENTRO DE RECUPERACIÓN DE TAMBORES Y CONTENEDORES IBC CONTAMINADOS, PLAMBIENTAL LA NEGRA</t>
+          <t>Parque Fotovoltaico Los Andes</t>
         </is>
       </c>
       <c r="C327" t="inlineStr">
@@ -16039,11 +16039,11 @@
       </c>
       <c r="E327" t="inlineStr">
         <is>
-          <t>VEOLIA SERVICIOS MINEROS INTEGRALES CHILE SpA</t>
+          <t>Andes Solar SPA</t>
         </is>
       </c>
       <c r="F327" t="n">
-        <v>60</v>
+        <v>572000</v>
       </c>
       <c r="G327" t="inlineStr">
         <is>
@@ -16052,12 +16052,12 @@
       </c>
       <c r="H327" t="inlineStr">
         <is>
-          <t>Caducado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I327" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6592870&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6581267&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J327" t="inlineStr">
@@ -16072,7 +16072,7 @@
       </c>
       <c r="B328" t="inlineStr">
         <is>
-          <t>CENTRO DE ALMACENAMIENTO DE RESIDUOS INDUSTRIALES, GESAM LA NEGRA</t>
+          <t>CENTRO DE RECUPERACIÓN DE TAMBORES Y CONTENEDORES IBC CONTAMINADOS, PLAMBIENTAL LA NEGRA</t>
         </is>
       </c>
       <c r="C328" t="inlineStr">
@@ -16091,7 +16091,7 @@
         </is>
       </c>
       <c r="F328" t="n">
-        <v>360</v>
+        <v>60</v>
       </c>
       <c r="G328" t="inlineStr">
         <is>
@@ -16105,7 +16105,7 @@
       </c>
       <c r="I328" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6595234&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6592870&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J328" t="inlineStr">
@@ -16120,7 +16120,7 @@
       </c>
       <c r="B329" t="inlineStr">
         <is>
-          <t>Parque Fotovoltaico Los Andes</t>
+          <t>CENTRO DE ALMACENAMIENTO DE RESIDUOS INDUSTRIALES, GESAM LA NEGRA</t>
         </is>
       </c>
       <c r="C329" t="inlineStr">
@@ -16135,11 +16135,11 @@
       </c>
       <c r="E329" t="inlineStr">
         <is>
-          <t>Andes Solar SPA</t>
+          <t>VEOLIA SERVICIOS MINEROS INTEGRALES CHILE SpA</t>
         </is>
       </c>
       <c r="F329" t="n">
-        <v>572000</v>
+        <v>360</v>
       </c>
       <c r="G329" t="inlineStr">
         <is>
@@ -16148,12 +16148,12 @@
       </c>
       <c r="H329" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Caducado</t>
         </is>
       </c>
       <c r="I329" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6581267&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6595234&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J329" t="inlineStr">
@@ -17512,7 +17512,7 @@
       </c>
       <c r="B358" t="inlineStr">
         <is>
-          <t>Nuevas Instalaciones para Mantención Mina</t>
+          <t>Transporte de Residuos Peligrosos</t>
         </is>
       </c>
       <c r="C358" t="inlineStr">
@@ -17522,16 +17522,16 @@
       </c>
       <c r="D358" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E358" t="inlineStr">
         <is>
-          <t>MINERA ESCONDIDA LIMITADA</t>
+          <t>Transportes TMS Limitada</t>
         </is>
       </c>
       <c r="F358" t="n">
-        <v>635000</v>
+        <v>200</v>
       </c>
       <c r="G358" t="inlineStr">
         <is>
@@ -17540,12 +17540,12 @@
       </c>
       <c r="H358" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I358" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5931343&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6003582&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J358" t="inlineStr">
@@ -17560,7 +17560,7 @@
       </c>
       <c r="B359" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos</t>
+          <t>Transporte de Sustancias Peligrosas entre la I, II y III Regiones"</t>
         </is>
       </c>
       <c r="C359" t="inlineStr">
@@ -17575,11 +17575,11 @@
       </c>
       <c r="E359" t="inlineStr">
         <is>
-          <t>Transportes TMS Limitada</t>
+          <t>Molina Quimicos S.A.</t>
         </is>
       </c>
       <c r="F359" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="G359" t="inlineStr">
         <is>
@@ -17593,7 +17593,7 @@
       </c>
       <c r="I359" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6003582&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6003607&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J359" t="inlineStr">
@@ -17608,7 +17608,7 @@
       </c>
       <c r="B360" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas entre la I, II y III Regiones"</t>
+          <t>Nuevas Instalaciones para Mantención Mina</t>
         </is>
       </c>
       <c r="C360" t="inlineStr">
@@ -17618,16 +17618,16 @@
       </c>
       <c r="D360" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E360" t="inlineStr">
         <is>
-          <t>Molina Quimicos S.A.</t>
+          <t>MINERA ESCONDIDA LIMITADA</t>
         </is>
       </c>
       <c r="F360" t="n">
-        <v>100</v>
+        <v>635000</v>
       </c>
       <c r="G360" t="inlineStr">
         <is>
@@ -17636,12 +17636,12 @@
       </c>
       <c r="H360" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I360" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6003607&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5931343&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J360" t="inlineStr">
@@ -19864,7 +19864,7 @@
       </c>
       <c r="B407" t="inlineStr">
         <is>
-          <t>II MODIFICACIÓN DIA "TRANSPORTE Y MANEJO IN SITU DE RESIDUOS SÓLIDOS Y LÍQUIDOS PELIGROSOS Y NO PELIGROSOS"</t>
+          <t>"Transporte de acido sulfurico concentrado para minera Las Cenizas, Taltal."</t>
         </is>
       </c>
       <c r="C407" t="inlineStr">
@@ -19874,16 +19874,16 @@
       </c>
       <c r="D407" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E407" t="inlineStr">
         <is>
-          <t>Mol Ambiente S.A.</t>
+          <t>Translog S.A.</t>
         </is>
       </c>
       <c r="F407" t="n">
-        <v>75000</v>
+        <v>600</v>
       </c>
       <c r="G407" t="inlineStr">
         <is>
@@ -19892,12 +19892,12 @@
       </c>
       <c r="H407" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I407" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5118945&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5114868&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J407" t="inlineStr">
@@ -19912,7 +19912,7 @@
       </c>
       <c r="B408" t="inlineStr">
         <is>
-          <t>"Transporte de acido sulfurico concentrado para minera Las Cenizas, Taltal."</t>
+          <t>II MODIFICACIÓN DIA "TRANSPORTE Y MANEJO IN SITU DE RESIDUOS SÓLIDOS Y LÍQUIDOS PELIGROSOS Y NO PELIGROSOS"</t>
         </is>
       </c>
       <c r="C408" t="inlineStr">
@@ -19922,16 +19922,16 @@
       </c>
       <c r="D408" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E408" t="inlineStr">
         <is>
-          <t>Translog S.A.</t>
+          <t>Mol Ambiente S.A.</t>
         </is>
       </c>
       <c r="F408" t="n">
-        <v>600</v>
+        <v>75000</v>
       </c>
       <c r="G408" t="inlineStr">
         <is>
@@ -19940,12 +19940,12 @@
       </c>
       <c r="H408" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I408" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5114868&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5118945&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J408" t="inlineStr">
@@ -21400,7 +21400,7 @@
       </c>
       <c r="B439" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE RESIDUOS PELIGROSOS POR RUTAS DE LA REGIÓN DE ANTOFAGASTA</t>
+          <t>Proyecto Laboratorios Químicos CIMM T&amp;S SA. La Negra</t>
         </is>
       </c>
       <c r="C439" t="inlineStr">
@@ -21415,11 +21415,11 @@
       </c>
       <c r="E439" t="inlineStr">
         <is>
-          <t>Limfosep S.A</t>
+          <t>Yancko Gonzalez Rozas</t>
         </is>
       </c>
       <c r="F439" t="n">
-        <v>1000</v>
+        <v>8000</v>
       </c>
       <c r="G439" t="inlineStr">
         <is>
@@ -21428,12 +21428,12 @@
       </c>
       <c r="H439" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I439" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4698232&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4670031&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J439" t="inlineStr">
@@ -21448,7 +21448,7 @@
       </c>
       <c r="B440" t="inlineStr">
         <is>
-          <t>Proyecto Laboratorios Químicos CIMM T&amp;S SA. La Negra</t>
+          <t>TRANSPORTE DE RESIDUOS PELIGROSOS POR RUTAS DE LA REGIÓN DE ANTOFAGASTA</t>
         </is>
       </c>
       <c r="C440" t="inlineStr">
@@ -21463,11 +21463,11 @@
       </c>
       <c r="E440" t="inlineStr">
         <is>
-          <t>Yancko Gonzalez Rozas</t>
+          <t>Limfosep S.A</t>
         </is>
       </c>
       <c r="F440" t="n">
-        <v>8000</v>
+        <v>1000</v>
       </c>
       <c r="G440" t="inlineStr">
         <is>
@@ -21476,12 +21476,12 @@
       </c>
       <c r="H440" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I440" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4670031&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4698232&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J440" t="inlineStr">
@@ -21880,7 +21880,7 @@
       </c>
       <c r="B449" t="inlineStr">
         <is>
-          <t>EXPANSION DEPOSITO DE RELAVES FILTRADOS FAENA EL PEÑÓN</t>
+          <t>Nuevo Transporte Interregional de Cianuro de Sodio</t>
         </is>
       </c>
       <c r="C449" t="inlineStr">
@@ -21890,16 +21890,16 @@
       </c>
       <c r="D449" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E449" t="inlineStr">
         <is>
-          <t>Minera Meridian Limitada</t>
+          <t>OXIQUIM S.A.</t>
         </is>
       </c>
       <c r="F449" t="n">
-        <v>688</v>
+        <v>85</v>
       </c>
       <c r="G449" t="inlineStr">
         <is>
@@ -21908,12 +21908,12 @@
       </c>
       <c r="H449" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I449" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4601640&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4594007&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J449" t="inlineStr">
@@ -21928,7 +21928,7 @@
       </c>
       <c r="B450" t="inlineStr">
         <is>
-          <t>Nuevo Transporte Interregional de Cianuro de Sodio</t>
+          <t>EXPANSION DEPOSITO DE RELAVES FILTRADOS FAENA EL PEÑÓN</t>
         </is>
       </c>
       <c r="C450" t="inlineStr">
@@ -21938,16 +21938,16 @@
       </c>
       <c r="D450" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E450" t="inlineStr">
         <is>
-          <t>OXIQUIM S.A.</t>
+          <t>Minera Meridian Limitada</t>
         </is>
       </c>
       <c r="F450" t="n">
-        <v>85</v>
+        <v>688</v>
       </c>
       <c r="G450" t="inlineStr">
         <is>
@@ -21956,12 +21956,12 @@
       </c>
       <c r="H450" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I450" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4594007&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4601640&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J450" t="inlineStr">
@@ -22696,7 +22696,7 @@
       </c>
       <c r="B466" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligroso, Transporte Bello</t>
+          <t>Transporte de Barros Anódicos</t>
         </is>
       </c>
       <c r="C466" t="inlineStr">
@@ -22711,11 +22711,11 @@
       </c>
       <c r="E466" t="inlineStr">
         <is>
-          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
+          <t>CODELCO CHILE</t>
         </is>
       </c>
       <c r="F466" t="n">
-        <v>4050</v>
+        <v>0</v>
       </c>
       <c r="G466" t="inlineStr">
         <is>
@@ -22729,7 +22729,7 @@
       </c>
       <c r="I466" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4455518&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4429880&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J466" t="inlineStr">
@@ -22744,7 +22744,7 @@
       </c>
       <c r="B467" t="inlineStr">
         <is>
-          <t>Transporte de Barros Anódicos</t>
+          <t>Transporte de Residuos Peligroso, Transporte Bello</t>
         </is>
       </c>
       <c r="C467" t="inlineStr">
@@ -22759,11 +22759,11 @@
       </c>
       <c r="E467" t="inlineStr">
         <is>
-          <t>CODELCO CHILE</t>
+          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
         </is>
       </c>
       <c r="F467" t="n">
-        <v>0</v>
+        <v>4050</v>
       </c>
       <c r="G467" t="inlineStr">
         <is>
@@ -22777,7 +22777,7 @@
       </c>
       <c r="I467" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4429880&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4455518&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J467" t="inlineStr">
@@ -22888,7 +22888,7 @@
       </c>
       <c r="B470" t="inlineStr">
         <is>
-          <t>Modificacion Proyecto Minero Algorta Sector Pampa</t>
+          <t>Transporte y Almacenamiento temporal de Residuos Peligrosos M&amp;M ltda.</t>
         </is>
       </c>
       <c r="C470" t="inlineStr">
@@ -22898,16 +22898,16 @@
       </c>
       <c r="D470" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E470" t="inlineStr">
         <is>
-          <t>Algorta Norte S.A</t>
+          <t>Transportes Moscoso y Moscoso Ltda.</t>
         </is>
       </c>
       <c r="F470" t="n">
-        <v>6400</v>
+        <v>41075</v>
       </c>
       <c r="G470" t="inlineStr">
         <is>
@@ -22921,7 +22921,7 @@
       </c>
       <c r="I470" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4432700&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4422237&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J470" t="inlineStr">
@@ -22936,7 +22936,7 @@
       </c>
       <c r="B471" t="inlineStr">
         <is>
-          <t>Transporte y Almacenamiento temporal de Residuos Peligrosos M&amp;M ltda.</t>
+          <t>Modificacion Proyecto Minero Algorta Sector Pampa</t>
         </is>
       </c>
       <c r="C471" t="inlineStr">
@@ -22946,16 +22946,16 @@
       </c>
       <c r="D471" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E471" t="inlineStr">
         <is>
-          <t>Transportes Moscoso y Moscoso Ltda.</t>
+          <t>Algorta Norte S.A</t>
         </is>
       </c>
       <c r="F471" t="n">
-        <v>41075</v>
+        <v>6400</v>
       </c>
       <c r="G471" t="inlineStr">
         <is>
@@ -22969,7 +22969,7 @@
       </c>
       <c r="I471" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4422237&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4432700&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J471" t="inlineStr">

--- a/data/Antofagasta.xlsx
+++ b/data/Antofagasta.xlsx
@@ -11608,7 +11608,7 @@
       </c>
       <c r="B235" t="inlineStr">
         <is>
-          <t>Transporte Interregional de Sustancias Peligrosas - AGREDUCAM VI Región</t>
+          <t>Planta de Fabricación de Tuberías PEX (polietileno reticulado)</t>
         </is>
       </c>
       <c r="C235" t="inlineStr">
@@ -11618,16 +11618,16 @@
       </c>
       <c r="D235" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E235" t="inlineStr">
         <is>
-          <t>Asociación Gremial de Dueños de Camiones de la Sexta Región</t>
+          <t>CROSSPIPE SYSTEMS S.A.</t>
         </is>
       </c>
       <c r="F235" t="n">
-        <v>1200</v>
+        <v>12400</v>
       </c>
       <c r="G235" t="inlineStr">
         <is>
@@ -11641,7 +11641,7 @@
       </c>
       <c r="I235" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128964620&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128954293&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J235" t="inlineStr">
@@ -11656,7 +11656,7 @@
       </c>
       <c r="B236" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos por las Rutas Indicadas</t>
+          <t>Transporte Interregional de Sustancias Peligrosas - AGREDUCAM VI Región</t>
         </is>
       </c>
       <c r="C236" t="inlineStr">
@@ -11671,11 +11671,11 @@
       </c>
       <c r="E236" t="inlineStr">
         <is>
-          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
+          <t>Asociación Gremial de Dueños de Camiones de la Sexta Región</t>
         </is>
       </c>
       <c r="F236" t="n">
-        <v>0</v>
+        <v>1200</v>
       </c>
       <c r="G236" t="inlineStr">
         <is>
@@ -11689,7 +11689,7 @@
       </c>
       <c r="I236" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128972489&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128964620&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J236" t="inlineStr">
@@ -11704,7 +11704,7 @@
       </c>
       <c r="B237" t="inlineStr">
         <is>
-          <t>Planta de Fabricación de Tuberías PEX (polietileno reticulado)</t>
+          <t>Transporte de Residuos Peligrosos por las Rutas Indicadas</t>
         </is>
       </c>
       <c r="C237" t="inlineStr">
@@ -11714,16 +11714,16 @@
       </c>
       <c r="D237" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E237" t="inlineStr">
         <is>
-          <t>CROSSPIPE SYSTEMS S.A.</t>
+          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
         </is>
       </c>
       <c r="F237" t="n">
-        <v>12400</v>
+        <v>0</v>
       </c>
       <c r="G237" t="inlineStr">
         <is>
@@ -11737,7 +11737,7 @@
       </c>
       <c r="I237" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128954293&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128972489&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J237" t="inlineStr">
@@ -13336,26 +13336,26 @@
       </c>
       <c r="B271" t="inlineStr">
         <is>
-          <t>RT Sulfuros</t>
+          <t>Transporte de Sustancias Peligrosas Transaltisa Chile Ltda</t>
         </is>
       </c>
       <c r="C271" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D271" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E271" t="inlineStr">
         <is>
-          <t>CODELCO Chile, División Radomiro Tomic</t>
+          <t>Transaltisa Chile Ltda.</t>
         </is>
       </c>
       <c r="F271" t="n">
-        <v>5.4</v>
+        <v>2050</v>
       </c>
       <c r="G271" t="inlineStr">
         <is>
@@ -13364,12 +13364,12 @@
       </c>
       <c r="H271" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I271" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8210090&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8218613&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J271" t="inlineStr">
@@ -13384,26 +13384,26 @@
       </c>
       <c r="B272" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas Transaltisa Chile Ltda</t>
+          <t>RT Sulfuros</t>
         </is>
       </c>
       <c r="C272" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D272" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E272" t="inlineStr">
         <is>
-          <t>Transaltisa Chile Ltda.</t>
+          <t>CODELCO Chile, División Radomiro Tomic</t>
         </is>
       </c>
       <c r="F272" t="n">
-        <v>2050</v>
+        <v>5.4</v>
       </c>
       <c r="G272" t="inlineStr">
         <is>
@@ -13412,12 +13412,12 @@
       </c>
       <c r="H272" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I272" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8218613&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8210090&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J272" t="inlineStr">
@@ -16072,7 +16072,7 @@
       </c>
       <c r="B328" t="inlineStr">
         <is>
-          <t>Parque Fotovoltaico Los Andes</t>
+          <t>CENTRO DE RECUPERACIÓN DE TAMBORES Y CONTENEDORES IBC CONTAMINADOS, PLAMBIENTAL LA NEGRA</t>
         </is>
       </c>
       <c r="C328" t="inlineStr">
@@ -16087,11 +16087,11 @@
       </c>
       <c r="E328" t="inlineStr">
         <is>
-          <t>Andes Solar SPA</t>
+          <t>VEOLIA SERVICIOS MINEROS INTEGRALES CHILE SpA</t>
         </is>
       </c>
       <c r="F328" t="n">
-        <v>572000</v>
+        <v>60</v>
       </c>
       <c r="G328" t="inlineStr">
         <is>
@@ -16100,12 +16100,12 @@
       </c>
       <c r="H328" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Caducado</t>
         </is>
       </c>
       <c r="I328" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6581267&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6592870&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J328" t="inlineStr">
@@ -16120,7 +16120,7 @@
       </c>
       <c r="B329" t="inlineStr">
         <is>
-          <t>CENTRO DE RECUPERACIÓN DE TAMBORES Y CONTENEDORES IBC CONTAMINADOS, PLAMBIENTAL LA NEGRA</t>
+          <t>CENTRO DE ALMACENAMIENTO DE RESIDUOS INDUSTRIALES, GESAM LA NEGRA</t>
         </is>
       </c>
       <c r="C329" t="inlineStr">
@@ -16139,7 +16139,7 @@
         </is>
       </c>
       <c r="F329" t="n">
-        <v>60</v>
+        <v>360</v>
       </c>
       <c r="G329" t="inlineStr">
         <is>
@@ -16153,7 +16153,7 @@
       </c>
       <c r="I329" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6592870&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6595234&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J329" t="inlineStr">
@@ -16168,7 +16168,7 @@
       </c>
       <c r="B330" t="inlineStr">
         <is>
-          <t>CENTRO DE ALMACENAMIENTO DE RESIDUOS INDUSTRIALES, GESAM LA NEGRA</t>
+          <t>Parque Fotovoltaico Los Andes</t>
         </is>
       </c>
       <c r="C330" t="inlineStr">
@@ -16183,11 +16183,11 @@
       </c>
       <c r="E330" t="inlineStr">
         <is>
-          <t>VEOLIA SERVICIOS MINEROS INTEGRALES CHILE SpA</t>
+          <t>Andes Solar SPA</t>
         </is>
       </c>
       <c r="F330" t="n">
-        <v>360</v>
+        <v>572000</v>
       </c>
       <c r="G330" t="inlineStr">
         <is>
@@ -16196,12 +16196,12 @@
       </c>
       <c r="H330" t="inlineStr">
         <is>
-          <t>Caducado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I330" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6595234&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6581267&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J330" t="inlineStr">
@@ -17032,7 +17032,7 @@
       </c>
       <c r="B348" t="inlineStr">
         <is>
-          <t>Extracción de Áridos Empréstito E17L</t>
+          <t>Modificación Proyecto Transporte de Acido Sulfurico a granel entre la Primera y Décima Regiones de Chile</t>
         </is>
       </c>
       <c r="C348" t="inlineStr">
@@ -17042,16 +17042,16 @@
       </c>
       <c r="D348" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E348" t="inlineStr">
         <is>
-          <t>Skanska Chile S.A.</t>
+          <t>Transportes Herrmann Limitada</t>
         </is>
       </c>
       <c r="F348" t="n">
-        <v>500</v>
+        <v>0</v>
       </c>
       <c r="G348" t="inlineStr">
         <is>
@@ -17060,12 +17060,12 @@
       </c>
       <c r="H348" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I348" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6156264&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6159602&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J348" t="inlineStr">
@@ -17080,7 +17080,7 @@
       </c>
       <c r="B349" t="inlineStr">
         <is>
-          <t>Modificación Proyecto Transporte de Acido Sulfurico a granel entre la Primera y Décima Regiones de Chile</t>
+          <t>Extracción de Áridos Empréstito E17L</t>
         </is>
       </c>
       <c r="C349" t="inlineStr">
@@ -17090,16 +17090,16 @@
       </c>
       <c r="D349" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E349" t="inlineStr">
         <is>
-          <t>Transportes Herrmann Limitada</t>
+          <t>Skanska Chile S.A.</t>
         </is>
       </c>
       <c r="F349" t="n">
-        <v>0</v>
+        <v>500</v>
       </c>
       <c r="G349" t="inlineStr">
         <is>
@@ -17108,12 +17108,12 @@
       </c>
       <c r="H349" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I349" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6159602&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6156264&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J349" t="inlineStr">
@@ -17560,7 +17560,7 @@
       </c>
       <c r="B359" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos</t>
+          <t>Nuevas Instalaciones para Mantención Mina</t>
         </is>
       </c>
       <c r="C359" t="inlineStr">
@@ -17570,16 +17570,16 @@
       </c>
       <c r="D359" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E359" t="inlineStr">
         <is>
-          <t>Transportes TMS Limitada</t>
+          <t>MINERA ESCONDIDA LIMITADA</t>
         </is>
       </c>
       <c r="F359" t="n">
-        <v>200</v>
+        <v>635000</v>
       </c>
       <c r="G359" t="inlineStr">
         <is>
@@ -17588,12 +17588,12 @@
       </c>
       <c r="H359" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I359" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6003582&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5931343&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J359" t="inlineStr">
@@ -17608,7 +17608,7 @@
       </c>
       <c r="B360" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas entre la I, II y III Regiones"</t>
+          <t>Transporte de Residuos Peligrosos</t>
         </is>
       </c>
       <c r="C360" t="inlineStr">
@@ -17623,11 +17623,11 @@
       </c>
       <c r="E360" t="inlineStr">
         <is>
-          <t>Molina Quimicos S.A.</t>
+          <t>Transportes TMS Limitada</t>
         </is>
       </c>
       <c r="F360" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="G360" t="inlineStr">
         <is>
@@ -17641,7 +17641,7 @@
       </c>
       <c r="I360" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6003607&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6003582&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J360" t="inlineStr">
@@ -17656,7 +17656,7 @@
       </c>
       <c r="B361" t="inlineStr">
         <is>
-          <t>Nuevas Instalaciones para Mantención Mina</t>
+          <t>Transporte de Sustancias Peligrosas entre la I, II y III Regiones"</t>
         </is>
       </c>
       <c r="C361" t="inlineStr">
@@ -17666,16 +17666,16 @@
       </c>
       <c r="D361" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E361" t="inlineStr">
         <is>
-          <t>MINERA ESCONDIDA LIMITADA</t>
+          <t>Molina Quimicos S.A.</t>
         </is>
       </c>
       <c r="F361" t="n">
-        <v>635000</v>
+        <v>100</v>
       </c>
       <c r="G361" t="inlineStr">
         <is>
@@ -17684,12 +17684,12 @@
       </c>
       <c r="H361" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I361" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5931343&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6003607&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J361" t="inlineStr">
@@ -19912,7 +19912,7 @@
       </c>
       <c r="B408" t="inlineStr">
         <is>
-          <t>"Transporte de acido sulfurico concentrado para minera Las Cenizas, Taltal."</t>
+          <t>II MODIFICACIÓN DIA "TRANSPORTE Y MANEJO IN SITU DE RESIDUOS SÓLIDOS Y LÍQUIDOS PELIGROSOS Y NO PELIGROSOS"</t>
         </is>
       </c>
       <c r="C408" t="inlineStr">
@@ -19922,16 +19922,16 @@
       </c>
       <c r="D408" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E408" t="inlineStr">
         <is>
-          <t>Translog S.A.</t>
+          <t>Mol Ambiente S.A.</t>
         </is>
       </c>
       <c r="F408" t="n">
-        <v>600</v>
+        <v>75000</v>
       </c>
       <c r="G408" t="inlineStr">
         <is>
@@ -19940,12 +19940,12 @@
       </c>
       <c r="H408" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I408" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5114868&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5118945&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J408" t="inlineStr">
@@ -19960,7 +19960,7 @@
       </c>
       <c r="B409" t="inlineStr">
         <is>
-          <t>II MODIFICACIÓN DIA "TRANSPORTE Y MANEJO IN SITU DE RESIDUOS SÓLIDOS Y LÍQUIDOS PELIGROSOS Y NO PELIGROSOS"</t>
+          <t>"Transporte de acido sulfurico concentrado para minera Las Cenizas, Taltal."</t>
         </is>
       </c>
       <c r="C409" t="inlineStr">
@@ -19970,16 +19970,16 @@
       </c>
       <c r="D409" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E409" t="inlineStr">
         <is>
-          <t>Mol Ambiente S.A.</t>
+          <t>Translog S.A.</t>
         </is>
       </c>
       <c r="F409" t="n">
-        <v>75000</v>
+        <v>600</v>
       </c>
       <c r="G409" t="inlineStr">
         <is>
@@ -19988,12 +19988,12 @@
       </c>
       <c r="H409" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I409" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5118945&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5114868&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J409" t="inlineStr">
@@ -21448,7 +21448,7 @@
       </c>
       <c r="B440" t="inlineStr">
         <is>
-          <t>Proyecto Laboratorios Químicos CIMM T&amp;S SA. La Negra</t>
+          <t>TRANSPORTE DE RESIDUOS PELIGROSOS POR RUTAS DE LA REGIÓN DE ANTOFAGASTA</t>
         </is>
       </c>
       <c r="C440" t="inlineStr">
@@ -21463,11 +21463,11 @@
       </c>
       <c r="E440" t="inlineStr">
         <is>
-          <t>Yancko Gonzalez Rozas</t>
+          <t>Limfosep S.A</t>
         </is>
       </c>
       <c r="F440" t="n">
-        <v>8000</v>
+        <v>1000</v>
       </c>
       <c r="G440" t="inlineStr">
         <is>
@@ -21476,12 +21476,12 @@
       </c>
       <c r="H440" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I440" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4670031&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4698232&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J440" t="inlineStr">
@@ -21496,7 +21496,7 @@
       </c>
       <c r="B441" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE RESIDUOS PELIGROSOS POR RUTAS DE LA REGIÓN DE ANTOFAGASTA</t>
+          <t>Proyecto Laboratorios Químicos CIMM T&amp;S SA. La Negra</t>
         </is>
       </c>
       <c r="C441" t="inlineStr">
@@ -21511,11 +21511,11 @@
       </c>
       <c r="E441" t="inlineStr">
         <is>
-          <t>Limfosep S.A</t>
+          <t>Yancko Gonzalez Rozas</t>
         </is>
       </c>
       <c r="F441" t="n">
-        <v>1000</v>
+        <v>8000</v>
       </c>
       <c r="G441" t="inlineStr">
         <is>
@@ -21524,12 +21524,12 @@
       </c>
       <c r="H441" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I441" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4698232&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4670031&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J441" t="inlineStr">
@@ -21928,7 +21928,7 @@
       </c>
       <c r="B450" t="inlineStr">
         <is>
-          <t>Nuevo Transporte Interregional de Cianuro de Sodio</t>
+          <t>EXPANSION DEPOSITO DE RELAVES FILTRADOS FAENA EL PEÑÓN</t>
         </is>
       </c>
       <c r="C450" t="inlineStr">
@@ -21938,16 +21938,16 @@
       </c>
       <c r="D450" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E450" t="inlineStr">
         <is>
-          <t>OXIQUIM S.A.</t>
+          <t>Minera Meridian Limitada</t>
         </is>
       </c>
       <c r="F450" t="n">
-        <v>85</v>
+        <v>688</v>
       </c>
       <c r="G450" t="inlineStr">
         <is>
@@ -21956,12 +21956,12 @@
       </c>
       <c r="H450" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I450" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4594007&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4601640&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J450" t="inlineStr">
@@ -21976,7 +21976,7 @@
       </c>
       <c r="B451" t="inlineStr">
         <is>
-          <t>EXPANSION DEPOSITO DE RELAVES FILTRADOS FAENA EL PEÑÓN</t>
+          <t>Nuevo Transporte Interregional de Cianuro de Sodio</t>
         </is>
       </c>
       <c r="C451" t="inlineStr">
@@ -21986,16 +21986,16 @@
       </c>
       <c r="D451" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E451" t="inlineStr">
         <is>
-          <t>Minera Meridian Limitada</t>
+          <t>OXIQUIM S.A.</t>
         </is>
       </c>
       <c r="F451" t="n">
-        <v>688</v>
+        <v>85</v>
       </c>
       <c r="G451" t="inlineStr">
         <is>
@@ -22004,12 +22004,12 @@
       </c>
       <c r="H451" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I451" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4601640&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4594007&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J451" t="inlineStr">

--- a/data/Antofagasta.xlsx
+++ b/data/Antofagasta.xlsx
@@ -11608,7 +11608,7 @@
       </c>
       <c r="B235" t="inlineStr">
         <is>
-          <t>Planta de Fabricación de Tuberías PEX (polietileno reticulado)</t>
+          <t>Transporte Interregional de Sustancias Peligrosas - AGREDUCAM VI Región</t>
         </is>
       </c>
       <c r="C235" t="inlineStr">
@@ -11618,16 +11618,16 @@
       </c>
       <c r="D235" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E235" t="inlineStr">
         <is>
-          <t>CROSSPIPE SYSTEMS S.A.</t>
+          <t>Asociación Gremial de Dueños de Camiones de la Sexta Región</t>
         </is>
       </c>
       <c r="F235" t="n">
-        <v>12400</v>
+        <v>1200</v>
       </c>
       <c r="G235" t="inlineStr">
         <is>
@@ -11641,7 +11641,7 @@
       </c>
       <c r="I235" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128954293&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128964620&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J235" t="inlineStr">
@@ -11656,7 +11656,7 @@
       </c>
       <c r="B236" t="inlineStr">
         <is>
-          <t>Transporte Interregional de Sustancias Peligrosas - AGREDUCAM VI Región</t>
+          <t>Transporte de Residuos Peligrosos por las Rutas Indicadas</t>
         </is>
       </c>
       <c r="C236" t="inlineStr">
@@ -11671,11 +11671,11 @@
       </c>
       <c r="E236" t="inlineStr">
         <is>
-          <t>Asociación Gremial de Dueños de Camiones de la Sexta Región</t>
+          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
         </is>
       </c>
       <c r="F236" t="n">
-        <v>1200</v>
+        <v>0</v>
       </c>
       <c r="G236" t="inlineStr">
         <is>
@@ -11689,7 +11689,7 @@
       </c>
       <c r="I236" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128964620&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128972489&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J236" t="inlineStr">
@@ -11704,7 +11704,7 @@
       </c>
       <c r="B237" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos por las Rutas Indicadas</t>
+          <t>Planta de Fabricación de Tuberías PEX (polietileno reticulado)</t>
         </is>
       </c>
       <c r="C237" t="inlineStr">
@@ -11714,16 +11714,16 @@
       </c>
       <c r="D237" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E237" t="inlineStr">
         <is>
-          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
+          <t>CROSSPIPE SYSTEMS S.A.</t>
         </is>
       </c>
       <c r="F237" t="n">
-        <v>0</v>
+        <v>12400</v>
       </c>
       <c r="G237" t="inlineStr">
         <is>
@@ -11737,7 +11737,7 @@
       </c>
       <c r="I237" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128972489&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128954293&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J237" t="inlineStr">
@@ -13336,26 +13336,26 @@
       </c>
       <c r="B271" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas Transaltisa Chile Ltda</t>
+          <t>RT Sulfuros</t>
         </is>
       </c>
       <c r="C271" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D271" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E271" t="inlineStr">
         <is>
-          <t>Transaltisa Chile Ltda.</t>
+          <t>CODELCO Chile, División Radomiro Tomic</t>
         </is>
       </c>
       <c r="F271" t="n">
-        <v>2050</v>
+        <v>5.4</v>
       </c>
       <c r="G271" t="inlineStr">
         <is>
@@ -13364,12 +13364,12 @@
       </c>
       <c r="H271" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I271" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8218613&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8210090&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J271" t="inlineStr">
@@ -13384,26 +13384,26 @@
       </c>
       <c r="B272" t="inlineStr">
         <is>
-          <t>RT Sulfuros</t>
+          <t>Transporte de Sustancias Peligrosas Transaltisa Chile Ltda</t>
         </is>
       </c>
       <c r="C272" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D272" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E272" t="inlineStr">
         <is>
-          <t>CODELCO Chile, División Radomiro Tomic</t>
+          <t>Transaltisa Chile Ltda.</t>
         </is>
       </c>
       <c r="F272" t="n">
-        <v>5.4</v>
+        <v>2050</v>
       </c>
       <c r="G272" t="inlineStr">
         <is>
@@ -13412,12 +13412,12 @@
       </c>
       <c r="H272" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I272" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8210090&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8218613&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J272" t="inlineStr">
@@ -16072,7 +16072,7 @@
       </c>
       <c r="B328" t="inlineStr">
         <is>
-          <t>CENTRO DE RECUPERACIÓN DE TAMBORES Y CONTENEDORES IBC CONTAMINADOS, PLAMBIENTAL LA NEGRA</t>
+          <t>Parque Fotovoltaico Los Andes</t>
         </is>
       </c>
       <c r="C328" t="inlineStr">
@@ -16087,11 +16087,11 @@
       </c>
       <c r="E328" t="inlineStr">
         <is>
-          <t>VEOLIA SERVICIOS MINEROS INTEGRALES CHILE SpA</t>
+          <t>Andes Solar SPA</t>
         </is>
       </c>
       <c r="F328" t="n">
-        <v>60</v>
+        <v>572000</v>
       </c>
       <c r="G328" t="inlineStr">
         <is>
@@ -16100,12 +16100,12 @@
       </c>
       <c r="H328" t="inlineStr">
         <is>
-          <t>Caducado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I328" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6592870&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6581267&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J328" t="inlineStr">
@@ -16120,7 +16120,7 @@
       </c>
       <c r="B329" t="inlineStr">
         <is>
-          <t>CENTRO DE ALMACENAMIENTO DE RESIDUOS INDUSTRIALES, GESAM LA NEGRA</t>
+          <t>CENTRO DE RECUPERACIÓN DE TAMBORES Y CONTENEDORES IBC CONTAMINADOS, PLAMBIENTAL LA NEGRA</t>
         </is>
       </c>
       <c r="C329" t="inlineStr">
@@ -16139,7 +16139,7 @@
         </is>
       </c>
       <c r="F329" t="n">
-        <v>360</v>
+        <v>60</v>
       </c>
       <c r="G329" t="inlineStr">
         <is>
@@ -16153,7 +16153,7 @@
       </c>
       <c r="I329" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6595234&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6592870&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J329" t="inlineStr">
@@ -16168,7 +16168,7 @@
       </c>
       <c r="B330" t="inlineStr">
         <is>
-          <t>Parque Fotovoltaico Los Andes</t>
+          <t>CENTRO DE ALMACENAMIENTO DE RESIDUOS INDUSTRIALES, GESAM LA NEGRA</t>
         </is>
       </c>
       <c r="C330" t="inlineStr">
@@ -16183,11 +16183,11 @@
       </c>
       <c r="E330" t="inlineStr">
         <is>
-          <t>Andes Solar SPA</t>
+          <t>VEOLIA SERVICIOS MINEROS INTEGRALES CHILE SpA</t>
         </is>
       </c>
       <c r="F330" t="n">
-        <v>572000</v>
+        <v>360</v>
       </c>
       <c r="G330" t="inlineStr">
         <is>
@@ -16196,12 +16196,12 @@
       </c>
       <c r="H330" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Caducado</t>
         </is>
       </c>
       <c r="I330" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6581267&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6595234&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J330" t="inlineStr">
@@ -17032,7 +17032,7 @@
       </c>
       <c r="B348" t="inlineStr">
         <is>
-          <t>Modificación Proyecto Transporte de Acido Sulfurico a granel entre la Primera y Décima Regiones de Chile</t>
+          <t>Extracción de Áridos Empréstito E17L</t>
         </is>
       </c>
       <c r="C348" t="inlineStr">
@@ -17042,16 +17042,16 @@
       </c>
       <c r="D348" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E348" t="inlineStr">
         <is>
-          <t>Transportes Herrmann Limitada</t>
+          <t>Skanska Chile S.A.</t>
         </is>
       </c>
       <c r="F348" t="n">
-        <v>0</v>
+        <v>500</v>
       </c>
       <c r="G348" t="inlineStr">
         <is>
@@ -17060,12 +17060,12 @@
       </c>
       <c r="H348" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I348" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6159602&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6156264&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J348" t="inlineStr">
@@ -17080,7 +17080,7 @@
       </c>
       <c r="B349" t="inlineStr">
         <is>
-          <t>Extracción de Áridos Empréstito E17L</t>
+          <t>Modificación Proyecto Transporte de Acido Sulfurico a granel entre la Primera y Décima Regiones de Chile</t>
         </is>
       </c>
       <c r="C349" t="inlineStr">
@@ -17090,16 +17090,16 @@
       </c>
       <c r="D349" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E349" t="inlineStr">
         <is>
-          <t>Skanska Chile S.A.</t>
+          <t>Transportes Herrmann Limitada</t>
         </is>
       </c>
       <c r="F349" t="n">
-        <v>500</v>
+        <v>0</v>
       </c>
       <c r="G349" t="inlineStr">
         <is>
@@ -17108,12 +17108,12 @@
       </c>
       <c r="H349" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I349" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6156264&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6159602&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J349" t="inlineStr">
@@ -17560,7 +17560,7 @@
       </c>
       <c r="B359" t="inlineStr">
         <is>
-          <t>Nuevas Instalaciones para Mantención Mina</t>
+          <t>Transporte de Residuos Peligrosos</t>
         </is>
       </c>
       <c r="C359" t="inlineStr">
@@ -17570,16 +17570,16 @@
       </c>
       <c r="D359" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E359" t="inlineStr">
         <is>
-          <t>MINERA ESCONDIDA LIMITADA</t>
+          <t>Transportes TMS Limitada</t>
         </is>
       </c>
       <c r="F359" t="n">
-        <v>635000</v>
+        <v>200</v>
       </c>
       <c r="G359" t="inlineStr">
         <is>
@@ -17588,12 +17588,12 @@
       </c>
       <c r="H359" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I359" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5931343&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6003582&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J359" t="inlineStr">
@@ -17608,7 +17608,7 @@
       </c>
       <c r="B360" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos</t>
+          <t>Transporte de Sustancias Peligrosas entre la I, II y III Regiones"</t>
         </is>
       </c>
       <c r="C360" t="inlineStr">
@@ -17623,11 +17623,11 @@
       </c>
       <c r="E360" t="inlineStr">
         <is>
-          <t>Transportes TMS Limitada</t>
+          <t>Molina Quimicos S.A.</t>
         </is>
       </c>
       <c r="F360" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="G360" t="inlineStr">
         <is>
@@ -17641,7 +17641,7 @@
       </c>
       <c r="I360" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6003582&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6003607&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J360" t="inlineStr">
@@ -17656,7 +17656,7 @@
       </c>
       <c r="B361" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas entre la I, II y III Regiones"</t>
+          <t>Nuevas Instalaciones para Mantención Mina</t>
         </is>
       </c>
       <c r="C361" t="inlineStr">
@@ -17666,16 +17666,16 @@
       </c>
       <c r="D361" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E361" t="inlineStr">
         <is>
-          <t>Molina Quimicos S.A.</t>
+          <t>MINERA ESCONDIDA LIMITADA</t>
         </is>
       </c>
       <c r="F361" t="n">
-        <v>100</v>
+        <v>635000</v>
       </c>
       <c r="G361" t="inlineStr">
         <is>
@@ -17684,12 +17684,12 @@
       </c>
       <c r="H361" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I361" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6003607&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5931343&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J361" t="inlineStr">
@@ -19912,7 +19912,7 @@
       </c>
       <c r="B408" t="inlineStr">
         <is>
-          <t>II MODIFICACIÓN DIA "TRANSPORTE Y MANEJO IN SITU DE RESIDUOS SÓLIDOS Y LÍQUIDOS PELIGROSOS Y NO PELIGROSOS"</t>
+          <t>"Transporte de acido sulfurico concentrado para minera Las Cenizas, Taltal."</t>
         </is>
       </c>
       <c r="C408" t="inlineStr">
@@ -19922,16 +19922,16 @@
       </c>
       <c r="D408" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E408" t="inlineStr">
         <is>
-          <t>Mol Ambiente S.A.</t>
+          <t>Translog S.A.</t>
         </is>
       </c>
       <c r="F408" t="n">
-        <v>75000</v>
+        <v>600</v>
       </c>
       <c r="G408" t="inlineStr">
         <is>
@@ -19940,12 +19940,12 @@
       </c>
       <c r="H408" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I408" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5118945&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5114868&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J408" t="inlineStr">
@@ -19960,7 +19960,7 @@
       </c>
       <c r="B409" t="inlineStr">
         <is>
-          <t>"Transporte de acido sulfurico concentrado para minera Las Cenizas, Taltal."</t>
+          <t>II MODIFICACIÓN DIA "TRANSPORTE Y MANEJO IN SITU DE RESIDUOS SÓLIDOS Y LÍQUIDOS PELIGROSOS Y NO PELIGROSOS"</t>
         </is>
       </c>
       <c r="C409" t="inlineStr">
@@ -19970,16 +19970,16 @@
       </c>
       <c r="D409" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E409" t="inlineStr">
         <is>
-          <t>Translog S.A.</t>
+          <t>Mol Ambiente S.A.</t>
         </is>
       </c>
       <c r="F409" t="n">
-        <v>600</v>
+        <v>75000</v>
       </c>
       <c r="G409" t="inlineStr">
         <is>
@@ -19988,12 +19988,12 @@
       </c>
       <c r="H409" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I409" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5114868&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5118945&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J409" t="inlineStr">
@@ -21448,7 +21448,7 @@
       </c>
       <c r="B440" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE RESIDUOS PELIGROSOS POR RUTAS DE LA REGIÓN DE ANTOFAGASTA</t>
+          <t>Proyecto Laboratorios Químicos CIMM T&amp;S SA. La Negra</t>
         </is>
       </c>
       <c r="C440" t="inlineStr">
@@ -21463,11 +21463,11 @@
       </c>
       <c r="E440" t="inlineStr">
         <is>
-          <t>Limfosep S.A</t>
+          <t>Yancko Gonzalez Rozas</t>
         </is>
       </c>
       <c r="F440" t="n">
-        <v>1000</v>
+        <v>8000</v>
       </c>
       <c r="G440" t="inlineStr">
         <is>
@@ -21476,12 +21476,12 @@
       </c>
       <c r="H440" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I440" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4698232&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4670031&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J440" t="inlineStr">
@@ -21496,7 +21496,7 @@
       </c>
       <c r="B441" t="inlineStr">
         <is>
-          <t>Proyecto Laboratorios Químicos CIMM T&amp;S SA. La Negra</t>
+          <t>TRANSPORTE DE RESIDUOS PELIGROSOS POR RUTAS DE LA REGIÓN DE ANTOFAGASTA</t>
         </is>
       </c>
       <c r="C441" t="inlineStr">
@@ -21511,11 +21511,11 @@
       </c>
       <c r="E441" t="inlineStr">
         <is>
-          <t>Yancko Gonzalez Rozas</t>
+          <t>Limfosep S.A</t>
         </is>
       </c>
       <c r="F441" t="n">
-        <v>8000</v>
+        <v>1000</v>
       </c>
       <c r="G441" t="inlineStr">
         <is>
@@ -21524,12 +21524,12 @@
       </c>
       <c r="H441" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I441" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4670031&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4698232&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J441" t="inlineStr">
@@ -21928,7 +21928,7 @@
       </c>
       <c r="B450" t="inlineStr">
         <is>
-          <t>EXPANSION DEPOSITO DE RELAVES FILTRADOS FAENA EL PEÑÓN</t>
+          <t>Nuevo Transporte Interregional de Cianuro de Sodio</t>
         </is>
       </c>
       <c r="C450" t="inlineStr">
@@ -21938,16 +21938,16 @@
       </c>
       <c r="D450" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E450" t="inlineStr">
         <is>
-          <t>Minera Meridian Limitada</t>
+          <t>OXIQUIM S.A.</t>
         </is>
       </c>
       <c r="F450" t="n">
-        <v>688</v>
+        <v>85</v>
       </c>
       <c r="G450" t="inlineStr">
         <is>
@@ -21956,12 +21956,12 @@
       </c>
       <c r="H450" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I450" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4601640&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4594007&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J450" t="inlineStr">
@@ -21976,7 +21976,7 @@
       </c>
       <c r="B451" t="inlineStr">
         <is>
-          <t>Nuevo Transporte Interregional de Cianuro de Sodio</t>
+          <t>EXPANSION DEPOSITO DE RELAVES FILTRADOS FAENA EL PEÑÓN</t>
         </is>
       </c>
       <c r="C451" t="inlineStr">
@@ -21986,16 +21986,16 @@
       </c>
       <c r="D451" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E451" t="inlineStr">
         <is>
-          <t>OXIQUIM S.A.</t>
+          <t>Minera Meridian Limitada</t>
         </is>
       </c>
       <c r="F451" t="n">
-        <v>85</v>
+        <v>688</v>
       </c>
       <c r="G451" t="inlineStr">
         <is>
@@ -22004,12 +22004,12 @@
       </c>
       <c r="H451" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I451" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4594007&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4601640&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J451" t="inlineStr">

--- a/data/Antofagasta.xlsx
+++ b/data/Antofagasta.xlsx
@@ -447,12 +447,12 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>17/06/2022</t>
+          <t>20/06/2022</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>En Admisión</t>
+          <t>En Calificación</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">

--- a/data/Antofagasta.xlsx
+++ b/data/Antofagasta.xlsx
@@ -1316,7 +1316,7 @@
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>En Calificación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
@@ -11608,7 +11608,7 @@
       </c>
       <c r="B235" t="inlineStr">
         <is>
-          <t>Transporte Interregional de Sustancias Peligrosas - AGREDUCAM VI Región</t>
+          <t>Planta de Fabricación de Tuberías PEX (polietileno reticulado)</t>
         </is>
       </c>
       <c r="C235" t="inlineStr">
@@ -11618,16 +11618,16 @@
       </c>
       <c r="D235" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E235" t="inlineStr">
         <is>
-          <t>Asociación Gremial de Dueños de Camiones de la Sexta Región</t>
+          <t>CROSSPIPE SYSTEMS S.A.</t>
         </is>
       </c>
       <c r="F235" t="n">
-        <v>1200</v>
+        <v>12400</v>
       </c>
       <c r="G235" t="inlineStr">
         <is>
@@ -11641,7 +11641,7 @@
       </c>
       <c r="I235" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128964620&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128954293&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J235" t="inlineStr">
@@ -11656,7 +11656,7 @@
       </c>
       <c r="B236" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos por las Rutas Indicadas</t>
+          <t>Transporte Interregional de Sustancias Peligrosas - AGREDUCAM VI Región</t>
         </is>
       </c>
       <c r="C236" t="inlineStr">
@@ -11671,11 +11671,11 @@
       </c>
       <c r="E236" t="inlineStr">
         <is>
-          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
+          <t>Asociación Gremial de Dueños de Camiones de la Sexta Región</t>
         </is>
       </c>
       <c r="F236" t="n">
-        <v>0</v>
+        <v>1200</v>
       </c>
       <c r="G236" t="inlineStr">
         <is>
@@ -11689,7 +11689,7 @@
       </c>
       <c r="I236" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128972489&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128964620&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J236" t="inlineStr">
@@ -11704,7 +11704,7 @@
       </c>
       <c r="B237" t="inlineStr">
         <is>
-          <t>Planta de Fabricación de Tuberías PEX (polietileno reticulado)</t>
+          <t>Transporte de Residuos Peligrosos por las Rutas Indicadas</t>
         </is>
       </c>
       <c r="C237" t="inlineStr">
@@ -11714,16 +11714,16 @@
       </c>
       <c r="D237" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E237" t="inlineStr">
         <is>
-          <t>CROSSPIPE SYSTEMS S.A.</t>
+          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
         </is>
       </c>
       <c r="F237" t="n">
-        <v>12400</v>
+        <v>0</v>
       </c>
       <c r="G237" t="inlineStr">
         <is>
@@ -11737,7 +11737,7 @@
       </c>
       <c r="I237" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128954293&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128972489&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J237" t="inlineStr">
@@ -13336,26 +13336,26 @@
       </c>
       <c r="B271" t="inlineStr">
         <is>
-          <t>RT Sulfuros</t>
+          <t>Transporte de Sustancias Peligrosas Transaltisa Chile Ltda</t>
         </is>
       </c>
       <c r="C271" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D271" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E271" t="inlineStr">
         <is>
-          <t>CODELCO Chile, División Radomiro Tomic</t>
+          <t>Transaltisa Chile Ltda.</t>
         </is>
       </c>
       <c r="F271" t="n">
-        <v>5.4</v>
+        <v>2050</v>
       </c>
       <c r="G271" t="inlineStr">
         <is>
@@ -13364,12 +13364,12 @@
       </c>
       <c r="H271" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I271" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8210090&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8218613&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J271" t="inlineStr">
@@ -13384,26 +13384,26 @@
       </c>
       <c r="B272" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas Transaltisa Chile Ltda</t>
+          <t>RT Sulfuros</t>
         </is>
       </c>
       <c r="C272" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D272" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E272" t="inlineStr">
         <is>
-          <t>Transaltisa Chile Ltda.</t>
+          <t>CODELCO Chile, División Radomiro Tomic</t>
         </is>
       </c>
       <c r="F272" t="n">
-        <v>2050</v>
+        <v>5.4</v>
       </c>
       <c r="G272" t="inlineStr">
         <is>
@@ -13412,12 +13412,12 @@
       </c>
       <c r="H272" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I272" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8218613&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8210090&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J272" t="inlineStr">
@@ -16072,7 +16072,7 @@
       </c>
       <c r="B328" t="inlineStr">
         <is>
-          <t>Parque Fotovoltaico Los Andes</t>
+          <t>CENTRO DE RECUPERACIÓN DE TAMBORES Y CONTENEDORES IBC CONTAMINADOS, PLAMBIENTAL LA NEGRA</t>
         </is>
       </c>
       <c r="C328" t="inlineStr">
@@ -16087,11 +16087,11 @@
       </c>
       <c r="E328" t="inlineStr">
         <is>
-          <t>Andes Solar SPA</t>
+          <t>VEOLIA SERVICIOS MINEROS INTEGRALES CHILE SpA</t>
         </is>
       </c>
       <c r="F328" t="n">
-        <v>572000</v>
+        <v>60</v>
       </c>
       <c r="G328" t="inlineStr">
         <is>
@@ -16100,12 +16100,12 @@
       </c>
       <c r="H328" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Caducado</t>
         </is>
       </c>
       <c r="I328" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6581267&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6592870&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J328" t="inlineStr">
@@ -16120,7 +16120,7 @@
       </c>
       <c r="B329" t="inlineStr">
         <is>
-          <t>CENTRO DE RECUPERACIÓN DE TAMBORES Y CONTENEDORES IBC CONTAMINADOS, PLAMBIENTAL LA NEGRA</t>
+          <t>CENTRO DE ALMACENAMIENTO DE RESIDUOS INDUSTRIALES, GESAM LA NEGRA</t>
         </is>
       </c>
       <c r="C329" t="inlineStr">
@@ -16139,7 +16139,7 @@
         </is>
       </c>
       <c r="F329" t="n">
-        <v>60</v>
+        <v>360</v>
       </c>
       <c r="G329" t="inlineStr">
         <is>
@@ -16153,7 +16153,7 @@
       </c>
       <c r="I329" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6592870&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6595234&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J329" t="inlineStr">
@@ -16168,7 +16168,7 @@
       </c>
       <c r="B330" t="inlineStr">
         <is>
-          <t>CENTRO DE ALMACENAMIENTO DE RESIDUOS INDUSTRIALES, GESAM LA NEGRA</t>
+          <t>Parque Fotovoltaico Los Andes</t>
         </is>
       </c>
       <c r="C330" t="inlineStr">
@@ -16183,11 +16183,11 @@
       </c>
       <c r="E330" t="inlineStr">
         <is>
-          <t>VEOLIA SERVICIOS MINEROS INTEGRALES CHILE SpA</t>
+          <t>Andes Solar SPA</t>
         </is>
       </c>
       <c r="F330" t="n">
-        <v>360</v>
+        <v>572000</v>
       </c>
       <c r="G330" t="inlineStr">
         <is>
@@ -16196,12 +16196,12 @@
       </c>
       <c r="H330" t="inlineStr">
         <is>
-          <t>Caducado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I330" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6595234&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6581267&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J330" t="inlineStr">
@@ -17560,7 +17560,7 @@
       </c>
       <c r="B359" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos</t>
+          <t>Nuevas Instalaciones para Mantención Mina</t>
         </is>
       </c>
       <c r="C359" t="inlineStr">
@@ -17570,16 +17570,16 @@
       </c>
       <c r="D359" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E359" t="inlineStr">
         <is>
-          <t>Transportes TMS Limitada</t>
+          <t>MINERA ESCONDIDA LIMITADA</t>
         </is>
       </c>
       <c r="F359" t="n">
-        <v>200</v>
+        <v>635000</v>
       </c>
       <c r="G359" t="inlineStr">
         <is>
@@ -17588,12 +17588,12 @@
       </c>
       <c r="H359" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I359" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6003582&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5931343&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J359" t="inlineStr">
@@ -17608,7 +17608,7 @@
       </c>
       <c r="B360" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas entre la I, II y III Regiones"</t>
+          <t>Transporte de Residuos Peligrosos</t>
         </is>
       </c>
       <c r="C360" t="inlineStr">
@@ -17623,11 +17623,11 @@
       </c>
       <c r="E360" t="inlineStr">
         <is>
-          <t>Molina Quimicos S.A.</t>
+          <t>Transportes TMS Limitada</t>
         </is>
       </c>
       <c r="F360" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="G360" t="inlineStr">
         <is>
@@ -17641,7 +17641,7 @@
       </c>
       <c r="I360" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6003607&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6003582&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J360" t="inlineStr">
@@ -17656,7 +17656,7 @@
       </c>
       <c r="B361" t="inlineStr">
         <is>
-          <t>Nuevas Instalaciones para Mantención Mina</t>
+          <t>Transporte de Sustancias Peligrosas entre la I, II y III Regiones"</t>
         </is>
       </c>
       <c r="C361" t="inlineStr">
@@ -17666,16 +17666,16 @@
       </c>
       <c r="D361" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E361" t="inlineStr">
         <is>
-          <t>MINERA ESCONDIDA LIMITADA</t>
+          <t>Molina Quimicos S.A.</t>
         </is>
       </c>
       <c r="F361" t="n">
-        <v>635000</v>
+        <v>100</v>
       </c>
       <c r="G361" t="inlineStr">
         <is>
@@ -17684,12 +17684,12 @@
       </c>
       <c r="H361" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I361" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5931343&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6003607&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J361" t="inlineStr">
@@ -19912,7 +19912,7 @@
       </c>
       <c r="B408" t="inlineStr">
         <is>
-          <t>"Transporte de acido sulfurico concentrado para minera Las Cenizas, Taltal."</t>
+          <t>II MODIFICACIÓN DIA "TRANSPORTE Y MANEJO IN SITU DE RESIDUOS SÓLIDOS Y LÍQUIDOS PELIGROSOS Y NO PELIGROSOS"</t>
         </is>
       </c>
       <c r="C408" t="inlineStr">
@@ -19922,16 +19922,16 @@
       </c>
       <c r="D408" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E408" t="inlineStr">
         <is>
-          <t>Translog S.A.</t>
+          <t>Mol Ambiente S.A.</t>
         </is>
       </c>
       <c r="F408" t="n">
-        <v>600</v>
+        <v>75000</v>
       </c>
       <c r="G408" t="inlineStr">
         <is>
@@ -19940,12 +19940,12 @@
       </c>
       <c r="H408" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I408" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5114868&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5118945&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J408" t="inlineStr">
@@ -19960,7 +19960,7 @@
       </c>
       <c r="B409" t="inlineStr">
         <is>
-          <t>II MODIFICACIÓN DIA "TRANSPORTE Y MANEJO IN SITU DE RESIDUOS SÓLIDOS Y LÍQUIDOS PELIGROSOS Y NO PELIGROSOS"</t>
+          <t>"Transporte de acido sulfurico concentrado para minera Las Cenizas, Taltal."</t>
         </is>
       </c>
       <c r="C409" t="inlineStr">
@@ -19970,16 +19970,16 @@
       </c>
       <c r="D409" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E409" t="inlineStr">
         <is>
-          <t>Mol Ambiente S.A.</t>
+          <t>Translog S.A.</t>
         </is>
       </c>
       <c r="F409" t="n">
-        <v>75000</v>
+        <v>600</v>
       </c>
       <c r="G409" t="inlineStr">
         <is>
@@ -19988,12 +19988,12 @@
       </c>
       <c r="H409" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I409" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5118945&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5114868&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J409" t="inlineStr">
@@ -21448,7 +21448,7 @@
       </c>
       <c r="B440" t="inlineStr">
         <is>
-          <t>Proyecto Laboratorios Químicos CIMM T&amp;S SA. La Negra</t>
+          <t>TRANSPORTE DE RESIDUOS PELIGROSOS POR RUTAS DE LA REGIÓN DE ANTOFAGASTA</t>
         </is>
       </c>
       <c r="C440" t="inlineStr">
@@ -21463,11 +21463,11 @@
       </c>
       <c r="E440" t="inlineStr">
         <is>
-          <t>Yancko Gonzalez Rozas</t>
+          <t>Limfosep S.A</t>
         </is>
       </c>
       <c r="F440" t="n">
-        <v>8000</v>
+        <v>1000</v>
       </c>
       <c r="G440" t="inlineStr">
         <is>
@@ -21476,12 +21476,12 @@
       </c>
       <c r="H440" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I440" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4670031&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4698232&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J440" t="inlineStr">
@@ -21496,7 +21496,7 @@
       </c>
       <c r="B441" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE RESIDUOS PELIGROSOS POR RUTAS DE LA REGIÓN DE ANTOFAGASTA</t>
+          <t>Proyecto Laboratorios Químicos CIMM T&amp;S SA. La Negra</t>
         </is>
       </c>
       <c r="C441" t="inlineStr">
@@ -21511,11 +21511,11 @@
       </c>
       <c r="E441" t="inlineStr">
         <is>
-          <t>Limfosep S.A</t>
+          <t>Yancko Gonzalez Rozas</t>
         </is>
       </c>
       <c r="F441" t="n">
-        <v>1000</v>
+        <v>8000</v>
       </c>
       <c r="G441" t="inlineStr">
         <is>
@@ -21524,12 +21524,12 @@
       </c>
       <c r="H441" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I441" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4698232&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4670031&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J441" t="inlineStr">
@@ -21928,7 +21928,7 @@
       </c>
       <c r="B450" t="inlineStr">
         <is>
-          <t>Nuevo Transporte Interregional de Cianuro de Sodio</t>
+          <t>EXPANSION DEPOSITO DE RELAVES FILTRADOS FAENA EL PEÑÓN</t>
         </is>
       </c>
       <c r="C450" t="inlineStr">
@@ -21938,16 +21938,16 @@
       </c>
       <c r="D450" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E450" t="inlineStr">
         <is>
-          <t>OXIQUIM S.A.</t>
+          <t>Minera Meridian Limitada</t>
         </is>
       </c>
       <c r="F450" t="n">
-        <v>85</v>
+        <v>688</v>
       </c>
       <c r="G450" t="inlineStr">
         <is>
@@ -21956,12 +21956,12 @@
       </c>
       <c r="H450" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I450" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4594007&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4601640&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J450" t="inlineStr">
@@ -21976,7 +21976,7 @@
       </c>
       <c r="B451" t="inlineStr">
         <is>
-          <t>EXPANSION DEPOSITO DE RELAVES FILTRADOS FAENA EL PEÑÓN</t>
+          <t>Nuevo Transporte Interregional de Cianuro de Sodio</t>
         </is>
       </c>
       <c r="C451" t="inlineStr">
@@ -21986,16 +21986,16 @@
       </c>
       <c r="D451" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E451" t="inlineStr">
         <is>
-          <t>Minera Meridian Limitada</t>
+          <t>OXIQUIM S.A.</t>
         </is>
       </c>
       <c r="F451" t="n">
-        <v>688</v>
+        <v>85</v>
       </c>
       <c r="G451" t="inlineStr">
         <is>
@@ -22004,12 +22004,12 @@
       </c>
       <c r="H451" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I451" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4601640&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4594007&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J451" t="inlineStr">
@@ -22744,7 +22744,7 @@
       </c>
       <c r="B467" t="inlineStr">
         <is>
-          <t>Transporte de Barros Anódicos</t>
+          <t>Transporte de Residuos Peligroso, Transporte Bello</t>
         </is>
       </c>
       <c r="C467" t="inlineStr">
@@ -22759,11 +22759,11 @@
       </c>
       <c r="E467" t="inlineStr">
         <is>
-          <t>CODELCO CHILE</t>
+          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
         </is>
       </c>
       <c r="F467" t="n">
-        <v>0</v>
+        <v>4050</v>
       </c>
       <c r="G467" t="inlineStr">
         <is>
@@ -22777,7 +22777,7 @@
       </c>
       <c r="I467" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4429880&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4455518&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J467" t="inlineStr">
@@ -22792,7 +22792,7 @@
       </c>
       <c r="B468" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligroso, Transporte Bello</t>
+          <t>Transporte de Barros Anódicos</t>
         </is>
       </c>
       <c r="C468" t="inlineStr">
@@ -22807,11 +22807,11 @@
       </c>
       <c r="E468" t="inlineStr">
         <is>
-          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
+          <t>CODELCO CHILE</t>
         </is>
       </c>
       <c r="F468" t="n">
-        <v>4050</v>
+        <v>0</v>
       </c>
       <c r="G468" t="inlineStr">
         <is>
@@ -22825,7 +22825,7 @@
       </c>
       <c r="I468" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4455518&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4429880&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J468" t="inlineStr">
@@ -22936,7 +22936,7 @@
       </c>
       <c r="B471" t="inlineStr">
         <is>
-          <t>Transporte y Almacenamiento temporal de Residuos Peligrosos M&amp;M ltda.</t>
+          <t>Modificacion Proyecto Minero Algorta Sector Pampa</t>
         </is>
       </c>
       <c r="C471" t="inlineStr">
@@ -22946,16 +22946,16 @@
       </c>
       <c r="D471" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E471" t="inlineStr">
         <is>
-          <t>Transportes Moscoso y Moscoso Ltda.</t>
+          <t>Algorta Norte S.A</t>
         </is>
       </c>
       <c r="F471" t="n">
-        <v>41075</v>
+        <v>6400</v>
       </c>
       <c r="G471" t="inlineStr">
         <is>
@@ -22969,7 +22969,7 @@
       </c>
       <c r="I471" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4422237&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4432700&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J471" t="inlineStr">
@@ -22984,7 +22984,7 @@
       </c>
       <c r="B472" t="inlineStr">
         <is>
-          <t>Modificacion Proyecto Minero Algorta Sector Pampa</t>
+          <t>Transporte y Almacenamiento temporal de Residuos Peligrosos M&amp;M ltda.</t>
         </is>
       </c>
       <c r="C472" t="inlineStr">
@@ -22994,16 +22994,16 @@
       </c>
       <c r="D472" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E472" t="inlineStr">
         <is>
-          <t>Algorta Norte S.A</t>
+          <t>Transportes Moscoso y Moscoso Ltda.</t>
         </is>
       </c>
       <c r="F472" t="n">
-        <v>6400</v>
+        <v>41075</v>
       </c>
       <c r="G472" t="inlineStr">
         <is>
@@ -23017,7 +23017,7 @@
       </c>
       <c r="I472" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4432700&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4422237&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J472" t="inlineStr">

--- a/data/Antofagasta.xlsx
+++ b/data/Antofagasta.xlsx
@@ -11608,7 +11608,7 @@
       </c>
       <c r="B235" t="inlineStr">
         <is>
-          <t>Planta de Fabricación de Tuberías PEX (polietileno reticulado)</t>
+          <t>Transporte Interregional de Sustancias Peligrosas - AGREDUCAM VI Región</t>
         </is>
       </c>
       <c r="C235" t="inlineStr">
@@ -11618,16 +11618,16 @@
       </c>
       <c r="D235" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E235" t="inlineStr">
         <is>
-          <t>CROSSPIPE SYSTEMS S.A.</t>
+          <t>Asociación Gremial de Dueños de Camiones de la Sexta Región</t>
         </is>
       </c>
       <c r="F235" t="n">
-        <v>12400</v>
+        <v>1200</v>
       </c>
       <c r="G235" t="inlineStr">
         <is>
@@ -11641,7 +11641,7 @@
       </c>
       <c r="I235" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128954293&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128964620&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J235" t="inlineStr">
@@ -11656,7 +11656,7 @@
       </c>
       <c r="B236" t="inlineStr">
         <is>
-          <t>Transporte Interregional de Sustancias Peligrosas - AGREDUCAM VI Región</t>
+          <t>Transporte de Residuos Peligrosos por las Rutas Indicadas</t>
         </is>
       </c>
       <c r="C236" t="inlineStr">
@@ -11671,11 +11671,11 @@
       </c>
       <c r="E236" t="inlineStr">
         <is>
-          <t>Asociación Gremial de Dueños de Camiones de la Sexta Región</t>
+          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
         </is>
       </c>
       <c r="F236" t="n">
-        <v>1200</v>
+        <v>0</v>
       </c>
       <c r="G236" t="inlineStr">
         <is>
@@ -11689,7 +11689,7 @@
       </c>
       <c r="I236" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128964620&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128972489&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J236" t="inlineStr">
@@ -11704,7 +11704,7 @@
       </c>
       <c r="B237" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos por las Rutas Indicadas</t>
+          <t>Planta de Fabricación de Tuberías PEX (polietileno reticulado)</t>
         </is>
       </c>
       <c r="C237" t="inlineStr">
@@ -11714,16 +11714,16 @@
       </c>
       <c r="D237" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E237" t="inlineStr">
         <is>
-          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
+          <t>CROSSPIPE SYSTEMS S.A.</t>
         </is>
       </c>
       <c r="F237" t="n">
-        <v>0</v>
+        <v>12400</v>
       </c>
       <c r="G237" t="inlineStr">
         <is>
@@ -11737,7 +11737,7 @@
       </c>
       <c r="I237" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128972489&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128954293&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J237" t="inlineStr">
@@ -13336,26 +13336,26 @@
       </c>
       <c r="B271" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas Transaltisa Chile Ltda</t>
+          <t>RT Sulfuros</t>
         </is>
       </c>
       <c r="C271" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D271" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E271" t="inlineStr">
         <is>
-          <t>Transaltisa Chile Ltda.</t>
+          <t>CODELCO Chile, División Radomiro Tomic</t>
         </is>
       </c>
       <c r="F271" t="n">
-        <v>2050</v>
+        <v>5.4</v>
       </c>
       <c r="G271" t="inlineStr">
         <is>
@@ -13364,12 +13364,12 @@
       </c>
       <c r="H271" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I271" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8218613&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8210090&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J271" t="inlineStr">
@@ -13384,26 +13384,26 @@
       </c>
       <c r="B272" t="inlineStr">
         <is>
-          <t>RT Sulfuros</t>
+          <t>Transporte de Sustancias Peligrosas Transaltisa Chile Ltda</t>
         </is>
       </c>
       <c r="C272" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D272" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E272" t="inlineStr">
         <is>
-          <t>CODELCO Chile, División Radomiro Tomic</t>
+          <t>Transaltisa Chile Ltda.</t>
         </is>
       </c>
       <c r="F272" t="n">
-        <v>5.4</v>
+        <v>2050</v>
       </c>
       <c r="G272" t="inlineStr">
         <is>
@@ -13412,12 +13412,12 @@
       </c>
       <c r="H272" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I272" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8210090&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8218613&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J272" t="inlineStr">
@@ -16072,7 +16072,7 @@
       </c>
       <c r="B328" t="inlineStr">
         <is>
-          <t>CENTRO DE RECUPERACIÓN DE TAMBORES Y CONTENEDORES IBC CONTAMINADOS, PLAMBIENTAL LA NEGRA</t>
+          <t>Parque Fotovoltaico Los Andes</t>
         </is>
       </c>
       <c r="C328" t="inlineStr">
@@ -16087,11 +16087,11 @@
       </c>
       <c r="E328" t="inlineStr">
         <is>
-          <t>VEOLIA SERVICIOS MINEROS INTEGRALES CHILE SpA</t>
+          <t>Andes Solar SPA</t>
         </is>
       </c>
       <c r="F328" t="n">
-        <v>60</v>
+        <v>572000</v>
       </c>
       <c r="G328" t="inlineStr">
         <is>
@@ -16100,12 +16100,12 @@
       </c>
       <c r="H328" t="inlineStr">
         <is>
-          <t>Caducado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I328" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6592870&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6581267&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J328" t="inlineStr">
@@ -16120,7 +16120,7 @@
       </c>
       <c r="B329" t="inlineStr">
         <is>
-          <t>CENTRO DE ALMACENAMIENTO DE RESIDUOS INDUSTRIALES, GESAM LA NEGRA</t>
+          <t>CENTRO DE RECUPERACIÓN DE TAMBORES Y CONTENEDORES IBC CONTAMINADOS, PLAMBIENTAL LA NEGRA</t>
         </is>
       </c>
       <c r="C329" t="inlineStr">
@@ -16139,7 +16139,7 @@
         </is>
       </c>
       <c r="F329" t="n">
-        <v>360</v>
+        <v>60</v>
       </c>
       <c r="G329" t="inlineStr">
         <is>
@@ -16153,7 +16153,7 @@
       </c>
       <c r="I329" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6595234&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6592870&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J329" t="inlineStr">
@@ -16168,7 +16168,7 @@
       </c>
       <c r="B330" t="inlineStr">
         <is>
-          <t>Parque Fotovoltaico Los Andes</t>
+          <t>CENTRO DE ALMACENAMIENTO DE RESIDUOS INDUSTRIALES, GESAM LA NEGRA</t>
         </is>
       </c>
       <c r="C330" t="inlineStr">
@@ -16183,11 +16183,11 @@
       </c>
       <c r="E330" t="inlineStr">
         <is>
-          <t>Andes Solar SPA</t>
+          <t>VEOLIA SERVICIOS MINEROS INTEGRALES CHILE SpA</t>
         </is>
       </c>
       <c r="F330" t="n">
-        <v>572000</v>
+        <v>360</v>
       </c>
       <c r="G330" t="inlineStr">
         <is>
@@ -16196,12 +16196,12 @@
       </c>
       <c r="H330" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Caducado</t>
         </is>
       </c>
       <c r="I330" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6581267&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6595234&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J330" t="inlineStr">
@@ -17560,7 +17560,7 @@
       </c>
       <c r="B359" t="inlineStr">
         <is>
-          <t>Nuevas Instalaciones para Mantención Mina</t>
+          <t>Transporte de Residuos Peligrosos</t>
         </is>
       </c>
       <c r="C359" t="inlineStr">
@@ -17570,16 +17570,16 @@
       </c>
       <c r="D359" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E359" t="inlineStr">
         <is>
-          <t>MINERA ESCONDIDA LIMITADA</t>
+          <t>Transportes TMS Limitada</t>
         </is>
       </c>
       <c r="F359" t="n">
-        <v>635000</v>
+        <v>200</v>
       </c>
       <c r="G359" t="inlineStr">
         <is>
@@ -17588,12 +17588,12 @@
       </c>
       <c r="H359" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I359" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5931343&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6003582&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J359" t="inlineStr">
@@ -17608,7 +17608,7 @@
       </c>
       <c r="B360" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos</t>
+          <t>Transporte de Sustancias Peligrosas entre la I, II y III Regiones"</t>
         </is>
       </c>
       <c r="C360" t="inlineStr">
@@ -17623,11 +17623,11 @@
       </c>
       <c r="E360" t="inlineStr">
         <is>
-          <t>Transportes TMS Limitada</t>
+          <t>Molina Quimicos S.A.</t>
         </is>
       </c>
       <c r="F360" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="G360" t="inlineStr">
         <is>
@@ -17641,7 +17641,7 @@
       </c>
       <c r="I360" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6003582&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6003607&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J360" t="inlineStr">
@@ -17656,7 +17656,7 @@
       </c>
       <c r="B361" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas entre la I, II y III Regiones"</t>
+          <t>Nuevas Instalaciones para Mantención Mina</t>
         </is>
       </c>
       <c r="C361" t="inlineStr">
@@ -17666,16 +17666,16 @@
       </c>
       <c r="D361" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E361" t="inlineStr">
         <is>
-          <t>Molina Quimicos S.A.</t>
+          <t>MINERA ESCONDIDA LIMITADA</t>
         </is>
       </c>
       <c r="F361" t="n">
-        <v>100</v>
+        <v>635000</v>
       </c>
       <c r="G361" t="inlineStr">
         <is>
@@ -17684,12 +17684,12 @@
       </c>
       <c r="H361" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I361" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6003607&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5931343&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J361" t="inlineStr">
@@ -19912,7 +19912,7 @@
       </c>
       <c r="B408" t="inlineStr">
         <is>
-          <t>II MODIFICACIÓN DIA "TRANSPORTE Y MANEJO IN SITU DE RESIDUOS SÓLIDOS Y LÍQUIDOS PELIGROSOS Y NO PELIGROSOS"</t>
+          <t>"Transporte de acido sulfurico concentrado para minera Las Cenizas, Taltal."</t>
         </is>
       </c>
       <c r="C408" t="inlineStr">
@@ -19922,16 +19922,16 @@
       </c>
       <c r="D408" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E408" t="inlineStr">
         <is>
-          <t>Mol Ambiente S.A.</t>
+          <t>Translog S.A.</t>
         </is>
       </c>
       <c r="F408" t="n">
-        <v>75000</v>
+        <v>600</v>
       </c>
       <c r="G408" t="inlineStr">
         <is>
@@ -19940,12 +19940,12 @@
       </c>
       <c r="H408" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I408" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5118945&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5114868&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J408" t="inlineStr">
@@ -19960,7 +19960,7 @@
       </c>
       <c r="B409" t="inlineStr">
         <is>
-          <t>"Transporte de acido sulfurico concentrado para minera Las Cenizas, Taltal."</t>
+          <t>II MODIFICACIÓN DIA "TRANSPORTE Y MANEJO IN SITU DE RESIDUOS SÓLIDOS Y LÍQUIDOS PELIGROSOS Y NO PELIGROSOS"</t>
         </is>
       </c>
       <c r="C409" t="inlineStr">
@@ -19970,16 +19970,16 @@
       </c>
       <c r="D409" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E409" t="inlineStr">
         <is>
-          <t>Translog S.A.</t>
+          <t>Mol Ambiente S.A.</t>
         </is>
       </c>
       <c r="F409" t="n">
-        <v>600</v>
+        <v>75000</v>
       </c>
       <c r="G409" t="inlineStr">
         <is>
@@ -19988,12 +19988,12 @@
       </c>
       <c r="H409" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I409" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5114868&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5118945&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J409" t="inlineStr">
@@ -21448,7 +21448,7 @@
       </c>
       <c r="B440" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE RESIDUOS PELIGROSOS POR RUTAS DE LA REGIÓN DE ANTOFAGASTA</t>
+          <t>Proyecto Laboratorios Químicos CIMM T&amp;S SA. La Negra</t>
         </is>
       </c>
       <c r="C440" t="inlineStr">
@@ -21463,11 +21463,11 @@
       </c>
       <c r="E440" t="inlineStr">
         <is>
-          <t>Limfosep S.A</t>
+          <t>Yancko Gonzalez Rozas</t>
         </is>
       </c>
       <c r="F440" t="n">
-        <v>1000</v>
+        <v>8000</v>
       </c>
       <c r="G440" t="inlineStr">
         <is>
@@ -21476,12 +21476,12 @@
       </c>
       <c r="H440" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I440" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4698232&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4670031&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J440" t="inlineStr">
@@ -21496,7 +21496,7 @@
       </c>
       <c r="B441" t="inlineStr">
         <is>
-          <t>Proyecto Laboratorios Químicos CIMM T&amp;S SA. La Negra</t>
+          <t>TRANSPORTE DE RESIDUOS PELIGROSOS POR RUTAS DE LA REGIÓN DE ANTOFAGASTA</t>
         </is>
       </c>
       <c r="C441" t="inlineStr">
@@ -21511,11 +21511,11 @@
       </c>
       <c r="E441" t="inlineStr">
         <is>
-          <t>Yancko Gonzalez Rozas</t>
+          <t>Limfosep S.A</t>
         </is>
       </c>
       <c r="F441" t="n">
-        <v>8000</v>
+        <v>1000</v>
       </c>
       <c r="G441" t="inlineStr">
         <is>
@@ -21524,12 +21524,12 @@
       </c>
       <c r="H441" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I441" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4670031&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4698232&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J441" t="inlineStr">
@@ -21928,7 +21928,7 @@
       </c>
       <c r="B450" t="inlineStr">
         <is>
-          <t>EXPANSION DEPOSITO DE RELAVES FILTRADOS FAENA EL PEÑÓN</t>
+          <t>Nuevo Transporte Interregional de Cianuro de Sodio</t>
         </is>
       </c>
       <c r="C450" t="inlineStr">
@@ -21938,16 +21938,16 @@
       </c>
       <c r="D450" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E450" t="inlineStr">
         <is>
-          <t>Minera Meridian Limitada</t>
+          <t>OXIQUIM S.A.</t>
         </is>
       </c>
       <c r="F450" t="n">
-        <v>688</v>
+        <v>85</v>
       </c>
       <c r="G450" t="inlineStr">
         <is>
@@ -21956,12 +21956,12 @@
       </c>
       <c r="H450" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I450" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4601640&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4594007&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J450" t="inlineStr">
@@ -21976,7 +21976,7 @@
       </c>
       <c r="B451" t="inlineStr">
         <is>
-          <t>Nuevo Transporte Interregional de Cianuro de Sodio</t>
+          <t>EXPANSION DEPOSITO DE RELAVES FILTRADOS FAENA EL PEÑÓN</t>
         </is>
       </c>
       <c r="C451" t="inlineStr">
@@ -21986,16 +21986,16 @@
       </c>
       <c r="D451" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E451" t="inlineStr">
         <is>
-          <t>OXIQUIM S.A.</t>
+          <t>Minera Meridian Limitada</t>
         </is>
       </c>
       <c r="F451" t="n">
-        <v>85</v>
+        <v>688</v>
       </c>
       <c r="G451" t="inlineStr">
         <is>
@@ -22004,12 +22004,12 @@
       </c>
       <c r="H451" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I451" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4594007&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4601640&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J451" t="inlineStr">
@@ -22744,7 +22744,7 @@
       </c>
       <c r="B467" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligroso, Transporte Bello</t>
+          <t>Transporte de Barros Anódicos</t>
         </is>
       </c>
       <c r="C467" t="inlineStr">
@@ -22759,11 +22759,11 @@
       </c>
       <c r="E467" t="inlineStr">
         <is>
-          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
+          <t>CODELCO CHILE</t>
         </is>
       </c>
       <c r="F467" t="n">
-        <v>4050</v>
+        <v>0</v>
       </c>
       <c r="G467" t="inlineStr">
         <is>
@@ -22777,7 +22777,7 @@
       </c>
       <c r="I467" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4455518&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4429880&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J467" t="inlineStr">
@@ -22792,7 +22792,7 @@
       </c>
       <c r="B468" t="inlineStr">
         <is>
-          <t>Transporte de Barros Anódicos</t>
+          <t>Transporte de Residuos Peligroso, Transporte Bello</t>
         </is>
       </c>
       <c r="C468" t="inlineStr">
@@ -22807,11 +22807,11 @@
       </c>
       <c r="E468" t="inlineStr">
         <is>
-          <t>CODELCO CHILE</t>
+          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
         </is>
       </c>
       <c r="F468" t="n">
-        <v>0</v>
+        <v>4050</v>
       </c>
       <c r="G468" t="inlineStr">
         <is>
@@ -22825,7 +22825,7 @@
       </c>
       <c r="I468" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4429880&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4455518&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J468" t="inlineStr">
@@ -22936,7 +22936,7 @@
       </c>
       <c r="B471" t="inlineStr">
         <is>
-          <t>Modificacion Proyecto Minero Algorta Sector Pampa</t>
+          <t>Transporte y Almacenamiento temporal de Residuos Peligrosos M&amp;M ltda.</t>
         </is>
       </c>
       <c r="C471" t="inlineStr">
@@ -22946,16 +22946,16 @@
       </c>
       <c r="D471" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E471" t="inlineStr">
         <is>
-          <t>Algorta Norte S.A</t>
+          <t>Transportes Moscoso y Moscoso Ltda.</t>
         </is>
       </c>
       <c r="F471" t="n">
-        <v>6400</v>
+        <v>41075</v>
       </c>
       <c r="G471" t="inlineStr">
         <is>
@@ -22969,7 +22969,7 @@
       </c>
       <c r="I471" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4432700&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4422237&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J471" t="inlineStr">
@@ -22984,7 +22984,7 @@
       </c>
       <c r="B472" t="inlineStr">
         <is>
-          <t>Transporte y Almacenamiento temporal de Residuos Peligrosos M&amp;M ltda.</t>
+          <t>Modificacion Proyecto Minero Algorta Sector Pampa</t>
         </is>
       </c>
       <c r="C472" t="inlineStr">
@@ -22994,16 +22994,16 @@
       </c>
       <c r="D472" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E472" t="inlineStr">
         <is>
-          <t>Transportes Moscoso y Moscoso Ltda.</t>
+          <t>Algorta Norte S.A</t>
         </is>
       </c>
       <c r="F472" t="n">
-        <v>41075</v>
+        <v>6400</v>
       </c>
       <c r="G472" t="inlineStr">
         <is>
@@ -23017,7 +23017,7 @@
       </c>
       <c r="I472" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4422237&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4432700&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J472" t="inlineStr">

--- a/data/Antofagasta.xlsx
+++ b/data/Antofagasta.xlsx
@@ -980,7 +980,7 @@
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>En Calificación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
@@ -11608,7 +11608,7 @@
       </c>
       <c r="B235" t="inlineStr">
         <is>
-          <t>Transporte Interregional de Sustancias Peligrosas - AGREDUCAM VI Región</t>
+          <t>Planta de Fabricación de Tuberías PEX (polietileno reticulado)</t>
         </is>
       </c>
       <c r="C235" t="inlineStr">
@@ -11618,16 +11618,16 @@
       </c>
       <c r="D235" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E235" t="inlineStr">
         <is>
-          <t>Asociación Gremial de Dueños de Camiones de la Sexta Región</t>
+          <t>CROSSPIPE SYSTEMS S.A.</t>
         </is>
       </c>
       <c r="F235" t="n">
-        <v>1200</v>
+        <v>12400</v>
       </c>
       <c r="G235" t="inlineStr">
         <is>
@@ -11641,7 +11641,7 @@
       </c>
       <c r="I235" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128964620&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128954293&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J235" t="inlineStr">
@@ -11656,7 +11656,7 @@
       </c>
       <c r="B236" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos por las Rutas Indicadas</t>
+          <t>Transporte Interregional de Sustancias Peligrosas - AGREDUCAM VI Región</t>
         </is>
       </c>
       <c r="C236" t="inlineStr">
@@ -11671,11 +11671,11 @@
       </c>
       <c r="E236" t="inlineStr">
         <is>
-          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
+          <t>Asociación Gremial de Dueños de Camiones de la Sexta Región</t>
         </is>
       </c>
       <c r="F236" t="n">
-        <v>0</v>
+        <v>1200</v>
       </c>
       <c r="G236" t="inlineStr">
         <is>
@@ -11689,7 +11689,7 @@
       </c>
       <c r="I236" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128972489&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128964620&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J236" t="inlineStr">
@@ -11704,7 +11704,7 @@
       </c>
       <c r="B237" t="inlineStr">
         <is>
-          <t>Planta de Fabricación de Tuberías PEX (polietileno reticulado)</t>
+          <t>Transporte de Residuos Peligrosos por las Rutas Indicadas</t>
         </is>
       </c>
       <c r="C237" t="inlineStr">
@@ -11714,16 +11714,16 @@
       </c>
       <c r="D237" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E237" t="inlineStr">
         <is>
-          <t>CROSSPIPE SYSTEMS S.A.</t>
+          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
         </is>
       </c>
       <c r="F237" t="n">
-        <v>12400</v>
+        <v>0</v>
       </c>
       <c r="G237" t="inlineStr">
         <is>
@@ -11737,7 +11737,7 @@
       </c>
       <c r="I237" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128954293&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128972489&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J237" t="inlineStr">
@@ -13336,26 +13336,26 @@
       </c>
       <c r="B271" t="inlineStr">
         <is>
-          <t>RT Sulfuros</t>
+          <t>Transporte de Sustancias Peligrosas Transaltisa Chile Ltda</t>
         </is>
       </c>
       <c r="C271" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D271" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E271" t="inlineStr">
         <is>
-          <t>CODELCO Chile, División Radomiro Tomic</t>
+          <t>Transaltisa Chile Ltda.</t>
         </is>
       </c>
       <c r="F271" t="n">
-        <v>5.4</v>
+        <v>2050</v>
       </c>
       <c r="G271" t="inlineStr">
         <is>
@@ -13364,12 +13364,12 @@
       </c>
       <c r="H271" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I271" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8210090&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8218613&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J271" t="inlineStr">
@@ -13384,26 +13384,26 @@
       </c>
       <c r="B272" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas Transaltisa Chile Ltda</t>
+          <t>RT Sulfuros</t>
         </is>
       </c>
       <c r="C272" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D272" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E272" t="inlineStr">
         <is>
-          <t>Transaltisa Chile Ltda.</t>
+          <t>CODELCO Chile, División Radomiro Tomic</t>
         </is>
       </c>
       <c r="F272" t="n">
-        <v>2050</v>
+        <v>5.4</v>
       </c>
       <c r="G272" t="inlineStr">
         <is>
@@ -13412,12 +13412,12 @@
       </c>
       <c r="H272" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I272" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8218613&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8210090&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J272" t="inlineStr">
@@ -16072,7 +16072,7 @@
       </c>
       <c r="B328" t="inlineStr">
         <is>
-          <t>Parque Fotovoltaico Los Andes</t>
+          <t>CENTRO DE RECUPERACIÓN DE TAMBORES Y CONTENEDORES IBC CONTAMINADOS, PLAMBIENTAL LA NEGRA</t>
         </is>
       </c>
       <c r="C328" t="inlineStr">
@@ -16087,11 +16087,11 @@
       </c>
       <c r="E328" t="inlineStr">
         <is>
-          <t>Andes Solar SPA</t>
+          <t>VEOLIA SERVICIOS MINEROS INTEGRALES CHILE SpA</t>
         </is>
       </c>
       <c r="F328" t="n">
-        <v>572000</v>
+        <v>60</v>
       </c>
       <c r="G328" t="inlineStr">
         <is>
@@ -16100,12 +16100,12 @@
       </c>
       <c r="H328" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Caducado</t>
         </is>
       </c>
       <c r="I328" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6581267&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6592870&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J328" t="inlineStr">
@@ -16120,7 +16120,7 @@
       </c>
       <c r="B329" t="inlineStr">
         <is>
-          <t>CENTRO DE RECUPERACIÓN DE TAMBORES Y CONTENEDORES IBC CONTAMINADOS, PLAMBIENTAL LA NEGRA</t>
+          <t>CENTRO DE ALMACENAMIENTO DE RESIDUOS INDUSTRIALES, GESAM LA NEGRA</t>
         </is>
       </c>
       <c r="C329" t="inlineStr">
@@ -16139,7 +16139,7 @@
         </is>
       </c>
       <c r="F329" t="n">
-        <v>60</v>
+        <v>360</v>
       </c>
       <c r="G329" t="inlineStr">
         <is>
@@ -16153,7 +16153,7 @@
       </c>
       <c r="I329" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6592870&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6595234&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J329" t="inlineStr">
@@ -16168,7 +16168,7 @@
       </c>
       <c r="B330" t="inlineStr">
         <is>
-          <t>CENTRO DE ALMACENAMIENTO DE RESIDUOS INDUSTRIALES, GESAM LA NEGRA</t>
+          <t>Parque Fotovoltaico Los Andes</t>
         </is>
       </c>
       <c r="C330" t="inlineStr">
@@ -16183,11 +16183,11 @@
       </c>
       <c r="E330" t="inlineStr">
         <is>
-          <t>VEOLIA SERVICIOS MINEROS INTEGRALES CHILE SpA</t>
+          <t>Andes Solar SPA</t>
         </is>
       </c>
       <c r="F330" t="n">
-        <v>360</v>
+        <v>572000</v>
       </c>
       <c r="G330" t="inlineStr">
         <is>
@@ -16196,12 +16196,12 @@
       </c>
       <c r="H330" t="inlineStr">
         <is>
-          <t>Caducado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I330" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6595234&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6581267&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J330" t="inlineStr">
@@ -17560,7 +17560,7 @@
       </c>
       <c r="B359" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos</t>
+          <t>Nuevas Instalaciones para Mantención Mina</t>
         </is>
       </c>
       <c r="C359" t="inlineStr">
@@ -17570,16 +17570,16 @@
       </c>
       <c r="D359" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E359" t="inlineStr">
         <is>
-          <t>Transportes TMS Limitada</t>
+          <t>MINERA ESCONDIDA LIMITADA</t>
         </is>
       </c>
       <c r="F359" t="n">
-        <v>200</v>
+        <v>635000</v>
       </c>
       <c r="G359" t="inlineStr">
         <is>
@@ -17588,12 +17588,12 @@
       </c>
       <c r="H359" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I359" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6003582&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5931343&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J359" t="inlineStr">
@@ -17608,7 +17608,7 @@
       </c>
       <c r="B360" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas entre la I, II y III Regiones"</t>
+          <t>Transporte de Residuos Peligrosos</t>
         </is>
       </c>
       <c r="C360" t="inlineStr">
@@ -17623,11 +17623,11 @@
       </c>
       <c r="E360" t="inlineStr">
         <is>
-          <t>Molina Quimicos S.A.</t>
+          <t>Transportes TMS Limitada</t>
         </is>
       </c>
       <c r="F360" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="G360" t="inlineStr">
         <is>
@@ -17641,7 +17641,7 @@
       </c>
       <c r="I360" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6003607&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6003582&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J360" t="inlineStr">
@@ -17656,7 +17656,7 @@
       </c>
       <c r="B361" t="inlineStr">
         <is>
-          <t>Nuevas Instalaciones para Mantención Mina</t>
+          <t>Transporte de Sustancias Peligrosas entre la I, II y III Regiones"</t>
         </is>
       </c>
       <c r="C361" t="inlineStr">
@@ -17666,16 +17666,16 @@
       </c>
       <c r="D361" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E361" t="inlineStr">
         <is>
-          <t>MINERA ESCONDIDA LIMITADA</t>
+          <t>Molina Quimicos S.A.</t>
         </is>
       </c>
       <c r="F361" t="n">
-        <v>635000</v>
+        <v>100</v>
       </c>
       <c r="G361" t="inlineStr">
         <is>
@@ -17684,12 +17684,12 @@
       </c>
       <c r="H361" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I361" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5931343&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6003607&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J361" t="inlineStr">
@@ -19912,7 +19912,7 @@
       </c>
       <c r="B408" t="inlineStr">
         <is>
-          <t>"Transporte de acido sulfurico concentrado para minera Las Cenizas, Taltal."</t>
+          <t>II MODIFICACIÓN DIA "TRANSPORTE Y MANEJO IN SITU DE RESIDUOS SÓLIDOS Y LÍQUIDOS PELIGROSOS Y NO PELIGROSOS"</t>
         </is>
       </c>
       <c r="C408" t="inlineStr">
@@ -19922,16 +19922,16 @@
       </c>
       <c r="D408" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E408" t="inlineStr">
         <is>
-          <t>Translog S.A.</t>
+          <t>Mol Ambiente S.A.</t>
         </is>
       </c>
       <c r="F408" t="n">
-        <v>600</v>
+        <v>75000</v>
       </c>
       <c r="G408" t="inlineStr">
         <is>
@@ -19940,12 +19940,12 @@
       </c>
       <c r="H408" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I408" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5114868&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5118945&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J408" t="inlineStr">
@@ -19960,7 +19960,7 @@
       </c>
       <c r="B409" t="inlineStr">
         <is>
-          <t>II MODIFICACIÓN DIA "TRANSPORTE Y MANEJO IN SITU DE RESIDUOS SÓLIDOS Y LÍQUIDOS PELIGROSOS Y NO PELIGROSOS"</t>
+          <t>"Transporte de acido sulfurico concentrado para minera Las Cenizas, Taltal."</t>
         </is>
       </c>
       <c r="C409" t="inlineStr">
@@ -19970,16 +19970,16 @@
       </c>
       <c r="D409" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E409" t="inlineStr">
         <is>
-          <t>Mol Ambiente S.A.</t>
+          <t>Translog S.A.</t>
         </is>
       </c>
       <c r="F409" t="n">
-        <v>75000</v>
+        <v>600</v>
       </c>
       <c r="G409" t="inlineStr">
         <is>
@@ -19988,12 +19988,12 @@
       </c>
       <c r="H409" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I409" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5118945&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5114868&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J409" t="inlineStr">
@@ -21448,7 +21448,7 @@
       </c>
       <c r="B440" t="inlineStr">
         <is>
-          <t>Proyecto Laboratorios Químicos CIMM T&amp;S SA. La Negra</t>
+          <t>TRANSPORTE DE RESIDUOS PELIGROSOS POR RUTAS DE LA REGIÓN DE ANTOFAGASTA</t>
         </is>
       </c>
       <c r="C440" t="inlineStr">
@@ -21463,11 +21463,11 @@
       </c>
       <c r="E440" t="inlineStr">
         <is>
-          <t>Yancko Gonzalez Rozas</t>
+          <t>Limfosep S.A</t>
         </is>
       </c>
       <c r="F440" t="n">
-        <v>8000</v>
+        <v>1000</v>
       </c>
       <c r="G440" t="inlineStr">
         <is>
@@ -21476,12 +21476,12 @@
       </c>
       <c r="H440" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I440" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4670031&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4698232&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J440" t="inlineStr">
@@ -21496,7 +21496,7 @@
       </c>
       <c r="B441" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE RESIDUOS PELIGROSOS POR RUTAS DE LA REGIÓN DE ANTOFAGASTA</t>
+          <t>Proyecto Laboratorios Químicos CIMM T&amp;S SA. La Negra</t>
         </is>
       </c>
       <c r="C441" t="inlineStr">
@@ -21511,11 +21511,11 @@
       </c>
       <c r="E441" t="inlineStr">
         <is>
-          <t>Limfosep S.A</t>
+          <t>Yancko Gonzalez Rozas</t>
         </is>
       </c>
       <c r="F441" t="n">
-        <v>1000</v>
+        <v>8000</v>
       </c>
       <c r="G441" t="inlineStr">
         <is>
@@ -21524,12 +21524,12 @@
       </c>
       <c r="H441" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I441" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4698232&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4670031&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J441" t="inlineStr">
@@ -21928,7 +21928,7 @@
       </c>
       <c r="B450" t="inlineStr">
         <is>
-          <t>Nuevo Transporte Interregional de Cianuro de Sodio</t>
+          <t>EXPANSION DEPOSITO DE RELAVES FILTRADOS FAENA EL PEÑÓN</t>
         </is>
       </c>
       <c r="C450" t="inlineStr">
@@ -21938,16 +21938,16 @@
       </c>
       <c r="D450" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E450" t="inlineStr">
         <is>
-          <t>OXIQUIM S.A.</t>
+          <t>Minera Meridian Limitada</t>
         </is>
       </c>
       <c r="F450" t="n">
-        <v>85</v>
+        <v>688</v>
       </c>
       <c r="G450" t="inlineStr">
         <is>
@@ -21956,12 +21956,12 @@
       </c>
       <c r="H450" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I450" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4594007&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4601640&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J450" t="inlineStr">
@@ -21976,7 +21976,7 @@
       </c>
       <c r="B451" t="inlineStr">
         <is>
-          <t>EXPANSION DEPOSITO DE RELAVES FILTRADOS FAENA EL PEÑÓN</t>
+          <t>Nuevo Transporte Interregional de Cianuro de Sodio</t>
         </is>
       </c>
       <c r="C451" t="inlineStr">
@@ -21986,16 +21986,16 @@
       </c>
       <c r="D451" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E451" t="inlineStr">
         <is>
-          <t>Minera Meridian Limitada</t>
+          <t>OXIQUIM S.A.</t>
         </is>
       </c>
       <c r="F451" t="n">
-        <v>688</v>
+        <v>85</v>
       </c>
       <c r="G451" t="inlineStr">
         <is>
@@ -22004,12 +22004,12 @@
       </c>
       <c r="H451" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I451" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4601640&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4594007&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J451" t="inlineStr">
@@ -22744,7 +22744,7 @@
       </c>
       <c r="B467" t="inlineStr">
         <is>
-          <t>Transporte de Barros Anódicos</t>
+          <t>Transporte de Residuos Peligroso, Transporte Bello</t>
         </is>
       </c>
       <c r="C467" t="inlineStr">
@@ -22759,11 +22759,11 @@
       </c>
       <c r="E467" t="inlineStr">
         <is>
-          <t>CODELCO CHILE</t>
+          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
         </is>
       </c>
       <c r="F467" t="n">
-        <v>0</v>
+        <v>4050</v>
       </c>
       <c r="G467" t="inlineStr">
         <is>
@@ -22777,7 +22777,7 @@
       </c>
       <c r="I467" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4429880&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4455518&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J467" t="inlineStr">
@@ -22792,7 +22792,7 @@
       </c>
       <c r="B468" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligroso, Transporte Bello</t>
+          <t>Transporte de Barros Anódicos</t>
         </is>
       </c>
       <c r="C468" t="inlineStr">
@@ -22807,11 +22807,11 @@
       </c>
       <c r="E468" t="inlineStr">
         <is>
-          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
+          <t>CODELCO CHILE</t>
         </is>
       </c>
       <c r="F468" t="n">
-        <v>4050</v>
+        <v>0</v>
       </c>
       <c r="G468" t="inlineStr">
         <is>
@@ -22825,7 +22825,7 @@
       </c>
       <c r="I468" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4455518&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4429880&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J468" t="inlineStr">
@@ -22936,7 +22936,7 @@
       </c>
       <c r="B471" t="inlineStr">
         <is>
-          <t>Transporte y Almacenamiento temporal de Residuos Peligrosos M&amp;M ltda.</t>
+          <t>Modificacion Proyecto Minero Algorta Sector Pampa</t>
         </is>
       </c>
       <c r="C471" t="inlineStr">
@@ -22946,16 +22946,16 @@
       </c>
       <c r="D471" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E471" t="inlineStr">
         <is>
-          <t>Transportes Moscoso y Moscoso Ltda.</t>
+          <t>Algorta Norte S.A</t>
         </is>
       </c>
       <c r="F471" t="n">
-        <v>41075</v>
+        <v>6400</v>
       </c>
       <c r="G471" t="inlineStr">
         <is>
@@ -22969,7 +22969,7 @@
       </c>
       <c r="I471" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4422237&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4432700&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J471" t="inlineStr">
@@ -22984,7 +22984,7 @@
       </c>
       <c r="B472" t="inlineStr">
         <is>
-          <t>Modificacion Proyecto Minero Algorta Sector Pampa</t>
+          <t>Transporte y Almacenamiento temporal de Residuos Peligrosos M&amp;M ltda.</t>
         </is>
       </c>
       <c r="C472" t="inlineStr">
@@ -22994,16 +22994,16 @@
       </c>
       <c r="D472" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E472" t="inlineStr">
         <is>
-          <t>Algorta Norte S.A</t>
+          <t>Transportes Moscoso y Moscoso Ltda.</t>
         </is>
       </c>
       <c r="F472" t="n">
-        <v>6400</v>
+        <v>41075</v>
       </c>
       <c r="G472" t="inlineStr">
         <is>
@@ -23017,7 +23017,7 @@
       </c>
       <c r="I472" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4432700&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4422237&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J472" t="inlineStr">

--- a/data/Antofagasta.xlsx
+++ b/data/Antofagasta.xlsx
@@ -11608,7 +11608,7 @@
       </c>
       <c r="B235" t="inlineStr">
         <is>
-          <t>Transporte Interregional de Sustancias Peligrosas - AGREDUCAM VI Región</t>
+          <t>Planta de Fabricación de Tuberías PEX (polietileno reticulado)</t>
         </is>
       </c>
       <c r="C235" t="inlineStr">
@@ -11618,16 +11618,16 @@
       </c>
       <c r="D235" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E235" t="inlineStr">
         <is>
-          <t>Asociación Gremial de Dueños de Camiones de la Sexta Región</t>
+          <t>CROSSPIPE SYSTEMS S.A.</t>
         </is>
       </c>
       <c r="F235" t="n">
-        <v>1200</v>
+        <v>12400</v>
       </c>
       <c r="G235" t="inlineStr">
         <is>
@@ -11641,7 +11641,7 @@
       </c>
       <c r="I235" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128964620&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128954293&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J235" t="inlineStr">
@@ -11656,7 +11656,7 @@
       </c>
       <c r="B236" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos por las Rutas Indicadas</t>
+          <t>Transporte Interregional de Sustancias Peligrosas - AGREDUCAM VI Región</t>
         </is>
       </c>
       <c r="C236" t="inlineStr">
@@ -11671,11 +11671,11 @@
       </c>
       <c r="E236" t="inlineStr">
         <is>
-          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
+          <t>Asociación Gremial de Dueños de Camiones de la Sexta Región</t>
         </is>
       </c>
       <c r="F236" t="n">
-        <v>0</v>
+        <v>1200</v>
       </c>
       <c r="G236" t="inlineStr">
         <is>
@@ -11689,7 +11689,7 @@
       </c>
       <c r="I236" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128972489&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128964620&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J236" t="inlineStr">
@@ -11704,7 +11704,7 @@
       </c>
       <c r="B237" t="inlineStr">
         <is>
-          <t>Planta de Fabricación de Tuberías PEX (polietileno reticulado)</t>
+          <t>Transporte de Residuos Peligrosos por las Rutas Indicadas</t>
         </is>
       </c>
       <c r="C237" t="inlineStr">
@@ -11714,16 +11714,16 @@
       </c>
       <c r="D237" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E237" t="inlineStr">
         <is>
-          <t>CROSSPIPE SYSTEMS S.A.</t>
+          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
         </is>
       </c>
       <c r="F237" t="n">
-        <v>12400</v>
+        <v>0</v>
       </c>
       <c r="G237" t="inlineStr">
         <is>
@@ -11737,7 +11737,7 @@
       </c>
       <c r="I237" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128954293&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128972489&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J237" t="inlineStr">
@@ -13336,26 +13336,26 @@
       </c>
       <c r="B271" t="inlineStr">
         <is>
-          <t>RT Sulfuros</t>
+          <t>Transporte de Sustancias Peligrosas Transaltisa Chile Ltda</t>
         </is>
       </c>
       <c r="C271" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D271" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E271" t="inlineStr">
         <is>
-          <t>CODELCO Chile, División Radomiro Tomic</t>
+          <t>Transaltisa Chile Ltda.</t>
         </is>
       </c>
       <c r="F271" t="n">
-        <v>5.4</v>
+        <v>2050</v>
       </c>
       <c r="G271" t="inlineStr">
         <is>
@@ -13364,12 +13364,12 @@
       </c>
       <c r="H271" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I271" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8210090&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8218613&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J271" t="inlineStr">
@@ -13384,26 +13384,26 @@
       </c>
       <c r="B272" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas Transaltisa Chile Ltda</t>
+          <t>RT Sulfuros</t>
         </is>
       </c>
       <c r="C272" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D272" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E272" t="inlineStr">
         <is>
-          <t>Transaltisa Chile Ltda.</t>
+          <t>CODELCO Chile, División Radomiro Tomic</t>
         </is>
       </c>
       <c r="F272" t="n">
-        <v>2050</v>
+        <v>5.4</v>
       </c>
       <c r="G272" t="inlineStr">
         <is>
@@ -13412,12 +13412,12 @@
       </c>
       <c r="H272" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I272" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8218613&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8210090&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J272" t="inlineStr">
@@ -16072,7 +16072,7 @@
       </c>
       <c r="B328" t="inlineStr">
         <is>
-          <t>Parque Fotovoltaico Los Andes</t>
+          <t>CENTRO DE RECUPERACIÓN DE TAMBORES Y CONTENEDORES IBC CONTAMINADOS, PLAMBIENTAL LA NEGRA</t>
         </is>
       </c>
       <c r="C328" t="inlineStr">
@@ -16087,11 +16087,11 @@
       </c>
       <c r="E328" t="inlineStr">
         <is>
-          <t>Andes Solar SPA</t>
+          <t>VEOLIA SERVICIOS MINEROS INTEGRALES CHILE SpA</t>
         </is>
       </c>
       <c r="F328" t="n">
-        <v>572000</v>
+        <v>60</v>
       </c>
       <c r="G328" t="inlineStr">
         <is>
@@ -16100,12 +16100,12 @@
       </c>
       <c r="H328" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Caducado</t>
         </is>
       </c>
       <c r="I328" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6581267&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6592870&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J328" t="inlineStr">
@@ -16120,7 +16120,7 @@
       </c>
       <c r="B329" t="inlineStr">
         <is>
-          <t>CENTRO DE RECUPERACIÓN DE TAMBORES Y CONTENEDORES IBC CONTAMINADOS, PLAMBIENTAL LA NEGRA</t>
+          <t>CENTRO DE ALMACENAMIENTO DE RESIDUOS INDUSTRIALES, GESAM LA NEGRA</t>
         </is>
       </c>
       <c r="C329" t="inlineStr">
@@ -16139,7 +16139,7 @@
         </is>
       </c>
       <c r="F329" t="n">
-        <v>60</v>
+        <v>360</v>
       </c>
       <c r="G329" t="inlineStr">
         <is>
@@ -16153,7 +16153,7 @@
       </c>
       <c r="I329" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6592870&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6595234&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J329" t="inlineStr">
@@ -16168,7 +16168,7 @@
       </c>
       <c r="B330" t="inlineStr">
         <is>
-          <t>CENTRO DE ALMACENAMIENTO DE RESIDUOS INDUSTRIALES, GESAM LA NEGRA</t>
+          <t>Parque Fotovoltaico Los Andes</t>
         </is>
       </c>
       <c r="C330" t="inlineStr">
@@ -16183,11 +16183,11 @@
       </c>
       <c r="E330" t="inlineStr">
         <is>
-          <t>VEOLIA SERVICIOS MINEROS INTEGRALES CHILE SpA</t>
+          <t>Andes Solar SPA</t>
         </is>
       </c>
       <c r="F330" t="n">
-        <v>360</v>
+        <v>572000</v>
       </c>
       <c r="G330" t="inlineStr">
         <is>
@@ -16196,12 +16196,12 @@
       </c>
       <c r="H330" t="inlineStr">
         <is>
-          <t>Caducado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I330" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6595234&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6581267&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J330" t="inlineStr">
@@ -17560,7 +17560,7 @@
       </c>
       <c r="B359" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos</t>
+          <t>Nuevas Instalaciones para Mantención Mina</t>
         </is>
       </c>
       <c r="C359" t="inlineStr">
@@ -17570,16 +17570,16 @@
       </c>
       <c r="D359" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E359" t="inlineStr">
         <is>
-          <t>Transportes TMS Limitada</t>
+          <t>MINERA ESCONDIDA LIMITADA</t>
         </is>
       </c>
       <c r="F359" t="n">
-        <v>200</v>
+        <v>635000</v>
       </c>
       <c r="G359" t="inlineStr">
         <is>
@@ -17588,12 +17588,12 @@
       </c>
       <c r="H359" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I359" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6003582&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5931343&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J359" t="inlineStr">
@@ -17608,7 +17608,7 @@
       </c>
       <c r="B360" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas entre la I, II y III Regiones"</t>
+          <t>Transporte de Residuos Peligrosos</t>
         </is>
       </c>
       <c r="C360" t="inlineStr">
@@ -17623,11 +17623,11 @@
       </c>
       <c r="E360" t="inlineStr">
         <is>
-          <t>Molina Quimicos S.A.</t>
+          <t>Transportes TMS Limitada</t>
         </is>
       </c>
       <c r="F360" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="G360" t="inlineStr">
         <is>
@@ -17641,7 +17641,7 @@
       </c>
       <c r="I360" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6003607&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6003582&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J360" t="inlineStr">
@@ -17656,7 +17656,7 @@
       </c>
       <c r="B361" t="inlineStr">
         <is>
-          <t>Nuevas Instalaciones para Mantención Mina</t>
+          <t>Transporte de Sustancias Peligrosas entre la I, II y III Regiones"</t>
         </is>
       </c>
       <c r="C361" t="inlineStr">
@@ -17666,16 +17666,16 @@
       </c>
       <c r="D361" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E361" t="inlineStr">
         <is>
-          <t>MINERA ESCONDIDA LIMITADA</t>
+          <t>Molina Quimicos S.A.</t>
         </is>
       </c>
       <c r="F361" t="n">
-        <v>635000</v>
+        <v>100</v>
       </c>
       <c r="G361" t="inlineStr">
         <is>
@@ -17684,12 +17684,12 @@
       </c>
       <c r="H361" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I361" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5931343&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6003607&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J361" t="inlineStr">
@@ -19912,7 +19912,7 @@
       </c>
       <c r="B408" t="inlineStr">
         <is>
-          <t>"Transporte de acido sulfurico concentrado para minera Las Cenizas, Taltal."</t>
+          <t>II MODIFICACIÓN DIA "TRANSPORTE Y MANEJO IN SITU DE RESIDUOS SÓLIDOS Y LÍQUIDOS PELIGROSOS Y NO PELIGROSOS"</t>
         </is>
       </c>
       <c r="C408" t="inlineStr">
@@ -19922,16 +19922,16 @@
       </c>
       <c r="D408" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E408" t="inlineStr">
         <is>
-          <t>Translog S.A.</t>
+          <t>Mol Ambiente S.A.</t>
         </is>
       </c>
       <c r="F408" t="n">
-        <v>600</v>
+        <v>75000</v>
       </c>
       <c r="G408" t="inlineStr">
         <is>
@@ -19940,12 +19940,12 @@
       </c>
       <c r="H408" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I408" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5114868&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5118945&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J408" t="inlineStr">
@@ -19960,7 +19960,7 @@
       </c>
       <c r="B409" t="inlineStr">
         <is>
-          <t>II MODIFICACIÓN DIA "TRANSPORTE Y MANEJO IN SITU DE RESIDUOS SÓLIDOS Y LÍQUIDOS PELIGROSOS Y NO PELIGROSOS"</t>
+          <t>"Transporte de acido sulfurico concentrado para minera Las Cenizas, Taltal."</t>
         </is>
       </c>
       <c r="C409" t="inlineStr">
@@ -19970,16 +19970,16 @@
       </c>
       <c r="D409" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E409" t="inlineStr">
         <is>
-          <t>Mol Ambiente S.A.</t>
+          <t>Translog S.A.</t>
         </is>
       </c>
       <c r="F409" t="n">
-        <v>75000</v>
+        <v>600</v>
       </c>
       <c r="G409" t="inlineStr">
         <is>
@@ -19988,12 +19988,12 @@
       </c>
       <c r="H409" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I409" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5118945&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5114868&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J409" t="inlineStr">
@@ -21448,7 +21448,7 @@
       </c>
       <c r="B440" t="inlineStr">
         <is>
-          <t>Proyecto Laboratorios Químicos CIMM T&amp;S SA. La Negra</t>
+          <t>TRANSPORTE DE RESIDUOS PELIGROSOS POR RUTAS DE LA REGIÓN DE ANTOFAGASTA</t>
         </is>
       </c>
       <c r="C440" t="inlineStr">
@@ -21463,11 +21463,11 @@
       </c>
       <c r="E440" t="inlineStr">
         <is>
-          <t>Yancko Gonzalez Rozas</t>
+          <t>Limfosep S.A</t>
         </is>
       </c>
       <c r="F440" t="n">
-        <v>8000</v>
+        <v>1000</v>
       </c>
       <c r="G440" t="inlineStr">
         <is>
@@ -21476,12 +21476,12 @@
       </c>
       <c r="H440" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I440" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4670031&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4698232&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J440" t="inlineStr">
@@ -21496,7 +21496,7 @@
       </c>
       <c r="B441" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE RESIDUOS PELIGROSOS POR RUTAS DE LA REGIÓN DE ANTOFAGASTA</t>
+          <t>Proyecto Laboratorios Químicos CIMM T&amp;S SA. La Negra</t>
         </is>
       </c>
       <c r="C441" t="inlineStr">
@@ -21511,11 +21511,11 @@
       </c>
       <c r="E441" t="inlineStr">
         <is>
-          <t>Limfosep S.A</t>
+          <t>Yancko Gonzalez Rozas</t>
         </is>
       </c>
       <c r="F441" t="n">
-        <v>1000</v>
+        <v>8000</v>
       </c>
       <c r="G441" t="inlineStr">
         <is>
@@ -21524,12 +21524,12 @@
       </c>
       <c r="H441" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I441" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4698232&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4670031&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J441" t="inlineStr">
@@ -21928,7 +21928,7 @@
       </c>
       <c r="B450" t="inlineStr">
         <is>
-          <t>Nuevo Transporte Interregional de Cianuro de Sodio</t>
+          <t>EXPANSION DEPOSITO DE RELAVES FILTRADOS FAENA EL PEÑÓN</t>
         </is>
       </c>
       <c r="C450" t="inlineStr">
@@ -21938,16 +21938,16 @@
       </c>
       <c r="D450" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E450" t="inlineStr">
         <is>
-          <t>OXIQUIM S.A.</t>
+          <t>Minera Meridian Limitada</t>
         </is>
       </c>
       <c r="F450" t="n">
-        <v>85</v>
+        <v>688</v>
       </c>
       <c r="G450" t="inlineStr">
         <is>
@@ -21956,12 +21956,12 @@
       </c>
       <c r="H450" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I450" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4594007&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4601640&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J450" t="inlineStr">
@@ -21976,7 +21976,7 @@
       </c>
       <c r="B451" t="inlineStr">
         <is>
-          <t>EXPANSION DEPOSITO DE RELAVES FILTRADOS FAENA EL PEÑÓN</t>
+          <t>Nuevo Transporte Interregional de Cianuro de Sodio</t>
         </is>
       </c>
       <c r="C451" t="inlineStr">
@@ -21986,16 +21986,16 @@
       </c>
       <c r="D451" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E451" t="inlineStr">
         <is>
-          <t>Minera Meridian Limitada</t>
+          <t>OXIQUIM S.A.</t>
         </is>
       </c>
       <c r="F451" t="n">
-        <v>688</v>
+        <v>85</v>
       </c>
       <c r="G451" t="inlineStr">
         <is>
@@ -22004,12 +22004,12 @@
       </c>
       <c r="H451" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I451" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4601640&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4594007&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J451" t="inlineStr">
@@ -22744,7 +22744,7 @@
       </c>
       <c r="B467" t="inlineStr">
         <is>
-          <t>Transporte de Barros Anódicos</t>
+          <t>Transporte de Residuos Peligroso, Transporte Bello</t>
         </is>
       </c>
       <c r="C467" t="inlineStr">
@@ -22759,11 +22759,11 @@
       </c>
       <c r="E467" t="inlineStr">
         <is>
-          <t>CODELCO CHILE</t>
+          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
         </is>
       </c>
       <c r="F467" t="n">
-        <v>0</v>
+        <v>4050</v>
       </c>
       <c r="G467" t="inlineStr">
         <is>
@@ -22777,7 +22777,7 @@
       </c>
       <c r="I467" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4429880&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4455518&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J467" t="inlineStr">
@@ -22792,7 +22792,7 @@
       </c>
       <c r="B468" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligroso, Transporte Bello</t>
+          <t>Transporte de Barros Anódicos</t>
         </is>
       </c>
       <c r="C468" t="inlineStr">
@@ -22807,11 +22807,11 @@
       </c>
       <c r="E468" t="inlineStr">
         <is>
-          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
+          <t>CODELCO CHILE</t>
         </is>
       </c>
       <c r="F468" t="n">
-        <v>4050</v>
+        <v>0</v>
       </c>
       <c r="G468" t="inlineStr">
         <is>
@@ -22825,7 +22825,7 @@
       </c>
       <c r="I468" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4455518&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4429880&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J468" t="inlineStr">
@@ -22936,7 +22936,7 @@
       </c>
       <c r="B471" t="inlineStr">
         <is>
-          <t>Transporte y Almacenamiento temporal de Residuos Peligrosos M&amp;M ltda.</t>
+          <t>Modificacion Proyecto Minero Algorta Sector Pampa</t>
         </is>
       </c>
       <c r="C471" t="inlineStr">
@@ -22946,16 +22946,16 @@
       </c>
       <c r="D471" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E471" t="inlineStr">
         <is>
-          <t>Transportes Moscoso y Moscoso Ltda.</t>
+          <t>Algorta Norte S.A</t>
         </is>
       </c>
       <c r="F471" t="n">
-        <v>41075</v>
+        <v>6400</v>
       </c>
       <c r="G471" t="inlineStr">
         <is>
@@ -22969,7 +22969,7 @@
       </c>
       <c r="I471" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4422237&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4432700&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J471" t="inlineStr">
@@ -22984,7 +22984,7 @@
       </c>
       <c r="B472" t="inlineStr">
         <is>
-          <t>Modificacion Proyecto Minero Algorta Sector Pampa</t>
+          <t>Transporte y Almacenamiento temporal de Residuos Peligrosos M&amp;M ltda.</t>
         </is>
       </c>
       <c r="C472" t="inlineStr">
@@ -22994,16 +22994,16 @@
       </c>
       <c r="D472" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E472" t="inlineStr">
         <is>
-          <t>Algorta Norte S.A</t>
+          <t>Transportes Moscoso y Moscoso Ltda.</t>
         </is>
       </c>
       <c r="F472" t="n">
-        <v>6400</v>
+        <v>41075</v>
       </c>
       <c r="G472" t="inlineStr">
         <is>
@@ -23017,7 +23017,7 @@
       </c>
       <c r="I472" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4432700&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4422237&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J472" t="inlineStr">

--- a/data/Antofagasta.xlsx
+++ b/data/Antofagasta.xlsx
@@ -692,7 +692,7 @@
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>En Calificación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">

--- a/data/Antofagasta.xlsx
+++ b/data/Antofagasta.xlsx
@@ -447,12 +447,12 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>27/07/2022</t>
+          <t>02/08/2022</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>En Admisión</t>
+          <t>En Calificación</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">

--- a/data/Antofagasta.xlsx
+++ b/data/Antofagasta.xlsx
@@ -11656,7 +11656,7 @@
       </c>
       <c r="B236" t="inlineStr">
         <is>
-          <t>Transporte Interregional de Sustancias Peligrosas - AGREDUCAM VI Región</t>
+          <t>Planta de Fabricación de Tuberías PEX (polietileno reticulado)</t>
         </is>
       </c>
       <c r="C236" t="inlineStr">
@@ -11666,16 +11666,16 @@
       </c>
       <c r="D236" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E236" t="inlineStr">
         <is>
-          <t>Asociación Gremial de Dueños de Camiones de la Sexta Región</t>
+          <t>CROSSPIPE SYSTEMS S.A.</t>
         </is>
       </c>
       <c r="F236" t="n">
-        <v>1200</v>
+        <v>12400</v>
       </c>
       <c r="G236" t="inlineStr">
         <is>
@@ -11689,7 +11689,7 @@
       </c>
       <c r="I236" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128964620&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128954293&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J236" t="inlineStr">
@@ -11704,7 +11704,7 @@
       </c>
       <c r="B237" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos por las Rutas Indicadas</t>
+          <t>Transporte Interregional de Sustancias Peligrosas - AGREDUCAM VI Región</t>
         </is>
       </c>
       <c r="C237" t="inlineStr">
@@ -11719,11 +11719,11 @@
       </c>
       <c r="E237" t="inlineStr">
         <is>
-          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
+          <t>Asociación Gremial de Dueños de Camiones de la Sexta Región</t>
         </is>
       </c>
       <c r="F237" t="n">
-        <v>0</v>
+        <v>1200</v>
       </c>
       <c r="G237" t="inlineStr">
         <is>
@@ -11737,7 +11737,7 @@
       </c>
       <c r="I237" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128972489&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128964620&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J237" t="inlineStr">
@@ -11752,7 +11752,7 @@
       </c>
       <c r="B238" t="inlineStr">
         <is>
-          <t>Planta de Fabricación de Tuberías PEX (polietileno reticulado)</t>
+          <t>Transporte de Residuos Peligrosos por las Rutas Indicadas</t>
         </is>
       </c>
       <c r="C238" t="inlineStr">
@@ -11762,16 +11762,16 @@
       </c>
       <c r="D238" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E238" t="inlineStr">
         <is>
-          <t>CROSSPIPE SYSTEMS S.A.</t>
+          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
         </is>
       </c>
       <c r="F238" t="n">
-        <v>12400</v>
+        <v>0</v>
       </c>
       <c r="G238" t="inlineStr">
         <is>
@@ -11785,7 +11785,7 @@
       </c>
       <c r="I238" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128954293&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128972489&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J238" t="inlineStr">
@@ -13384,26 +13384,26 @@
       </c>
       <c r="B272" t="inlineStr">
         <is>
-          <t>RT Sulfuros</t>
+          <t>Transporte de Sustancias Peligrosas Transaltisa Chile Ltda</t>
         </is>
       </c>
       <c r="C272" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D272" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E272" t="inlineStr">
         <is>
-          <t>CODELCO Chile, División Radomiro Tomic</t>
+          <t>Transaltisa Chile Ltda.</t>
         </is>
       </c>
       <c r="F272" t="n">
-        <v>5.4</v>
+        <v>2050</v>
       </c>
       <c r="G272" t="inlineStr">
         <is>
@@ -13412,12 +13412,12 @@
       </c>
       <c r="H272" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I272" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8210090&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8218613&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J272" t="inlineStr">
@@ -13432,26 +13432,26 @@
       </c>
       <c r="B273" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas Transaltisa Chile Ltda</t>
+          <t>RT Sulfuros</t>
         </is>
       </c>
       <c r="C273" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D273" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E273" t="inlineStr">
         <is>
-          <t>Transaltisa Chile Ltda.</t>
+          <t>CODELCO Chile, División Radomiro Tomic</t>
         </is>
       </c>
       <c r="F273" t="n">
-        <v>2050</v>
+        <v>5.4</v>
       </c>
       <c r="G273" t="inlineStr">
         <is>
@@ -13460,12 +13460,12 @@
       </c>
       <c r="H273" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I273" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8218613&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8210090&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J273" t="inlineStr">
@@ -16120,7 +16120,7 @@
       </c>
       <c r="B329" t="inlineStr">
         <is>
-          <t>Parque Fotovoltaico Los Andes</t>
+          <t>CENTRO DE RECUPERACIÓN DE TAMBORES Y CONTENEDORES IBC CONTAMINADOS, PLAMBIENTAL LA NEGRA</t>
         </is>
       </c>
       <c r="C329" t="inlineStr">
@@ -16135,11 +16135,11 @@
       </c>
       <c r="E329" t="inlineStr">
         <is>
-          <t>Andes Solar SPA</t>
+          <t>VEOLIA SERVICIOS MINEROS INTEGRALES CHILE SpA</t>
         </is>
       </c>
       <c r="F329" t="n">
-        <v>572000</v>
+        <v>60</v>
       </c>
       <c r="G329" t="inlineStr">
         <is>
@@ -16148,12 +16148,12 @@
       </c>
       <c r="H329" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Caducado</t>
         </is>
       </c>
       <c r="I329" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6581267&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6592870&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J329" t="inlineStr">
@@ -16168,7 +16168,7 @@
       </c>
       <c r="B330" t="inlineStr">
         <is>
-          <t>CENTRO DE RECUPERACIÓN DE TAMBORES Y CONTENEDORES IBC CONTAMINADOS, PLAMBIENTAL LA NEGRA</t>
+          <t>CENTRO DE ALMACENAMIENTO DE RESIDUOS INDUSTRIALES, GESAM LA NEGRA</t>
         </is>
       </c>
       <c r="C330" t="inlineStr">
@@ -16187,7 +16187,7 @@
         </is>
       </c>
       <c r="F330" t="n">
-        <v>60</v>
+        <v>360</v>
       </c>
       <c r="G330" t="inlineStr">
         <is>
@@ -16201,7 +16201,7 @@
       </c>
       <c r="I330" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6592870&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6595234&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J330" t="inlineStr">
@@ -16216,7 +16216,7 @@
       </c>
       <c r="B331" t="inlineStr">
         <is>
-          <t>CENTRO DE ALMACENAMIENTO DE RESIDUOS INDUSTRIALES, GESAM LA NEGRA</t>
+          <t>Parque Fotovoltaico Los Andes</t>
         </is>
       </c>
       <c r="C331" t="inlineStr">
@@ -16231,11 +16231,11 @@
       </c>
       <c r="E331" t="inlineStr">
         <is>
-          <t>VEOLIA SERVICIOS MINEROS INTEGRALES CHILE SpA</t>
+          <t>Andes Solar SPA</t>
         </is>
       </c>
       <c r="F331" t="n">
-        <v>360</v>
+        <v>572000</v>
       </c>
       <c r="G331" t="inlineStr">
         <is>
@@ -16244,12 +16244,12 @@
       </c>
       <c r="H331" t="inlineStr">
         <is>
-          <t>Caducado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I331" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6595234&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6581267&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J331" t="inlineStr">
@@ -17608,7 +17608,7 @@
       </c>
       <c r="B360" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos</t>
+          <t>Nuevas Instalaciones para Mantención Mina</t>
         </is>
       </c>
       <c r="C360" t="inlineStr">
@@ -17618,16 +17618,16 @@
       </c>
       <c r="D360" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E360" t="inlineStr">
         <is>
-          <t>Transportes TMS Limitada</t>
+          <t>MINERA ESCONDIDA LIMITADA</t>
         </is>
       </c>
       <c r="F360" t="n">
-        <v>200</v>
+        <v>635000</v>
       </c>
       <c r="G360" t="inlineStr">
         <is>
@@ -17636,12 +17636,12 @@
       </c>
       <c r="H360" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I360" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6003582&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5931343&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J360" t="inlineStr">
@@ -17656,7 +17656,7 @@
       </c>
       <c r="B361" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas entre la I, II y III Regiones"</t>
+          <t>Transporte de Residuos Peligrosos</t>
         </is>
       </c>
       <c r="C361" t="inlineStr">
@@ -17671,11 +17671,11 @@
       </c>
       <c r="E361" t="inlineStr">
         <is>
-          <t>Molina Quimicos S.A.</t>
+          <t>Transportes TMS Limitada</t>
         </is>
       </c>
       <c r="F361" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="G361" t="inlineStr">
         <is>
@@ -17689,7 +17689,7 @@
       </c>
       <c r="I361" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6003607&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6003582&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J361" t="inlineStr">
@@ -17704,7 +17704,7 @@
       </c>
       <c r="B362" t="inlineStr">
         <is>
-          <t>Nuevas Instalaciones para Mantención Mina</t>
+          <t>Transporte de Sustancias Peligrosas entre la I, II y III Regiones"</t>
         </is>
       </c>
       <c r="C362" t="inlineStr">
@@ -17714,16 +17714,16 @@
       </c>
       <c r="D362" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E362" t="inlineStr">
         <is>
-          <t>MINERA ESCONDIDA LIMITADA</t>
+          <t>Molina Quimicos S.A.</t>
         </is>
       </c>
       <c r="F362" t="n">
-        <v>635000</v>
+        <v>100</v>
       </c>
       <c r="G362" t="inlineStr">
         <is>
@@ -17732,12 +17732,12 @@
       </c>
       <c r="H362" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I362" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5931343&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6003607&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J362" t="inlineStr">
@@ -19960,7 +19960,7 @@
       </c>
       <c r="B409" t="inlineStr">
         <is>
-          <t>"Transporte de acido sulfurico concentrado para minera Las Cenizas, Taltal."</t>
+          <t>II MODIFICACIÓN DIA "TRANSPORTE Y MANEJO IN SITU DE RESIDUOS SÓLIDOS Y LÍQUIDOS PELIGROSOS Y NO PELIGROSOS"</t>
         </is>
       </c>
       <c r="C409" t="inlineStr">
@@ -19970,16 +19970,16 @@
       </c>
       <c r="D409" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E409" t="inlineStr">
         <is>
-          <t>Translog S.A.</t>
+          <t>Mol Ambiente S.A.</t>
         </is>
       </c>
       <c r="F409" t="n">
-        <v>600</v>
+        <v>75000</v>
       </c>
       <c r="G409" t="inlineStr">
         <is>
@@ -19988,12 +19988,12 @@
       </c>
       <c r="H409" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I409" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5114868&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5118945&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J409" t="inlineStr">
@@ -20008,7 +20008,7 @@
       </c>
       <c r="B410" t="inlineStr">
         <is>
-          <t>II MODIFICACIÓN DIA "TRANSPORTE Y MANEJO IN SITU DE RESIDUOS SÓLIDOS Y LÍQUIDOS PELIGROSOS Y NO PELIGROSOS"</t>
+          <t>"Transporte de acido sulfurico concentrado para minera Las Cenizas, Taltal."</t>
         </is>
       </c>
       <c r="C410" t="inlineStr">
@@ -20018,16 +20018,16 @@
       </c>
       <c r="D410" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E410" t="inlineStr">
         <is>
-          <t>Mol Ambiente S.A.</t>
+          <t>Translog S.A.</t>
         </is>
       </c>
       <c r="F410" t="n">
-        <v>75000</v>
+        <v>600</v>
       </c>
       <c r="G410" t="inlineStr">
         <is>
@@ -20036,12 +20036,12 @@
       </c>
       <c r="H410" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I410" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5118945&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5114868&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J410" t="inlineStr">
@@ -21496,7 +21496,7 @@
       </c>
       <c r="B441" t="inlineStr">
         <is>
-          <t>Proyecto Laboratorios Químicos CIMM T&amp;S SA. La Negra</t>
+          <t>TRANSPORTE DE RESIDUOS PELIGROSOS POR RUTAS DE LA REGIÓN DE ANTOFAGASTA</t>
         </is>
       </c>
       <c r="C441" t="inlineStr">
@@ -21511,11 +21511,11 @@
       </c>
       <c r="E441" t="inlineStr">
         <is>
-          <t>Yancko Gonzalez Rozas</t>
+          <t>Limfosep S.A</t>
         </is>
       </c>
       <c r="F441" t="n">
-        <v>8000</v>
+        <v>1000</v>
       </c>
       <c r="G441" t="inlineStr">
         <is>
@@ -21524,12 +21524,12 @@
       </c>
       <c r="H441" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I441" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4670031&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4698232&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J441" t="inlineStr">
@@ -21544,7 +21544,7 @@
       </c>
       <c r="B442" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE RESIDUOS PELIGROSOS POR RUTAS DE LA REGIÓN DE ANTOFAGASTA</t>
+          <t>Proyecto Laboratorios Químicos CIMM T&amp;S SA. La Negra</t>
         </is>
       </c>
       <c r="C442" t="inlineStr">
@@ -21559,11 +21559,11 @@
       </c>
       <c r="E442" t="inlineStr">
         <is>
-          <t>Limfosep S.A</t>
+          <t>Yancko Gonzalez Rozas</t>
         </is>
       </c>
       <c r="F442" t="n">
-        <v>1000</v>
+        <v>8000</v>
       </c>
       <c r="G442" t="inlineStr">
         <is>
@@ -21572,12 +21572,12 @@
       </c>
       <c r="H442" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I442" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4698232&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4670031&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J442" t="inlineStr">
@@ -21976,7 +21976,7 @@
       </c>
       <c r="B451" t="inlineStr">
         <is>
-          <t>Nuevo Transporte Interregional de Cianuro de Sodio</t>
+          <t>EXPANSION DEPOSITO DE RELAVES FILTRADOS FAENA EL PEÑÓN</t>
         </is>
       </c>
       <c r="C451" t="inlineStr">
@@ -21986,16 +21986,16 @@
       </c>
       <c r="D451" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E451" t="inlineStr">
         <is>
-          <t>OXIQUIM S.A.</t>
+          <t>Minera Meridian Limitada</t>
         </is>
       </c>
       <c r="F451" t="n">
-        <v>85</v>
+        <v>688</v>
       </c>
       <c r="G451" t="inlineStr">
         <is>
@@ -22004,12 +22004,12 @@
       </c>
       <c r="H451" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I451" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4594007&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4601640&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J451" t="inlineStr">
@@ -22024,7 +22024,7 @@
       </c>
       <c r="B452" t="inlineStr">
         <is>
-          <t>EXPANSION DEPOSITO DE RELAVES FILTRADOS FAENA EL PEÑÓN</t>
+          <t>Nuevo Transporte Interregional de Cianuro de Sodio</t>
         </is>
       </c>
       <c r="C452" t="inlineStr">
@@ -22034,16 +22034,16 @@
       </c>
       <c r="D452" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E452" t="inlineStr">
         <is>
-          <t>Minera Meridian Limitada</t>
+          <t>OXIQUIM S.A.</t>
         </is>
       </c>
       <c r="F452" t="n">
-        <v>688</v>
+        <v>85</v>
       </c>
       <c r="G452" t="inlineStr">
         <is>
@@ -22052,12 +22052,12 @@
       </c>
       <c r="H452" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I452" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4601640&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4594007&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J452" t="inlineStr">
@@ -22792,7 +22792,7 @@
       </c>
       <c r="B468" t="inlineStr">
         <is>
-          <t>Transporte de Barros Anódicos</t>
+          <t>Transporte de Residuos Peligroso, Transporte Bello</t>
         </is>
       </c>
       <c r="C468" t="inlineStr">
@@ -22807,11 +22807,11 @@
       </c>
       <c r="E468" t="inlineStr">
         <is>
-          <t>CODELCO CHILE</t>
+          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
         </is>
       </c>
       <c r="F468" t="n">
-        <v>0</v>
+        <v>4050</v>
       </c>
       <c r="G468" t="inlineStr">
         <is>
@@ -22825,7 +22825,7 @@
       </c>
       <c r="I468" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4429880&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4455518&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J468" t="inlineStr">
@@ -22840,7 +22840,7 @@
       </c>
       <c r="B469" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligroso, Transporte Bello</t>
+          <t>Transporte de Barros Anódicos</t>
         </is>
       </c>
       <c r="C469" t="inlineStr">
@@ -22855,11 +22855,11 @@
       </c>
       <c r="E469" t="inlineStr">
         <is>
-          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
+          <t>CODELCO CHILE</t>
         </is>
       </c>
       <c r="F469" t="n">
-        <v>4050</v>
+        <v>0</v>
       </c>
       <c r="G469" t="inlineStr">
         <is>
@@ -22873,7 +22873,7 @@
       </c>
       <c r="I469" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4455518&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4429880&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J469" t="inlineStr">
@@ -22984,7 +22984,7 @@
       </c>
       <c r="B472" t="inlineStr">
         <is>
-          <t>Transporte y Almacenamiento temporal de Residuos Peligrosos M&amp;M ltda.</t>
+          <t>Modificacion Proyecto Minero Algorta Sector Pampa</t>
         </is>
       </c>
       <c r="C472" t="inlineStr">
@@ -22994,16 +22994,16 @@
       </c>
       <c r="D472" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E472" t="inlineStr">
         <is>
-          <t>Transportes Moscoso y Moscoso Ltda.</t>
+          <t>Algorta Norte S.A</t>
         </is>
       </c>
       <c r="F472" t="n">
-        <v>41075</v>
+        <v>6400</v>
       </c>
       <c r="G472" t="inlineStr">
         <is>
@@ -23017,7 +23017,7 @@
       </c>
       <c r="I472" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4422237&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4432700&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J472" t="inlineStr">
@@ -23032,7 +23032,7 @@
       </c>
       <c r="B473" t="inlineStr">
         <is>
-          <t>Modificacion Proyecto Minero Algorta Sector Pampa</t>
+          <t>Transporte y Almacenamiento temporal de Residuos Peligrosos M&amp;M ltda.</t>
         </is>
       </c>
       <c r="C473" t="inlineStr">
@@ -23042,16 +23042,16 @@
       </c>
       <c r="D473" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E473" t="inlineStr">
         <is>
-          <t>Algorta Norte S.A</t>
+          <t>Transportes Moscoso y Moscoso Ltda.</t>
         </is>
       </c>
       <c r="F473" t="n">
-        <v>6400</v>
+        <v>41075</v>
       </c>
       <c r="G473" t="inlineStr">
         <is>
@@ -23065,7 +23065,7 @@
       </c>
       <c r="I473" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4432700&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4422237&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J473" t="inlineStr">

--- a/data/Antofagasta.xlsx
+++ b/data/Antofagasta.xlsx
@@ -11656,7 +11656,7 @@
       </c>
       <c r="B236" t="inlineStr">
         <is>
-          <t>Planta de Fabricación de Tuberías PEX (polietileno reticulado)</t>
+          <t>Transporte Interregional de Sustancias Peligrosas - AGREDUCAM VI Región</t>
         </is>
       </c>
       <c r="C236" t="inlineStr">
@@ -11666,16 +11666,16 @@
       </c>
       <c r="D236" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E236" t="inlineStr">
         <is>
-          <t>CROSSPIPE SYSTEMS S.A.</t>
+          <t>Asociación Gremial de Dueños de Camiones de la Sexta Región</t>
         </is>
       </c>
       <c r="F236" t="n">
-        <v>12400</v>
+        <v>1200</v>
       </c>
       <c r="G236" t="inlineStr">
         <is>
@@ -11689,7 +11689,7 @@
       </c>
       <c r="I236" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128954293&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128964620&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J236" t="inlineStr">
@@ -11704,7 +11704,7 @@
       </c>
       <c r="B237" t="inlineStr">
         <is>
-          <t>Transporte Interregional de Sustancias Peligrosas - AGREDUCAM VI Región</t>
+          <t>Transporte de Residuos Peligrosos por las Rutas Indicadas</t>
         </is>
       </c>
       <c r="C237" t="inlineStr">
@@ -11719,11 +11719,11 @@
       </c>
       <c r="E237" t="inlineStr">
         <is>
-          <t>Asociación Gremial de Dueños de Camiones de la Sexta Región</t>
+          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
         </is>
       </c>
       <c r="F237" t="n">
-        <v>1200</v>
+        <v>0</v>
       </c>
       <c r="G237" t="inlineStr">
         <is>
@@ -11737,7 +11737,7 @@
       </c>
       <c r="I237" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128964620&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128972489&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J237" t="inlineStr">
@@ -11752,7 +11752,7 @@
       </c>
       <c r="B238" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos por las Rutas Indicadas</t>
+          <t>Planta de Fabricación de Tuberías PEX (polietileno reticulado)</t>
         </is>
       </c>
       <c r="C238" t="inlineStr">
@@ -11762,16 +11762,16 @@
       </c>
       <c r="D238" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E238" t="inlineStr">
         <is>
-          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
+          <t>CROSSPIPE SYSTEMS S.A.</t>
         </is>
       </c>
       <c r="F238" t="n">
-        <v>0</v>
+        <v>12400</v>
       </c>
       <c r="G238" t="inlineStr">
         <is>
@@ -11785,7 +11785,7 @@
       </c>
       <c r="I238" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128972489&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128954293&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J238" t="inlineStr">
@@ -13384,26 +13384,26 @@
       </c>
       <c r="B272" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas Transaltisa Chile Ltda</t>
+          <t>RT Sulfuros</t>
         </is>
       </c>
       <c r="C272" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D272" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E272" t="inlineStr">
         <is>
-          <t>Transaltisa Chile Ltda.</t>
+          <t>CODELCO Chile, División Radomiro Tomic</t>
         </is>
       </c>
       <c r="F272" t="n">
-        <v>2050</v>
+        <v>5.4</v>
       </c>
       <c r="G272" t="inlineStr">
         <is>
@@ -13412,12 +13412,12 @@
       </c>
       <c r="H272" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I272" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8218613&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8210090&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J272" t="inlineStr">
@@ -13432,26 +13432,26 @@
       </c>
       <c r="B273" t="inlineStr">
         <is>
-          <t>RT Sulfuros</t>
+          <t>Transporte de Sustancias Peligrosas Transaltisa Chile Ltda</t>
         </is>
       </c>
       <c r="C273" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D273" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E273" t="inlineStr">
         <is>
-          <t>CODELCO Chile, División Radomiro Tomic</t>
+          <t>Transaltisa Chile Ltda.</t>
         </is>
       </c>
       <c r="F273" t="n">
-        <v>5.4</v>
+        <v>2050</v>
       </c>
       <c r="G273" t="inlineStr">
         <is>
@@ -13460,12 +13460,12 @@
       </c>
       <c r="H273" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I273" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8210090&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8218613&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J273" t="inlineStr">
@@ -16120,7 +16120,7 @@
       </c>
       <c r="B329" t="inlineStr">
         <is>
-          <t>CENTRO DE RECUPERACIÓN DE TAMBORES Y CONTENEDORES IBC CONTAMINADOS, PLAMBIENTAL LA NEGRA</t>
+          <t>Parque Fotovoltaico Los Andes</t>
         </is>
       </c>
       <c r="C329" t="inlineStr">
@@ -16135,11 +16135,11 @@
       </c>
       <c r="E329" t="inlineStr">
         <is>
-          <t>VEOLIA SERVICIOS MINEROS INTEGRALES CHILE SpA</t>
+          <t>Andes Solar SPA</t>
         </is>
       </c>
       <c r="F329" t="n">
-        <v>60</v>
+        <v>572000</v>
       </c>
       <c r="G329" t="inlineStr">
         <is>
@@ -16148,12 +16148,12 @@
       </c>
       <c r="H329" t="inlineStr">
         <is>
-          <t>Caducado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I329" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6592870&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6581267&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J329" t="inlineStr">
@@ -16168,7 +16168,7 @@
       </c>
       <c r="B330" t="inlineStr">
         <is>
-          <t>CENTRO DE ALMACENAMIENTO DE RESIDUOS INDUSTRIALES, GESAM LA NEGRA</t>
+          <t>CENTRO DE RECUPERACIÓN DE TAMBORES Y CONTENEDORES IBC CONTAMINADOS, PLAMBIENTAL LA NEGRA</t>
         </is>
       </c>
       <c r="C330" t="inlineStr">
@@ -16187,7 +16187,7 @@
         </is>
       </c>
       <c r="F330" t="n">
-        <v>360</v>
+        <v>60</v>
       </c>
       <c r="G330" t="inlineStr">
         <is>
@@ -16201,7 +16201,7 @@
       </c>
       <c r="I330" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6595234&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6592870&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J330" t="inlineStr">
@@ -16216,7 +16216,7 @@
       </c>
       <c r="B331" t="inlineStr">
         <is>
-          <t>Parque Fotovoltaico Los Andes</t>
+          <t>CENTRO DE ALMACENAMIENTO DE RESIDUOS INDUSTRIALES, GESAM LA NEGRA</t>
         </is>
       </c>
       <c r="C331" t="inlineStr">
@@ -16231,11 +16231,11 @@
       </c>
       <c r="E331" t="inlineStr">
         <is>
-          <t>Andes Solar SPA</t>
+          <t>VEOLIA SERVICIOS MINEROS INTEGRALES CHILE SpA</t>
         </is>
       </c>
       <c r="F331" t="n">
-        <v>572000</v>
+        <v>360</v>
       </c>
       <c r="G331" t="inlineStr">
         <is>
@@ -16244,12 +16244,12 @@
       </c>
       <c r="H331" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Caducado</t>
         </is>
       </c>
       <c r="I331" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6581267&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6595234&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J331" t="inlineStr">
@@ -17608,7 +17608,7 @@
       </c>
       <c r="B360" t="inlineStr">
         <is>
-          <t>Nuevas Instalaciones para Mantención Mina</t>
+          <t>Transporte de Residuos Peligrosos</t>
         </is>
       </c>
       <c r="C360" t="inlineStr">
@@ -17618,16 +17618,16 @@
       </c>
       <c r="D360" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E360" t="inlineStr">
         <is>
-          <t>MINERA ESCONDIDA LIMITADA</t>
+          <t>Transportes TMS Limitada</t>
         </is>
       </c>
       <c r="F360" t="n">
-        <v>635000</v>
+        <v>200</v>
       </c>
       <c r="G360" t="inlineStr">
         <is>
@@ -17636,12 +17636,12 @@
       </c>
       <c r="H360" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I360" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5931343&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6003582&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J360" t="inlineStr">
@@ -17656,7 +17656,7 @@
       </c>
       <c r="B361" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos</t>
+          <t>Transporte de Sustancias Peligrosas entre la I, II y III Regiones"</t>
         </is>
       </c>
       <c r="C361" t="inlineStr">
@@ -17671,11 +17671,11 @@
       </c>
       <c r="E361" t="inlineStr">
         <is>
-          <t>Transportes TMS Limitada</t>
+          <t>Molina Quimicos S.A.</t>
         </is>
       </c>
       <c r="F361" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="G361" t="inlineStr">
         <is>
@@ -17689,7 +17689,7 @@
       </c>
       <c r="I361" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6003582&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6003607&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J361" t="inlineStr">
@@ -17704,7 +17704,7 @@
       </c>
       <c r="B362" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas entre la I, II y III Regiones"</t>
+          <t>Nuevas Instalaciones para Mantención Mina</t>
         </is>
       </c>
       <c r="C362" t="inlineStr">
@@ -17714,16 +17714,16 @@
       </c>
       <c r="D362" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E362" t="inlineStr">
         <is>
-          <t>Molina Quimicos S.A.</t>
+          <t>MINERA ESCONDIDA LIMITADA</t>
         </is>
       </c>
       <c r="F362" t="n">
-        <v>100</v>
+        <v>635000</v>
       </c>
       <c r="G362" t="inlineStr">
         <is>
@@ -17732,12 +17732,12 @@
       </c>
       <c r="H362" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I362" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6003607&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5931343&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J362" t="inlineStr">
@@ -19960,7 +19960,7 @@
       </c>
       <c r="B409" t="inlineStr">
         <is>
-          <t>II MODIFICACIÓN DIA "TRANSPORTE Y MANEJO IN SITU DE RESIDUOS SÓLIDOS Y LÍQUIDOS PELIGROSOS Y NO PELIGROSOS"</t>
+          <t>"Transporte de acido sulfurico concentrado para minera Las Cenizas, Taltal."</t>
         </is>
       </c>
       <c r="C409" t="inlineStr">
@@ -19970,16 +19970,16 @@
       </c>
       <c r="D409" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E409" t="inlineStr">
         <is>
-          <t>Mol Ambiente S.A.</t>
+          <t>Translog S.A.</t>
         </is>
       </c>
       <c r="F409" t="n">
-        <v>75000</v>
+        <v>600</v>
       </c>
       <c r="G409" t="inlineStr">
         <is>
@@ -19988,12 +19988,12 @@
       </c>
       <c r="H409" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I409" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5118945&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5114868&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J409" t="inlineStr">
@@ -20008,7 +20008,7 @@
       </c>
       <c r="B410" t="inlineStr">
         <is>
-          <t>"Transporte de acido sulfurico concentrado para minera Las Cenizas, Taltal."</t>
+          <t>II MODIFICACIÓN DIA "TRANSPORTE Y MANEJO IN SITU DE RESIDUOS SÓLIDOS Y LÍQUIDOS PELIGROSOS Y NO PELIGROSOS"</t>
         </is>
       </c>
       <c r="C410" t="inlineStr">
@@ -20018,16 +20018,16 @@
       </c>
       <c r="D410" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E410" t="inlineStr">
         <is>
-          <t>Translog S.A.</t>
+          <t>Mol Ambiente S.A.</t>
         </is>
       </c>
       <c r="F410" t="n">
-        <v>600</v>
+        <v>75000</v>
       </c>
       <c r="G410" t="inlineStr">
         <is>
@@ -20036,12 +20036,12 @@
       </c>
       <c r="H410" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I410" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5114868&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5118945&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J410" t="inlineStr">
@@ -21496,7 +21496,7 @@
       </c>
       <c r="B441" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE RESIDUOS PELIGROSOS POR RUTAS DE LA REGIÓN DE ANTOFAGASTA</t>
+          <t>Proyecto Laboratorios Químicos CIMM T&amp;S SA. La Negra</t>
         </is>
       </c>
       <c r="C441" t="inlineStr">
@@ -21511,11 +21511,11 @@
       </c>
       <c r="E441" t="inlineStr">
         <is>
-          <t>Limfosep S.A</t>
+          <t>Yancko Gonzalez Rozas</t>
         </is>
       </c>
       <c r="F441" t="n">
-        <v>1000</v>
+        <v>8000</v>
       </c>
       <c r="G441" t="inlineStr">
         <is>
@@ -21524,12 +21524,12 @@
       </c>
       <c r="H441" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I441" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4698232&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4670031&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J441" t="inlineStr">
@@ -21544,7 +21544,7 @@
       </c>
       <c r="B442" t="inlineStr">
         <is>
-          <t>Proyecto Laboratorios Químicos CIMM T&amp;S SA. La Negra</t>
+          <t>TRANSPORTE DE RESIDUOS PELIGROSOS POR RUTAS DE LA REGIÓN DE ANTOFAGASTA</t>
         </is>
       </c>
       <c r="C442" t="inlineStr">
@@ -21559,11 +21559,11 @@
       </c>
       <c r="E442" t="inlineStr">
         <is>
-          <t>Yancko Gonzalez Rozas</t>
+          <t>Limfosep S.A</t>
         </is>
       </c>
       <c r="F442" t="n">
-        <v>8000</v>
+        <v>1000</v>
       </c>
       <c r="G442" t="inlineStr">
         <is>
@@ -21572,12 +21572,12 @@
       </c>
       <c r="H442" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I442" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4670031&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4698232&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J442" t="inlineStr">
@@ -21976,7 +21976,7 @@
       </c>
       <c r="B451" t="inlineStr">
         <is>
-          <t>EXPANSION DEPOSITO DE RELAVES FILTRADOS FAENA EL PEÑÓN</t>
+          <t>Nuevo Transporte Interregional de Cianuro de Sodio</t>
         </is>
       </c>
       <c r="C451" t="inlineStr">
@@ -21986,16 +21986,16 @@
       </c>
       <c r="D451" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E451" t="inlineStr">
         <is>
-          <t>Minera Meridian Limitada</t>
+          <t>OXIQUIM S.A.</t>
         </is>
       </c>
       <c r="F451" t="n">
-        <v>688</v>
+        <v>85</v>
       </c>
       <c r="G451" t="inlineStr">
         <is>
@@ -22004,12 +22004,12 @@
       </c>
       <c r="H451" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I451" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4601640&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4594007&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J451" t="inlineStr">
@@ -22024,7 +22024,7 @@
       </c>
       <c r="B452" t="inlineStr">
         <is>
-          <t>Nuevo Transporte Interregional de Cianuro de Sodio</t>
+          <t>EXPANSION DEPOSITO DE RELAVES FILTRADOS FAENA EL PEÑÓN</t>
         </is>
       </c>
       <c r="C452" t="inlineStr">
@@ -22034,16 +22034,16 @@
       </c>
       <c r="D452" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E452" t="inlineStr">
         <is>
-          <t>OXIQUIM S.A.</t>
+          <t>Minera Meridian Limitada</t>
         </is>
       </c>
       <c r="F452" t="n">
-        <v>85</v>
+        <v>688</v>
       </c>
       <c r="G452" t="inlineStr">
         <is>
@@ -22052,12 +22052,12 @@
       </c>
       <c r="H452" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I452" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4594007&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4601640&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J452" t="inlineStr">
@@ -22792,7 +22792,7 @@
       </c>
       <c r="B468" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligroso, Transporte Bello</t>
+          <t>Transporte de Barros Anódicos</t>
         </is>
       </c>
       <c r="C468" t="inlineStr">
@@ -22807,11 +22807,11 @@
       </c>
       <c r="E468" t="inlineStr">
         <is>
-          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
+          <t>CODELCO CHILE</t>
         </is>
       </c>
       <c r="F468" t="n">
-        <v>4050</v>
+        <v>0</v>
       </c>
       <c r="G468" t="inlineStr">
         <is>
@@ -22825,7 +22825,7 @@
       </c>
       <c r="I468" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4455518&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4429880&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J468" t="inlineStr">
@@ -22840,7 +22840,7 @@
       </c>
       <c r="B469" t="inlineStr">
         <is>
-          <t>Transporte de Barros Anódicos</t>
+          <t>Transporte de Residuos Peligroso, Transporte Bello</t>
         </is>
       </c>
       <c r="C469" t="inlineStr">
@@ -22855,11 +22855,11 @@
       </c>
       <c r="E469" t="inlineStr">
         <is>
-          <t>CODELCO CHILE</t>
+          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
         </is>
       </c>
       <c r="F469" t="n">
-        <v>0</v>
+        <v>4050</v>
       </c>
       <c r="G469" t="inlineStr">
         <is>
@@ -22873,7 +22873,7 @@
       </c>
       <c r="I469" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4429880&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4455518&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J469" t="inlineStr">
@@ -22984,7 +22984,7 @@
       </c>
       <c r="B472" t="inlineStr">
         <is>
-          <t>Modificacion Proyecto Minero Algorta Sector Pampa</t>
+          <t>Transporte y Almacenamiento temporal de Residuos Peligrosos M&amp;M ltda.</t>
         </is>
       </c>
       <c r="C472" t="inlineStr">
@@ -22994,16 +22994,16 @@
       </c>
       <c r="D472" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E472" t="inlineStr">
         <is>
-          <t>Algorta Norte S.A</t>
+          <t>Transportes Moscoso y Moscoso Ltda.</t>
         </is>
       </c>
       <c r="F472" t="n">
-        <v>6400</v>
+        <v>41075</v>
       </c>
       <c r="G472" t="inlineStr">
         <is>
@@ -23017,7 +23017,7 @@
       </c>
       <c r="I472" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4432700&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4422237&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J472" t="inlineStr">
@@ -23032,7 +23032,7 @@
       </c>
       <c r="B473" t="inlineStr">
         <is>
-          <t>Transporte y Almacenamiento temporal de Residuos Peligrosos M&amp;M ltda.</t>
+          <t>Modificacion Proyecto Minero Algorta Sector Pampa</t>
         </is>
       </c>
       <c r="C473" t="inlineStr">
@@ -23042,16 +23042,16 @@
       </c>
       <c r="D473" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E473" t="inlineStr">
         <is>
-          <t>Transportes Moscoso y Moscoso Ltda.</t>
+          <t>Algorta Norte S.A</t>
         </is>
       </c>
       <c r="F473" t="n">
-        <v>41075</v>
+        <v>6400</v>
       </c>
       <c r="G473" t="inlineStr">
         <is>
@@ -23065,7 +23065,7 @@
       </c>
       <c r="I473" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4422237&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4432700&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J473" t="inlineStr">

--- a/data/Antofagasta.xlsx
+++ b/data/Antofagasta.xlsx
@@ -452,7 +452,7 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>En Admisión</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">

--- a/data/Antofagasta.xlsx
+++ b/data/Antofagasta.xlsx
@@ -11704,7 +11704,7 @@
       </c>
       <c r="B237" t="inlineStr">
         <is>
-          <t>Transporte Interregional de Sustancias Peligrosas - AGREDUCAM VI Región</t>
+          <t>Planta de Fabricación de Tuberías PEX (polietileno reticulado)</t>
         </is>
       </c>
       <c r="C237" t="inlineStr">
@@ -11714,16 +11714,16 @@
       </c>
       <c r="D237" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E237" t="inlineStr">
         <is>
-          <t>Asociación Gremial de Dueños de Camiones de la Sexta Región</t>
+          <t>CROSSPIPE SYSTEMS S.A.</t>
         </is>
       </c>
       <c r="F237" t="n">
-        <v>1200</v>
+        <v>12400</v>
       </c>
       <c r="G237" t="inlineStr">
         <is>
@@ -11737,7 +11737,7 @@
       </c>
       <c r="I237" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128964620&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128954293&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J237" t="inlineStr">
@@ -11752,7 +11752,7 @@
       </c>
       <c r="B238" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos por las Rutas Indicadas</t>
+          <t>Transporte Interregional de Sustancias Peligrosas - AGREDUCAM VI Región</t>
         </is>
       </c>
       <c r="C238" t="inlineStr">
@@ -11767,11 +11767,11 @@
       </c>
       <c r="E238" t="inlineStr">
         <is>
-          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
+          <t>Asociación Gremial de Dueños de Camiones de la Sexta Región</t>
         </is>
       </c>
       <c r="F238" t="n">
-        <v>0</v>
+        <v>1200</v>
       </c>
       <c r="G238" t="inlineStr">
         <is>
@@ -11785,7 +11785,7 @@
       </c>
       <c r="I238" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128972489&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128964620&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J238" t="inlineStr">
@@ -11800,7 +11800,7 @@
       </c>
       <c r="B239" t="inlineStr">
         <is>
-          <t>Planta de Fabricación de Tuberías PEX (polietileno reticulado)</t>
+          <t>Transporte de Residuos Peligrosos por las Rutas Indicadas</t>
         </is>
       </c>
       <c r="C239" t="inlineStr">
@@ -11810,16 +11810,16 @@
       </c>
       <c r="D239" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E239" t="inlineStr">
         <is>
-          <t>CROSSPIPE SYSTEMS S.A.</t>
+          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
         </is>
       </c>
       <c r="F239" t="n">
-        <v>12400</v>
+        <v>0</v>
       </c>
       <c r="G239" t="inlineStr">
         <is>
@@ -11833,7 +11833,7 @@
       </c>
       <c r="I239" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128954293&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128972489&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J239" t="inlineStr">
@@ -13432,26 +13432,26 @@
       </c>
       <c r="B273" t="inlineStr">
         <is>
-          <t>RT Sulfuros</t>
+          <t>Transporte de Sustancias Peligrosas Transaltisa Chile Ltda</t>
         </is>
       </c>
       <c r="C273" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D273" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E273" t="inlineStr">
         <is>
-          <t>CODELCO Chile, División Radomiro Tomic</t>
+          <t>Transaltisa Chile Ltda.</t>
         </is>
       </c>
       <c r="F273" t="n">
-        <v>5.4</v>
+        <v>2050</v>
       </c>
       <c r="G273" t="inlineStr">
         <is>
@@ -13460,12 +13460,12 @@
       </c>
       <c r="H273" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I273" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8210090&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8218613&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J273" t="inlineStr">
@@ -13480,26 +13480,26 @@
       </c>
       <c r="B274" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas Transaltisa Chile Ltda</t>
+          <t>RT Sulfuros</t>
         </is>
       </c>
       <c r="C274" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D274" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E274" t="inlineStr">
         <is>
-          <t>Transaltisa Chile Ltda.</t>
+          <t>CODELCO Chile, División Radomiro Tomic</t>
         </is>
       </c>
       <c r="F274" t="n">
-        <v>2050</v>
+        <v>5.4</v>
       </c>
       <c r="G274" t="inlineStr">
         <is>
@@ -13508,12 +13508,12 @@
       </c>
       <c r="H274" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I274" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8218613&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8210090&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J274" t="inlineStr">
@@ -16168,7 +16168,7 @@
       </c>
       <c r="B330" t="inlineStr">
         <is>
-          <t>Parque Fotovoltaico Los Andes</t>
+          <t>CENTRO DE RECUPERACIÓN DE TAMBORES Y CONTENEDORES IBC CONTAMINADOS, PLAMBIENTAL LA NEGRA</t>
         </is>
       </c>
       <c r="C330" t="inlineStr">
@@ -16183,11 +16183,11 @@
       </c>
       <c r="E330" t="inlineStr">
         <is>
-          <t>Andes Solar SPA</t>
+          <t>VEOLIA SERVICIOS MINEROS INTEGRALES CHILE SpA</t>
         </is>
       </c>
       <c r="F330" t="n">
-        <v>572000</v>
+        <v>60</v>
       </c>
       <c r="G330" t="inlineStr">
         <is>
@@ -16196,12 +16196,12 @@
       </c>
       <c r="H330" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Caducado</t>
         </is>
       </c>
       <c r="I330" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6581267&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6592870&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J330" t="inlineStr">
@@ -16216,7 +16216,7 @@
       </c>
       <c r="B331" t="inlineStr">
         <is>
-          <t>CENTRO DE RECUPERACIÓN DE TAMBORES Y CONTENEDORES IBC CONTAMINADOS, PLAMBIENTAL LA NEGRA</t>
+          <t>CENTRO DE ALMACENAMIENTO DE RESIDUOS INDUSTRIALES, GESAM LA NEGRA</t>
         </is>
       </c>
       <c r="C331" t="inlineStr">
@@ -16235,7 +16235,7 @@
         </is>
       </c>
       <c r="F331" t="n">
-        <v>60</v>
+        <v>360</v>
       </c>
       <c r="G331" t="inlineStr">
         <is>
@@ -16249,7 +16249,7 @@
       </c>
       <c r="I331" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6592870&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6595234&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J331" t="inlineStr">
@@ -16264,7 +16264,7 @@
       </c>
       <c r="B332" t="inlineStr">
         <is>
-          <t>CENTRO DE ALMACENAMIENTO DE RESIDUOS INDUSTRIALES, GESAM LA NEGRA</t>
+          <t>Parque Fotovoltaico Los Andes</t>
         </is>
       </c>
       <c r="C332" t="inlineStr">
@@ -16279,11 +16279,11 @@
       </c>
       <c r="E332" t="inlineStr">
         <is>
-          <t>VEOLIA SERVICIOS MINEROS INTEGRALES CHILE SpA</t>
+          <t>Andes Solar SPA</t>
         </is>
       </c>
       <c r="F332" t="n">
-        <v>360</v>
+        <v>572000</v>
       </c>
       <c r="G332" t="inlineStr">
         <is>
@@ -16292,12 +16292,12 @@
       </c>
       <c r="H332" t="inlineStr">
         <is>
-          <t>Caducado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I332" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6595234&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6581267&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J332" t="inlineStr">
@@ -17656,7 +17656,7 @@
       </c>
       <c r="B361" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos</t>
+          <t>Nuevas Instalaciones para Mantención Mina</t>
         </is>
       </c>
       <c r="C361" t="inlineStr">
@@ -17666,16 +17666,16 @@
       </c>
       <c r="D361" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E361" t="inlineStr">
         <is>
-          <t>Transportes TMS Limitada</t>
+          <t>MINERA ESCONDIDA LIMITADA</t>
         </is>
       </c>
       <c r="F361" t="n">
-        <v>200</v>
+        <v>635000</v>
       </c>
       <c r="G361" t="inlineStr">
         <is>
@@ -17684,12 +17684,12 @@
       </c>
       <c r="H361" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I361" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6003582&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5931343&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J361" t="inlineStr">
@@ -17704,7 +17704,7 @@
       </c>
       <c r="B362" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas entre la I, II y III Regiones"</t>
+          <t>Transporte de Residuos Peligrosos</t>
         </is>
       </c>
       <c r="C362" t="inlineStr">
@@ -17719,11 +17719,11 @@
       </c>
       <c r="E362" t="inlineStr">
         <is>
-          <t>Molina Quimicos S.A.</t>
+          <t>Transportes TMS Limitada</t>
         </is>
       </c>
       <c r="F362" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="G362" t="inlineStr">
         <is>
@@ -17737,7 +17737,7 @@
       </c>
       <c r="I362" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6003607&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6003582&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J362" t="inlineStr">
@@ -17752,7 +17752,7 @@
       </c>
       <c r="B363" t="inlineStr">
         <is>
-          <t>Nuevas Instalaciones para Mantención Mina</t>
+          <t>Transporte de Sustancias Peligrosas entre la I, II y III Regiones"</t>
         </is>
       </c>
       <c r="C363" t="inlineStr">
@@ -17762,16 +17762,16 @@
       </c>
       <c r="D363" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E363" t="inlineStr">
         <is>
-          <t>MINERA ESCONDIDA LIMITADA</t>
+          <t>Molina Quimicos S.A.</t>
         </is>
       </c>
       <c r="F363" t="n">
-        <v>635000</v>
+        <v>100</v>
       </c>
       <c r="G363" t="inlineStr">
         <is>
@@ -17780,12 +17780,12 @@
       </c>
       <c r="H363" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I363" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5931343&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6003607&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J363" t="inlineStr">
@@ -20008,7 +20008,7 @@
       </c>
       <c r="B410" t="inlineStr">
         <is>
-          <t>"Transporte de acido sulfurico concentrado para minera Las Cenizas, Taltal."</t>
+          <t>II MODIFICACIÓN DIA "TRANSPORTE Y MANEJO IN SITU DE RESIDUOS SÓLIDOS Y LÍQUIDOS PELIGROSOS Y NO PELIGROSOS"</t>
         </is>
       </c>
       <c r="C410" t="inlineStr">
@@ -20018,16 +20018,16 @@
       </c>
       <c r="D410" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E410" t="inlineStr">
         <is>
-          <t>Translog S.A.</t>
+          <t>Mol Ambiente S.A.</t>
         </is>
       </c>
       <c r="F410" t="n">
-        <v>600</v>
+        <v>75000</v>
       </c>
       <c r="G410" t="inlineStr">
         <is>
@@ -20036,12 +20036,12 @@
       </c>
       <c r="H410" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I410" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5114868&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5118945&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J410" t="inlineStr">
@@ -20056,7 +20056,7 @@
       </c>
       <c r="B411" t="inlineStr">
         <is>
-          <t>II MODIFICACIÓN DIA "TRANSPORTE Y MANEJO IN SITU DE RESIDUOS SÓLIDOS Y LÍQUIDOS PELIGROSOS Y NO PELIGROSOS"</t>
+          <t>"Transporte de acido sulfurico concentrado para minera Las Cenizas, Taltal."</t>
         </is>
       </c>
       <c r="C411" t="inlineStr">
@@ -20066,16 +20066,16 @@
       </c>
       <c r="D411" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E411" t="inlineStr">
         <is>
-          <t>Mol Ambiente S.A.</t>
+          <t>Translog S.A.</t>
         </is>
       </c>
       <c r="F411" t="n">
-        <v>75000</v>
+        <v>600</v>
       </c>
       <c r="G411" t="inlineStr">
         <is>
@@ -20084,12 +20084,12 @@
       </c>
       <c r="H411" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I411" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5118945&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5114868&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J411" t="inlineStr">
@@ -21544,7 +21544,7 @@
       </c>
       <c r="B442" t="inlineStr">
         <is>
-          <t>Proyecto Laboratorios Químicos CIMM T&amp;S SA. La Negra</t>
+          <t>TRANSPORTE DE RESIDUOS PELIGROSOS POR RUTAS DE LA REGIÓN DE ANTOFAGASTA</t>
         </is>
       </c>
       <c r="C442" t="inlineStr">
@@ -21559,11 +21559,11 @@
       </c>
       <c r="E442" t="inlineStr">
         <is>
-          <t>Yancko Gonzalez Rozas</t>
+          <t>Limfosep S.A</t>
         </is>
       </c>
       <c r="F442" t="n">
-        <v>8000</v>
+        <v>1000</v>
       </c>
       <c r="G442" t="inlineStr">
         <is>
@@ -21572,12 +21572,12 @@
       </c>
       <c r="H442" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I442" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4670031&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4698232&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J442" t="inlineStr">
@@ -21592,7 +21592,7 @@
       </c>
       <c r="B443" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE RESIDUOS PELIGROSOS POR RUTAS DE LA REGIÓN DE ANTOFAGASTA</t>
+          <t>Proyecto Laboratorios Químicos CIMM T&amp;S SA. La Negra</t>
         </is>
       </c>
       <c r="C443" t="inlineStr">
@@ -21607,11 +21607,11 @@
       </c>
       <c r="E443" t="inlineStr">
         <is>
-          <t>Limfosep S.A</t>
+          <t>Yancko Gonzalez Rozas</t>
         </is>
       </c>
       <c r="F443" t="n">
-        <v>1000</v>
+        <v>8000</v>
       </c>
       <c r="G443" t="inlineStr">
         <is>
@@ -21620,12 +21620,12 @@
       </c>
       <c r="H443" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I443" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4698232&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4670031&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J443" t="inlineStr">
@@ -22024,7 +22024,7 @@
       </c>
       <c r="B452" t="inlineStr">
         <is>
-          <t>Nuevo Transporte Interregional de Cianuro de Sodio</t>
+          <t>EXPANSION DEPOSITO DE RELAVES FILTRADOS FAENA EL PEÑÓN</t>
         </is>
       </c>
       <c r="C452" t="inlineStr">
@@ -22034,16 +22034,16 @@
       </c>
       <c r="D452" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E452" t="inlineStr">
         <is>
-          <t>OXIQUIM S.A.</t>
+          <t>Minera Meridian Limitada</t>
         </is>
       </c>
       <c r="F452" t="n">
-        <v>85</v>
+        <v>688</v>
       </c>
       <c r="G452" t="inlineStr">
         <is>
@@ -22052,12 +22052,12 @@
       </c>
       <c r="H452" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I452" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4594007&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4601640&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J452" t="inlineStr">
@@ -22072,7 +22072,7 @@
       </c>
       <c r="B453" t="inlineStr">
         <is>
-          <t>EXPANSION DEPOSITO DE RELAVES FILTRADOS FAENA EL PEÑÓN</t>
+          <t>Nuevo Transporte Interregional de Cianuro de Sodio</t>
         </is>
       </c>
       <c r="C453" t="inlineStr">
@@ -22082,16 +22082,16 @@
       </c>
       <c r="D453" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E453" t="inlineStr">
         <is>
-          <t>Minera Meridian Limitada</t>
+          <t>OXIQUIM S.A.</t>
         </is>
       </c>
       <c r="F453" t="n">
-        <v>688</v>
+        <v>85</v>
       </c>
       <c r="G453" t="inlineStr">
         <is>
@@ -22100,12 +22100,12 @@
       </c>
       <c r="H453" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I453" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4601640&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4594007&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J453" t="inlineStr">
@@ -22840,7 +22840,7 @@
       </c>
       <c r="B469" t="inlineStr">
         <is>
-          <t>Transporte de Barros Anódicos</t>
+          <t>Transporte de Residuos Peligroso, Transporte Bello</t>
         </is>
       </c>
       <c r="C469" t="inlineStr">
@@ -22855,11 +22855,11 @@
       </c>
       <c r="E469" t="inlineStr">
         <is>
-          <t>CODELCO CHILE</t>
+          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
         </is>
       </c>
       <c r="F469" t="n">
-        <v>0</v>
+        <v>4050</v>
       </c>
       <c r="G469" t="inlineStr">
         <is>
@@ -22873,7 +22873,7 @@
       </c>
       <c r="I469" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4429880&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4455518&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J469" t="inlineStr">
@@ -22888,7 +22888,7 @@
       </c>
       <c r="B470" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligroso, Transporte Bello</t>
+          <t>Transporte de Barros Anódicos</t>
         </is>
       </c>
       <c r="C470" t="inlineStr">
@@ -22903,11 +22903,11 @@
       </c>
       <c r="E470" t="inlineStr">
         <is>
-          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
+          <t>CODELCO CHILE</t>
         </is>
       </c>
       <c r="F470" t="n">
-        <v>4050</v>
+        <v>0</v>
       </c>
       <c r="G470" t="inlineStr">
         <is>
@@ -22921,7 +22921,7 @@
       </c>
       <c r="I470" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4455518&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4429880&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J470" t="inlineStr">
@@ -23032,7 +23032,7 @@
       </c>
       <c r="B473" t="inlineStr">
         <is>
-          <t>Transporte y Almacenamiento temporal de Residuos Peligrosos M&amp;M ltda.</t>
+          <t>Modificacion Proyecto Minero Algorta Sector Pampa</t>
         </is>
       </c>
       <c r="C473" t="inlineStr">
@@ -23042,16 +23042,16 @@
       </c>
       <c r="D473" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E473" t="inlineStr">
         <is>
-          <t>Transportes Moscoso y Moscoso Ltda.</t>
+          <t>Algorta Norte S.A</t>
         </is>
       </c>
       <c r="F473" t="n">
-        <v>41075</v>
+        <v>6400</v>
       </c>
       <c r="G473" t="inlineStr">
         <is>
@@ -23065,7 +23065,7 @@
       </c>
       <c r="I473" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4422237&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4432700&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J473" t="inlineStr">
@@ -23080,7 +23080,7 @@
       </c>
       <c r="B474" t="inlineStr">
         <is>
-          <t>Modificacion Proyecto Minero Algorta Sector Pampa</t>
+          <t>Transporte y Almacenamiento temporal de Residuos Peligrosos M&amp;M ltda.</t>
         </is>
       </c>
       <c r="C474" t="inlineStr">
@@ -23090,16 +23090,16 @@
       </c>
       <c r="D474" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E474" t="inlineStr">
         <is>
-          <t>Algorta Norte S.A</t>
+          <t>Transportes Moscoso y Moscoso Ltda.</t>
         </is>
       </c>
       <c r="F474" t="n">
-        <v>6400</v>
+        <v>41075</v>
       </c>
       <c r="G474" t="inlineStr">
         <is>
@@ -23113,7 +23113,7 @@
       </c>
       <c r="I474" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4432700&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4422237&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J474" t="inlineStr">

--- a/data/Antofagasta.xlsx
+++ b/data/Antofagasta.xlsx
@@ -11704,7 +11704,7 @@
       </c>
       <c r="B237" t="inlineStr">
         <is>
-          <t>Planta de Fabricación de Tuberías PEX (polietileno reticulado)</t>
+          <t>Transporte Interregional de Sustancias Peligrosas - AGREDUCAM VI Región</t>
         </is>
       </c>
       <c r="C237" t="inlineStr">
@@ -11714,16 +11714,16 @@
       </c>
       <c r="D237" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E237" t="inlineStr">
         <is>
-          <t>CROSSPIPE SYSTEMS S.A.</t>
+          <t>Asociación Gremial de Dueños de Camiones de la Sexta Región</t>
         </is>
       </c>
       <c r="F237" t="n">
-        <v>12400</v>
+        <v>1200</v>
       </c>
       <c r="G237" t="inlineStr">
         <is>
@@ -11737,7 +11737,7 @@
       </c>
       <c r="I237" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128954293&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128964620&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J237" t="inlineStr">
@@ -11752,7 +11752,7 @@
       </c>
       <c r="B238" t="inlineStr">
         <is>
-          <t>Transporte Interregional de Sustancias Peligrosas - AGREDUCAM VI Región</t>
+          <t>Transporte de Residuos Peligrosos por las Rutas Indicadas</t>
         </is>
       </c>
       <c r="C238" t="inlineStr">
@@ -11767,11 +11767,11 @@
       </c>
       <c r="E238" t="inlineStr">
         <is>
-          <t>Asociación Gremial de Dueños de Camiones de la Sexta Región</t>
+          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
         </is>
       </c>
       <c r="F238" t="n">
-        <v>1200</v>
+        <v>0</v>
       </c>
       <c r="G238" t="inlineStr">
         <is>
@@ -11785,7 +11785,7 @@
       </c>
       <c r="I238" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128964620&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128972489&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J238" t="inlineStr">
@@ -11800,7 +11800,7 @@
       </c>
       <c r="B239" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos por las Rutas Indicadas</t>
+          <t>Planta de Fabricación de Tuberías PEX (polietileno reticulado)</t>
         </is>
       </c>
       <c r="C239" t="inlineStr">
@@ -11810,16 +11810,16 @@
       </c>
       <c r="D239" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E239" t="inlineStr">
         <is>
-          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
+          <t>CROSSPIPE SYSTEMS S.A.</t>
         </is>
       </c>
       <c r="F239" t="n">
-        <v>0</v>
+        <v>12400</v>
       </c>
       <c r="G239" t="inlineStr">
         <is>
@@ -11833,7 +11833,7 @@
       </c>
       <c r="I239" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128972489&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128954293&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J239" t="inlineStr">
@@ -13432,26 +13432,26 @@
       </c>
       <c r="B273" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas Transaltisa Chile Ltda</t>
+          <t>RT Sulfuros</t>
         </is>
       </c>
       <c r="C273" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D273" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E273" t="inlineStr">
         <is>
-          <t>Transaltisa Chile Ltda.</t>
+          <t>CODELCO Chile, División Radomiro Tomic</t>
         </is>
       </c>
       <c r="F273" t="n">
-        <v>2050</v>
+        <v>5.4</v>
       </c>
       <c r="G273" t="inlineStr">
         <is>
@@ -13460,12 +13460,12 @@
       </c>
       <c r="H273" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I273" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8218613&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8210090&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J273" t="inlineStr">
@@ -13480,26 +13480,26 @@
       </c>
       <c r="B274" t="inlineStr">
         <is>
-          <t>RT Sulfuros</t>
+          <t>Transporte de Sustancias Peligrosas Transaltisa Chile Ltda</t>
         </is>
       </c>
       <c r="C274" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D274" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E274" t="inlineStr">
         <is>
-          <t>CODELCO Chile, División Radomiro Tomic</t>
+          <t>Transaltisa Chile Ltda.</t>
         </is>
       </c>
       <c r="F274" t="n">
-        <v>5.4</v>
+        <v>2050</v>
       </c>
       <c r="G274" t="inlineStr">
         <is>
@@ -13508,12 +13508,12 @@
       </c>
       <c r="H274" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I274" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8210090&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8218613&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J274" t="inlineStr">
@@ -16168,7 +16168,7 @@
       </c>
       <c r="B330" t="inlineStr">
         <is>
-          <t>CENTRO DE RECUPERACIÓN DE TAMBORES Y CONTENEDORES IBC CONTAMINADOS, PLAMBIENTAL LA NEGRA</t>
+          <t>Parque Fotovoltaico Los Andes</t>
         </is>
       </c>
       <c r="C330" t="inlineStr">
@@ -16183,11 +16183,11 @@
       </c>
       <c r="E330" t="inlineStr">
         <is>
-          <t>VEOLIA SERVICIOS MINEROS INTEGRALES CHILE SpA</t>
+          <t>Andes Solar SPA</t>
         </is>
       </c>
       <c r="F330" t="n">
-        <v>60</v>
+        <v>572000</v>
       </c>
       <c r="G330" t="inlineStr">
         <is>
@@ -16196,12 +16196,12 @@
       </c>
       <c r="H330" t="inlineStr">
         <is>
-          <t>Caducado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I330" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6592870&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6581267&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J330" t="inlineStr">
@@ -16216,7 +16216,7 @@
       </c>
       <c r="B331" t="inlineStr">
         <is>
-          <t>CENTRO DE ALMACENAMIENTO DE RESIDUOS INDUSTRIALES, GESAM LA NEGRA</t>
+          <t>CENTRO DE RECUPERACIÓN DE TAMBORES Y CONTENEDORES IBC CONTAMINADOS, PLAMBIENTAL LA NEGRA</t>
         </is>
       </c>
       <c r="C331" t="inlineStr">
@@ -16235,7 +16235,7 @@
         </is>
       </c>
       <c r="F331" t="n">
-        <v>360</v>
+        <v>60</v>
       </c>
       <c r="G331" t="inlineStr">
         <is>
@@ -16249,7 +16249,7 @@
       </c>
       <c r="I331" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6595234&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6592870&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J331" t="inlineStr">
@@ -16264,7 +16264,7 @@
       </c>
       <c r="B332" t="inlineStr">
         <is>
-          <t>Parque Fotovoltaico Los Andes</t>
+          <t>CENTRO DE ALMACENAMIENTO DE RESIDUOS INDUSTRIALES, GESAM LA NEGRA</t>
         </is>
       </c>
       <c r="C332" t="inlineStr">
@@ -16279,11 +16279,11 @@
       </c>
       <c r="E332" t="inlineStr">
         <is>
-          <t>Andes Solar SPA</t>
+          <t>VEOLIA SERVICIOS MINEROS INTEGRALES CHILE SpA</t>
         </is>
       </c>
       <c r="F332" t="n">
-        <v>572000</v>
+        <v>360</v>
       </c>
       <c r="G332" t="inlineStr">
         <is>
@@ -16292,12 +16292,12 @@
       </c>
       <c r="H332" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Caducado</t>
         </is>
       </c>
       <c r="I332" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6581267&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6595234&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J332" t="inlineStr">
@@ -17656,7 +17656,7 @@
       </c>
       <c r="B361" t="inlineStr">
         <is>
-          <t>Nuevas Instalaciones para Mantención Mina</t>
+          <t>Transporte de Residuos Peligrosos</t>
         </is>
       </c>
       <c r="C361" t="inlineStr">
@@ -17666,16 +17666,16 @@
       </c>
       <c r="D361" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E361" t="inlineStr">
         <is>
-          <t>MINERA ESCONDIDA LIMITADA</t>
+          <t>Transportes TMS Limitada</t>
         </is>
       </c>
       <c r="F361" t="n">
-        <v>635000</v>
+        <v>200</v>
       </c>
       <c r="G361" t="inlineStr">
         <is>
@@ -17684,12 +17684,12 @@
       </c>
       <c r="H361" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I361" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5931343&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6003582&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J361" t="inlineStr">
@@ -17704,7 +17704,7 @@
       </c>
       <c r="B362" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos</t>
+          <t>Transporte de Sustancias Peligrosas entre la I, II y III Regiones"</t>
         </is>
       </c>
       <c r="C362" t="inlineStr">
@@ -17719,11 +17719,11 @@
       </c>
       <c r="E362" t="inlineStr">
         <is>
-          <t>Transportes TMS Limitada</t>
+          <t>Molina Quimicos S.A.</t>
         </is>
       </c>
       <c r="F362" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="G362" t="inlineStr">
         <is>
@@ -17737,7 +17737,7 @@
       </c>
       <c r="I362" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6003582&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6003607&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J362" t="inlineStr">
@@ -17752,7 +17752,7 @@
       </c>
       <c r="B363" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas entre la I, II y III Regiones"</t>
+          <t>Nuevas Instalaciones para Mantención Mina</t>
         </is>
       </c>
       <c r="C363" t="inlineStr">
@@ -17762,16 +17762,16 @@
       </c>
       <c r="D363" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E363" t="inlineStr">
         <is>
-          <t>Molina Quimicos S.A.</t>
+          <t>MINERA ESCONDIDA LIMITADA</t>
         </is>
       </c>
       <c r="F363" t="n">
-        <v>100</v>
+        <v>635000</v>
       </c>
       <c r="G363" t="inlineStr">
         <is>
@@ -17780,12 +17780,12 @@
       </c>
       <c r="H363" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I363" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6003607&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5931343&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J363" t="inlineStr">
@@ -20008,7 +20008,7 @@
       </c>
       <c r="B410" t="inlineStr">
         <is>
-          <t>II MODIFICACIÓN DIA "TRANSPORTE Y MANEJO IN SITU DE RESIDUOS SÓLIDOS Y LÍQUIDOS PELIGROSOS Y NO PELIGROSOS"</t>
+          <t>"Transporte de acido sulfurico concentrado para minera Las Cenizas, Taltal."</t>
         </is>
       </c>
       <c r="C410" t="inlineStr">
@@ -20018,16 +20018,16 @@
       </c>
       <c r="D410" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E410" t="inlineStr">
         <is>
-          <t>Mol Ambiente S.A.</t>
+          <t>Translog S.A.</t>
         </is>
       </c>
       <c r="F410" t="n">
-        <v>75000</v>
+        <v>600</v>
       </c>
       <c r="G410" t="inlineStr">
         <is>
@@ -20036,12 +20036,12 @@
       </c>
       <c r="H410" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I410" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5118945&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5114868&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J410" t="inlineStr">
@@ -20056,7 +20056,7 @@
       </c>
       <c r="B411" t="inlineStr">
         <is>
-          <t>"Transporte de acido sulfurico concentrado para minera Las Cenizas, Taltal."</t>
+          <t>II MODIFICACIÓN DIA "TRANSPORTE Y MANEJO IN SITU DE RESIDUOS SÓLIDOS Y LÍQUIDOS PELIGROSOS Y NO PELIGROSOS"</t>
         </is>
       </c>
       <c r="C411" t="inlineStr">
@@ -20066,16 +20066,16 @@
       </c>
       <c r="D411" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E411" t="inlineStr">
         <is>
-          <t>Translog S.A.</t>
+          <t>Mol Ambiente S.A.</t>
         </is>
       </c>
       <c r="F411" t="n">
-        <v>600</v>
+        <v>75000</v>
       </c>
       <c r="G411" t="inlineStr">
         <is>
@@ -20084,12 +20084,12 @@
       </c>
       <c r="H411" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I411" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5114868&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5118945&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J411" t="inlineStr">
@@ -21544,7 +21544,7 @@
       </c>
       <c r="B442" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE RESIDUOS PELIGROSOS POR RUTAS DE LA REGIÓN DE ANTOFAGASTA</t>
+          <t>Proyecto Laboratorios Químicos CIMM T&amp;S SA. La Negra</t>
         </is>
       </c>
       <c r="C442" t="inlineStr">
@@ -21559,11 +21559,11 @@
       </c>
       <c r="E442" t="inlineStr">
         <is>
-          <t>Limfosep S.A</t>
+          <t>Yancko Gonzalez Rozas</t>
         </is>
       </c>
       <c r="F442" t="n">
-        <v>1000</v>
+        <v>8000</v>
       </c>
       <c r="G442" t="inlineStr">
         <is>
@@ -21572,12 +21572,12 @@
       </c>
       <c r="H442" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I442" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4698232&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4670031&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J442" t="inlineStr">
@@ -21592,7 +21592,7 @@
       </c>
       <c r="B443" t="inlineStr">
         <is>
-          <t>Proyecto Laboratorios Químicos CIMM T&amp;S SA. La Negra</t>
+          <t>TRANSPORTE DE RESIDUOS PELIGROSOS POR RUTAS DE LA REGIÓN DE ANTOFAGASTA</t>
         </is>
       </c>
       <c r="C443" t="inlineStr">
@@ -21607,11 +21607,11 @@
       </c>
       <c r="E443" t="inlineStr">
         <is>
-          <t>Yancko Gonzalez Rozas</t>
+          <t>Limfosep S.A</t>
         </is>
       </c>
       <c r="F443" t="n">
-        <v>8000</v>
+        <v>1000</v>
       </c>
       <c r="G443" t="inlineStr">
         <is>
@@ -21620,12 +21620,12 @@
       </c>
       <c r="H443" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I443" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4670031&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4698232&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J443" t="inlineStr">
@@ -22024,7 +22024,7 @@
       </c>
       <c r="B452" t="inlineStr">
         <is>
-          <t>EXPANSION DEPOSITO DE RELAVES FILTRADOS FAENA EL PEÑÓN</t>
+          <t>Nuevo Transporte Interregional de Cianuro de Sodio</t>
         </is>
       </c>
       <c r="C452" t="inlineStr">
@@ -22034,16 +22034,16 @@
       </c>
       <c r="D452" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E452" t="inlineStr">
         <is>
-          <t>Minera Meridian Limitada</t>
+          <t>OXIQUIM S.A.</t>
         </is>
       </c>
       <c r="F452" t="n">
-        <v>688</v>
+        <v>85</v>
       </c>
       <c r="G452" t="inlineStr">
         <is>
@@ -22052,12 +22052,12 @@
       </c>
       <c r="H452" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I452" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4601640&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4594007&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J452" t="inlineStr">
@@ -22072,7 +22072,7 @@
       </c>
       <c r="B453" t="inlineStr">
         <is>
-          <t>Nuevo Transporte Interregional de Cianuro de Sodio</t>
+          <t>EXPANSION DEPOSITO DE RELAVES FILTRADOS FAENA EL PEÑÓN</t>
         </is>
       </c>
       <c r="C453" t="inlineStr">
@@ -22082,16 +22082,16 @@
       </c>
       <c r="D453" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E453" t="inlineStr">
         <is>
-          <t>OXIQUIM S.A.</t>
+          <t>Minera Meridian Limitada</t>
         </is>
       </c>
       <c r="F453" t="n">
-        <v>85</v>
+        <v>688</v>
       </c>
       <c r="G453" t="inlineStr">
         <is>
@@ -22100,12 +22100,12 @@
       </c>
       <c r="H453" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I453" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4594007&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4601640&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J453" t="inlineStr">
@@ -22840,7 +22840,7 @@
       </c>
       <c r="B469" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligroso, Transporte Bello</t>
+          <t>Transporte de Barros Anódicos</t>
         </is>
       </c>
       <c r="C469" t="inlineStr">
@@ -22855,11 +22855,11 @@
       </c>
       <c r="E469" t="inlineStr">
         <is>
-          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
+          <t>CODELCO CHILE</t>
         </is>
       </c>
       <c r="F469" t="n">
-        <v>4050</v>
+        <v>0</v>
       </c>
       <c r="G469" t="inlineStr">
         <is>
@@ -22873,7 +22873,7 @@
       </c>
       <c r="I469" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4455518&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4429880&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J469" t="inlineStr">
@@ -22888,7 +22888,7 @@
       </c>
       <c r="B470" t="inlineStr">
         <is>
-          <t>Transporte de Barros Anódicos</t>
+          <t>Transporte de Residuos Peligroso, Transporte Bello</t>
         </is>
       </c>
       <c r="C470" t="inlineStr">
@@ -22903,11 +22903,11 @@
       </c>
       <c r="E470" t="inlineStr">
         <is>
-          <t>CODELCO CHILE</t>
+          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
         </is>
       </c>
       <c r="F470" t="n">
-        <v>0</v>
+        <v>4050</v>
       </c>
       <c r="G470" t="inlineStr">
         <is>
@@ -22921,7 +22921,7 @@
       </c>
       <c r="I470" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4429880&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4455518&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J470" t="inlineStr">
@@ -23032,7 +23032,7 @@
       </c>
       <c r="B473" t="inlineStr">
         <is>
-          <t>Modificacion Proyecto Minero Algorta Sector Pampa</t>
+          <t>Transporte y Almacenamiento temporal de Residuos Peligrosos M&amp;M ltda.</t>
         </is>
       </c>
       <c r="C473" t="inlineStr">
@@ -23042,16 +23042,16 @@
       </c>
       <c r="D473" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E473" t="inlineStr">
         <is>
-          <t>Algorta Norte S.A</t>
+          <t>Transportes Moscoso y Moscoso Ltda.</t>
         </is>
       </c>
       <c r="F473" t="n">
-        <v>6400</v>
+        <v>41075</v>
       </c>
       <c r="G473" t="inlineStr">
         <is>
@@ -23065,7 +23065,7 @@
       </c>
       <c r="I473" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4432700&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4422237&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J473" t="inlineStr">
@@ -23080,7 +23080,7 @@
       </c>
       <c r="B474" t="inlineStr">
         <is>
-          <t>Transporte y Almacenamiento temporal de Residuos Peligrosos M&amp;M ltda.</t>
+          <t>Modificacion Proyecto Minero Algorta Sector Pampa</t>
         </is>
       </c>
       <c r="C474" t="inlineStr">
@@ -23090,16 +23090,16 @@
       </c>
       <c r="D474" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E474" t="inlineStr">
         <is>
-          <t>Transportes Moscoso y Moscoso Ltda.</t>
+          <t>Algorta Norte S.A</t>
         </is>
       </c>
       <c r="F474" t="n">
-        <v>41075</v>
+        <v>6400</v>
       </c>
       <c r="G474" t="inlineStr">
         <is>
@@ -23113,7 +23113,7 @@
       </c>
       <c r="I474" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4422237&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4432700&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J474" t="inlineStr">

--- a/data/Antofagasta.xlsx
+++ b/data/Antofagasta.xlsx
@@ -11752,7 +11752,7 @@
       </c>
       <c r="B238" t="inlineStr">
         <is>
-          <t>Planta de Fabricación de Tuberías PEX (polietileno reticulado)</t>
+          <t>Transporte Interregional de Sustancias Peligrosas - AGREDUCAM VI Región</t>
         </is>
       </c>
       <c r="C238" t="inlineStr">
@@ -11762,16 +11762,16 @@
       </c>
       <c r="D238" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E238" t="inlineStr">
         <is>
-          <t>CROSSPIPE SYSTEMS S.A.</t>
+          <t>Asociación Gremial de Dueños de Camiones de la Sexta Región</t>
         </is>
       </c>
       <c r="F238" t="n">
-        <v>12400</v>
+        <v>1200</v>
       </c>
       <c r="G238" t="inlineStr">
         <is>
@@ -11785,7 +11785,7 @@
       </c>
       <c r="I238" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128954293&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128964620&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J238" t="inlineStr">
@@ -11800,7 +11800,7 @@
       </c>
       <c r="B239" t="inlineStr">
         <is>
-          <t>Transporte Interregional de Sustancias Peligrosas - AGREDUCAM VI Región</t>
+          <t>Transporte de Residuos Peligrosos por las Rutas Indicadas</t>
         </is>
       </c>
       <c r="C239" t="inlineStr">
@@ -11815,11 +11815,11 @@
       </c>
       <c r="E239" t="inlineStr">
         <is>
-          <t>Asociación Gremial de Dueños de Camiones de la Sexta Región</t>
+          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
         </is>
       </c>
       <c r="F239" t="n">
-        <v>1200</v>
+        <v>0</v>
       </c>
       <c r="G239" t="inlineStr">
         <is>
@@ -11833,7 +11833,7 @@
       </c>
       <c r="I239" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128964620&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128972489&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J239" t="inlineStr">
@@ -11848,7 +11848,7 @@
       </c>
       <c r="B240" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos por las Rutas Indicadas</t>
+          <t>Planta de Fabricación de Tuberías PEX (polietileno reticulado)</t>
         </is>
       </c>
       <c r="C240" t="inlineStr">
@@ -11858,16 +11858,16 @@
       </c>
       <c r="D240" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E240" t="inlineStr">
         <is>
-          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
+          <t>CROSSPIPE SYSTEMS S.A.</t>
         </is>
       </c>
       <c r="F240" t="n">
-        <v>0</v>
+        <v>12400</v>
       </c>
       <c r="G240" t="inlineStr">
         <is>
@@ -11881,7 +11881,7 @@
       </c>
       <c r="I240" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128972489&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128954293&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J240" t="inlineStr">
@@ -13480,26 +13480,26 @@
       </c>
       <c r="B274" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas Transaltisa Chile Ltda</t>
+          <t>RT Sulfuros</t>
         </is>
       </c>
       <c r="C274" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D274" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E274" t="inlineStr">
         <is>
-          <t>Transaltisa Chile Ltda.</t>
+          <t>CODELCO Chile, División Radomiro Tomic</t>
         </is>
       </c>
       <c r="F274" t="n">
-        <v>2050</v>
+        <v>5.4</v>
       </c>
       <c r="G274" t="inlineStr">
         <is>
@@ -13508,12 +13508,12 @@
       </c>
       <c r="H274" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I274" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8218613&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8210090&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J274" t="inlineStr">
@@ -13528,26 +13528,26 @@
       </c>
       <c r="B275" t="inlineStr">
         <is>
-          <t>RT Sulfuros</t>
+          <t>Transporte de Sustancias Peligrosas Transaltisa Chile Ltda</t>
         </is>
       </c>
       <c r="C275" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D275" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E275" t="inlineStr">
         <is>
-          <t>CODELCO Chile, División Radomiro Tomic</t>
+          <t>Transaltisa Chile Ltda.</t>
         </is>
       </c>
       <c r="F275" t="n">
-        <v>5.4</v>
+        <v>2050</v>
       </c>
       <c r="G275" t="inlineStr">
         <is>
@@ -13556,12 +13556,12 @@
       </c>
       <c r="H275" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I275" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8210090&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8218613&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J275" t="inlineStr">
@@ -16216,7 +16216,7 @@
       </c>
       <c r="B331" t="inlineStr">
         <is>
-          <t>CENTRO DE RECUPERACIÓN DE TAMBORES Y CONTENEDORES IBC CONTAMINADOS, PLAMBIENTAL LA NEGRA</t>
+          <t>Parque Fotovoltaico Los Andes</t>
         </is>
       </c>
       <c r="C331" t="inlineStr">
@@ -16231,11 +16231,11 @@
       </c>
       <c r="E331" t="inlineStr">
         <is>
-          <t>VEOLIA SERVICIOS MINEROS INTEGRALES CHILE SpA</t>
+          <t>Andes Solar SPA</t>
         </is>
       </c>
       <c r="F331" t="n">
-        <v>60</v>
+        <v>572000</v>
       </c>
       <c r="G331" t="inlineStr">
         <is>
@@ -16244,12 +16244,12 @@
       </c>
       <c r="H331" t="inlineStr">
         <is>
-          <t>Caducado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I331" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6592870&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6581267&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J331" t="inlineStr">
@@ -16264,7 +16264,7 @@
       </c>
       <c r="B332" t="inlineStr">
         <is>
-          <t>CENTRO DE ALMACENAMIENTO DE RESIDUOS INDUSTRIALES, GESAM LA NEGRA</t>
+          <t>CENTRO DE RECUPERACIÓN DE TAMBORES Y CONTENEDORES IBC CONTAMINADOS, PLAMBIENTAL LA NEGRA</t>
         </is>
       </c>
       <c r="C332" t="inlineStr">
@@ -16283,7 +16283,7 @@
         </is>
       </c>
       <c r="F332" t="n">
-        <v>360</v>
+        <v>60</v>
       </c>
       <c r="G332" t="inlineStr">
         <is>
@@ -16297,7 +16297,7 @@
       </c>
       <c r="I332" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6595234&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6592870&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J332" t="inlineStr">
@@ -16312,7 +16312,7 @@
       </c>
       <c r="B333" t="inlineStr">
         <is>
-          <t>Parque Fotovoltaico Los Andes</t>
+          <t>CENTRO DE ALMACENAMIENTO DE RESIDUOS INDUSTRIALES, GESAM LA NEGRA</t>
         </is>
       </c>
       <c r="C333" t="inlineStr">
@@ -16327,11 +16327,11 @@
       </c>
       <c r="E333" t="inlineStr">
         <is>
-          <t>Andes Solar SPA</t>
+          <t>VEOLIA SERVICIOS MINEROS INTEGRALES CHILE SpA</t>
         </is>
       </c>
       <c r="F333" t="n">
-        <v>572000</v>
+        <v>360</v>
       </c>
       <c r="G333" t="inlineStr">
         <is>
@@ -16340,12 +16340,12 @@
       </c>
       <c r="H333" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Caducado</t>
         </is>
       </c>
       <c r="I333" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6581267&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6595234&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J333" t="inlineStr">
@@ -17176,7 +17176,7 @@
       </c>
       <c r="B351" t="inlineStr">
         <is>
-          <t>Modificación Proyecto Transporte de Acido Sulfurico a granel entre la Primera y Décima Regiones de Chile</t>
+          <t>Extracción de Áridos Empréstito E17L</t>
         </is>
       </c>
       <c r="C351" t="inlineStr">
@@ -17186,16 +17186,16 @@
       </c>
       <c r="D351" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E351" t="inlineStr">
         <is>
-          <t>Transportes Herrmann Limitada</t>
+          <t>Skanska Chile S.A.</t>
         </is>
       </c>
       <c r="F351" t="n">
-        <v>0</v>
+        <v>500</v>
       </c>
       <c r="G351" t="inlineStr">
         <is>
@@ -17204,12 +17204,12 @@
       </c>
       <c r="H351" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I351" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6159602&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6156264&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J351" t="inlineStr">
@@ -17224,7 +17224,7 @@
       </c>
       <c r="B352" t="inlineStr">
         <is>
-          <t>Extracción de Áridos Empréstito E17L</t>
+          <t>Modificación Proyecto Transporte de Acido Sulfurico a granel entre la Primera y Décima Regiones de Chile</t>
         </is>
       </c>
       <c r="C352" t="inlineStr">
@@ -17234,16 +17234,16 @@
       </c>
       <c r="D352" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E352" t="inlineStr">
         <is>
-          <t>Skanska Chile S.A.</t>
+          <t>Transportes Herrmann Limitada</t>
         </is>
       </c>
       <c r="F352" t="n">
-        <v>500</v>
+        <v>0</v>
       </c>
       <c r="G352" t="inlineStr">
         <is>
@@ -17252,12 +17252,12 @@
       </c>
       <c r="H352" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I352" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6156264&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6159602&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J352" t="inlineStr">
@@ -17704,7 +17704,7 @@
       </c>
       <c r="B362" t="inlineStr">
         <is>
-          <t>Nuevas Instalaciones para Mantención Mina</t>
+          <t>Transporte de Residuos Peligrosos</t>
         </is>
       </c>
       <c r="C362" t="inlineStr">
@@ -17714,16 +17714,16 @@
       </c>
       <c r="D362" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E362" t="inlineStr">
         <is>
-          <t>MINERA ESCONDIDA LIMITADA</t>
+          <t>Transportes TMS Limitada</t>
         </is>
       </c>
       <c r="F362" t="n">
-        <v>635000</v>
+        <v>200</v>
       </c>
       <c r="G362" t="inlineStr">
         <is>
@@ -17732,12 +17732,12 @@
       </c>
       <c r="H362" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I362" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5931343&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6003582&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J362" t="inlineStr">
@@ -17752,7 +17752,7 @@
       </c>
       <c r="B363" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos</t>
+          <t>Transporte de Sustancias Peligrosas entre la I, II y III Regiones"</t>
         </is>
       </c>
       <c r="C363" t="inlineStr">
@@ -17767,11 +17767,11 @@
       </c>
       <c r="E363" t="inlineStr">
         <is>
-          <t>Transportes TMS Limitada</t>
+          <t>Molina Quimicos S.A.</t>
         </is>
       </c>
       <c r="F363" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="G363" t="inlineStr">
         <is>
@@ -17785,7 +17785,7 @@
       </c>
       <c r="I363" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6003582&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6003607&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J363" t="inlineStr">
@@ -17800,7 +17800,7 @@
       </c>
       <c r="B364" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas entre la I, II y III Regiones"</t>
+          <t>Nuevas Instalaciones para Mantención Mina</t>
         </is>
       </c>
       <c r="C364" t="inlineStr">
@@ -17810,16 +17810,16 @@
       </c>
       <c r="D364" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E364" t="inlineStr">
         <is>
-          <t>Molina Quimicos S.A.</t>
+          <t>MINERA ESCONDIDA LIMITADA</t>
         </is>
       </c>
       <c r="F364" t="n">
-        <v>100</v>
+        <v>635000</v>
       </c>
       <c r="G364" t="inlineStr">
         <is>
@@ -17828,12 +17828,12 @@
       </c>
       <c r="H364" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I364" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6003607&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5931343&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J364" t="inlineStr">
@@ -20056,7 +20056,7 @@
       </c>
       <c r="B411" t="inlineStr">
         <is>
-          <t>II MODIFICACIÓN DIA "TRANSPORTE Y MANEJO IN SITU DE RESIDUOS SÓLIDOS Y LÍQUIDOS PELIGROSOS Y NO PELIGROSOS"</t>
+          <t>"Transporte de acido sulfurico concentrado para minera Las Cenizas, Taltal."</t>
         </is>
       </c>
       <c r="C411" t="inlineStr">
@@ -20066,16 +20066,16 @@
       </c>
       <c r="D411" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E411" t="inlineStr">
         <is>
-          <t>Mol Ambiente S.A.</t>
+          <t>Translog S.A.</t>
         </is>
       </c>
       <c r="F411" t="n">
-        <v>75000</v>
+        <v>600</v>
       </c>
       <c r="G411" t="inlineStr">
         <is>
@@ -20084,12 +20084,12 @@
       </c>
       <c r="H411" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I411" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5118945&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5114868&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J411" t="inlineStr">
@@ -20104,7 +20104,7 @@
       </c>
       <c r="B412" t="inlineStr">
         <is>
-          <t>"Transporte de acido sulfurico concentrado para minera Las Cenizas, Taltal."</t>
+          <t>II MODIFICACIÓN DIA "TRANSPORTE Y MANEJO IN SITU DE RESIDUOS SÓLIDOS Y LÍQUIDOS PELIGROSOS Y NO PELIGROSOS"</t>
         </is>
       </c>
       <c r="C412" t="inlineStr">
@@ -20114,16 +20114,16 @@
       </c>
       <c r="D412" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E412" t="inlineStr">
         <is>
-          <t>Translog S.A.</t>
+          <t>Mol Ambiente S.A.</t>
         </is>
       </c>
       <c r="F412" t="n">
-        <v>600</v>
+        <v>75000</v>
       </c>
       <c r="G412" t="inlineStr">
         <is>
@@ -20132,12 +20132,12 @@
       </c>
       <c r="H412" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I412" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5114868&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5118945&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J412" t="inlineStr">
@@ -21592,7 +21592,7 @@
       </c>
       <c r="B443" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE RESIDUOS PELIGROSOS POR RUTAS DE LA REGIÓN DE ANTOFAGASTA</t>
+          <t>Proyecto Laboratorios Químicos CIMM T&amp;S SA. La Negra</t>
         </is>
       </c>
       <c r="C443" t="inlineStr">
@@ -21607,11 +21607,11 @@
       </c>
       <c r="E443" t="inlineStr">
         <is>
-          <t>Limfosep S.A</t>
+          <t>Yancko Gonzalez Rozas</t>
         </is>
       </c>
       <c r="F443" t="n">
-        <v>1000</v>
+        <v>8000</v>
       </c>
       <c r="G443" t="inlineStr">
         <is>
@@ -21620,12 +21620,12 @@
       </c>
       <c r="H443" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I443" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4698232&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4670031&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J443" t="inlineStr">
@@ -21640,7 +21640,7 @@
       </c>
       <c r="B444" t="inlineStr">
         <is>
-          <t>Proyecto Laboratorios Químicos CIMM T&amp;S SA. La Negra</t>
+          <t>TRANSPORTE DE RESIDUOS PELIGROSOS POR RUTAS DE LA REGIÓN DE ANTOFAGASTA</t>
         </is>
       </c>
       <c r="C444" t="inlineStr">
@@ -21655,11 +21655,11 @@
       </c>
       <c r="E444" t="inlineStr">
         <is>
-          <t>Yancko Gonzalez Rozas</t>
+          <t>Limfosep S.A</t>
         </is>
       </c>
       <c r="F444" t="n">
-        <v>8000</v>
+        <v>1000</v>
       </c>
       <c r="G444" t="inlineStr">
         <is>
@@ -21668,12 +21668,12 @@
       </c>
       <c r="H444" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I444" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4670031&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4698232&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J444" t="inlineStr">
@@ -22072,7 +22072,7 @@
       </c>
       <c r="B453" t="inlineStr">
         <is>
-          <t>EXPANSION DEPOSITO DE RELAVES FILTRADOS FAENA EL PEÑÓN</t>
+          <t>Nuevo Transporte Interregional de Cianuro de Sodio</t>
         </is>
       </c>
       <c r="C453" t="inlineStr">
@@ -22082,16 +22082,16 @@
       </c>
       <c r="D453" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E453" t="inlineStr">
         <is>
-          <t>Minera Meridian Limitada</t>
+          <t>OXIQUIM S.A.</t>
         </is>
       </c>
       <c r="F453" t="n">
-        <v>688</v>
+        <v>85</v>
       </c>
       <c r="G453" t="inlineStr">
         <is>
@@ -22100,12 +22100,12 @@
       </c>
       <c r="H453" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I453" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4601640&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4594007&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J453" t="inlineStr">
@@ -22120,7 +22120,7 @@
       </c>
       <c r="B454" t="inlineStr">
         <is>
-          <t>Nuevo Transporte Interregional de Cianuro de Sodio</t>
+          <t>EXPANSION DEPOSITO DE RELAVES FILTRADOS FAENA EL PEÑÓN</t>
         </is>
       </c>
       <c r="C454" t="inlineStr">
@@ -22130,16 +22130,16 @@
       </c>
       <c r="D454" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E454" t="inlineStr">
         <is>
-          <t>OXIQUIM S.A.</t>
+          <t>Minera Meridian Limitada</t>
         </is>
       </c>
       <c r="F454" t="n">
-        <v>85</v>
+        <v>688</v>
       </c>
       <c r="G454" t="inlineStr">
         <is>
@@ -22148,12 +22148,12 @@
       </c>
       <c r="H454" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I454" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4594007&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4601640&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J454" t="inlineStr">

--- a/data/Antofagasta.xlsx
+++ b/data/Antofagasta.xlsx
@@ -11800,7 +11800,7 @@
       </c>
       <c r="B239" t="inlineStr">
         <is>
-          <t>Planta de Fabricación de Tuberías PEX (polietileno reticulado)</t>
+          <t>Transporte Interregional de Sustancias Peligrosas - AGREDUCAM VI Región</t>
         </is>
       </c>
       <c r="C239" t="inlineStr">
@@ -11810,16 +11810,16 @@
       </c>
       <c r="D239" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E239" t="inlineStr">
         <is>
-          <t>CROSSPIPE SYSTEMS S.A.</t>
+          <t>Asociación Gremial de Dueños de Camiones de la Sexta Región</t>
         </is>
       </c>
       <c r="F239" t="n">
-        <v>12400</v>
+        <v>1200</v>
       </c>
       <c r="G239" t="inlineStr">
         <is>
@@ -11833,7 +11833,7 @@
       </c>
       <c r="I239" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128954293&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128964620&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J239" t="inlineStr">
@@ -11848,7 +11848,7 @@
       </c>
       <c r="B240" t="inlineStr">
         <is>
-          <t>Transporte Interregional de Sustancias Peligrosas - AGREDUCAM VI Región</t>
+          <t>Transporte de Residuos Peligrosos por las Rutas Indicadas</t>
         </is>
       </c>
       <c r="C240" t="inlineStr">
@@ -11863,11 +11863,11 @@
       </c>
       <c r="E240" t="inlineStr">
         <is>
-          <t>Asociación Gremial de Dueños de Camiones de la Sexta Región</t>
+          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
         </is>
       </c>
       <c r="F240" t="n">
-        <v>1200</v>
+        <v>0</v>
       </c>
       <c r="G240" t="inlineStr">
         <is>
@@ -11881,7 +11881,7 @@
       </c>
       <c r="I240" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128964620&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128972489&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J240" t="inlineStr">
@@ -11896,7 +11896,7 @@
       </c>
       <c r="B241" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos por las Rutas Indicadas</t>
+          <t>Planta de Fabricación de Tuberías PEX (polietileno reticulado)</t>
         </is>
       </c>
       <c r="C241" t="inlineStr">
@@ -11906,16 +11906,16 @@
       </c>
       <c r="D241" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E241" t="inlineStr">
         <is>
-          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
+          <t>CROSSPIPE SYSTEMS S.A.</t>
         </is>
       </c>
       <c r="F241" t="n">
-        <v>0</v>
+        <v>12400</v>
       </c>
       <c r="G241" t="inlineStr">
         <is>
@@ -11929,7 +11929,7 @@
       </c>
       <c r="I241" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128972489&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128954293&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J241" t="inlineStr">
@@ -13528,26 +13528,26 @@
       </c>
       <c r="B275" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas Transaltisa Chile Ltda</t>
+          <t>RT Sulfuros</t>
         </is>
       </c>
       <c r="C275" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D275" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E275" t="inlineStr">
         <is>
-          <t>Transaltisa Chile Ltda.</t>
+          <t>CODELCO Chile, División Radomiro Tomic</t>
         </is>
       </c>
       <c r="F275" t="n">
-        <v>2050</v>
+        <v>5.4</v>
       </c>
       <c r="G275" t="inlineStr">
         <is>
@@ -13556,12 +13556,12 @@
       </c>
       <c r="H275" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I275" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8218613&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8210090&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J275" t="inlineStr">
@@ -13576,26 +13576,26 @@
       </c>
       <c r="B276" t="inlineStr">
         <is>
-          <t>RT Sulfuros</t>
+          <t>Transporte de Sustancias Peligrosas Transaltisa Chile Ltda</t>
         </is>
       </c>
       <c r="C276" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D276" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E276" t="inlineStr">
         <is>
-          <t>CODELCO Chile, División Radomiro Tomic</t>
+          <t>Transaltisa Chile Ltda.</t>
         </is>
       </c>
       <c r="F276" t="n">
-        <v>5.4</v>
+        <v>2050</v>
       </c>
       <c r="G276" t="inlineStr">
         <is>
@@ -13604,12 +13604,12 @@
       </c>
       <c r="H276" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I276" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8210090&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8218613&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J276" t="inlineStr">
@@ -16264,7 +16264,7 @@
       </c>
       <c r="B332" t="inlineStr">
         <is>
-          <t>CENTRO DE RECUPERACIÓN DE TAMBORES Y CONTENEDORES IBC CONTAMINADOS, PLAMBIENTAL LA NEGRA</t>
+          <t>Parque Fotovoltaico Los Andes</t>
         </is>
       </c>
       <c r="C332" t="inlineStr">
@@ -16279,11 +16279,11 @@
       </c>
       <c r="E332" t="inlineStr">
         <is>
-          <t>VEOLIA SERVICIOS MINEROS INTEGRALES CHILE SpA</t>
+          <t>Andes Solar SPA</t>
         </is>
       </c>
       <c r="F332" t="n">
-        <v>60</v>
+        <v>572000</v>
       </c>
       <c r="G332" t="inlineStr">
         <is>
@@ -16292,12 +16292,12 @@
       </c>
       <c r="H332" t="inlineStr">
         <is>
-          <t>Caducado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I332" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6592870&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6581267&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J332" t="inlineStr">
@@ -16312,7 +16312,7 @@
       </c>
       <c r="B333" t="inlineStr">
         <is>
-          <t>CENTRO DE ALMACENAMIENTO DE RESIDUOS INDUSTRIALES, GESAM LA NEGRA</t>
+          <t>CENTRO DE RECUPERACIÓN DE TAMBORES Y CONTENEDORES IBC CONTAMINADOS, PLAMBIENTAL LA NEGRA</t>
         </is>
       </c>
       <c r="C333" t="inlineStr">
@@ -16331,7 +16331,7 @@
         </is>
       </c>
       <c r="F333" t="n">
-        <v>360</v>
+        <v>60</v>
       </c>
       <c r="G333" t="inlineStr">
         <is>
@@ -16345,7 +16345,7 @@
       </c>
       <c r="I333" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6595234&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6592870&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J333" t="inlineStr">
@@ -16360,7 +16360,7 @@
       </c>
       <c r="B334" t="inlineStr">
         <is>
-          <t>Parque Fotovoltaico Los Andes</t>
+          <t>CENTRO DE ALMACENAMIENTO DE RESIDUOS INDUSTRIALES, GESAM LA NEGRA</t>
         </is>
       </c>
       <c r="C334" t="inlineStr">
@@ -16375,11 +16375,11 @@
       </c>
       <c r="E334" t="inlineStr">
         <is>
-          <t>Andes Solar SPA</t>
+          <t>VEOLIA SERVICIOS MINEROS INTEGRALES CHILE SpA</t>
         </is>
       </c>
       <c r="F334" t="n">
-        <v>572000</v>
+        <v>360</v>
       </c>
       <c r="G334" t="inlineStr">
         <is>
@@ -16388,12 +16388,12 @@
       </c>
       <c r="H334" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Caducado</t>
         </is>
       </c>
       <c r="I334" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6581267&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6595234&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J334" t="inlineStr">
@@ -17224,7 +17224,7 @@
       </c>
       <c r="B352" t="inlineStr">
         <is>
-          <t>Modificación Proyecto Transporte de Acido Sulfurico a granel entre la Primera y Décima Regiones de Chile</t>
+          <t>Extracción de Áridos Empréstito E17L</t>
         </is>
       </c>
       <c r="C352" t="inlineStr">
@@ -17234,16 +17234,16 @@
       </c>
       <c r="D352" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E352" t="inlineStr">
         <is>
-          <t>Transportes Herrmann Limitada</t>
+          <t>Skanska Chile S.A.</t>
         </is>
       </c>
       <c r="F352" t="n">
-        <v>0</v>
+        <v>500</v>
       </c>
       <c r="G352" t="inlineStr">
         <is>
@@ -17252,12 +17252,12 @@
       </c>
       <c r="H352" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I352" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6159602&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6156264&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J352" t="inlineStr">
@@ -17272,7 +17272,7 @@
       </c>
       <c r="B353" t="inlineStr">
         <is>
-          <t>Extracción de Áridos Empréstito E17L</t>
+          <t>Modificación Proyecto Transporte de Acido Sulfurico a granel entre la Primera y Décima Regiones de Chile</t>
         </is>
       </c>
       <c r="C353" t="inlineStr">
@@ -17282,16 +17282,16 @@
       </c>
       <c r="D353" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E353" t="inlineStr">
         <is>
-          <t>Skanska Chile S.A.</t>
+          <t>Transportes Herrmann Limitada</t>
         </is>
       </c>
       <c r="F353" t="n">
-        <v>500</v>
+        <v>0</v>
       </c>
       <c r="G353" t="inlineStr">
         <is>
@@ -17300,12 +17300,12 @@
       </c>
       <c r="H353" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I353" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6156264&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6159602&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J353" t="inlineStr">
@@ -17752,7 +17752,7 @@
       </c>
       <c r="B363" t="inlineStr">
         <is>
-          <t>Nuevas Instalaciones para Mantención Mina</t>
+          <t>Transporte de Residuos Peligrosos</t>
         </is>
       </c>
       <c r="C363" t="inlineStr">
@@ -17762,16 +17762,16 @@
       </c>
       <c r="D363" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E363" t="inlineStr">
         <is>
-          <t>MINERA ESCONDIDA LIMITADA</t>
+          <t>Transportes TMS Limitada</t>
         </is>
       </c>
       <c r="F363" t="n">
-        <v>635000</v>
+        <v>200</v>
       </c>
       <c r="G363" t="inlineStr">
         <is>
@@ -17780,12 +17780,12 @@
       </c>
       <c r="H363" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I363" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5931343&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6003582&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J363" t="inlineStr">
@@ -17800,7 +17800,7 @@
       </c>
       <c r="B364" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos</t>
+          <t>Transporte de Sustancias Peligrosas entre la I, II y III Regiones"</t>
         </is>
       </c>
       <c r="C364" t="inlineStr">
@@ -17815,11 +17815,11 @@
       </c>
       <c r="E364" t="inlineStr">
         <is>
-          <t>Transportes TMS Limitada</t>
+          <t>Molina Quimicos S.A.</t>
         </is>
       </c>
       <c r="F364" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="G364" t="inlineStr">
         <is>
@@ -17833,7 +17833,7 @@
       </c>
       <c r="I364" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6003582&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6003607&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J364" t="inlineStr">
@@ -17848,7 +17848,7 @@
       </c>
       <c r="B365" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas entre la I, II y III Regiones"</t>
+          <t>Nuevas Instalaciones para Mantención Mina</t>
         </is>
       </c>
       <c r="C365" t="inlineStr">
@@ -17858,16 +17858,16 @@
       </c>
       <c r="D365" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E365" t="inlineStr">
         <is>
-          <t>Molina Quimicos S.A.</t>
+          <t>MINERA ESCONDIDA LIMITADA</t>
         </is>
       </c>
       <c r="F365" t="n">
-        <v>100</v>
+        <v>635000</v>
       </c>
       <c r="G365" t="inlineStr">
         <is>
@@ -17876,12 +17876,12 @@
       </c>
       <c r="H365" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I365" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6003607&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5931343&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J365" t="inlineStr">
@@ -20104,7 +20104,7 @@
       </c>
       <c r="B412" t="inlineStr">
         <is>
-          <t>II MODIFICACIÓN DIA "TRANSPORTE Y MANEJO IN SITU DE RESIDUOS SÓLIDOS Y LÍQUIDOS PELIGROSOS Y NO PELIGROSOS"</t>
+          <t>"Transporte de acido sulfurico concentrado para minera Las Cenizas, Taltal."</t>
         </is>
       </c>
       <c r="C412" t="inlineStr">
@@ -20114,16 +20114,16 @@
       </c>
       <c r="D412" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E412" t="inlineStr">
         <is>
-          <t>Mol Ambiente S.A.</t>
+          <t>Translog S.A.</t>
         </is>
       </c>
       <c r="F412" t="n">
-        <v>75000</v>
+        <v>600</v>
       </c>
       <c r="G412" t="inlineStr">
         <is>
@@ -20132,12 +20132,12 @@
       </c>
       <c r="H412" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I412" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5118945&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5114868&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J412" t="inlineStr">
@@ -20152,7 +20152,7 @@
       </c>
       <c r="B413" t="inlineStr">
         <is>
-          <t>"Transporte de acido sulfurico concentrado para minera Las Cenizas, Taltal."</t>
+          <t>II MODIFICACIÓN DIA "TRANSPORTE Y MANEJO IN SITU DE RESIDUOS SÓLIDOS Y LÍQUIDOS PELIGROSOS Y NO PELIGROSOS"</t>
         </is>
       </c>
       <c r="C413" t="inlineStr">
@@ -20162,16 +20162,16 @@
       </c>
       <c r="D413" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E413" t="inlineStr">
         <is>
-          <t>Translog S.A.</t>
+          <t>Mol Ambiente S.A.</t>
         </is>
       </c>
       <c r="F413" t="n">
-        <v>600</v>
+        <v>75000</v>
       </c>
       <c r="G413" t="inlineStr">
         <is>
@@ -20180,12 +20180,12 @@
       </c>
       <c r="H413" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I413" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5114868&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5118945&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J413" t="inlineStr">
@@ -21640,7 +21640,7 @@
       </c>
       <c r="B444" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE RESIDUOS PELIGROSOS POR RUTAS DE LA REGIÓN DE ANTOFAGASTA</t>
+          <t>Proyecto Laboratorios Químicos CIMM T&amp;S SA. La Negra</t>
         </is>
       </c>
       <c r="C444" t="inlineStr">
@@ -21655,11 +21655,11 @@
       </c>
       <c r="E444" t="inlineStr">
         <is>
-          <t>Limfosep S.A</t>
+          <t>Yancko Gonzalez Rozas</t>
         </is>
       </c>
       <c r="F444" t="n">
-        <v>1000</v>
+        <v>8000</v>
       </c>
       <c r="G444" t="inlineStr">
         <is>
@@ -21668,12 +21668,12 @@
       </c>
       <c r="H444" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I444" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4698232&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4670031&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J444" t="inlineStr">
@@ -21688,7 +21688,7 @@
       </c>
       <c r="B445" t="inlineStr">
         <is>
-          <t>Proyecto Laboratorios Químicos CIMM T&amp;S SA. La Negra</t>
+          <t>TRANSPORTE DE RESIDUOS PELIGROSOS POR RUTAS DE LA REGIÓN DE ANTOFAGASTA</t>
         </is>
       </c>
       <c r="C445" t="inlineStr">
@@ -21703,11 +21703,11 @@
       </c>
       <c r="E445" t="inlineStr">
         <is>
-          <t>Yancko Gonzalez Rozas</t>
+          <t>Limfosep S.A</t>
         </is>
       </c>
       <c r="F445" t="n">
-        <v>8000</v>
+        <v>1000</v>
       </c>
       <c r="G445" t="inlineStr">
         <is>
@@ -21716,12 +21716,12 @@
       </c>
       <c r="H445" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I445" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4670031&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4698232&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J445" t="inlineStr">
@@ -22120,7 +22120,7 @@
       </c>
       <c r="B454" t="inlineStr">
         <is>
-          <t>EXPANSION DEPOSITO DE RELAVES FILTRADOS FAENA EL PEÑÓN</t>
+          <t>Nuevo Transporte Interregional de Cianuro de Sodio</t>
         </is>
       </c>
       <c r="C454" t="inlineStr">
@@ -22130,16 +22130,16 @@
       </c>
       <c r="D454" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E454" t="inlineStr">
         <is>
-          <t>Minera Meridian Limitada</t>
+          <t>OXIQUIM S.A.</t>
         </is>
       </c>
       <c r="F454" t="n">
-        <v>688</v>
+        <v>85</v>
       </c>
       <c r="G454" t="inlineStr">
         <is>
@@ -22148,12 +22148,12 @@
       </c>
       <c r="H454" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I454" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4601640&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4594007&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J454" t="inlineStr">
@@ -22168,7 +22168,7 @@
       </c>
       <c r="B455" t="inlineStr">
         <is>
-          <t>Nuevo Transporte Interregional de Cianuro de Sodio</t>
+          <t>EXPANSION DEPOSITO DE RELAVES FILTRADOS FAENA EL PEÑÓN</t>
         </is>
       </c>
       <c r="C455" t="inlineStr">
@@ -22178,16 +22178,16 @@
       </c>
       <c r="D455" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E455" t="inlineStr">
         <is>
-          <t>OXIQUIM S.A.</t>
+          <t>Minera Meridian Limitada</t>
         </is>
       </c>
       <c r="F455" t="n">
-        <v>85</v>
+        <v>688</v>
       </c>
       <c r="G455" t="inlineStr">
         <is>
@@ -22196,12 +22196,12 @@
       </c>
       <c r="H455" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I455" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4594007&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4601640&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J455" t="inlineStr">

--- a/data/Antofagasta.xlsx
+++ b/data/Antofagasta.xlsx
@@ -424,7 +424,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Aumento de Capacidad Planta Concentradora Mantos Blancos, Fase II</t>
+          <t>Ampliación de capacidad de almacenamiento de GLP Planta Antofagasta</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -439,25 +439,25 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>MANTOS COPPER S.A.</t>
+          <t>Abastible S.A.</t>
         </is>
       </c>
       <c r="F2" t="n">
-        <v>89500</v>
+        <v>288</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>26/08/2022</t>
+          <t>29/08/2022</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>En Admisión</t>
+          <t>En Calificación</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2156796656&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2156825651&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
@@ -472,7 +472,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Ampliación de capacidad de almacenamiento de GLP Planta Antofagasta</t>
+          <t>Aumento de Capacidad Planta Concentradora Mantos Blancos, Fase II</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -487,15 +487,15 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Abastible S.A.</t>
+          <t>MANTOS COPPER S.A.</t>
         </is>
       </c>
       <c r="F3" t="n">
-        <v>288</v>
+        <v>89500</v>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>25/08/2022</t>
+          <t>26/08/2022</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
@@ -505,7 +505,7 @@
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2156825651&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2156796656&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">

--- a/data/Antofagasta.xlsx
+++ b/data/Antofagasta.xlsx
@@ -424,7 +424,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Ampliación de capacidad de almacenamiento de GLP Planta Antofagasta</t>
+          <t>Aumento de Capacidad Planta Concentradora Mantos Blancos, Fase II</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -439,15 +439,15 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Abastible S.A.</t>
+          <t>MANTOS COPPER S.A.</t>
         </is>
       </c>
       <c r="F2" t="n">
-        <v>288</v>
+        <v>89500</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>29/08/2022</t>
+          <t>31/08/2022</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
@@ -457,7 +457,7 @@
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2156825651&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2156796656&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
@@ -472,7 +472,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Aumento de Capacidad Planta Concentradora Mantos Blancos, Fase II</t>
+          <t>Ampliación de capacidad de almacenamiento de GLP Planta Antofagasta</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -487,25 +487,25 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>MANTOS COPPER S.A.</t>
+          <t>Abastible S.A.</t>
         </is>
       </c>
       <c r="F3" t="n">
-        <v>89500</v>
+        <v>288</v>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>26/08/2022</t>
+          <t>29/08/2022</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>En Admisión</t>
+          <t>En Calificación</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2156796656&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2156825651&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">

--- a/data/Antofagasta.xlsx
+++ b/data/Antofagasta.xlsx
@@ -11800,7 +11800,7 @@
       </c>
       <c r="B239" t="inlineStr">
         <is>
-          <t>Transporte Interregional de Sustancias Peligrosas - AGREDUCAM VI Región</t>
+          <t>Planta de Fabricación de Tuberías PEX (polietileno reticulado)</t>
         </is>
       </c>
       <c r="C239" t="inlineStr">
@@ -11810,16 +11810,16 @@
       </c>
       <c r="D239" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E239" t="inlineStr">
         <is>
-          <t>Asociación Gremial de Dueños de Camiones de la Sexta Región</t>
+          <t>CROSSPIPE SYSTEMS S.A.</t>
         </is>
       </c>
       <c r="F239" t="n">
-        <v>1200</v>
+        <v>12400</v>
       </c>
       <c r="G239" t="inlineStr">
         <is>
@@ -11833,7 +11833,7 @@
       </c>
       <c r="I239" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128964620&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128954293&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J239" t="inlineStr">
@@ -11848,7 +11848,7 @@
       </c>
       <c r="B240" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos por las Rutas Indicadas</t>
+          <t>Transporte Interregional de Sustancias Peligrosas - AGREDUCAM VI Región</t>
         </is>
       </c>
       <c r="C240" t="inlineStr">
@@ -11863,11 +11863,11 @@
       </c>
       <c r="E240" t="inlineStr">
         <is>
-          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
+          <t>Asociación Gremial de Dueños de Camiones de la Sexta Región</t>
         </is>
       </c>
       <c r="F240" t="n">
-        <v>0</v>
+        <v>1200</v>
       </c>
       <c r="G240" t="inlineStr">
         <is>
@@ -11881,7 +11881,7 @@
       </c>
       <c r="I240" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128972489&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128964620&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J240" t="inlineStr">
@@ -11896,7 +11896,7 @@
       </c>
       <c r="B241" t="inlineStr">
         <is>
-          <t>Planta de Fabricación de Tuberías PEX (polietileno reticulado)</t>
+          <t>Transporte de Residuos Peligrosos por las Rutas Indicadas</t>
         </is>
       </c>
       <c r="C241" t="inlineStr">
@@ -11906,16 +11906,16 @@
       </c>
       <c r="D241" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E241" t="inlineStr">
         <is>
-          <t>CROSSPIPE SYSTEMS S.A.</t>
+          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
         </is>
       </c>
       <c r="F241" t="n">
-        <v>12400</v>
+        <v>0</v>
       </c>
       <c r="G241" t="inlineStr">
         <is>
@@ -11929,7 +11929,7 @@
       </c>
       <c r="I241" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128954293&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128972489&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J241" t="inlineStr">
@@ -13528,26 +13528,26 @@
       </c>
       <c r="B275" t="inlineStr">
         <is>
-          <t>RT Sulfuros</t>
+          <t>Transporte de Sustancias Peligrosas Transaltisa Chile Ltda</t>
         </is>
       </c>
       <c r="C275" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D275" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E275" t="inlineStr">
         <is>
-          <t>CODELCO Chile, División Radomiro Tomic</t>
+          <t>Transaltisa Chile Ltda.</t>
         </is>
       </c>
       <c r="F275" t="n">
-        <v>5.4</v>
+        <v>2050</v>
       </c>
       <c r="G275" t="inlineStr">
         <is>
@@ -13556,12 +13556,12 @@
       </c>
       <c r="H275" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I275" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8210090&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8218613&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J275" t="inlineStr">
@@ -13576,26 +13576,26 @@
       </c>
       <c r="B276" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas Transaltisa Chile Ltda</t>
+          <t>RT Sulfuros</t>
         </is>
       </c>
       <c r="C276" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D276" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E276" t="inlineStr">
         <is>
-          <t>Transaltisa Chile Ltda.</t>
+          <t>CODELCO Chile, División Radomiro Tomic</t>
         </is>
       </c>
       <c r="F276" t="n">
-        <v>2050</v>
+        <v>5.4</v>
       </c>
       <c r="G276" t="inlineStr">
         <is>
@@ -13604,12 +13604,12 @@
       </c>
       <c r="H276" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I276" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8218613&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8210090&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J276" t="inlineStr">
@@ -16264,7 +16264,7 @@
       </c>
       <c r="B332" t="inlineStr">
         <is>
-          <t>Parque Fotovoltaico Los Andes</t>
+          <t>CENTRO DE RECUPERACIÓN DE TAMBORES Y CONTENEDORES IBC CONTAMINADOS, PLAMBIENTAL LA NEGRA</t>
         </is>
       </c>
       <c r="C332" t="inlineStr">
@@ -16279,11 +16279,11 @@
       </c>
       <c r="E332" t="inlineStr">
         <is>
-          <t>Andes Solar SPA</t>
+          <t>VEOLIA SERVICIOS MINEROS INTEGRALES CHILE SpA</t>
         </is>
       </c>
       <c r="F332" t="n">
-        <v>572000</v>
+        <v>60</v>
       </c>
       <c r="G332" t="inlineStr">
         <is>
@@ -16292,12 +16292,12 @@
       </c>
       <c r="H332" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Caducado</t>
         </is>
       </c>
       <c r="I332" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6581267&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6592870&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J332" t="inlineStr">
@@ -16312,7 +16312,7 @@
       </c>
       <c r="B333" t="inlineStr">
         <is>
-          <t>CENTRO DE RECUPERACIÓN DE TAMBORES Y CONTENEDORES IBC CONTAMINADOS, PLAMBIENTAL LA NEGRA</t>
+          <t>CENTRO DE ALMACENAMIENTO DE RESIDUOS INDUSTRIALES, GESAM LA NEGRA</t>
         </is>
       </c>
       <c r="C333" t="inlineStr">
@@ -16331,7 +16331,7 @@
         </is>
       </c>
       <c r="F333" t="n">
-        <v>60</v>
+        <v>360</v>
       </c>
       <c r="G333" t="inlineStr">
         <is>
@@ -16345,7 +16345,7 @@
       </c>
       <c r="I333" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6592870&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6595234&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J333" t="inlineStr">
@@ -16360,7 +16360,7 @@
       </c>
       <c r="B334" t="inlineStr">
         <is>
-          <t>CENTRO DE ALMACENAMIENTO DE RESIDUOS INDUSTRIALES, GESAM LA NEGRA</t>
+          <t>Parque Fotovoltaico Los Andes</t>
         </is>
       </c>
       <c r="C334" t="inlineStr">
@@ -16375,11 +16375,11 @@
       </c>
       <c r="E334" t="inlineStr">
         <is>
-          <t>VEOLIA SERVICIOS MINEROS INTEGRALES CHILE SpA</t>
+          <t>Andes Solar SPA</t>
         </is>
       </c>
       <c r="F334" t="n">
-        <v>360</v>
+        <v>572000</v>
       </c>
       <c r="G334" t="inlineStr">
         <is>
@@ -16388,12 +16388,12 @@
       </c>
       <c r="H334" t="inlineStr">
         <is>
-          <t>Caducado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I334" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6595234&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6581267&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J334" t="inlineStr">
@@ -17224,7 +17224,7 @@
       </c>
       <c r="B352" t="inlineStr">
         <is>
-          <t>Extracción de Áridos Empréstito E17L</t>
+          <t>Modificación Proyecto Transporte de Acido Sulfurico a granel entre la Primera y Décima Regiones de Chile</t>
         </is>
       </c>
       <c r="C352" t="inlineStr">
@@ -17234,16 +17234,16 @@
       </c>
       <c r="D352" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E352" t="inlineStr">
         <is>
-          <t>Skanska Chile S.A.</t>
+          <t>Transportes Herrmann Limitada</t>
         </is>
       </c>
       <c r="F352" t="n">
-        <v>500</v>
+        <v>0</v>
       </c>
       <c r="G352" t="inlineStr">
         <is>
@@ -17252,12 +17252,12 @@
       </c>
       <c r="H352" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I352" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6156264&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6159602&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J352" t="inlineStr">
@@ -17272,7 +17272,7 @@
       </c>
       <c r="B353" t="inlineStr">
         <is>
-          <t>Modificación Proyecto Transporte de Acido Sulfurico a granel entre la Primera y Décima Regiones de Chile</t>
+          <t>Extracción de Áridos Empréstito E17L</t>
         </is>
       </c>
       <c r="C353" t="inlineStr">
@@ -17282,16 +17282,16 @@
       </c>
       <c r="D353" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E353" t="inlineStr">
         <is>
-          <t>Transportes Herrmann Limitada</t>
+          <t>Skanska Chile S.A.</t>
         </is>
       </c>
       <c r="F353" t="n">
-        <v>0</v>
+        <v>500</v>
       </c>
       <c r="G353" t="inlineStr">
         <is>
@@ -17300,12 +17300,12 @@
       </c>
       <c r="H353" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I353" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6159602&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6156264&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J353" t="inlineStr">
@@ -17752,7 +17752,7 @@
       </c>
       <c r="B363" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos</t>
+          <t>Nuevas Instalaciones para Mantención Mina</t>
         </is>
       </c>
       <c r="C363" t="inlineStr">
@@ -17762,16 +17762,16 @@
       </c>
       <c r="D363" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E363" t="inlineStr">
         <is>
-          <t>Transportes TMS Limitada</t>
+          <t>MINERA ESCONDIDA LIMITADA</t>
         </is>
       </c>
       <c r="F363" t="n">
-        <v>200</v>
+        <v>635000</v>
       </c>
       <c r="G363" t="inlineStr">
         <is>
@@ -17780,12 +17780,12 @@
       </c>
       <c r="H363" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I363" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6003582&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5931343&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J363" t="inlineStr">
@@ -17800,7 +17800,7 @@
       </c>
       <c r="B364" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas entre la I, II y III Regiones"</t>
+          <t>Transporte de Residuos Peligrosos</t>
         </is>
       </c>
       <c r="C364" t="inlineStr">
@@ -17815,11 +17815,11 @@
       </c>
       <c r="E364" t="inlineStr">
         <is>
-          <t>Molina Quimicos S.A.</t>
+          <t>Transportes TMS Limitada</t>
         </is>
       </c>
       <c r="F364" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="G364" t="inlineStr">
         <is>
@@ -17833,7 +17833,7 @@
       </c>
       <c r="I364" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6003607&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6003582&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J364" t="inlineStr">
@@ -17848,7 +17848,7 @@
       </c>
       <c r="B365" t="inlineStr">
         <is>
-          <t>Nuevas Instalaciones para Mantención Mina</t>
+          <t>Transporte de Sustancias Peligrosas entre la I, II y III Regiones"</t>
         </is>
       </c>
       <c r="C365" t="inlineStr">
@@ -17858,16 +17858,16 @@
       </c>
       <c r="D365" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E365" t="inlineStr">
         <is>
-          <t>MINERA ESCONDIDA LIMITADA</t>
+          <t>Molina Quimicos S.A.</t>
         </is>
       </c>
       <c r="F365" t="n">
-        <v>635000</v>
+        <v>100</v>
       </c>
       <c r="G365" t="inlineStr">
         <is>
@@ -17876,12 +17876,12 @@
       </c>
       <c r="H365" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I365" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5931343&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6003607&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J365" t="inlineStr">
@@ -20104,7 +20104,7 @@
       </c>
       <c r="B412" t="inlineStr">
         <is>
-          <t>"Transporte de acido sulfurico concentrado para minera Las Cenizas, Taltal."</t>
+          <t>II MODIFICACIÓN DIA "TRANSPORTE Y MANEJO IN SITU DE RESIDUOS SÓLIDOS Y LÍQUIDOS PELIGROSOS Y NO PELIGROSOS"</t>
         </is>
       </c>
       <c r="C412" t="inlineStr">
@@ -20114,16 +20114,16 @@
       </c>
       <c r="D412" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E412" t="inlineStr">
         <is>
-          <t>Translog S.A.</t>
+          <t>Mol Ambiente S.A.</t>
         </is>
       </c>
       <c r="F412" t="n">
-        <v>600</v>
+        <v>75000</v>
       </c>
       <c r="G412" t="inlineStr">
         <is>
@@ -20132,12 +20132,12 @@
       </c>
       <c r="H412" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I412" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5114868&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5118945&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J412" t="inlineStr">
@@ -20152,7 +20152,7 @@
       </c>
       <c r="B413" t="inlineStr">
         <is>
-          <t>II MODIFICACIÓN DIA "TRANSPORTE Y MANEJO IN SITU DE RESIDUOS SÓLIDOS Y LÍQUIDOS PELIGROSOS Y NO PELIGROSOS"</t>
+          <t>"Transporte de acido sulfurico concentrado para minera Las Cenizas, Taltal."</t>
         </is>
       </c>
       <c r="C413" t="inlineStr">
@@ -20162,16 +20162,16 @@
       </c>
       <c r="D413" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E413" t="inlineStr">
         <is>
-          <t>Mol Ambiente S.A.</t>
+          <t>Translog S.A.</t>
         </is>
       </c>
       <c r="F413" t="n">
-        <v>75000</v>
+        <v>600</v>
       </c>
       <c r="G413" t="inlineStr">
         <is>
@@ -20180,12 +20180,12 @@
       </c>
       <c r="H413" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I413" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5118945&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5114868&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J413" t="inlineStr">
@@ -21640,7 +21640,7 @@
       </c>
       <c r="B444" t="inlineStr">
         <is>
-          <t>Proyecto Laboratorios Químicos CIMM T&amp;S SA. La Negra</t>
+          <t>TRANSPORTE DE RESIDUOS PELIGROSOS POR RUTAS DE LA REGIÓN DE ANTOFAGASTA</t>
         </is>
       </c>
       <c r="C444" t="inlineStr">
@@ -21655,11 +21655,11 @@
       </c>
       <c r="E444" t="inlineStr">
         <is>
-          <t>Yancko Gonzalez Rozas</t>
+          <t>Limfosep S.A</t>
         </is>
       </c>
       <c r="F444" t="n">
-        <v>8000</v>
+        <v>1000</v>
       </c>
       <c r="G444" t="inlineStr">
         <is>
@@ -21668,12 +21668,12 @@
       </c>
       <c r="H444" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I444" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4670031&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4698232&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J444" t="inlineStr">
@@ -21688,7 +21688,7 @@
       </c>
       <c r="B445" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE RESIDUOS PELIGROSOS POR RUTAS DE LA REGIÓN DE ANTOFAGASTA</t>
+          <t>Proyecto Laboratorios Químicos CIMM T&amp;S SA. La Negra</t>
         </is>
       </c>
       <c r="C445" t="inlineStr">
@@ -21703,11 +21703,11 @@
       </c>
       <c r="E445" t="inlineStr">
         <is>
-          <t>Limfosep S.A</t>
+          <t>Yancko Gonzalez Rozas</t>
         </is>
       </c>
       <c r="F445" t="n">
-        <v>1000</v>
+        <v>8000</v>
       </c>
       <c r="G445" t="inlineStr">
         <is>
@@ -21716,12 +21716,12 @@
       </c>
       <c r="H445" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I445" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4698232&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4670031&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J445" t="inlineStr">
@@ -22120,7 +22120,7 @@
       </c>
       <c r="B454" t="inlineStr">
         <is>
-          <t>Nuevo Transporte Interregional de Cianuro de Sodio</t>
+          <t>EXPANSION DEPOSITO DE RELAVES FILTRADOS FAENA EL PEÑÓN</t>
         </is>
       </c>
       <c r="C454" t="inlineStr">
@@ -22130,16 +22130,16 @@
       </c>
       <c r="D454" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E454" t="inlineStr">
         <is>
-          <t>OXIQUIM S.A.</t>
+          <t>Minera Meridian Limitada</t>
         </is>
       </c>
       <c r="F454" t="n">
-        <v>85</v>
+        <v>688</v>
       </c>
       <c r="G454" t="inlineStr">
         <is>
@@ -22148,12 +22148,12 @@
       </c>
       <c r="H454" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I454" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4594007&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4601640&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J454" t="inlineStr">
@@ -22168,7 +22168,7 @@
       </c>
       <c r="B455" t="inlineStr">
         <is>
-          <t>EXPANSION DEPOSITO DE RELAVES FILTRADOS FAENA EL PEÑÓN</t>
+          <t>Nuevo Transporte Interregional de Cianuro de Sodio</t>
         </is>
       </c>
       <c r="C455" t="inlineStr">
@@ -22178,16 +22178,16 @@
       </c>
       <c r="D455" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E455" t="inlineStr">
         <is>
-          <t>Minera Meridian Limitada</t>
+          <t>OXIQUIM S.A.</t>
         </is>
       </c>
       <c r="F455" t="n">
-        <v>688</v>
+        <v>85</v>
       </c>
       <c r="G455" t="inlineStr">
         <is>
@@ -22196,12 +22196,12 @@
       </c>
       <c r="H455" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I455" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4601640&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4594007&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J455" t="inlineStr">

--- a/data/Antofagasta.xlsx
+++ b/data/Antofagasta.xlsx
@@ -596,7 +596,7 @@
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>En Calificación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
@@ -932,7 +932,7 @@
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>En Calificación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">

--- a/data/Antofagasta.xlsx
+++ b/data/Antofagasta.xlsx
@@ -11800,7 +11800,7 @@
       </c>
       <c r="B239" t="inlineStr">
         <is>
-          <t>Transporte Interregional de Sustancias Peligrosas - AGREDUCAM VI Región</t>
+          <t>Planta de Fabricación de Tuberías PEX (polietileno reticulado)</t>
         </is>
       </c>
       <c r="C239" t="inlineStr">
@@ -11810,16 +11810,16 @@
       </c>
       <c r="D239" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E239" t="inlineStr">
         <is>
-          <t>Asociación Gremial de Dueños de Camiones de la Sexta Región</t>
+          <t>CROSSPIPE SYSTEMS S.A.</t>
         </is>
       </c>
       <c r="F239" t="n">
-        <v>1200</v>
+        <v>12400</v>
       </c>
       <c r="G239" t="inlineStr">
         <is>
@@ -11833,7 +11833,7 @@
       </c>
       <c r="I239" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128964620&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128954293&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J239" t="inlineStr">
@@ -11848,7 +11848,7 @@
       </c>
       <c r="B240" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos por las Rutas Indicadas</t>
+          <t>Transporte Interregional de Sustancias Peligrosas - AGREDUCAM VI Región</t>
         </is>
       </c>
       <c r="C240" t="inlineStr">
@@ -11863,11 +11863,11 @@
       </c>
       <c r="E240" t="inlineStr">
         <is>
-          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
+          <t>Asociación Gremial de Dueños de Camiones de la Sexta Región</t>
         </is>
       </c>
       <c r="F240" t="n">
-        <v>0</v>
+        <v>1200</v>
       </c>
       <c r="G240" t="inlineStr">
         <is>
@@ -11881,7 +11881,7 @@
       </c>
       <c r="I240" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128972489&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128964620&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J240" t="inlineStr">
@@ -11896,7 +11896,7 @@
       </c>
       <c r="B241" t="inlineStr">
         <is>
-          <t>Planta de Fabricación de Tuberías PEX (polietileno reticulado)</t>
+          <t>Transporte de Residuos Peligrosos por las Rutas Indicadas</t>
         </is>
       </c>
       <c r="C241" t="inlineStr">
@@ -11906,16 +11906,16 @@
       </c>
       <c r="D241" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E241" t="inlineStr">
         <is>
-          <t>CROSSPIPE SYSTEMS S.A.</t>
+          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
         </is>
       </c>
       <c r="F241" t="n">
-        <v>12400</v>
+        <v>0</v>
       </c>
       <c r="G241" t="inlineStr">
         <is>
@@ -11929,7 +11929,7 @@
       </c>
       <c r="I241" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128954293&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128972489&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J241" t="inlineStr">
@@ -13528,26 +13528,26 @@
       </c>
       <c r="B275" t="inlineStr">
         <is>
-          <t>RT Sulfuros</t>
+          <t>Transporte de Sustancias Peligrosas Transaltisa Chile Ltda</t>
         </is>
       </c>
       <c r="C275" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D275" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E275" t="inlineStr">
         <is>
-          <t>CODELCO Chile, División Radomiro Tomic</t>
+          <t>Transaltisa Chile Ltda.</t>
         </is>
       </c>
       <c r="F275" t="n">
-        <v>5.4</v>
+        <v>2050</v>
       </c>
       <c r="G275" t="inlineStr">
         <is>
@@ -13556,12 +13556,12 @@
       </c>
       <c r="H275" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I275" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8210090&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8218613&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J275" t="inlineStr">
@@ -13576,26 +13576,26 @@
       </c>
       <c r="B276" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas Transaltisa Chile Ltda</t>
+          <t>RT Sulfuros</t>
         </is>
       </c>
       <c r="C276" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D276" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E276" t="inlineStr">
         <is>
-          <t>Transaltisa Chile Ltda.</t>
+          <t>CODELCO Chile, División Radomiro Tomic</t>
         </is>
       </c>
       <c r="F276" t="n">
-        <v>2050</v>
+        <v>5.4</v>
       </c>
       <c r="G276" t="inlineStr">
         <is>
@@ -13604,12 +13604,12 @@
       </c>
       <c r="H276" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I276" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8218613&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8210090&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J276" t="inlineStr">
@@ -16264,7 +16264,7 @@
       </c>
       <c r="B332" t="inlineStr">
         <is>
-          <t>Parque Fotovoltaico Los Andes</t>
+          <t>CENTRO DE RECUPERACIÓN DE TAMBORES Y CONTENEDORES IBC CONTAMINADOS, PLAMBIENTAL LA NEGRA</t>
         </is>
       </c>
       <c r="C332" t="inlineStr">
@@ -16279,11 +16279,11 @@
       </c>
       <c r="E332" t="inlineStr">
         <is>
-          <t>Andes Solar SPA</t>
+          <t>VEOLIA SERVICIOS MINEROS INTEGRALES CHILE SpA</t>
         </is>
       </c>
       <c r="F332" t="n">
-        <v>572000</v>
+        <v>60</v>
       </c>
       <c r="G332" t="inlineStr">
         <is>
@@ -16292,12 +16292,12 @@
       </c>
       <c r="H332" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Caducado</t>
         </is>
       </c>
       <c r="I332" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6581267&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6592870&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J332" t="inlineStr">
@@ -16312,7 +16312,7 @@
       </c>
       <c r="B333" t="inlineStr">
         <is>
-          <t>CENTRO DE RECUPERACIÓN DE TAMBORES Y CONTENEDORES IBC CONTAMINADOS, PLAMBIENTAL LA NEGRA</t>
+          <t>CENTRO DE ALMACENAMIENTO DE RESIDUOS INDUSTRIALES, GESAM LA NEGRA</t>
         </is>
       </c>
       <c r="C333" t="inlineStr">
@@ -16331,7 +16331,7 @@
         </is>
       </c>
       <c r="F333" t="n">
-        <v>60</v>
+        <v>360</v>
       </c>
       <c r="G333" t="inlineStr">
         <is>
@@ -16345,7 +16345,7 @@
       </c>
       <c r="I333" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6592870&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6595234&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J333" t="inlineStr">
@@ -16360,7 +16360,7 @@
       </c>
       <c r="B334" t="inlineStr">
         <is>
-          <t>CENTRO DE ALMACENAMIENTO DE RESIDUOS INDUSTRIALES, GESAM LA NEGRA</t>
+          <t>Parque Fotovoltaico Los Andes</t>
         </is>
       </c>
       <c r="C334" t="inlineStr">
@@ -16375,11 +16375,11 @@
       </c>
       <c r="E334" t="inlineStr">
         <is>
-          <t>VEOLIA SERVICIOS MINEROS INTEGRALES CHILE SpA</t>
+          <t>Andes Solar SPA</t>
         </is>
       </c>
       <c r="F334" t="n">
-        <v>360</v>
+        <v>572000</v>
       </c>
       <c r="G334" t="inlineStr">
         <is>
@@ -16388,12 +16388,12 @@
       </c>
       <c r="H334" t="inlineStr">
         <is>
-          <t>Caducado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I334" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6595234&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6581267&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J334" t="inlineStr">
@@ -16552,7 +16552,7 @@
       </c>
       <c r="B338" t="inlineStr">
         <is>
-          <t>MODIFICACION DE LA DECLARACIÓN DE IMPACTO AMBIENTAL PROYECTO TRANSPORTE DE SULFHIDRATO DE SODIO EN LA PRIMERA Y SEGUNDA REGION</t>
+          <t>Transporte de Residuos Peligrosos</t>
         </is>
       </c>
       <c r="C338" t="inlineStr">
@@ -16567,11 +16567,11 @@
       </c>
       <c r="E338" t="inlineStr">
         <is>
-          <t>Sociedad de Transportes Camaro Ltda.</t>
+          <t>Transportes TMS Limitada</t>
         </is>
       </c>
       <c r="F338" t="n">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="G338" t="inlineStr">
         <is>
@@ -16585,7 +16585,7 @@
       </c>
       <c r="I338" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6450945&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6479568&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J338" t="inlineStr">
@@ -16600,7 +16600,7 @@
       </c>
       <c r="B339" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos</t>
+          <t>MODIFICACION DE LA DECLARACIÓN DE IMPACTO AMBIENTAL PROYECTO TRANSPORTE DE SULFHIDRATO DE SODIO EN LA PRIMERA Y SEGUNDA REGION</t>
         </is>
       </c>
       <c r="C339" t="inlineStr">
@@ -16615,11 +16615,11 @@
       </c>
       <c r="E339" t="inlineStr">
         <is>
-          <t>Transportes TMS Limitada</t>
+          <t>Sociedad de Transportes Camaro Ltda.</t>
         </is>
       </c>
       <c r="F339" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="G339" t="inlineStr">
         <is>
@@ -16633,7 +16633,7 @@
       </c>
       <c r="I339" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6479568&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6450945&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J339" t="inlineStr">
@@ -17224,7 +17224,7 @@
       </c>
       <c r="B352" t="inlineStr">
         <is>
-          <t>Extracción de Áridos Empréstito E17L</t>
+          <t>Modificación Proyecto Transporte de Acido Sulfurico a granel entre la Primera y Décima Regiones de Chile</t>
         </is>
       </c>
       <c r="C352" t="inlineStr">
@@ -17234,16 +17234,16 @@
       </c>
       <c r="D352" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E352" t="inlineStr">
         <is>
-          <t>Skanska Chile S.A.</t>
+          <t>Transportes Herrmann Limitada</t>
         </is>
       </c>
       <c r="F352" t="n">
-        <v>500</v>
+        <v>0</v>
       </c>
       <c r="G352" t="inlineStr">
         <is>
@@ -17252,12 +17252,12 @@
       </c>
       <c r="H352" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I352" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6156264&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6159602&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J352" t="inlineStr">
@@ -17272,7 +17272,7 @@
       </c>
       <c r="B353" t="inlineStr">
         <is>
-          <t>Modificación Proyecto Transporte de Acido Sulfurico a granel entre la Primera y Décima Regiones de Chile</t>
+          <t>Extracción de Áridos Empréstito E17L</t>
         </is>
       </c>
       <c r="C353" t="inlineStr">
@@ -17282,16 +17282,16 @@
       </c>
       <c r="D353" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E353" t="inlineStr">
         <is>
-          <t>Transportes Herrmann Limitada</t>
+          <t>Skanska Chile S.A.</t>
         </is>
       </c>
       <c r="F353" t="n">
-        <v>0</v>
+        <v>500</v>
       </c>
       <c r="G353" t="inlineStr">
         <is>
@@ -17300,12 +17300,12 @@
       </c>
       <c r="H353" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I353" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6159602&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6156264&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J353" t="inlineStr">
@@ -17464,7 +17464,7 @@
       </c>
       <c r="B357" t="inlineStr">
         <is>
-          <t>Extracción de Áridos Empréstito E-63</t>
+          <t>Proyecto Optimización de Emplazamiento de Instalaciones en Minera Escondida</t>
         </is>
       </c>
       <c r="C357" t="inlineStr">
@@ -17479,11 +17479,11 @@
       </c>
       <c r="E357" t="inlineStr">
         <is>
-          <t>Skanska Chile S.A.</t>
+          <t>MINERA ESCONDIDA LIMITADA</t>
         </is>
       </c>
       <c r="F357" t="n">
-        <v>500</v>
+        <v>120000</v>
       </c>
       <c r="G357" t="inlineStr">
         <is>
@@ -17497,7 +17497,7 @@
       </c>
       <c r="I357" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6092873&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6080052&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J357" t="inlineStr">
@@ -17512,7 +17512,7 @@
       </c>
       <c r="B358" t="inlineStr">
         <is>
-          <t>Proyecto Optimización de Emplazamiento de Instalaciones en Minera Escondida</t>
+          <t>Extracción de Áridos Empréstito E-63</t>
         </is>
       </c>
       <c r="C358" t="inlineStr">
@@ -17527,11 +17527,11 @@
       </c>
       <c r="E358" t="inlineStr">
         <is>
-          <t>MINERA ESCONDIDA LIMITADA</t>
+          <t>Skanska Chile S.A.</t>
         </is>
       </c>
       <c r="F358" t="n">
-        <v>120000</v>
+        <v>500</v>
       </c>
       <c r="G358" t="inlineStr">
         <is>
@@ -17545,7 +17545,7 @@
       </c>
       <c r="I358" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6080052&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6092873&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J358" t="inlineStr">
@@ -17752,7 +17752,7 @@
       </c>
       <c r="B363" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos</t>
+          <t>Nuevas Instalaciones para Mantención Mina</t>
         </is>
       </c>
       <c r="C363" t="inlineStr">
@@ -17762,16 +17762,16 @@
       </c>
       <c r="D363" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E363" t="inlineStr">
         <is>
-          <t>Transportes TMS Limitada</t>
+          <t>MINERA ESCONDIDA LIMITADA</t>
         </is>
       </c>
       <c r="F363" t="n">
-        <v>200</v>
+        <v>635000</v>
       </c>
       <c r="G363" t="inlineStr">
         <is>
@@ -17780,12 +17780,12 @@
       </c>
       <c r="H363" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I363" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6003582&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5931343&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J363" t="inlineStr">
@@ -17800,7 +17800,7 @@
       </c>
       <c r="B364" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas entre la I, II y III Regiones"</t>
+          <t>Transporte de Residuos Peligrosos</t>
         </is>
       </c>
       <c r="C364" t="inlineStr">
@@ -17815,11 +17815,11 @@
       </c>
       <c r="E364" t="inlineStr">
         <is>
-          <t>Molina Quimicos S.A.</t>
+          <t>Transportes TMS Limitada</t>
         </is>
       </c>
       <c r="F364" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="G364" t="inlineStr">
         <is>
@@ -17833,7 +17833,7 @@
       </c>
       <c r="I364" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6003607&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6003582&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J364" t="inlineStr">
@@ -17848,7 +17848,7 @@
       </c>
       <c r="B365" t="inlineStr">
         <is>
-          <t>Nuevas Instalaciones para Mantención Mina</t>
+          <t>Transporte de Sustancias Peligrosas entre la I, II y III Regiones"</t>
         </is>
       </c>
       <c r="C365" t="inlineStr">
@@ -17858,16 +17858,16 @@
       </c>
       <c r="D365" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E365" t="inlineStr">
         <is>
-          <t>MINERA ESCONDIDA LIMITADA</t>
+          <t>Molina Quimicos S.A.</t>
         </is>
       </c>
       <c r="F365" t="n">
-        <v>635000</v>
+        <v>100</v>
       </c>
       <c r="G365" t="inlineStr">
         <is>
@@ -17876,12 +17876,12 @@
       </c>
       <c r="H365" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I365" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5931343&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6003607&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J365" t="inlineStr">
@@ -20104,7 +20104,7 @@
       </c>
       <c r="B412" t="inlineStr">
         <is>
-          <t>"Transporte de acido sulfurico concentrado para minera Las Cenizas, Taltal."</t>
+          <t>II MODIFICACIÓN DIA "TRANSPORTE Y MANEJO IN SITU DE RESIDUOS SÓLIDOS Y LÍQUIDOS PELIGROSOS Y NO PELIGROSOS"</t>
         </is>
       </c>
       <c r="C412" t="inlineStr">
@@ -20114,16 +20114,16 @@
       </c>
       <c r="D412" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E412" t="inlineStr">
         <is>
-          <t>Translog S.A.</t>
+          <t>Mol Ambiente S.A.</t>
         </is>
       </c>
       <c r="F412" t="n">
-        <v>600</v>
+        <v>75000</v>
       </c>
       <c r="G412" t="inlineStr">
         <is>
@@ -20132,12 +20132,12 @@
       </c>
       <c r="H412" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I412" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5114868&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5118945&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J412" t="inlineStr">
@@ -20152,7 +20152,7 @@
       </c>
       <c r="B413" t="inlineStr">
         <is>
-          <t>II MODIFICACIÓN DIA "TRANSPORTE Y MANEJO IN SITU DE RESIDUOS SÓLIDOS Y LÍQUIDOS PELIGROSOS Y NO PELIGROSOS"</t>
+          <t>"Transporte de acido sulfurico concentrado para minera Las Cenizas, Taltal."</t>
         </is>
       </c>
       <c r="C413" t="inlineStr">
@@ -20162,16 +20162,16 @@
       </c>
       <c r="D413" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E413" t="inlineStr">
         <is>
-          <t>Mol Ambiente S.A.</t>
+          <t>Translog S.A.</t>
         </is>
       </c>
       <c r="F413" t="n">
-        <v>75000</v>
+        <v>600</v>
       </c>
       <c r="G413" t="inlineStr">
         <is>
@@ -20180,12 +20180,12 @@
       </c>
       <c r="H413" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I413" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5118945&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5114868&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J413" t="inlineStr">
@@ -21640,7 +21640,7 @@
       </c>
       <c r="B444" t="inlineStr">
         <is>
-          <t>Proyecto Laboratorios Químicos CIMM T&amp;S SA. La Negra</t>
+          <t>TRANSPORTE DE RESIDUOS PELIGROSOS POR RUTAS DE LA REGIÓN DE ANTOFAGASTA</t>
         </is>
       </c>
       <c r="C444" t="inlineStr">
@@ -21655,11 +21655,11 @@
       </c>
       <c r="E444" t="inlineStr">
         <is>
-          <t>Yancko Gonzalez Rozas</t>
+          <t>Limfosep S.A</t>
         </is>
       </c>
       <c r="F444" t="n">
-        <v>8000</v>
+        <v>1000</v>
       </c>
       <c r="G444" t="inlineStr">
         <is>
@@ -21668,12 +21668,12 @@
       </c>
       <c r="H444" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I444" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4670031&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4698232&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J444" t="inlineStr">
@@ -21688,7 +21688,7 @@
       </c>
       <c r="B445" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE RESIDUOS PELIGROSOS POR RUTAS DE LA REGIÓN DE ANTOFAGASTA</t>
+          <t>Proyecto Laboratorios Químicos CIMM T&amp;S SA. La Negra</t>
         </is>
       </c>
       <c r="C445" t="inlineStr">
@@ -21703,11 +21703,11 @@
       </c>
       <c r="E445" t="inlineStr">
         <is>
-          <t>Limfosep S.A</t>
+          <t>Yancko Gonzalez Rozas</t>
         </is>
       </c>
       <c r="F445" t="n">
-        <v>1000</v>
+        <v>8000</v>
       </c>
       <c r="G445" t="inlineStr">
         <is>
@@ -21716,12 +21716,12 @@
       </c>
       <c r="H445" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I445" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4698232&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4670031&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J445" t="inlineStr">
@@ -22120,7 +22120,7 @@
       </c>
       <c r="B454" t="inlineStr">
         <is>
-          <t>Nuevo Transporte Interregional de Cianuro de Sodio</t>
+          <t>EXPANSION DEPOSITO DE RELAVES FILTRADOS FAENA EL PEÑÓN</t>
         </is>
       </c>
       <c r="C454" t="inlineStr">
@@ -22130,16 +22130,16 @@
       </c>
       <c r="D454" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E454" t="inlineStr">
         <is>
-          <t>OXIQUIM S.A.</t>
+          <t>Minera Meridian Limitada</t>
         </is>
       </c>
       <c r="F454" t="n">
-        <v>85</v>
+        <v>688</v>
       </c>
       <c r="G454" t="inlineStr">
         <is>
@@ -22148,12 +22148,12 @@
       </c>
       <c r="H454" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I454" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4594007&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4601640&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J454" t="inlineStr">
@@ -22168,7 +22168,7 @@
       </c>
       <c r="B455" t="inlineStr">
         <is>
-          <t>EXPANSION DEPOSITO DE RELAVES FILTRADOS FAENA EL PEÑÓN</t>
+          <t>Nuevo Transporte Interregional de Cianuro de Sodio</t>
         </is>
       </c>
       <c r="C455" t="inlineStr">
@@ -22178,16 +22178,16 @@
       </c>
       <c r="D455" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E455" t="inlineStr">
         <is>
-          <t>Minera Meridian Limitada</t>
+          <t>OXIQUIM S.A.</t>
         </is>
       </c>
       <c r="F455" t="n">
-        <v>688</v>
+        <v>85</v>
       </c>
       <c r="G455" t="inlineStr">
         <is>
@@ -22196,12 +22196,12 @@
       </c>
       <c r="H455" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I455" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4601640&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4594007&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J455" t="inlineStr">
@@ -22936,7 +22936,7 @@
       </c>
       <c r="B471" t="inlineStr">
         <is>
-          <t>Transporte de Barros Anódicos</t>
+          <t>Transporte de Residuos Peligroso, Transporte Bello</t>
         </is>
       </c>
       <c r="C471" t="inlineStr">
@@ -22951,11 +22951,11 @@
       </c>
       <c r="E471" t="inlineStr">
         <is>
-          <t>CODELCO CHILE</t>
+          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
         </is>
       </c>
       <c r="F471" t="n">
-        <v>0</v>
+        <v>4050</v>
       </c>
       <c r="G471" t="inlineStr">
         <is>
@@ -22969,7 +22969,7 @@
       </c>
       <c r="I471" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4429880&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4455518&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J471" t="inlineStr">
@@ -22984,7 +22984,7 @@
       </c>
       <c r="B472" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligroso, Transporte Bello</t>
+          <t>Transporte de Barros Anódicos</t>
         </is>
       </c>
       <c r="C472" t="inlineStr">
@@ -22999,11 +22999,11 @@
       </c>
       <c r="E472" t="inlineStr">
         <is>
-          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
+          <t>CODELCO CHILE</t>
         </is>
       </c>
       <c r="F472" t="n">
-        <v>4050</v>
+        <v>0</v>
       </c>
       <c r="G472" t="inlineStr">
         <is>
@@ -23017,7 +23017,7 @@
       </c>
       <c r="I472" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4455518&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4429880&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J472" t="inlineStr">
@@ -23128,7 +23128,7 @@
       </c>
       <c r="B475" t="inlineStr">
         <is>
-          <t>Transporte y Almacenamiento temporal de Residuos Peligrosos M&amp;M ltda.</t>
+          <t>Modificacion Proyecto Minero Algorta Sector Pampa</t>
         </is>
       </c>
       <c r="C475" t="inlineStr">
@@ -23138,16 +23138,16 @@
       </c>
       <c r="D475" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E475" t="inlineStr">
         <is>
-          <t>Transportes Moscoso y Moscoso Ltda.</t>
+          <t>Algorta Norte S.A</t>
         </is>
       </c>
       <c r="F475" t="n">
-        <v>41075</v>
+        <v>6400</v>
       </c>
       <c r="G475" t="inlineStr">
         <is>
@@ -23161,7 +23161,7 @@
       </c>
       <c r="I475" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4422237&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4432700&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J475" t="inlineStr">
@@ -23176,7 +23176,7 @@
       </c>
       <c r="B476" t="inlineStr">
         <is>
-          <t>Modificacion Proyecto Minero Algorta Sector Pampa</t>
+          <t>Transporte y Almacenamiento temporal de Residuos Peligrosos M&amp;M ltda.</t>
         </is>
       </c>
       <c r="C476" t="inlineStr">
@@ -23186,16 +23186,16 @@
       </c>
       <c r="D476" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E476" t="inlineStr">
         <is>
-          <t>Algorta Norte S.A</t>
+          <t>Transportes Moscoso y Moscoso Ltda.</t>
         </is>
       </c>
       <c r="F476" t="n">
-        <v>6400</v>
+        <v>41075</v>
       </c>
       <c r="G476" t="inlineStr">
         <is>
@@ -23209,7 +23209,7 @@
       </c>
       <c r="I476" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4432700&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4422237&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J476" t="inlineStr">

--- a/data/Antofagasta.xlsx
+++ b/data/Antofagasta.xlsx
@@ -11800,7 +11800,7 @@
       </c>
       <c r="B239" t="inlineStr">
         <is>
-          <t>Planta de Fabricación de Tuberías PEX (polietileno reticulado)</t>
+          <t>Transporte Interregional de Sustancias Peligrosas - AGREDUCAM VI Región</t>
         </is>
       </c>
       <c r="C239" t="inlineStr">
@@ -11810,16 +11810,16 @@
       </c>
       <c r="D239" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E239" t="inlineStr">
         <is>
-          <t>CROSSPIPE SYSTEMS S.A.</t>
+          <t>Asociación Gremial de Dueños de Camiones de la Sexta Región</t>
         </is>
       </c>
       <c r="F239" t="n">
-        <v>12400</v>
+        <v>1200</v>
       </c>
       <c r="G239" t="inlineStr">
         <is>
@@ -11833,7 +11833,7 @@
       </c>
       <c r="I239" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128954293&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128964620&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J239" t="inlineStr">
@@ -11848,7 +11848,7 @@
       </c>
       <c r="B240" t="inlineStr">
         <is>
-          <t>Transporte Interregional de Sustancias Peligrosas - AGREDUCAM VI Región</t>
+          <t>Transporte de Residuos Peligrosos por las Rutas Indicadas</t>
         </is>
       </c>
       <c r="C240" t="inlineStr">
@@ -11863,11 +11863,11 @@
       </c>
       <c r="E240" t="inlineStr">
         <is>
-          <t>Asociación Gremial de Dueños de Camiones de la Sexta Región</t>
+          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
         </is>
       </c>
       <c r="F240" t="n">
-        <v>1200</v>
+        <v>0</v>
       </c>
       <c r="G240" t="inlineStr">
         <is>
@@ -11881,7 +11881,7 @@
       </c>
       <c r="I240" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128964620&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128972489&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J240" t="inlineStr">
@@ -11896,7 +11896,7 @@
       </c>
       <c r="B241" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos por las Rutas Indicadas</t>
+          <t>Planta de Fabricación de Tuberías PEX (polietileno reticulado)</t>
         </is>
       </c>
       <c r="C241" t="inlineStr">
@@ -11906,16 +11906,16 @@
       </c>
       <c r="D241" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E241" t="inlineStr">
         <is>
-          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
+          <t>CROSSPIPE SYSTEMS S.A.</t>
         </is>
       </c>
       <c r="F241" t="n">
-        <v>0</v>
+        <v>12400</v>
       </c>
       <c r="G241" t="inlineStr">
         <is>
@@ -11929,7 +11929,7 @@
       </c>
       <c r="I241" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128972489&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128954293&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J241" t="inlineStr">
@@ -13528,26 +13528,26 @@
       </c>
       <c r="B275" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas Transaltisa Chile Ltda</t>
+          <t>RT Sulfuros</t>
         </is>
       </c>
       <c r="C275" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D275" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E275" t="inlineStr">
         <is>
-          <t>Transaltisa Chile Ltda.</t>
+          <t>CODELCO Chile, División Radomiro Tomic</t>
         </is>
       </c>
       <c r="F275" t="n">
-        <v>2050</v>
+        <v>5.4</v>
       </c>
       <c r="G275" t="inlineStr">
         <is>
@@ -13556,12 +13556,12 @@
       </c>
       <c r="H275" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I275" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8218613&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8210090&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J275" t="inlineStr">
@@ -13576,26 +13576,26 @@
       </c>
       <c r="B276" t="inlineStr">
         <is>
-          <t>RT Sulfuros</t>
+          <t>Transporte de Sustancias Peligrosas Transaltisa Chile Ltda</t>
         </is>
       </c>
       <c r="C276" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D276" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E276" t="inlineStr">
         <is>
-          <t>CODELCO Chile, División Radomiro Tomic</t>
+          <t>Transaltisa Chile Ltda.</t>
         </is>
       </c>
       <c r="F276" t="n">
-        <v>5.4</v>
+        <v>2050</v>
       </c>
       <c r="G276" t="inlineStr">
         <is>
@@ -13604,12 +13604,12 @@
       </c>
       <c r="H276" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I276" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8210090&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8218613&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J276" t="inlineStr">
@@ -16264,7 +16264,7 @@
       </c>
       <c r="B332" t="inlineStr">
         <is>
-          <t>CENTRO DE RECUPERACIÓN DE TAMBORES Y CONTENEDORES IBC CONTAMINADOS, PLAMBIENTAL LA NEGRA</t>
+          <t>Parque Fotovoltaico Los Andes</t>
         </is>
       </c>
       <c r="C332" t="inlineStr">
@@ -16279,11 +16279,11 @@
       </c>
       <c r="E332" t="inlineStr">
         <is>
-          <t>VEOLIA SERVICIOS MINEROS INTEGRALES CHILE SpA</t>
+          <t>Andes Solar SPA</t>
         </is>
       </c>
       <c r="F332" t="n">
-        <v>60</v>
+        <v>572000</v>
       </c>
       <c r="G332" t="inlineStr">
         <is>
@@ -16292,12 +16292,12 @@
       </c>
       <c r="H332" t="inlineStr">
         <is>
-          <t>Caducado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I332" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6592870&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6581267&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J332" t="inlineStr">
@@ -16312,7 +16312,7 @@
       </c>
       <c r="B333" t="inlineStr">
         <is>
-          <t>CENTRO DE ALMACENAMIENTO DE RESIDUOS INDUSTRIALES, GESAM LA NEGRA</t>
+          <t>CENTRO DE RECUPERACIÓN DE TAMBORES Y CONTENEDORES IBC CONTAMINADOS, PLAMBIENTAL LA NEGRA</t>
         </is>
       </c>
       <c r="C333" t="inlineStr">
@@ -16331,7 +16331,7 @@
         </is>
       </c>
       <c r="F333" t="n">
-        <v>360</v>
+        <v>60</v>
       </c>
       <c r="G333" t="inlineStr">
         <is>
@@ -16345,7 +16345,7 @@
       </c>
       <c r="I333" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6595234&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6592870&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J333" t="inlineStr">
@@ -16360,7 +16360,7 @@
       </c>
       <c r="B334" t="inlineStr">
         <is>
-          <t>Parque Fotovoltaico Los Andes</t>
+          <t>CENTRO DE ALMACENAMIENTO DE RESIDUOS INDUSTRIALES, GESAM LA NEGRA</t>
         </is>
       </c>
       <c r="C334" t="inlineStr">
@@ -16375,11 +16375,11 @@
       </c>
       <c r="E334" t="inlineStr">
         <is>
-          <t>Andes Solar SPA</t>
+          <t>VEOLIA SERVICIOS MINEROS INTEGRALES CHILE SpA</t>
         </is>
       </c>
       <c r="F334" t="n">
-        <v>572000</v>
+        <v>360</v>
       </c>
       <c r="G334" t="inlineStr">
         <is>
@@ -16388,12 +16388,12 @@
       </c>
       <c r="H334" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Caducado</t>
         </is>
       </c>
       <c r="I334" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6581267&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6595234&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J334" t="inlineStr">
@@ -16552,7 +16552,7 @@
       </c>
       <c r="B338" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos</t>
+          <t>MODIFICACION DE LA DECLARACIÓN DE IMPACTO AMBIENTAL PROYECTO TRANSPORTE DE SULFHIDRATO DE SODIO EN LA PRIMERA Y SEGUNDA REGION</t>
         </is>
       </c>
       <c r="C338" t="inlineStr">
@@ -16567,11 +16567,11 @@
       </c>
       <c r="E338" t="inlineStr">
         <is>
-          <t>Transportes TMS Limitada</t>
+          <t>Sociedad de Transportes Camaro Ltda.</t>
         </is>
       </c>
       <c r="F338" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="G338" t="inlineStr">
         <is>
@@ -16585,7 +16585,7 @@
       </c>
       <c r="I338" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6479568&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6450945&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J338" t="inlineStr">
@@ -16600,7 +16600,7 @@
       </c>
       <c r="B339" t="inlineStr">
         <is>
-          <t>MODIFICACION DE LA DECLARACIÓN DE IMPACTO AMBIENTAL PROYECTO TRANSPORTE DE SULFHIDRATO DE SODIO EN LA PRIMERA Y SEGUNDA REGION</t>
+          <t>Transporte de Residuos Peligrosos</t>
         </is>
       </c>
       <c r="C339" t="inlineStr">
@@ -16615,11 +16615,11 @@
       </c>
       <c r="E339" t="inlineStr">
         <is>
-          <t>Sociedad de Transportes Camaro Ltda.</t>
+          <t>Transportes TMS Limitada</t>
         </is>
       </c>
       <c r="F339" t="n">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="G339" t="inlineStr">
         <is>
@@ -16633,7 +16633,7 @@
       </c>
       <c r="I339" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6450945&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6479568&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J339" t="inlineStr">
@@ -17224,7 +17224,7 @@
       </c>
       <c r="B352" t="inlineStr">
         <is>
-          <t>Modificación Proyecto Transporte de Acido Sulfurico a granel entre la Primera y Décima Regiones de Chile</t>
+          <t>Extracción de Áridos Empréstito E17L</t>
         </is>
       </c>
       <c r="C352" t="inlineStr">
@@ -17234,16 +17234,16 @@
       </c>
       <c r="D352" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E352" t="inlineStr">
         <is>
-          <t>Transportes Herrmann Limitada</t>
+          <t>Skanska Chile S.A.</t>
         </is>
       </c>
       <c r="F352" t="n">
-        <v>0</v>
+        <v>500</v>
       </c>
       <c r="G352" t="inlineStr">
         <is>
@@ -17252,12 +17252,12 @@
       </c>
       <c r="H352" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I352" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6159602&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6156264&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J352" t="inlineStr">
@@ -17272,7 +17272,7 @@
       </c>
       <c r="B353" t="inlineStr">
         <is>
-          <t>Extracción de Áridos Empréstito E17L</t>
+          <t>Modificación Proyecto Transporte de Acido Sulfurico a granel entre la Primera y Décima Regiones de Chile</t>
         </is>
       </c>
       <c r="C353" t="inlineStr">
@@ -17282,16 +17282,16 @@
       </c>
       <c r="D353" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E353" t="inlineStr">
         <is>
-          <t>Skanska Chile S.A.</t>
+          <t>Transportes Herrmann Limitada</t>
         </is>
       </c>
       <c r="F353" t="n">
-        <v>500</v>
+        <v>0</v>
       </c>
       <c r="G353" t="inlineStr">
         <is>
@@ -17300,12 +17300,12 @@
       </c>
       <c r="H353" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I353" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6156264&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6159602&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J353" t="inlineStr">
@@ -17464,7 +17464,7 @@
       </c>
       <c r="B357" t="inlineStr">
         <is>
-          <t>Proyecto Optimización de Emplazamiento de Instalaciones en Minera Escondida</t>
+          <t>Extracción de Áridos Empréstito E-63</t>
         </is>
       </c>
       <c r="C357" t="inlineStr">
@@ -17479,11 +17479,11 @@
       </c>
       <c r="E357" t="inlineStr">
         <is>
-          <t>MINERA ESCONDIDA LIMITADA</t>
+          <t>Skanska Chile S.A.</t>
         </is>
       </c>
       <c r="F357" t="n">
-        <v>120000</v>
+        <v>500</v>
       </c>
       <c r="G357" t="inlineStr">
         <is>
@@ -17497,7 +17497,7 @@
       </c>
       <c r="I357" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6080052&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6092873&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J357" t="inlineStr">
@@ -17512,7 +17512,7 @@
       </c>
       <c r="B358" t="inlineStr">
         <is>
-          <t>Extracción de Áridos Empréstito E-63</t>
+          <t>Proyecto Optimización de Emplazamiento de Instalaciones en Minera Escondida</t>
         </is>
       </c>
       <c r="C358" t="inlineStr">
@@ -17527,11 +17527,11 @@
       </c>
       <c r="E358" t="inlineStr">
         <is>
-          <t>Skanska Chile S.A.</t>
+          <t>MINERA ESCONDIDA LIMITADA</t>
         </is>
       </c>
       <c r="F358" t="n">
-        <v>500</v>
+        <v>120000</v>
       </c>
       <c r="G358" t="inlineStr">
         <is>
@@ -17545,7 +17545,7 @@
       </c>
       <c r="I358" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6092873&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6080052&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J358" t="inlineStr">
@@ -17752,7 +17752,7 @@
       </c>
       <c r="B363" t="inlineStr">
         <is>
-          <t>Nuevas Instalaciones para Mantención Mina</t>
+          <t>Transporte de Residuos Peligrosos</t>
         </is>
       </c>
       <c r="C363" t="inlineStr">
@@ -17762,16 +17762,16 @@
       </c>
       <c r="D363" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E363" t="inlineStr">
         <is>
-          <t>MINERA ESCONDIDA LIMITADA</t>
+          <t>Transportes TMS Limitada</t>
         </is>
       </c>
       <c r="F363" t="n">
-        <v>635000</v>
+        <v>200</v>
       </c>
       <c r="G363" t="inlineStr">
         <is>
@@ -17780,12 +17780,12 @@
       </c>
       <c r="H363" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I363" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5931343&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6003582&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J363" t="inlineStr">
@@ -17800,7 +17800,7 @@
       </c>
       <c r="B364" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos</t>
+          <t>Transporte de Sustancias Peligrosas entre la I, II y III Regiones"</t>
         </is>
       </c>
       <c r="C364" t="inlineStr">
@@ -17815,11 +17815,11 @@
       </c>
       <c r="E364" t="inlineStr">
         <is>
-          <t>Transportes TMS Limitada</t>
+          <t>Molina Quimicos S.A.</t>
         </is>
       </c>
       <c r="F364" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="G364" t="inlineStr">
         <is>
@@ -17833,7 +17833,7 @@
       </c>
       <c r="I364" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6003582&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6003607&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J364" t="inlineStr">
@@ -17848,7 +17848,7 @@
       </c>
       <c r="B365" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas entre la I, II y III Regiones"</t>
+          <t>Nuevas Instalaciones para Mantención Mina</t>
         </is>
       </c>
       <c r="C365" t="inlineStr">
@@ -17858,16 +17858,16 @@
       </c>
       <c r="D365" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E365" t="inlineStr">
         <is>
-          <t>Molina Quimicos S.A.</t>
+          <t>MINERA ESCONDIDA LIMITADA</t>
         </is>
       </c>
       <c r="F365" t="n">
-        <v>100</v>
+        <v>635000</v>
       </c>
       <c r="G365" t="inlineStr">
         <is>
@@ -17876,12 +17876,12 @@
       </c>
       <c r="H365" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I365" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6003607&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5931343&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J365" t="inlineStr">
@@ -20104,7 +20104,7 @@
       </c>
       <c r="B412" t="inlineStr">
         <is>
-          <t>II MODIFICACIÓN DIA "TRANSPORTE Y MANEJO IN SITU DE RESIDUOS SÓLIDOS Y LÍQUIDOS PELIGROSOS Y NO PELIGROSOS"</t>
+          <t>"Transporte de acido sulfurico concentrado para minera Las Cenizas, Taltal."</t>
         </is>
       </c>
       <c r="C412" t="inlineStr">
@@ -20114,16 +20114,16 @@
       </c>
       <c r="D412" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E412" t="inlineStr">
         <is>
-          <t>Mol Ambiente S.A.</t>
+          <t>Translog S.A.</t>
         </is>
       </c>
       <c r="F412" t="n">
-        <v>75000</v>
+        <v>600</v>
       </c>
       <c r="G412" t="inlineStr">
         <is>
@@ -20132,12 +20132,12 @@
       </c>
       <c r="H412" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I412" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5118945&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5114868&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J412" t="inlineStr">
@@ -20152,7 +20152,7 @@
       </c>
       <c r="B413" t="inlineStr">
         <is>
-          <t>"Transporte de acido sulfurico concentrado para minera Las Cenizas, Taltal."</t>
+          <t>II MODIFICACIÓN DIA "TRANSPORTE Y MANEJO IN SITU DE RESIDUOS SÓLIDOS Y LÍQUIDOS PELIGROSOS Y NO PELIGROSOS"</t>
         </is>
       </c>
       <c r="C413" t="inlineStr">
@@ -20162,16 +20162,16 @@
       </c>
       <c r="D413" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E413" t="inlineStr">
         <is>
-          <t>Translog S.A.</t>
+          <t>Mol Ambiente S.A.</t>
         </is>
       </c>
       <c r="F413" t="n">
-        <v>600</v>
+        <v>75000</v>
       </c>
       <c r="G413" t="inlineStr">
         <is>
@@ -20180,12 +20180,12 @@
       </c>
       <c r="H413" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I413" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5114868&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5118945&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J413" t="inlineStr">
@@ -21640,7 +21640,7 @@
       </c>
       <c r="B444" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE RESIDUOS PELIGROSOS POR RUTAS DE LA REGIÓN DE ANTOFAGASTA</t>
+          <t>Proyecto Laboratorios Químicos CIMM T&amp;S SA. La Negra</t>
         </is>
       </c>
       <c r="C444" t="inlineStr">
@@ -21655,11 +21655,11 @@
       </c>
       <c r="E444" t="inlineStr">
         <is>
-          <t>Limfosep S.A</t>
+          <t>Yancko Gonzalez Rozas</t>
         </is>
       </c>
       <c r="F444" t="n">
-        <v>1000</v>
+        <v>8000</v>
       </c>
       <c r="G444" t="inlineStr">
         <is>
@@ -21668,12 +21668,12 @@
       </c>
       <c r="H444" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I444" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4698232&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4670031&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J444" t="inlineStr">
@@ -21688,7 +21688,7 @@
       </c>
       <c r="B445" t="inlineStr">
         <is>
-          <t>Proyecto Laboratorios Químicos CIMM T&amp;S SA. La Negra</t>
+          <t>TRANSPORTE DE RESIDUOS PELIGROSOS POR RUTAS DE LA REGIÓN DE ANTOFAGASTA</t>
         </is>
       </c>
       <c r="C445" t="inlineStr">
@@ -21703,11 +21703,11 @@
       </c>
       <c r="E445" t="inlineStr">
         <is>
-          <t>Yancko Gonzalez Rozas</t>
+          <t>Limfosep S.A</t>
         </is>
       </c>
       <c r="F445" t="n">
-        <v>8000</v>
+        <v>1000</v>
       </c>
       <c r="G445" t="inlineStr">
         <is>
@@ -21716,12 +21716,12 @@
       </c>
       <c r="H445" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I445" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4670031&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4698232&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J445" t="inlineStr">
@@ -22120,7 +22120,7 @@
       </c>
       <c r="B454" t="inlineStr">
         <is>
-          <t>EXPANSION DEPOSITO DE RELAVES FILTRADOS FAENA EL PEÑÓN</t>
+          <t>Nuevo Transporte Interregional de Cianuro de Sodio</t>
         </is>
       </c>
       <c r="C454" t="inlineStr">
@@ -22130,16 +22130,16 @@
       </c>
       <c r="D454" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E454" t="inlineStr">
         <is>
-          <t>Minera Meridian Limitada</t>
+          <t>OXIQUIM S.A.</t>
         </is>
       </c>
       <c r="F454" t="n">
-        <v>688</v>
+        <v>85</v>
       </c>
       <c r="G454" t="inlineStr">
         <is>
@@ -22148,12 +22148,12 @@
       </c>
       <c r="H454" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I454" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4601640&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4594007&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J454" t="inlineStr">
@@ -22168,7 +22168,7 @@
       </c>
       <c r="B455" t="inlineStr">
         <is>
-          <t>Nuevo Transporte Interregional de Cianuro de Sodio</t>
+          <t>EXPANSION DEPOSITO DE RELAVES FILTRADOS FAENA EL PEÑÓN</t>
         </is>
       </c>
       <c r="C455" t="inlineStr">
@@ -22178,16 +22178,16 @@
       </c>
       <c r="D455" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E455" t="inlineStr">
         <is>
-          <t>OXIQUIM S.A.</t>
+          <t>Minera Meridian Limitada</t>
         </is>
       </c>
       <c r="F455" t="n">
-        <v>85</v>
+        <v>688</v>
       </c>
       <c r="G455" t="inlineStr">
         <is>
@@ -22196,12 +22196,12 @@
       </c>
       <c r="H455" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I455" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4594007&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4601640&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J455" t="inlineStr">
@@ -22936,7 +22936,7 @@
       </c>
       <c r="B471" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligroso, Transporte Bello</t>
+          <t>Transporte de Barros Anódicos</t>
         </is>
       </c>
       <c r="C471" t="inlineStr">
@@ -22951,11 +22951,11 @@
       </c>
       <c r="E471" t="inlineStr">
         <is>
-          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
+          <t>CODELCO CHILE</t>
         </is>
       </c>
       <c r="F471" t="n">
-        <v>4050</v>
+        <v>0</v>
       </c>
       <c r="G471" t="inlineStr">
         <is>
@@ -22969,7 +22969,7 @@
       </c>
       <c r="I471" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4455518&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4429880&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J471" t="inlineStr">
@@ -22984,7 +22984,7 @@
       </c>
       <c r="B472" t="inlineStr">
         <is>
-          <t>Transporte de Barros Anódicos</t>
+          <t>Transporte de Residuos Peligroso, Transporte Bello</t>
         </is>
       </c>
       <c r="C472" t="inlineStr">
@@ -22999,11 +22999,11 @@
       </c>
       <c r="E472" t="inlineStr">
         <is>
-          <t>CODELCO CHILE</t>
+          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
         </is>
       </c>
       <c r="F472" t="n">
-        <v>0</v>
+        <v>4050</v>
       </c>
       <c r="G472" t="inlineStr">
         <is>
@@ -23017,7 +23017,7 @@
       </c>
       <c r="I472" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4429880&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4455518&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J472" t="inlineStr">
@@ -23128,7 +23128,7 @@
       </c>
       <c r="B475" t="inlineStr">
         <is>
-          <t>Modificacion Proyecto Minero Algorta Sector Pampa</t>
+          <t>Transporte y Almacenamiento temporal de Residuos Peligrosos M&amp;M ltda.</t>
         </is>
       </c>
       <c r="C475" t="inlineStr">
@@ -23138,16 +23138,16 @@
       </c>
       <c r="D475" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E475" t="inlineStr">
         <is>
-          <t>Algorta Norte S.A</t>
+          <t>Transportes Moscoso y Moscoso Ltda.</t>
         </is>
       </c>
       <c r="F475" t="n">
-        <v>6400</v>
+        <v>41075</v>
       </c>
       <c r="G475" t="inlineStr">
         <is>
@@ -23161,7 +23161,7 @@
       </c>
       <c r="I475" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4432700&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4422237&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J475" t="inlineStr">
@@ -23176,7 +23176,7 @@
       </c>
       <c r="B476" t="inlineStr">
         <is>
-          <t>Transporte y Almacenamiento temporal de Residuos Peligrosos M&amp;M ltda.</t>
+          <t>Modificacion Proyecto Minero Algorta Sector Pampa</t>
         </is>
       </c>
       <c r="C476" t="inlineStr">
@@ -23186,16 +23186,16 @@
       </c>
       <c r="D476" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E476" t="inlineStr">
         <is>
-          <t>Transportes Moscoso y Moscoso Ltda.</t>
+          <t>Algorta Norte S.A</t>
         </is>
       </c>
       <c r="F476" t="n">
-        <v>41075</v>
+        <v>6400</v>
       </c>
       <c r="G476" t="inlineStr">
         <is>
@@ -23209,7 +23209,7 @@
       </c>
       <c r="I476" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4422237&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4432700&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J476" t="inlineStr">

--- a/data/Antofagasta.xlsx
+++ b/data/Antofagasta.xlsx
@@ -1412,7 +1412,7 @@
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>En Calificación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I22" t="inlineStr">

--- a/data/Antofagasta.xlsx
+++ b/data/Antofagasta.xlsx
@@ -11800,7 +11800,7 @@
       </c>
       <c r="B239" t="inlineStr">
         <is>
-          <t>Transporte Interregional de Sustancias Peligrosas - AGREDUCAM VI Región</t>
+          <t>Planta de Fabricación de Tuberías PEX (polietileno reticulado)</t>
         </is>
       </c>
       <c r="C239" t="inlineStr">
@@ -11810,16 +11810,16 @@
       </c>
       <c r="D239" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E239" t="inlineStr">
         <is>
-          <t>Asociación Gremial de Dueños de Camiones de la Sexta Región</t>
+          <t>CROSSPIPE SYSTEMS S.A.</t>
         </is>
       </c>
       <c r="F239" t="n">
-        <v>1200</v>
+        <v>12400</v>
       </c>
       <c r="G239" t="inlineStr">
         <is>
@@ -11833,7 +11833,7 @@
       </c>
       <c r="I239" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128964620&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128954293&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J239" t="inlineStr">
@@ -11848,7 +11848,7 @@
       </c>
       <c r="B240" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos por las Rutas Indicadas</t>
+          <t>Transporte Interregional de Sustancias Peligrosas - AGREDUCAM VI Región</t>
         </is>
       </c>
       <c r="C240" t="inlineStr">
@@ -11863,11 +11863,11 @@
       </c>
       <c r="E240" t="inlineStr">
         <is>
-          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
+          <t>Asociación Gremial de Dueños de Camiones de la Sexta Región</t>
         </is>
       </c>
       <c r="F240" t="n">
-        <v>0</v>
+        <v>1200</v>
       </c>
       <c r="G240" t="inlineStr">
         <is>
@@ -11881,7 +11881,7 @@
       </c>
       <c r="I240" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128972489&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128964620&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J240" t="inlineStr">
@@ -11896,7 +11896,7 @@
       </c>
       <c r="B241" t="inlineStr">
         <is>
-          <t>Planta de Fabricación de Tuberías PEX (polietileno reticulado)</t>
+          <t>Transporte de Residuos Peligrosos por las Rutas Indicadas</t>
         </is>
       </c>
       <c r="C241" t="inlineStr">
@@ -11906,16 +11906,16 @@
       </c>
       <c r="D241" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E241" t="inlineStr">
         <is>
-          <t>CROSSPIPE SYSTEMS S.A.</t>
+          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
         </is>
       </c>
       <c r="F241" t="n">
-        <v>12400</v>
+        <v>0</v>
       </c>
       <c r="G241" t="inlineStr">
         <is>
@@ -11929,7 +11929,7 @@
       </c>
       <c r="I241" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128954293&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128972489&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J241" t="inlineStr">
@@ -13528,26 +13528,26 @@
       </c>
       <c r="B275" t="inlineStr">
         <is>
-          <t>RT Sulfuros</t>
+          <t>Transporte de Sustancias Peligrosas Transaltisa Chile Ltda</t>
         </is>
       </c>
       <c r="C275" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D275" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E275" t="inlineStr">
         <is>
-          <t>CODELCO Chile, División Radomiro Tomic</t>
+          <t>Transaltisa Chile Ltda.</t>
         </is>
       </c>
       <c r="F275" t="n">
-        <v>5.4</v>
+        <v>2050</v>
       </c>
       <c r="G275" t="inlineStr">
         <is>
@@ -13556,12 +13556,12 @@
       </c>
       <c r="H275" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I275" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8210090&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8218613&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J275" t="inlineStr">
@@ -13576,26 +13576,26 @@
       </c>
       <c r="B276" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas Transaltisa Chile Ltda</t>
+          <t>RT Sulfuros</t>
         </is>
       </c>
       <c r="C276" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D276" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E276" t="inlineStr">
         <is>
-          <t>Transaltisa Chile Ltda.</t>
+          <t>CODELCO Chile, División Radomiro Tomic</t>
         </is>
       </c>
       <c r="F276" t="n">
-        <v>2050</v>
+        <v>5.4</v>
       </c>
       <c r="G276" t="inlineStr">
         <is>
@@ -13604,12 +13604,12 @@
       </c>
       <c r="H276" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I276" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8218613&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8210090&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J276" t="inlineStr">
@@ -16264,7 +16264,7 @@
       </c>
       <c r="B332" t="inlineStr">
         <is>
-          <t>Parque Fotovoltaico Los Andes</t>
+          <t>CENTRO DE RECUPERACIÓN DE TAMBORES Y CONTENEDORES IBC CONTAMINADOS, PLAMBIENTAL LA NEGRA</t>
         </is>
       </c>
       <c r="C332" t="inlineStr">
@@ -16279,11 +16279,11 @@
       </c>
       <c r="E332" t="inlineStr">
         <is>
-          <t>Andes Solar SPA</t>
+          <t>VEOLIA SERVICIOS MINEROS INTEGRALES CHILE SpA</t>
         </is>
       </c>
       <c r="F332" t="n">
-        <v>572000</v>
+        <v>60</v>
       </c>
       <c r="G332" t="inlineStr">
         <is>
@@ -16292,12 +16292,12 @@
       </c>
       <c r="H332" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Caducado</t>
         </is>
       </c>
       <c r="I332" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6581267&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6592870&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J332" t="inlineStr">
@@ -16312,7 +16312,7 @@
       </c>
       <c r="B333" t="inlineStr">
         <is>
-          <t>CENTRO DE RECUPERACIÓN DE TAMBORES Y CONTENEDORES IBC CONTAMINADOS, PLAMBIENTAL LA NEGRA</t>
+          <t>CENTRO DE ALMACENAMIENTO DE RESIDUOS INDUSTRIALES, GESAM LA NEGRA</t>
         </is>
       </c>
       <c r="C333" t="inlineStr">
@@ -16331,7 +16331,7 @@
         </is>
       </c>
       <c r="F333" t="n">
-        <v>60</v>
+        <v>360</v>
       </c>
       <c r="G333" t="inlineStr">
         <is>
@@ -16345,7 +16345,7 @@
       </c>
       <c r="I333" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6592870&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6595234&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J333" t="inlineStr">
@@ -16360,7 +16360,7 @@
       </c>
       <c r="B334" t="inlineStr">
         <is>
-          <t>CENTRO DE ALMACENAMIENTO DE RESIDUOS INDUSTRIALES, GESAM LA NEGRA</t>
+          <t>Parque Fotovoltaico Los Andes</t>
         </is>
       </c>
       <c r="C334" t="inlineStr">
@@ -16375,11 +16375,11 @@
       </c>
       <c r="E334" t="inlineStr">
         <is>
-          <t>VEOLIA SERVICIOS MINEROS INTEGRALES CHILE SpA</t>
+          <t>Andes Solar SPA</t>
         </is>
       </c>
       <c r="F334" t="n">
-        <v>360</v>
+        <v>572000</v>
       </c>
       <c r="G334" t="inlineStr">
         <is>
@@ -16388,12 +16388,12 @@
       </c>
       <c r="H334" t="inlineStr">
         <is>
-          <t>Caducado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I334" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6595234&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6581267&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J334" t="inlineStr">
@@ -16552,7 +16552,7 @@
       </c>
       <c r="B338" t="inlineStr">
         <is>
-          <t>MODIFICACION DE LA DECLARACIÓN DE IMPACTO AMBIENTAL PROYECTO TRANSPORTE DE SULFHIDRATO DE SODIO EN LA PRIMERA Y SEGUNDA REGION</t>
+          <t>Transporte de Residuos Peligrosos</t>
         </is>
       </c>
       <c r="C338" t="inlineStr">
@@ -16567,11 +16567,11 @@
       </c>
       <c r="E338" t="inlineStr">
         <is>
-          <t>Sociedad de Transportes Camaro Ltda.</t>
+          <t>Transportes TMS Limitada</t>
         </is>
       </c>
       <c r="F338" t="n">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="G338" t="inlineStr">
         <is>
@@ -16585,7 +16585,7 @@
       </c>
       <c r="I338" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6450945&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6479568&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J338" t="inlineStr">
@@ -16600,7 +16600,7 @@
       </c>
       <c r="B339" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos</t>
+          <t>MODIFICACION DE LA DECLARACIÓN DE IMPACTO AMBIENTAL PROYECTO TRANSPORTE DE SULFHIDRATO DE SODIO EN LA PRIMERA Y SEGUNDA REGION</t>
         </is>
       </c>
       <c r="C339" t="inlineStr">
@@ -16615,11 +16615,11 @@
       </c>
       <c r="E339" t="inlineStr">
         <is>
-          <t>Transportes TMS Limitada</t>
+          <t>Sociedad de Transportes Camaro Ltda.</t>
         </is>
       </c>
       <c r="F339" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="G339" t="inlineStr">
         <is>
@@ -16633,7 +16633,7 @@
       </c>
       <c r="I339" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6479568&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6450945&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J339" t="inlineStr">
@@ -17224,7 +17224,7 @@
       </c>
       <c r="B352" t="inlineStr">
         <is>
-          <t>Extracción de Áridos Empréstito E17L</t>
+          <t>Modificación Proyecto Transporte de Acido Sulfurico a granel entre la Primera y Décima Regiones de Chile</t>
         </is>
       </c>
       <c r="C352" t="inlineStr">
@@ -17234,16 +17234,16 @@
       </c>
       <c r="D352" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E352" t="inlineStr">
         <is>
-          <t>Skanska Chile S.A.</t>
+          <t>Transportes Herrmann Limitada</t>
         </is>
       </c>
       <c r="F352" t="n">
-        <v>500</v>
+        <v>0</v>
       </c>
       <c r="G352" t="inlineStr">
         <is>
@@ -17252,12 +17252,12 @@
       </c>
       <c r="H352" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I352" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6156264&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6159602&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J352" t="inlineStr">
@@ -17272,7 +17272,7 @@
       </c>
       <c r="B353" t="inlineStr">
         <is>
-          <t>Modificación Proyecto Transporte de Acido Sulfurico a granel entre la Primera y Décima Regiones de Chile</t>
+          <t>Extracción de Áridos Empréstito E17L</t>
         </is>
       </c>
       <c r="C353" t="inlineStr">
@@ -17282,16 +17282,16 @@
       </c>
       <c r="D353" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E353" t="inlineStr">
         <is>
-          <t>Transportes Herrmann Limitada</t>
+          <t>Skanska Chile S.A.</t>
         </is>
       </c>
       <c r="F353" t="n">
-        <v>0</v>
+        <v>500</v>
       </c>
       <c r="G353" t="inlineStr">
         <is>
@@ -17300,12 +17300,12 @@
       </c>
       <c r="H353" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I353" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6159602&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6156264&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J353" t="inlineStr">
@@ -17752,7 +17752,7 @@
       </c>
       <c r="B363" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos</t>
+          <t>Nuevas Instalaciones para Mantención Mina</t>
         </is>
       </c>
       <c r="C363" t="inlineStr">
@@ -17762,16 +17762,16 @@
       </c>
       <c r="D363" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E363" t="inlineStr">
         <is>
-          <t>Transportes TMS Limitada</t>
+          <t>MINERA ESCONDIDA LIMITADA</t>
         </is>
       </c>
       <c r="F363" t="n">
-        <v>200</v>
+        <v>635000</v>
       </c>
       <c r="G363" t="inlineStr">
         <is>
@@ -17780,12 +17780,12 @@
       </c>
       <c r="H363" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I363" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6003582&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5931343&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J363" t="inlineStr">
@@ -17800,7 +17800,7 @@
       </c>
       <c r="B364" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas entre la I, II y III Regiones"</t>
+          <t>Transporte de Residuos Peligrosos</t>
         </is>
       </c>
       <c r="C364" t="inlineStr">
@@ -17815,11 +17815,11 @@
       </c>
       <c r="E364" t="inlineStr">
         <is>
-          <t>Molina Quimicos S.A.</t>
+          <t>Transportes TMS Limitada</t>
         </is>
       </c>
       <c r="F364" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="G364" t="inlineStr">
         <is>
@@ -17833,7 +17833,7 @@
       </c>
       <c r="I364" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6003607&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6003582&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J364" t="inlineStr">
@@ -17848,7 +17848,7 @@
       </c>
       <c r="B365" t="inlineStr">
         <is>
-          <t>Nuevas Instalaciones para Mantención Mina</t>
+          <t>Transporte de Sustancias Peligrosas entre la I, II y III Regiones"</t>
         </is>
       </c>
       <c r="C365" t="inlineStr">
@@ -17858,16 +17858,16 @@
       </c>
       <c r="D365" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E365" t="inlineStr">
         <is>
-          <t>MINERA ESCONDIDA LIMITADA</t>
+          <t>Molina Quimicos S.A.</t>
         </is>
       </c>
       <c r="F365" t="n">
-        <v>635000</v>
+        <v>100</v>
       </c>
       <c r="G365" t="inlineStr">
         <is>
@@ -17876,12 +17876,12 @@
       </c>
       <c r="H365" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I365" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5931343&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6003607&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J365" t="inlineStr">
@@ -20104,7 +20104,7 @@
       </c>
       <c r="B412" t="inlineStr">
         <is>
-          <t>"Transporte de acido sulfurico concentrado para minera Las Cenizas, Taltal."</t>
+          <t>II MODIFICACIÓN DIA "TRANSPORTE Y MANEJO IN SITU DE RESIDUOS SÓLIDOS Y LÍQUIDOS PELIGROSOS Y NO PELIGROSOS"</t>
         </is>
       </c>
       <c r="C412" t="inlineStr">
@@ -20114,16 +20114,16 @@
       </c>
       <c r="D412" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E412" t="inlineStr">
         <is>
-          <t>Translog S.A.</t>
+          <t>Mol Ambiente S.A.</t>
         </is>
       </c>
       <c r="F412" t="n">
-        <v>600</v>
+        <v>75000</v>
       </c>
       <c r="G412" t="inlineStr">
         <is>
@@ -20132,12 +20132,12 @@
       </c>
       <c r="H412" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I412" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5114868&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5118945&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J412" t="inlineStr">
@@ -20152,7 +20152,7 @@
       </c>
       <c r="B413" t="inlineStr">
         <is>
-          <t>II MODIFICACIÓN DIA "TRANSPORTE Y MANEJO IN SITU DE RESIDUOS SÓLIDOS Y LÍQUIDOS PELIGROSOS Y NO PELIGROSOS"</t>
+          <t>"Transporte de acido sulfurico concentrado para minera Las Cenizas, Taltal."</t>
         </is>
       </c>
       <c r="C413" t="inlineStr">
@@ -20162,16 +20162,16 @@
       </c>
       <c r="D413" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E413" t="inlineStr">
         <is>
-          <t>Mol Ambiente S.A.</t>
+          <t>Translog S.A.</t>
         </is>
       </c>
       <c r="F413" t="n">
-        <v>75000</v>
+        <v>600</v>
       </c>
       <c r="G413" t="inlineStr">
         <is>
@@ -20180,12 +20180,12 @@
       </c>
       <c r="H413" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I413" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5118945&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5114868&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J413" t="inlineStr">
@@ -21640,7 +21640,7 @@
       </c>
       <c r="B444" t="inlineStr">
         <is>
-          <t>Proyecto Laboratorios Químicos CIMM T&amp;S SA. La Negra</t>
+          <t>TRANSPORTE DE RESIDUOS PELIGROSOS POR RUTAS DE LA REGIÓN DE ANTOFAGASTA</t>
         </is>
       </c>
       <c r="C444" t="inlineStr">
@@ -21655,11 +21655,11 @@
       </c>
       <c r="E444" t="inlineStr">
         <is>
-          <t>Yancko Gonzalez Rozas</t>
+          <t>Limfosep S.A</t>
         </is>
       </c>
       <c r="F444" t="n">
-        <v>8000</v>
+        <v>1000</v>
       </c>
       <c r="G444" t="inlineStr">
         <is>
@@ -21668,12 +21668,12 @@
       </c>
       <c r="H444" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I444" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4670031&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4698232&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J444" t="inlineStr">
@@ -21688,7 +21688,7 @@
       </c>
       <c r="B445" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE RESIDUOS PELIGROSOS POR RUTAS DE LA REGIÓN DE ANTOFAGASTA</t>
+          <t>Proyecto Laboratorios Químicos CIMM T&amp;S SA. La Negra</t>
         </is>
       </c>
       <c r="C445" t="inlineStr">
@@ -21703,11 +21703,11 @@
       </c>
       <c r="E445" t="inlineStr">
         <is>
-          <t>Limfosep S.A</t>
+          <t>Yancko Gonzalez Rozas</t>
         </is>
       </c>
       <c r="F445" t="n">
-        <v>1000</v>
+        <v>8000</v>
       </c>
       <c r="G445" t="inlineStr">
         <is>
@@ -21716,12 +21716,12 @@
       </c>
       <c r="H445" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I445" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4698232&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4670031&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J445" t="inlineStr">
@@ -22120,7 +22120,7 @@
       </c>
       <c r="B454" t="inlineStr">
         <is>
-          <t>Nuevo Transporte Interregional de Cianuro de Sodio</t>
+          <t>EXPANSION DEPOSITO DE RELAVES FILTRADOS FAENA EL PEÑÓN</t>
         </is>
       </c>
       <c r="C454" t="inlineStr">
@@ -22130,16 +22130,16 @@
       </c>
       <c r="D454" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E454" t="inlineStr">
         <is>
-          <t>OXIQUIM S.A.</t>
+          <t>Minera Meridian Limitada</t>
         </is>
       </c>
       <c r="F454" t="n">
-        <v>85</v>
+        <v>688</v>
       </c>
       <c r="G454" t="inlineStr">
         <is>
@@ -22148,12 +22148,12 @@
       </c>
       <c r="H454" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I454" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4594007&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4601640&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J454" t="inlineStr">
@@ -22168,7 +22168,7 @@
       </c>
       <c r="B455" t="inlineStr">
         <is>
-          <t>EXPANSION DEPOSITO DE RELAVES FILTRADOS FAENA EL PEÑÓN</t>
+          <t>Nuevo Transporte Interregional de Cianuro de Sodio</t>
         </is>
       </c>
       <c r="C455" t="inlineStr">
@@ -22178,16 +22178,16 @@
       </c>
       <c r="D455" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E455" t="inlineStr">
         <is>
-          <t>Minera Meridian Limitada</t>
+          <t>OXIQUIM S.A.</t>
         </is>
       </c>
       <c r="F455" t="n">
-        <v>688</v>
+        <v>85</v>
       </c>
       <c r="G455" t="inlineStr">
         <is>
@@ -22196,12 +22196,12 @@
       </c>
       <c r="H455" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I455" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4601640&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4594007&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J455" t="inlineStr">
@@ -22936,7 +22936,7 @@
       </c>
       <c r="B471" t="inlineStr">
         <is>
-          <t>Transporte de Barros Anódicos</t>
+          <t>Transporte de Residuos Peligroso, Transporte Bello</t>
         </is>
       </c>
       <c r="C471" t="inlineStr">
@@ -22951,11 +22951,11 @@
       </c>
       <c r="E471" t="inlineStr">
         <is>
-          <t>CODELCO CHILE</t>
+          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
         </is>
       </c>
       <c r="F471" t="n">
-        <v>0</v>
+        <v>4050</v>
       </c>
       <c r="G471" t="inlineStr">
         <is>
@@ -22969,7 +22969,7 @@
       </c>
       <c r="I471" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4429880&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4455518&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J471" t="inlineStr">
@@ -22984,7 +22984,7 @@
       </c>
       <c r="B472" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligroso, Transporte Bello</t>
+          <t>Transporte de Barros Anódicos</t>
         </is>
       </c>
       <c r="C472" t="inlineStr">
@@ -22999,11 +22999,11 @@
       </c>
       <c r="E472" t="inlineStr">
         <is>
-          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
+          <t>CODELCO CHILE</t>
         </is>
       </c>
       <c r="F472" t="n">
-        <v>4050</v>
+        <v>0</v>
       </c>
       <c r="G472" t="inlineStr">
         <is>
@@ -23017,7 +23017,7 @@
       </c>
       <c r="I472" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4455518&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4429880&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J472" t="inlineStr">
@@ -23128,7 +23128,7 @@
       </c>
       <c r="B475" t="inlineStr">
         <is>
-          <t>Transporte y Almacenamiento temporal de Residuos Peligrosos M&amp;M ltda.</t>
+          <t>Modificacion Proyecto Minero Algorta Sector Pampa</t>
         </is>
       </c>
       <c r="C475" t="inlineStr">
@@ -23138,16 +23138,16 @@
       </c>
       <c r="D475" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E475" t="inlineStr">
         <is>
-          <t>Transportes Moscoso y Moscoso Ltda.</t>
+          <t>Algorta Norte S.A</t>
         </is>
       </c>
       <c r="F475" t="n">
-        <v>41075</v>
+        <v>6400</v>
       </c>
       <c r="G475" t="inlineStr">
         <is>
@@ -23161,7 +23161,7 @@
       </c>
       <c r="I475" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4422237&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4432700&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J475" t="inlineStr">
@@ -23176,7 +23176,7 @@
       </c>
       <c r="B476" t="inlineStr">
         <is>
-          <t>Modificacion Proyecto Minero Algorta Sector Pampa</t>
+          <t>Transporte y Almacenamiento temporal de Residuos Peligrosos M&amp;M ltda.</t>
         </is>
       </c>
       <c r="C476" t="inlineStr">
@@ -23186,16 +23186,16 @@
       </c>
       <c r="D476" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E476" t="inlineStr">
         <is>
-          <t>Algorta Norte S.A</t>
+          <t>Transportes Moscoso y Moscoso Ltda.</t>
         </is>
       </c>
       <c r="F476" t="n">
-        <v>6400</v>
+        <v>41075</v>
       </c>
       <c r="G476" t="inlineStr">
         <is>
@@ -23209,7 +23209,7 @@
       </c>
       <c r="I476" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4432700&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4422237&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J476" t="inlineStr">

--- a/data/Antofagasta.xlsx
+++ b/data/Antofagasta.xlsx
@@ -11800,7 +11800,7 @@
       </c>
       <c r="B239" t="inlineStr">
         <is>
-          <t>Planta de Fabricación de Tuberías PEX (polietileno reticulado)</t>
+          <t>Transporte Interregional de Sustancias Peligrosas - AGREDUCAM VI Región</t>
         </is>
       </c>
       <c r="C239" t="inlineStr">
@@ -11810,16 +11810,16 @@
       </c>
       <c r="D239" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E239" t="inlineStr">
         <is>
-          <t>CROSSPIPE SYSTEMS S.A.</t>
+          <t>Asociación Gremial de Dueños de Camiones de la Sexta Región</t>
         </is>
       </c>
       <c r="F239" t="n">
-        <v>12400</v>
+        <v>1200</v>
       </c>
       <c r="G239" t="inlineStr">
         <is>
@@ -11833,7 +11833,7 @@
       </c>
       <c r="I239" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128954293&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128964620&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J239" t="inlineStr">
@@ -11848,7 +11848,7 @@
       </c>
       <c r="B240" t="inlineStr">
         <is>
-          <t>Transporte Interregional de Sustancias Peligrosas - AGREDUCAM VI Región</t>
+          <t>Transporte de Residuos Peligrosos por las Rutas Indicadas</t>
         </is>
       </c>
       <c r="C240" t="inlineStr">
@@ -11863,11 +11863,11 @@
       </c>
       <c r="E240" t="inlineStr">
         <is>
-          <t>Asociación Gremial de Dueños de Camiones de la Sexta Región</t>
+          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
         </is>
       </c>
       <c r="F240" t="n">
-        <v>1200</v>
+        <v>0</v>
       </c>
       <c r="G240" t="inlineStr">
         <is>
@@ -11881,7 +11881,7 @@
       </c>
       <c r="I240" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128964620&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128972489&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J240" t="inlineStr">
@@ -11896,7 +11896,7 @@
       </c>
       <c r="B241" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos por las Rutas Indicadas</t>
+          <t>Planta de Fabricación de Tuberías PEX (polietileno reticulado)</t>
         </is>
       </c>
       <c r="C241" t="inlineStr">
@@ -11906,16 +11906,16 @@
       </c>
       <c r="D241" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E241" t="inlineStr">
         <is>
-          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
+          <t>CROSSPIPE SYSTEMS S.A.</t>
         </is>
       </c>
       <c r="F241" t="n">
-        <v>0</v>
+        <v>12400</v>
       </c>
       <c r="G241" t="inlineStr">
         <is>
@@ -11929,7 +11929,7 @@
       </c>
       <c r="I241" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128972489&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128954293&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J241" t="inlineStr">
@@ -13528,26 +13528,26 @@
       </c>
       <c r="B275" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas Transaltisa Chile Ltda</t>
+          <t>RT Sulfuros</t>
         </is>
       </c>
       <c r="C275" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D275" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E275" t="inlineStr">
         <is>
-          <t>Transaltisa Chile Ltda.</t>
+          <t>CODELCO Chile, División Radomiro Tomic</t>
         </is>
       </c>
       <c r="F275" t="n">
-        <v>2050</v>
+        <v>5.4</v>
       </c>
       <c r="G275" t="inlineStr">
         <is>
@@ -13556,12 +13556,12 @@
       </c>
       <c r="H275" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I275" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8218613&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8210090&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J275" t="inlineStr">
@@ -13576,26 +13576,26 @@
       </c>
       <c r="B276" t="inlineStr">
         <is>
-          <t>RT Sulfuros</t>
+          <t>Transporte de Sustancias Peligrosas Transaltisa Chile Ltda</t>
         </is>
       </c>
       <c r="C276" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D276" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E276" t="inlineStr">
         <is>
-          <t>CODELCO Chile, División Radomiro Tomic</t>
+          <t>Transaltisa Chile Ltda.</t>
         </is>
       </c>
       <c r="F276" t="n">
-        <v>5.4</v>
+        <v>2050</v>
       </c>
       <c r="G276" t="inlineStr">
         <is>
@@ -13604,12 +13604,12 @@
       </c>
       <c r="H276" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I276" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8210090&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8218613&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J276" t="inlineStr">
@@ -16264,7 +16264,7 @@
       </c>
       <c r="B332" t="inlineStr">
         <is>
-          <t>CENTRO DE RECUPERACIÓN DE TAMBORES Y CONTENEDORES IBC CONTAMINADOS, PLAMBIENTAL LA NEGRA</t>
+          <t>Parque Fotovoltaico Los Andes</t>
         </is>
       </c>
       <c r="C332" t="inlineStr">
@@ -16279,11 +16279,11 @@
       </c>
       <c r="E332" t="inlineStr">
         <is>
-          <t>VEOLIA SERVICIOS MINEROS INTEGRALES CHILE SpA</t>
+          <t>Andes Solar SPA</t>
         </is>
       </c>
       <c r="F332" t="n">
-        <v>60</v>
+        <v>572000</v>
       </c>
       <c r="G332" t="inlineStr">
         <is>
@@ -16292,12 +16292,12 @@
       </c>
       <c r="H332" t="inlineStr">
         <is>
-          <t>Caducado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I332" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6592870&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6581267&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J332" t="inlineStr">
@@ -16312,7 +16312,7 @@
       </c>
       <c r="B333" t="inlineStr">
         <is>
-          <t>CENTRO DE ALMACENAMIENTO DE RESIDUOS INDUSTRIALES, GESAM LA NEGRA</t>
+          <t>CENTRO DE RECUPERACIÓN DE TAMBORES Y CONTENEDORES IBC CONTAMINADOS, PLAMBIENTAL LA NEGRA</t>
         </is>
       </c>
       <c r="C333" t="inlineStr">
@@ -16331,7 +16331,7 @@
         </is>
       </c>
       <c r="F333" t="n">
-        <v>360</v>
+        <v>60</v>
       </c>
       <c r="G333" t="inlineStr">
         <is>
@@ -16345,7 +16345,7 @@
       </c>
       <c r="I333" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6595234&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6592870&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J333" t="inlineStr">
@@ -16360,7 +16360,7 @@
       </c>
       <c r="B334" t="inlineStr">
         <is>
-          <t>Parque Fotovoltaico Los Andes</t>
+          <t>CENTRO DE ALMACENAMIENTO DE RESIDUOS INDUSTRIALES, GESAM LA NEGRA</t>
         </is>
       </c>
       <c r="C334" t="inlineStr">
@@ -16375,11 +16375,11 @@
       </c>
       <c r="E334" t="inlineStr">
         <is>
-          <t>Andes Solar SPA</t>
+          <t>VEOLIA SERVICIOS MINEROS INTEGRALES CHILE SpA</t>
         </is>
       </c>
       <c r="F334" t="n">
-        <v>572000</v>
+        <v>360</v>
       </c>
       <c r="G334" t="inlineStr">
         <is>
@@ -16388,12 +16388,12 @@
       </c>
       <c r="H334" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Caducado</t>
         </is>
       </c>
       <c r="I334" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6581267&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6595234&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J334" t="inlineStr">
@@ -16552,7 +16552,7 @@
       </c>
       <c r="B338" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos</t>
+          <t>MODIFICACION DE LA DECLARACIÓN DE IMPACTO AMBIENTAL PROYECTO TRANSPORTE DE SULFHIDRATO DE SODIO EN LA PRIMERA Y SEGUNDA REGION</t>
         </is>
       </c>
       <c r="C338" t="inlineStr">
@@ -16567,11 +16567,11 @@
       </c>
       <c r="E338" t="inlineStr">
         <is>
-          <t>Transportes TMS Limitada</t>
+          <t>Sociedad de Transportes Camaro Ltda.</t>
         </is>
       </c>
       <c r="F338" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="G338" t="inlineStr">
         <is>
@@ -16585,7 +16585,7 @@
       </c>
       <c r="I338" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6479568&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6450945&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J338" t="inlineStr">
@@ -16600,7 +16600,7 @@
       </c>
       <c r="B339" t="inlineStr">
         <is>
-          <t>MODIFICACION DE LA DECLARACIÓN DE IMPACTO AMBIENTAL PROYECTO TRANSPORTE DE SULFHIDRATO DE SODIO EN LA PRIMERA Y SEGUNDA REGION</t>
+          <t>Transporte de Residuos Peligrosos</t>
         </is>
       </c>
       <c r="C339" t="inlineStr">
@@ -16615,11 +16615,11 @@
       </c>
       <c r="E339" t="inlineStr">
         <is>
-          <t>Sociedad de Transportes Camaro Ltda.</t>
+          <t>Transportes TMS Limitada</t>
         </is>
       </c>
       <c r="F339" t="n">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="G339" t="inlineStr">
         <is>
@@ -16633,7 +16633,7 @@
       </c>
       <c r="I339" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6450945&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6479568&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J339" t="inlineStr">
@@ -17224,7 +17224,7 @@
       </c>
       <c r="B352" t="inlineStr">
         <is>
-          <t>Modificación Proyecto Transporte de Acido Sulfurico a granel entre la Primera y Décima Regiones de Chile</t>
+          <t>Extracción de Áridos Empréstito E17L</t>
         </is>
       </c>
       <c r="C352" t="inlineStr">
@@ -17234,16 +17234,16 @@
       </c>
       <c r="D352" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E352" t="inlineStr">
         <is>
-          <t>Transportes Herrmann Limitada</t>
+          <t>Skanska Chile S.A.</t>
         </is>
       </c>
       <c r="F352" t="n">
-        <v>0</v>
+        <v>500</v>
       </c>
       <c r="G352" t="inlineStr">
         <is>
@@ -17252,12 +17252,12 @@
       </c>
       <c r="H352" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I352" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6159602&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6156264&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J352" t="inlineStr">
@@ -17272,7 +17272,7 @@
       </c>
       <c r="B353" t="inlineStr">
         <is>
-          <t>Extracción de Áridos Empréstito E17L</t>
+          <t>Modificación Proyecto Transporte de Acido Sulfurico a granel entre la Primera y Décima Regiones de Chile</t>
         </is>
       </c>
       <c r="C353" t="inlineStr">
@@ -17282,16 +17282,16 @@
       </c>
       <c r="D353" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E353" t="inlineStr">
         <is>
-          <t>Skanska Chile S.A.</t>
+          <t>Transportes Herrmann Limitada</t>
         </is>
       </c>
       <c r="F353" t="n">
-        <v>500</v>
+        <v>0</v>
       </c>
       <c r="G353" t="inlineStr">
         <is>
@@ -17300,12 +17300,12 @@
       </c>
       <c r="H353" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I353" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6156264&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6159602&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J353" t="inlineStr">
@@ -17752,7 +17752,7 @@
       </c>
       <c r="B363" t="inlineStr">
         <is>
-          <t>Nuevas Instalaciones para Mantención Mina</t>
+          <t>Transporte de Residuos Peligrosos</t>
         </is>
       </c>
       <c r="C363" t="inlineStr">
@@ -17762,16 +17762,16 @@
       </c>
       <c r="D363" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E363" t="inlineStr">
         <is>
-          <t>MINERA ESCONDIDA LIMITADA</t>
+          <t>Transportes TMS Limitada</t>
         </is>
       </c>
       <c r="F363" t="n">
-        <v>635000</v>
+        <v>200</v>
       </c>
       <c r="G363" t="inlineStr">
         <is>
@@ -17780,12 +17780,12 @@
       </c>
       <c r="H363" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I363" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5931343&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6003582&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J363" t="inlineStr">
@@ -17800,7 +17800,7 @@
       </c>
       <c r="B364" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos</t>
+          <t>Transporte de Sustancias Peligrosas entre la I, II y III Regiones"</t>
         </is>
       </c>
       <c r="C364" t="inlineStr">
@@ -17815,11 +17815,11 @@
       </c>
       <c r="E364" t="inlineStr">
         <is>
-          <t>Transportes TMS Limitada</t>
+          <t>Molina Quimicos S.A.</t>
         </is>
       </c>
       <c r="F364" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="G364" t="inlineStr">
         <is>
@@ -17833,7 +17833,7 @@
       </c>
       <c r="I364" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6003582&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6003607&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J364" t="inlineStr">
@@ -17848,7 +17848,7 @@
       </c>
       <c r="B365" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas entre la I, II y III Regiones"</t>
+          <t>Nuevas Instalaciones para Mantención Mina</t>
         </is>
       </c>
       <c r="C365" t="inlineStr">
@@ -17858,16 +17858,16 @@
       </c>
       <c r="D365" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E365" t="inlineStr">
         <is>
-          <t>Molina Quimicos S.A.</t>
+          <t>MINERA ESCONDIDA LIMITADA</t>
         </is>
       </c>
       <c r="F365" t="n">
-        <v>100</v>
+        <v>635000</v>
       </c>
       <c r="G365" t="inlineStr">
         <is>
@@ -17876,12 +17876,12 @@
       </c>
       <c r="H365" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I365" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6003607&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5931343&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J365" t="inlineStr">
@@ -20104,7 +20104,7 @@
       </c>
       <c r="B412" t="inlineStr">
         <is>
-          <t>II MODIFICACIÓN DIA "TRANSPORTE Y MANEJO IN SITU DE RESIDUOS SÓLIDOS Y LÍQUIDOS PELIGROSOS Y NO PELIGROSOS"</t>
+          <t>"Transporte de acido sulfurico concentrado para minera Las Cenizas, Taltal."</t>
         </is>
       </c>
       <c r="C412" t="inlineStr">
@@ -20114,16 +20114,16 @@
       </c>
       <c r="D412" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E412" t="inlineStr">
         <is>
-          <t>Mol Ambiente S.A.</t>
+          <t>Translog S.A.</t>
         </is>
       </c>
       <c r="F412" t="n">
-        <v>75000</v>
+        <v>600</v>
       </c>
       <c r="G412" t="inlineStr">
         <is>
@@ -20132,12 +20132,12 @@
       </c>
       <c r="H412" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I412" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5118945&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5114868&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J412" t="inlineStr">
@@ -20152,7 +20152,7 @@
       </c>
       <c r="B413" t="inlineStr">
         <is>
-          <t>"Transporte de acido sulfurico concentrado para minera Las Cenizas, Taltal."</t>
+          <t>II MODIFICACIÓN DIA "TRANSPORTE Y MANEJO IN SITU DE RESIDUOS SÓLIDOS Y LÍQUIDOS PELIGROSOS Y NO PELIGROSOS"</t>
         </is>
       </c>
       <c r="C413" t="inlineStr">
@@ -20162,16 +20162,16 @@
       </c>
       <c r="D413" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E413" t="inlineStr">
         <is>
-          <t>Translog S.A.</t>
+          <t>Mol Ambiente S.A.</t>
         </is>
       </c>
       <c r="F413" t="n">
-        <v>600</v>
+        <v>75000</v>
       </c>
       <c r="G413" t="inlineStr">
         <is>
@@ -20180,12 +20180,12 @@
       </c>
       <c r="H413" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I413" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5114868&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5118945&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J413" t="inlineStr">
@@ -21640,7 +21640,7 @@
       </c>
       <c r="B444" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE RESIDUOS PELIGROSOS POR RUTAS DE LA REGIÓN DE ANTOFAGASTA</t>
+          <t>Proyecto Laboratorios Químicos CIMM T&amp;S SA. La Negra</t>
         </is>
       </c>
       <c r="C444" t="inlineStr">
@@ -21655,11 +21655,11 @@
       </c>
       <c r="E444" t="inlineStr">
         <is>
-          <t>Limfosep S.A</t>
+          <t>Yancko Gonzalez Rozas</t>
         </is>
       </c>
       <c r="F444" t="n">
-        <v>1000</v>
+        <v>8000</v>
       </c>
       <c r="G444" t="inlineStr">
         <is>
@@ -21668,12 +21668,12 @@
       </c>
       <c r="H444" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I444" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4698232&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4670031&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J444" t="inlineStr">
@@ -21688,7 +21688,7 @@
       </c>
       <c r="B445" t="inlineStr">
         <is>
-          <t>Proyecto Laboratorios Químicos CIMM T&amp;S SA. La Negra</t>
+          <t>TRANSPORTE DE RESIDUOS PELIGROSOS POR RUTAS DE LA REGIÓN DE ANTOFAGASTA</t>
         </is>
       </c>
       <c r="C445" t="inlineStr">
@@ -21703,11 +21703,11 @@
       </c>
       <c r="E445" t="inlineStr">
         <is>
-          <t>Yancko Gonzalez Rozas</t>
+          <t>Limfosep S.A</t>
         </is>
       </c>
       <c r="F445" t="n">
-        <v>8000</v>
+        <v>1000</v>
       </c>
       <c r="G445" t="inlineStr">
         <is>
@@ -21716,12 +21716,12 @@
       </c>
       <c r="H445" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I445" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4670031&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4698232&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J445" t="inlineStr">
@@ -22120,7 +22120,7 @@
       </c>
       <c r="B454" t="inlineStr">
         <is>
-          <t>EXPANSION DEPOSITO DE RELAVES FILTRADOS FAENA EL PEÑÓN</t>
+          <t>Nuevo Transporte Interregional de Cianuro de Sodio</t>
         </is>
       </c>
       <c r="C454" t="inlineStr">
@@ -22130,16 +22130,16 @@
       </c>
       <c r="D454" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E454" t="inlineStr">
         <is>
-          <t>Minera Meridian Limitada</t>
+          <t>OXIQUIM S.A.</t>
         </is>
       </c>
       <c r="F454" t="n">
-        <v>688</v>
+        <v>85</v>
       </c>
       <c r="G454" t="inlineStr">
         <is>
@@ -22148,12 +22148,12 @@
       </c>
       <c r="H454" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I454" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4601640&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4594007&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J454" t="inlineStr">
@@ -22168,7 +22168,7 @@
       </c>
       <c r="B455" t="inlineStr">
         <is>
-          <t>Nuevo Transporte Interregional de Cianuro de Sodio</t>
+          <t>EXPANSION DEPOSITO DE RELAVES FILTRADOS FAENA EL PEÑÓN</t>
         </is>
       </c>
       <c r="C455" t="inlineStr">
@@ -22178,16 +22178,16 @@
       </c>
       <c r="D455" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E455" t="inlineStr">
         <is>
-          <t>OXIQUIM S.A.</t>
+          <t>Minera Meridian Limitada</t>
         </is>
       </c>
       <c r="F455" t="n">
-        <v>85</v>
+        <v>688</v>
       </c>
       <c r="G455" t="inlineStr">
         <is>
@@ -22196,12 +22196,12 @@
       </c>
       <c r="H455" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I455" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4594007&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4601640&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J455" t="inlineStr">
@@ -22936,7 +22936,7 @@
       </c>
       <c r="B471" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligroso, Transporte Bello</t>
+          <t>Transporte de Barros Anódicos</t>
         </is>
       </c>
       <c r="C471" t="inlineStr">
@@ -22951,11 +22951,11 @@
       </c>
       <c r="E471" t="inlineStr">
         <is>
-          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
+          <t>CODELCO CHILE</t>
         </is>
       </c>
       <c r="F471" t="n">
-        <v>4050</v>
+        <v>0</v>
       </c>
       <c r="G471" t="inlineStr">
         <is>
@@ -22969,7 +22969,7 @@
       </c>
       <c r="I471" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4455518&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4429880&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J471" t="inlineStr">
@@ -22984,7 +22984,7 @@
       </c>
       <c r="B472" t="inlineStr">
         <is>
-          <t>Transporte de Barros Anódicos</t>
+          <t>Transporte de Residuos Peligroso, Transporte Bello</t>
         </is>
       </c>
       <c r="C472" t="inlineStr">
@@ -22999,11 +22999,11 @@
       </c>
       <c r="E472" t="inlineStr">
         <is>
-          <t>CODELCO CHILE</t>
+          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
         </is>
       </c>
       <c r="F472" t="n">
-        <v>0</v>
+        <v>4050</v>
       </c>
       <c r="G472" t="inlineStr">
         <is>
@@ -23017,7 +23017,7 @@
       </c>
       <c r="I472" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4429880&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4455518&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J472" t="inlineStr">
@@ -23128,7 +23128,7 @@
       </c>
       <c r="B475" t="inlineStr">
         <is>
-          <t>Modificacion Proyecto Minero Algorta Sector Pampa</t>
+          <t>Transporte y Almacenamiento temporal de Residuos Peligrosos M&amp;M ltda.</t>
         </is>
       </c>
       <c r="C475" t="inlineStr">
@@ -23138,16 +23138,16 @@
       </c>
       <c r="D475" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E475" t="inlineStr">
         <is>
-          <t>Algorta Norte S.A</t>
+          <t>Transportes Moscoso y Moscoso Ltda.</t>
         </is>
       </c>
       <c r="F475" t="n">
-        <v>6400</v>
+        <v>41075</v>
       </c>
       <c r="G475" t="inlineStr">
         <is>
@@ -23161,7 +23161,7 @@
       </c>
       <c r="I475" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4432700&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4422237&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J475" t="inlineStr">
@@ -23176,7 +23176,7 @@
       </c>
       <c r="B476" t="inlineStr">
         <is>
-          <t>Transporte y Almacenamiento temporal de Residuos Peligrosos M&amp;M ltda.</t>
+          <t>Modificacion Proyecto Minero Algorta Sector Pampa</t>
         </is>
       </c>
       <c r="C476" t="inlineStr">
@@ -23186,16 +23186,16 @@
       </c>
       <c r="D476" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E476" t="inlineStr">
         <is>
-          <t>Transportes Moscoso y Moscoso Ltda.</t>
+          <t>Algorta Norte S.A</t>
         </is>
       </c>
       <c r="F476" t="n">
-        <v>41075</v>
+        <v>6400</v>
       </c>
       <c r="G476" t="inlineStr">
         <is>
@@ -23209,7 +23209,7 @@
       </c>
       <c r="I476" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4422237&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4432700&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J476" t="inlineStr">

--- a/data/Antofagasta.xlsx
+++ b/data/Antofagasta.xlsx
@@ -1124,7 +1124,7 @@
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>En Calificación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">

--- a/data/Antofagasta.xlsx
+++ b/data/Antofagasta.xlsx
@@ -447,12 +447,12 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>17/10/2022</t>
+          <t>18/11/2022</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>Ingresados Art.94 RSEIA</t>
+          <t>En Admisión</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">

--- a/data/Antofagasta.xlsx
+++ b/data/Antofagasta.xlsx
@@ -11848,7 +11848,7 @@
       </c>
       <c r="B240" t="inlineStr">
         <is>
-          <t>Transporte Interregional de Sustancias Peligrosas - AGREDUCAM VI Región</t>
+          <t>Planta de Fabricación de Tuberías PEX (polietileno reticulado)</t>
         </is>
       </c>
       <c r="C240" t="inlineStr">
@@ -11858,16 +11858,16 @@
       </c>
       <c r="D240" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E240" t="inlineStr">
         <is>
-          <t>Asociación Gremial de Dueños de Camiones de la Sexta Región</t>
+          <t>CROSSPIPE SYSTEMS S.A.</t>
         </is>
       </c>
       <c r="F240" t="n">
-        <v>1200</v>
+        <v>12400</v>
       </c>
       <c r="G240" t="inlineStr">
         <is>
@@ -11881,7 +11881,7 @@
       </c>
       <c r="I240" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128964620&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128954293&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J240" t="inlineStr">
@@ -11896,7 +11896,7 @@
       </c>
       <c r="B241" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos por las Rutas Indicadas</t>
+          <t>Transporte Interregional de Sustancias Peligrosas - AGREDUCAM VI Región</t>
         </is>
       </c>
       <c r="C241" t="inlineStr">
@@ -11911,11 +11911,11 @@
       </c>
       <c r="E241" t="inlineStr">
         <is>
-          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
+          <t>Asociación Gremial de Dueños de Camiones de la Sexta Región</t>
         </is>
       </c>
       <c r="F241" t="n">
-        <v>0</v>
+        <v>1200</v>
       </c>
       <c r="G241" t="inlineStr">
         <is>
@@ -11929,7 +11929,7 @@
       </c>
       <c r="I241" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128972489&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128964620&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J241" t="inlineStr">
@@ -11944,7 +11944,7 @@
       </c>
       <c r="B242" t="inlineStr">
         <is>
-          <t>Planta de Fabricación de Tuberías PEX (polietileno reticulado)</t>
+          <t>Transporte de Residuos Peligrosos por las Rutas Indicadas</t>
         </is>
       </c>
       <c r="C242" t="inlineStr">
@@ -11954,16 +11954,16 @@
       </c>
       <c r="D242" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E242" t="inlineStr">
         <is>
-          <t>CROSSPIPE SYSTEMS S.A.</t>
+          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
         </is>
       </c>
       <c r="F242" t="n">
-        <v>12400</v>
+        <v>0</v>
       </c>
       <c r="G242" t="inlineStr">
         <is>
@@ -11977,7 +11977,7 @@
       </c>
       <c r="I242" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128954293&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128972489&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J242" t="inlineStr">
@@ -13576,26 +13576,26 @@
       </c>
       <c r="B276" t="inlineStr">
         <is>
-          <t>RT Sulfuros</t>
+          <t>Transporte de Sustancias Peligrosas Transaltisa Chile Ltda</t>
         </is>
       </c>
       <c r="C276" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D276" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E276" t="inlineStr">
         <is>
-          <t>CODELCO Chile, División Radomiro Tomic</t>
+          <t>Transaltisa Chile Ltda.</t>
         </is>
       </c>
       <c r="F276" t="n">
-        <v>5.4</v>
+        <v>2050</v>
       </c>
       <c r="G276" t="inlineStr">
         <is>
@@ -13604,12 +13604,12 @@
       </c>
       <c r="H276" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I276" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8210090&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8218613&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J276" t="inlineStr">
@@ -13624,26 +13624,26 @@
       </c>
       <c r="B277" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas Transaltisa Chile Ltda</t>
+          <t>RT Sulfuros</t>
         </is>
       </c>
       <c r="C277" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D277" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E277" t="inlineStr">
         <is>
-          <t>Transaltisa Chile Ltda.</t>
+          <t>CODELCO Chile, División Radomiro Tomic</t>
         </is>
       </c>
       <c r="F277" t="n">
-        <v>2050</v>
+        <v>5.4</v>
       </c>
       <c r="G277" t="inlineStr">
         <is>
@@ -13652,12 +13652,12 @@
       </c>
       <c r="H277" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I277" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8218613&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8210090&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J277" t="inlineStr">
@@ -16312,7 +16312,7 @@
       </c>
       <c r="B333" t="inlineStr">
         <is>
-          <t>Parque Fotovoltaico Los Andes</t>
+          <t>CENTRO DE RECUPERACIÓN DE TAMBORES Y CONTENEDORES IBC CONTAMINADOS, PLAMBIENTAL LA NEGRA</t>
         </is>
       </c>
       <c r="C333" t="inlineStr">
@@ -16327,11 +16327,11 @@
       </c>
       <c r="E333" t="inlineStr">
         <is>
-          <t>Andes Solar SPA</t>
+          <t>VEOLIA SERVICIOS MINEROS INTEGRALES CHILE SpA</t>
         </is>
       </c>
       <c r="F333" t="n">
-        <v>572000</v>
+        <v>60</v>
       </c>
       <c r="G333" t="inlineStr">
         <is>
@@ -16340,12 +16340,12 @@
       </c>
       <c r="H333" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Caducado</t>
         </is>
       </c>
       <c r="I333" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6581267&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6592870&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J333" t="inlineStr">
@@ -16360,7 +16360,7 @@
       </c>
       <c r="B334" t="inlineStr">
         <is>
-          <t>CENTRO DE RECUPERACIÓN DE TAMBORES Y CONTENEDORES IBC CONTAMINADOS, PLAMBIENTAL LA NEGRA</t>
+          <t>CENTRO DE ALMACENAMIENTO DE RESIDUOS INDUSTRIALES, GESAM LA NEGRA</t>
         </is>
       </c>
       <c r="C334" t="inlineStr">
@@ -16379,7 +16379,7 @@
         </is>
       </c>
       <c r="F334" t="n">
-        <v>60</v>
+        <v>360</v>
       </c>
       <c r="G334" t="inlineStr">
         <is>
@@ -16393,7 +16393,7 @@
       </c>
       <c r="I334" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6592870&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6595234&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J334" t="inlineStr">
@@ -16408,7 +16408,7 @@
       </c>
       <c r="B335" t="inlineStr">
         <is>
-          <t>CENTRO DE ALMACENAMIENTO DE RESIDUOS INDUSTRIALES, GESAM LA NEGRA</t>
+          <t>Parque Fotovoltaico Los Andes</t>
         </is>
       </c>
       <c r="C335" t="inlineStr">
@@ -16423,11 +16423,11 @@
       </c>
       <c r="E335" t="inlineStr">
         <is>
-          <t>VEOLIA SERVICIOS MINEROS INTEGRALES CHILE SpA</t>
+          <t>Andes Solar SPA</t>
         </is>
       </c>
       <c r="F335" t="n">
-        <v>360</v>
+        <v>572000</v>
       </c>
       <c r="G335" t="inlineStr">
         <is>
@@ -16436,12 +16436,12 @@
       </c>
       <c r="H335" t="inlineStr">
         <is>
-          <t>Caducado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I335" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6595234&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6581267&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J335" t="inlineStr">
@@ -17800,7 +17800,7 @@
       </c>
       <c r="B364" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos</t>
+          <t>Nuevas Instalaciones para Mantención Mina</t>
         </is>
       </c>
       <c r="C364" t="inlineStr">
@@ -17810,16 +17810,16 @@
       </c>
       <c r="D364" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E364" t="inlineStr">
         <is>
-          <t>Transportes TMS Limitada</t>
+          <t>MINERA ESCONDIDA LIMITADA</t>
         </is>
       </c>
       <c r="F364" t="n">
-        <v>200</v>
+        <v>635000</v>
       </c>
       <c r="G364" t="inlineStr">
         <is>
@@ -17828,12 +17828,12 @@
       </c>
       <c r="H364" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I364" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6003582&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5931343&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J364" t="inlineStr">
@@ -17848,7 +17848,7 @@
       </c>
       <c r="B365" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas entre la I, II y III Regiones"</t>
+          <t>Transporte de Residuos Peligrosos</t>
         </is>
       </c>
       <c r="C365" t="inlineStr">
@@ -17863,11 +17863,11 @@
       </c>
       <c r="E365" t="inlineStr">
         <is>
-          <t>Molina Quimicos S.A.</t>
+          <t>Transportes TMS Limitada</t>
         </is>
       </c>
       <c r="F365" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="G365" t="inlineStr">
         <is>
@@ -17881,7 +17881,7 @@
       </c>
       <c r="I365" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6003607&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6003582&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J365" t="inlineStr">
@@ -17896,7 +17896,7 @@
       </c>
       <c r="B366" t="inlineStr">
         <is>
-          <t>Nuevas Instalaciones para Mantención Mina</t>
+          <t>Transporte de Sustancias Peligrosas entre la I, II y III Regiones"</t>
         </is>
       </c>
       <c r="C366" t="inlineStr">
@@ -17906,16 +17906,16 @@
       </c>
       <c r="D366" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E366" t="inlineStr">
         <is>
-          <t>MINERA ESCONDIDA LIMITADA</t>
+          <t>Molina Quimicos S.A.</t>
         </is>
       </c>
       <c r="F366" t="n">
-        <v>635000</v>
+        <v>100</v>
       </c>
       <c r="G366" t="inlineStr">
         <is>
@@ -17924,12 +17924,12 @@
       </c>
       <c r="H366" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I366" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5931343&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6003607&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J366" t="inlineStr">
@@ -20152,7 +20152,7 @@
       </c>
       <c r="B413" t="inlineStr">
         <is>
-          <t>"Transporte de acido sulfurico concentrado para minera Las Cenizas, Taltal."</t>
+          <t>II MODIFICACIÓN DIA "TRANSPORTE Y MANEJO IN SITU DE RESIDUOS SÓLIDOS Y LÍQUIDOS PELIGROSOS Y NO PELIGROSOS"</t>
         </is>
       </c>
       <c r="C413" t="inlineStr">
@@ -20162,16 +20162,16 @@
       </c>
       <c r="D413" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E413" t="inlineStr">
         <is>
-          <t>Translog S.A.</t>
+          <t>Mol Ambiente S.A.</t>
         </is>
       </c>
       <c r="F413" t="n">
-        <v>600</v>
+        <v>75000</v>
       </c>
       <c r="G413" t="inlineStr">
         <is>
@@ -20180,12 +20180,12 @@
       </c>
       <c r="H413" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I413" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5114868&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5118945&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J413" t="inlineStr">
@@ -20200,7 +20200,7 @@
       </c>
       <c r="B414" t="inlineStr">
         <is>
-          <t>II MODIFICACIÓN DIA "TRANSPORTE Y MANEJO IN SITU DE RESIDUOS SÓLIDOS Y LÍQUIDOS PELIGROSOS Y NO PELIGROSOS"</t>
+          <t>"Transporte de acido sulfurico concentrado para minera Las Cenizas, Taltal."</t>
         </is>
       </c>
       <c r="C414" t="inlineStr">
@@ -20210,16 +20210,16 @@
       </c>
       <c r="D414" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E414" t="inlineStr">
         <is>
-          <t>Mol Ambiente S.A.</t>
+          <t>Translog S.A.</t>
         </is>
       </c>
       <c r="F414" t="n">
-        <v>75000</v>
+        <v>600</v>
       </c>
       <c r="G414" t="inlineStr">
         <is>
@@ -20228,12 +20228,12 @@
       </c>
       <c r="H414" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I414" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5118945&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5114868&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J414" t="inlineStr">
@@ -21688,7 +21688,7 @@
       </c>
       <c r="B445" t="inlineStr">
         <is>
-          <t>Proyecto Laboratorios Químicos CIMM T&amp;S SA. La Negra</t>
+          <t>TRANSPORTE DE RESIDUOS PELIGROSOS POR RUTAS DE LA REGIÓN DE ANTOFAGASTA</t>
         </is>
       </c>
       <c r="C445" t="inlineStr">
@@ -21703,11 +21703,11 @@
       </c>
       <c r="E445" t="inlineStr">
         <is>
-          <t>Yancko Gonzalez Rozas</t>
+          <t>Limfosep S.A</t>
         </is>
       </c>
       <c r="F445" t="n">
-        <v>8000</v>
+        <v>1000</v>
       </c>
       <c r="G445" t="inlineStr">
         <is>
@@ -21716,12 +21716,12 @@
       </c>
       <c r="H445" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I445" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4670031&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4698232&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J445" t="inlineStr">
@@ -21736,7 +21736,7 @@
       </c>
       <c r="B446" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE RESIDUOS PELIGROSOS POR RUTAS DE LA REGIÓN DE ANTOFAGASTA</t>
+          <t>Proyecto Laboratorios Químicos CIMM T&amp;S SA. La Negra</t>
         </is>
       </c>
       <c r="C446" t="inlineStr">
@@ -21751,11 +21751,11 @@
       </c>
       <c r="E446" t="inlineStr">
         <is>
-          <t>Limfosep S.A</t>
+          <t>Yancko Gonzalez Rozas</t>
         </is>
       </c>
       <c r="F446" t="n">
-        <v>1000</v>
+        <v>8000</v>
       </c>
       <c r="G446" t="inlineStr">
         <is>
@@ -21764,12 +21764,12 @@
       </c>
       <c r="H446" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I446" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4698232&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4670031&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J446" t="inlineStr">
@@ -22168,7 +22168,7 @@
       </c>
       <c r="B455" t="inlineStr">
         <is>
-          <t>Nuevo Transporte Interregional de Cianuro de Sodio</t>
+          <t>EXPANSION DEPOSITO DE RELAVES FILTRADOS FAENA EL PEÑÓN</t>
         </is>
       </c>
       <c r="C455" t="inlineStr">
@@ -22178,16 +22178,16 @@
       </c>
       <c r="D455" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E455" t="inlineStr">
         <is>
-          <t>OXIQUIM S.A.</t>
+          <t>Minera Meridian Limitada</t>
         </is>
       </c>
       <c r="F455" t="n">
-        <v>85</v>
+        <v>688</v>
       </c>
       <c r="G455" t="inlineStr">
         <is>
@@ -22196,12 +22196,12 @@
       </c>
       <c r="H455" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I455" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4594007&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4601640&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J455" t="inlineStr">
@@ -22216,7 +22216,7 @@
       </c>
       <c r="B456" t="inlineStr">
         <is>
-          <t>EXPANSION DEPOSITO DE RELAVES FILTRADOS FAENA EL PEÑÓN</t>
+          <t>Nuevo Transporte Interregional de Cianuro de Sodio</t>
         </is>
       </c>
       <c r="C456" t="inlineStr">
@@ -22226,16 +22226,16 @@
       </c>
       <c r="D456" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E456" t="inlineStr">
         <is>
-          <t>Minera Meridian Limitada</t>
+          <t>OXIQUIM S.A.</t>
         </is>
       </c>
       <c r="F456" t="n">
-        <v>688</v>
+        <v>85</v>
       </c>
       <c r="G456" t="inlineStr">
         <is>
@@ -22244,12 +22244,12 @@
       </c>
       <c r="H456" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I456" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4601640&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4594007&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J456" t="inlineStr">
@@ -22984,7 +22984,7 @@
       </c>
       <c r="B472" t="inlineStr">
         <is>
-          <t>Transporte de Barros Anódicos</t>
+          <t>Transporte de Residuos Peligroso, Transporte Bello</t>
         </is>
       </c>
       <c r="C472" t="inlineStr">
@@ -22999,11 +22999,11 @@
       </c>
       <c r="E472" t="inlineStr">
         <is>
-          <t>CODELCO CHILE</t>
+          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
         </is>
       </c>
       <c r="F472" t="n">
-        <v>0</v>
+        <v>4050</v>
       </c>
       <c r="G472" t="inlineStr">
         <is>
@@ -23017,7 +23017,7 @@
       </c>
       <c r="I472" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4429880&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4455518&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J472" t="inlineStr">
@@ -23032,7 +23032,7 @@
       </c>
       <c r="B473" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligroso, Transporte Bello</t>
+          <t>Transporte de Barros Anódicos</t>
         </is>
       </c>
       <c r="C473" t="inlineStr">
@@ -23047,11 +23047,11 @@
       </c>
       <c r="E473" t="inlineStr">
         <is>
-          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
+          <t>CODELCO CHILE</t>
         </is>
       </c>
       <c r="F473" t="n">
-        <v>4050</v>
+        <v>0</v>
       </c>
       <c r="G473" t="inlineStr">
         <is>
@@ -23065,7 +23065,7 @@
       </c>
       <c r="I473" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4455518&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4429880&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J473" t="inlineStr">
@@ -23176,7 +23176,7 @@
       </c>
       <c r="B476" t="inlineStr">
         <is>
-          <t>Transporte y Almacenamiento temporal de Residuos Peligrosos M&amp;M ltda.</t>
+          <t>Modificacion Proyecto Minero Algorta Sector Pampa</t>
         </is>
       </c>
       <c r="C476" t="inlineStr">
@@ -23186,16 +23186,16 @@
       </c>
       <c r="D476" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E476" t="inlineStr">
         <is>
-          <t>Transportes Moscoso y Moscoso Ltda.</t>
+          <t>Algorta Norte S.A</t>
         </is>
       </c>
       <c r="F476" t="n">
-        <v>41075</v>
+        <v>6400</v>
       </c>
       <c r="G476" t="inlineStr">
         <is>
@@ -23209,7 +23209,7 @@
       </c>
       <c r="I476" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4422237&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4432700&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J476" t="inlineStr">
@@ -23224,7 +23224,7 @@
       </c>
       <c r="B477" t="inlineStr">
         <is>
-          <t>Modificacion Proyecto Minero Algorta Sector Pampa</t>
+          <t>Transporte y Almacenamiento temporal de Residuos Peligrosos M&amp;M ltda.</t>
         </is>
       </c>
       <c r="C477" t="inlineStr">
@@ -23234,16 +23234,16 @@
       </c>
       <c r="D477" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E477" t="inlineStr">
         <is>
-          <t>Algorta Norte S.A</t>
+          <t>Transportes Moscoso y Moscoso Ltda.</t>
         </is>
       </c>
       <c r="F477" t="n">
-        <v>6400</v>
+        <v>41075</v>
       </c>
       <c r="G477" t="inlineStr">
         <is>
@@ -23257,7 +23257,7 @@
       </c>
       <c r="I477" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4432700&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4422237&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J477" t="inlineStr">

--- a/data/Antofagasta.xlsx
+++ b/data/Antofagasta.xlsx
@@ -11848,7 +11848,7 @@
       </c>
       <c r="B240" t="inlineStr">
         <is>
-          <t>Planta de Fabricación de Tuberías PEX (polietileno reticulado)</t>
+          <t>Transporte Interregional de Sustancias Peligrosas - AGREDUCAM VI Región</t>
         </is>
       </c>
       <c r="C240" t="inlineStr">
@@ -11858,16 +11858,16 @@
       </c>
       <c r="D240" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E240" t="inlineStr">
         <is>
-          <t>CROSSPIPE SYSTEMS S.A.</t>
+          <t>Asociación Gremial de Dueños de Camiones de la Sexta Región</t>
         </is>
       </c>
       <c r="F240" t="n">
-        <v>12400</v>
+        <v>1200</v>
       </c>
       <c r="G240" t="inlineStr">
         <is>
@@ -11881,7 +11881,7 @@
       </c>
       <c r="I240" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128954293&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128964620&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J240" t="inlineStr">
@@ -11896,7 +11896,7 @@
       </c>
       <c r="B241" t="inlineStr">
         <is>
-          <t>Transporte Interregional de Sustancias Peligrosas - AGREDUCAM VI Región</t>
+          <t>Transporte de Residuos Peligrosos por las Rutas Indicadas</t>
         </is>
       </c>
       <c r="C241" t="inlineStr">
@@ -11911,11 +11911,11 @@
       </c>
       <c r="E241" t="inlineStr">
         <is>
-          <t>Asociación Gremial de Dueños de Camiones de la Sexta Región</t>
+          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
         </is>
       </c>
       <c r="F241" t="n">
-        <v>1200</v>
+        <v>0</v>
       </c>
       <c r="G241" t="inlineStr">
         <is>
@@ -11929,7 +11929,7 @@
       </c>
       <c r="I241" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128964620&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128972489&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J241" t="inlineStr">
@@ -11944,7 +11944,7 @@
       </c>
       <c r="B242" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos por las Rutas Indicadas</t>
+          <t>Planta de Fabricación de Tuberías PEX (polietileno reticulado)</t>
         </is>
       </c>
       <c r="C242" t="inlineStr">
@@ -11954,16 +11954,16 @@
       </c>
       <c r="D242" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E242" t="inlineStr">
         <is>
-          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
+          <t>CROSSPIPE SYSTEMS S.A.</t>
         </is>
       </c>
       <c r="F242" t="n">
-        <v>0</v>
+        <v>12400</v>
       </c>
       <c r="G242" t="inlineStr">
         <is>
@@ -11977,7 +11977,7 @@
       </c>
       <c r="I242" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128972489&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128954293&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J242" t="inlineStr">
@@ -13576,26 +13576,26 @@
       </c>
       <c r="B276" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas Transaltisa Chile Ltda</t>
+          <t>RT Sulfuros</t>
         </is>
       </c>
       <c r="C276" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D276" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E276" t="inlineStr">
         <is>
-          <t>Transaltisa Chile Ltda.</t>
+          <t>CODELCO Chile, División Radomiro Tomic</t>
         </is>
       </c>
       <c r="F276" t="n">
-        <v>2050</v>
+        <v>5.4</v>
       </c>
       <c r="G276" t="inlineStr">
         <is>
@@ -13604,12 +13604,12 @@
       </c>
       <c r="H276" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I276" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8218613&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8210090&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J276" t="inlineStr">
@@ -13624,26 +13624,26 @@
       </c>
       <c r="B277" t="inlineStr">
         <is>
-          <t>RT Sulfuros</t>
+          <t>Transporte de Sustancias Peligrosas Transaltisa Chile Ltda</t>
         </is>
       </c>
       <c r="C277" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D277" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E277" t="inlineStr">
         <is>
-          <t>CODELCO Chile, División Radomiro Tomic</t>
+          <t>Transaltisa Chile Ltda.</t>
         </is>
       </c>
       <c r="F277" t="n">
-        <v>5.4</v>
+        <v>2050</v>
       </c>
       <c r="G277" t="inlineStr">
         <is>
@@ -13652,12 +13652,12 @@
       </c>
       <c r="H277" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I277" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8210090&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8218613&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J277" t="inlineStr">
@@ -16312,7 +16312,7 @@
       </c>
       <c r="B333" t="inlineStr">
         <is>
-          <t>CENTRO DE RECUPERACIÓN DE TAMBORES Y CONTENEDORES IBC CONTAMINADOS, PLAMBIENTAL LA NEGRA</t>
+          <t>Parque Fotovoltaico Los Andes</t>
         </is>
       </c>
       <c r="C333" t="inlineStr">
@@ -16327,11 +16327,11 @@
       </c>
       <c r="E333" t="inlineStr">
         <is>
-          <t>VEOLIA SERVICIOS MINEROS INTEGRALES CHILE SpA</t>
+          <t>Andes Solar SPA</t>
         </is>
       </c>
       <c r="F333" t="n">
-        <v>60</v>
+        <v>572000</v>
       </c>
       <c r="G333" t="inlineStr">
         <is>
@@ -16340,12 +16340,12 @@
       </c>
       <c r="H333" t="inlineStr">
         <is>
-          <t>Caducado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I333" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6592870&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6581267&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J333" t="inlineStr">
@@ -16360,7 +16360,7 @@
       </c>
       <c r="B334" t="inlineStr">
         <is>
-          <t>CENTRO DE ALMACENAMIENTO DE RESIDUOS INDUSTRIALES, GESAM LA NEGRA</t>
+          <t>CENTRO DE RECUPERACIÓN DE TAMBORES Y CONTENEDORES IBC CONTAMINADOS, PLAMBIENTAL LA NEGRA</t>
         </is>
       </c>
       <c r="C334" t="inlineStr">
@@ -16379,7 +16379,7 @@
         </is>
       </c>
       <c r="F334" t="n">
-        <v>360</v>
+        <v>60</v>
       </c>
       <c r="G334" t="inlineStr">
         <is>
@@ -16393,7 +16393,7 @@
       </c>
       <c r="I334" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6595234&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6592870&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J334" t="inlineStr">
@@ -16408,7 +16408,7 @@
       </c>
       <c r="B335" t="inlineStr">
         <is>
-          <t>Parque Fotovoltaico Los Andes</t>
+          <t>CENTRO DE ALMACENAMIENTO DE RESIDUOS INDUSTRIALES, GESAM LA NEGRA</t>
         </is>
       </c>
       <c r="C335" t="inlineStr">
@@ -16423,11 +16423,11 @@
       </c>
       <c r="E335" t="inlineStr">
         <is>
-          <t>Andes Solar SPA</t>
+          <t>VEOLIA SERVICIOS MINEROS INTEGRALES CHILE SpA</t>
         </is>
       </c>
       <c r="F335" t="n">
-        <v>572000</v>
+        <v>360</v>
       </c>
       <c r="G335" t="inlineStr">
         <is>
@@ -16436,12 +16436,12 @@
       </c>
       <c r="H335" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Caducado</t>
         </is>
       </c>
       <c r="I335" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6581267&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6595234&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J335" t="inlineStr">
@@ -17800,7 +17800,7 @@
       </c>
       <c r="B364" t="inlineStr">
         <is>
-          <t>Nuevas Instalaciones para Mantención Mina</t>
+          <t>Transporte de Residuos Peligrosos</t>
         </is>
       </c>
       <c r="C364" t="inlineStr">
@@ -17810,16 +17810,16 @@
       </c>
       <c r="D364" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E364" t="inlineStr">
         <is>
-          <t>MINERA ESCONDIDA LIMITADA</t>
+          <t>Transportes TMS Limitada</t>
         </is>
       </c>
       <c r="F364" t="n">
-        <v>635000</v>
+        <v>200</v>
       </c>
       <c r="G364" t="inlineStr">
         <is>
@@ -17828,12 +17828,12 @@
       </c>
       <c r="H364" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I364" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5931343&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6003582&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J364" t="inlineStr">
@@ -17848,7 +17848,7 @@
       </c>
       <c r="B365" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos</t>
+          <t>Transporte de Sustancias Peligrosas entre la I, II y III Regiones"</t>
         </is>
       </c>
       <c r="C365" t="inlineStr">
@@ -17863,11 +17863,11 @@
       </c>
       <c r="E365" t="inlineStr">
         <is>
-          <t>Transportes TMS Limitada</t>
+          <t>Molina Quimicos S.A.</t>
         </is>
       </c>
       <c r="F365" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="G365" t="inlineStr">
         <is>
@@ -17881,7 +17881,7 @@
       </c>
       <c r="I365" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6003582&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6003607&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J365" t="inlineStr">
@@ -17896,7 +17896,7 @@
       </c>
       <c r="B366" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas entre la I, II y III Regiones"</t>
+          <t>Nuevas Instalaciones para Mantención Mina</t>
         </is>
       </c>
       <c r="C366" t="inlineStr">
@@ -17906,16 +17906,16 @@
       </c>
       <c r="D366" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E366" t="inlineStr">
         <is>
-          <t>Molina Quimicos S.A.</t>
+          <t>MINERA ESCONDIDA LIMITADA</t>
         </is>
       </c>
       <c r="F366" t="n">
-        <v>100</v>
+        <v>635000</v>
       </c>
       <c r="G366" t="inlineStr">
         <is>
@@ -17924,12 +17924,12 @@
       </c>
       <c r="H366" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I366" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6003607&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5931343&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J366" t="inlineStr">
@@ -20152,7 +20152,7 @@
       </c>
       <c r="B413" t="inlineStr">
         <is>
-          <t>II MODIFICACIÓN DIA "TRANSPORTE Y MANEJO IN SITU DE RESIDUOS SÓLIDOS Y LÍQUIDOS PELIGROSOS Y NO PELIGROSOS"</t>
+          <t>"Transporte de acido sulfurico concentrado para minera Las Cenizas, Taltal."</t>
         </is>
       </c>
       <c r="C413" t="inlineStr">
@@ -20162,16 +20162,16 @@
       </c>
       <c r="D413" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E413" t="inlineStr">
         <is>
-          <t>Mol Ambiente S.A.</t>
+          <t>Translog S.A.</t>
         </is>
       </c>
       <c r="F413" t="n">
-        <v>75000</v>
+        <v>600</v>
       </c>
       <c r="G413" t="inlineStr">
         <is>
@@ -20180,12 +20180,12 @@
       </c>
       <c r="H413" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I413" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5118945&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5114868&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J413" t="inlineStr">
@@ -20200,7 +20200,7 @@
       </c>
       <c r="B414" t="inlineStr">
         <is>
-          <t>"Transporte de acido sulfurico concentrado para minera Las Cenizas, Taltal."</t>
+          <t>II MODIFICACIÓN DIA "TRANSPORTE Y MANEJO IN SITU DE RESIDUOS SÓLIDOS Y LÍQUIDOS PELIGROSOS Y NO PELIGROSOS"</t>
         </is>
       </c>
       <c r="C414" t="inlineStr">
@@ -20210,16 +20210,16 @@
       </c>
       <c r="D414" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E414" t="inlineStr">
         <is>
-          <t>Translog S.A.</t>
+          <t>Mol Ambiente S.A.</t>
         </is>
       </c>
       <c r="F414" t="n">
-        <v>600</v>
+        <v>75000</v>
       </c>
       <c r="G414" t="inlineStr">
         <is>
@@ -20228,12 +20228,12 @@
       </c>
       <c r="H414" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I414" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5114868&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5118945&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J414" t="inlineStr">
@@ -21688,7 +21688,7 @@
       </c>
       <c r="B445" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE RESIDUOS PELIGROSOS POR RUTAS DE LA REGIÓN DE ANTOFAGASTA</t>
+          <t>Proyecto Laboratorios Químicos CIMM T&amp;S SA. La Negra</t>
         </is>
       </c>
       <c r="C445" t="inlineStr">
@@ -21703,11 +21703,11 @@
       </c>
       <c r="E445" t="inlineStr">
         <is>
-          <t>Limfosep S.A</t>
+          <t>Yancko Gonzalez Rozas</t>
         </is>
       </c>
       <c r="F445" t="n">
-        <v>1000</v>
+        <v>8000</v>
       </c>
       <c r="G445" t="inlineStr">
         <is>
@@ -21716,12 +21716,12 @@
       </c>
       <c r="H445" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I445" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4698232&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4670031&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J445" t="inlineStr">
@@ -21736,7 +21736,7 @@
       </c>
       <c r="B446" t="inlineStr">
         <is>
-          <t>Proyecto Laboratorios Químicos CIMM T&amp;S SA. La Negra</t>
+          <t>TRANSPORTE DE RESIDUOS PELIGROSOS POR RUTAS DE LA REGIÓN DE ANTOFAGASTA</t>
         </is>
       </c>
       <c r="C446" t="inlineStr">
@@ -21751,11 +21751,11 @@
       </c>
       <c r="E446" t="inlineStr">
         <is>
-          <t>Yancko Gonzalez Rozas</t>
+          <t>Limfosep S.A</t>
         </is>
       </c>
       <c r="F446" t="n">
-        <v>8000</v>
+        <v>1000</v>
       </c>
       <c r="G446" t="inlineStr">
         <is>
@@ -21764,12 +21764,12 @@
       </c>
       <c r="H446" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I446" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4670031&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4698232&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J446" t="inlineStr">
@@ -22168,7 +22168,7 @@
       </c>
       <c r="B455" t="inlineStr">
         <is>
-          <t>EXPANSION DEPOSITO DE RELAVES FILTRADOS FAENA EL PEÑÓN</t>
+          <t>Nuevo Transporte Interregional de Cianuro de Sodio</t>
         </is>
       </c>
       <c r="C455" t="inlineStr">
@@ -22178,16 +22178,16 @@
       </c>
       <c r="D455" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E455" t="inlineStr">
         <is>
-          <t>Minera Meridian Limitada</t>
+          <t>OXIQUIM S.A.</t>
         </is>
       </c>
       <c r="F455" t="n">
-        <v>688</v>
+        <v>85</v>
       </c>
       <c r="G455" t="inlineStr">
         <is>
@@ -22196,12 +22196,12 @@
       </c>
       <c r="H455" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I455" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4601640&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4594007&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J455" t="inlineStr">
@@ -22216,7 +22216,7 @@
       </c>
       <c r="B456" t="inlineStr">
         <is>
-          <t>Nuevo Transporte Interregional de Cianuro de Sodio</t>
+          <t>EXPANSION DEPOSITO DE RELAVES FILTRADOS FAENA EL PEÑÓN</t>
         </is>
       </c>
       <c r="C456" t="inlineStr">
@@ -22226,16 +22226,16 @@
       </c>
       <c r="D456" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E456" t="inlineStr">
         <is>
-          <t>OXIQUIM S.A.</t>
+          <t>Minera Meridian Limitada</t>
         </is>
       </c>
       <c r="F456" t="n">
-        <v>85</v>
+        <v>688</v>
       </c>
       <c r="G456" t="inlineStr">
         <is>
@@ -22244,12 +22244,12 @@
       </c>
       <c r="H456" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I456" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4594007&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4601640&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J456" t="inlineStr">
@@ -22984,7 +22984,7 @@
       </c>
       <c r="B472" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligroso, Transporte Bello</t>
+          <t>Transporte de Barros Anódicos</t>
         </is>
       </c>
       <c r="C472" t="inlineStr">
@@ -22999,11 +22999,11 @@
       </c>
       <c r="E472" t="inlineStr">
         <is>
-          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
+          <t>CODELCO CHILE</t>
         </is>
       </c>
       <c r="F472" t="n">
-        <v>4050</v>
+        <v>0</v>
       </c>
       <c r="G472" t="inlineStr">
         <is>
@@ -23017,7 +23017,7 @@
       </c>
       <c r="I472" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4455518&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4429880&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J472" t="inlineStr">
@@ -23032,7 +23032,7 @@
       </c>
       <c r="B473" t="inlineStr">
         <is>
-          <t>Transporte de Barros Anódicos</t>
+          <t>Transporte de Residuos Peligroso, Transporte Bello</t>
         </is>
       </c>
       <c r="C473" t="inlineStr">
@@ -23047,11 +23047,11 @@
       </c>
       <c r="E473" t="inlineStr">
         <is>
-          <t>CODELCO CHILE</t>
+          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
         </is>
       </c>
       <c r="F473" t="n">
-        <v>0</v>
+        <v>4050</v>
       </c>
       <c r="G473" t="inlineStr">
         <is>
@@ -23065,7 +23065,7 @@
       </c>
       <c r="I473" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4429880&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4455518&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J473" t="inlineStr">
@@ -23176,7 +23176,7 @@
       </c>
       <c r="B476" t="inlineStr">
         <is>
-          <t>Modificacion Proyecto Minero Algorta Sector Pampa</t>
+          <t>Transporte y Almacenamiento temporal de Residuos Peligrosos M&amp;M ltda.</t>
         </is>
       </c>
       <c r="C476" t="inlineStr">
@@ -23186,16 +23186,16 @@
       </c>
       <c r="D476" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E476" t="inlineStr">
         <is>
-          <t>Algorta Norte S.A</t>
+          <t>Transportes Moscoso y Moscoso Ltda.</t>
         </is>
       </c>
       <c r="F476" t="n">
-        <v>6400</v>
+        <v>41075</v>
       </c>
       <c r="G476" t="inlineStr">
         <is>
@@ -23209,7 +23209,7 @@
       </c>
       <c r="I476" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4432700&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4422237&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J476" t="inlineStr">
@@ -23224,7 +23224,7 @@
       </c>
       <c r="B477" t="inlineStr">
         <is>
-          <t>Transporte y Almacenamiento temporal de Residuos Peligrosos M&amp;M ltda.</t>
+          <t>Modificacion Proyecto Minero Algorta Sector Pampa</t>
         </is>
       </c>
       <c r="C477" t="inlineStr">
@@ -23234,16 +23234,16 @@
       </c>
       <c r="D477" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E477" t="inlineStr">
         <is>
-          <t>Transportes Moscoso y Moscoso Ltda.</t>
+          <t>Algorta Norte S.A</t>
         </is>
       </c>
       <c r="F477" t="n">
-        <v>41075</v>
+        <v>6400</v>
       </c>
       <c r="G477" t="inlineStr">
         <is>
@@ -23257,7 +23257,7 @@
       </c>
       <c r="I477" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4422237&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4432700&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J477" t="inlineStr">

--- a/data/Antofagasta.xlsx
+++ b/data/Antofagasta.xlsx
@@ -447,12 +447,12 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>18/11/2022</t>
+          <t>20/10/2022</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>En Admisión</t>
+          <t>En Calificación</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">

--- a/data/Antofagasta.xlsx
+++ b/data/Antofagasta.xlsx
@@ -11848,7 +11848,7 @@
       </c>
       <c r="B240" t="inlineStr">
         <is>
-          <t>Transporte Interregional de Sustancias Peligrosas - AGREDUCAM VI Región</t>
+          <t>Planta de Fabricación de Tuberías PEX (polietileno reticulado)</t>
         </is>
       </c>
       <c r="C240" t="inlineStr">
@@ -11858,16 +11858,16 @@
       </c>
       <c r="D240" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E240" t="inlineStr">
         <is>
-          <t>Asociación Gremial de Dueños de Camiones de la Sexta Región</t>
+          <t>CROSSPIPE SYSTEMS S.A.</t>
         </is>
       </c>
       <c r="F240" t="n">
-        <v>1200</v>
+        <v>12400</v>
       </c>
       <c r="G240" t="inlineStr">
         <is>
@@ -11881,7 +11881,7 @@
       </c>
       <c r="I240" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128964620&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128954293&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J240" t="inlineStr">
@@ -11896,7 +11896,7 @@
       </c>
       <c r="B241" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos por las Rutas Indicadas</t>
+          <t>Transporte Interregional de Sustancias Peligrosas - AGREDUCAM VI Región</t>
         </is>
       </c>
       <c r="C241" t="inlineStr">
@@ -11911,11 +11911,11 @@
       </c>
       <c r="E241" t="inlineStr">
         <is>
-          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
+          <t>Asociación Gremial de Dueños de Camiones de la Sexta Región</t>
         </is>
       </c>
       <c r="F241" t="n">
-        <v>0</v>
+        <v>1200</v>
       </c>
       <c r="G241" t="inlineStr">
         <is>
@@ -11929,7 +11929,7 @@
       </c>
       <c r="I241" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128972489&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128964620&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J241" t="inlineStr">
@@ -11944,7 +11944,7 @@
       </c>
       <c r="B242" t="inlineStr">
         <is>
-          <t>Planta de Fabricación de Tuberías PEX (polietileno reticulado)</t>
+          <t>Transporte de Residuos Peligrosos por las Rutas Indicadas</t>
         </is>
       </c>
       <c r="C242" t="inlineStr">
@@ -11954,16 +11954,16 @@
       </c>
       <c r="D242" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E242" t="inlineStr">
         <is>
-          <t>CROSSPIPE SYSTEMS S.A.</t>
+          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
         </is>
       </c>
       <c r="F242" t="n">
-        <v>12400</v>
+        <v>0</v>
       </c>
       <c r="G242" t="inlineStr">
         <is>
@@ -11977,7 +11977,7 @@
       </c>
       <c r="I242" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128954293&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128972489&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J242" t="inlineStr">
@@ -13576,26 +13576,26 @@
       </c>
       <c r="B276" t="inlineStr">
         <is>
-          <t>RT Sulfuros</t>
+          <t>Transporte de Sustancias Peligrosas Transaltisa Chile Ltda</t>
         </is>
       </c>
       <c r="C276" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D276" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E276" t="inlineStr">
         <is>
-          <t>CODELCO Chile, División Radomiro Tomic</t>
+          <t>Transaltisa Chile Ltda.</t>
         </is>
       </c>
       <c r="F276" t="n">
-        <v>5.4</v>
+        <v>2050</v>
       </c>
       <c r="G276" t="inlineStr">
         <is>
@@ -13604,12 +13604,12 @@
       </c>
       <c r="H276" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I276" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8210090&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8218613&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J276" t="inlineStr">
@@ -13624,26 +13624,26 @@
       </c>
       <c r="B277" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas Transaltisa Chile Ltda</t>
+          <t>RT Sulfuros</t>
         </is>
       </c>
       <c r="C277" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D277" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E277" t="inlineStr">
         <is>
-          <t>Transaltisa Chile Ltda.</t>
+          <t>CODELCO Chile, División Radomiro Tomic</t>
         </is>
       </c>
       <c r="F277" t="n">
-        <v>2050</v>
+        <v>5.4</v>
       </c>
       <c r="G277" t="inlineStr">
         <is>
@@ -13652,12 +13652,12 @@
       </c>
       <c r="H277" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I277" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8218613&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8210090&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J277" t="inlineStr">
@@ -16312,7 +16312,7 @@
       </c>
       <c r="B333" t="inlineStr">
         <is>
-          <t>Parque Fotovoltaico Los Andes</t>
+          <t>CENTRO DE RECUPERACIÓN DE TAMBORES Y CONTENEDORES IBC CONTAMINADOS, PLAMBIENTAL LA NEGRA</t>
         </is>
       </c>
       <c r="C333" t="inlineStr">
@@ -16327,11 +16327,11 @@
       </c>
       <c r="E333" t="inlineStr">
         <is>
-          <t>Andes Solar SPA</t>
+          <t>VEOLIA SERVICIOS MINEROS INTEGRALES CHILE SpA</t>
         </is>
       </c>
       <c r="F333" t="n">
-        <v>572000</v>
+        <v>60</v>
       </c>
       <c r="G333" t="inlineStr">
         <is>
@@ -16340,12 +16340,12 @@
       </c>
       <c r="H333" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Caducado</t>
         </is>
       </c>
       <c r="I333" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6581267&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6592870&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J333" t="inlineStr">
@@ -16360,7 +16360,7 @@
       </c>
       <c r="B334" t="inlineStr">
         <is>
-          <t>CENTRO DE RECUPERACIÓN DE TAMBORES Y CONTENEDORES IBC CONTAMINADOS, PLAMBIENTAL LA NEGRA</t>
+          <t>CENTRO DE ALMACENAMIENTO DE RESIDUOS INDUSTRIALES, GESAM LA NEGRA</t>
         </is>
       </c>
       <c r="C334" t="inlineStr">
@@ -16379,7 +16379,7 @@
         </is>
       </c>
       <c r="F334" t="n">
-        <v>60</v>
+        <v>360</v>
       </c>
       <c r="G334" t="inlineStr">
         <is>
@@ -16393,7 +16393,7 @@
       </c>
       <c r="I334" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6592870&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6595234&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J334" t="inlineStr">
@@ -16408,7 +16408,7 @@
       </c>
       <c r="B335" t="inlineStr">
         <is>
-          <t>CENTRO DE ALMACENAMIENTO DE RESIDUOS INDUSTRIALES, GESAM LA NEGRA</t>
+          <t>Parque Fotovoltaico Los Andes</t>
         </is>
       </c>
       <c r="C335" t="inlineStr">
@@ -16423,11 +16423,11 @@
       </c>
       <c r="E335" t="inlineStr">
         <is>
-          <t>VEOLIA SERVICIOS MINEROS INTEGRALES CHILE SpA</t>
+          <t>Andes Solar SPA</t>
         </is>
       </c>
       <c r="F335" t="n">
-        <v>360</v>
+        <v>572000</v>
       </c>
       <c r="G335" t="inlineStr">
         <is>
@@ -16436,12 +16436,12 @@
       </c>
       <c r="H335" t="inlineStr">
         <is>
-          <t>Caducado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I335" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6595234&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6581267&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J335" t="inlineStr">
@@ -17272,7 +17272,7 @@
       </c>
       <c r="B353" t="inlineStr">
         <is>
-          <t>Extracción de Áridos Empréstito E17L</t>
+          <t>Modificación Proyecto Transporte de Acido Sulfurico a granel entre la Primera y Décima Regiones de Chile</t>
         </is>
       </c>
       <c r="C353" t="inlineStr">
@@ -17282,16 +17282,16 @@
       </c>
       <c r="D353" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E353" t="inlineStr">
         <is>
-          <t>Skanska Chile S.A.</t>
+          <t>Transportes Herrmann Limitada</t>
         </is>
       </c>
       <c r="F353" t="n">
-        <v>500</v>
+        <v>0</v>
       </c>
       <c r="G353" t="inlineStr">
         <is>
@@ -17300,12 +17300,12 @@
       </c>
       <c r="H353" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I353" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6156264&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6159602&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J353" t="inlineStr">
@@ -17320,7 +17320,7 @@
       </c>
       <c r="B354" t="inlineStr">
         <is>
-          <t>Modificación Proyecto Transporte de Acido Sulfurico a granel entre la Primera y Décima Regiones de Chile</t>
+          <t>Extracción de Áridos Empréstito E17L</t>
         </is>
       </c>
       <c r="C354" t="inlineStr">
@@ -17330,16 +17330,16 @@
       </c>
       <c r="D354" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E354" t="inlineStr">
         <is>
-          <t>Transportes Herrmann Limitada</t>
+          <t>Skanska Chile S.A.</t>
         </is>
       </c>
       <c r="F354" t="n">
-        <v>0</v>
+        <v>500</v>
       </c>
       <c r="G354" t="inlineStr">
         <is>
@@ -17348,12 +17348,12 @@
       </c>
       <c r="H354" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I354" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6159602&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6156264&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J354" t="inlineStr">
@@ -17512,7 +17512,7 @@
       </c>
       <c r="B358" t="inlineStr">
         <is>
-          <t>Extracción de Áridos Empréstito E-63</t>
+          <t>Proyecto Optimización de Emplazamiento de Instalaciones en Minera Escondida</t>
         </is>
       </c>
       <c r="C358" t="inlineStr">
@@ -17527,11 +17527,11 @@
       </c>
       <c r="E358" t="inlineStr">
         <is>
-          <t>Skanska Chile S.A.</t>
+          <t>MINERA ESCONDIDA LIMITADA</t>
         </is>
       </c>
       <c r="F358" t="n">
-        <v>500</v>
+        <v>120000</v>
       </c>
       <c r="G358" t="inlineStr">
         <is>
@@ -17545,7 +17545,7 @@
       </c>
       <c r="I358" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6092873&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6080052&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J358" t="inlineStr">
@@ -17560,7 +17560,7 @@
       </c>
       <c r="B359" t="inlineStr">
         <is>
-          <t>Proyecto Optimización de Emplazamiento de Instalaciones en Minera Escondida</t>
+          <t>Extracción de Áridos Empréstito E-63</t>
         </is>
       </c>
       <c r="C359" t="inlineStr">
@@ -17575,11 +17575,11 @@
       </c>
       <c r="E359" t="inlineStr">
         <is>
-          <t>MINERA ESCONDIDA LIMITADA</t>
+          <t>Skanska Chile S.A.</t>
         </is>
       </c>
       <c r="F359" t="n">
-        <v>120000</v>
+        <v>500</v>
       </c>
       <c r="G359" t="inlineStr">
         <is>
@@ -17593,7 +17593,7 @@
       </c>
       <c r="I359" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6080052&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6092873&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J359" t="inlineStr">
@@ -17800,7 +17800,7 @@
       </c>
       <c r="B364" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos</t>
+          <t>Nuevas Instalaciones para Mantención Mina</t>
         </is>
       </c>
       <c r="C364" t="inlineStr">
@@ -17810,16 +17810,16 @@
       </c>
       <c r="D364" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E364" t="inlineStr">
         <is>
-          <t>Transportes TMS Limitada</t>
+          <t>MINERA ESCONDIDA LIMITADA</t>
         </is>
       </c>
       <c r="F364" t="n">
-        <v>200</v>
+        <v>635000</v>
       </c>
       <c r="G364" t="inlineStr">
         <is>
@@ -17828,12 +17828,12 @@
       </c>
       <c r="H364" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I364" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6003582&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5931343&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J364" t="inlineStr">
@@ -17848,7 +17848,7 @@
       </c>
       <c r="B365" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas entre la I, II y III Regiones"</t>
+          <t>Transporte de Residuos Peligrosos</t>
         </is>
       </c>
       <c r="C365" t="inlineStr">
@@ -17863,11 +17863,11 @@
       </c>
       <c r="E365" t="inlineStr">
         <is>
-          <t>Molina Quimicos S.A.</t>
+          <t>Transportes TMS Limitada</t>
         </is>
       </c>
       <c r="F365" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="G365" t="inlineStr">
         <is>
@@ -17881,7 +17881,7 @@
       </c>
       <c r="I365" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6003607&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6003582&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J365" t="inlineStr">
@@ -17896,7 +17896,7 @@
       </c>
       <c r="B366" t="inlineStr">
         <is>
-          <t>Nuevas Instalaciones para Mantención Mina</t>
+          <t>Transporte de Sustancias Peligrosas entre la I, II y III Regiones"</t>
         </is>
       </c>
       <c r="C366" t="inlineStr">
@@ -17906,16 +17906,16 @@
       </c>
       <c r="D366" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E366" t="inlineStr">
         <is>
-          <t>MINERA ESCONDIDA LIMITADA</t>
+          <t>Molina Quimicos S.A.</t>
         </is>
       </c>
       <c r="F366" t="n">
-        <v>635000</v>
+        <v>100</v>
       </c>
       <c r="G366" t="inlineStr">
         <is>
@@ -17924,12 +17924,12 @@
       </c>
       <c r="H366" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I366" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5931343&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6003607&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J366" t="inlineStr">
@@ -20152,7 +20152,7 @@
       </c>
       <c r="B413" t="inlineStr">
         <is>
-          <t>"Transporte de acido sulfurico concentrado para minera Las Cenizas, Taltal."</t>
+          <t>II MODIFICACIÓN DIA "TRANSPORTE Y MANEJO IN SITU DE RESIDUOS SÓLIDOS Y LÍQUIDOS PELIGROSOS Y NO PELIGROSOS"</t>
         </is>
       </c>
       <c r="C413" t="inlineStr">
@@ -20162,16 +20162,16 @@
       </c>
       <c r="D413" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E413" t="inlineStr">
         <is>
-          <t>Translog S.A.</t>
+          <t>Mol Ambiente S.A.</t>
         </is>
       </c>
       <c r="F413" t="n">
-        <v>600</v>
+        <v>75000</v>
       </c>
       <c r="G413" t="inlineStr">
         <is>
@@ -20180,12 +20180,12 @@
       </c>
       <c r="H413" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I413" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5114868&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5118945&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J413" t="inlineStr">
@@ -20200,7 +20200,7 @@
       </c>
       <c r="B414" t="inlineStr">
         <is>
-          <t>II MODIFICACIÓN DIA "TRANSPORTE Y MANEJO IN SITU DE RESIDUOS SÓLIDOS Y LÍQUIDOS PELIGROSOS Y NO PELIGROSOS"</t>
+          <t>"Transporte de acido sulfurico concentrado para minera Las Cenizas, Taltal."</t>
         </is>
       </c>
       <c r="C414" t="inlineStr">
@@ -20210,16 +20210,16 @@
       </c>
       <c r="D414" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E414" t="inlineStr">
         <is>
-          <t>Mol Ambiente S.A.</t>
+          <t>Translog S.A.</t>
         </is>
       </c>
       <c r="F414" t="n">
-        <v>75000</v>
+        <v>600</v>
       </c>
       <c r="G414" t="inlineStr">
         <is>
@@ -20228,12 +20228,12 @@
       </c>
       <c r="H414" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I414" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5118945&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5114868&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J414" t="inlineStr">
@@ -21688,7 +21688,7 @@
       </c>
       <c r="B445" t="inlineStr">
         <is>
-          <t>Proyecto Laboratorios Químicos CIMM T&amp;S SA. La Negra</t>
+          <t>TRANSPORTE DE RESIDUOS PELIGROSOS POR RUTAS DE LA REGIÓN DE ANTOFAGASTA</t>
         </is>
       </c>
       <c r="C445" t="inlineStr">
@@ -21703,11 +21703,11 @@
       </c>
       <c r="E445" t="inlineStr">
         <is>
-          <t>Yancko Gonzalez Rozas</t>
+          <t>Limfosep S.A</t>
         </is>
       </c>
       <c r="F445" t="n">
-        <v>8000</v>
+        <v>1000</v>
       </c>
       <c r="G445" t="inlineStr">
         <is>
@@ -21716,12 +21716,12 @@
       </c>
       <c r="H445" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I445" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4670031&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4698232&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J445" t="inlineStr">
@@ -21736,7 +21736,7 @@
       </c>
       <c r="B446" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE RESIDUOS PELIGROSOS POR RUTAS DE LA REGIÓN DE ANTOFAGASTA</t>
+          <t>Proyecto Laboratorios Químicos CIMM T&amp;S SA. La Negra</t>
         </is>
       </c>
       <c r="C446" t="inlineStr">
@@ -21751,11 +21751,11 @@
       </c>
       <c r="E446" t="inlineStr">
         <is>
-          <t>Limfosep S.A</t>
+          <t>Yancko Gonzalez Rozas</t>
         </is>
       </c>
       <c r="F446" t="n">
-        <v>1000</v>
+        <v>8000</v>
       </c>
       <c r="G446" t="inlineStr">
         <is>
@@ -21764,12 +21764,12 @@
       </c>
       <c r="H446" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I446" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4698232&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4670031&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J446" t="inlineStr">
@@ -22168,7 +22168,7 @@
       </c>
       <c r="B455" t="inlineStr">
         <is>
-          <t>Nuevo Transporte Interregional de Cianuro de Sodio</t>
+          <t>EXPANSION DEPOSITO DE RELAVES FILTRADOS FAENA EL PEÑÓN</t>
         </is>
       </c>
       <c r="C455" t="inlineStr">
@@ -22178,16 +22178,16 @@
       </c>
       <c r="D455" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E455" t="inlineStr">
         <is>
-          <t>OXIQUIM S.A.</t>
+          <t>Minera Meridian Limitada</t>
         </is>
       </c>
       <c r="F455" t="n">
-        <v>85</v>
+        <v>688</v>
       </c>
       <c r="G455" t="inlineStr">
         <is>
@@ -22196,12 +22196,12 @@
       </c>
       <c r="H455" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I455" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4594007&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4601640&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J455" t="inlineStr">
@@ -22216,7 +22216,7 @@
       </c>
       <c r="B456" t="inlineStr">
         <is>
-          <t>EXPANSION DEPOSITO DE RELAVES FILTRADOS FAENA EL PEÑÓN</t>
+          <t>Nuevo Transporte Interregional de Cianuro de Sodio</t>
         </is>
       </c>
       <c r="C456" t="inlineStr">
@@ -22226,16 +22226,16 @@
       </c>
       <c r="D456" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E456" t="inlineStr">
         <is>
-          <t>Minera Meridian Limitada</t>
+          <t>OXIQUIM S.A.</t>
         </is>
       </c>
       <c r="F456" t="n">
-        <v>688</v>
+        <v>85</v>
       </c>
       <c r="G456" t="inlineStr">
         <is>
@@ -22244,12 +22244,12 @@
       </c>
       <c r="H456" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I456" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4601640&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4594007&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J456" t="inlineStr">

--- a/data/Antofagasta.xlsx
+++ b/data/Antofagasta.xlsx
@@ -11848,7 +11848,7 @@
       </c>
       <c r="B240" t="inlineStr">
         <is>
-          <t>Planta de Fabricación de Tuberías PEX (polietileno reticulado)</t>
+          <t>Transporte Interregional de Sustancias Peligrosas - AGREDUCAM VI Región</t>
         </is>
       </c>
       <c r="C240" t="inlineStr">
@@ -11858,16 +11858,16 @@
       </c>
       <c r="D240" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E240" t="inlineStr">
         <is>
-          <t>CROSSPIPE SYSTEMS S.A.</t>
+          <t>Asociación Gremial de Dueños de Camiones de la Sexta Región</t>
         </is>
       </c>
       <c r="F240" t="n">
-        <v>12400</v>
+        <v>1200</v>
       </c>
       <c r="G240" t="inlineStr">
         <is>
@@ -11881,7 +11881,7 @@
       </c>
       <c r="I240" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128954293&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128964620&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J240" t="inlineStr">
@@ -11896,7 +11896,7 @@
       </c>
       <c r="B241" t="inlineStr">
         <is>
-          <t>Transporte Interregional de Sustancias Peligrosas - AGREDUCAM VI Región</t>
+          <t>Transporte de Residuos Peligrosos por las Rutas Indicadas</t>
         </is>
       </c>
       <c r="C241" t="inlineStr">
@@ -11911,11 +11911,11 @@
       </c>
       <c r="E241" t="inlineStr">
         <is>
-          <t>Asociación Gremial de Dueños de Camiones de la Sexta Región</t>
+          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
         </is>
       </c>
       <c r="F241" t="n">
-        <v>1200</v>
+        <v>0</v>
       </c>
       <c r="G241" t="inlineStr">
         <is>
@@ -11929,7 +11929,7 @@
       </c>
       <c r="I241" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128964620&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128972489&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J241" t="inlineStr">
@@ -11944,7 +11944,7 @@
       </c>
       <c r="B242" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos por las Rutas Indicadas</t>
+          <t>Planta de Fabricación de Tuberías PEX (polietileno reticulado)</t>
         </is>
       </c>
       <c r="C242" t="inlineStr">
@@ -11954,16 +11954,16 @@
       </c>
       <c r="D242" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E242" t="inlineStr">
         <is>
-          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
+          <t>CROSSPIPE SYSTEMS S.A.</t>
         </is>
       </c>
       <c r="F242" t="n">
-        <v>0</v>
+        <v>12400</v>
       </c>
       <c r="G242" t="inlineStr">
         <is>
@@ -11977,7 +11977,7 @@
       </c>
       <c r="I242" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128972489&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128954293&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J242" t="inlineStr">
@@ -13576,26 +13576,26 @@
       </c>
       <c r="B276" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas Transaltisa Chile Ltda</t>
+          <t>RT Sulfuros</t>
         </is>
       </c>
       <c r="C276" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D276" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E276" t="inlineStr">
         <is>
-          <t>Transaltisa Chile Ltda.</t>
+          <t>CODELCO Chile, División Radomiro Tomic</t>
         </is>
       </c>
       <c r="F276" t="n">
-        <v>2050</v>
+        <v>5.4</v>
       </c>
       <c r="G276" t="inlineStr">
         <is>
@@ -13604,12 +13604,12 @@
       </c>
       <c r="H276" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I276" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8218613&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8210090&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J276" t="inlineStr">
@@ -13624,26 +13624,26 @@
       </c>
       <c r="B277" t="inlineStr">
         <is>
-          <t>RT Sulfuros</t>
+          <t>Transporte de Sustancias Peligrosas Transaltisa Chile Ltda</t>
         </is>
       </c>
       <c r="C277" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D277" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E277" t="inlineStr">
         <is>
-          <t>CODELCO Chile, División Radomiro Tomic</t>
+          <t>Transaltisa Chile Ltda.</t>
         </is>
       </c>
       <c r="F277" t="n">
-        <v>5.4</v>
+        <v>2050</v>
       </c>
       <c r="G277" t="inlineStr">
         <is>
@@ -13652,12 +13652,12 @@
       </c>
       <c r="H277" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I277" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8210090&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8218613&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J277" t="inlineStr">
@@ -16312,7 +16312,7 @@
       </c>
       <c r="B333" t="inlineStr">
         <is>
-          <t>CENTRO DE RECUPERACIÓN DE TAMBORES Y CONTENEDORES IBC CONTAMINADOS, PLAMBIENTAL LA NEGRA</t>
+          <t>Parque Fotovoltaico Los Andes</t>
         </is>
       </c>
       <c r="C333" t="inlineStr">
@@ -16327,11 +16327,11 @@
       </c>
       <c r="E333" t="inlineStr">
         <is>
-          <t>VEOLIA SERVICIOS MINEROS INTEGRALES CHILE SpA</t>
+          <t>Andes Solar SPA</t>
         </is>
       </c>
       <c r="F333" t="n">
-        <v>60</v>
+        <v>572000</v>
       </c>
       <c r="G333" t="inlineStr">
         <is>
@@ -16340,12 +16340,12 @@
       </c>
       <c r="H333" t="inlineStr">
         <is>
-          <t>Caducado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I333" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6592870&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6581267&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J333" t="inlineStr">
@@ -16360,7 +16360,7 @@
       </c>
       <c r="B334" t="inlineStr">
         <is>
-          <t>CENTRO DE ALMACENAMIENTO DE RESIDUOS INDUSTRIALES, GESAM LA NEGRA</t>
+          <t>CENTRO DE RECUPERACIÓN DE TAMBORES Y CONTENEDORES IBC CONTAMINADOS, PLAMBIENTAL LA NEGRA</t>
         </is>
       </c>
       <c r="C334" t="inlineStr">
@@ -16379,7 +16379,7 @@
         </is>
       </c>
       <c r="F334" t="n">
-        <v>360</v>
+        <v>60</v>
       </c>
       <c r="G334" t="inlineStr">
         <is>
@@ -16393,7 +16393,7 @@
       </c>
       <c r="I334" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6595234&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6592870&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J334" t="inlineStr">
@@ -16408,7 +16408,7 @@
       </c>
       <c r="B335" t="inlineStr">
         <is>
-          <t>Parque Fotovoltaico Los Andes</t>
+          <t>CENTRO DE ALMACENAMIENTO DE RESIDUOS INDUSTRIALES, GESAM LA NEGRA</t>
         </is>
       </c>
       <c r="C335" t="inlineStr">
@@ -16423,11 +16423,11 @@
       </c>
       <c r="E335" t="inlineStr">
         <is>
-          <t>Andes Solar SPA</t>
+          <t>VEOLIA SERVICIOS MINEROS INTEGRALES CHILE SpA</t>
         </is>
       </c>
       <c r="F335" t="n">
-        <v>572000</v>
+        <v>360</v>
       </c>
       <c r="G335" t="inlineStr">
         <is>
@@ -16436,12 +16436,12 @@
       </c>
       <c r="H335" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Caducado</t>
         </is>
       </c>
       <c r="I335" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6581267&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6595234&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J335" t="inlineStr">
@@ -17272,7 +17272,7 @@
       </c>
       <c r="B353" t="inlineStr">
         <is>
-          <t>Modificación Proyecto Transporte de Acido Sulfurico a granel entre la Primera y Décima Regiones de Chile</t>
+          <t>Extracción de Áridos Empréstito E17L</t>
         </is>
       </c>
       <c r="C353" t="inlineStr">
@@ -17282,16 +17282,16 @@
       </c>
       <c r="D353" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E353" t="inlineStr">
         <is>
-          <t>Transportes Herrmann Limitada</t>
+          <t>Skanska Chile S.A.</t>
         </is>
       </c>
       <c r="F353" t="n">
-        <v>0</v>
+        <v>500</v>
       </c>
       <c r="G353" t="inlineStr">
         <is>
@@ -17300,12 +17300,12 @@
       </c>
       <c r="H353" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I353" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6159602&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6156264&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J353" t="inlineStr">
@@ -17320,7 +17320,7 @@
       </c>
       <c r="B354" t="inlineStr">
         <is>
-          <t>Extracción de Áridos Empréstito E17L</t>
+          <t>Modificación Proyecto Transporte de Acido Sulfurico a granel entre la Primera y Décima Regiones de Chile</t>
         </is>
       </c>
       <c r="C354" t="inlineStr">
@@ -17330,16 +17330,16 @@
       </c>
       <c r="D354" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E354" t="inlineStr">
         <is>
-          <t>Skanska Chile S.A.</t>
+          <t>Transportes Herrmann Limitada</t>
         </is>
       </c>
       <c r="F354" t="n">
-        <v>500</v>
+        <v>0</v>
       </c>
       <c r="G354" t="inlineStr">
         <is>
@@ -17348,12 +17348,12 @@
       </c>
       <c r="H354" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I354" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6156264&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6159602&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J354" t="inlineStr">
@@ -17512,7 +17512,7 @@
       </c>
       <c r="B358" t="inlineStr">
         <is>
-          <t>Proyecto Optimización de Emplazamiento de Instalaciones en Minera Escondida</t>
+          <t>Extracción de Áridos Empréstito E-63</t>
         </is>
       </c>
       <c r="C358" t="inlineStr">
@@ -17527,11 +17527,11 @@
       </c>
       <c r="E358" t="inlineStr">
         <is>
-          <t>MINERA ESCONDIDA LIMITADA</t>
+          <t>Skanska Chile S.A.</t>
         </is>
       </c>
       <c r="F358" t="n">
-        <v>120000</v>
+        <v>500</v>
       </c>
       <c r="G358" t="inlineStr">
         <is>
@@ -17545,7 +17545,7 @@
       </c>
       <c r="I358" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6080052&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6092873&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J358" t="inlineStr">
@@ -17560,7 +17560,7 @@
       </c>
       <c r="B359" t="inlineStr">
         <is>
-          <t>Extracción de Áridos Empréstito E-63</t>
+          <t>Proyecto Optimización de Emplazamiento de Instalaciones en Minera Escondida</t>
         </is>
       </c>
       <c r="C359" t="inlineStr">
@@ -17575,11 +17575,11 @@
       </c>
       <c r="E359" t="inlineStr">
         <is>
-          <t>Skanska Chile S.A.</t>
+          <t>MINERA ESCONDIDA LIMITADA</t>
         </is>
       </c>
       <c r="F359" t="n">
-        <v>500</v>
+        <v>120000</v>
       </c>
       <c r="G359" t="inlineStr">
         <is>
@@ -17593,7 +17593,7 @@
       </c>
       <c r="I359" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6092873&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6080052&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J359" t="inlineStr">
@@ -17800,7 +17800,7 @@
       </c>
       <c r="B364" t="inlineStr">
         <is>
-          <t>Nuevas Instalaciones para Mantención Mina</t>
+          <t>Transporte de Residuos Peligrosos</t>
         </is>
       </c>
       <c r="C364" t="inlineStr">
@@ -17810,16 +17810,16 @@
       </c>
       <c r="D364" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E364" t="inlineStr">
         <is>
-          <t>MINERA ESCONDIDA LIMITADA</t>
+          <t>Transportes TMS Limitada</t>
         </is>
       </c>
       <c r="F364" t="n">
-        <v>635000</v>
+        <v>200</v>
       </c>
       <c r="G364" t="inlineStr">
         <is>
@@ -17828,12 +17828,12 @@
       </c>
       <c r="H364" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I364" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5931343&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6003582&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J364" t="inlineStr">
@@ -17848,7 +17848,7 @@
       </c>
       <c r="B365" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos</t>
+          <t>Transporte de Sustancias Peligrosas entre la I, II y III Regiones"</t>
         </is>
       </c>
       <c r="C365" t="inlineStr">
@@ -17863,11 +17863,11 @@
       </c>
       <c r="E365" t="inlineStr">
         <is>
-          <t>Transportes TMS Limitada</t>
+          <t>Molina Quimicos S.A.</t>
         </is>
       </c>
       <c r="F365" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="G365" t="inlineStr">
         <is>
@@ -17881,7 +17881,7 @@
       </c>
       <c r="I365" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6003582&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6003607&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J365" t="inlineStr">
@@ -17896,7 +17896,7 @@
       </c>
       <c r="B366" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas entre la I, II y III Regiones"</t>
+          <t>Nuevas Instalaciones para Mantención Mina</t>
         </is>
       </c>
       <c r="C366" t="inlineStr">
@@ -17906,16 +17906,16 @@
       </c>
       <c r="D366" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E366" t="inlineStr">
         <is>
-          <t>Molina Quimicos S.A.</t>
+          <t>MINERA ESCONDIDA LIMITADA</t>
         </is>
       </c>
       <c r="F366" t="n">
-        <v>100</v>
+        <v>635000</v>
       </c>
       <c r="G366" t="inlineStr">
         <is>
@@ -17924,12 +17924,12 @@
       </c>
       <c r="H366" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I366" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6003607&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5931343&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J366" t="inlineStr">
@@ -20152,7 +20152,7 @@
       </c>
       <c r="B413" t="inlineStr">
         <is>
-          <t>II MODIFICACIÓN DIA "TRANSPORTE Y MANEJO IN SITU DE RESIDUOS SÓLIDOS Y LÍQUIDOS PELIGROSOS Y NO PELIGROSOS"</t>
+          <t>"Transporte de acido sulfurico concentrado para minera Las Cenizas, Taltal."</t>
         </is>
       </c>
       <c r="C413" t="inlineStr">
@@ -20162,16 +20162,16 @@
       </c>
       <c r="D413" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E413" t="inlineStr">
         <is>
-          <t>Mol Ambiente S.A.</t>
+          <t>Translog S.A.</t>
         </is>
       </c>
       <c r="F413" t="n">
-        <v>75000</v>
+        <v>600</v>
       </c>
       <c r="G413" t="inlineStr">
         <is>
@@ -20180,12 +20180,12 @@
       </c>
       <c r="H413" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I413" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5118945&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5114868&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J413" t="inlineStr">
@@ -20200,7 +20200,7 @@
       </c>
       <c r="B414" t="inlineStr">
         <is>
-          <t>"Transporte de acido sulfurico concentrado para minera Las Cenizas, Taltal."</t>
+          <t>II MODIFICACIÓN DIA "TRANSPORTE Y MANEJO IN SITU DE RESIDUOS SÓLIDOS Y LÍQUIDOS PELIGROSOS Y NO PELIGROSOS"</t>
         </is>
       </c>
       <c r="C414" t="inlineStr">
@@ -20210,16 +20210,16 @@
       </c>
       <c r="D414" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E414" t="inlineStr">
         <is>
-          <t>Translog S.A.</t>
+          <t>Mol Ambiente S.A.</t>
         </is>
       </c>
       <c r="F414" t="n">
-        <v>600</v>
+        <v>75000</v>
       </c>
       <c r="G414" t="inlineStr">
         <is>
@@ -20228,12 +20228,12 @@
       </c>
       <c r="H414" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I414" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5114868&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5118945&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J414" t="inlineStr">
@@ -21688,7 +21688,7 @@
       </c>
       <c r="B445" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE RESIDUOS PELIGROSOS POR RUTAS DE LA REGIÓN DE ANTOFAGASTA</t>
+          <t>Proyecto Laboratorios Químicos CIMM T&amp;S SA. La Negra</t>
         </is>
       </c>
       <c r="C445" t="inlineStr">
@@ -21703,11 +21703,11 @@
       </c>
       <c r="E445" t="inlineStr">
         <is>
-          <t>Limfosep S.A</t>
+          <t>Yancko Gonzalez Rozas</t>
         </is>
       </c>
       <c r="F445" t="n">
-        <v>1000</v>
+        <v>8000</v>
       </c>
       <c r="G445" t="inlineStr">
         <is>
@@ -21716,12 +21716,12 @@
       </c>
       <c r="H445" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I445" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4698232&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4670031&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J445" t="inlineStr">
@@ -21736,7 +21736,7 @@
       </c>
       <c r="B446" t="inlineStr">
         <is>
-          <t>Proyecto Laboratorios Químicos CIMM T&amp;S SA. La Negra</t>
+          <t>TRANSPORTE DE RESIDUOS PELIGROSOS POR RUTAS DE LA REGIÓN DE ANTOFAGASTA</t>
         </is>
       </c>
       <c r="C446" t="inlineStr">
@@ -21751,11 +21751,11 @@
       </c>
       <c r="E446" t="inlineStr">
         <is>
-          <t>Yancko Gonzalez Rozas</t>
+          <t>Limfosep S.A</t>
         </is>
       </c>
       <c r="F446" t="n">
-        <v>8000</v>
+        <v>1000</v>
       </c>
       <c r="G446" t="inlineStr">
         <is>
@@ -21764,12 +21764,12 @@
       </c>
       <c r="H446" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I446" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4670031&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4698232&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J446" t="inlineStr">
@@ -22168,7 +22168,7 @@
       </c>
       <c r="B455" t="inlineStr">
         <is>
-          <t>EXPANSION DEPOSITO DE RELAVES FILTRADOS FAENA EL PEÑÓN</t>
+          <t>Nuevo Transporte Interregional de Cianuro de Sodio</t>
         </is>
       </c>
       <c r="C455" t="inlineStr">
@@ -22178,16 +22178,16 @@
       </c>
       <c r="D455" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E455" t="inlineStr">
         <is>
-          <t>Minera Meridian Limitada</t>
+          <t>OXIQUIM S.A.</t>
         </is>
       </c>
       <c r="F455" t="n">
-        <v>688</v>
+        <v>85</v>
       </c>
       <c r="G455" t="inlineStr">
         <is>
@@ -22196,12 +22196,12 @@
       </c>
       <c r="H455" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I455" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4601640&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4594007&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J455" t="inlineStr">
@@ -22216,7 +22216,7 @@
       </c>
       <c r="B456" t="inlineStr">
         <is>
-          <t>Nuevo Transporte Interregional de Cianuro de Sodio</t>
+          <t>EXPANSION DEPOSITO DE RELAVES FILTRADOS FAENA EL PEÑÓN</t>
         </is>
       </c>
       <c r="C456" t="inlineStr">
@@ -22226,16 +22226,16 @@
       </c>
       <c r="D456" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E456" t="inlineStr">
         <is>
-          <t>OXIQUIM S.A.</t>
+          <t>Minera Meridian Limitada</t>
         </is>
       </c>
       <c r="F456" t="n">
-        <v>85</v>
+        <v>688</v>
       </c>
       <c r="G456" t="inlineStr">
         <is>
@@ -22244,12 +22244,12 @@
       </c>
       <c r="H456" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I456" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4594007&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4601640&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J456" t="inlineStr">

--- a/data/Antofagasta.xlsx
+++ b/data/Antofagasta.xlsx
@@ -1124,7 +1124,7 @@
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>En Calificación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">

--- a/data/Antofagasta.xlsx
+++ b/data/Antofagasta.xlsx
@@ -1447,7 +1447,7 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>Andes Mainstream SpA</t>
+          <t>Andes Mainstream SpA...</t>
         </is>
       </c>
       <c r="F23" t="n">
@@ -11431,7 +11431,7 @@
       </c>
       <c r="E231" t="inlineStr">
         <is>
-          <t>Andes Mainstream SpA</t>
+          <t>Andes Mainstream SpA...</t>
         </is>
       </c>
       <c r="F231" t="n">
@@ -11848,7 +11848,7 @@
       </c>
       <c r="B240" t="inlineStr">
         <is>
-          <t>Planta de Fabricación de Tuberías PEX (polietileno reticulado)</t>
+          <t>Transporte Interregional de Sustancias Peligrosas - AGREDUCAM VI Región</t>
         </is>
       </c>
       <c r="C240" t="inlineStr">
@@ -11858,16 +11858,16 @@
       </c>
       <c r="D240" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E240" t="inlineStr">
         <is>
-          <t>CROSSPIPE SYSTEMS S.A.</t>
+          <t>Asociación Gremial de Dueños de Camiones de la Sexta Región</t>
         </is>
       </c>
       <c r="F240" t="n">
-        <v>12400</v>
+        <v>1200</v>
       </c>
       <c r="G240" t="inlineStr">
         <is>
@@ -11881,7 +11881,7 @@
       </c>
       <c r="I240" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128954293&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128964620&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J240" t="inlineStr">
@@ -11896,7 +11896,7 @@
       </c>
       <c r="B241" t="inlineStr">
         <is>
-          <t>Transporte Interregional de Sustancias Peligrosas - AGREDUCAM VI Región</t>
+          <t>Transporte de Residuos Peligrosos por las Rutas Indicadas</t>
         </is>
       </c>
       <c r="C241" t="inlineStr">
@@ -11911,11 +11911,11 @@
       </c>
       <c r="E241" t="inlineStr">
         <is>
-          <t>Asociación Gremial de Dueños de Camiones de la Sexta Región</t>
+          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
         </is>
       </c>
       <c r="F241" t="n">
-        <v>1200</v>
+        <v>0</v>
       </c>
       <c r="G241" t="inlineStr">
         <is>
@@ -11929,7 +11929,7 @@
       </c>
       <c r="I241" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128964620&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128972489&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J241" t="inlineStr">
@@ -11944,7 +11944,7 @@
       </c>
       <c r="B242" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos por las Rutas Indicadas</t>
+          <t>Planta de Fabricación de Tuberías PEX (polietileno reticulado)</t>
         </is>
       </c>
       <c r="C242" t="inlineStr">
@@ -11954,16 +11954,16 @@
       </c>
       <c r="D242" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E242" t="inlineStr">
         <is>
-          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
+          <t>CROSSPIPE SYSTEMS S.A.</t>
         </is>
       </c>
       <c r="F242" t="n">
-        <v>0</v>
+        <v>12400</v>
       </c>
       <c r="G242" t="inlineStr">
         <is>
@@ -11977,7 +11977,7 @@
       </c>
       <c r="I242" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128972489&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128954293&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J242" t="inlineStr">
@@ -13576,26 +13576,26 @@
       </c>
       <c r="B276" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas Transaltisa Chile Ltda</t>
+          <t>RT Sulfuros</t>
         </is>
       </c>
       <c r="C276" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D276" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E276" t="inlineStr">
         <is>
-          <t>Transaltisa Chile Ltda.</t>
+          <t>CODELCO Chile, División Radomiro Tomic</t>
         </is>
       </c>
       <c r="F276" t="n">
-        <v>2050</v>
+        <v>5.4</v>
       </c>
       <c r="G276" t="inlineStr">
         <is>
@@ -13604,12 +13604,12 @@
       </c>
       <c r="H276" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I276" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8218613&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8210090&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J276" t="inlineStr">
@@ -13624,26 +13624,26 @@
       </c>
       <c r="B277" t="inlineStr">
         <is>
-          <t>RT Sulfuros</t>
+          <t>Transporte de Sustancias Peligrosas Transaltisa Chile Ltda</t>
         </is>
       </c>
       <c r="C277" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D277" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E277" t="inlineStr">
         <is>
-          <t>CODELCO Chile, División Radomiro Tomic</t>
+          <t>Transaltisa Chile Ltda.</t>
         </is>
       </c>
       <c r="F277" t="n">
-        <v>5.4</v>
+        <v>2050</v>
       </c>
       <c r="G277" t="inlineStr">
         <is>
@@ -13652,12 +13652,12 @@
       </c>
       <c r="H277" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I277" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8210090&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8218613&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J277" t="inlineStr">
@@ -16312,7 +16312,7 @@
       </c>
       <c r="B333" t="inlineStr">
         <is>
-          <t>CENTRO DE RECUPERACIÓN DE TAMBORES Y CONTENEDORES IBC CONTAMINADOS, PLAMBIENTAL LA NEGRA</t>
+          <t>Parque Fotovoltaico Los Andes</t>
         </is>
       </c>
       <c r="C333" t="inlineStr">
@@ -16327,11 +16327,11 @@
       </c>
       <c r="E333" t="inlineStr">
         <is>
-          <t>VEOLIA SERVICIOS MINEROS INTEGRALES CHILE SpA</t>
+          <t>Andes Solar SPA</t>
         </is>
       </c>
       <c r="F333" t="n">
-        <v>60</v>
+        <v>572000</v>
       </c>
       <c r="G333" t="inlineStr">
         <is>
@@ -16340,12 +16340,12 @@
       </c>
       <c r="H333" t="inlineStr">
         <is>
-          <t>Caducado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I333" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6592870&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6581267&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J333" t="inlineStr">
@@ -16360,7 +16360,7 @@
       </c>
       <c r="B334" t="inlineStr">
         <is>
-          <t>CENTRO DE ALMACENAMIENTO DE RESIDUOS INDUSTRIALES, GESAM LA NEGRA</t>
+          <t>CENTRO DE RECUPERACIÓN DE TAMBORES Y CONTENEDORES IBC CONTAMINADOS, PLAMBIENTAL LA NEGRA</t>
         </is>
       </c>
       <c r="C334" t="inlineStr">
@@ -16379,7 +16379,7 @@
         </is>
       </c>
       <c r="F334" t="n">
-        <v>360</v>
+        <v>60</v>
       </c>
       <c r="G334" t="inlineStr">
         <is>
@@ -16393,7 +16393,7 @@
       </c>
       <c r="I334" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6595234&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6592870&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J334" t="inlineStr">
@@ -16408,7 +16408,7 @@
       </c>
       <c r="B335" t="inlineStr">
         <is>
-          <t>Parque Fotovoltaico Los Andes</t>
+          <t>CENTRO DE ALMACENAMIENTO DE RESIDUOS INDUSTRIALES, GESAM LA NEGRA</t>
         </is>
       </c>
       <c r="C335" t="inlineStr">
@@ -16423,11 +16423,11 @@
       </c>
       <c r="E335" t="inlineStr">
         <is>
-          <t>Andes Solar SPA</t>
+          <t>VEOLIA SERVICIOS MINEROS INTEGRALES CHILE SpA</t>
         </is>
       </c>
       <c r="F335" t="n">
-        <v>572000</v>
+        <v>360</v>
       </c>
       <c r="G335" t="inlineStr">
         <is>
@@ -16436,12 +16436,12 @@
       </c>
       <c r="H335" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Caducado</t>
         </is>
       </c>
       <c r="I335" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6581267&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6595234&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J335" t="inlineStr">
@@ -17800,7 +17800,7 @@
       </c>
       <c r="B364" t="inlineStr">
         <is>
-          <t>Nuevas Instalaciones para Mantención Mina</t>
+          <t>Transporte de Residuos Peligrosos</t>
         </is>
       </c>
       <c r="C364" t="inlineStr">
@@ -17810,16 +17810,16 @@
       </c>
       <c r="D364" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E364" t="inlineStr">
         <is>
-          <t>MINERA ESCONDIDA LIMITADA</t>
+          <t>Transportes TMS Limitada</t>
         </is>
       </c>
       <c r="F364" t="n">
-        <v>635000</v>
+        <v>200</v>
       </c>
       <c r="G364" t="inlineStr">
         <is>
@@ -17828,12 +17828,12 @@
       </c>
       <c r="H364" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I364" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5931343&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6003582&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J364" t="inlineStr">
@@ -17848,7 +17848,7 @@
       </c>
       <c r="B365" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos</t>
+          <t>Transporte de Sustancias Peligrosas entre la I, II y III Regiones"</t>
         </is>
       </c>
       <c r="C365" t="inlineStr">
@@ -17863,11 +17863,11 @@
       </c>
       <c r="E365" t="inlineStr">
         <is>
-          <t>Transportes TMS Limitada</t>
+          <t>Molina Quimicos S.A.</t>
         </is>
       </c>
       <c r="F365" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="G365" t="inlineStr">
         <is>
@@ -17881,7 +17881,7 @@
       </c>
       <c r="I365" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6003582&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6003607&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J365" t="inlineStr">
@@ -17896,7 +17896,7 @@
       </c>
       <c r="B366" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas entre la I, II y III Regiones"</t>
+          <t>Nuevas Instalaciones para Mantención Mina</t>
         </is>
       </c>
       <c r="C366" t="inlineStr">
@@ -17906,16 +17906,16 @@
       </c>
       <c r="D366" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E366" t="inlineStr">
         <is>
-          <t>Molina Quimicos S.A.</t>
+          <t>MINERA ESCONDIDA LIMITADA</t>
         </is>
       </c>
       <c r="F366" t="n">
-        <v>100</v>
+        <v>635000</v>
       </c>
       <c r="G366" t="inlineStr">
         <is>
@@ -17924,12 +17924,12 @@
       </c>
       <c r="H366" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I366" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6003607&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5931343&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J366" t="inlineStr">
@@ -20152,7 +20152,7 @@
       </c>
       <c r="B413" t="inlineStr">
         <is>
-          <t>II MODIFICACIÓN DIA "TRANSPORTE Y MANEJO IN SITU DE RESIDUOS SÓLIDOS Y LÍQUIDOS PELIGROSOS Y NO PELIGROSOS"</t>
+          <t>"Transporte de acido sulfurico concentrado para minera Las Cenizas, Taltal."</t>
         </is>
       </c>
       <c r="C413" t="inlineStr">
@@ -20162,16 +20162,16 @@
       </c>
       <c r="D413" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E413" t="inlineStr">
         <is>
-          <t>Mol Ambiente S.A.</t>
+          <t>Translog S.A.</t>
         </is>
       </c>
       <c r="F413" t="n">
-        <v>75000</v>
+        <v>600</v>
       </c>
       <c r="G413" t="inlineStr">
         <is>
@@ -20180,12 +20180,12 @@
       </c>
       <c r="H413" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I413" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5118945&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5114868&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J413" t="inlineStr">
@@ -20200,7 +20200,7 @@
       </c>
       <c r="B414" t="inlineStr">
         <is>
-          <t>"Transporte de acido sulfurico concentrado para minera Las Cenizas, Taltal."</t>
+          <t>II MODIFICACIÓN DIA "TRANSPORTE Y MANEJO IN SITU DE RESIDUOS SÓLIDOS Y LÍQUIDOS PELIGROSOS Y NO PELIGROSOS"</t>
         </is>
       </c>
       <c r="C414" t="inlineStr">
@@ -20210,16 +20210,16 @@
       </c>
       <c r="D414" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E414" t="inlineStr">
         <is>
-          <t>Translog S.A.</t>
+          <t>Mol Ambiente S.A.</t>
         </is>
       </c>
       <c r="F414" t="n">
-        <v>600</v>
+        <v>75000</v>
       </c>
       <c r="G414" t="inlineStr">
         <is>
@@ -20228,12 +20228,12 @@
       </c>
       <c r="H414" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I414" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5114868&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5118945&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J414" t="inlineStr">
@@ -21688,7 +21688,7 @@
       </c>
       <c r="B445" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE RESIDUOS PELIGROSOS POR RUTAS DE LA REGIÓN DE ANTOFAGASTA</t>
+          <t>Proyecto Laboratorios Químicos CIMM T&amp;S SA. La Negra</t>
         </is>
       </c>
       <c r="C445" t="inlineStr">
@@ -21703,11 +21703,11 @@
       </c>
       <c r="E445" t="inlineStr">
         <is>
-          <t>Limfosep S.A</t>
+          <t>Yancko Gonzalez Rozas</t>
         </is>
       </c>
       <c r="F445" t="n">
-        <v>1000</v>
+        <v>8000</v>
       </c>
       <c r="G445" t="inlineStr">
         <is>
@@ -21716,12 +21716,12 @@
       </c>
       <c r="H445" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I445" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4698232&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4670031&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J445" t="inlineStr">
@@ -21736,7 +21736,7 @@
       </c>
       <c r="B446" t="inlineStr">
         <is>
-          <t>Proyecto Laboratorios Químicos CIMM T&amp;S SA. La Negra</t>
+          <t>TRANSPORTE DE RESIDUOS PELIGROSOS POR RUTAS DE LA REGIÓN DE ANTOFAGASTA</t>
         </is>
       </c>
       <c r="C446" t="inlineStr">
@@ -21751,11 +21751,11 @@
       </c>
       <c r="E446" t="inlineStr">
         <is>
-          <t>Yancko Gonzalez Rozas</t>
+          <t>Limfosep S.A</t>
         </is>
       </c>
       <c r="F446" t="n">
-        <v>8000</v>
+        <v>1000</v>
       </c>
       <c r="G446" t="inlineStr">
         <is>
@@ -21764,12 +21764,12 @@
       </c>
       <c r="H446" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I446" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4670031&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4698232&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J446" t="inlineStr">
@@ -22168,7 +22168,7 @@
       </c>
       <c r="B455" t="inlineStr">
         <is>
-          <t>EXPANSION DEPOSITO DE RELAVES FILTRADOS FAENA EL PEÑÓN</t>
+          <t>Nuevo Transporte Interregional de Cianuro de Sodio</t>
         </is>
       </c>
       <c r="C455" t="inlineStr">
@@ -22178,16 +22178,16 @@
       </c>
       <c r="D455" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E455" t="inlineStr">
         <is>
-          <t>Minera Meridian Limitada</t>
+          <t>OXIQUIM S.A.</t>
         </is>
       </c>
       <c r="F455" t="n">
-        <v>688</v>
+        <v>85</v>
       </c>
       <c r="G455" t="inlineStr">
         <is>
@@ -22196,12 +22196,12 @@
       </c>
       <c r="H455" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I455" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4601640&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4594007&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J455" t="inlineStr">
@@ -22216,7 +22216,7 @@
       </c>
       <c r="B456" t="inlineStr">
         <is>
-          <t>Nuevo Transporte Interregional de Cianuro de Sodio</t>
+          <t>EXPANSION DEPOSITO DE RELAVES FILTRADOS FAENA EL PEÑÓN</t>
         </is>
       </c>
       <c r="C456" t="inlineStr">
@@ -22226,16 +22226,16 @@
       </c>
       <c r="D456" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E456" t="inlineStr">
         <is>
-          <t>OXIQUIM S.A.</t>
+          <t>Minera Meridian Limitada</t>
         </is>
       </c>
       <c r="F456" t="n">
-        <v>85</v>
+        <v>688</v>
       </c>
       <c r="G456" t="inlineStr">
         <is>
@@ -22244,12 +22244,12 @@
       </c>
       <c r="H456" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I456" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4594007&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4601640&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J456" t="inlineStr">
@@ -22984,7 +22984,7 @@
       </c>
       <c r="B472" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligroso, Transporte Bello</t>
+          <t>Transporte de Barros Anódicos</t>
         </is>
       </c>
       <c r="C472" t="inlineStr">
@@ -22999,11 +22999,11 @@
       </c>
       <c r="E472" t="inlineStr">
         <is>
-          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
+          <t>CODELCO CHILE</t>
         </is>
       </c>
       <c r="F472" t="n">
-        <v>4050</v>
+        <v>0</v>
       </c>
       <c r="G472" t="inlineStr">
         <is>
@@ -23017,7 +23017,7 @@
       </c>
       <c r="I472" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4455518&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4429880&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J472" t="inlineStr">
@@ -23032,7 +23032,7 @@
       </c>
       <c r="B473" t="inlineStr">
         <is>
-          <t>Transporte de Barros Anódicos</t>
+          <t>Transporte de Residuos Peligroso, Transporte Bello</t>
         </is>
       </c>
       <c r="C473" t="inlineStr">
@@ -23047,11 +23047,11 @@
       </c>
       <c r="E473" t="inlineStr">
         <is>
-          <t>CODELCO CHILE</t>
+          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
         </is>
       </c>
       <c r="F473" t="n">
-        <v>0</v>
+        <v>4050</v>
       </c>
       <c r="G473" t="inlineStr">
         <is>
@@ -23065,7 +23065,7 @@
       </c>
       <c r="I473" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4429880&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4455518&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J473" t="inlineStr">
@@ -23176,7 +23176,7 @@
       </c>
       <c r="B476" t="inlineStr">
         <is>
-          <t>Modificacion Proyecto Minero Algorta Sector Pampa</t>
+          <t>Transporte y Almacenamiento temporal de Residuos Peligrosos M&amp;M ltda.</t>
         </is>
       </c>
       <c r="C476" t="inlineStr">
@@ -23186,16 +23186,16 @@
       </c>
       <c r="D476" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E476" t="inlineStr">
         <is>
-          <t>Algorta Norte S.A</t>
+          <t>Transportes Moscoso y Moscoso Ltda.</t>
         </is>
       </c>
       <c r="F476" t="n">
-        <v>6400</v>
+        <v>41075</v>
       </c>
       <c r="G476" t="inlineStr">
         <is>
@@ -23209,7 +23209,7 @@
       </c>
       <c r="I476" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4432700&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4422237&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J476" t="inlineStr">
@@ -23224,7 +23224,7 @@
       </c>
       <c r="B477" t="inlineStr">
         <is>
-          <t>Transporte y Almacenamiento temporal de Residuos Peligrosos M&amp;M ltda.</t>
+          <t>Modificacion Proyecto Minero Algorta Sector Pampa</t>
         </is>
       </c>
       <c r="C477" t="inlineStr">
@@ -23234,16 +23234,16 @@
       </c>
       <c r="D477" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E477" t="inlineStr">
         <is>
-          <t>Transportes Moscoso y Moscoso Ltda.</t>
+          <t>Algorta Norte S.A</t>
         </is>
       </c>
       <c r="F477" t="n">
-        <v>41075</v>
+        <v>6400</v>
       </c>
       <c r="G477" t="inlineStr">
         <is>
@@ -23257,7 +23257,7 @@
       </c>
       <c r="I477" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4422237&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4432700&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J477" t="inlineStr">

--- a/data/Antofagasta.xlsx
+++ b/data/Antofagasta.xlsx
@@ -11896,7 +11896,7 @@
       </c>
       <c r="B241" t="inlineStr">
         <is>
-          <t>Transporte Interregional de Sustancias Peligrosas - AGREDUCAM VI Región</t>
+          <t>Planta de Fabricación de Tuberías PEX (polietileno reticulado)</t>
         </is>
       </c>
       <c r="C241" t="inlineStr">
@@ -11906,16 +11906,16 @@
       </c>
       <c r="D241" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E241" t="inlineStr">
         <is>
-          <t>Asociación Gremial de Dueños de Camiones de la Sexta Región</t>
+          <t>CROSSPIPE SYSTEMS S.A.</t>
         </is>
       </c>
       <c r="F241" t="n">
-        <v>1200</v>
+        <v>12400</v>
       </c>
       <c r="G241" t="inlineStr">
         <is>
@@ -11929,7 +11929,7 @@
       </c>
       <c r="I241" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128964620&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128954293&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J241" t="inlineStr">
@@ -11944,7 +11944,7 @@
       </c>
       <c r="B242" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos por las Rutas Indicadas</t>
+          <t>Transporte Interregional de Sustancias Peligrosas - AGREDUCAM VI Región</t>
         </is>
       </c>
       <c r="C242" t="inlineStr">
@@ -11959,11 +11959,11 @@
       </c>
       <c r="E242" t="inlineStr">
         <is>
-          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
+          <t>Asociación Gremial de Dueños de Camiones de la Sexta Región</t>
         </is>
       </c>
       <c r="F242" t="n">
-        <v>0</v>
+        <v>1200</v>
       </c>
       <c r="G242" t="inlineStr">
         <is>
@@ -11977,7 +11977,7 @@
       </c>
       <c r="I242" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128972489&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128964620&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J242" t="inlineStr">
@@ -11992,7 +11992,7 @@
       </c>
       <c r="B243" t="inlineStr">
         <is>
-          <t>Planta de Fabricación de Tuberías PEX (polietileno reticulado)</t>
+          <t>Transporte de Residuos Peligrosos por las Rutas Indicadas</t>
         </is>
       </c>
       <c r="C243" t="inlineStr">
@@ -12002,16 +12002,16 @@
       </c>
       <c r="D243" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E243" t="inlineStr">
         <is>
-          <t>CROSSPIPE SYSTEMS S.A.</t>
+          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
         </is>
       </c>
       <c r="F243" t="n">
-        <v>12400</v>
+        <v>0</v>
       </c>
       <c r="G243" t="inlineStr">
         <is>
@@ -12025,7 +12025,7 @@
       </c>
       <c r="I243" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128954293&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128972489&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J243" t="inlineStr">
@@ -13624,26 +13624,26 @@
       </c>
       <c r="B277" t="inlineStr">
         <is>
-          <t>RT Sulfuros</t>
+          <t>Transporte de Sustancias Peligrosas Transaltisa Chile Ltda</t>
         </is>
       </c>
       <c r="C277" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D277" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E277" t="inlineStr">
         <is>
-          <t>CODELCO Chile, División Radomiro Tomic</t>
+          <t>Transaltisa Chile Ltda.</t>
         </is>
       </c>
       <c r="F277" t="n">
-        <v>5.4</v>
+        <v>2050</v>
       </c>
       <c r="G277" t="inlineStr">
         <is>
@@ -13652,12 +13652,12 @@
       </c>
       <c r="H277" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I277" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8210090&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8218613&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J277" t="inlineStr">
@@ -13672,26 +13672,26 @@
       </c>
       <c r="B278" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas Transaltisa Chile Ltda</t>
+          <t>RT Sulfuros</t>
         </is>
       </c>
       <c r="C278" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D278" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E278" t="inlineStr">
         <is>
-          <t>Transaltisa Chile Ltda.</t>
+          <t>CODELCO Chile, División Radomiro Tomic</t>
         </is>
       </c>
       <c r="F278" t="n">
-        <v>2050</v>
+        <v>5.4</v>
       </c>
       <c r="G278" t="inlineStr">
         <is>
@@ -13700,12 +13700,12 @@
       </c>
       <c r="H278" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I278" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8218613&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8210090&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J278" t="inlineStr">
@@ -16360,7 +16360,7 @@
       </c>
       <c r="B334" t="inlineStr">
         <is>
-          <t>Parque Fotovoltaico Los Andes</t>
+          <t>CENTRO DE RECUPERACIÓN DE TAMBORES Y CONTENEDORES IBC CONTAMINADOS, PLAMBIENTAL LA NEGRA</t>
         </is>
       </c>
       <c r="C334" t="inlineStr">
@@ -16375,11 +16375,11 @@
       </c>
       <c r="E334" t="inlineStr">
         <is>
-          <t>Andes Solar SPA</t>
+          <t>VEOLIA SERVICIOS MINEROS INTEGRALES CHILE SpA</t>
         </is>
       </c>
       <c r="F334" t="n">
-        <v>572000</v>
+        <v>60</v>
       </c>
       <c r="G334" t="inlineStr">
         <is>
@@ -16388,12 +16388,12 @@
       </c>
       <c r="H334" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Caducado</t>
         </is>
       </c>
       <c r="I334" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6581267&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6592870&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J334" t="inlineStr">
@@ -16408,7 +16408,7 @@
       </c>
       <c r="B335" t="inlineStr">
         <is>
-          <t>CENTRO DE RECUPERACIÓN DE TAMBORES Y CONTENEDORES IBC CONTAMINADOS, PLAMBIENTAL LA NEGRA</t>
+          <t>CENTRO DE ALMACENAMIENTO DE RESIDUOS INDUSTRIALES, GESAM LA NEGRA</t>
         </is>
       </c>
       <c r="C335" t="inlineStr">
@@ -16427,7 +16427,7 @@
         </is>
       </c>
       <c r="F335" t="n">
-        <v>60</v>
+        <v>360</v>
       </c>
       <c r="G335" t="inlineStr">
         <is>
@@ -16441,7 +16441,7 @@
       </c>
       <c r="I335" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6592870&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6595234&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J335" t="inlineStr">
@@ -16456,7 +16456,7 @@
       </c>
       <c r="B336" t="inlineStr">
         <is>
-          <t>CENTRO DE ALMACENAMIENTO DE RESIDUOS INDUSTRIALES, GESAM LA NEGRA</t>
+          <t>Parque Fotovoltaico Los Andes</t>
         </is>
       </c>
       <c r="C336" t="inlineStr">
@@ -16471,11 +16471,11 @@
       </c>
       <c r="E336" t="inlineStr">
         <is>
-          <t>VEOLIA SERVICIOS MINEROS INTEGRALES CHILE SpA</t>
+          <t>Andes Solar SPA</t>
         </is>
       </c>
       <c r="F336" t="n">
-        <v>360</v>
+        <v>572000</v>
       </c>
       <c r="G336" t="inlineStr">
         <is>
@@ -16484,12 +16484,12 @@
       </c>
       <c r="H336" t="inlineStr">
         <is>
-          <t>Caducado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I336" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6595234&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6581267&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J336" t="inlineStr">
@@ -17320,7 +17320,7 @@
       </c>
       <c r="B354" t="inlineStr">
         <is>
-          <t>Extracción de Áridos Empréstito E17L</t>
+          <t>Modificación Proyecto Transporte de Acido Sulfurico a granel entre la Primera y Décima Regiones de Chile</t>
         </is>
       </c>
       <c r="C354" t="inlineStr">
@@ -17330,16 +17330,16 @@
       </c>
       <c r="D354" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E354" t="inlineStr">
         <is>
-          <t>Skanska Chile S.A.</t>
+          <t>Transportes Herrmann Limitada</t>
         </is>
       </c>
       <c r="F354" t="n">
-        <v>500</v>
+        <v>0</v>
       </c>
       <c r="G354" t="inlineStr">
         <is>
@@ -17348,12 +17348,12 @@
       </c>
       <c r="H354" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I354" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6156264&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6159602&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J354" t="inlineStr">
@@ -17368,7 +17368,7 @@
       </c>
       <c r="B355" t="inlineStr">
         <is>
-          <t>Modificación Proyecto Transporte de Acido Sulfurico a granel entre la Primera y Décima Regiones de Chile</t>
+          <t>Extracción de Áridos Empréstito E17L</t>
         </is>
       </c>
       <c r="C355" t="inlineStr">
@@ -17378,16 +17378,16 @@
       </c>
       <c r="D355" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E355" t="inlineStr">
         <is>
-          <t>Transportes Herrmann Limitada</t>
+          <t>Skanska Chile S.A.</t>
         </is>
       </c>
       <c r="F355" t="n">
-        <v>0</v>
+        <v>500</v>
       </c>
       <c r="G355" t="inlineStr">
         <is>
@@ -17396,12 +17396,12 @@
       </c>
       <c r="H355" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I355" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6159602&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6156264&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J355" t="inlineStr">
@@ -17560,7 +17560,7 @@
       </c>
       <c r="B359" t="inlineStr">
         <is>
-          <t>Extracción de Áridos Empréstito E-63</t>
+          <t>Proyecto Optimización de Emplazamiento de Instalaciones en Minera Escondida</t>
         </is>
       </c>
       <c r="C359" t="inlineStr">
@@ -17575,11 +17575,11 @@
       </c>
       <c r="E359" t="inlineStr">
         <is>
-          <t>Skanska Chile S.A.</t>
+          <t>MINERA ESCONDIDA LIMITADA</t>
         </is>
       </c>
       <c r="F359" t="n">
-        <v>500</v>
+        <v>120000</v>
       </c>
       <c r="G359" t="inlineStr">
         <is>
@@ -17593,7 +17593,7 @@
       </c>
       <c r="I359" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6092873&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6080052&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J359" t="inlineStr">
@@ -17608,7 +17608,7 @@
       </c>
       <c r="B360" t="inlineStr">
         <is>
-          <t>Proyecto Optimización de Emplazamiento de Instalaciones en Minera Escondida</t>
+          <t>Extracción de Áridos Empréstito E-63</t>
         </is>
       </c>
       <c r="C360" t="inlineStr">
@@ -17623,11 +17623,11 @@
       </c>
       <c r="E360" t="inlineStr">
         <is>
-          <t>MINERA ESCONDIDA LIMITADA</t>
+          <t>Skanska Chile S.A.</t>
         </is>
       </c>
       <c r="F360" t="n">
-        <v>120000</v>
+        <v>500</v>
       </c>
       <c r="G360" t="inlineStr">
         <is>
@@ -17641,7 +17641,7 @@
       </c>
       <c r="I360" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6080052&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6092873&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J360" t="inlineStr">
@@ -17848,7 +17848,7 @@
       </c>
       <c r="B365" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos</t>
+          <t>Nuevas Instalaciones para Mantención Mina</t>
         </is>
       </c>
       <c r="C365" t="inlineStr">
@@ -17858,16 +17858,16 @@
       </c>
       <c r="D365" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E365" t="inlineStr">
         <is>
-          <t>Transportes TMS Limitada</t>
+          <t>MINERA ESCONDIDA LIMITADA</t>
         </is>
       </c>
       <c r="F365" t="n">
-        <v>200</v>
+        <v>635000</v>
       </c>
       <c r="G365" t="inlineStr">
         <is>
@@ -17876,12 +17876,12 @@
       </c>
       <c r="H365" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I365" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6003582&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5931343&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J365" t="inlineStr">
@@ -17896,7 +17896,7 @@
       </c>
       <c r="B366" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas entre la I, II y III Regiones"</t>
+          <t>Transporte de Residuos Peligrosos</t>
         </is>
       </c>
       <c r="C366" t="inlineStr">
@@ -17911,11 +17911,11 @@
       </c>
       <c r="E366" t="inlineStr">
         <is>
-          <t>Molina Quimicos S.A.</t>
+          <t>Transportes TMS Limitada</t>
         </is>
       </c>
       <c r="F366" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="G366" t="inlineStr">
         <is>
@@ -17929,7 +17929,7 @@
       </c>
       <c r="I366" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6003607&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6003582&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J366" t="inlineStr">
@@ -17944,7 +17944,7 @@
       </c>
       <c r="B367" t="inlineStr">
         <is>
-          <t>Nuevas Instalaciones para Mantención Mina</t>
+          <t>Transporte de Sustancias Peligrosas entre la I, II y III Regiones"</t>
         </is>
       </c>
       <c r="C367" t="inlineStr">
@@ -17954,16 +17954,16 @@
       </c>
       <c r="D367" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E367" t="inlineStr">
         <is>
-          <t>MINERA ESCONDIDA LIMITADA</t>
+          <t>Molina Quimicos S.A.</t>
         </is>
       </c>
       <c r="F367" t="n">
-        <v>635000</v>
+        <v>100</v>
       </c>
       <c r="G367" t="inlineStr">
         <is>
@@ -17972,12 +17972,12 @@
       </c>
       <c r="H367" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I367" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5931343&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6003607&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J367" t="inlineStr">
@@ -20200,7 +20200,7 @@
       </c>
       <c r="B414" t="inlineStr">
         <is>
-          <t>"Transporte de acido sulfurico concentrado para minera Las Cenizas, Taltal."</t>
+          <t>II MODIFICACIÓN DIA "TRANSPORTE Y MANEJO IN SITU DE RESIDUOS SÓLIDOS Y LÍQUIDOS PELIGROSOS Y NO PELIGROSOS"</t>
         </is>
       </c>
       <c r="C414" t="inlineStr">
@@ -20210,16 +20210,16 @@
       </c>
       <c r="D414" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E414" t="inlineStr">
         <is>
-          <t>Translog S.A.</t>
+          <t>Mol Ambiente S.A.</t>
         </is>
       </c>
       <c r="F414" t="n">
-        <v>600</v>
+        <v>75000</v>
       </c>
       <c r="G414" t="inlineStr">
         <is>
@@ -20228,12 +20228,12 @@
       </c>
       <c r="H414" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I414" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5114868&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5118945&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J414" t="inlineStr">
@@ -20248,7 +20248,7 @@
       </c>
       <c r="B415" t="inlineStr">
         <is>
-          <t>II MODIFICACIÓN DIA "TRANSPORTE Y MANEJO IN SITU DE RESIDUOS SÓLIDOS Y LÍQUIDOS PELIGROSOS Y NO PELIGROSOS"</t>
+          <t>"Transporte de acido sulfurico concentrado para minera Las Cenizas, Taltal."</t>
         </is>
       </c>
       <c r="C415" t="inlineStr">
@@ -20258,16 +20258,16 @@
       </c>
       <c r="D415" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E415" t="inlineStr">
         <is>
-          <t>Mol Ambiente S.A.</t>
+          <t>Translog S.A.</t>
         </is>
       </c>
       <c r="F415" t="n">
-        <v>75000</v>
+        <v>600</v>
       </c>
       <c r="G415" t="inlineStr">
         <is>
@@ -20276,12 +20276,12 @@
       </c>
       <c r="H415" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I415" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5118945&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5114868&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J415" t="inlineStr">
@@ -21736,7 +21736,7 @@
       </c>
       <c r="B446" t="inlineStr">
         <is>
-          <t>Proyecto Laboratorios Químicos CIMM T&amp;S SA. La Negra</t>
+          <t>TRANSPORTE DE RESIDUOS PELIGROSOS POR RUTAS DE LA REGIÓN DE ANTOFAGASTA</t>
         </is>
       </c>
       <c r="C446" t="inlineStr">
@@ -21751,11 +21751,11 @@
       </c>
       <c r="E446" t="inlineStr">
         <is>
-          <t>Yancko Gonzalez Rozas</t>
+          <t>Limfosep S.A</t>
         </is>
       </c>
       <c r="F446" t="n">
-        <v>8000</v>
+        <v>1000</v>
       </c>
       <c r="G446" t="inlineStr">
         <is>
@@ -21764,12 +21764,12 @@
       </c>
       <c r="H446" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I446" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4670031&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4698232&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J446" t="inlineStr">
@@ -21784,7 +21784,7 @@
       </c>
       <c r="B447" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE RESIDUOS PELIGROSOS POR RUTAS DE LA REGIÓN DE ANTOFAGASTA</t>
+          <t>Proyecto Laboratorios Químicos CIMM T&amp;S SA. La Negra</t>
         </is>
       </c>
       <c r="C447" t="inlineStr">
@@ -21799,11 +21799,11 @@
       </c>
       <c r="E447" t="inlineStr">
         <is>
-          <t>Limfosep S.A</t>
+          <t>Yancko Gonzalez Rozas</t>
         </is>
       </c>
       <c r="F447" t="n">
-        <v>1000</v>
+        <v>8000</v>
       </c>
       <c r="G447" t="inlineStr">
         <is>
@@ -21812,12 +21812,12 @@
       </c>
       <c r="H447" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I447" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4698232&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4670031&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J447" t="inlineStr">
@@ -22216,7 +22216,7 @@
       </c>
       <c r="B456" t="inlineStr">
         <is>
-          <t>Nuevo Transporte Interregional de Cianuro de Sodio</t>
+          <t>EXPANSION DEPOSITO DE RELAVES FILTRADOS FAENA EL PEÑÓN</t>
         </is>
       </c>
       <c r="C456" t="inlineStr">
@@ -22226,16 +22226,16 @@
       </c>
       <c r="D456" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E456" t="inlineStr">
         <is>
-          <t>OXIQUIM S.A.</t>
+          <t>Minera Meridian Limitada</t>
         </is>
       </c>
       <c r="F456" t="n">
-        <v>85</v>
+        <v>688</v>
       </c>
       <c r="G456" t="inlineStr">
         <is>
@@ -22244,12 +22244,12 @@
       </c>
       <c r="H456" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I456" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4594007&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4601640&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J456" t="inlineStr">
@@ -22264,7 +22264,7 @@
       </c>
       <c r="B457" t="inlineStr">
         <is>
-          <t>EXPANSION DEPOSITO DE RELAVES FILTRADOS FAENA EL PEÑÓN</t>
+          <t>Nuevo Transporte Interregional de Cianuro de Sodio</t>
         </is>
       </c>
       <c r="C457" t="inlineStr">
@@ -22274,16 +22274,16 @@
       </c>
       <c r="D457" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E457" t="inlineStr">
         <is>
-          <t>Minera Meridian Limitada</t>
+          <t>OXIQUIM S.A.</t>
         </is>
       </c>
       <c r="F457" t="n">
-        <v>688</v>
+        <v>85</v>
       </c>
       <c r="G457" t="inlineStr">
         <is>
@@ -22292,12 +22292,12 @@
       </c>
       <c r="H457" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I457" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4601640&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4594007&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J457" t="inlineStr">

--- a/data/Antofagasta.xlsx
+++ b/data/Antofagasta.xlsx
@@ -11896,7 +11896,7 @@
       </c>
       <c r="B241" t="inlineStr">
         <is>
-          <t>Planta de Fabricación de Tuberías PEX (polietileno reticulado)</t>
+          <t>Transporte Interregional de Sustancias Peligrosas - AGREDUCAM VI Región</t>
         </is>
       </c>
       <c r="C241" t="inlineStr">
@@ -11906,16 +11906,16 @@
       </c>
       <c r="D241" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E241" t="inlineStr">
         <is>
-          <t>CROSSPIPE SYSTEMS S.A.</t>
+          <t>Asociación Gremial de Dueños de Camiones de la Sexta Región</t>
         </is>
       </c>
       <c r="F241" t="n">
-        <v>12400</v>
+        <v>1200</v>
       </c>
       <c r="G241" t="inlineStr">
         <is>
@@ -11929,7 +11929,7 @@
       </c>
       <c r="I241" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128954293&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128964620&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J241" t="inlineStr">
@@ -11944,7 +11944,7 @@
       </c>
       <c r="B242" t="inlineStr">
         <is>
-          <t>Transporte Interregional de Sustancias Peligrosas - AGREDUCAM VI Región</t>
+          <t>Transporte de Residuos Peligrosos por las Rutas Indicadas</t>
         </is>
       </c>
       <c r="C242" t="inlineStr">
@@ -11959,11 +11959,11 @@
       </c>
       <c r="E242" t="inlineStr">
         <is>
-          <t>Asociación Gremial de Dueños de Camiones de la Sexta Región</t>
+          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
         </is>
       </c>
       <c r="F242" t="n">
-        <v>1200</v>
+        <v>0</v>
       </c>
       <c r="G242" t="inlineStr">
         <is>
@@ -11977,7 +11977,7 @@
       </c>
       <c r="I242" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128964620&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128972489&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J242" t="inlineStr">
@@ -11992,7 +11992,7 @@
       </c>
       <c r="B243" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos por las Rutas Indicadas</t>
+          <t>Planta de Fabricación de Tuberías PEX (polietileno reticulado)</t>
         </is>
       </c>
       <c r="C243" t="inlineStr">
@@ -12002,16 +12002,16 @@
       </c>
       <c r="D243" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E243" t="inlineStr">
         <is>
-          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
+          <t>CROSSPIPE SYSTEMS S.A.</t>
         </is>
       </c>
       <c r="F243" t="n">
-        <v>0</v>
+        <v>12400</v>
       </c>
       <c r="G243" t="inlineStr">
         <is>
@@ -12025,7 +12025,7 @@
       </c>
       <c r="I243" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128972489&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128954293&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J243" t="inlineStr">
@@ -13624,26 +13624,26 @@
       </c>
       <c r="B277" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas Transaltisa Chile Ltda</t>
+          <t>RT Sulfuros</t>
         </is>
       </c>
       <c r="C277" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D277" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E277" t="inlineStr">
         <is>
-          <t>Transaltisa Chile Ltda.</t>
+          <t>CODELCO Chile, División Radomiro Tomic</t>
         </is>
       </c>
       <c r="F277" t="n">
-        <v>2050</v>
+        <v>5.4</v>
       </c>
       <c r="G277" t="inlineStr">
         <is>
@@ -13652,12 +13652,12 @@
       </c>
       <c r="H277" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I277" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8218613&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8210090&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J277" t="inlineStr">
@@ -13672,26 +13672,26 @@
       </c>
       <c r="B278" t="inlineStr">
         <is>
-          <t>RT Sulfuros</t>
+          <t>Transporte de Sustancias Peligrosas Transaltisa Chile Ltda</t>
         </is>
       </c>
       <c r="C278" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D278" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E278" t="inlineStr">
         <is>
-          <t>CODELCO Chile, División Radomiro Tomic</t>
+          <t>Transaltisa Chile Ltda.</t>
         </is>
       </c>
       <c r="F278" t="n">
-        <v>5.4</v>
+        <v>2050</v>
       </c>
       <c r="G278" t="inlineStr">
         <is>
@@ -13700,12 +13700,12 @@
       </c>
       <c r="H278" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I278" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8210090&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8218613&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J278" t="inlineStr">
@@ -16360,7 +16360,7 @@
       </c>
       <c r="B334" t="inlineStr">
         <is>
-          <t>CENTRO DE RECUPERACIÓN DE TAMBORES Y CONTENEDORES IBC CONTAMINADOS, PLAMBIENTAL LA NEGRA</t>
+          <t>Parque Fotovoltaico Los Andes</t>
         </is>
       </c>
       <c r="C334" t="inlineStr">
@@ -16375,11 +16375,11 @@
       </c>
       <c r="E334" t="inlineStr">
         <is>
-          <t>VEOLIA SERVICIOS MINEROS INTEGRALES CHILE SpA</t>
+          <t>Andes Solar SPA</t>
         </is>
       </c>
       <c r="F334" t="n">
-        <v>60</v>
+        <v>572000</v>
       </c>
       <c r="G334" t="inlineStr">
         <is>
@@ -16388,12 +16388,12 @@
       </c>
       <c r="H334" t="inlineStr">
         <is>
-          <t>Caducado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I334" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6592870&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6581267&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J334" t="inlineStr">
@@ -16408,7 +16408,7 @@
       </c>
       <c r="B335" t="inlineStr">
         <is>
-          <t>CENTRO DE ALMACENAMIENTO DE RESIDUOS INDUSTRIALES, GESAM LA NEGRA</t>
+          <t>CENTRO DE RECUPERACIÓN DE TAMBORES Y CONTENEDORES IBC CONTAMINADOS, PLAMBIENTAL LA NEGRA</t>
         </is>
       </c>
       <c r="C335" t="inlineStr">
@@ -16427,7 +16427,7 @@
         </is>
       </c>
       <c r="F335" t="n">
-        <v>360</v>
+        <v>60</v>
       </c>
       <c r="G335" t="inlineStr">
         <is>
@@ -16441,7 +16441,7 @@
       </c>
       <c r="I335" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6595234&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6592870&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J335" t="inlineStr">
@@ -16456,7 +16456,7 @@
       </c>
       <c r="B336" t="inlineStr">
         <is>
-          <t>Parque Fotovoltaico Los Andes</t>
+          <t>CENTRO DE ALMACENAMIENTO DE RESIDUOS INDUSTRIALES, GESAM LA NEGRA</t>
         </is>
       </c>
       <c r="C336" t="inlineStr">
@@ -16471,11 +16471,11 @@
       </c>
       <c r="E336" t="inlineStr">
         <is>
-          <t>Andes Solar SPA</t>
+          <t>VEOLIA SERVICIOS MINEROS INTEGRALES CHILE SpA</t>
         </is>
       </c>
       <c r="F336" t="n">
-        <v>572000</v>
+        <v>360</v>
       </c>
       <c r="G336" t="inlineStr">
         <is>
@@ -16484,12 +16484,12 @@
       </c>
       <c r="H336" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Caducado</t>
         </is>
       </c>
       <c r="I336" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6581267&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6595234&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J336" t="inlineStr">
@@ -17320,7 +17320,7 @@
       </c>
       <c r="B354" t="inlineStr">
         <is>
-          <t>Modificación Proyecto Transporte de Acido Sulfurico a granel entre la Primera y Décima Regiones de Chile</t>
+          <t>Extracción de Áridos Empréstito E17L</t>
         </is>
       </c>
       <c r="C354" t="inlineStr">
@@ -17330,16 +17330,16 @@
       </c>
       <c r="D354" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E354" t="inlineStr">
         <is>
-          <t>Transportes Herrmann Limitada</t>
+          <t>Skanska Chile S.A.</t>
         </is>
       </c>
       <c r="F354" t="n">
-        <v>0</v>
+        <v>500</v>
       </c>
       <c r="G354" t="inlineStr">
         <is>
@@ -17348,12 +17348,12 @@
       </c>
       <c r="H354" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I354" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6159602&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6156264&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J354" t="inlineStr">
@@ -17368,7 +17368,7 @@
       </c>
       <c r="B355" t="inlineStr">
         <is>
-          <t>Extracción de Áridos Empréstito E17L</t>
+          <t>Modificación Proyecto Transporte de Acido Sulfurico a granel entre la Primera y Décima Regiones de Chile</t>
         </is>
       </c>
       <c r="C355" t="inlineStr">
@@ -17378,16 +17378,16 @@
       </c>
       <c r="D355" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E355" t="inlineStr">
         <is>
-          <t>Skanska Chile S.A.</t>
+          <t>Transportes Herrmann Limitada</t>
         </is>
       </c>
       <c r="F355" t="n">
-        <v>500</v>
+        <v>0</v>
       </c>
       <c r="G355" t="inlineStr">
         <is>
@@ -17396,12 +17396,12 @@
       </c>
       <c r="H355" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I355" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6156264&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6159602&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J355" t="inlineStr">
@@ -17560,7 +17560,7 @@
       </c>
       <c r="B359" t="inlineStr">
         <is>
-          <t>Proyecto Optimización de Emplazamiento de Instalaciones en Minera Escondida</t>
+          <t>Extracción de Áridos Empréstito E-63</t>
         </is>
       </c>
       <c r="C359" t="inlineStr">
@@ -17575,11 +17575,11 @@
       </c>
       <c r="E359" t="inlineStr">
         <is>
-          <t>MINERA ESCONDIDA LIMITADA</t>
+          <t>Skanska Chile S.A.</t>
         </is>
       </c>
       <c r="F359" t="n">
-        <v>120000</v>
+        <v>500</v>
       </c>
       <c r="G359" t="inlineStr">
         <is>
@@ -17593,7 +17593,7 @@
       </c>
       <c r="I359" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6080052&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6092873&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J359" t="inlineStr">
@@ -17608,7 +17608,7 @@
       </c>
       <c r="B360" t="inlineStr">
         <is>
-          <t>Extracción de Áridos Empréstito E-63</t>
+          <t>Proyecto Optimización de Emplazamiento de Instalaciones en Minera Escondida</t>
         </is>
       </c>
       <c r="C360" t="inlineStr">
@@ -17623,11 +17623,11 @@
       </c>
       <c r="E360" t="inlineStr">
         <is>
-          <t>Skanska Chile S.A.</t>
+          <t>MINERA ESCONDIDA LIMITADA</t>
         </is>
       </c>
       <c r="F360" t="n">
-        <v>500</v>
+        <v>120000</v>
       </c>
       <c r="G360" t="inlineStr">
         <is>
@@ -17641,7 +17641,7 @@
       </c>
       <c r="I360" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6092873&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6080052&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J360" t="inlineStr">
@@ -17848,7 +17848,7 @@
       </c>
       <c r="B365" t="inlineStr">
         <is>
-          <t>Nuevas Instalaciones para Mantención Mina</t>
+          <t>Transporte de Residuos Peligrosos</t>
         </is>
       </c>
       <c r="C365" t="inlineStr">
@@ -17858,16 +17858,16 @@
       </c>
       <c r="D365" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E365" t="inlineStr">
         <is>
-          <t>MINERA ESCONDIDA LIMITADA</t>
+          <t>Transportes TMS Limitada</t>
         </is>
       </c>
       <c r="F365" t="n">
-        <v>635000</v>
+        <v>200</v>
       </c>
       <c r="G365" t="inlineStr">
         <is>
@@ -17876,12 +17876,12 @@
       </c>
       <c r="H365" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I365" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5931343&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6003582&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J365" t="inlineStr">
@@ -17896,7 +17896,7 @@
       </c>
       <c r="B366" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos</t>
+          <t>Transporte de Sustancias Peligrosas entre la I, II y III Regiones"</t>
         </is>
       </c>
       <c r="C366" t="inlineStr">
@@ -17911,11 +17911,11 @@
       </c>
       <c r="E366" t="inlineStr">
         <is>
-          <t>Transportes TMS Limitada</t>
+          <t>Molina Quimicos S.A.</t>
         </is>
       </c>
       <c r="F366" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="G366" t="inlineStr">
         <is>
@@ -17929,7 +17929,7 @@
       </c>
       <c r="I366" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6003582&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6003607&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J366" t="inlineStr">
@@ -17944,7 +17944,7 @@
       </c>
       <c r="B367" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas entre la I, II y III Regiones"</t>
+          <t>Nuevas Instalaciones para Mantención Mina</t>
         </is>
       </c>
       <c r="C367" t="inlineStr">
@@ -17954,16 +17954,16 @@
       </c>
       <c r="D367" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E367" t="inlineStr">
         <is>
-          <t>Molina Quimicos S.A.</t>
+          <t>MINERA ESCONDIDA LIMITADA</t>
         </is>
       </c>
       <c r="F367" t="n">
-        <v>100</v>
+        <v>635000</v>
       </c>
       <c r="G367" t="inlineStr">
         <is>
@@ -17972,12 +17972,12 @@
       </c>
       <c r="H367" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I367" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6003607&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5931343&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J367" t="inlineStr">
@@ -20200,7 +20200,7 @@
       </c>
       <c r="B414" t="inlineStr">
         <is>
-          <t>II MODIFICACIÓN DIA "TRANSPORTE Y MANEJO IN SITU DE RESIDUOS SÓLIDOS Y LÍQUIDOS PELIGROSOS Y NO PELIGROSOS"</t>
+          <t>"Transporte de acido sulfurico concentrado para minera Las Cenizas, Taltal."</t>
         </is>
       </c>
       <c r="C414" t="inlineStr">
@@ -20210,16 +20210,16 @@
       </c>
       <c r="D414" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E414" t="inlineStr">
         <is>
-          <t>Mol Ambiente S.A.</t>
+          <t>Translog S.A.</t>
         </is>
       </c>
       <c r="F414" t="n">
-        <v>75000</v>
+        <v>600</v>
       </c>
       <c r="G414" t="inlineStr">
         <is>
@@ -20228,12 +20228,12 @@
       </c>
       <c r="H414" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I414" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5118945&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5114868&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J414" t="inlineStr">
@@ -20248,7 +20248,7 @@
       </c>
       <c r="B415" t="inlineStr">
         <is>
-          <t>"Transporte de acido sulfurico concentrado para minera Las Cenizas, Taltal."</t>
+          <t>II MODIFICACIÓN DIA "TRANSPORTE Y MANEJO IN SITU DE RESIDUOS SÓLIDOS Y LÍQUIDOS PELIGROSOS Y NO PELIGROSOS"</t>
         </is>
       </c>
       <c r="C415" t="inlineStr">
@@ -20258,16 +20258,16 @@
       </c>
       <c r="D415" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E415" t="inlineStr">
         <is>
-          <t>Translog S.A.</t>
+          <t>Mol Ambiente S.A.</t>
         </is>
       </c>
       <c r="F415" t="n">
-        <v>600</v>
+        <v>75000</v>
       </c>
       <c r="G415" t="inlineStr">
         <is>
@@ -20276,12 +20276,12 @@
       </c>
       <c r="H415" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I415" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5114868&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5118945&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J415" t="inlineStr">
@@ -21736,7 +21736,7 @@
       </c>
       <c r="B446" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE RESIDUOS PELIGROSOS POR RUTAS DE LA REGIÓN DE ANTOFAGASTA</t>
+          <t>Proyecto Laboratorios Químicos CIMM T&amp;S SA. La Negra</t>
         </is>
       </c>
       <c r="C446" t="inlineStr">
@@ -21751,11 +21751,11 @@
       </c>
       <c r="E446" t="inlineStr">
         <is>
-          <t>Limfosep S.A</t>
+          <t>Yancko Gonzalez Rozas</t>
         </is>
       </c>
       <c r="F446" t="n">
-        <v>1000</v>
+        <v>8000</v>
       </c>
       <c r="G446" t="inlineStr">
         <is>
@@ -21764,12 +21764,12 @@
       </c>
       <c r="H446" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I446" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4698232&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4670031&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J446" t="inlineStr">
@@ -21784,7 +21784,7 @@
       </c>
       <c r="B447" t="inlineStr">
         <is>
-          <t>Proyecto Laboratorios Químicos CIMM T&amp;S SA. La Negra</t>
+          <t>TRANSPORTE DE RESIDUOS PELIGROSOS POR RUTAS DE LA REGIÓN DE ANTOFAGASTA</t>
         </is>
       </c>
       <c r="C447" t="inlineStr">
@@ -21799,11 +21799,11 @@
       </c>
       <c r="E447" t="inlineStr">
         <is>
-          <t>Yancko Gonzalez Rozas</t>
+          <t>Limfosep S.A</t>
         </is>
       </c>
       <c r="F447" t="n">
-        <v>8000</v>
+        <v>1000</v>
       </c>
       <c r="G447" t="inlineStr">
         <is>
@@ -21812,12 +21812,12 @@
       </c>
       <c r="H447" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I447" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4670031&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4698232&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J447" t="inlineStr">
@@ -22216,7 +22216,7 @@
       </c>
       <c r="B456" t="inlineStr">
         <is>
-          <t>EXPANSION DEPOSITO DE RELAVES FILTRADOS FAENA EL PEÑÓN</t>
+          <t>Nuevo Transporte Interregional de Cianuro de Sodio</t>
         </is>
       </c>
       <c r="C456" t="inlineStr">
@@ -22226,16 +22226,16 @@
       </c>
       <c r="D456" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E456" t="inlineStr">
         <is>
-          <t>Minera Meridian Limitada</t>
+          <t>OXIQUIM S.A.</t>
         </is>
       </c>
       <c r="F456" t="n">
-        <v>688</v>
+        <v>85</v>
       </c>
       <c r="G456" t="inlineStr">
         <is>
@@ -22244,12 +22244,12 @@
       </c>
       <c r="H456" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I456" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4601640&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4594007&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J456" t="inlineStr">
@@ -22264,7 +22264,7 @@
       </c>
       <c r="B457" t="inlineStr">
         <is>
-          <t>Nuevo Transporte Interregional de Cianuro de Sodio</t>
+          <t>EXPANSION DEPOSITO DE RELAVES FILTRADOS FAENA EL PEÑÓN</t>
         </is>
       </c>
       <c r="C457" t="inlineStr">
@@ -22274,16 +22274,16 @@
       </c>
       <c r="D457" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E457" t="inlineStr">
         <is>
-          <t>OXIQUIM S.A.</t>
+          <t>Minera Meridian Limitada</t>
         </is>
       </c>
       <c r="F457" t="n">
-        <v>85</v>
+        <v>688</v>
       </c>
       <c r="G457" t="inlineStr">
         <is>
@@ -22292,12 +22292,12 @@
       </c>
       <c r="H457" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I457" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4594007&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4601640&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J457" t="inlineStr">

--- a/data/Antofagasta.xlsx
+++ b/data/Antofagasta.xlsx
@@ -447,12 +447,12 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>16/12/2022</t>
+          <t>22/12/2022</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>En Admisión</t>
+          <t>En Calificación</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
@@ -11896,7 +11896,7 @@
       </c>
       <c r="B241" t="inlineStr">
         <is>
-          <t>Transporte Interregional de Sustancias Peligrosas - AGREDUCAM VI Región</t>
+          <t>Planta de Fabricación de Tuberías PEX (polietileno reticulado)</t>
         </is>
       </c>
       <c r="C241" t="inlineStr">
@@ -11906,16 +11906,16 @@
       </c>
       <c r="D241" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E241" t="inlineStr">
         <is>
-          <t>Asociación Gremial de Dueños de Camiones de la Sexta Región</t>
+          <t>CROSSPIPE SYSTEMS S.A.</t>
         </is>
       </c>
       <c r="F241" t="n">
-        <v>1200</v>
+        <v>12400</v>
       </c>
       <c r="G241" t="inlineStr">
         <is>
@@ -11929,7 +11929,7 @@
       </c>
       <c r="I241" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128964620&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128954293&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J241" t="inlineStr">
@@ -11944,7 +11944,7 @@
       </c>
       <c r="B242" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos por las Rutas Indicadas</t>
+          <t>Transporte Interregional de Sustancias Peligrosas - AGREDUCAM VI Región</t>
         </is>
       </c>
       <c r="C242" t="inlineStr">
@@ -11959,11 +11959,11 @@
       </c>
       <c r="E242" t="inlineStr">
         <is>
-          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
+          <t>Asociación Gremial de Dueños de Camiones de la Sexta Región</t>
         </is>
       </c>
       <c r="F242" t="n">
-        <v>0</v>
+        <v>1200</v>
       </c>
       <c r="G242" t="inlineStr">
         <is>
@@ -11977,7 +11977,7 @@
       </c>
       <c r="I242" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128972489&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128964620&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J242" t="inlineStr">
@@ -11992,7 +11992,7 @@
       </c>
       <c r="B243" t="inlineStr">
         <is>
-          <t>Planta de Fabricación de Tuberías PEX (polietileno reticulado)</t>
+          <t>Transporte de Residuos Peligrosos por las Rutas Indicadas</t>
         </is>
       </c>
       <c r="C243" t="inlineStr">
@@ -12002,16 +12002,16 @@
       </c>
       <c r="D243" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E243" t="inlineStr">
         <is>
-          <t>CROSSPIPE SYSTEMS S.A.</t>
+          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
         </is>
       </c>
       <c r="F243" t="n">
-        <v>12400</v>
+        <v>0</v>
       </c>
       <c r="G243" t="inlineStr">
         <is>
@@ -12025,7 +12025,7 @@
       </c>
       <c r="I243" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128954293&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128972489&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J243" t="inlineStr">
@@ -13624,26 +13624,26 @@
       </c>
       <c r="B277" t="inlineStr">
         <is>
-          <t>RT Sulfuros</t>
+          <t>Transporte de Sustancias Peligrosas Transaltisa Chile Ltda</t>
         </is>
       </c>
       <c r="C277" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D277" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E277" t="inlineStr">
         <is>
-          <t>CODELCO Chile, División Radomiro Tomic</t>
+          <t>Transaltisa Chile Ltda.</t>
         </is>
       </c>
       <c r="F277" t="n">
-        <v>5.4</v>
+        <v>2050</v>
       </c>
       <c r="G277" t="inlineStr">
         <is>
@@ -13652,12 +13652,12 @@
       </c>
       <c r="H277" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I277" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8210090&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8218613&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J277" t="inlineStr">
@@ -13672,26 +13672,26 @@
       </c>
       <c r="B278" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas Transaltisa Chile Ltda</t>
+          <t>RT Sulfuros</t>
         </is>
       </c>
       <c r="C278" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D278" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E278" t="inlineStr">
         <is>
-          <t>Transaltisa Chile Ltda.</t>
+          <t>CODELCO Chile, División Radomiro Tomic</t>
         </is>
       </c>
       <c r="F278" t="n">
-        <v>2050</v>
+        <v>5.4</v>
       </c>
       <c r="G278" t="inlineStr">
         <is>
@@ -13700,12 +13700,12 @@
       </c>
       <c r="H278" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I278" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8218613&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8210090&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J278" t="inlineStr">
@@ -16360,7 +16360,7 @@
       </c>
       <c r="B334" t="inlineStr">
         <is>
-          <t>Parque Fotovoltaico Los Andes</t>
+          <t>CENTRO DE RECUPERACIÓN DE TAMBORES Y CONTENEDORES IBC CONTAMINADOS, PLAMBIENTAL LA NEGRA</t>
         </is>
       </c>
       <c r="C334" t="inlineStr">
@@ -16375,11 +16375,11 @@
       </c>
       <c r="E334" t="inlineStr">
         <is>
-          <t>Andes Solar SPA</t>
+          <t>VEOLIA SERVICIOS MINEROS INTEGRALES CHILE SpA</t>
         </is>
       </c>
       <c r="F334" t="n">
-        <v>572000</v>
+        <v>60</v>
       </c>
       <c r="G334" t="inlineStr">
         <is>
@@ -16388,12 +16388,12 @@
       </c>
       <c r="H334" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Caducado</t>
         </is>
       </c>
       <c r="I334" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6581267&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6592870&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J334" t="inlineStr">
@@ -16408,7 +16408,7 @@
       </c>
       <c r="B335" t="inlineStr">
         <is>
-          <t>CENTRO DE RECUPERACIÓN DE TAMBORES Y CONTENEDORES IBC CONTAMINADOS, PLAMBIENTAL LA NEGRA</t>
+          <t>CENTRO DE ALMACENAMIENTO DE RESIDUOS INDUSTRIALES, GESAM LA NEGRA</t>
         </is>
       </c>
       <c r="C335" t="inlineStr">
@@ -16427,7 +16427,7 @@
         </is>
       </c>
       <c r="F335" t="n">
-        <v>60</v>
+        <v>360</v>
       </c>
       <c r="G335" t="inlineStr">
         <is>
@@ -16441,7 +16441,7 @@
       </c>
       <c r="I335" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6592870&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6595234&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J335" t="inlineStr">
@@ -16456,7 +16456,7 @@
       </c>
       <c r="B336" t="inlineStr">
         <is>
-          <t>CENTRO DE ALMACENAMIENTO DE RESIDUOS INDUSTRIALES, GESAM LA NEGRA</t>
+          <t>Parque Fotovoltaico Los Andes</t>
         </is>
       </c>
       <c r="C336" t="inlineStr">
@@ -16471,11 +16471,11 @@
       </c>
       <c r="E336" t="inlineStr">
         <is>
-          <t>VEOLIA SERVICIOS MINEROS INTEGRALES CHILE SpA</t>
+          <t>Andes Solar SPA</t>
         </is>
       </c>
       <c r="F336" t="n">
-        <v>360</v>
+        <v>572000</v>
       </c>
       <c r="G336" t="inlineStr">
         <is>
@@ -16484,12 +16484,12 @@
       </c>
       <c r="H336" t="inlineStr">
         <is>
-          <t>Caducado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I336" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6595234&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6581267&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J336" t="inlineStr">
@@ -17320,7 +17320,7 @@
       </c>
       <c r="B354" t="inlineStr">
         <is>
-          <t>Extracción de Áridos Empréstito E17L</t>
+          <t>Modificación Proyecto Transporte de Acido Sulfurico a granel entre la Primera y Décima Regiones de Chile</t>
         </is>
       </c>
       <c r="C354" t="inlineStr">
@@ -17330,16 +17330,16 @@
       </c>
       <c r="D354" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E354" t="inlineStr">
         <is>
-          <t>Skanska Chile S.A.</t>
+          <t>Transportes Herrmann Limitada</t>
         </is>
       </c>
       <c r="F354" t="n">
-        <v>500</v>
+        <v>0</v>
       </c>
       <c r="G354" t="inlineStr">
         <is>
@@ -17348,12 +17348,12 @@
       </c>
       <c r="H354" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I354" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6156264&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6159602&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J354" t="inlineStr">
@@ -17368,7 +17368,7 @@
       </c>
       <c r="B355" t="inlineStr">
         <is>
-          <t>Modificación Proyecto Transporte de Acido Sulfurico a granel entre la Primera y Décima Regiones de Chile</t>
+          <t>Extracción de Áridos Empréstito E17L</t>
         </is>
       </c>
       <c r="C355" t="inlineStr">
@@ -17378,16 +17378,16 @@
       </c>
       <c r="D355" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E355" t="inlineStr">
         <is>
-          <t>Transportes Herrmann Limitada</t>
+          <t>Skanska Chile S.A.</t>
         </is>
       </c>
       <c r="F355" t="n">
-        <v>0</v>
+        <v>500</v>
       </c>
       <c r="G355" t="inlineStr">
         <is>
@@ -17396,12 +17396,12 @@
       </c>
       <c r="H355" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I355" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6159602&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6156264&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J355" t="inlineStr">
@@ -17560,7 +17560,7 @@
       </c>
       <c r="B359" t="inlineStr">
         <is>
-          <t>Extracción de Áridos Empréstito E-63</t>
+          <t>Proyecto Optimización de Emplazamiento de Instalaciones en Minera Escondida</t>
         </is>
       </c>
       <c r="C359" t="inlineStr">
@@ -17575,11 +17575,11 @@
       </c>
       <c r="E359" t="inlineStr">
         <is>
-          <t>Skanska Chile S.A.</t>
+          <t>MINERA ESCONDIDA LIMITADA</t>
         </is>
       </c>
       <c r="F359" t="n">
-        <v>500</v>
+        <v>120000</v>
       </c>
       <c r="G359" t="inlineStr">
         <is>
@@ -17593,7 +17593,7 @@
       </c>
       <c r="I359" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6092873&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6080052&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J359" t="inlineStr">
@@ -17608,7 +17608,7 @@
       </c>
       <c r="B360" t="inlineStr">
         <is>
-          <t>Proyecto Optimización de Emplazamiento de Instalaciones en Minera Escondida</t>
+          <t>Extracción de Áridos Empréstito E-63</t>
         </is>
       </c>
       <c r="C360" t="inlineStr">
@@ -17623,11 +17623,11 @@
       </c>
       <c r="E360" t="inlineStr">
         <is>
-          <t>MINERA ESCONDIDA LIMITADA</t>
+          <t>Skanska Chile S.A.</t>
         </is>
       </c>
       <c r="F360" t="n">
-        <v>120000</v>
+        <v>500</v>
       </c>
       <c r="G360" t="inlineStr">
         <is>
@@ -17641,7 +17641,7 @@
       </c>
       <c r="I360" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6080052&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6092873&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J360" t="inlineStr">
@@ -17848,7 +17848,7 @@
       </c>
       <c r="B365" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos</t>
+          <t>Nuevas Instalaciones para Mantención Mina</t>
         </is>
       </c>
       <c r="C365" t="inlineStr">
@@ -17858,16 +17858,16 @@
       </c>
       <c r="D365" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E365" t="inlineStr">
         <is>
-          <t>Transportes TMS Limitada</t>
+          <t>MINERA ESCONDIDA LIMITADA</t>
         </is>
       </c>
       <c r="F365" t="n">
-        <v>200</v>
+        <v>635000</v>
       </c>
       <c r="G365" t="inlineStr">
         <is>
@@ -17876,12 +17876,12 @@
       </c>
       <c r="H365" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I365" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6003582&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5931343&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J365" t="inlineStr">
@@ -17896,7 +17896,7 @@
       </c>
       <c r="B366" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas entre la I, II y III Regiones"</t>
+          <t>Transporte de Residuos Peligrosos</t>
         </is>
       </c>
       <c r="C366" t="inlineStr">
@@ -17911,11 +17911,11 @@
       </c>
       <c r="E366" t="inlineStr">
         <is>
-          <t>Molina Quimicos S.A.</t>
+          <t>Transportes TMS Limitada</t>
         </is>
       </c>
       <c r="F366" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="G366" t="inlineStr">
         <is>
@@ -17929,7 +17929,7 @@
       </c>
       <c r="I366" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6003607&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6003582&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J366" t="inlineStr">
@@ -17944,7 +17944,7 @@
       </c>
       <c r="B367" t="inlineStr">
         <is>
-          <t>Nuevas Instalaciones para Mantención Mina</t>
+          <t>Transporte de Sustancias Peligrosas entre la I, II y III Regiones"</t>
         </is>
       </c>
       <c r="C367" t="inlineStr">
@@ -17954,16 +17954,16 @@
       </c>
       <c r="D367" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E367" t="inlineStr">
         <is>
-          <t>MINERA ESCONDIDA LIMITADA</t>
+          <t>Molina Quimicos S.A.</t>
         </is>
       </c>
       <c r="F367" t="n">
-        <v>635000</v>
+        <v>100</v>
       </c>
       <c r="G367" t="inlineStr">
         <is>
@@ -17972,12 +17972,12 @@
       </c>
       <c r="H367" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I367" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5931343&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6003607&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J367" t="inlineStr">
@@ -20200,7 +20200,7 @@
       </c>
       <c r="B414" t="inlineStr">
         <is>
-          <t>"Transporte de acido sulfurico concentrado para minera Las Cenizas, Taltal."</t>
+          <t>II MODIFICACIÓN DIA "TRANSPORTE Y MANEJO IN SITU DE RESIDUOS SÓLIDOS Y LÍQUIDOS PELIGROSOS Y NO PELIGROSOS"</t>
         </is>
       </c>
       <c r="C414" t="inlineStr">
@@ -20210,16 +20210,16 @@
       </c>
       <c r="D414" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E414" t="inlineStr">
         <is>
-          <t>Translog S.A.</t>
+          <t>Mol Ambiente S.A.</t>
         </is>
       </c>
       <c r="F414" t="n">
-        <v>600</v>
+        <v>75000</v>
       </c>
       <c r="G414" t="inlineStr">
         <is>
@@ -20228,12 +20228,12 @@
       </c>
       <c r="H414" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I414" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5114868&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5118945&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J414" t="inlineStr">
@@ -20248,7 +20248,7 @@
       </c>
       <c r="B415" t="inlineStr">
         <is>
-          <t>II MODIFICACIÓN DIA "TRANSPORTE Y MANEJO IN SITU DE RESIDUOS SÓLIDOS Y LÍQUIDOS PELIGROSOS Y NO PELIGROSOS"</t>
+          <t>"Transporte de acido sulfurico concentrado para minera Las Cenizas, Taltal."</t>
         </is>
       </c>
       <c r="C415" t="inlineStr">
@@ -20258,16 +20258,16 @@
       </c>
       <c r="D415" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E415" t="inlineStr">
         <is>
-          <t>Mol Ambiente S.A.</t>
+          <t>Translog S.A.</t>
         </is>
       </c>
       <c r="F415" t="n">
-        <v>75000</v>
+        <v>600</v>
       </c>
       <c r="G415" t="inlineStr">
         <is>
@@ -20276,12 +20276,12 @@
       </c>
       <c r="H415" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I415" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5118945&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5114868&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J415" t="inlineStr">
@@ -21736,7 +21736,7 @@
       </c>
       <c r="B446" t="inlineStr">
         <is>
-          <t>Proyecto Laboratorios Químicos CIMM T&amp;S SA. La Negra</t>
+          <t>TRANSPORTE DE RESIDUOS PELIGROSOS POR RUTAS DE LA REGIÓN DE ANTOFAGASTA</t>
         </is>
       </c>
       <c r="C446" t="inlineStr">
@@ -21751,11 +21751,11 @@
       </c>
       <c r="E446" t="inlineStr">
         <is>
-          <t>Yancko Gonzalez Rozas</t>
+          <t>Limfosep S.A</t>
         </is>
       </c>
       <c r="F446" t="n">
-        <v>8000</v>
+        <v>1000</v>
       </c>
       <c r="G446" t="inlineStr">
         <is>
@@ -21764,12 +21764,12 @@
       </c>
       <c r="H446" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I446" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4670031&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4698232&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J446" t="inlineStr">
@@ -21784,7 +21784,7 @@
       </c>
       <c r="B447" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE RESIDUOS PELIGROSOS POR RUTAS DE LA REGIÓN DE ANTOFAGASTA</t>
+          <t>Proyecto Laboratorios Químicos CIMM T&amp;S SA. La Negra</t>
         </is>
       </c>
       <c r="C447" t="inlineStr">
@@ -21799,11 +21799,11 @@
       </c>
       <c r="E447" t="inlineStr">
         <is>
-          <t>Limfosep S.A</t>
+          <t>Yancko Gonzalez Rozas</t>
         </is>
       </c>
       <c r="F447" t="n">
-        <v>1000</v>
+        <v>8000</v>
       </c>
       <c r="G447" t="inlineStr">
         <is>
@@ -21812,12 +21812,12 @@
       </c>
       <c r="H447" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I447" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4698232&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4670031&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J447" t="inlineStr">
@@ -22216,7 +22216,7 @@
       </c>
       <c r="B456" t="inlineStr">
         <is>
-          <t>Nuevo Transporte Interregional de Cianuro de Sodio</t>
+          <t>EXPANSION DEPOSITO DE RELAVES FILTRADOS FAENA EL PEÑÓN</t>
         </is>
       </c>
       <c r="C456" t="inlineStr">
@@ -22226,16 +22226,16 @@
       </c>
       <c r="D456" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E456" t="inlineStr">
         <is>
-          <t>OXIQUIM S.A.</t>
+          <t>Minera Meridian Limitada</t>
         </is>
       </c>
       <c r="F456" t="n">
-        <v>85</v>
+        <v>688</v>
       </c>
       <c r="G456" t="inlineStr">
         <is>
@@ -22244,12 +22244,12 @@
       </c>
       <c r="H456" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I456" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4594007&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4601640&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J456" t="inlineStr">
@@ -22264,7 +22264,7 @@
       </c>
       <c r="B457" t="inlineStr">
         <is>
-          <t>EXPANSION DEPOSITO DE RELAVES FILTRADOS FAENA EL PEÑÓN</t>
+          <t>Nuevo Transporte Interregional de Cianuro de Sodio</t>
         </is>
       </c>
       <c r="C457" t="inlineStr">
@@ -22274,16 +22274,16 @@
       </c>
       <c r="D457" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E457" t="inlineStr">
         <is>
-          <t>Minera Meridian Limitada</t>
+          <t>OXIQUIM S.A.</t>
         </is>
       </c>
       <c r="F457" t="n">
-        <v>688</v>
+        <v>85</v>
       </c>
       <c r="G457" t="inlineStr">
         <is>
@@ -22292,12 +22292,12 @@
       </c>
       <c r="H457" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I457" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4601640&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4594007&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J457" t="inlineStr">

--- a/data/Antofagasta.xlsx
+++ b/data/Antofagasta.xlsx
@@ -11944,7 +11944,7 @@
       </c>
       <c r="B242" t="inlineStr">
         <is>
-          <t>Planta de Fabricación de Tuberías PEX (polietileno reticulado)</t>
+          <t>Transporte Interregional de Sustancias Peligrosas - AGREDUCAM VI Región</t>
         </is>
       </c>
       <c r="C242" t="inlineStr">
@@ -11954,16 +11954,16 @@
       </c>
       <c r="D242" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E242" t="inlineStr">
         <is>
-          <t>CROSSPIPE SYSTEMS S.A.</t>
+          <t>Asociación Gremial de Dueños de Camiones de la Sexta Región</t>
         </is>
       </c>
       <c r="F242" t="n">
-        <v>12400</v>
+        <v>1200</v>
       </c>
       <c r="G242" t="inlineStr">
         <is>
@@ -11977,7 +11977,7 @@
       </c>
       <c r="I242" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128954293&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128964620&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J242" t="inlineStr">
@@ -11992,7 +11992,7 @@
       </c>
       <c r="B243" t="inlineStr">
         <is>
-          <t>Transporte Interregional de Sustancias Peligrosas - AGREDUCAM VI Región</t>
+          <t>Transporte de Residuos Peligrosos por las Rutas Indicadas</t>
         </is>
       </c>
       <c r="C243" t="inlineStr">
@@ -12007,11 +12007,11 @@
       </c>
       <c r="E243" t="inlineStr">
         <is>
-          <t>Asociación Gremial de Dueños de Camiones de la Sexta Región</t>
+          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
         </is>
       </c>
       <c r="F243" t="n">
-        <v>1200</v>
+        <v>0</v>
       </c>
       <c r="G243" t="inlineStr">
         <is>
@@ -12025,7 +12025,7 @@
       </c>
       <c r="I243" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128964620&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128972489&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J243" t="inlineStr">
@@ -12040,7 +12040,7 @@
       </c>
       <c r="B244" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos por las Rutas Indicadas</t>
+          <t>Planta de Fabricación de Tuberías PEX (polietileno reticulado)</t>
         </is>
       </c>
       <c r="C244" t="inlineStr">
@@ -12050,16 +12050,16 @@
       </c>
       <c r="D244" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E244" t="inlineStr">
         <is>
-          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
+          <t>CROSSPIPE SYSTEMS S.A.</t>
         </is>
       </c>
       <c r="F244" t="n">
-        <v>0</v>
+        <v>12400</v>
       </c>
       <c r="G244" t="inlineStr">
         <is>
@@ -12073,7 +12073,7 @@
       </c>
       <c r="I244" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128972489&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128954293&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J244" t="inlineStr">
@@ -13672,26 +13672,26 @@
       </c>
       <c r="B278" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas Transaltisa Chile Ltda</t>
+          <t>RT Sulfuros</t>
         </is>
       </c>
       <c r="C278" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D278" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E278" t="inlineStr">
         <is>
-          <t>Transaltisa Chile Ltda.</t>
+          <t>CODELCO Chile, División Radomiro Tomic</t>
         </is>
       </c>
       <c r="F278" t="n">
-        <v>2050</v>
+        <v>5.4</v>
       </c>
       <c r="G278" t="inlineStr">
         <is>
@@ -13700,12 +13700,12 @@
       </c>
       <c r="H278" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I278" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8218613&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8210090&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J278" t="inlineStr">
@@ -13720,26 +13720,26 @@
       </c>
       <c r="B279" t="inlineStr">
         <is>
-          <t>RT Sulfuros</t>
+          <t>Transporte de Sustancias Peligrosas Transaltisa Chile Ltda</t>
         </is>
       </c>
       <c r="C279" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D279" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E279" t="inlineStr">
         <is>
-          <t>CODELCO Chile, División Radomiro Tomic</t>
+          <t>Transaltisa Chile Ltda.</t>
         </is>
       </c>
       <c r="F279" t="n">
-        <v>5.4</v>
+        <v>2050</v>
       </c>
       <c r="G279" t="inlineStr">
         <is>
@@ -13748,12 +13748,12 @@
       </c>
       <c r="H279" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I279" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8210090&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8218613&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J279" t="inlineStr">
@@ -16408,7 +16408,7 @@
       </c>
       <c r="B335" t="inlineStr">
         <is>
-          <t>CENTRO DE RECUPERACIÓN DE TAMBORES Y CONTENEDORES IBC CONTAMINADOS, PLAMBIENTAL LA NEGRA</t>
+          <t>Parque Fotovoltaico Los Andes</t>
         </is>
       </c>
       <c r="C335" t="inlineStr">
@@ -16423,11 +16423,11 @@
       </c>
       <c r="E335" t="inlineStr">
         <is>
-          <t>VEOLIA SERVICIOS MINEROS INTEGRALES CHILE SpA</t>
+          <t>Andes Solar SPA</t>
         </is>
       </c>
       <c r="F335" t="n">
-        <v>60</v>
+        <v>572000</v>
       </c>
       <c r="G335" t="inlineStr">
         <is>
@@ -16436,12 +16436,12 @@
       </c>
       <c r="H335" t="inlineStr">
         <is>
-          <t>Caducado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I335" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6592870&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6581267&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J335" t="inlineStr">
@@ -16456,7 +16456,7 @@
       </c>
       <c r="B336" t="inlineStr">
         <is>
-          <t>CENTRO DE ALMACENAMIENTO DE RESIDUOS INDUSTRIALES, GESAM LA NEGRA</t>
+          <t>CENTRO DE RECUPERACIÓN DE TAMBORES Y CONTENEDORES IBC CONTAMINADOS, PLAMBIENTAL LA NEGRA</t>
         </is>
       </c>
       <c r="C336" t="inlineStr">
@@ -16475,7 +16475,7 @@
         </is>
       </c>
       <c r="F336" t="n">
-        <v>360</v>
+        <v>60</v>
       </c>
       <c r="G336" t="inlineStr">
         <is>
@@ -16489,7 +16489,7 @@
       </c>
       <c r="I336" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6595234&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6592870&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J336" t="inlineStr">
@@ -16504,7 +16504,7 @@
       </c>
       <c r="B337" t="inlineStr">
         <is>
-          <t>Parque Fotovoltaico Los Andes</t>
+          <t>CENTRO DE ALMACENAMIENTO DE RESIDUOS INDUSTRIALES, GESAM LA NEGRA</t>
         </is>
       </c>
       <c r="C337" t="inlineStr">
@@ -16519,11 +16519,11 @@
       </c>
       <c r="E337" t="inlineStr">
         <is>
-          <t>Andes Solar SPA</t>
+          <t>VEOLIA SERVICIOS MINEROS INTEGRALES CHILE SpA</t>
         </is>
       </c>
       <c r="F337" t="n">
-        <v>572000</v>
+        <v>360</v>
       </c>
       <c r="G337" t="inlineStr">
         <is>
@@ -16532,12 +16532,12 @@
       </c>
       <c r="H337" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Caducado</t>
         </is>
       </c>
       <c r="I337" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6581267&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6595234&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J337" t="inlineStr">
@@ -16696,7 +16696,7 @@
       </c>
       <c r="B341" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos</t>
+          <t>MODIFICACION DE LA DECLARACIÓN DE IMPACTO AMBIENTAL PROYECTO TRANSPORTE DE SULFHIDRATO DE SODIO EN LA PRIMERA Y SEGUNDA REGION</t>
         </is>
       </c>
       <c r="C341" t="inlineStr">
@@ -16711,11 +16711,11 @@
       </c>
       <c r="E341" t="inlineStr">
         <is>
-          <t>Transportes TMS Limitada</t>
+          <t>Sociedad de Transportes Camaro Ltda.</t>
         </is>
       </c>
       <c r="F341" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="G341" t="inlineStr">
         <is>
@@ -16729,7 +16729,7 @@
       </c>
       <c r="I341" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6479568&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6450945&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J341" t="inlineStr">
@@ -16744,7 +16744,7 @@
       </c>
       <c r="B342" t="inlineStr">
         <is>
-          <t>MODIFICACION DE LA DECLARACIÓN DE IMPACTO AMBIENTAL PROYECTO TRANSPORTE DE SULFHIDRATO DE SODIO EN LA PRIMERA Y SEGUNDA REGION</t>
+          <t>Transporte de Residuos Peligrosos</t>
         </is>
       </c>
       <c r="C342" t="inlineStr">
@@ -16759,11 +16759,11 @@
       </c>
       <c r="E342" t="inlineStr">
         <is>
-          <t>Sociedad de Transportes Camaro Ltda.</t>
+          <t>Transportes TMS Limitada</t>
         </is>
       </c>
       <c r="F342" t="n">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="G342" t="inlineStr">
         <is>
@@ -16777,7 +16777,7 @@
       </c>
       <c r="I342" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6450945&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6479568&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J342" t="inlineStr">
@@ -17368,7 +17368,7 @@
       </c>
       <c r="B355" t="inlineStr">
         <is>
-          <t>Modificación Proyecto Transporte de Acido Sulfurico a granel entre la Primera y Décima Regiones de Chile</t>
+          <t>Extracción de Áridos Empréstito E17L</t>
         </is>
       </c>
       <c r="C355" t="inlineStr">
@@ -17378,16 +17378,16 @@
       </c>
       <c r="D355" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E355" t="inlineStr">
         <is>
-          <t>Transportes Herrmann Limitada</t>
+          <t>Skanska Chile S.A.</t>
         </is>
       </c>
       <c r="F355" t="n">
-        <v>0</v>
+        <v>500</v>
       </c>
       <c r="G355" t="inlineStr">
         <is>
@@ -17396,12 +17396,12 @@
       </c>
       <c r="H355" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I355" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6159602&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6156264&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J355" t="inlineStr">
@@ -17416,7 +17416,7 @@
       </c>
       <c r="B356" t="inlineStr">
         <is>
-          <t>Extracción de Áridos Empréstito E17L</t>
+          <t>Modificación Proyecto Transporte de Acido Sulfurico a granel entre la Primera y Décima Regiones de Chile</t>
         </is>
       </c>
       <c r="C356" t="inlineStr">
@@ -17426,16 +17426,16 @@
       </c>
       <c r="D356" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E356" t="inlineStr">
         <is>
-          <t>Skanska Chile S.A.</t>
+          <t>Transportes Herrmann Limitada</t>
         </is>
       </c>
       <c r="F356" t="n">
-        <v>500</v>
+        <v>0</v>
       </c>
       <c r="G356" t="inlineStr">
         <is>
@@ -17444,12 +17444,12 @@
       </c>
       <c r="H356" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I356" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6156264&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6159602&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J356" t="inlineStr">
@@ -17896,7 +17896,7 @@
       </c>
       <c r="B366" t="inlineStr">
         <is>
-          <t>Nuevas Instalaciones para Mantención Mina</t>
+          <t>Transporte de Residuos Peligrosos</t>
         </is>
       </c>
       <c r="C366" t="inlineStr">
@@ -17906,16 +17906,16 @@
       </c>
       <c r="D366" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E366" t="inlineStr">
         <is>
-          <t>MINERA ESCONDIDA LIMITADA</t>
+          <t>Transportes TMS Limitada</t>
         </is>
       </c>
       <c r="F366" t="n">
-        <v>635000</v>
+        <v>200</v>
       </c>
       <c r="G366" t="inlineStr">
         <is>
@@ -17924,12 +17924,12 @@
       </c>
       <c r="H366" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I366" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5931343&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6003582&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J366" t="inlineStr">
@@ -17944,7 +17944,7 @@
       </c>
       <c r="B367" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos</t>
+          <t>Transporte de Sustancias Peligrosas entre la I, II y III Regiones"</t>
         </is>
       </c>
       <c r="C367" t="inlineStr">
@@ -17959,11 +17959,11 @@
       </c>
       <c r="E367" t="inlineStr">
         <is>
-          <t>Transportes TMS Limitada</t>
+          <t>Molina Quimicos S.A.</t>
         </is>
       </c>
       <c r="F367" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="G367" t="inlineStr">
         <is>
@@ -17977,7 +17977,7 @@
       </c>
       <c r="I367" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6003582&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6003607&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J367" t="inlineStr">
@@ -17992,7 +17992,7 @@
       </c>
       <c r="B368" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas entre la I, II y III Regiones"</t>
+          <t>Nuevas Instalaciones para Mantención Mina</t>
         </is>
       </c>
       <c r="C368" t="inlineStr">
@@ -18002,16 +18002,16 @@
       </c>
       <c r="D368" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E368" t="inlineStr">
         <is>
-          <t>Molina Quimicos S.A.</t>
+          <t>MINERA ESCONDIDA LIMITADA</t>
         </is>
       </c>
       <c r="F368" t="n">
-        <v>100</v>
+        <v>635000</v>
       </c>
       <c r="G368" t="inlineStr">
         <is>
@@ -18020,12 +18020,12 @@
       </c>
       <c r="H368" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I368" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6003607&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5931343&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J368" t="inlineStr">
@@ -20248,7 +20248,7 @@
       </c>
       <c r="B415" t="inlineStr">
         <is>
-          <t>II MODIFICACIÓN DIA "TRANSPORTE Y MANEJO IN SITU DE RESIDUOS SÓLIDOS Y LÍQUIDOS PELIGROSOS Y NO PELIGROSOS"</t>
+          <t>"Transporte de acido sulfurico concentrado para minera Las Cenizas, Taltal."</t>
         </is>
       </c>
       <c r="C415" t="inlineStr">
@@ -20258,16 +20258,16 @@
       </c>
       <c r="D415" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E415" t="inlineStr">
         <is>
-          <t>Mol Ambiente S.A.</t>
+          <t>Translog S.A.</t>
         </is>
       </c>
       <c r="F415" t="n">
-        <v>75000</v>
+        <v>600</v>
       </c>
       <c r="G415" t="inlineStr">
         <is>
@@ -20276,12 +20276,12 @@
       </c>
       <c r="H415" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I415" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5118945&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5114868&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J415" t="inlineStr">
@@ -20296,7 +20296,7 @@
       </c>
       <c r="B416" t="inlineStr">
         <is>
-          <t>"Transporte de acido sulfurico concentrado para minera Las Cenizas, Taltal."</t>
+          <t>II MODIFICACIÓN DIA "TRANSPORTE Y MANEJO IN SITU DE RESIDUOS SÓLIDOS Y LÍQUIDOS PELIGROSOS Y NO PELIGROSOS"</t>
         </is>
       </c>
       <c r="C416" t="inlineStr">
@@ -20306,16 +20306,16 @@
       </c>
       <c r="D416" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E416" t="inlineStr">
         <is>
-          <t>Translog S.A.</t>
+          <t>Mol Ambiente S.A.</t>
         </is>
       </c>
       <c r="F416" t="n">
-        <v>600</v>
+        <v>75000</v>
       </c>
       <c r="G416" t="inlineStr">
         <is>
@@ -20324,12 +20324,12 @@
       </c>
       <c r="H416" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I416" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5114868&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5118945&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J416" t="inlineStr">
@@ -21784,7 +21784,7 @@
       </c>
       <c r="B447" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE RESIDUOS PELIGROSOS POR RUTAS DE LA REGIÓN DE ANTOFAGASTA</t>
+          <t>Proyecto Laboratorios Químicos CIMM T&amp;S SA. La Negra</t>
         </is>
       </c>
       <c r="C447" t="inlineStr">
@@ -21799,11 +21799,11 @@
       </c>
       <c r="E447" t="inlineStr">
         <is>
-          <t>Limfosep S.A</t>
+          <t>Yancko Gonzalez Rozas</t>
         </is>
       </c>
       <c r="F447" t="n">
-        <v>1000</v>
+        <v>8000</v>
       </c>
       <c r="G447" t="inlineStr">
         <is>
@@ -21812,12 +21812,12 @@
       </c>
       <c r="H447" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I447" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4698232&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4670031&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J447" t="inlineStr">
@@ -21832,7 +21832,7 @@
       </c>
       <c r="B448" t="inlineStr">
         <is>
-          <t>Proyecto Laboratorios Químicos CIMM T&amp;S SA. La Negra</t>
+          <t>TRANSPORTE DE RESIDUOS PELIGROSOS POR RUTAS DE LA REGIÓN DE ANTOFAGASTA</t>
         </is>
       </c>
       <c r="C448" t="inlineStr">
@@ -21847,11 +21847,11 @@
       </c>
       <c r="E448" t="inlineStr">
         <is>
-          <t>Yancko Gonzalez Rozas</t>
+          <t>Limfosep S.A</t>
         </is>
       </c>
       <c r="F448" t="n">
-        <v>8000</v>
+        <v>1000</v>
       </c>
       <c r="G448" t="inlineStr">
         <is>
@@ -21860,12 +21860,12 @@
       </c>
       <c r="H448" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I448" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4670031&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4698232&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J448" t="inlineStr">
@@ -22264,7 +22264,7 @@
       </c>
       <c r="B457" t="inlineStr">
         <is>
-          <t>EXPANSION DEPOSITO DE RELAVES FILTRADOS FAENA EL PEÑÓN</t>
+          <t>Nuevo Transporte Interregional de Cianuro de Sodio</t>
         </is>
       </c>
       <c r="C457" t="inlineStr">
@@ -22274,16 +22274,16 @@
       </c>
       <c r="D457" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E457" t="inlineStr">
         <is>
-          <t>Minera Meridian Limitada</t>
+          <t>OXIQUIM S.A.</t>
         </is>
       </c>
       <c r="F457" t="n">
-        <v>688</v>
+        <v>85</v>
       </c>
       <c r="G457" t="inlineStr">
         <is>
@@ -22292,12 +22292,12 @@
       </c>
       <c r="H457" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I457" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4601640&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4594007&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J457" t="inlineStr">
@@ -22312,7 +22312,7 @@
       </c>
       <c r="B458" t="inlineStr">
         <is>
-          <t>Nuevo Transporte Interregional de Cianuro de Sodio</t>
+          <t>EXPANSION DEPOSITO DE RELAVES FILTRADOS FAENA EL PEÑÓN</t>
         </is>
       </c>
       <c r="C458" t="inlineStr">
@@ -22322,16 +22322,16 @@
       </c>
       <c r="D458" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E458" t="inlineStr">
         <is>
-          <t>OXIQUIM S.A.</t>
+          <t>Minera Meridian Limitada</t>
         </is>
       </c>
       <c r="F458" t="n">
-        <v>85</v>
+        <v>688</v>
       </c>
       <c r="G458" t="inlineStr">
         <is>
@@ -22340,12 +22340,12 @@
       </c>
       <c r="H458" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I458" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4594007&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4601640&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J458" t="inlineStr">
@@ -23080,7 +23080,7 @@
       </c>
       <c r="B474" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligroso, Transporte Bello</t>
+          <t>Transporte de Barros Anódicos</t>
         </is>
       </c>
       <c r="C474" t="inlineStr">
@@ -23095,11 +23095,11 @@
       </c>
       <c r="E474" t="inlineStr">
         <is>
-          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
+          <t>CODELCO CHILE</t>
         </is>
       </c>
       <c r="F474" t="n">
-        <v>4050</v>
+        <v>0</v>
       </c>
       <c r="G474" t="inlineStr">
         <is>
@@ -23113,7 +23113,7 @@
       </c>
       <c r="I474" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4455518&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4429880&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J474" t="inlineStr">
@@ -23128,7 +23128,7 @@
       </c>
       <c r="B475" t="inlineStr">
         <is>
-          <t>Transporte de Barros Anódicos</t>
+          <t>Transporte de Residuos Peligroso, Transporte Bello</t>
         </is>
       </c>
       <c r="C475" t="inlineStr">
@@ -23143,11 +23143,11 @@
       </c>
       <c r="E475" t="inlineStr">
         <is>
-          <t>CODELCO CHILE</t>
+          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
         </is>
       </c>
       <c r="F475" t="n">
-        <v>0</v>
+        <v>4050</v>
       </c>
       <c r="G475" t="inlineStr">
         <is>
@@ -23161,7 +23161,7 @@
       </c>
       <c r="I475" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4429880&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4455518&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J475" t="inlineStr">
@@ -23272,7 +23272,7 @@
       </c>
       <c r="B478" t="inlineStr">
         <is>
-          <t>Modificacion Proyecto Minero Algorta Sector Pampa</t>
+          <t>Transporte y Almacenamiento temporal de Residuos Peligrosos M&amp;M ltda.</t>
         </is>
       </c>
       <c r="C478" t="inlineStr">
@@ -23282,16 +23282,16 @@
       </c>
       <c r="D478" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E478" t="inlineStr">
         <is>
-          <t>Algorta Norte S.A</t>
+          <t>Transportes Moscoso y Moscoso Ltda.</t>
         </is>
       </c>
       <c r="F478" t="n">
-        <v>6400</v>
+        <v>41075</v>
       </c>
       <c r="G478" t="inlineStr">
         <is>
@@ -23305,7 +23305,7 @@
       </c>
       <c r="I478" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4432700&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4422237&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J478" t="inlineStr">
@@ -23320,7 +23320,7 @@
       </c>
       <c r="B479" t="inlineStr">
         <is>
-          <t>Transporte y Almacenamiento temporal de Residuos Peligrosos M&amp;M ltda.</t>
+          <t>Modificacion Proyecto Minero Algorta Sector Pampa</t>
         </is>
       </c>
       <c r="C479" t="inlineStr">
@@ -23330,16 +23330,16 @@
       </c>
       <c r="D479" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E479" t="inlineStr">
         <is>
-          <t>Transportes Moscoso y Moscoso Ltda.</t>
+          <t>Algorta Norte S.A</t>
         </is>
       </c>
       <c r="F479" t="n">
-        <v>41075</v>
+        <v>6400</v>
       </c>
       <c r="G479" t="inlineStr">
         <is>
@@ -23353,7 +23353,7 @@
       </c>
       <c r="I479" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4422237&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4432700&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J479" t="inlineStr">

--- a/data/Antofagasta.xlsx
+++ b/data/Antofagasta.xlsx
@@ -11944,7 +11944,7 @@
       </c>
       <c r="B242" t="inlineStr">
         <is>
-          <t>Transporte Interregional de Sustancias Peligrosas - AGREDUCAM VI Región</t>
+          <t>Planta de Fabricación de Tuberías PEX (polietileno reticulado)</t>
         </is>
       </c>
       <c r="C242" t="inlineStr">
@@ -11954,16 +11954,16 @@
       </c>
       <c r="D242" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E242" t="inlineStr">
         <is>
-          <t>Asociación Gremial de Dueños de Camiones de la Sexta Región</t>
+          <t>CROSSPIPE SYSTEMS S.A.</t>
         </is>
       </c>
       <c r="F242" t="n">
-        <v>1200</v>
+        <v>12400</v>
       </c>
       <c r="G242" t="inlineStr">
         <is>
@@ -11977,7 +11977,7 @@
       </c>
       <c r="I242" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128964620&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128954293&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J242" t="inlineStr">
@@ -11992,7 +11992,7 @@
       </c>
       <c r="B243" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos por las Rutas Indicadas</t>
+          <t>Transporte Interregional de Sustancias Peligrosas - AGREDUCAM VI Región</t>
         </is>
       </c>
       <c r="C243" t="inlineStr">
@@ -12007,11 +12007,11 @@
       </c>
       <c r="E243" t="inlineStr">
         <is>
-          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
+          <t>Asociación Gremial de Dueños de Camiones de la Sexta Región</t>
         </is>
       </c>
       <c r="F243" t="n">
-        <v>0</v>
+        <v>1200</v>
       </c>
       <c r="G243" t="inlineStr">
         <is>
@@ -12025,7 +12025,7 @@
       </c>
       <c r="I243" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128972489&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128964620&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J243" t="inlineStr">
@@ -12040,7 +12040,7 @@
       </c>
       <c r="B244" t="inlineStr">
         <is>
-          <t>Planta de Fabricación de Tuberías PEX (polietileno reticulado)</t>
+          <t>Transporte de Residuos Peligrosos por las Rutas Indicadas</t>
         </is>
       </c>
       <c r="C244" t="inlineStr">
@@ -12050,16 +12050,16 @@
       </c>
       <c r="D244" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E244" t="inlineStr">
         <is>
-          <t>CROSSPIPE SYSTEMS S.A.</t>
+          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
         </is>
       </c>
       <c r="F244" t="n">
-        <v>12400</v>
+        <v>0</v>
       </c>
       <c r="G244" t="inlineStr">
         <is>
@@ -12073,7 +12073,7 @@
       </c>
       <c r="I244" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128954293&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128972489&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J244" t="inlineStr">
@@ -13672,26 +13672,26 @@
       </c>
       <c r="B278" t="inlineStr">
         <is>
-          <t>RT Sulfuros</t>
+          <t>Transporte de Sustancias Peligrosas Transaltisa Chile Ltda</t>
         </is>
       </c>
       <c r="C278" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D278" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E278" t="inlineStr">
         <is>
-          <t>CODELCO Chile, División Radomiro Tomic</t>
+          <t>Transaltisa Chile Ltda.</t>
         </is>
       </c>
       <c r="F278" t="n">
-        <v>5.4</v>
+        <v>2050</v>
       </c>
       <c r="G278" t="inlineStr">
         <is>
@@ -13700,12 +13700,12 @@
       </c>
       <c r="H278" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I278" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8210090&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8218613&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J278" t="inlineStr">
@@ -13720,26 +13720,26 @@
       </c>
       <c r="B279" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas Transaltisa Chile Ltda</t>
+          <t>RT Sulfuros</t>
         </is>
       </c>
       <c r="C279" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D279" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E279" t="inlineStr">
         <is>
-          <t>Transaltisa Chile Ltda.</t>
+          <t>CODELCO Chile, División Radomiro Tomic</t>
         </is>
       </c>
       <c r="F279" t="n">
-        <v>2050</v>
+        <v>5.4</v>
       </c>
       <c r="G279" t="inlineStr">
         <is>
@@ -13748,12 +13748,12 @@
       </c>
       <c r="H279" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I279" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8218613&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8210090&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J279" t="inlineStr">
@@ -16408,7 +16408,7 @@
       </c>
       <c r="B335" t="inlineStr">
         <is>
-          <t>Parque Fotovoltaico Los Andes</t>
+          <t>CENTRO DE RECUPERACIÓN DE TAMBORES Y CONTENEDORES IBC CONTAMINADOS, PLAMBIENTAL LA NEGRA</t>
         </is>
       </c>
       <c r="C335" t="inlineStr">
@@ -16423,11 +16423,11 @@
       </c>
       <c r="E335" t="inlineStr">
         <is>
-          <t>Andes Solar SPA</t>
+          <t>VEOLIA SERVICIOS MINEROS INTEGRALES CHILE SpA</t>
         </is>
       </c>
       <c r="F335" t="n">
-        <v>572000</v>
+        <v>60</v>
       </c>
       <c r="G335" t="inlineStr">
         <is>
@@ -16436,12 +16436,12 @@
       </c>
       <c r="H335" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Caducado</t>
         </is>
       </c>
       <c r="I335" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6581267&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6592870&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J335" t="inlineStr">
@@ -16456,7 +16456,7 @@
       </c>
       <c r="B336" t="inlineStr">
         <is>
-          <t>CENTRO DE RECUPERACIÓN DE TAMBORES Y CONTENEDORES IBC CONTAMINADOS, PLAMBIENTAL LA NEGRA</t>
+          <t>CENTRO DE ALMACENAMIENTO DE RESIDUOS INDUSTRIALES, GESAM LA NEGRA</t>
         </is>
       </c>
       <c r="C336" t="inlineStr">
@@ -16475,7 +16475,7 @@
         </is>
       </c>
       <c r="F336" t="n">
-        <v>60</v>
+        <v>360</v>
       </c>
       <c r="G336" t="inlineStr">
         <is>
@@ -16489,7 +16489,7 @@
       </c>
       <c r="I336" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6592870&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6595234&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J336" t="inlineStr">
@@ -16504,7 +16504,7 @@
       </c>
       <c r="B337" t="inlineStr">
         <is>
-          <t>CENTRO DE ALMACENAMIENTO DE RESIDUOS INDUSTRIALES, GESAM LA NEGRA</t>
+          <t>Parque Fotovoltaico Los Andes</t>
         </is>
       </c>
       <c r="C337" t="inlineStr">
@@ -16519,11 +16519,11 @@
       </c>
       <c r="E337" t="inlineStr">
         <is>
-          <t>VEOLIA SERVICIOS MINEROS INTEGRALES CHILE SpA</t>
+          <t>Andes Solar SPA</t>
         </is>
       </c>
       <c r="F337" t="n">
-        <v>360</v>
+        <v>572000</v>
       </c>
       <c r="G337" t="inlineStr">
         <is>
@@ -16532,12 +16532,12 @@
       </c>
       <c r="H337" t="inlineStr">
         <is>
-          <t>Caducado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I337" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6595234&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6581267&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J337" t="inlineStr">
@@ -16696,7 +16696,7 @@
       </c>
       <c r="B341" t="inlineStr">
         <is>
-          <t>MODIFICACION DE LA DECLARACIÓN DE IMPACTO AMBIENTAL PROYECTO TRANSPORTE DE SULFHIDRATO DE SODIO EN LA PRIMERA Y SEGUNDA REGION</t>
+          <t>Transporte de Residuos Peligrosos</t>
         </is>
       </c>
       <c r="C341" t="inlineStr">
@@ -16711,11 +16711,11 @@
       </c>
       <c r="E341" t="inlineStr">
         <is>
-          <t>Sociedad de Transportes Camaro Ltda.</t>
+          <t>Transportes TMS Limitada</t>
         </is>
       </c>
       <c r="F341" t="n">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="G341" t="inlineStr">
         <is>
@@ -16729,7 +16729,7 @@
       </c>
       <c r="I341" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6450945&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6479568&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J341" t="inlineStr">
@@ -16744,7 +16744,7 @@
       </c>
       <c r="B342" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos</t>
+          <t>MODIFICACION DE LA DECLARACIÓN DE IMPACTO AMBIENTAL PROYECTO TRANSPORTE DE SULFHIDRATO DE SODIO EN LA PRIMERA Y SEGUNDA REGION</t>
         </is>
       </c>
       <c r="C342" t="inlineStr">
@@ -16759,11 +16759,11 @@
       </c>
       <c r="E342" t="inlineStr">
         <is>
-          <t>Transportes TMS Limitada</t>
+          <t>Sociedad de Transportes Camaro Ltda.</t>
         </is>
       </c>
       <c r="F342" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="G342" t="inlineStr">
         <is>
@@ -16777,7 +16777,7 @@
       </c>
       <c r="I342" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6479568&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6450945&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J342" t="inlineStr">
@@ -17368,7 +17368,7 @@
       </c>
       <c r="B355" t="inlineStr">
         <is>
-          <t>Extracción de Áridos Empréstito E17L</t>
+          <t>Modificación Proyecto Transporte de Acido Sulfurico a granel entre la Primera y Décima Regiones de Chile</t>
         </is>
       </c>
       <c r="C355" t="inlineStr">
@@ -17378,16 +17378,16 @@
       </c>
       <c r="D355" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E355" t="inlineStr">
         <is>
-          <t>Skanska Chile S.A.</t>
+          <t>Transportes Herrmann Limitada</t>
         </is>
       </c>
       <c r="F355" t="n">
-        <v>500</v>
+        <v>0</v>
       </c>
       <c r="G355" t="inlineStr">
         <is>
@@ -17396,12 +17396,12 @@
       </c>
       <c r="H355" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I355" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6156264&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6159602&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J355" t="inlineStr">
@@ -17416,7 +17416,7 @@
       </c>
       <c r="B356" t="inlineStr">
         <is>
-          <t>Modificación Proyecto Transporte de Acido Sulfurico a granel entre la Primera y Décima Regiones de Chile</t>
+          <t>Extracción de Áridos Empréstito E17L</t>
         </is>
       </c>
       <c r="C356" t="inlineStr">
@@ -17426,16 +17426,16 @@
       </c>
       <c r="D356" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E356" t="inlineStr">
         <is>
-          <t>Transportes Herrmann Limitada</t>
+          <t>Skanska Chile S.A.</t>
         </is>
       </c>
       <c r="F356" t="n">
-        <v>0</v>
+        <v>500</v>
       </c>
       <c r="G356" t="inlineStr">
         <is>
@@ -17444,12 +17444,12 @@
       </c>
       <c r="H356" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I356" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6159602&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6156264&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J356" t="inlineStr">
@@ -17896,7 +17896,7 @@
       </c>
       <c r="B366" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos</t>
+          <t>Nuevas Instalaciones para Mantención Mina</t>
         </is>
       </c>
       <c r="C366" t="inlineStr">
@@ -17906,16 +17906,16 @@
       </c>
       <c r="D366" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E366" t="inlineStr">
         <is>
-          <t>Transportes TMS Limitada</t>
+          <t>MINERA ESCONDIDA LIMITADA</t>
         </is>
       </c>
       <c r="F366" t="n">
-        <v>200</v>
+        <v>635000</v>
       </c>
       <c r="G366" t="inlineStr">
         <is>
@@ -17924,12 +17924,12 @@
       </c>
       <c r="H366" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I366" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6003582&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5931343&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J366" t="inlineStr">
@@ -17944,7 +17944,7 @@
       </c>
       <c r="B367" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas entre la I, II y III Regiones"</t>
+          <t>Transporte de Residuos Peligrosos</t>
         </is>
       </c>
       <c r="C367" t="inlineStr">
@@ -17959,11 +17959,11 @@
       </c>
       <c r="E367" t="inlineStr">
         <is>
-          <t>Molina Quimicos S.A.</t>
+          <t>Transportes TMS Limitada</t>
         </is>
       </c>
       <c r="F367" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="G367" t="inlineStr">
         <is>
@@ -17977,7 +17977,7 @@
       </c>
       <c r="I367" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6003607&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6003582&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J367" t="inlineStr">
@@ -17992,7 +17992,7 @@
       </c>
       <c r="B368" t="inlineStr">
         <is>
-          <t>Nuevas Instalaciones para Mantención Mina</t>
+          <t>Transporte de Sustancias Peligrosas entre la I, II y III Regiones"</t>
         </is>
       </c>
       <c r="C368" t="inlineStr">
@@ -18002,16 +18002,16 @@
       </c>
       <c r="D368" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E368" t="inlineStr">
         <is>
-          <t>MINERA ESCONDIDA LIMITADA</t>
+          <t>Molina Quimicos S.A.</t>
         </is>
       </c>
       <c r="F368" t="n">
-        <v>635000</v>
+        <v>100</v>
       </c>
       <c r="G368" t="inlineStr">
         <is>
@@ -18020,12 +18020,12 @@
       </c>
       <c r="H368" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I368" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5931343&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6003607&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J368" t="inlineStr">
@@ -20248,7 +20248,7 @@
       </c>
       <c r="B415" t="inlineStr">
         <is>
-          <t>"Transporte de acido sulfurico concentrado para minera Las Cenizas, Taltal."</t>
+          <t>II MODIFICACIÓN DIA "TRANSPORTE Y MANEJO IN SITU DE RESIDUOS SÓLIDOS Y LÍQUIDOS PELIGROSOS Y NO PELIGROSOS"</t>
         </is>
       </c>
       <c r="C415" t="inlineStr">
@@ -20258,16 +20258,16 @@
       </c>
       <c r="D415" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E415" t="inlineStr">
         <is>
-          <t>Translog S.A.</t>
+          <t>Mol Ambiente S.A.</t>
         </is>
       </c>
       <c r="F415" t="n">
-        <v>600</v>
+        <v>75000</v>
       </c>
       <c r="G415" t="inlineStr">
         <is>
@@ -20276,12 +20276,12 @@
       </c>
       <c r="H415" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I415" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5114868&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5118945&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J415" t="inlineStr">
@@ -20296,7 +20296,7 @@
       </c>
       <c r="B416" t="inlineStr">
         <is>
-          <t>II MODIFICACIÓN DIA "TRANSPORTE Y MANEJO IN SITU DE RESIDUOS SÓLIDOS Y LÍQUIDOS PELIGROSOS Y NO PELIGROSOS"</t>
+          <t>"Transporte de acido sulfurico concentrado para minera Las Cenizas, Taltal."</t>
         </is>
       </c>
       <c r="C416" t="inlineStr">
@@ -20306,16 +20306,16 @@
       </c>
       <c r="D416" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E416" t="inlineStr">
         <is>
-          <t>Mol Ambiente S.A.</t>
+          <t>Translog S.A.</t>
         </is>
       </c>
       <c r="F416" t="n">
-        <v>75000</v>
+        <v>600</v>
       </c>
       <c r="G416" t="inlineStr">
         <is>
@@ -20324,12 +20324,12 @@
       </c>
       <c r="H416" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I416" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5118945&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5114868&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J416" t="inlineStr">
@@ -21784,7 +21784,7 @@
       </c>
       <c r="B447" t="inlineStr">
         <is>
-          <t>Proyecto Laboratorios Químicos CIMM T&amp;S SA. La Negra</t>
+          <t>TRANSPORTE DE RESIDUOS PELIGROSOS POR RUTAS DE LA REGIÓN DE ANTOFAGASTA</t>
         </is>
       </c>
       <c r="C447" t="inlineStr">
@@ -21799,11 +21799,11 @@
       </c>
       <c r="E447" t="inlineStr">
         <is>
-          <t>Yancko Gonzalez Rozas</t>
+          <t>Limfosep S.A</t>
         </is>
       </c>
       <c r="F447" t="n">
-        <v>8000</v>
+        <v>1000</v>
       </c>
       <c r="G447" t="inlineStr">
         <is>
@@ -21812,12 +21812,12 @@
       </c>
       <c r="H447" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I447" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4670031&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4698232&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J447" t="inlineStr">
@@ -21832,7 +21832,7 @@
       </c>
       <c r="B448" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE RESIDUOS PELIGROSOS POR RUTAS DE LA REGIÓN DE ANTOFAGASTA</t>
+          <t>Proyecto Laboratorios Químicos CIMM T&amp;S SA. La Negra</t>
         </is>
       </c>
       <c r="C448" t="inlineStr">
@@ -21847,11 +21847,11 @@
       </c>
       <c r="E448" t="inlineStr">
         <is>
-          <t>Limfosep S.A</t>
+          <t>Yancko Gonzalez Rozas</t>
         </is>
       </c>
       <c r="F448" t="n">
-        <v>1000</v>
+        <v>8000</v>
       </c>
       <c r="G448" t="inlineStr">
         <is>
@@ -21860,12 +21860,12 @@
       </c>
       <c r="H448" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I448" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4698232&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4670031&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J448" t="inlineStr">
@@ -22264,7 +22264,7 @@
       </c>
       <c r="B457" t="inlineStr">
         <is>
-          <t>Nuevo Transporte Interregional de Cianuro de Sodio</t>
+          <t>EXPANSION DEPOSITO DE RELAVES FILTRADOS FAENA EL PEÑÓN</t>
         </is>
       </c>
       <c r="C457" t="inlineStr">
@@ -22274,16 +22274,16 @@
       </c>
       <c r="D457" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E457" t="inlineStr">
         <is>
-          <t>OXIQUIM S.A.</t>
+          <t>Minera Meridian Limitada</t>
         </is>
       </c>
       <c r="F457" t="n">
-        <v>85</v>
+        <v>688</v>
       </c>
       <c r="G457" t="inlineStr">
         <is>
@@ -22292,12 +22292,12 @@
       </c>
       <c r="H457" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I457" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4594007&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4601640&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J457" t="inlineStr">
@@ -22312,7 +22312,7 @@
       </c>
       <c r="B458" t="inlineStr">
         <is>
-          <t>EXPANSION DEPOSITO DE RELAVES FILTRADOS FAENA EL PEÑÓN</t>
+          <t>Nuevo Transporte Interregional de Cianuro de Sodio</t>
         </is>
       </c>
       <c r="C458" t="inlineStr">
@@ -22322,16 +22322,16 @@
       </c>
       <c r="D458" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E458" t="inlineStr">
         <is>
-          <t>Minera Meridian Limitada</t>
+          <t>OXIQUIM S.A.</t>
         </is>
       </c>
       <c r="F458" t="n">
-        <v>688</v>
+        <v>85</v>
       </c>
       <c r="G458" t="inlineStr">
         <is>
@@ -22340,12 +22340,12 @@
       </c>
       <c r="H458" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I458" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4601640&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4594007&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J458" t="inlineStr">
@@ -23080,7 +23080,7 @@
       </c>
       <c r="B474" t="inlineStr">
         <is>
-          <t>Transporte de Barros Anódicos</t>
+          <t>Transporte de Residuos Peligroso, Transporte Bello</t>
         </is>
       </c>
       <c r="C474" t="inlineStr">
@@ -23095,11 +23095,11 @@
       </c>
       <c r="E474" t="inlineStr">
         <is>
-          <t>CODELCO CHILE</t>
+          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
         </is>
       </c>
       <c r="F474" t="n">
-        <v>0</v>
+        <v>4050</v>
       </c>
       <c r="G474" t="inlineStr">
         <is>
@@ -23113,7 +23113,7 @@
       </c>
       <c r="I474" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4429880&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4455518&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J474" t="inlineStr">
@@ -23128,7 +23128,7 @@
       </c>
       <c r="B475" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligroso, Transporte Bello</t>
+          <t>Transporte de Barros Anódicos</t>
         </is>
       </c>
       <c r="C475" t="inlineStr">
@@ -23143,11 +23143,11 @@
       </c>
       <c r="E475" t="inlineStr">
         <is>
-          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
+          <t>CODELCO CHILE</t>
         </is>
       </c>
       <c r="F475" t="n">
-        <v>4050</v>
+        <v>0</v>
       </c>
       <c r="G475" t="inlineStr">
         <is>
@@ -23161,7 +23161,7 @@
       </c>
       <c r="I475" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4455518&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4429880&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J475" t="inlineStr">
@@ -23272,7 +23272,7 @@
       </c>
       <c r="B478" t="inlineStr">
         <is>
-          <t>Transporte y Almacenamiento temporal de Residuos Peligrosos M&amp;M ltda.</t>
+          <t>Modificacion Proyecto Minero Algorta Sector Pampa</t>
         </is>
       </c>
       <c r="C478" t="inlineStr">
@@ -23282,16 +23282,16 @@
       </c>
       <c r="D478" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E478" t="inlineStr">
         <is>
-          <t>Transportes Moscoso y Moscoso Ltda.</t>
+          <t>Algorta Norte S.A</t>
         </is>
       </c>
       <c r="F478" t="n">
-        <v>41075</v>
+        <v>6400</v>
       </c>
       <c r="G478" t="inlineStr">
         <is>
@@ -23305,7 +23305,7 @@
       </c>
       <c r="I478" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4422237&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4432700&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J478" t="inlineStr">
@@ -23320,7 +23320,7 @@
       </c>
       <c r="B479" t="inlineStr">
         <is>
-          <t>Modificacion Proyecto Minero Algorta Sector Pampa</t>
+          <t>Transporte y Almacenamiento temporal de Residuos Peligrosos M&amp;M ltda.</t>
         </is>
       </c>
       <c r="C479" t="inlineStr">
@@ -23330,16 +23330,16 @@
       </c>
       <c r="D479" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E479" t="inlineStr">
         <is>
-          <t>Algorta Norte S.A</t>
+          <t>Transportes Moscoso y Moscoso Ltda.</t>
         </is>
       </c>
       <c r="F479" t="n">
-        <v>6400</v>
+        <v>41075</v>
       </c>
       <c r="G479" t="inlineStr">
         <is>
@@ -23353,7 +23353,7 @@
       </c>
       <c r="I479" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4432700&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4422237&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J479" t="inlineStr">

--- a/data/Antofagasta.xlsx
+++ b/data/Antofagasta.xlsx
@@ -424,7 +424,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Actualización Plan de Mantenimiento de Hábitat en Botadero Existente</t>
+          <t>Transporte Ferroviario en Región de Antofagasta</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -439,25 +439,25 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Aguas de Antofagasta S.A</t>
+          <t>Empresa de Transporte Ferroviario S.A.</t>
         </is>
       </c>
       <c r="F2" t="n">
-        <v>224</v>
+        <v>85400</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>03/01/2023</t>
+          <t>09/01/2023</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>En Admisión</t>
+          <t>En Calificación</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2158040789&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2157970182&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
@@ -472,7 +472,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Transporte Ferroviario en Región de Antofagasta</t>
+          <t>Actualización Plan de Mantenimiento de Hábitat en Botadero Existente</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -487,15 +487,15 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Empresa de Transporte Ferroviario S.A.</t>
+          <t>Aguas de Antofagasta S.A</t>
         </is>
       </c>
       <c r="F3" t="n">
-        <v>85400</v>
+        <v>224</v>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>30/12/2022</t>
+          <t>03/01/2023</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
@@ -505,7 +505,7 @@
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2157970182&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2158040789&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">

--- a/data/Antofagasta.xlsx
+++ b/data/Antofagasta.xlsx
@@ -424,7 +424,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Transporte Ferroviario en Región de Antofagasta</t>
+          <t>Actualización Plan de Mantenimiento de Hábitat en Botadero Existente</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -439,15 +439,15 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Empresa de Transporte Ferroviario S.A.</t>
+          <t>Aguas de Antofagasta S.A</t>
         </is>
       </c>
       <c r="F2" t="n">
-        <v>85400</v>
+        <v>224</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>09/01/2023</t>
+          <t>10/01/2023</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
@@ -457,7 +457,7 @@
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2157970182&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2158040789&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
@@ -472,7 +472,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Actualización Plan de Mantenimiento de Hábitat en Botadero Existente</t>
+          <t>Transporte Ferroviario en Región de Antofagasta</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -487,25 +487,25 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Aguas de Antofagasta S.A</t>
+          <t>Empresa de Transporte Ferroviario S.A.</t>
         </is>
       </c>
       <c r="F3" t="n">
-        <v>224</v>
+        <v>85400</v>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>03/01/2023</t>
+          <t>09/01/2023</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>En Admisión</t>
+          <t>En Calificación</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2158040789&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2157970182&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">

--- a/data/Antofagasta.xlsx
+++ b/data/Antofagasta.xlsx
@@ -2708,7 +2708,7 @@
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I49" t="inlineStr">

--- a/data/Antofagasta.xlsx
+++ b/data/Antofagasta.xlsx
@@ -12040,7 +12040,7 @@
       </c>
       <c r="B244" t="inlineStr">
         <is>
-          <t>Transporte Interregional de Sustancias Peligrosas - AGREDUCAM VI Región</t>
+          <t>Planta de Fabricación de Tuberías PEX (polietileno reticulado)</t>
         </is>
       </c>
       <c r="C244" t="inlineStr">
@@ -12050,16 +12050,16 @@
       </c>
       <c r="D244" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E244" t="inlineStr">
         <is>
-          <t>Asociación Gremial de Dueños de Camiones de la Sexta Región</t>
+          <t>CROSSPIPE SYSTEMS S.A.</t>
         </is>
       </c>
       <c r="F244" t="n">
-        <v>1200</v>
+        <v>12400</v>
       </c>
       <c r="G244" t="inlineStr">
         <is>
@@ -12073,7 +12073,7 @@
       </c>
       <c r="I244" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128964620&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128954293&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J244" t="inlineStr">
@@ -12088,7 +12088,7 @@
       </c>
       <c r="B245" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos por las Rutas Indicadas</t>
+          <t>Transporte Interregional de Sustancias Peligrosas - AGREDUCAM VI Región</t>
         </is>
       </c>
       <c r="C245" t="inlineStr">
@@ -12103,11 +12103,11 @@
       </c>
       <c r="E245" t="inlineStr">
         <is>
-          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
+          <t>Asociación Gremial de Dueños de Camiones de la Sexta Región</t>
         </is>
       </c>
       <c r="F245" t="n">
-        <v>0</v>
+        <v>1200</v>
       </c>
       <c r="G245" t="inlineStr">
         <is>
@@ -12121,7 +12121,7 @@
       </c>
       <c r="I245" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128972489&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128964620&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J245" t="inlineStr">
@@ -12136,7 +12136,7 @@
       </c>
       <c r="B246" t="inlineStr">
         <is>
-          <t>Planta de Fabricación de Tuberías PEX (polietileno reticulado)</t>
+          <t>Transporte de Residuos Peligrosos por las Rutas Indicadas</t>
         </is>
       </c>
       <c r="C246" t="inlineStr">
@@ -12146,16 +12146,16 @@
       </c>
       <c r="D246" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E246" t="inlineStr">
         <is>
-          <t>CROSSPIPE SYSTEMS S.A.</t>
+          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
         </is>
       </c>
       <c r="F246" t="n">
-        <v>12400</v>
+        <v>0</v>
       </c>
       <c r="G246" t="inlineStr">
         <is>
@@ -12169,7 +12169,7 @@
       </c>
       <c r="I246" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128954293&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128972489&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J246" t="inlineStr">
@@ -13768,26 +13768,26 @@
       </c>
       <c r="B280" t="inlineStr">
         <is>
-          <t>RT Sulfuros</t>
+          <t>Transporte de Sustancias Peligrosas Transaltisa Chile Ltda</t>
         </is>
       </c>
       <c r="C280" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D280" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E280" t="inlineStr">
         <is>
-          <t>CODELCO Chile, División Radomiro Tomic</t>
+          <t>Transaltisa Chile Ltda.</t>
         </is>
       </c>
       <c r="F280" t="n">
-        <v>5.4</v>
+        <v>2050</v>
       </c>
       <c r="G280" t="inlineStr">
         <is>
@@ -13796,12 +13796,12 @@
       </c>
       <c r="H280" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I280" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8210090&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8218613&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J280" t="inlineStr">
@@ -13816,26 +13816,26 @@
       </c>
       <c r="B281" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas Transaltisa Chile Ltda</t>
+          <t>RT Sulfuros</t>
         </is>
       </c>
       <c r="C281" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D281" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E281" t="inlineStr">
         <is>
-          <t>Transaltisa Chile Ltda.</t>
+          <t>CODELCO Chile, División Radomiro Tomic</t>
         </is>
       </c>
       <c r="F281" t="n">
-        <v>2050</v>
+        <v>5.4</v>
       </c>
       <c r="G281" t="inlineStr">
         <is>
@@ -13844,12 +13844,12 @@
       </c>
       <c r="H281" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I281" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8218613&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8210090&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J281" t="inlineStr">
@@ -16504,7 +16504,7 @@
       </c>
       <c r="B337" t="inlineStr">
         <is>
-          <t>Parque Fotovoltaico Los Andes</t>
+          <t>CENTRO DE RECUPERACIÓN DE TAMBORES Y CONTENEDORES IBC CONTAMINADOS, PLAMBIENTAL LA NEGRA</t>
         </is>
       </c>
       <c r="C337" t="inlineStr">
@@ -16519,11 +16519,11 @@
       </c>
       <c r="E337" t="inlineStr">
         <is>
-          <t>Andes Solar SPA</t>
+          <t>VEOLIA SERVICIOS MINEROS INTEGRALES CHILE SpA</t>
         </is>
       </c>
       <c r="F337" t="n">
-        <v>572000</v>
+        <v>60</v>
       </c>
       <c r="G337" t="inlineStr">
         <is>
@@ -16532,12 +16532,12 @@
       </c>
       <c r="H337" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Caducado</t>
         </is>
       </c>
       <c r="I337" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6581267&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6592870&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J337" t="inlineStr">
@@ -16552,7 +16552,7 @@
       </c>
       <c r="B338" t="inlineStr">
         <is>
-          <t>CENTRO DE RECUPERACIÓN DE TAMBORES Y CONTENEDORES IBC CONTAMINADOS, PLAMBIENTAL LA NEGRA</t>
+          <t>CENTRO DE ALMACENAMIENTO DE RESIDUOS INDUSTRIALES, GESAM LA NEGRA</t>
         </is>
       </c>
       <c r="C338" t="inlineStr">
@@ -16571,7 +16571,7 @@
         </is>
       </c>
       <c r="F338" t="n">
-        <v>60</v>
+        <v>360</v>
       </c>
       <c r="G338" t="inlineStr">
         <is>
@@ -16585,7 +16585,7 @@
       </c>
       <c r="I338" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6592870&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6595234&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J338" t="inlineStr">
@@ -16600,7 +16600,7 @@
       </c>
       <c r="B339" t="inlineStr">
         <is>
-          <t>CENTRO DE ALMACENAMIENTO DE RESIDUOS INDUSTRIALES, GESAM LA NEGRA</t>
+          <t>Parque Fotovoltaico Los Andes</t>
         </is>
       </c>
       <c r="C339" t="inlineStr">
@@ -16615,11 +16615,11 @@
       </c>
       <c r="E339" t="inlineStr">
         <is>
-          <t>VEOLIA SERVICIOS MINEROS INTEGRALES CHILE SpA</t>
+          <t>Andes Solar SPA</t>
         </is>
       </c>
       <c r="F339" t="n">
-        <v>360</v>
+        <v>572000</v>
       </c>
       <c r="G339" t="inlineStr">
         <is>
@@ -16628,12 +16628,12 @@
       </c>
       <c r="H339" t="inlineStr">
         <is>
-          <t>Caducado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I339" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6595234&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6581267&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J339" t="inlineStr">
@@ -17464,7 +17464,7 @@
       </c>
       <c r="B357" t="inlineStr">
         <is>
-          <t>Extracción de Áridos Empréstito E17L</t>
+          <t>Modificación Proyecto Transporte de Acido Sulfurico a granel entre la Primera y Décima Regiones de Chile</t>
         </is>
       </c>
       <c r="C357" t="inlineStr">
@@ -17474,16 +17474,16 @@
       </c>
       <c r="D357" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E357" t="inlineStr">
         <is>
-          <t>Skanska Chile S.A.</t>
+          <t>Transportes Herrmann Limitada</t>
         </is>
       </c>
       <c r="F357" t="n">
-        <v>500</v>
+        <v>0</v>
       </c>
       <c r="G357" t="inlineStr">
         <is>
@@ -17492,12 +17492,12 @@
       </c>
       <c r="H357" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I357" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6156264&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6159602&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J357" t="inlineStr">
@@ -17512,7 +17512,7 @@
       </c>
       <c r="B358" t="inlineStr">
         <is>
-          <t>Modificación Proyecto Transporte de Acido Sulfurico a granel entre la Primera y Décima Regiones de Chile</t>
+          <t>Extracción de Áridos Empréstito E17L</t>
         </is>
       </c>
       <c r="C358" t="inlineStr">
@@ -17522,16 +17522,16 @@
       </c>
       <c r="D358" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E358" t="inlineStr">
         <is>
-          <t>Transportes Herrmann Limitada</t>
+          <t>Skanska Chile S.A.</t>
         </is>
       </c>
       <c r="F358" t="n">
-        <v>0</v>
+        <v>500</v>
       </c>
       <c r="G358" t="inlineStr">
         <is>
@@ -17540,12 +17540,12 @@
       </c>
       <c r="H358" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I358" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6159602&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6156264&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J358" t="inlineStr">
@@ -17992,7 +17992,7 @@
       </c>
       <c r="B368" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos</t>
+          <t>Nuevas Instalaciones para Mantención Mina</t>
         </is>
       </c>
       <c r="C368" t="inlineStr">
@@ -18002,16 +18002,16 @@
       </c>
       <c r="D368" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E368" t="inlineStr">
         <is>
-          <t>Transportes TMS Limitada</t>
+          <t>MINERA ESCONDIDA LIMITADA</t>
         </is>
       </c>
       <c r="F368" t="n">
-        <v>200</v>
+        <v>635000</v>
       </c>
       <c r="G368" t="inlineStr">
         <is>
@@ -18020,12 +18020,12 @@
       </c>
       <c r="H368" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I368" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6003582&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5931343&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J368" t="inlineStr">
@@ -18040,7 +18040,7 @@
       </c>
       <c r="B369" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas entre la I, II y III Regiones"</t>
+          <t>Transporte de Residuos Peligrosos</t>
         </is>
       </c>
       <c r="C369" t="inlineStr">
@@ -18055,11 +18055,11 @@
       </c>
       <c r="E369" t="inlineStr">
         <is>
-          <t>Molina Quimicos S.A.</t>
+          <t>Transportes TMS Limitada</t>
         </is>
       </c>
       <c r="F369" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="G369" t="inlineStr">
         <is>
@@ -18073,7 +18073,7 @@
       </c>
       <c r="I369" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6003607&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6003582&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J369" t="inlineStr">
@@ -18088,7 +18088,7 @@
       </c>
       <c r="B370" t="inlineStr">
         <is>
-          <t>Nuevas Instalaciones para Mantención Mina</t>
+          <t>Transporte de Sustancias Peligrosas entre la I, II y III Regiones"</t>
         </is>
       </c>
       <c r="C370" t="inlineStr">
@@ -18098,16 +18098,16 @@
       </c>
       <c r="D370" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E370" t="inlineStr">
         <is>
-          <t>MINERA ESCONDIDA LIMITADA</t>
+          <t>Molina Quimicos S.A.</t>
         </is>
       </c>
       <c r="F370" t="n">
-        <v>635000</v>
+        <v>100</v>
       </c>
       <c r="G370" t="inlineStr">
         <is>
@@ -18116,12 +18116,12 @@
       </c>
       <c r="H370" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I370" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5931343&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6003607&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J370" t="inlineStr">
@@ -20344,7 +20344,7 @@
       </c>
       <c r="B417" t="inlineStr">
         <is>
-          <t>"Transporte de acido sulfurico concentrado para minera Las Cenizas, Taltal."</t>
+          <t>II MODIFICACIÓN DIA "TRANSPORTE Y MANEJO IN SITU DE RESIDUOS SÓLIDOS Y LÍQUIDOS PELIGROSOS Y NO PELIGROSOS"</t>
         </is>
       </c>
       <c r="C417" t="inlineStr">
@@ -20354,16 +20354,16 @@
       </c>
       <c r="D417" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E417" t="inlineStr">
         <is>
-          <t>Translog S.A.</t>
+          <t>Mol Ambiente S.A.</t>
         </is>
       </c>
       <c r="F417" t="n">
-        <v>600</v>
+        <v>75000</v>
       </c>
       <c r="G417" t="inlineStr">
         <is>
@@ -20372,12 +20372,12 @@
       </c>
       <c r="H417" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I417" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5114868&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5118945&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J417" t="inlineStr">
@@ -20392,7 +20392,7 @@
       </c>
       <c r="B418" t="inlineStr">
         <is>
-          <t>II MODIFICACIÓN DIA "TRANSPORTE Y MANEJO IN SITU DE RESIDUOS SÓLIDOS Y LÍQUIDOS PELIGROSOS Y NO PELIGROSOS"</t>
+          <t>"Transporte de acido sulfurico concentrado para minera Las Cenizas, Taltal."</t>
         </is>
       </c>
       <c r="C418" t="inlineStr">
@@ -20402,16 +20402,16 @@
       </c>
       <c r="D418" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E418" t="inlineStr">
         <is>
-          <t>Mol Ambiente S.A.</t>
+          <t>Translog S.A.</t>
         </is>
       </c>
       <c r="F418" t="n">
-        <v>75000</v>
+        <v>600</v>
       </c>
       <c r="G418" t="inlineStr">
         <is>
@@ -20420,12 +20420,12 @@
       </c>
       <c r="H418" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I418" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5118945&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5114868&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J418" t="inlineStr">
@@ -21880,7 +21880,7 @@
       </c>
       <c r="B449" t="inlineStr">
         <is>
-          <t>Proyecto Laboratorios Químicos CIMM T&amp;S SA. La Negra</t>
+          <t>TRANSPORTE DE RESIDUOS PELIGROSOS POR RUTAS DE LA REGIÓN DE ANTOFAGASTA</t>
         </is>
       </c>
       <c r="C449" t="inlineStr">
@@ -21895,11 +21895,11 @@
       </c>
       <c r="E449" t="inlineStr">
         <is>
-          <t>Yancko Gonzalez Rozas</t>
+          <t>Limfosep S.A</t>
         </is>
       </c>
       <c r="F449" t="n">
-        <v>8000</v>
+        <v>1000</v>
       </c>
       <c r="G449" t="inlineStr">
         <is>
@@ -21908,12 +21908,12 @@
       </c>
       <c r="H449" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I449" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4670031&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4698232&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J449" t="inlineStr">
@@ -21928,7 +21928,7 @@
       </c>
       <c r="B450" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE RESIDUOS PELIGROSOS POR RUTAS DE LA REGIÓN DE ANTOFAGASTA</t>
+          <t>Proyecto Laboratorios Químicos CIMM T&amp;S SA. La Negra</t>
         </is>
       </c>
       <c r="C450" t="inlineStr">
@@ -21943,11 +21943,11 @@
       </c>
       <c r="E450" t="inlineStr">
         <is>
-          <t>Limfosep S.A</t>
+          <t>Yancko Gonzalez Rozas</t>
         </is>
       </c>
       <c r="F450" t="n">
-        <v>1000</v>
+        <v>8000</v>
       </c>
       <c r="G450" t="inlineStr">
         <is>
@@ -21956,12 +21956,12 @@
       </c>
       <c r="H450" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I450" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4698232&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4670031&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J450" t="inlineStr">
@@ -22360,7 +22360,7 @@
       </c>
       <c r="B459" t="inlineStr">
         <is>
-          <t>Nuevo Transporte Interregional de Cianuro de Sodio</t>
+          <t>EXPANSION DEPOSITO DE RELAVES FILTRADOS FAENA EL PEÑÓN</t>
         </is>
       </c>
       <c r="C459" t="inlineStr">
@@ -22370,16 +22370,16 @@
       </c>
       <c r="D459" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E459" t="inlineStr">
         <is>
-          <t>OXIQUIM S.A.</t>
+          <t>Minera Meridian Limitada</t>
         </is>
       </c>
       <c r="F459" t="n">
-        <v>85</v>
+        <v>688</v>
       </c>
       <c r="G459" t="inlineStr">
         <is>
@@ -22388,12 +22388,12 @@
       </c>
       <c r="H459" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I459" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4594007&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4601640&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J459" t="inlineStr">
@@ -22408,7 +22408,7 @@
       </c>
       <c r="B460" t="inlineStr">
         <is>
-          <t>EXPANSION DEPOSITO DE RELAVES FILTRADOS FAENA EL PEÑÓN</t>
+          <t>Nuevo Transporte Interregional de Cianuro de Sodio</t>
         </is>
       </c>
       <c r="C460" t="inlineStr">
@@ -22418,16 +22418,16 @@
       </c>
       <c r="D460" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E460" t="inlineStr">
         <is>
-          <t>Minera Meridian Limitada</t>
+          <t>OXIQUIM S.A.</t>
         </is>
       </c>
       <c r="F460" t="n">
-        <v>688</v>
+        <v>85</v>
       </c>
       <c r="G460" t="inlineStr">
         <is>
@@ -22436,12 +22436,12 @@
       </c>
       <c r="H460" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I460" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4601640&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4594007&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J460" t="inlineStr">
@@ -23176,7 +23176,7 @@
       </c>
       <c r="B476" t="inlineStr">
         <is>
-          <t>Transporte de Barros Anódicos</t>
+          <t>Transporte de Residuos Peligroso, Transporte Bello</t>
         </is>
       </c>
       <c r="C476" t="inlineStr">
@@ -23191,11 +23191,11 @@
       </c>
       <c r="E476" t="inlineStr">
         <is>
-          <t>CODELCO CHILE</t>
+          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
         </is>
       </c>
       <c r="F476" t="n">
-        <v>0</v>
+        <v>4050</v>
       </c>
       <c r="G476" t="inlineStr">
         <is>
@@ -23209,7 +23209,7 @@
       </c>
       <c r="I476" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4429880&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4455518&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J476" t="inlineStr">
@@ -23224,7 +23224,7 @@
       </c>
       <c r="B477" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligroso, Transporte Bello</t>
+          <t>Transporte de Barros Anódicos</t>
         </is>
       </c>
       <c r="C477" t="inlineStr">
@@ -23239,11 +23239,11 @@
       </c>
       <c r="E477" t="inlineStr">
         <is>
-          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
+          <t>CODELCO CHILE</t>
         </is>
       </c>
       <c r="F477" t="n">
-        <v>4050</v>
+        <v>0</v>
       </c>
       <c r="G477" t="inlineStr">
         <is>
@@ -23257,7 +23257,7 @@
       </c>
       <c r="I477" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4455518&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4429880&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J477" t="inlineStr">
@@ -23368,7 +23368,7 @@
       </c>
       <c r="B480" t="inlineStr">
         <is>
-          <t>Transporte y Almacenamiento temporal de Residuos Peligrosos M&amp;M ltda.</t>
+          <t>Modificacion Proyecto Minero Algorta Sector Pampa</t>
         </is>
       </c>
       <c r="C480" t="inlineStr">
@@ -23378,16 +23378,16 @@
       </c>
       <c r="D480" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E480" t="inlineStr">
         <is>
-          <t>Transportes Moscoso y Moscoso Ltda.</t>
+          <t>Algorta Norte S.A</t>
         </is>
       </c>
       <c r="F480" t="n">
-        <v>41075</v>
+        <v>6400</v>
       </c>
       <c r="G480" t="inlineStr">
         <is>
@@ -23401,7 +23401,7 @@
       </c>
       <c r="I480" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4422237&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4432700&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J480" t="inlineStr">
@@ -23416,7 +23416,7 @@
       </c>
       <c r="B481" t="inlineStr">
         <is>
-          <t>Modificacion Proyecto Minero Algorta Sector Pampa</t>
+          <t>Transporte y Almacenamiento temporal de Residuos Peligrosos M&amp;M ltda.</t>
         </is>
       </c>
       <c r="C481" t="inlineStr">
@@ -23426,16 +23426,16 @@
       </c>
       <c r="D481" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E481" t="inlineStr">
         <is>
-          <t>Algorta Norte S.A</t>
+          <t>Transportes Moscoso y Moscoso Ltda.</t>
         </is>
       </c>
       <c r="F481" t="n">
-        <v>6400</v>
+        <v>41075</v>
       </c>
       <c r="G481" t="inlineStr">
         <is>
@@ -23449,7 +23449,7 @@
       </c>
       <c r="I481" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4432700&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4422237&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J481" t="inlineStr">

--- a/data/Antofagasta.xlsx
+++ b/data/Antofagasta.xlsx
@@ -12040,7 +12040,7 @@
       </c>
       <c r="B244" t="inlineStr">
         <is>
-          <t>Planta de Fabricación de Tuberías PEX (polietileno reticulado)</t>
+          <t>Transporte Interregional de Sustancias Peligrosas - AGREDUCAM VI Región</t>
         </is>
       </c>
       <c r="C244" t="inlineStr">
@@ -12050,16 +12050,16 @@
       </c>
       <c r="D244" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E244" t="inlineStr">
         <is>
-          <t>CROSSPIPE SYSTEMS S.A.</t>
+          <t>Asociación Gremial de Dueños de Camiones de la Sexta Región</t>
         </is>
       </c>
       <c r="F244" t="n">
-        <v>12400</v>
+        <v>1200</v>
       </c>
       <c r="G244" t="inlineStr">
         <is>
@@ -12073,7 +12073,7 @@
       </c>
       <c r="I244" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128954293&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128964620&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J244" t="inlineStr">
@@ -12088,7 +12088,7 @@
       </c>
       <c r="B245" t="inlineStr">
         <is>
-          <t>Transporte Interregional de Sustancias Peligrosas - AGREDUCAM VI Región</t>
+          <t>Transporte de Residuos Peligrosos por las Rutas Indicadas</t>
         </is>
       </c>
       <c r="C245" t="inlineStr">
@@ -12103,11 +12103,11 @@
       </c>
       <c r="E245" t="inlineStr">
         <is>
-          <t>Asociación Gremial de Dueños de Camiones de la Sexta Región</t>
+          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
         </is>
       </c>
       <c r="F245" t="n">
-        <v>1200</v>
+        <v>0</v>
       </c>
       <c r="G245" t="inlineStr">
         <is>
@@ -12121,7 +12121,7 @@
       </c>
       <c r="I245" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128964620&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128972489&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J245" t="inlineStr">
@@ -12136,7 +12136,7 @@
       </c>
       <c r="B246" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos por las Rutas Indicadas</t>
+          <t>Planta de Fabricación de Tuberías PEX (polietileno reticulado)</t>
         </is>
       </c>
       <c r="C246" t="inlineStr">
@@ -12146,16 +12146,16 @@
       </c>
       <c r="D246" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E246" t="inlineStr">
         <is>
-          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
+          <t>CROSSPIPE SYSTEMS S.A.</t>
         </is>
       </c>
       <c r="F246" t="n">
-        <v>0</v>
+        <v>12400</v>
       </c>
       <c r="G246" t="inlineStr">
         <is>
@@ -12169,7 +12169,7 @@
       </c>
       <c r="I246" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128972489&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128954293&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J246" t="inlineStr">
@@ -13768,26 +13768,26 @@
       </c>
       <c r="B280" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas Transaltisa Chile Ltda</t>
+          <t>RT Sulfuros</t>
         </is>
       </c>
       <c r="C280" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D280" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E280" t="inlineStr">
         <is>
-          <t>Transaltisa Chile Ltda.</t>
+          <t>CODELCO Chile, División Radomiro Tomic</t>
         </is>
       </c>
       <c r="F280" t="n">
-        <v>2050</v>
+        <v>5.4</v>
       </c>
       <c r="G280" t="inlineStr">
         <is>
@@ -13796,12 +13796,12 @@
       </c>
       <c r="H280" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I280" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8218613&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8210090&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J280" t="inlineStr">
@@ -13816,26 +13816,26 @@
       </c>
       <c r="B281" t="inlineStr">
         <is>
-          <t>RT Sulfuros</t>
+          <t>Transporte de Sustancias Peligrosas Transaltisa Chile Ltda</t>
         </is>
       </c>
       <c r="C281" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D281" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E281" t="inlineStr">
         <is>
-          <t>CODELCO Chile, División Radomiro Tomic</t>
+          <t>Transaltisa Chile Ltda.</t>
         </is>
       </c>
       <c r="F281" t="n">
-        <v>5.4</v>
+        <v>2050</v>
       </c>
       <c r="G281" t="inlineStr">
         <is>
@@ -13844,12 +13844,12 @@
       </c>
       <c r="H281" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I281" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8210090&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8218613&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J281" t="inlineStr">
@@ -16504,7 +16504,7 @@
       </c>
       <c r="B337" t="inlineStr">
         <is>
-          <t>CENTRO DE RECUPERACIÓN DE TAMBORES Y CONTENEDORES IBC CONTAMINADOS, PLAMBIENTAL LA NEGRA</t>
+          <t>Parque Fotovoltaico Los Andes</t>
         </is>
       </c>
       <c r="C337" t="inlineStr">
@@ -16519,11 +16519,11 @@
       </c>
       <c r="E337" t="inlineStr">
         <is>
-          <t>VEOLIA SERVICIOS MINEROS INTEGRALES CHILE SpA</t>
+          <t>Andes Solar SPA</t>
         </is>
       </c>
       <c r="F337" t="n">
-        <v>60</v>
+        <v>572000</v>
       </c>
       <c r="G337" t="inlineStr">
         <is>
@@ -16532,12 +16532,12 @@
       </c>
       <c r="H337" t="inlineStr">
         <is>
-          <t>Caducado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I337" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6592870&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6581267&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J337" t="inlineStr">
@@ -16552,7 +16552,7 @@
       </c>
       <c r="B338" t="inlineStr">
         <is>
-          <t>CENTRO DE ALMACENAMIENTO DE RESIDUOS INDUSTRIALES, GESAM LA NEGRA</t>
+          <t>CENTRO DE RECUPERACIÓN DE TAMBORES Y CONTENEDORES IBC CONTAMINADOS, PLAMBIENTAL LA NEGRA</t>
         </is>
       </c>
       <c r="C338" t="inlineStr">
@@ -16571,7 +16571,7 @@
         </is>
       </c>
       <c r="F338" t="n">
-        <v>360</v>
+        <v>60</v>
       </c>
       <c r="G338" t="inlineStr">
         <is>
@@ -16585,7 +16585,7 @@
       </c>
       <c r="I338" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6595234&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6592870&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J338" t="inlineStr">
@@ -16600,7 +16600,7 @@
       </c>
       <c r="B339" t="inlineStr">
         <is>
-          <t>Parque Fotovoltaico Los Andes</t>
+          <t>CENTRO DE ALMACENAMIENTO DE RESIDUOS INDUSTRIALES, GESAM LA NEGRA</t>
         </is>
       </c>
       <c r="C339" t="inlineStr">
@@ -16615,11 +16615,11 @@
       </c>
       <c r="E339" t="inlineStr">
         <is>
-          <t>Andes Solar SPA</t>
+          <t>VEOLIA SERVICIOS MINEROS INTEGRALES CHILE SpA</t>
         </is>
       </c>
       <c r="F339" t="n">
-        <v>572000</v>
+        <v>360</v>
       </c>
       <c r="G339" t="inlineStr">
         <is>
@@ -16628,12 +16628,12 @@
       </c>
       <c r="H339" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Caducado</t>
         </is>
       </c>
       <c r="I339" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6581267&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6595234&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J339" t="inlineStr">
@@ -17464,7 +17464,7 @@
       </c>
       <c r="B357" t="inlineStr">
         <is>
-          <t>Modificación Proyecto Transporte de Acido Sulfurico a granel entre la Primera y Décima Regiones de Chile</t>
+          <t>Extracción de Áridos Empréstito E17L</t>
         </is>
       </c>
       <c r="C357" t="inlineStr">
@@ -17474,16 +17474,16 @@
       </c>
       <c r="D357" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E357" t="inlineStr">
         <is>
-          <t>Transportes Herrmann Limitada</t>
+          <t>Skanska Chile S.A.</t>
         </is>
       </c>
       <c r="F357" t="n">
-        <v>0</v>
+        <v>500</v>
       </c>
       <c r="G357" t="inlineStr">
         <is>
@@ -17492,12 +17492,12 @@
       </c>
       <c r="H357" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I357" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6159602&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6156264&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J357" t="inlineStr">
@@ -17512,7 +17512,7 @@
       </c>
       <c r="B358" t="inlineStr">
         <is>
-          <t>Extracción de Áridos Empréstito E17L</t>
+          <t>Modificación Proyecto Transporte de Acido Sulfurico a granel entre la Primera y Décima Regiones de Chile</t>
         </is>
       </c>
       <c r="C358" t="inlineStr">
@@ -17522,16 +17522,16 @@
       </c>
       <c r="D358" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E358" t="inlineStr">
         <is>
-          <t>Skanska Chile S.A.</t>
+          <t>Transportes Herrmann Limitada</t>
         </is>
       </c>
       <c r="F358" t="n">
-        <v>500</v>
+        <v>0</v>
       </c>
       <c r="G358" t="inlineStr">
         <is>
@@ -17540,12 +17540,12 @@
       </c>
       <c r="H358" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I358" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6156264&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6159602&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J358" t="inlineStr">
@@ -17992,7 +17992,7 @@
       </c>
       <c r="B368" t="inlineStr">
         <is>
-          <t>Nuevas Instalaciones para Mantención Mina</t>
+          <t>Transporte de Residuos Peligrosos</t>
         </is>
       </c>
       <c r="C368" t="inlineStr">
@@ -18002,16 +18002,16 @@
       </c>
       <c r="D368" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E368" t="inlineStr">
         <is>
-          <t>MINERA ESCONDIDA LIMITADA</t>
+          <t>Transportes TMS Limitada</t>
         </is>
       </c>
       <c r="F368" t="n">
-        <v>635000</v>
+        <v>200</v>
       </c>
       <c r="G368" t="inlineStr">
         <is>
@@ -18020,12 +18020,12 @@
       </c>
       <c r="H368" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I368" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5931343&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6003582&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J368" t="inlineStr">
@@ -18040,7 +18040,7 @@
       </c>
       <c r="B369" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos</t>
+          <t>Transporte de Sustancias Peligrosas entre la I, II y III Regiones"</t>
         </is>
       </c>
       <c r="C369" t="inlineStr">
@@ -18055,11 +18055,11 @@
       </c>
       <c r="E369" t="inlineStr">
         <is>
-          <t>Transportes TMS Limitada</t>
+          <t>Molina Quimicos S.A.</t>
         </is>
       </c>
       <c r="F369" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="G369" t="inlineStr">
         <is>
@@ -18073,7 +18073,7 @@
       </c>
       <c r="I369" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6003582&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6003607&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J369" t="inlineStr">
@@ -18088,7 +18088,7 @@
       </c>
       <c r="B370" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas entre la I, II y III Regiones"</t>
+          <t>Nuevas Instalaciones para Mantención Mina</t>
         </is>
       </c>
       <c r="C370" t="inlineStr">
@@ -18098,16 +18098,16 @@
       </c>
       <c r="D370" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E370" t="inlineStr">
         <is>
-          <t>Molina Quimicos S.A.</t>
+          <t>MINERA ESCONDIDA LIMITADA</t>
         </is>
       </c>
       <c r="F370" t="n">
-        <v>100</v>
+        <v>635000</v>
       </c>
       <c r="G370" t="inlineStr">
         <is>
@@ -18116,12 +18116,12 @@
       </c>
       <c r="H370" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I370" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6003607&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5931343&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J370" t="inlineStr">
@@ -20344,7 +20344,7 @@
       </c>
       <c r="B417" t="inlineStr">
         <is>
-          <t>II MODIFICACIÓN DIA "TRANSPORTE Y MANEJO IN SITU DE RESIDUOS SÓLIDOS Y LÍQUIDOS PELIGROSOS Y NO PELIGROSOS"</t>
+          <t>"Transporte de acido sulfurico concentrado para minera Las Cenizas, Taltal."</t>
         </is>
       </c>
       <c r="C417" t="inlineStr">
@@ -20354,16 +20354,16 @@
       </c>
       <c r="D417" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E417" t="inlineStr">
         <is>
-          <t>Mol Ambiente S.A.</t>
+          <t>Translog S.A.</t>
         </is>
       </c>
       <c r="F417" t="n">
-        <v>75000</v>
+        <v>600</v>
       </c>
       <c r="G417" t="inlineStr">
         <is>
@@ -20372,12 +20372,12 @@
       </c>
       <c r="H417" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I417" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5118945&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5114868&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J417" t="inlineStr">
@@ -20392,7 +20392,7 @@
       </c>
       <c r="B418" t="inlineStr">
         <is>
-          <t>"Transporte de acido sulfurico concentrado para minera Las Cenizas, Taltal."</t>
+          <t>II MODIFICACIÓN DIA "TRANSPORTE Y MANEJO IN SITU DE RESIDUOS SÓLIDOS Y LÍQUIDOS PELIGROSOS Y NO PELIGROSOS"</t>
         </is>
       </c>
       <c r="C418" t="inlineStr">
@@ -20402,16 +20402,16 @@
       </c>
       <c r="D418" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E418" t="inlineStr">
         <is>
-          <t>Translog S.A.</t>
+          <t>Mol Ambiente S.A.</t>
         </is>
       </c>
       <c r="F418" t="n">
-        <v>600</v>
+        <v>75000</v>
       </c>
       <c r="G418" t="inlineStr">
         <is>
@@ -20420,12 +20420,12 @@
       </c>
       <c r="H418" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I418" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5114868&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5118945&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J418" t="inlineStr">
@@ -21880,7 +21880,7 @@
       </c>
       <c r="B449" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE RESIDUOS PELIGROSOS POR RUTAS DE LA REGIÓN DE ANTOFAGASTA</t>
+          <t>Proyecto Laboratorios Químicos CIMM T&amp;S SA. La Negra</t>
         </is>
       </c>
       <c r="C449" t="inlineStr">
@@ -21895,11 +21895,11 @@
       </c>
       <c r="E449" t="inlineStr">
         <is>
-          <t>Limfosep S.A</t>
+          <t>Yancko Gonzalez Rozas</t>
         </is>
       </c>
       <c r="F449" t="n">
-        <v>1000</v>
+        <v>8000</v>
       </c>
       <c r="G449" t="inlineStr">
         <is>
@@ -21908,12 +21908,12 @@
       </c>
       <c r="H449" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I449" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4698232&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4670031&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J449" t="inlineStr">
@@ -21928,7 +21928,7 @@
       </c>
       <c r="B450" t="inlineStr">
         <is>
-          <t>Proyecto Laboratorios Químicos CIMM T&amp;S SA. La Negra</t>
+          <t>TRANSPORTE DE RESIDUOS PELIGROSOS POR RUTAS DE LA REGIÓN DE ANTOFAGASTA</t>
         </is>
       </c>
       <c r="C450" t="inlineStr">
@@ -21943,11 +21943,11 @@
       </c>
       <c r="E450" t="inlineStr">
         <is>
-          <t>Yancko Gonzalez Rozas</t>
+          <t>Limfosep S.A</t>
         </is>
       </c>
       <c r="F450" t="n">
-        <v>8000</v>
+        <v>1000</v>
       </c>
       <c r="G450" t="inlineStr">
         <is>
@@ -21956,12 +21956,12 @@
       </c>
       <c r="H450" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I450" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4670031&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4698232&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J450" t="inlineStr">
@@ -22360,7 +22360,7 @@
       </c>
       <c r="B459" t="inlineStr">
         <is>
-          <t>EXPANSION DEPOSITO DE RELAVES FILTRADOS FAENA EL PEÑÓN</t>
+          <t>Nuevo Transporte Interregional de Cianuro de Sodio</t>
         </is>
       </c>
       <c r="C459" t="inlineStr">
@@ -22370,16 +22370,16 @@
       </c>
       <c r="D459" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E459" t="inlineStr">
         <is>
-          <t>Minera Meridian Limitada</t>
+          <t>OXIQUIM S.A.</t>
         </is>
       </c>
       <c r="F459" t="n">
-        <v>688</v>
+        <v>85</v>
       </c>
       <c r="G459" t="inlineStr">
         <is>
@@ -22388,12 +22388,12 @@
       </c>
       <c r="H459" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I459" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4601640&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4594007&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J459" t="inlineStr">
@@ -22408,7 +22408,7 @@
       </c>
       <c r="B460" t="inlineStr">
         <is>
-          <t>Nuevo Transporte Interregional de Cianuro de Sodio</t>
+          <t>EXPANSION DEPOSITO DE RELAVES FILTRADOS FAENA EL PEÑÓN</t>
         </is>
       </c>
       <c r="C460" t="inlineStr">
@@ -22418,16 +22418,16 @@
       </c>
       <c r="D460" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E460" t="inlineStr">
         <is>
-          <t>OXIQUIM S.A.</t>
+          <t>Minera Meridian Limitada</t>
         </is>
       </c>
       <c r="F460" t="n">
-        <v>85</v>
+        <v>688</v>
       </c>
       <c r="G460" t="inlineStr">
         <is>
@@ -22436,12 +22436,12 @@
       </c>
       <c r="H460" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I460" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4594007&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4601640&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J460" t="inlineStr">
@@ -23176,7 +23176,7 @@
       </c>
       <c r="B476" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligroso, Transporte Bello</t>
+          <t>Transporte de Barros Anódicos</t>
         </is>
       </c>
       <c r="C476" t="inlineStr">
@@ -23191,11 +23191,11 @@
       </c>
       <c r="E476" t="inlineStr">
         <is>
-          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
+          <t>CODELCO CHILE</t>
         </is>
       </c>
       <c r="F476" t="n">
-        <v>4050</v>
+        <v>0</v>
       </c>
       <c r="G476" t="inlineStr">
         <is>
@@ -23209,7 +23209,7 @@
       </c>
       <c r="I476" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4455518&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4429880&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J476" t="inlineStr">
@@ -23224,7 +23224,7 @@
       </c>
       <c r="B477" t="inlineStr">
         <is>
-          <t>Transporte de Barros Anódicos</t>
+          <t>Transporte de Residuos Peligroso, Transporte Bello</t>
         </is>
       </c>
       <c r="C477" t="inlineStr">
@@ -23239,11 +23239,11 @@
       </c>
       <c r="E477" t="inlineStr">
         <is>
-          <t>CODELCO CHILE</t>
+          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
         </is>
       </c>
       <c r="F477" t="n">
-        <v>0</v>
+        <v>4050</v>
       </c>
       <c r="G477" t="inlineStr">
         <is>
@@ -23257,7 +23257,7 @@
       </c>
       <c r="I477" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4429880&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4455518&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J477" t="inlineStr">
@@ -23368,7 +23368,7 @@
       </c>
       <c r="B480" t="inlineStr">
         <is>
-          <t>Modificacion Proyecto Minero Algorta Sector Pampa</t>
+          <t>Transporte y Almacenamiento temporal de Residuos Peligrosos M&amp;M ltda.</t>
         </is>
       </c>
       <c r="C480" t="inlineStr">
@@ -23378,16 +23378,16 @@
       </c>
       <c r="D480" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E480" t="inlineStr">
         <is>
-          <t>Algorta Norte S.A</t>
+          <t>Transportes Moscoso y Moscoso Ltda.</t>
         </is>
       </c>
       <c r="F480" t="n">
-        <v>6400</v>
+        <v>41075</v>
       </c>
       <c r="G480" t="inlineStr">
         <is>
@@ -23401,7 +23401,7 @@
       </c>
       <c r="I480" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4432700&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4422237&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J480" t="inlineStr">
@@ -23416,7 +23416,7 @@
       </c>
       <c r="B481" t="inlineStr">
         <is>
-          <t>Transporte y Almacenamiento temporal de Residuos Peligrosos M&amp;M ltda.</t>
+          <t>Modificacion Proyecto Minero Algorta Sector Pampa</t>
         </is>
       </c>
       <c r="C481" t="inlineStr">
@@ -23426,16 +23426,16 @@
       </c>
       <c r="D481" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E481" t="inlineStr">
         <is>
-          <t>Transportes Moscoso y Moscoso Ltda.</t>
+          <t>Algorta Norte S.A</t>
         </is>
       </c>
       <c r="F481" t="n">
-        <v>41075</v>
+        <v>6400</v>
       </c>
       <c r="G481" t="inlineStr">
         <is>
@@ -23449,7 +23449,7 @@
       </c>
       <c r="I481" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4422237&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4432700&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J481" t="inlineStr">

--- a/data/Antofagasta.xlsx
+++ b/data/Antofagasta.xlsx
@@ -447,12 +447,12 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>11/01/2023</t>
+          <t>17/01/2023</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>Ingresados Art.94 RSEIA</t>
+          <t>En Calificación</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">

--- a/data/Antofagasta.xlsx
+++ b/data/Antofagasta.xlsx
@@ -980,7 +980,7 @@
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>En Calificación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
@@ -12040,7 +12040,7 @@
       </c>
       <c r="B244" t="inlineStr">
         <is>
-          <t>Planta de Fabricación de Tuberías PEX (polietileno reticulado)</t>
+          <t>Transporte Interregional de Sustancias Peligrosas - AGREDUCAM VI Región</t>
         </is>
       </c>
       <c r="C244" t="inlineStr">
@@ -12050,16 +12050,16 @@
       </c>
       <c r="D244" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E244" t="inlineStr">
         <is>
-          <t>CROSSPIPE SYSTEMS S.A.</t>
+          <t>Asociación Gremial de Dueños de Camiones de la Sexta Región</t>
         </is>
       </c>
       <c r="F244" t="n">
-        <v>12400</v>
+        <v>1200</v>
       </c>
       <c r="G244" t="inlineStr">
         <is>
@@ -12073,7 +12073,7 @@
       </c>
       <c r="I244" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128954293&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128964620&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J244" t="inlineStr">
@@ -12088,7 +12088,7 @@
       </c>
       <c r="B245" t="inlineStr">
         <is>
-          <t>Transporte Interregional de Sustancias Peligrosas - AGREDUCAM VI Región</t>
+          <t>Transporte de Residuos Peligrosos por las Rutas Indicadas</t>
         </is>
       </c>
       <c r="C245" t="inlineStr">
@@ -12103,11 +12103,11 @@
       </c>
       <c r="E245" t="inlineStr">
         <is>
-          <t>Asociación Gremial de Dueños de Camiones de la Sexta Región</t>
+          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
         </is>
       </c>
       <c r="F245" t="n">
-        <v>1200</v>
+        <v>0</v>
       </c>
       <c r="G245" t="inlineStr">
         <is>
@@ -12121,7 +12121,7 @@
       </c>
       <c r="I245" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128964620&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128972489&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J245" t="inlineStr">
@@ -12136,7 +12136,7 @@
       </c>
       <c r="B246" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos por las Rutas Indicadas</t>
+          <t>Planta de Fabricación de Tuberías PEX (polietileno reticulado)</t>
         </is>
       </c>
       <c r="C246" t="inlineStr">
@@ -12146,16 +12146,16 @@
       </c>
       <c r="D246" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E246" t="inlineStr">
         <is>
-          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
+          <t>CROSSPIPE SYSTEMS S.A.</t>
         </is>
       </c>
       <c r="F246" t="n">
-        <v>0</v>
+        <v>12400</v>
       </c>
       <c r="G246" t="inlineStr">
         <is>
@@ -12169,7 +12169,7 @@
       </c>
       <c r="I246" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128972489&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128954293&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J246" t="inlineStr">
@@ -13768,26 +13768,26 @@
       </c>
       <c r="B280" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas Transaltisa Chile Ltda</t>
+          <t>RT Sulfuros</t>
         </is>
       </c>
       <c r="C280" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D280" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E280" t="inlineStr">
         <is>
-          <t>Transaltisa Chile Ltda.</t>
+          <t>CODELCO Chile, División Radomiro Tomic</t>
         </is>
       </c>
       <c r="F280" t="n">
-        <v>2050</v>
+        <v>5.4</v>
       </c>
       <c r="G280" t="inlineStr">
         <is>
@@ -13796,12 +13796,12 @@
       </c>
       <c r="H280" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I280" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8218613&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8210090&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J280" t="inlineStr">
@@ -13816,26 +13816,26 @@
       </c>
       <c r="B281" t="inlineStr">
         <is>
-          <t>RT Sulfuros</t>
+          <t>Transporte de Sustancias Peligrosas Transaltisa Chile Ltda</t>
         </is>
       </c>
       <c r="C281" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D281" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E281" t="inlineStr">
         <is>
-          <t>CODELCO Chile, División Radomiro Tomic</t>
+          <t>Transaltisa Chile Ltda.</t>
         </is>
       </c>
       <c r="F281" t="n">
-        <v>5.4</v>
+        <v>2050</v>
       </c>
       <c r="G281" t="inlineStr">
         <is>
@@ -13844,12 +13844,12 @@
       </c>
       <c r="H281" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I281" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8210090&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8218613&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J281" t="inlineStr">
@@ -16504,7 +16504,7 @@
       </c>
       <c r="B337" t="inlineStr">
         <is>
-          <t>CENTRO DE RECUPERACIÓN DE TAMBORES Y CONTENEDORES IBC CONTAMINADOS, PLAMBIENTAL LA NEGRA</t>
+          <t>Parque Fotovoltaico Los Andes</t>
         </is>
       </c>
       <c r="C337" t="inlineStr">
@@ -16519,11 +16519,11 @@
       </c>
       <c r="E337" t="inlineStr">
         <is>
-          <t>VEOLIA SERVICIOS MINEROS INTEGRALES CHILE SpA</t>
+          <t>Andes Solar SPA</t>
         </is>
       </c>
       <c r="F337" t="n">
-        <v>60</v>
+        <v>572000</v>
       </c>
       <c r="G337" t="inlineStr">
         <is>
@@ -16532,12 +16532,12 @@
       </c>
       <c r="H337" t="inlineStr">
         <is>
-          <t>Caducado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I337" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6592870&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6581267&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J337" t="inlineStr">
@@ -16552,7 +16552,7 @@
       </c>
       <c r="B338" t="inlineStr">
         <is>
-          <t>CENTRO DE ALMACENAMIENTO DE RESIDUOS INDUSTRIALES, GESAM LA NEGRA</t>
+          <t>CENTRO DE RECUPERACIÓN DE TAMBORES Y CONTENEDORES IBC CONTAMINADOS, PLAMBIENTAL LA NEGRA</t>
         </is>
       </c>
       <c r="C338" t="inlineStr">
@@ -16571,7 +16571,7 @@
         </is>
       </c>
       <c r="F338" t="n">
-        <v>360</v>
+        <v>60</v>
       </c>
       <c r="G338" t="inlineStr">
         <is>
@@ -16585,7 +16585,7 @@
       </c>
       <c r="I338" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6595234&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6592870&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J338" t="inlineStr">
@@ -16600,7 +16600,7 @@
       </c>
       <c r="B339" t="inlineStr">
         <is>
-          <t>Parque Fotovoltaico Los Andes</t>
+          <t>CENTRO DE ALMACENAMIENTO DE RESIDUOS INDUSTRIALES, GESAM LA NEGRA</t>
         </is>
       </c>
       <c r="C339" t="inlineStr">
@@ -16615,11 +16615,11 @@
       </c>
       <c r="E339" t="inlineStr">
         <is>
-          <t>Andes Solar SPA</t>
+          <t>VEOLIA SERVICIOS MINEROS INTEGRALES CHILE SpA</t>
         </is>
       </c>
       <c r="F339" t="n">
-        <v>572000</v>
+        <v>360</v>
       </c>
       <c r="G339" t="inlineStr">
         <is>
@@ -16628,12 +16628,12 @@
       </c>
       <c r="H339" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Caducado</t>
         </is>
       </c>
       <c r="I339" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6581267&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6595234&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J339" t="inlineStr">
@@ -17464,7 +17464,7 @@
       </c>
       <c r="B357" t="inlineStr">
         <is>
-          <t>Modificación Proyecto Transporte de Acido Sulfurico a granel entre la Primera y Décima Regiones de Chile</t>
+          <t>Extracción de Áridos Empréstito E17L</t>
         </is>
       </c>
       <c r="C357" t="inlineStr">
@@ -17474,16 +17474,16 @@
       </c>
       <c r="D357" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E357" t="inlineStr">
         <is>
-          <t>Transportes Herrmann Limitada</t>
+          <t>Skanska Chile S.A.</t>
         </is>
       </c>
       <c r="F357" t="n">
-        <v>0</v>
+        <v>500</v>
       </c>
       <c r="G357" t="inlineStr">
         <is>
@@ -17492,12 +17492,12 @@
       </c>
       <c r="H357" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I357" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6159602&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6156264&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J357" t="inlineStr">
@@ -17512,7 +17512,7 @@
       </c>
       <c r="B358" t="inlineStr">
         <is>
-          <t>Extracción de Áridos Empréstito E17L</t>
+          <t>Modificación Proyecto Transporte de Acido Sulfurico a granel entre la Primera y Décima Regiones de Chile</t>
         </is>
       </c>
       <c r="C358" t="inlineStr">
@@ -17522,16 +17522,16 @@
       </c>
       <c r="D358" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E358" t="inlineStr">
         <is>
-          <t>Skanska Chile S.A.</t>
+          <t>Transportes Herrmann Limitada</t>
         </is>
       </c>
       <c r="F358" t="n">
-        <v>500</v>
+        <v>0</v>
       </c>
       <c r="G358" t="inlineStr">
         <is>
@@ -17540,12 +17540,12 @@
       </c>
       <c r="H358" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I358" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6156264&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6159602&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J358" t="inlineStr">
@@ -17992,7 +17992,7 @@
       </c>
       <c r="B368" t="inlineStr">
         <is>
-          <t>Nuevas Instalaciones para Mantención Mina</t>
+          <t>Transporte de Residuos Peligrosos</t>
         </is>
       </c>
       <c r="C368" t="inlineStr">
@@ -18002,16 +18002,16 @@
       </c>
       <c r="D368" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E368" t="inlineStr">
         <is>
-          <t>MINERA ESCONDIDA LIMITADA</t>
+          <t>Transportes TMS Limitada</t>
         </is>
       </c>
       <c r="F368" t="n">
-        <v>635000</v>
+        <v>200</v>
       </c>
       <c r="G368" t="inlineStr">
         <is>
@@ -18020,12 +18020,12 @@
       </c>
       <c r="H368" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I368" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5931343&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6003582&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J368" t="inlineStr">
@@ -18040,7 +18040,7 @@
       </c>
       <c r="B369" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos</t>
+          <t>Transporte de Sustancias Peligrosas entre la I, II y III Regiones"</t>
         </is>
       </c>
       <c r="C369" t="inlineStr">
@@ -18055,11 +18055,11 @@
       </c>
       <c r="E369" t="inlineStr">
         <is>
-          <t>Transportes TMS Limitada</t>
+          <t>Molina Quimicos S.A.</t>
         </is>
       </c>
       <c r="F369" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="G369" t="inlineStr">
         <is>
@@ -18073,7 +18073,7 @@
       </c>
       <c r="I369" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6003582&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6003607&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J369" t="inlineStr">
@@ -18088,7 +18088,7 @@
       </c>
       <c r="B370" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas entre la I, II y III Regiones"</t>
+          <t>Nuevas Instalaciones para Mantención Mina</t>
         </is>
       </c>
       <c r="C370" t="inlineStr">
@@ -18098,16 +18098,16 @@
       </c>
       <c r="D370" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E370" t="inlineStr">
         <is>
-          <t>Molina Quimicos S.A.</t>
+          <t>MINERA ESCONDIDA LIMITADA</t>
         </is>
       </c>
       <c r="F370" t="n">
-        <v>100</v>
+        <v>635000</v>
       </c>
       <c r="G370" t="inlineStr">
         <is>
@@ -18116,12 +18116,12 @@
       </c>
       <c r="H370" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I370" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6003607&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5931343&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J370" t="inlineStr">
@@ -20344,7 +20344,7 @@
       </c>
       <c r="B417" t="inlineStr">
         <is>
-          <t>II MODIFICACIÓN DIA "TRANSPORTE Y MANEJO IN SITU DE RESIDUOS SÓLIDOS Y LÍQUIDOS PELIGROSOS Y NO PELIGROSOS"</t>
+          <t>"Transporte de acido sulfurico concentrado para minera Las Cenizas, Taltal."</t>
         </is>
       </c>
       <c r="C417" t="inlineStr">
@@ -20354,16 +20354,16 @@
       </c>
       <c r="D417" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E417" t="inlineStr">
         <is>
-          <t>Mol Ambiente S.A.</t>
+          <t>Translog S.A.</t>
         </is>
       </c>
       <c r="F417" t="n">
-        <v>75000</v>
+        <v>600</v>
       </c>
       <c r="G417" t="inlineStr">
         <is>
@@ -20372,12 +20372,12 @@
       </c>
       <c r="H417" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I417" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5118945&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5114868&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J417" t="inlineStr">
@@ -20392,7 +20392,7 @@
       </c>
       <c r="B418" t="inlineStr">
         <is>
-          <t>"Transporte de acido sulfurico concentrado para minera Las Cenizas, Taltal."</t>
+          <t>II MODIFICACIÓN DIA "TRANSPORTE Y MANEJO IN SITU DE RESIDUOS SÓLIDOS Y LÍQUIDOS PELIGROSOS Y NO PELIGROSOS"</t>
         </is>
       </c>
       <c r="C418" t="inlineStr">
@@ -20402,16 +20402,16 @@
       </c>
       <c r="D418" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E418" t="inlineStr">
         <is>
-          <t>Translog S.A.</t>
+          <t>Mol Ambiente S.A.</t>
         </is>
       </c>
       <c r="F418" t="n">
-        <v>600</v>
+        <v>75000</v>
       </c>
       <c r="G418" t="inlineStr">
         <is>
@@ -20420,12 +20420,12 @@
       </c>
       <c r="H418" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I418" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5114868&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5118945&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J418" t="inlineStr">
@@ -21880,7 +21880,7 @@
       </c>
       <c r="B449" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE RESIDUOS PELIGROSOS POR RUTAS DE LA REGIÓN DE ANTOFAGASTA</t>
+          <t>Proyecto Laboratorios Químicos CIMM T&amp;S SA. La Negra</t>
         </is>
       </c>
       <c r="C449" t="inlineStr">
@@ -21895,11 +21895,11 @@
       </c>
       <c r="E449" t="inlineStr">
         <is>
-          <t>Limfosep S.A</t>
+          <t>Yancko Gonzalez Rozas</t>
         </is>
       </c>
       <c r="F449" t="n">
-        <v>1000</v>
+        <v>8000</v>
       </c>
       <c r="G449" t="inlineStr">
         <is>
@@ -21908,12 +21908,12 @@
       </c>
       <c r="H449" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I449" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4698232&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4670031&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J449" t="inlineStr">
@@ -21928,7 +21928,7 @@
       </c>
       <c r="B450" t="inlineStr">
         <is>
-          <t>Proyecto Laboratorios Químicos CIMM T&amp;S SA. La Negra</t>
+          <t>TRANSPORTE DE RESIDUOS PELIGROSOS POR RUTAS DE LA REGIÓN DE ANTOFAGASTA</t>
         </is>
       </c>
       <c r="C450" t="inlineStr">
@@ -21943,11 +21943,11 @@
       </c>
       <c r="E450" t="inlineStr">
         <is>
-          <t>Yancko Gonzalez Rozas</t>
+          <t>Limfosep S.A</t>
         </is>
       </c>
       <c r="F450" t="n">
-        <v>8000</v>
+        <v>1000</v>
       </c>
       <c r="G450" t="inlineStr">
         <is>
@@ -21956,12 +21956,12 @@
       </c>
       <c r="H450" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I450" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4670031&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4698232&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J450" t="inlineStr">
@@ -22360,7 +22360,7 @@
       </c>
       <c r="B459" t="inlineStr">
         <is>
-          <t>EXPANSION DEPOSITO DE RELAVES FILTRADOS FAENA EL PEÑÓN</t>
+          <t>Nuevo Transporte Interregional de Cianuro de Sodio</t>
         </is>
       </c>
       <c r="C459" t="inlineStr">
@@ -22370,16 +22370,16 @@
       </c>
       <c r="D459" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E459" t="inlineStr">
         <is>
-          <t>Minera Meridian Limitada</t>
+          <t>OXIQUIM S.A.</t>
         </is>
       </c>
       <c r="F459" t="n">
-        <v>688</v>
+        <v>85</v>
       </c>
       <c r="G459" t="inlineStr">
         <is>
@@ -22388,12 +22388,12 @@
       </c>
       <c r="H459" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I459" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4601640&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4594007&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J459" t="inlineStr">
@@ -22408,7 +22408,7 @@
       </c>
       <c r="B460" t="inlineStr">
         <is>
-          <t>Nuevo Transporte Interregional de Cianuro de Sodio</t>
+          <t>EXPANSION DEPOSITO DE RELAVES FILTRADOS FAENA EL PEÑÓN</t>
         </is>
       </c>
       <c r="C460" t="inlineStr">
@@ -22418,16 +22418,16 @@
       </c>
       <c r="D460" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E460" t="inlineStr">
         <is>
-          <t>OXIQUIM S.A.</t>
+          <t>Minera Meridian Limitada</t>
         </is>
       </c>
       <c r="F460" t="n">
-        <v>85</v>
+        <v>688</v>
       </c>
       <c r="G460" t="inlineStr">
         <is>
@@ -22436,12 +22436,12 @@
       </c>
       <c r="H460" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I460" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4594007&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4601640&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J460" t="inlineStr">
@@ -23176,7 +23176,7 @@
       </c>
       <c r="B476" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligroso, Transporte Bello</t>
+          <t>Transporte de Barros Anódicos</t>
         </is>
       </c>
       <c r="C476" t="inlineStr">
@@ -23191,11 +23191,11 @@
       </c>
       <c r="E476" t="inlineStr">
         <is>
-          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
+          <t>CODELCO CHILE</t>
         </is>
       </c>
       <c r="F476" t="n">
-        <v>4050</v>
+        <v>0</v>
       </c>
       <c r="G476" t="inlineStr">
         <is>
@@ -23209,7 +23209,7 @@
       </c>
       <c r="I476" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4455518&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4429880&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J476" t="inlineStr">
@@ -23224,7 +23224,7 @@
       </c>
       <c r="B477" t="inlineStr">
         <is>
-          <t>Transporte de Barros Anódicos</t>
+          <t>Transporte de Residuos Peligroso, Transporte Bello</t>
         </is>
       </c>
       <c r="C477" t="inlineStr">
@@ -23239,11 +23239,11 @@
       </c>
       <c r="E477" t="inlineStr">
         <is>
-          <t>CODELCO CHILE</t>
+          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
         </is>
       </c>
       <c r="F477" t="n">
-        <v>0</v>
+        <v>4050</v>
       </c>
       <c r="G477" t="inlineStr">
         <is>
@@ -23257,7 +23257,7 @@
       </c>
       <c r="I477" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4429880&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4455518&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J477" t="inlineStr">
@@ -23368,7 +23368,7 @@
       </c>
       <c r="B480" t="inlineStr">
         <is>
-          <t>Modificacion Proyecto Minero Algorta Sector Pampa</t>
+          <t>Transporte y Almacenamiento temporal de Residuos Peligrosos M&amp;M ltda.</t>
         </is>
       </c>
       <c r="C480" t="inlineStr">
@@ -23378,16 +23378,16 @@
       </c>
       <c r="D480" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E480" t="inlineStr">
         <is>
-          <t>Algorta Norte S.A</t>
+          <t>Transportes Moscoso y Moscoso Ltda.</t>
         </is>
       </c>
       <c r="F480" t="n">
-        <v>6400</v>
+        <v>41075</v>
       </c>
       <c r="G480" t="inlineStr">
         <is>
@@ -23401,7 +23401,7 @@
       </c>
       <c r="I480" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4432700&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4422237&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J480" t="inlineStr">
@@ -23416,7 +23416,7 @@
       </c>
       <c r="B481" t="inlineStr">
         <is>
-          <t>Transporte y Almacenamiento temporal de Residuos Peligrosos M&amp;M ltda.</t>
+          <t>Modificacion Proyecto Minero Algorta Sector Pampa</t>
         </is>
       </c>
       <c r="C481" t="inlineStr">
@@ -23426,16 +23426,16 @@
       </c>
       <c r="D481" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E481" t="inlineStr">
         <is>
-          <t>Transportes Moscoso y Moscoso Ltda.</t>
+          <t>Algorta Norte S.A</t>
         </is>
       </c>
       <c r="F481" t="n">
-        <v>41075</v>
+        <v>6400</v>
       </c>
       <c r="G481" t="inlineStr">
         <is>
@@ -23449,7 +23449,7 @@
       </c>
       <c r="I481" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4422237&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4432700&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J481" t="inlineStr">

--- a/data/Antofagasta.xlsx
+++ b/data/Antofagasta.xlsx
@@ -1460,7 +1460,7 @@
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>En Calificación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I23" t="inlineStr">

--- a/data/Antofagasta.xlsx
+++ b/data/Antofagasta.xlsx
@@ -12088,7 +12088,7 @@
       </c>
       <c r="B245" t="inlineStr">
         <is>
-          <t>Planta de Fabricación de Tuberías PEX (polietileno reticulado)</t>
+          <t>Transporte Interregional de Sustancias Peligrosas - AGREDUCAM VI Región</t>
         </is>
       </c>
       <c r="C245" t="inlineStr">
@@ -12098,16 +12098,16 @@
       </c>
       <c r="D245" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E245" t="inlineStr">
         <is>
-          <t>CROSSPIPE SYSTEMS S.A.</t>
+          <t>Asociación Gremial de Dueños de Camiones de la Sexta Región</t>
         </is>
       </c>
       <c r="F245" t="n">
-        <v>12400</v>
+        <v>1200</v>
       </c>
       <c r="G245" t="inlineStr">
         <is>
@@ -12121,7 +12121,7 @@
       </c>
       <c r="I245" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128954293&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128964620&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J245" t="inlineStr">
@@ -12136,7 +12136,7 @@
       </c>
       <c r="B246" t="inlineStr">
         <is>
-          <t>Transporte Interregional de Sustancias Peligrosas - AGREDUCAM VI Región</t>
+          <t>Transporte de Residuos Peligrosos por las Rutas Indicadas</t>
         </is>
       </c>
       <c r="C246" t="inlineStr">
@@ -12151,11 +12151,11 @@
       </c>
       <c r="E246" t="inlineStr">
         <is>
-          <t>Asociación Gremial de Dueños de Camiones de la Sexta Región</t>
+          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
         </is>
       </c>
       <c r="F246" t="n">
-        <v>1200</v>
+        <v>0</v>
       </c>
       <c r="G246" t="inlineStr">
         <is>
@@ -12169,7 +12169,7 @@
       </c>
       <c r="I246" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128964620&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128972489&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J246" t="inlineStr">
@@ -12184,7 +12184,7 @@
       </c>
       <c r="B247" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos por las Rutas Indicadas</t>
+          <t>Planta de Fabricación de Tuberías PEX (polietileno reticulado)</t>
         </is>
       </c>
       <c r="C247" t="inlineStr">
@@ -12194,16 +12194,16 @@
       </c>
       <c r="D247" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E247" t="inlineStr">
         <is>
-          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
+          <t>CROSSPIPE SYSTEMS S.A.</t>
         </is>
       </c>
       <c r="F247" t="n">
-        <v>0</v>
+        <v>12400</v>
       </c>
       <c r="G247" t="inlineStr">
         <is>
@@ -12217,7 +12217,7 @@
       </c>
       <c r="I247" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128972489&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128954293&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J247" t="inlineStr">
@@ -13816,26 +13816,26 @@
       </c>
       <c r="B281" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas Transaltisa Chile Ltda</t>
+          <t>RT Sulfuros</t>
         </is>
       </c>
       <c r="C281" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D281" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E281" t="inlineStr">
         <is>
-          <t>Transaltisa Chile Ltda.</t>
+          <t>CODELCO Chile, División Radomiro Tomic</t>
         </is>
       </c>
       <c r="F281" t="n">
-        <v>2050</v>
+        <v>5.4</v>
       </c>
       <c r="G281" t="inlineStr">
         <is>
@@ -13844,12 +13844,12 @@
       </c>
       <c r="H281" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I281" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8218613&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8210090&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J281" t="inlineStr">
@@ -13864,26 +13864,26 @@
       </c>
       <c r="B282" t="inlineStr">
         <is>
-          <t>RT Sulfuros</t>
+          <t>Transporte de Sustancias Peligrosas Transaltisa Chile Ltda</t>
         </is>
       </c>
       <c r="C282" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D282" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E282" t="inlineStr">
         <is>
-          <t>CODELCO Chile, División Radomiro Tomic</t>
+          <t>Transaltisa Chile Ltda.</t>
         </is>
       </c>
       <c r="F282" t="n">
-        <v>5.4</v>
+        <v>2050</v>
       </c>
       <c r="G282" t="inlineStr">
         <is>
@@ -13892,12 +13892,12 @@
       </c>
       <c r="H282" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I282" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8210090&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8218613&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J282" t="inlineStr">
@@ -16552,7 +16552,7 @@
       </c>
       <c r="B338" t="inlineStr">
         <is>
-          <t>CENTRO DE RECUPERACIÓN DE TAMBORES Y CONTENEDORES IBC CONTAMINADOS, PLAMBIENTAL LA NEGRA</t>
+          <t>Parque Fotovoltaico Los Andes</t>
         </is>
       </c>
       <c r="C338" t="inlineStr">
@@ -16567,11 +16567,11 @@
       </c>
       <c r="E338" t="inlineStr">
         <is>
-          <t>VEOLIA SERVICIOS MINEROS INTEGRALES CHILE SpA</t>
+          <t>Andes Solar SPA</t>
         </is>
       </c>
       <c r="F338" t="n">
-        <v>60</v>
+        <v>572000</v>
       </c>
       <c r="G338" t="inlineStr">
         <is>
@@ -16580,12 +16580,12 @@
       </c>
       <c r="H338" t="inlineStr">
         <is>
-          <t>Caducado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I338" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6592870&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6581267&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J338" t="inlineStr">
@@ -16600,7 +16600,7 @@
       </c>
       <c r="B339" t="inlineStr">
         <is>
-          <t>CENTRO DE ALMACENAMIENTO DE RESIDUOS INDUSTRIALES, GESAM LA NEGRA</t>
+          <t>CENTRO DE RECUPERACIÓN DE TAMBORES Y CONTENEDORES IBC CONTAMINADOS, PLAMBIENTAL LA NEGRA</t>
         </is>
       </c>
       <c r="C339" t="inlineStr">
@@ -16619,7 +16619,7 @@
         </is>
       </c>
       <c r="F339" t="n">
-        <v>360</v>
+        <v>60</v>
       </c>
       <c r="G339" t="inlineStr">
         <is>
@@ -16633,7 +16633,7 @@
       </c>
       <c r="I339" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6595234&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6592870&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J339" t="inlineStr">
@@ -16648,7 +16648,7 @@
       </c>
       <c r="B340" t="inlineStr">
         <is>
-          <t>Parque Fotovoltaico Los Andes</t>
+          <t>CENTRO DE ALMACENAMIENTO DE RESIDUOS INDUSTRIALES, GESAM LA NEGRA</t>
         </is>
       </c>
       <c r="C340" t="inlineStr">
@@ -16663,11 +16663,11 @@
       </c>
       <c r="E340" t="inlineStr">
         <is>
-          <t>Andes Solar SPA</t>
+          <t>VEOLIA SERVICIOS MINEROS INTEGRALES CHILE SpA</t>
         </is>
       </c>
       <c r="F340" t="n">
-        <v>572000</v>
+        <v>360</v>
       </c>
       <c r="G340" t="inlineStr">
         <is>
@@ -16676,12 +16676,12 @@
       </c>
       <c r="H340" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Caducado</t>
         </is>
       </c>
       <c r="I340" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6581267&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6595234&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J340" t="inlineStr">
@@ -17512,7 +17512,7 @@
       </c>
       <c r="B358" t="inlineStr">
         <is>
-          <t>Modificación Proyecto Transporte de Acido Sulfurico a granel entre la Primera y Décima Regiones de Chile</t>
+          <t>Extracción de Áridos Empréstito E17L</t>
         </is>
       </c>
       <c r="C358" t="inlineStr">
@@ -17522,16 +17522,16 @@
       </c>
       <c r="D358" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E358" t="inlineStr">
         <is>
-          <t>Transportes Herrmann Limitada</t>
+          <t>Skanska Chile S.A.</t>
         </is>
       </c>
       <c r="F358" t="n">
-        <v>0</v>
+        <v>500</v>
       </c>
       <c r="G358" t="inlineStr">
         <is>
@@ -17540,12 +17540,12 @@
       </c>
       <c r="H358" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I358" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6159602&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6156264&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J358" t="inlineStr">
@@ -17560,7 +17560,7 @@
       </c>
       <c r="B359" t="inlineStr">
         <is>
-          <t>Extracción de Áridos Empréstito E17L</t>
+          <t>Modificación Proyecto Transporte de Acido Sulfurico a granel entre la Primera y Décima Regiones de Chile</t>
         </is>
       </c>
       <c r="C359" t="inlineStr">
@@ -17570,16 +17570,16 @@
       </c>
       <c r="D359" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E359" t="inlineStr">
         <is>
-          <t>Skanska Chile S.A.</t>
+          <t>Transportes Herrmann Limitada</t>
         </is>
       </c>
       <c r="F359" t="n">
-        <v>500</v>
+        <v>0</v>
       </c>
       <c r="G359" t="inlineStr">
         <is>
@@ -17588,12 +17588,12 @@
       </c>
       <c r="H359" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I359" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6156264&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6159602&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J359" t="inlineStr">
@@ -18040,7 +18040,7 @@
       </c>
       <c r="B369" t="inlineStr">
         <is>
-          <t>Nuevas Instalaciones para Mantención Mina</t>
+          <t>Transporte de Residuos Peligrosos</t>
         </is>
       </c>
       <c r="C369" t="inlineStr">
@@ -18050,16 +18050,16 @@
       </c>
       <c r="D369" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E369" t="inlineStr">
         <is>
-          <t>MINERA ESCONDIDA LIMITADA</t>
+          <t>Transportes TMS Limitada</t>
         </is>
       </c>
       <c r="F369" t="n">
-        <v>635000</v>
+        <v>200</v>
       </c>
       <c r="G369" t="inlineStr">
         <is>
@@ -18068,12 +18068,12 @@
       </c>
       <c r="H369" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I369" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5931343&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6003582&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J369" t="inlineStr">
@@ -18088,7 +18088,7 @@
       </c>
       <c r="B370" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos</t>
+          <t>Transporte de Sustancias Peligrosas entre la I, II y III Regiones"</t>
         </is>
       </c>
       <c r="C370" t="inlineStr">
@@ -18103,11 +18103,11 @@
       </c>
       <c r="E370" t="inlineStr">
         <is>
-          <t>Transportes TMS Limitada</t>
+          <t>Molina Quimicos S.A.</t>
         </is>
       </c>
       <c r="F370" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="G370" t="inlineStr">
         <is>
@@ -18121,7 +18121,7 @@
       </c>
       <c r="I370" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6003582&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6003607&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J370" t="inlineStr">
@@ -18136,7 +18136,7 @@
       </c>
       <c r="B371" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas entre la I, II y III Regiones"</t>
+          <t>Nuevas Instalaciones para Mantención Mina</t>
         </is>
       </c>
       <c r="C371" t="inlineStr">
@@ -18146,16 +18146,16 @@
       </c>
       <c r="D371" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E371" t="inlineStr">
         <is>
-          <t>Molina Quimicos S.A.</t>
+          <t>MINERA ESCONDIDA LIMITADA</t>
         </is>
       </c>
       <c r="F371" t="n">
-        <v>100</v>
+        <v>635000</v>
       </c>
       <c r="G371" t="inlineStr">
         <is>
@@ -18164,12 +18164,12 @@
       </c>
       <c r="H371" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I371" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6003607&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5931343&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J371" t="inlineStr">
@@ -20392,7 +20392,7 @@
       </c>
       <c r="B418" t="inlineStr">
         <is>
-          <t>II MODIFICACIÓN DIA "TRANSPORTE Y MANEJO IN SITU DE RESIDUOS SÓLIDOS Y LÍQUIDOS PELIGROSOS Y NO PELIGROSOS"</t>
+          <t>"Transporte de acido sulfurico concentrado para minera Las Cenizas, Taltal."</t>
         </is>
       </c>
       <c r="C418" t="inlineStr">
@@ -20402,16 +20402,16 @@
       </c>
       <c r="D418" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E418" t="inlineStr">
         <is>
-          <t>Mol Ambiente S.A.</t>
+          <t>Translog S.A.</t>
         </is>
       </c>
       <c r="F418" t="n">
-        <v>75000</v>
+        <v>600</v>
       </c>
       <c r="G418" t="inlineStr">
         <is>
@@ -20420,12 +20420,12 @@
       </c>
       <c r="H418" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I418" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5118945&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5114868&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J418" t="inlineStr">
@@ -20440,7 +20440,7 @@
       </c>
       <c r="B419" t="inlineStr">
         <is>
-          <t>"Transporte de acido sulfurico concentrado para minera Las Cenizas, Taltal."</t>
+          <t>II MODIFICACIÓN DIA "TRANSPORTE Y MANEJO IN SITU DE RESIDUOS SÓLIDOS Y LÍQUIDOS PELIGROSOS Y NO PELIGROSOS"</t>
         </is>
       </c>
       <c r="C419" t="inlineStr">
@@ -20450,16 +20450,16 @@
       </c>
       <c r="D419" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E419" t="inlineStr">
         <is>
-          <t>Translog S.A.</t>
+          <t>Mol Ambiente S.A.</t>
         </is>
       </c>
       <c r="F419" t="n">
-        <v>600</v>
+        <v>75000</v>
       </c>
       <c r="G419" t="inlineStr">
         <is>
@@ -20468,12 +20468,12 @@
       </c>
       <c r="H419" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I419" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5114868&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5118945&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J419" t="inlineStr">
@@ -21928,7 +21928,7 @@
       </c>
       <c r="B450" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE RESIDUOS PELIGROSOS POR RUTAS DE LA REGIÓN DE ANTOFAGASTA</t>
+          <t>Proyecto Laboratorios Químicos CIMM T&amp;S SA. La Negra</t>
         </is>
       </c>
       <c r="C450" t="inlineStr">
@@ -21943,11 +21943,11 @@
       </c>
       <c r="E450" t="inlineStr">
         <is>
-          <t>Limfosep S.A</t>
+          <t>Yancko Gonzalez Rozas</t>
         </is>
       </c>
       <c r="F450" t="n">
-        <v>1000</v>
+        <v>8000</v>
       </c>
       <c r="G450" t="inlineStr">
         <is>
@@ -21956,12 +21956,12 @@
       </c>
       <c r="H450" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I450" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4698232&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4670031&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J450" t="inlineStr">
@@ -21976,7 +21976,7 @@
       </c>
       <c r="B451" t="inlineStr">
         <is>
-          <t>Proyecto Laboratorios Químicos CIMM T&amp;S SA. La Negra</t>
+          <t>TRANSPORTE DE RESIDUOS PELIGROSOS POR RUTAS DE LA REGIÓN DE ANTOFAGASTA</t>
         </is>
       </c>
       <c r="C451" t="inlineStr">
@@ -21991,11 +21991,11 @@
       </c>
       <c r="E451" t="inlineStr">
         <is>
-          <t>Yancko Gonzalez Rozas</t>
+          <t>Limfosep S.A</t>
         </is>
       </c>
       <c r="F451" t="n">
-        <v>8000</v>
+        <v>1000</v>
       </c>
       <c r="G451" t="inlineStr">
         <is>
@@ -22004,12 +22004,12 @@
       </c>
       <c r="H451" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I451" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4670031&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4698232&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J451" t="inlineStr">
@@ -22408,7 +22408,7 @@
       </c>
       <c r="B460" t="inlineStr">
         <is>
-          <t>EXPANSION DEPOSITO DE RELAVES FILTRADOS FAENA EL PEÑÓN</t>
+          <t>Nuevo Transporte Interregional de Cianuro de Sodio</t>
         </is>
       </c>
       <c r="C460" t="inlineStr">
@@ -22418,16 +22418,16 @@
       </c>
       <c r="D460" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E460" t="inlineStr">
         <is>
-          <t>Minera Meridian Limitada</t>
+          <t>OXIQUIM S.A.</t>
         </is>
       </c>
       <c r="F460" t="n">
-        <v>688</v>
+        <v>85</v>
       </c>
       <c r="G460" t="inlineStr">
         <is>
@@ -22436,12 +22436,12 @@
       </c>
       <c r="H460" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I460" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4601640&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4594007&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J460" t="inlineStr">
@@ -22456,7 +22456,7 @@
       </c>
       <c r="B461" t="inlineStr">
         <is>
-          <t>Nuevo Transporte Interregional de Cianuro de Sodio</t>
+          <t>EXPANSION DEPOSITO DE RELAVES FILTRADOS FAENA EL PEÑÓN</t>
         </is>
       </c>
       <c r="C461" t="inlineStr">
@@ -22466,16 +22466,16 @@
       </c>
       <c r="D461" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E461" t="inlineStr">
         <is>
-          <t>OXIQUIM S.A.</t>
+          <t>Minera Meridian Limitada</t>
         </is>
       </c>
       <c r="F461" t="n">
-        <v>85</v>
+        <v>688</v>
       </c>
       <c r="G461" t="inlineStr">
         <is>
@@ -22484,12 +22484,12 @@
       </c>
       <c r="H461" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I461" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4594007&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4601640&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J461" t="inlineStr">

--- a/data/Antofagasta.xlsx
+++ b/data/Antofagasta.xlsx
@@ -12088,7 +12088,7 @@
       </c>
       <c r="B245" t="inlineStr">
         <is>
-          <t>Transporte Interregional de Sustancias Peligrosas - AGREDUCAM VI Región</t>
+          <t>Planta de Fabricación de Tuberías PEX (polietileno reticulado)</t>
         </is>
       </c>
       <c r="C245" t="inlineStr">
@@ -12098,16 +12098,16 @@
       </c>
       <c r="D245" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E245" t="inlineStr">
         <is>
-          <t>Asociación Gremial de Dueños de Camiones de la Sexta Región</t>
+          <t>CROSSPIPE SYSTEMS S.A.</t>
         </is>
       </c>
       <c r="F245" t="n">
-        <v>1200</v>
+        <v>12400</v>
       </c>
       <c r="G245" t="inlineStr">
         <is>
@@ -12121,7 +12121,7 @@
       </c>
       <c r="I245" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128964620&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128954293&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J245" t="inlineStr">
@@ -12136,7 +12136,7 @@
       </c>
       <c r="B246" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos por las Rutas Indicadas</t>
+          <t>Transporte Interregional de Sustancias Peligrosas - AGREDUCAM VI Región</t>
         </is>
       </c>
       <c r="C246" t="inlineStr">
@@ -12151,11 +12151,11 @@
       </c>
       <c r="E246" t="inlineStr">
         <is>
-          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
+          <t>Asociación Gremial de Dueños de Camiones de la Sexta Región</t>
         </is>
       </c>
       <c r="F246" t="n">
-        <v>0</v>
+        <v>1200</v>
       </c>
       <c r="G246" t="inlineStr">
         <is>
@@ -12169,7 +12169,7 @@
       </c>
       <c r="I246" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128972489&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128964620&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J246" t="inlineStr">
@@ -12184,7 +12184,7 @@
       </c>
       <c r="B247" t="inlineStr">
         <is>
-          <t>Planta de Fabricación de Tuberías PEX (polietileno reticulado)</t>
+          <t>Transporte de Residuos Peligrosos por las Rutas Indicadas</t>
         </is>
       </c>
       <c r="C247" t="inlineStr">
@@ -12194,16 +12194,16 @@
       </c>
       <c r="D247" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E247" t="inlineStr">
         <is>
-          <t>CROSSPIPE SYSTEMS S.A.</t>
+          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
         </is>
       </c>
       <c r="F247" t="n">
-        <v>12400</v>
+        <v>0</v>
       </c>
       <c r="G247" t="inlineStr">
         <is>
@@ -12217,7 +12217,7 @@
       </c>
       <c r="I247" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128954293&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128972489&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J247" t="inlineStr">
@@ -13816,26 +13816,26 @@
       </c>
       <c r="B281" t="inlineStr">
         <is>
-          <t>RT Sulfuros</t>
+          <t>Transporte de Sustancias Peligrosas Transaltisa Chile Ltda</t>
         </is>
       </c>
       <c r="C281" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D281" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E281" t="inlineStr">
         <is>
-          <t>CODELCO Chile, División Radomiro Tomic</t>
+          <t>Transaltisa Chile Ltda.</t>
         </is>
       </c>
       <c r="F281" t="n">
-        <v>5.4</v>
+        <v>2050</v>
       </c>
       <c r="G281" t="inlineStr">
         <is>
@@ -13844,12 +13844,12 @@
       </c>
       <c r="H281" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I281" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8210090&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8218613&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J281" t="inlineStr">
@@ -13864,26 +13864,26 @@
       </c>
       <c r="B282" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas Transaltisa Chile Ltda</t>
+          <t>RT Sulfuros</t>
         </is>
       </c>
       <c r="C282" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D282" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E282" t="inlineStr">
         <is>
-          <t>Transaltisa Chile Ltda.</t>
+          <t>CODELCO Chile, División Radomiro Tomic</t>
         </is>
       </c>
       <c r="F282" t="n">
-        <v>2050</v>
+        <v>5.4</v>
       </c>
       <c r="G282" t="inlineStr">
         <is>
@@ -13892,12 +13892,12 @@
       </c>
       <c r="H282" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I282" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8218613&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8210090&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J282" t="inlineStr">
@@ -16552,7 +16552,7 @@
       </c>
       <c r="B338" t="inlineStr">
         <is>
-          <t>Parque Fotovoltaico Los Andes</t>
+          <t>CENTRO DE RECUPERACIÓN DE TAMBORES Y CONTENEDORES IBC CONTAMINADOS, PLAMBIENTAL LA NEGRA</t>
         </is>
       </c>
       <c r="C338" t="inlineStr">
@@ -16567,11 +16567,11 @@
       </c>
       <c r="E338" t="inlineStr">
         <is>
-          <t>Andes Solar SPA</t>
+          <t>VEOLIA SERVICIOS MINEROS INTEGRALES CHILE SpA</t>
         </is>
       </c>
       <c r="F338" t="n">
-        <v>572000</v>
+        <v>60</v>
       </c>
       <c r="G338" t="inlineStr">
         <is>
@@ -16580,12 +16580,12 @@
       </c>
       <c r="H338" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Caducado</t>
         </is>
       </c>
       <c r="I338" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6581267&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6592870&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J338" t="inlineStr">
@@ -16600,7 +16600,7 @@
       </c>
       <c r="B339" t="inlineStr">
         <is>
-          <t>CENTRO DE RECUPERACIÓN DE TAMBORES Y CONTENEDORES IBC CONTAMINADOS, PLAMBIENTAL LA NEGRA</t>
+          <t>CENTRO DE ALMACENAMIENTO DE RESIDUOS INDUSTRIALES, GESAM LA NEGRA</t>
         </is>
       </c>
       <c r="C339" t="inlineStr">
@@ -16619,7 +16619,7 @@
         </is>
       </c>
       <c r="F339" t="n">
-        <v>60</v>
+        <v>360</v>
       </c>
       <c r="G339" t="inlineStr">
         <is>
@@ -16633,7 +16633,7 @@
       </c>
       <c r="I339" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6592870&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6595234&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J339" t="inlineStr">
@@ -16648,7 +16648,7 @@
       </c>
       <c r="B340" t="inlineStr">
         <is>
-          <t>CENTRO DE ALMACENAMIENTO DE RESIDUOS INDUSTRIALES, GESAM LA NEGRA</t>
+          <t>Parque Fotovoltaico Los Andes</t>
         </is>
       </c>
       <c r="C340" t="inlineStr">
@@ -16663,11 +16663,11 @@
       </c>
       <c r="E340" t="inlineStr">
         <is>
-          <t>VEOLIA SERVICIOS MINEROS INTEGRALES CHILE SpA</t>
+          <t>Andes Solar SPA</t>
         </is>
       </c>
       <c r="F340" t="n">
-        <v>360</v>
+        <v>572000</v>
       </c>
       <c r="G340" t="inlineStr">
         <is>
@@ -16676,12 +16676,12 @@
       </c>
       <c r="H340" t="inlineStr">
         <is>
-          <t>Caducado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I340" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6595234&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6581267&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J340" t="inlineStr">
@@ -17512,7 +17512,7 @@
       </c>
       <c r="B358" t="inlineStr">
         <is>
-          <t>Extracción de Áridos Empréstito E17L</t>
+          <t>Modificación Proyecto Transporte de Acido Sulfurico a granel entre la Primera y Décima Regiones de Chile</t>
         </is>
       </c>
       <c r="C358" t="inlineStr">
@@ -17522,16 +17522,16 @@
       </c>
       <c r="D358" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E358" t="inlineStr">
         <is>
-          <t>Skanska Chile S.A.</t>
+          <t>Transportes Herrmann Limitada</t>
         </is>
       </c>
       <c r="F358" t="n">
-        <v>500</v>
+        <v>0</v>
       </c>
       <c r="G358" t="inlineStr">
         <is>
@@ -17540,12 +17540,12 @@
       </c>
       <c r="H358" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I358" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6156264&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6159602&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J358" t="inlineStr">
@@ -17560,7 +17560,7 @@
       </c>
       <c r="B359" t="inlineStr">
         <is>
-          <t>Modificación Proyecto Transporte de Acido Sulfurico a granel entre la Primera y Décima Regiones de Chile</t>
+          <t>Extracción de Áridos Empréstito E17L</t>
         </is>
       </c>
       <c r="C359" t="inlineStr">
@@ -17570,16 +17570,16 @@
       </c>
       <c r="D359" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E359" t="inlineStr">
         <is>
-          <t>Transportes Herrmann Limitada</t>
+          <t>Skanska Chile S.A.</t>
         </is>
       </c>
       <c r="F359" t="n">
-        <v>0</v>
+        <v>500</v>
       </c>
       <c r="G359" t="inlineStr">
         <is>
@@ -17588,12 +17588,12 @@
       </c>
       <c r="H359" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I359" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6159602&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6156264&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J359" t="inlineStr">
@@ -18040,7 +18040,7 @@
       </c>
       <c r="B369" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos</t>
+          <t>Nuevas Instalaciones para Mantención Mina</t>
         </is>
       </c>
       <c r="C369" t="inlineStr">
@@ -18050,16 +18050,16 @@
       </c>
       <c r="D369" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E369" t="inlineStr">
         <is>
-          <t>Transportes TMS Limitada</t>
+          <t>MINERA ESCONDIDA LIMITADA</t>
         </is>
       </c>
       <c r="F369" t="n">
-        <v>200</v>
+        <v>635000</v>
       </c>
       <c r="G369" t="inlineStr">
         <is>
@@ -18068,12 +18068,12 @@
       </c>
       <c r="H369" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I369" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6003582&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5931343&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J369" t="inlineStr">
@@ -18088,7 +18088,7 @@
       </c>
       <c r="B370" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas entre la I, II y III Regiones"</t>
+          <t>Transporte de Residuos Peligrosos</t>
         </is>
       </c>
       <c r="C370" t="inlineStr">
@@ -18103,11 +18103,11 @@
       </c>
       <c r="E370" t="inlineStr">
         <is>
-          <t>Molina Quimicos S.A.</t>
+          <t>Transportes TMS Limitada</t>
         </is>
       </c>
       <c r="F370" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="G370" t="inlineStr">
         <is>
@@ -18121,7 +18121,7 @@
       </c>
       <c r="I370" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6003607&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6003582&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J370" t="inlineStr">
@@ -18136,7 +18136,7 @@
       </c>
       <c r="B371" t="inlineStr">
         <is>
-          <t>Nuevas Instalaciones para Mantención Mina</t>
+          <t>Transporte de Sustancias Peligrosas entre la I, II y III Regiones"</t>
         </is>
       </c>
       <c r="C371" t="inlineStr">
@@ -18146,16 +18146,16 @@
       </c>
       <c r="D371" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E371" t="inlineStr">
         <is>
-          <t>MINERA ESCONDIDA LIMITADA</t>
+          <t>Molina Quimicos S.A.</t>
         </is>
       </c>
       <c r="F371" t="n">
-        <v>635000</v>
+        <v>100</v>
       </c>
       <c r="G371" t="inlineStr">
         <is>
@@ -18164,12 +18164,12 @@
       </c>
       <c r="H371" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I371" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5931343&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6003607&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J371" t="inlineStr">
@@ -20392,7 +20392,7 @@
       </c>
       <c r="B418" t="inlineStr">
         <is>
-          <t>"Transporte de acido sulfurico concentrado para minera Las Cenizas, Taltal."</t>
+          <t>II MODIFICACIÓN DIA "TRANSPORTE Y MANEJO IN SITU DE RESIDUOS SÓLIDOS Y LÍQUIDOS PELIGROSOS Y NO PELIGROSOS"</t>
         </is>
       </c>
       <c r="C418" t="inlineStr">
@@ -20402,16 +20402,16 @@
       </c>
       <c r="D418" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E418" t="inlineStr">
         <is>
-          <t>Translog S.A.</t>
+          <t>Mol Ambiente S.A.</t>
         </is>
       </c>
       <c r="F418" t="n">
-        <v>600</v>
+        <v>75000</v>
       </c>
       <c r="G418" t="inlineStr">
         <is>
@@ -20420,12 +20420,12 @@
       </c>
       <c r="H418" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I418" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5114868&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5118945&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J418" t="inlineStr">
@@ -20440,7 +20440,7 @@
       </c>
       <c r="B419" t="inlineStr">
         <is>
-          <t>II MODIFICACIÓN DIA "TRANSPORTE Y MANEJO IN SITU DE RESIDUOS SÓLIDOS Y LÍQUIDOS PELIGROSOS Y NO PELIGROSOS"</t>
+          <t>"Transporte de acido sulfurico concentrado para minera Las Cenizas, Taltal."</t>
         </is>
       </c>
       <c r="C419" t="inlineStr">
@@ -20450,16 +20450,16 @@
       </c>
       <c r="D419" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E419" t="inlineStr">
         <is>
-          <t>Mol Ambiente S.A.</t>
+          <t>Translog S.A.</t>
         </is>
       </c>
       <c r="F419" t="n">
-        <v>75000</v>
+        <v>600</v>
       </c>
       <c r="G419" t="inlineStr">
         <is>
@@ -20468,12 +20468,12 @@
       </c>
       <c r="H419" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I419" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5118945&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5114868&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J419" t="inlineStr">
@@ -21928,7 +21928,7 @@
       </c>
       <c r="B450" t="inlineStr">
         <is>
-          <t>Proyecto Laboratorios Químicos CIMM T&amp;S SA. La Negra</t>
+          <t>TRANSPORTE DE RESIDUOS PELIGROSOS POR RUTAS DE LA REGIÓN DE ANTOFAGASTA</t>
         </is>
       </c>
       <c r="C450" t="inlineStr">
@@ -21943,11 +21943,11 @@
       </c>
       <c r="E450" t="inlineStr">
         <is>
-          <t>Yancko Gonzalez Rozas</t>
+          <t>Limfosep S.A</t>
         </is>
       </c>
       <c r="F450" t="n">
-        <v>8000</v>
+        <v>1000</v>
       </c>
       <c r="G450" t="inlineStr">
         <is>
@@ -21956,12 +21956,12 @@
       </c>
       <c r="H450" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I450" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4670031&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4698232&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J450" t="inlineStr">
@@ -21976,7 +21976,7 @@
       </c>
       <c r="B451" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE RESIDUOS PELIGROSOS POR RUTAS DE LA REGIÓN DE ANTOFAGASTA</t>
+          <t>Proyecto Laboratorios Químicos CIMM T&amp;S SA. La Negra</t>
         </is>
       </c>
       <c r="C451" t="inlineStr">
@@ -21991,11 +21991,11 @@
       </c>
       <c r="E451" t="inlineStr">
         <is>
-          <t>Limfosep S.A</t>
+          <t>Yancko Gonzalez Rozas</t>
         </is>
       </c>
       <c r="F451" t="n">
-        <v>1000</v>
+        <v>8000</v>
       </c>
       <c r="G451" t="inlineStr">
         <is>
@@ -22004,12 +22004,12 @@
       </c>
       <c r="H451" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I451" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4698232&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4670031&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J451" t="inlineStr">
@@ -22408,7 +22408,7 @@
       </c>
       <c r="B460" t="inlineStr">
         <is>
-          <t>Nuevo Transporte Interregional de Cianuro de Sodio</t>
+          <t>EXPANSION DEPOSITO DE RELAVES FILTRADOS FAENA EL PEÑÓN</t>
         </is>
       </c>
       <c r="C460" t="inlineStr">
@@ -22418,16 +22418,16 @@
       </c>
       <c r="D460" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E460" t="inlineStr">
         <is>
-          <t>OXIQUIM S.A.</t>
+          <t>Minera Meridian Limitada</t>
         </is>
       </c>
       <c r="F460" t="n">
-        <v>85</v>
+        <v>688</v>
       </c>
       <c r="G460" t="inlineStr">
         <is>
@@ -22436,12 +22436,12 @@
       </c>
       <c r="H460" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I460" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4594007&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4601640&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J460" t="inlineStr">
@@ -22456,7 +22456,7 @@
       </c>
       <c r="B461" t="inlineStr">
         <is>
-          <t>EXPANSION DEPOSITO DE RELAVES FILTRADOS FAENA EL PEÑÓN</t>
+          <t>Nuevo Transporte Interregional de Cianuro de Sodio</t>
         </is>
       </c>
       <c r="C461" t="inlineStr">
@@ -22466,16 +22466,16 @@
       </c>
       <c r="D461" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E461" t="inlineStr">
         <is>
-          <t>Minera Meridian Limitada</t>
+          <t>OXIQUIM S.A.</t>
         </is>
       </c>
       <c r="F461" t="n">
-        <v>688</v>
+        <v>85</v>
       </c>
       <c r="G461" t="inlineStr">
         <is>
@@ -22484,12 +22484,12 @@
       </c>
       <c r="H461" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I461" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4601640&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4594007&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J461" t="inlineStr">

--- a/data/Antofagasta.xlsx
+++ b/data/Antofagasta.xlsx
@@ -447,12 +447,12 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>01/02/2023</t>
+          <t>07/02/2023</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>En Admisión</t>
+          <t>En Calificación</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">

--- a/data/Antofagasta.xlsx
+++ b/data/Antofagasta.xlsx
@@ -4807,7 +4807,7 @@
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t>Mathiesen S.A.C</t>
+          <t>Sociedad Comercial e Industrial SERCOIN SCI S.A.</t>
         </is>
       </c>
       <c r="F93" t="n">
@@ -12088,7 +12088,7 @@
       </c>
       <c r="B245" t="inlineStr">
         <is>
-          <t>Transporte Interregional de Sustancias Peligrosas - AGREDUCAM VI Región</t>
+          <t>Planta de Fabricación de Tuberías PEX (polietileno reticulado)</t>
         </is>
       </c>
       <c r="C245" t="inlineStr">
@@ -12098,16 +12098,16 @@
       </c>
       <c r="D245" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E245" t="inlineStr">
         <is>
-          <t>Asociación Gremial de Dueños de Camiones de la Sexta Región</t>
+          <t>CROSSPIPE SYSTEMS S.A.</t>
         </is>
       </c>
       <c r="F245" t="n">
-        <v>1200</v>
+        <v>12400</v>
       </c>
       <c r="G245" t="inlineStr">
         <is>
@@ -12121,7 +12121,7 @@
       </c>
       <c r="I245" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128964620&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128954293&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J245" t="inlineStr">
@@ -12136,7 +12136,7 @@
       </c>
       <c r="B246" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos por las Rutas Indicadas</t>
+          <t>Transporte Interregional de Sustancias Peligrosas - AGREDUCAM VI Región</t>
         </is>
       </c>
       <c r="C246" t="inlineStr">
@@ -12151,11 +12151,11 @@
       </c>
       <c r="E246" t="inlineStr">
         <is>
-          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
+          <t>Asociación Gremial de Dueños de Camiones de la Sexta Región</t>
         </is>
       </c>
       <c r="F246" t="n">
-        <v>0</v>
+        <v>1200</v>
       </c>
       <c r="G246" t="inlineStr">
         <is>
@@ -12169,7 +12169,7 @@
       </c>
       <c r="I246" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128972489&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128964620&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J246" t="inlineStr">
@@ -12184,7 +12184,7 @@
       </c>
       <c r="B247" t="inlineStr">
         <is>
-          <t>Planta de Fabricación de Tuberías PEX (polietileno reticulado)</t>
+          <t>Transporte de Residuos Peligrosos por las Rutas Indicadas</t>
         </is>
       </c>
       <c r="C247" t="inlineStr">
@@ -12194,16 +12194,16 @@
       </c>
       <c r="D247" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E247" t="inlineStr">
         <is>
-          <t>CROSSPIPE SYSTEMS S.A.</t>
+          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
         </is>
       </c>
       <c r="F247" t="n">
-        <v>12400</v>
+        <v>0</v>
       </c>
       <c r="G247" t="inlineStr">
         <is>
@@ -12217,7 +12217,7 @@
       </c>
       <c r="I247" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128954293&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128972489&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J247" t="inlineStr">
@@ -13816,26 +13816,26 @@
       </c>
       <c r="B281" t="inlineStr">
         <is>
-          <t>RT Sulfuros</t>
+          <t>Transporte de Sustancias Peligrosas Transaltisa Chile Ltda</t>
         </is>
       </c>
       <c r="C281" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D281" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E281" t="inlineStr">
         <is>
-          <t>CODELCO Chile, División Radomiro Tomic</t>
+          <t>Transaltisa Chile Ltda.</t>
         </is>
       </c>
       <c r="F281" t="n">
-        <v>5.4</v>
+        <v>2050</v>
       </c>
       <c r="G281" t="inlineStr">
         <is>
@@ -13844,12 +13844,12 @@
       </c>
       <c r="H281" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I281" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8210090&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8218613&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J281" t="inlineStr">
@@ -13864,26 +13864,26 @@
       </c>
       <c r="B282" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas Transaltisa Chile Ltda</t>
+          <t>RT Sulfuros</t>
         </is>
       </c>
       <c r="C282" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D282" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E282" t="inlineStr">
         <is>
-          <t>Transaltisa Chile Ltda.</t>
+          <t>CODELCO Chile, División Radomiro Tomic</t>
         </is>
       </c>
       <c r="F282" t="n">
-        <v>2050</v>
+        <v>5.4</v>
       </c>
       <c r="G282" t="inlineStr">
         <is>
@@ -13892,12 +13892,12 @@
       </c>
       <c r="H282" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I282" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8218613&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8210090&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J282" t="inlineStr">
@@ -16552,7 +16552,7 @@
       </c>
       <c r="B338" t="inlineStr">
         <is>
-          <t>Parque Fotovoltaico Los Andes</t>
+          <t>CENTRO DE RECUPERACIÓN DE TAMBORES Y CONTENEDORES IBC CONTAMINADOS, PLAMBIENTAL LA NEGRA</t>
         </is>
       </c>
       <c r="C338" t="inlineStr">
@@ -16567,11 +16567,11 @@
       </c>
       <c r="E338" t="inlineStr">
         <is>
-          <t>Andes Solar SPA</t>
+          <t>VEOLIA SERVICIOS MINEROS INTEGRALES CHILE SpA</t>
         </is>
       </c>
       <c r="F338" t="n">
-        <v>572000</v>
+        <v>60</v>
       </c>
       <c r="G338" t="inlineStr">
         <is>
@@ -16580,12 +16580,12 @@
       </c>
       <c r="H338" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Caducado</t>
         </is>
       </c>
       <c r="I338" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6581267&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6592870&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J338" t="inlineStr">
@@ -16600,7 +16600,7 @@
       </c>
       <c r="B339" t="inlineStr">
         <is>
-          <t>CENTRO DE RECUPERACIÓN DE TAMBORES Y CONTENEDORES IBC CONTAMINADOS, PLAMBIENTAL LA NEGRA</t>
+          <t>CENTRO DE ALMACENAMIENTO DE RESIDUOS INDUSTRIALES, GESAM LA NEGRA</t>
         </is>
       </c>
       <c r="C339" t="inlineStr">
@@ -16619,7 +16619,7 @@
         </is>
       </c>
       <c r="F339" t="n">
-        <v>60</v>
+        <v>360</v>
       </c>
       <c r="G339" t="inlineStr">
         <is>
@@ -16633,7 +16633,7 @@
       </c>
       <c r="I339" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6592870&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6595234&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J339" t="inlineStr">
@@ -16648,7 +16648,7 @@
       </c>
       <c r="B340" t="inlineStr">
         <is>
-          <t>CENTRO DE ALMACENAMIENTO DE RESIDUOS INDUSTRIALES, GESAM LA NEGRA</t>
+          <t>Parque Fotovoltaico Los Andes</t>
         </is>
       </c>
       <c r="C340" t="inlineStr">
@@ -16663,11 +16663,11 @@
       </c>
       <c r="E340" t="inlineStr">
         <is>
-          <t>VEOLIA SERVICIOS MINEROS INTEGRALES CHILE SpA</t>
+          <t>Andes Solar SPA</t>
         </is>
       </c>
       <c r="F340" t="n">
-        <v>360</v>
+        <v>572000</v>
       </c>
       <c r="G340" t="inlineStr">
         <is>
@@ -16676,12 +16676,12 @@
       </c>
       <c r="H340" t="inlineStr">
         <is>
-          <t>Caducado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I340" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6595234&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6581267&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J340" t="inlineStr">
@@ -17512,7 +17512,7 @@
       </c>
       <c r="B358" t="inlineStr">
         <is>
-          <t>Extracción de Áridos Empréstito E17L</t>
+          <t>Modificación Proyecto Transporte de Acido Sulfurico a granel entre la Primera y Décima Regiones de Chile</t>
         </is>
       </c>
       <c r="C358" t="inlineStr">
@@ -17522,16 +17522,16 @@
       </c>
       <c r="D358" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E358" t="inlineStr">
         <is>
-          <t>Skanska Chile S.A.</t>
+          <t>Transportes Herrmann Limitada</t>
         </is>
       </c>
       <c r="F358" t="n">
-        <v>500</v>
+        <v>0</v>
       </c>
       <c r="G358" t="inlineStr">
         <is>
@@ -17540,12 +17540,12 @@
       </c>
       <c r="H358" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I358" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6156264&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6159602&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J358" t="inlineStr">
@@ -17560,7 +17560,7 @@
       </c>
       <c r="B359" t="inlineStr">
         <is>
-          <t>Modificación Proyecto Transporte de Acido Sulfurico a granel entre la Primera y Décima Regiones de Chile</t>
+          <t>Extracción de Áridos Empréstito E17L</t>
         </is>
       </c>
       <c r="C359" t="inlineStr">
@@ -17570,16 +17570,16 @@
       </c>
       <c r="D359" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E359" t="inlineStr">
         <is>
-          <t>Transportes Herrmann Limitada</t>
+          <t>Skanska Chile S.A.</t>
         </is>
       </c>
       <c r="F359" t="n">
-        <v>0</v>
+        <v>500</v>
       </c>
       <c r="G359" t="inlineStr">
         <is>
@@ -17588,12 +17588,12 @@
       </c>
       <c r="H359" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I359" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6159602&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6156264&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J359" t="inlineStr">
@@ -18040,7 +18040,7 @@
       </c>
       <c r="B369" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos</t>
+          <t>Nuevas Instalaciones para Mantención Mina</t>
         </is>
       </c>
       <c r="C369" t="inlineStr">
@@ -18050,16 +18050,16 @@
       </c>
       <c r="D369" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E369" t="inlineStr">
         <is>
-          <t>Transportes TMS Limitada</t>
+          <t>MINERA ESCONDIDA LIMITADA</t>
         </is>
       </c>
       <c r="F369" t="n">
-        <v>200</v>
+        <v>635000</v>
       </c>
       <c r="G369" t="inlineStr">
         <is>
@@ -18068,12 +18068,12 @@
       </c>
       <c r="H369" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I369" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6003582&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5931343&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J369" t="inlineStr">
@@ -18088,7 +18088,7 @@
       </c>
       <c r="B370" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas entre la I, II y III Regiones"</t>
+          <t>Transporte de Residuos Peligrosos</t>
         </is>
       </c>
       <c r="C370" t="inlineStr">
@@ -18103,11 +18103,11 @@
       </c>
       <c r="E370" t="inlineStr">
         <is>
-          <t>Molina Quimicos S.A.</t>
+          <t>Transportes TMS Limitada</t>
         </is>
       </c>
       <c r="F370" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="G370" t="inlineStr">
         <is>
@@ -18121,7 +18121,7 @@
       </c>
       <c r="I370" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6003607&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6003582&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J370" t="inlineStr">
@@ -18136,7 +18136,7 @@
       </c>
       <c r="B371" t="inlineStr">
         <is>
-          <t>Nuevas Instalaciones para Mantención Mina</t>
+          <t>Transporte de Sustancias Peligrosas entre la I, II y III Regiones"</t>
         </is>
       </c>
       <c r="C371" t="inlineStr">
@@ -18146,16 +18146,16 @@
       </c>
       <c r="D371" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E371" t="inlineStr">
         <is>
-          <t>MINERA ESCONDIDA LIMITADA</t>
+          <t>Molina Quimicos S.A.</t>
         </is>
       </c>
       <c r="F371" t="n">
-        <v>635000</v>
+        <v>100</v>
       </c>
       <c r="G371" t="inlineStr">
         <is>
@@ -18164,12 +18164,12 @@
       </c>
       <c r="H371" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I371" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5931343&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6003607&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J371" t="inlineStr">
@@ -20392,7 +20392,7 @@
       </c>
       <c r="B418" t="inlineStr">
         <is>
-          <t>"Transporte de acido sulfurico concentrado para minera Las Cenizas, Taltal."</t>
+          <t>II MODIFICACIÓN DIA "TRANSPORTE Y MANEJO IN SITU DE RESIDUOS SÓLIDOS Y LÍQUIDOS PELIGROSOS Y NO PELIGROSOS"</t>
         </is>
       </c>
       <c r="C418" t="inlineStr">
@@ -20402,16 +20402,16 @@
       </c>
       <c r="D418" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E418" t="inlineStr">
         <is>
-          <t>Translog S.A.</t>
+          <t>Mol Ambiente S.A.</t>
         </is>
       </c>
       <c r="F418" t="n">
-        <v>600</v>
+        <v>75000</v>
       </c>
       <c r="G418" t="inlineStr">
         <is>
@@ -20420,12 +20420,12 @@
       </c>
       <c r="H418" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I418" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5114868&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5118945&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J418" t="inlineStr">
@@ -20440,7 +20440,7 @@
       </c>
       <c r="B419" t="inlineStr">
         <is>
-          <t>II MODIFICACIÓN DIA "TRANSPORTE Y MANEJO IN SITU DE RESIDUOS SÓLIDOS Y LÍQUIDOS PELIGROSOS Y NO PELIGROSOS"</t>
+          <t>"Transporte de acido sulfurico concentrado para minera Las Cenizas, Taltal."</t>
         </is>
       </c>
       <c r="C419" t="inlineStr">
@@ -20450,16 +20450,16 @@
       </c>
       <c r="D419" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E419" t="inlineStr">
         <is>
-          <t>Mol Ambiente S.A.</t>
+          <t>Translog S.A.</t>
         </is>
       </c>
       <c r="F419" t="n">
-        <v>75000</v>
+        <v>600</v>
       </c>
       <c r="G419" t="inlineStr">
         <is>
@@ -20468,12 +20468,12 @@
       </c>
       <c r="H419" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I419" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5118945&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5114868&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J419" t="inlineStr">
@@ -21928,7 +21928,7 @@
       </c>
       <c r="B450" t="inlineStr">
         <is>
-          <t>Proyecto Laboratorios Químicos CIMM T&amp;S SA. La Negra</t>
+          <t>TRANSPORTE DE RESIDUOS PELIGROSOS POR RUTAS DE LA REGIÓN DE ANTOFAGASTA</t>
         </is>
       </c>
       <c r="C450" t="inlineStr">
@@ -21943,11 +21943,11 @@
       </c>
       <c r="E450" t="inlineStr">
         <is>
-          <t>Yancko Gonzalez Rozas</t>
+          <t>Limfosep S.A</t>
         </is>
       </c>
       <c r="F450" t="n">
-        <v>8000</v>
+        <v>1000</v>
       </c>
       <c r="G450" t="inlineStr">
         <is>
@@ -21956,12 +21956,12 @@
       </c>
       <c r="H450" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I450" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4670031&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4698232&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J450" t="inlineStr">
@@ -21976,7 +21976,7 @@
       </c>
       <c r="B451" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE RESIDUOS PELIGROSOS POR RUTAS DE LA REGIÓN DE ANTOFAGASTA</t>
+          <t>Proyecto Laboratorios Químicos CIMM T&amp;S SA. La Negra</t>
         </is>
       </c>
       <c r="C451" t="inlineStr">
@@ -21991,11 +21991,11 @@
       </c>
       <c r="E451" t="inlineStr">
         <is>
-          <t>Limfosep S.A</t>
+          <t>Yancko Gonzalez Rozas</t>
         </is>
       </c>
       <c r="F451" t="n">
-        <v>1000</v>
+        <v>8000</v>
       </c>
       <c r="G451" t="inlineStr">
         <is>
@@ -22004,12 +22004,12 @@
       </c>
       <c r="H451" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I451" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4698232&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4670031&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J451" t="inlineStr">
@@ -22408,7 +22408,7 @@
       </c>
       <c r="B460" t="inlineStr">
         <is>
-          <t>Nuevo Transporte Interregional de Cianuro de Sodio</t>
+          <t>EXPANSION DEPOSITO DE RELAVES FILTRADOS FAENA EL PEÑÓN</t>
         </is>
       </c>
       <c r="C460" t="inlineStr">
@@ -22418,16 +22418,16 @@
       </c>
       <c r="D460" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E460" t="inlineStr">
         <is>
-          <t>OXIQUIM S.A.</t>
+          <t>Minera Meridian Limitada</t>
         </is>
       </c>
       <c r="F460" t="n">
-        <v>85</v>
+        <v>688</v>
       </c>
       <c r="G460" t="inlineStr">
         <is>
@@ -22436,12 +22436,12 @@
       </c>
       <c r="H460" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I460" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4594007&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4601640&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J460" t="inlineStr">
@@ -22456,7 +22456,7 @@
       </c>
       <c r="B461" t="inlineStr">
         <is>
-          <t>EXPANSION DEPOSITO DE RELAVES FILTRADOS FAENA EL PEÑÓN</t>
+          <t>Nuevo Transporte Interregional de Cianuro de Sodio</t>
         </is>
       </c>
       <c r="C461" t="inlineStr">
@@ -22466,16 +22466,16 @@
       </c>
       <c r="D461" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E461" t="inlineStr">
         <is>
-          <t>Minera Meridian Limitada</t>
+          <t>OXIQUIM S.A.</t>
         </is>
       </c>
       <c r="F461" t="n">
-        <v>688</v>
+        <v>85</v>
       </c>
       <c r="G461" t="inlineStr">
         <is>
@@ -22484,12 +22484,12 @@
       </c>
       <c r="H461" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I461" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4601640&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4594007&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J461" t="inlineStr">

--- a/data/Antofagasta.xlsx
+++ b/data/Antofagasta.xlsx
@@ -500,7 +500,7 @@
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>En Calificación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">

--- a/data/Antofagasta.xlsx
+++ b/data/Antofagasta.xlsx
@@ -12088,7 +12088,7 @@
       </c>
       <c r="B245" t="inlineStr">
         <is>
-          <t>Transporte Interregional de Sustancias Peligrosas - AGREDUCAM VI Región</t>
+          <t>Planta de Fabricación de Tuberías PEX (polietileno reticulado)</t>
         </is>
       </c>
       <c r="C245" t="inlineStr">
@@ -12098,16 +12098,16 @@
       </c>
       <c r="D245" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E245" t="inlineStr">
         <is>
-          <t>Asociación Gremial de Dueños de Camiones de la Sexta Región</t>
+          <t>CROSSPIPE SYSTEMS S.A.</t>
         </is>
       </c>
       <c r="F245" t="n">
-        <v>1200</v>
+        <v>12400</v>
       </c>
       <c r="G245" t="inlineStr">
         <is>
@@ -12121,7 +12121,7 @@
       </c>
       <c r="I245" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128964620&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128954293&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J245" t="inlineStr">
@@ -12136,7 +12136,7 @@
       </c>
       <c r="B246" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos por las Rutas Indicadas</t>
+          <t>Transporte Interregional de Sustancias Peligrosas - AGREDUCAM VI Región</t>
         </is>
       </c>
       <c r="C246" t="inlineStr">
@@ -12151,11 +12151,11 @@
       </c>
       <c r="E246" t="inlineStr">
         <is>
-          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
+          <t>Asociación Gremial de Dueños de Camiones de la Sexta Región</t>
         </is>
       </c>
       <c r="F246" t="n">
-        <v>0</v>
+        <v>1200</v>
       </c>
       <c r="G246" t="inlineStr">
         <is>
@@ -12169,7 +12169,7 @@
       </c>
       <c r="I246" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128972489&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128964620&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J246" t="inlineStr">
@@ -12184,7 +12184,7 @@
       </c>
       <c r="B247" t="inlineStr">
         <is>
-          <t>Planta de Fabricación de Tuberías PEX (polietileno reticulado)</t>
+          <t>Transporte de Residuos Peligrosos por las Rutas Indicadas</t>
         </is>
       </c>
       <c r="C247" t="inlineStr">
@@ -12194,16 +12194,16 @@
       </c>
       <c r="D247" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E247" t="inlineStr">
         <is>
-          <t>CROSSPIPE SYSTEMS S.A.</t>
+          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
         </is>
       </c>
       <c r="F247" t="n">
-        <v>12400</v>
+        <v>0</v>
       </c>
       <c r="G247" t="inlineStr">
         <is>
@@ -12217,7 +12217,7 @@
       </c>
       <c r="I247" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128954293&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128972489&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J247" t="inlineStr">
@@ -13816,26 +13816,26 @@
       </c>
       <c r="B281" t="inlineStr">
         <is>
-          <t>RT Sulfuros</t>
+          <t>Transporte de Sustancias Peligrosas Transaltisa Chile Ltda</t>
         </is>
       </c>
       <c r="C281" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D281" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E281" t="inlineStr">
         <is>
-          <t>CODELCO Chile, División Radomiro Tomic</t>
+          <t>Transaltisa Chile Ltda.</t>
         </is>
       </c>
       <c r="F281" t="n">
-        <v>5.4</v>
+        <v>2050</v>
       </c>
       <c r="G281" t="inlineStr">
         <is>
@@ -13844,12 +13844,12 @@
       </c>
       <c r="H281" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I281" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8210090&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8218613&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J281" t="inlineStr">
@@ -13864,26 +13864,26 @@
       </c>
       <c r="B282" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas Transaltisa Chile Ltda</t>
+          <t>RT Sulfuros</t>
         </is>
       </c>
       <c r="C282" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D282" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E282" t="inlineStr">
         <is>
-          <t>Transaltisa Chile Ltda.</t>
+          <t>CODELCO Chile, División Radomiro Tomic</t>
         </is>
       </c>
       <c r="F282" t="n">
-        <v>2050</v>
+        <v>5.4</v>
       </c>
       <c r="G282" t="inlineStr">
         <is>
@@ -13892,12 +13892,12 @@
       </c>
       <c r="H282" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I282" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8218613&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8210090&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J282" t="inlineStr">
@@ -16552,7 +16552,7 @@
       </c>
       <c r="B338" t="inlineStr">
         <is>
-          <t>Parque Fotovoltaico Los Andes</t>
+          <t>CENTRO DE RECUPERACIÓN DE TAMBORES Y CONTENEDORES IBC CONTAMINADOS, PLAMBIENTAL LA NEGRA</t>
         </is>
       </c>
       <c r="C338" t="inlineStr">
@@ -16567,11 +16567,11 @@
       </c>
       <c r="E338" t="inlineStr">
         <is>
-          <t>Andes Solar SPA</t>
+          <t>VEOLIA SERVICIOS MINEROS INTEGRALES CHILE SpA</t>
         </is>
       </c>
       <c r="F338" t="n">
-        <v>572000</v>
+        <v>60</v>
       </c>
       <c r="G338" t="inlineStr">
         <is>
@@ -16580,12 +16580,12 @@
       </c>
       <c r="H338" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Caducado</t>
         </is>
       </c>
       <c r="I338" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6581267&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6592870&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J338" t="inlineStr">
@@ -16600,7 +16600,7 @@
       </c>
       <c r="B339" t="inlineStr">
         <is>
-          <t>CENTRO DE RECUPERACIÓN DE TAMBORES Y CONTENEDORES IBC CONTAMINADOS, PLAMBIENTAL LA NEGRA</t>
+          <t>CENTRO DE ALMACENAMIENTO DE RESIDUOS INDUSTRIALES, GESAM LA NEGRA</t>
         </is>
       </c>
       <c r="C339" t="inlineStr">
@@ -16619,7 +16619,7 @@
         </is>
       </c>
       <c r="F339" t="n">
-        <v>60</v>
+        <v>360</v>
       </c>
       <c r="G339" t="inlineStr">
         <is>
@@ -16633,7 +16633,7 @@
       </c>
       <c r="I339" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6592870&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6595234&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J339" t="inlineStr">
@@ -16648,7 +16648,7 @@
       </c>
       <c r="B340" t="inlineStr">
         <is>
-          <t>CENTRO DE ALMACENAMIENTO DE RESIDUOS INDUSTRIALES, GESAM LA NEGRA</t>
+          <t>Parque Fotovoltaico Los Andes</t>
         </is>
       </c>
       <c r="C340" t="inlineStr">
@@ -16663,11 +16663,11 @@
       </c>
       <c r="E340" t="inlineStr">
         <is>
-          <t>VEOLIA SERVICIOS MINEROS INTEGRALES CHILE SpA</t>
+          <t>Andes Solar SPA</t>
         </is>
       </c>
       <c r="F340" t="n">
-        <v>360</v>
+        <v>572000</v>
       </c>
       <c r="G340" t="inlineStr">
         <is>
@@ -16676,12 +16676,12 @@
       </c>
       <c r="H340" t="inlineStr">
         <is>
-          <t>Caducado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I340" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6595234&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6581267&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J340" t="inlineStr">
@@ -17512,7 +17512,7 @@
       </c>
       <c r="B358" t="inlineStr">
         <is>
-          <t>Extracción de Áridos Empréstito E17L</t>
+          <t>Modificación Proyecto Transporte de Acido Sulfurico a granel entre la Primera y Décima Regiones de Chile</t>
         </is>
       </c>
       <c r="C358" t="inlineStr">
@@ -17522,16 +17522,16 @@
       </c>
       <c r="D358" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E358" t="inlineStr">
         <is>
-          <t>Skanska Chile S.A.</t>
+          <t>Transportes Herrmann Limitada</t>
         </is>
       </c>
       <c r="F358" t="n">
-        <v>500</v>
+        <v>0</v>
       </c>
       <c r="G358" t="inlineStr">
         <is>
@@ -17540,12 +17540,12 @@
       </c>
       <c r="H358" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I358" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6156264&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6159602&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J358" t="inlineStr">
@@ -17560,7 +17560,7 @@
       </c>
       <c r="B359" t="inlineStr">
         <is>
-          <t>Modificación Proyecto Transporte de Acido Sulfurico a granel entre la Primera y Décima Regiones de Chile</t>
+          <t>Extracción de Áridos Empréstito E17L</t>
         </is>
       </c>
       <c r="C359" t="inlineStr">
@@ -17570,16 +17570,16 @@
       </c>
       <c r="D359" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E359" t="inlineStr">
         <is>
-          <t>Transportes Herrmann Limitada</t>
+          <t>Skanska Chile S.A.</t>
         </is>
       </c>
       <c r="F359" t="n">
-        <v>0</v>
+        <v>500</v>
       </c>
       <c r="G359" t="inlineStr">
         <is>
@@ -17588,12 +17588,12 @@
       </c>
       <c r="H359" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I359" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6159602&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6156264&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J359" t="inlineStr">
@@ -18040,7 +18040,7 @@
       </c>
       <c r="B369" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos</t>
+          <t>Nuevas Instalaciones para Mantención Mina</t>
         </is>
       </c>
       <c r="C369" t="inlineStr">
@@ -18050,16 +18050,16 @@
       </c>
       <c r="D369" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E369" t="inlineStr">
         <is>
-          <t>Transportes TMS Limitada</t>
+          <t>MINERA ESCONDIDA LIMITADA</t>
         </is>
       </c>
       <c r="F369" t="n">
-        <v>200</v>
+        <v>635000</v>
       </c>
       <c r="G369" t="inlineStr">
         <is>
@@ -18068,12 +18068,12 @@
       </c>
       <c r="H369" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I369" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6003582&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5931343&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J369" t="inlineStr">
@@ -18088,7 +18088,7 @@
       </c>
       <c r="B370" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas entre la I, II y III Regiones"</t>
+          <t>Transporte de Residuos Peligrosos</t>
         </is>
       </c>
       <c r="C370" t="inlineStr">
@@ -18103,11 +18103,11 @@
       </c>
       <c r="E370" t="inlineStr">
         <is>
-          <t>Molina Quimicos S.A.</t>
+          <t>Transportes TMS Limitada</t>
         </is>
       </c>
       <c r="F370" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="G370" t="inlineStr">
         <is>
@@ -18121,7 +18121,7 @@
       </c>
       <c r="I370" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6003607&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6003582&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J370" t="inlineStr">
@@ -18136,7 +18136,7 @@
       </c>
       <c r="B371" t="inlineStr">
         <is>
-          <t>Nuevas Instalaciones para Mantención Mina</t>
+          <t>Transporte de Sustancias Peligrosas entre la I, II y III Regiones"</t>
         </is>
       </c>
       <c r="C371" t="inlineStr">
@@ -18146,16 +18146,16 @@
       </c>
       <c r="D371" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E371" t="inlineStr">
         <is>
-          <t>MINERA ESCONDIDA LIMITADA</t>
+          <t>Molina Quimicos S.A.</t>
         </is>
       </c>
       <c r="F371" t="n">
-        <v>635000</v>
+        <v>100</v>
       </c>
       <c r="G371" t="inlineStr">
         <is>
@@ -18164,12 +18164,12 @@
       </c>
       <c r="H371" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I371" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5931343&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6003607&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J371" t="inlineStr">
@@ -20392,7 +20392,7 @@
       </c>
       <c r="B418" t="inlineStr">
         <is>
-          <t>"Transporte de acido sulfurico concentrado para minera Las Cenizas, Taltal."</t>
+          <t>II MODIFICACIÓN DIA "TRANSPORTE Y MANEJO IN SITU DE RESIDUOS SÓLIDOS Y LÍQUIDOS PELIGROSOS Y NO PELIGROSOS"</t>
         </is>
       </c>
       <c r="C418" t="inlineStr">
@@ -20402,16 +20402,16 @@
       </c>
       <c r="D418" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E418" t="inlineStr">
         <is>
-          <t>Translog S.A.</t>
+          <t>Mol Ambiente S.A.</t>
         </is>
       </c>
       <c r="F418" t="n">
-        <v>600</v>
+        <v>75000</v>
       </c>
       <c r="G418" t="inlineStr">
         <is>
@@ -20420,12 +20420,12 @@
       </c>
       <c r="H418" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I418" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5114868&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5118945&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J418" t="inlineStr">
@@ -20440,7 +20440,7 @@
       </c>
       <c r="B419" t="inlineStr">
         <is>
-          <t>II MODIFICACIÓN DIA "TRANSPORTE Y MANEJO IN SITU DE RESIDUOS SÓLIDOS Y LÍQUIDOS PELIGROSOS Y NO PELIGROSOS"</t>
+          <t>"Transporte de acido sulfurico concentrado para minera Las Cenizas, Taltal."</t>
         </is>
       </c>
       <c r="C419" t="inlineStr">
@@ -20450,16 +20450,16 @@
       </c>
       <c r="D419" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E419" t="inlineStr">
         <is>
-          <t>Mol Ambiente S.A.</t>
+          <t>Translog S.A.</t>
         </is>
       </c>
       <c r="F419" t="n">
-        <v>75000</v>
+        <v>600</v>
       </c>
       <c r="G419" t="inlineStr">
         <is>
@@ -20468,12 +20468,12 @@
       </c>
       <c r="H419" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I419" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5118945&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5114868&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J419" t="inlineStr">
@@ -21928,7 +21928,7 @@
       </c>
       <c r="B450" t="inlineStr">
         <is>
-          <t>Proyecto Laboratorios Químicos CIMM T&amp;S SA. La Negra</t>
+          <t>TRANSPORTE DE RESIDUOS PELIGROSOS POR RUTAS DE LA REGIÓN DE ANTOFAGASTA</t>
         </is>
       </c>
       <c r="C450" t="inlineStr">
@@ -21943,11 +21943,11 @@
       </c>
       <c r="E450" t="inlineStr">
         <is>
-          <t>Yancko Gonzalez Rozas</t>
+          <t>Limfosep S.A</t>
         </is>
       </c>
       <c r="F450" t="n">
-        <v>8000</v>
+        <v>1000</v>
       </c>
       <c r="G450" t="inlineStr">
         <is>
@@ -21956,12 +21956,12 @@
       </c>
       <c r="H450" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I450" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4670031&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4698232&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J450" t="inlineStr">
@@ -21976,7 +21976,7 @@
       </c>
       <c r="B451" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE RESIDUOS PELIGROSOS POR RUTAS DE LA REGIÓN DE ANTOFAGASTA</t>
+          <t>Proyecto Laboratorios Químicos CIMM T&amp;S SA. La Negra</t>
         </is>
       </c>
       <c r="C451" t="inlineStr">
@@ -21991,11 +21991,11 @@
       </c>
       <c r="E451" t="inlineStr">
         <is>
-          <t>Limfosep S.A</t>
+          <t>Yancko Gonzalez Rozas</t>
         </is>
       </c>
       <c r="F451" t="n">
-        <v>1000</v>
+        <v>8000</v>
       </c>
       <c r="G451" t="inlineStr">
         <is>
@@ -22004,12 +22004,12 @@
       </c>
       <c r="H451" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I451" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4698232&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4670031&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J451" t="inlineStr">
@@ -22408,7 +22408,7 @@
       </c>
       <c r="B460" t="inlineStr">
         <is>
-          <t>Nuevo Transporte Interregional de Cianuro de Sodio</t>
+          <t>EXPANSION DEPOSITO DE RELAVES FILTRADOS FAENA EL PEÑÓN</t>
         </is>
       </c>
       <c r="C460" t="inlineStr">
@@ -22418,16 +22418,16 @@
       </c>
       <c r="D460" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E460" t="inlineStr">
         <is>
-          <t>OXIQUIM S.A.</t>
+          <t>Minera Meridian Limitada</t>
         </is>
       </c>
       <c r="F460" t="n">
-        <v>85</v>
+        <v>688</v>
       </c>
       <c r="G460" t="inlineStr">
         <is>
@@ -22436,12 +22436,12 @@
       </c>
       <c r="H460" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I460" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4594007&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4601640&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J460" t="inlineStr">
@@ -22456,7 +22456,7 @@
       </c>
       <c r="B461" t="inlineStr">
         <is>
-          <t>EXPANSION DEPOSITO DE RELAVES FILTRADOS FAENA EL PEÑÓN</t>
+          <t>Nuevo Transporte Interregional de Cianuro de Sodio</t>
         </is>
       </c>
       <c r="C461" t="inlineStr">
@@ -22466,16 +22466,16 @@
       </c>
       <c r="D461" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E461" t="inlineStr">
         <is>
-          <t>Minera Meridian Limitada</t>
+          <t>OXIQUIM S.A.</t>
         </is>
       </c>
       <c r="F461" t="n">
-        <v>688</v>
+        <v>85</v>
       </c>
       <c r="G461" t="inlineStr">
         <is>
@@ -22484,12 +22484,12 @@
       </c>
       <c r="H461" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I461" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4601640&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4594007&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J461" t="inlineStr">
@@ -23224,7 +23224,7 @@
       </c>
       <c r="B477" t="inlineStr">
         <is>
-          <t>Transporte de Barros Anódicos</t>
+          <t>Transporte de Residuos Peligroso, Transporte Bello</t>
         </is>
       </c>
       <c r="C477" t="inlineStr">
@@ -23239,11 +23239,11 @@
       </c>
       <c r="E477" t="inlineStr">
         <is>
-          <t>CODELCO CHILE</t>
+          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
         </is>
       </c>
       <c r="F477" t="n">
-        <v>0</v>
+        <v>4050</v>
       </c>
       <c r="G477" t="inlineStr">
         <is>
@@ -23257,7 +23257,7 @@
       </c>
       <c r="I477" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4429880&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4455518&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J477" t="inlineStr">
@@ -23272,7 +23272,7 @@
       </c>
       <c r="B478" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligroso, Transporte Bello</t>
+          <t>Transporte de Barros Anódicos</t>
         </is>
       </c>
       <c r="C478" t="inlineStr">
@@ -23287,11 +23287,11 @@
       </c>
       <c r="E478" t="inlineStr">
         <is>
-          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
+          <t>CODELCO CHILE</t>
         </is>
       </c>
       <c r="F478" t="n">
-        <v>4050</v>
+        <v>0</v>
       </c>
       <c r="G478" t="inlineStr">
         <is>
@@ -23305,7 +23305,7 @@
       </c>
       <c r="I478" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4455518&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4429880&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J478" t="inlineStr">
@@ -23416,7 +23416,7 @@
       </c>
       <c r="B481" t="inlineStr">
         <is>
-          <t>Transporte y Almacenamiento temporal de Residuos Peligrosos M&amp;M ltda.</t>
+          <t>Modificacion Proyecto Minero Algorta Sector Pampa</t>
         </is>
       </c>
       <c r="C481" t="inlineStr">
@@ -23426,16 +23426,16 @@
       </c>
       <c r="D481" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E481" t="inlineStr">
         <is>
-          <t>Transportes Moscoso y Moscoso Ltda.</t>
+          <t>Algorta Norte S.A</t>
         </is>
       </c>
       <c r="F481" t="n">
-        <v>41075</v>
+        <v>6400</v>
       </c>
       <c r="G481" t="inlineStr">
         <is>
@@ -23449,7 +23449,7 @@
       </c>
       <c r="I481" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4422237&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4432700&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J481" t="inlineStr">
@@ -23464,7 +23464,7 @@
       </c>
       <c r="B482" t="inlineStr">
         <is>
-          <t>Modificacion Proyecto Minero Algorta Sector Pampa</t>
+          <t>Transporte y Almacenamiento temporal de Residuos Peligrosos M&amp;M ltda.</t>
         </is>
       </c>
       <c r="C482" t="inlineStr">
@@ -23474,16 +23474,16 @@
       </c>
       <c r="D482" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E482" t="inlineStr">
         <is>
-          <t>Algorta Norte S.A</t>
+          <t>Transportes Moscoso y Moscoso Ltda.</t>
         </is>
       </c>
       <c r="F482" t="n">
-        <v>6400</v>
+        <v>41075</v>
       </c>
       <c r="G482" t="inlineStr">
         <is>
@@ -23497,7 +23497,7 @@
       </c>
       <c r="I482" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4432700&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4422237&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J482" t="inlineStr">

--- a/data/Antofagasta.xlsx
+++ b/data/Antofagasta.xlsx
@@ -12088,7 +12088,7 @@
       </c>
       <c r="B245" t="inlineStr">
         <is>
-          <t>Planta de Fabricación de Tuberías PEX (polietileno reticulado)</t>
+          <t>Transporte Interregional de Sustancias Peligrosas - AGREDUCAM VI Región</t>
         </is>
       </c>
       <c r="C245" t="inlineStr">
@@ -12098,16 +12098,16 @@
       </c>
       <c r="D245" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E245" t="inlineStr">
         <is>
-          <t>CROSSPIPE SYSTEMS S.A.</t>
+          <t>Asociación Gremial de Dueños de Camiones de la Sexta Región</t>
         </is>
       </c>
       <c r="F245" t="n">
-        <v>12400</v>
+        <v>1200</v>
       </c>
       <c r="G245" t="inlineStr">
         <is>
@@ -12121,7 +12121,7 @@
       </c>
       <c r="I245" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128954293&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128964620&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J245" t="inlineStr">
@@ -12136,7 +12136,7 @@
       </c>
       <c r="B246" t="inlineStr">
         <is>
-          <t>Transporte Interregional de Sustancias Peligrosas - AGREDUCAM VI Región</t>
+          <t>Transporte de Residuos Peligrosos por las Rutas Indicadas</t>
         </is>
       </c>
       <c r="C246" t="inlineStr">
@@ -12151,11 +12151,11 @@
       </c>
       <c r="E246" t="inlineStr">
         <is>
-          <t>Asociación Gremial de Dueños de Camiones de la Sexta Región</t>
+          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
         </is>
       </c>
       <c r="F246" t="n">
-        <v>1200</v>
+        <v>0</v>
       </c>
       <c r="G246" t="inlineStr">
         <is>
@@ -12169,7 +12169,7 @@
       </c>
       <c r="I246" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128964620&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128972489&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J246" t="inlineStr">
@@ -12184,7 +12184,7 @@
       </c>
       <c r="B247" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos por las Rutas Indicadas</t>
+          <t>Planta de Fabricación de Tuberías PEX (polietileno reticulado)</t>
         </is>
       </c>
       <c r="C247" t="inlineStr">
@@ -12194,16 +12194,16 @@
       </c>
       <c r="D247" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E247" t="inlineStr">
         <is>
-          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
+          <t>CROSSPIPE SYSTEMS S.A.</t>
         </is>
       </c>
       <c r="F247" t="n">
-        <v>0</v>
+        <v>12400</v>
       </c>
       <c r="G247" t="inlineStr">
         <is>
@@ -12217,7 +12217,7 @@
       </c>
       <c r="I247" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128972489&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128954293&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J247" t="inlineStr">
@@ -13816,26 +13816,26 @@
       </c>
       <c r="B281" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas Transaltisa Chile Ltda</t>
+          <t>RT Sulfuros</t>
         </is>
       </c>
       <c r="C281" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D281" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E281" t="inlineStr">
         <is>
-          <t>Transaltisa Chile Ltda.</t>
+          <t>CODELCO Chile, División Radomiro Tomic</t>
         </is>
       </c>
       <c r="F281" t="n">
-        <v>2050</v>
+        <v>5.4</v>
       </c>
       <c r="G281" t="inlineStr">
         <is>
@@ -13844,12 +13844,12 @@
       </c>
       <c r="H281" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I281" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8218613&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8210090&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J281" t="inlineStr">
@@ -13864,26 +13864,26 @@
       </c>
       <c r="B282" t="inlineStr">
         <is>
-          <t>RT Sulfuros</t>
+          <t>Transporte de Sustancias Peligrosas Transaltisa Chile Ltda</t>
         </is>
       </c>
       <c r="C282" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D282" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E282" t="inlineStr">
         <is>
-          <t>CODELCO Chile, División Radomiro Tomic</t>
+          <t>Transaltisa Chile Ltda.</t>
         </is>
       </c>
       <c r="F282" t="n">
-        <v>5.4</v>
+        <v>2050</v>
       </c>
       <c r="G282" t="inlineStr">
         <is>
@@ -13892,12 +13892,12 @@
       </c>
       <c r="H282" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I282" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8210090&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8218613&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J282" t="inlineStr">
@@ -16552,7 +16552,7 @@
       </c>
       <c r="B338" t="inlineStr">
         <is>
-          <t>CENTRO DE RECUPERACIÓN DE TAMBORES Y CONTENEDORES IBC CONTAMINADOS, PLAMBIENTAL LA NEGRA</t>
+          <t>Parque Fotovoltaico Los Andes</t>
         </is>
       </c>
       <c r="C338" t="inlineStr">
@@ -16567,11 +16567,11 @@
       </c>
       <c r="E338" t="inlineStr">
         <is>
-          <t>VEOLIA SERVICIOS MINEROS INTEGRALES CHILE SpA</t>
+          <t>Andes Solar SPA</t>
         </is>
       </c>
       <c r="F338" t="n">
-        <v>60</v>
+        <v>572000</v>
       </c>
       <c r="G338" t="inlineStr">
         <is>
@@ -16580,12 +16580,12 @@
       </c>
       <c r="H338" t="inlineStr">
         <is>
-          <t>Caducado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I338" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6592870&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6581267&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J338" t="inlineStr">
@@ -16600,7 +16600,7 @@
       </c>
       <c r="B339" t="inlineStr">
         <is>
-          <t>CENTRO DE ALMACENAMIENTO DE RESIDUOS INDUSTRIALES, GESAM LA NEGRA</t>
+          <t>CENTRO DE RECUPERACIÓN DE TAMBORES Y CONTENEDORES IBC CONTAMINADOS, PLAMBIENTAL LA NEGRA</t>
         </is>
       </c>
       <c r="C339" t="inlineStr">
@@ -16619,7 +16619,7 @@
         </is>
       </c>
       <c r="F339" t="n">
-        <v>360</v>
+        <v>60</v>
       </c>
       <c r="G339" t="inlineStr">
         <is>
@@ -16633,7 +16633,7 @@
       </c>
       <c r="I339" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6595234&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6592870&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J339" t="inlineStr">
@@ -16648,7 +16648,7 @@
       </c>
       <c r="B340" t="inlineStr">
         <is>
-          <t>Parque Fotovoltaico Los Andes</t>
+          <t>CENTRO DE ALMACENAMIENTO DE RESIDUOS INDUSTRIALES, GESAM LA NEGRA</t>
         </is>
       </c>
       <c r="C340" t="inlineStr">
@@ -16663,11 +16663,11 @@
       </c>
       <c r="E340" t="inlineStr">
         <is>
-          <t>Andes Solar SPA</t>
+          <t>VEOLIA SERVICIOS MINEROS INTEGRALES CHILE SpA</t>
         </is>
       </c>
       <c r="F340" t="n">
-        <v>572000</v>
+        <v>360</v>
       </c>
       <c r="G340" t="inlineStr">
         <is>
@@ -16676,12 +16676,12 @@
       </c>
       <c r="H340" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Caducado</t>
         </is>
       </c>
       <c r="I340" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6581267&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6595234&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J340" t="inlineStr">
@@ -17512,7 +17512,7 @@
       </c>
       <c r="B358" t="inlineStr">
         <is>
-          <t>Modificación Proyecto Transporte de Acido Sulfurico a granel entre la Primera y Décima Regiones de Chile</t>
+          <t>Extracción de Áridos Empréstito E17L</t>
         </is>
       </c>
       <c r="C358" t="inlineStr">
@@ -17522,16 +17522,16 @@
       </c>
       <c r="D358" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E358" t="inlineStr">
         <is>
-          <t>Transportes Herrmann Limitada</t>
+          <t>Skanska Chile S.A.</t>
         </is>
       </c>
       <c r="F358" t="n">
-        <v>0</v>
+        <v>500</v>
       </c>
       <c r="G358" t="inlineStr">
         <is>
@@ -17540,12 +17540,12 @@
       </c>
       <c r="H358" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I358" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6159602&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6156264&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J358" t="inlineStr">
@@ -17560,7 +17560,7 @@
       </c>
       <c r="B359" t="inlineStr">
         <is>
-          <t>Extracción de Áridos Empréstito E17L</t>
+          <t>Modificación Proyecto Transporte de Acido Sulfurico a granel entre la Primera y Décima Regiones de Chile</t>
         </is>
       </c>
       <c r="C359" t="inlineStr">
@@ -17570,16 +17570,16 @@
       </c>
       <c r="D359" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E359" t="inlineStr">
         <is>
-          <t>Skanska Chile S.A.</t>
+          <t>Transportes Herrmann Limitada</t>
         </is>
       </c>
       <c r="F359" t="n">
-        <v>500</v>
+        <v>0</v>
       </c>
       <c r="G359" t="inlineStr">
         <is>
@@ -17588,12 +17588,12 @@
       </c>
       <c r="H359" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I359" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6156264&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6159602&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J359" t="inlineStr">
@@ -18040,7 +18040,7 @@
       </c>
       <c r="B369" t="inlineStr">
         <is>
-          <t>Nuevas Instalaciones para Mantención Mina</t>
+          <t>Transporte de Residuos Peligrosos</t>
         </is>
       </c>
       <c r="C369" t="inlineStr">
@@ -18050,16 +18050,16 @@
       </c>
       <c r="D369" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E369" t="inlineStr">
         <is>
-          <t>MINERA ESCONDIDA LIMITADA</t>
+          <t>Transportes TMS Limitada</t>
         </is>
       </c>
       <c r="F369" t="n">
-        <v>635000</v>
+        <v>200</v>
       </c>
       <c r="G369" t="inlineStr">
         <is>
@@ -18068,12 +18068,12 @@
       </c>
       <c r="H369" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I369" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5931343&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6003582&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J369" t="inlineStr">
@@ -18088,7 +18088,7 @@
       </c>
       <c r="B370" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos</t>
+          <t>Transporte de Sustancias Peligrosas entre la I, II y III Regiones"</t>
         </is>
       </c>
       <c r="C370" t="inlineStr">
@@ -18103,11 +18103,11 @@
       </c>
       <c r="E370" t="inlineStr">
         <is>
-          <t>Transportes TMS Limitada</t>
+          <t>Molina Quimicos S.A.</t>
         </is>
       </c>
       <c r="F370" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="G370" t="inlineStr">
         <is>
@@ -18121,7 +18121,7 @@
       </c>
       <c r="I370" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6003582&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6003607&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J370" t="inlineStr">
@@ -18136,7 +18136,7 @@
       </c>
       <c r="B371" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas entre la I, II y III Regiones"</t>
+          <t>Nuevas Instalaciones para Mantención Mina</t>
         </is>
       </c>
       <c r="C371" t="inlineStr">
@@ -18146,16 +18146,16 @@
       </c>
       <c r="D371" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E371" t="inlineStr">
         <is>
-          <t>Molina Quimicos S.A.</t>
+          <t>MINERA ESCONDIDA LIMITADA</t>
         </is>
       </c>
       <c r="F371" t="n">
-        <v>100</v>
+        <v>635000</v>
       </c>
       <c r="G371" t="inlineStr">
         <is>
@@ -18164,12 +18164,12 @@
       </c>
       <c r="H371" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I371" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6003607&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5931343&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J371" t="inlineStr">
@@ -20392,7 +20392,7 @@
       </c>
       <c r="B418" t="inlineStr">
         <is>
-          <t>II MODIFICACIÓN DIA "TRANSPORTE Y MANEJO IN SITU DE RESIDUOS SÓLIDOS Y LÍQUIDOS PELIGROSOS Y NO PELIGROSOS"</t>
+          <t>"Transporte de acido sulfurico concentrado para minera Las Cenizas, Taltal."</t>
         </is>
       </c>
       <c r="C418" t="inlineStr">
@@ -20402,16 +20402,16 @@
       </c>
       <c r="D418" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E418" t="inlineStr">
         <is>
-          <t>Mol Ambiente S.A.</t>
+          <t>Translog S.A.</t>
         </is>
       </c>
       <c r="F418" t="n">
-        <v>75000</v>
+        <v>600</v>
       </c>
       <c r="G418" t="inlineStr">
         <is>
@@ -20420,12 +20420,12 @@
       </c>
       <c r="H418" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I418" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5118945&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5114868&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J418" t="inlineStr">
@@ -20440,7 +20440,7 @@
       </c>
       <c r="B419" t="inlineStr">
         <is>
-          <t>"Transporte de acido sulfurico concentrado para minera Las Cenizas, Taltal."</t>
+          <t>II MODIFICACIÓN DIA "TRANSPORTE Y MANEJO IN SITU DE RESIDUOS SÓLIDOS Y LÍQUIDOS PELIGROSOS Y NO PELIGROSOS"</t>
         </is>
       </c>
       <c r="C419" t="inlineStr">
@@ -20450,16 +20450,16 @@
       </c>
       <c r="D419" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E419" t="inlineStr">
         <is>
-          <t>Translog S.A.</t>
+          <t>Mol Ambiente S.A.</t>
         </is>
       </c>
       <c r="F419" t="n">
-        <v>600</v>
+        <v>75000</v>
       </c>
       <c r="G419" t="inlineStr">
         <is>
@@ -20468,12 +20468,12 @@
       </c>
       <c r="H419" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I419" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5114868&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5118945&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J419" t="inlineStr">
@@ -21928,7 +21928,7 @@
       </c>
       <c r="B450" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE RESIDUOS PELIGROSOS POR RUTAS DE LA REGIÓN DE ANTOFAGASTA</t>
+          <t>Proyecto Laboratorios Químicos CIMM T&amp;S SA. La Negra</t>
         </is>
       </c>
       <c r="C450" t="inlineStr">
@@ -21943,11 +21943,11 @@
       </c>
       <c r="E450" t="inlineStr">
         <is>
-          <t>Limfosep S.A</t>
+          <t>Yancko Gonzalez Rozas</t>
         </is>
       </c>
       <c r="F450" t="n">
-        <v>1000</v>
+        <v>8000</v>
       </c>
       <c r="G450" t="inlineStr">
         <is>
@@ -21956,12 +21956,12 @@
       </c>
       <c r="H450" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I450" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4698232&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4670031&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J450" t="inlineStr">
@@ -21976,7 +21976,7 @@
       </c>
       <c r="B451" t="inlineStr">
         <is>
-          <t>Proyecto Laboratorios Químicos CIMM T&amp;S SA. La Negra</t>
+          <t>TRANSPORTE DE RESIDUOS PELIGROSOS POR RUTAS DE LA REGIÓN DE ANTOFAGASTA</t>
         </is>
       </c>
       <c r="C451" t="inlineStr">
@@ -21991,11 +21991,11 @@
       </c>
       <c r="E451" t="inlineStr">
         <is>
-          <t>Yancko Gonzalez Rozas</t>
+          <t>Limfosep S.A</t>
         </is>
       </c>
       <c r="F451" t="n">
-        <v>8000</v>
+        <v>1000</v>
       </c>
       <c r="G451" t="inlineStr">
         <is>
@@ -22004,12 +22004,12 @@
       </c>
       <c r="H451" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I451" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4670031&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4698232&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J451" t="inlineStr">
@@ -22408,7 +22408,7 @@
       </c>
       <c r="B460" t="inlineStr">
         <is>
-          <t>EXPANSION DEPOSITO DE RELAVES FILTRADOS FAENA EL PEÑÓN</t>
+          <t>Nuevo Transporte Interregional de Cianuro de Sodio</t>
         </is>
       </c>
       <c r="C460" t="inlineStr">
@@ -22418,16 +22418,16 @@
       </c>
       <c r="D460" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E460" t="inlineStr">
         <is>
-          <t>Minera Meridian Limitada</t>
+          <t>OXIQUIM S.A.</t>
         </is>
       </c>
       <c r="F460" t="n">
-        <v>688</v>
+        <v>85</v>
       </c>
       <c r="G460" t="inlineStr">
         <is>
@@ -22436,12 +22436,12 @@
       </c>
       <c r="H460" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I460" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4601640&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4594007&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J460" t="inlineStr">
@@ -22456,7 +22456,7 @@
       </c>
       <c r="B461" t="inlineStr">
         <is>
-          <t>Nuevo Transporte Interregional de Cianuro de Sodio</t>
+          <t>EXPANSION DEPOSITO DE RELAVES FILTRADOS FAENA EL PEÑÓN</t>
         </is>
       </c>
       <c r="C461" t="inlineStr">
@@ -22466,16 +22466,16 @@
       </c>
       <c r="D461" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E461" t="inlineStr">
         <is>
-          <t>OXIQUIM S.A.</t>
+          <t>Minera Meridian Limitada</t>
         </is>
       </c>
       <c r="F461" t="n">
-        <v>85</v>
+        <v>688</v>
       </c>
       <c r="G461" t="inlineStr">
         <is>
@@ -22484,12 +22484,12 @@
       </c>
       <c r="H461" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I461" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4594007&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4601640&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J461" t="inlineStr">
@@ -23224,7 +23224,7 @@
       </c>
       <c r="B477" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligroso, Transporte Bello</t>
+          <t>Transporte de Barros Anódicos</t>
         </is>
       </c>
       <c r="C477" t="inlineStr">
@@ -23239,11 +23239,11 @@
       </c>
       <c r="E477" t="inlineStr">
         <is>
-          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
+          <t>CODELCO CHILE</t>
         </is>
       </c>
       <c r="F477" t="n">
-        <v>4050</v>
+        <v>0</v>
       </c>
       <c r="G477" t="inlineStr">
         <is>
@@ -23257,7 +23257,7 @@
       </c>
       <c r="I477" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4455518&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4429880&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J477" t="inlineStr">
@@ -23272,7 +23272,7 @@
       </c>
       <c r="B478" t="inlineStr">
         <is>
-          <t>Transporte de Barros Anódicos</t>
+          <t>Transporte de Residuos Peligroso, Transporte Bello</t>
         </is>
       </c>
       <c r="C478" t="inlineStr">
@@ -23287,11 +23287,11 @@
       </c>
       <c r="E478" t="inlineStr">
         <is>
-          <t>CODELCO CHILE</t>
+          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
         </is>
       </c>
       <c r="F478" t="n">
-        <v>0</v>
+        <v>4050</v>
       </c>
       <c r="G478" t="inlineStr">
         <is>
@@ -23305,7 +23305,7 @@
       </c>
       <c r="I478" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4429880&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4455518&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J478" t="inlineStr">
@@ -23416,7 +23416,7 @@
       </c>
       <c r="B481" t="inlineStr">
         <is>
-          <t>Modificacion Proyecto Minero Algorta Sector Pampa</t>
+          <t>Transporte y Almacenamiento temporal de Residuos Peligrosos M&amp;M ltda.</t>
         </is>
       </c>
       <c r="C481" t="inlineStr">
@@ -23426,16 +23426,16 @@
       </c>
       <c r="D481" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E481" t="inlineStr">
         <is>
-          <t>Algorta Norte S.A</t>
+          <t>Transportes Moscoso y Moscoso Ltda.</t>
         </is>
       </c>
       <c r="F481" t="n">
-        <v>6400</v>
+        <v>41075</v>
       </c>
       <c r="G481" t="inlineStr">
         <is>
@@ -23449,7 +23449,7 @@
       </c>
       <c r="I481" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4432700&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4422237&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J481" t="inlineStr">
@@ -23464,7 +23464,7 @@
       </c>
       <c r="B482" t="inlineStr">
         <is>
-          <t>Transporte y Almacenamiento temporal de Residuos Peligrosos M&amp;M ltda.</t>
+          <t>Modificacion Proyecto Minero Algorta Sector Pampa</t>
         </is>
       </c>
       <c r="C482" t="inlineStr">
@@ -23474,16 +23474,16 @@
       </c>
       <c r="D482" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E482" t="inlineStr">
         <is>
-          <t>Transportes Moscoso y Moscoso Ltda.</t>
+          <t>Algorta Norte S.A</t>
         </is>
       </c>
       <c r="F482" t="n">
-        <v>41075</v>
+        <v>6400</v>
       </c>
       <c r="G482" t="inlineStr">
         <is>
@@ -23497,7 +23497,7 @@
       </c>
       <c r="I482" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4422237&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4432700&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J482" t="inlineStr">

--- a/data/Antofagasta.xlsx
+++ b/data/Antofagasta.xlsx
@@ -3415,7 +3415,7 @@
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>GRENERGY RENOVABLES PACIFIC LIMITADA</t>
+          <t>GR Quelat SpA</t>
         </is>
       </c>
       <c r="F64" t="n">
@@ -3511,7 +3511,7 @@
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>GRENERGY RENOVABLES PACIFIC LIMITADA</t>
+          <t>GR Quelat SpA</t>
         </is>
       </c>
       <c r="F66" t="n">
@@ -3607,7 +3607,7 @@
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>GRENERGY RENOVABLES PACIFIC LIMITADA</t>
+          <t>GR Quelat SpA</t>
         </is>
       </c>
       <c r="F68" t="n">
@@ -3703,7 +3703,7 @@
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>GRENERGY RENOVABLES PACIFIC LIMITADA</t>
+          <t>GR Quelat SpA</t>
         </is>
       </c>
       <c r="F70" t="n">
@@ -3799,7 +3799,7 @@
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>GRENERGY RENOVABLES PACIFIC LIMITADA</t>
+          <t>GR Quelat SpA</t>
         </is>
       </c>
       <c r="F72" t="n">
@@ -3847,7 +3847,7 @@
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>GRENERGY RENOVABLES PACIFIC LIMITADA</t>
+          <t>GR Quelat SpA</t>
         </is>
       </c>
       <c r="F73" t="n">
@@ -3895,7 +3895,7 @@
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>GRENERGY RENOVABLES PACIFIC LIMITADA</t>
+          <t>GR Quelat SpA</t>
         </is>
       </c>
       <c r="F74" t="n">
@@ -12088,7 +12088,7 @@
       </c>
       <c r="B245" t="inlineStr">
         <is>
-          <t>Planta de Fabricación de Tuberías PEX (polietileno reticulado)</t>
+          <t>Transporte Interregional de Sustancias Peligrosas - AGREDUCAM VI Región</t>
         </is>
       </c>
       <c r="C245" t="inlineStr">
@@ -12098,16 +12098,16 @@
       </c>
       <c r="D245" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E245" t="inlineStr">
         <is>
-          <t>CROSSPIPE SYSTEMS S.A.</t>
+          <t>Asociación Gremial de Dueños de Camiones de la Sexta Región</t>
         </is>
       </c>
       <c r="F245" t="n">
-        <v>12400</v>
+        <v>1200</v>
       </c>
       <c r="G245" t="inlineStr">
         <is>
@@ -12121,7 +12121,7 @@
       </c>
       <c r="I245" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128954293&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128964620&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J245" t="inlineStr">
@@ -12136,7 +12136,7 @@
       </c>
       <c r="B246" t="inlineStr">
         <is>
-          <t>Transporte Interregional de Sustancias Peligrosas - AGREDUCAM VI Región</t>
+          <t>Transporte de Residuos Peligrosos por las Rutas Indicadas</t>
         </is>
       </c>
       <c r="C246" t="inlineStr">
@@ -12151,11 +12151,11 @@
       </c>
       <c r="E246" t="inlineStr">
         <is>
-          <t>Asociación Gremial de Dueños de Camiones de la Sexta Región</t>
+          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
         </is>
       </c>
       <c r="F246" t="n">
-        <v>1200</v>
+        <v>0</v>
       </c>
       <c r="G246" t="inlineStr">
         <is>
@@ -12169,7 +12169,7 @@
       </c>
       <c r="I246" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128964620&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128972489&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J246" t="inlineStr">
@@ -12184,7 +12184,7 @@
       </c>
       <c r="B247" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos por las Rutas Indicadas</t>
+          <t>Planta de Fabricación de Tuberías PEX (polietileno reticulado)</t>
         </is>
       </c>
       <c r="C247" t="inlineStr">
@@ -12194,16 +12194,16 @@
       </c>
       <c r="D247" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E247" t="inlineStr">
         <is>
-          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
+          <t>CROSSPIPE SYSTEMS S.A.</t>
         </is>
       </c>
       <c r="F247" t="n">
-        <v>0</v>
+        <v>12400</v>
       </c>
       <c r="G247" t="inlineStr">
         <is>
@@ -12217,7 +12217,7 @@
       </c>
       <c r="I247" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128972489&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128954293&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J247" t="inlineStr">
@@ -13816,26 +13816,26 @@
       </c>
       <c r="B281" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas Transaltisa Chile Ltda</t>
+          <t>RT Sulfuros</t>
         </is>
       </c>
       <c r="C281" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D281" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E281" t="inlineStr">
         <is>
-          <t>Transaltisa Chile Ltda.</t>
+          <t>CODELCO Chile, División Radomiro Tomic</t>
         </is>
       </c>
       <c r="F281" t="n">
-        <v>2050</v>
+        <v>5.4</v>
       </c>
       <c r="G281" t="inlineStr">
         <is>
@@ -13844,12 +13844,12 @@
       </c>
       <c r="H281" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I281" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8218613&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8210090&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J281" t="inlineStr">
@@ -13864,26 +13864,26 @@
       </c>
       <c r="B282" t="inlineStr">
         <is>
-          <t>RT Sulfuros</t>
+          <t>Transporte de Sustancias Peligrosas Transaltisa Chile Ltda</t>
         </is>
       </c>
       <c r="C282" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D282" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E282" t="inlineStr">
         <is>
-          <t>CODELCO Chile, División Radomiro Tomic</t>
+          <t>Transaltisa Chile Ltda.</t>
         </is>
       </c>
       <c r="F282" t="n">
-        <v>5.4</v>
+        <v>2050</v>
       </c>
       <c r="G282" t="inlineStr">
         <is>
@@ -13892,12 +13892,12 @@
       </c>
       <c r="H282" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I282" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8210090&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8218613&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J282" t="inlineStr">
@@ -16552,7 +16552,7 @@
       </c>
       <c r="B338" t="inlineStr">
         <is>
-          <t>CENTRO DE RECUPERACIÓN DE TAMBORES Y CONTENEDORES IBC CONTAMINADOS, PLAMBIENTAL LA NEGRA</t>
+          <t>Parque Fotovoltaico Los Andes</t>
         </is>
       </c>
       <c r="C338" t="inlineStr">
@@ -16567,11 +16567,11 @@
       </c>
       <c r="E338" t="inlineStr">
         <is>
-          <t>VEOLIA SERVICIOS MINEROS INTEGRALES CHILE SpA</t>
+          <t>Andes Solar SPA</t>
         </is>
       </c>
       <c r="F338" t="n">
-        <v>60</v>
+        <v>572000</v>
       </c>
       <c r="G338" t="inlineStr">
         <is>
@@ -16580,12 +16580,12 @@
       </c>
       <c r="H338" t="inlineStr">
         <is>
-          <t>Caducado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I338" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6592870&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6581267&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J338" t="inlineStr">
@@ -16600,7 +16600,7 @@
       </c>
       <c r="B339" t="inlineStr">
         <is>
-          <t>CENTRO DE ALMACENAMIENTO DE RESIDUOS INDUSTRIALES, GESAM LA NEGRA</t>
+          <t>CENTRO DE RECUPERACIÓN DE TAMBORES Y CONTENEDORES IBC CONTAMINADOS, PLAMBIENTAL LA NEGRA</t>
         </is>
       </c>
       <c r="C339" t="inlineStr">
@@ -16619,7 +16619,7 @@
         </is>
       </c>
       <c r="F339" t="n">
-        <v>360</v>
+        <v>60</v>
       </c>
       <c r="G339" t="inlineStr">
         <is>
@@ -16633,7 +16633,7 @@
       </c>
       <c r="I339" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6595234&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6592870&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J339" t="inlineStr">
@@ -16648,7 +16648,7 @@
       </c>
       <c r="B340" t="inlineStr">
         <is>
-          <t>Parque Fotovoltaico Los Andes</t>
+          <t>CENTRO DE ALMACENAMIENTO DE RESIDUOS INDUSTRIALES, GESAM LA NEGRA</t>
         </is>
       </c>
       <c r="C340" t="inlineStr">
@@ -16663,11 +16663,11 @@
       </c>
       <c r="E340" t="inlineStr">
         <is>
-          <t>Andes Solar SPA</t>
+          <t>VEOLIA SERVICIOS MINEROS INTEGRALES CHILE SpA</t>
         </is>
       </c>
       <c r="F340" t="n">
-        <v>572000</v>
+        <v>360</v>
       </c>
       <c r="G340" t="inlineStr">
         <is>
@@ -16676,12 +16676,12 @@
       </c>
       <c r="H340" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Caducado</t>
         </is>
       </c>
       <c r="I340" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6581267&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6595234&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J340" t="inlineStr">
@@ -17512,7 +17512,7 @@
       </c>
       <c r="B358" t="inlineStr">
         <is>
-          <t>Modificación Proyecto Transporte de Acido Sulfurico a granel entre la Primera y Décima Regiones de Chile</t>
+          <t>Extracción de Áridos Empréstito E17L</t>
         </is>
       </c>
       <c r="C358" t="inlineStr">
@@ -17522,16 +17522,16 @@
       </c>
       <c r="D358" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E358" t="inlineStr">
         <is>
-          <t>Transportes Herrmann Limitada</t>
+          <t>Skanska Chile S.A.</t>
         </is>
       </c>
       <c r="F358" t="n">
-        <v>0</v>
+        <v>500</v>
       </c>
       <c r="G358" t="inlineStr">
         <is>
@@ -17540,12 +17540,12 @@
       </c>
       <c r="H358" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I358" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6159602&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6156264&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J358" t="inlineStr">
@@ -17560,7 +17560,7 @@
       </c>
       <c r="B359" t="inlineStr">
         <is>
-          <t>Extracción de Áridos Empréstito E17L</t>
+          <t>Modificación Proyecto Transporte de Acido Sulfurico a granel entre la Primera y Décima Regiones de Chile</t>
         </is>
       </c>
       <c r="C359" t="inlineStr">
@@ -17570,16 +17570,16 @@
       </c>
       <c r="D359" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E359" t="inlineStr">
         <is>
-          <t>Skanska Chile S.A.</t>
+          <t>Transportes Herrmann Limitada</t>
         </is>
       </c>
       <c r="F359" t="n">
-        <v>500</v>
+        <v>0</v>
       </c>
       <c r="G359" t="inlineStr">
         <is>
@@ -17588,12 +17588,12 @@
       </c>
       <c r="H359" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I359" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6156264&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6159602&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J359" t="inlineStr">
@@ -18040,7 +18040,7 @@
       </c>
       <c r="B369" t="inlineStr">
         <is>
-          <t>Nuevas Instalaciones para Mantención Mina</t>
+          <t>Transporte de Residuos Peligrosos</t>
         </is>
       </c>
       <c r="C369" t="inlineStr">
@@ -18050,16 +18050,16 @@
       </c>
       <c r="D369" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E369" t="inlineStr">
         <is>
-          <t>MINERA ESCONDIDA LIMITADA</t>
+          <t>Transportes TMS Limitada</t>
         </is>
       </c>
       <c r="F369" t="n">
-        <v>635000</v>
+        <v>200</v>
       </c>
       <c r="G369" t="inlineStr">
         <is>
@@ -18068,12 +18068,12 @@
       </c>
       <c r="H369" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I369" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5931343&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6003582&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J369" t="inlineStr">
@@ -18088,7 +18088,7 @@
       </c>
       <c r="B370" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos</t>
+          <t>Transporte de Sustancias Peligrosas entre la I, II y III Regiones"</t>
         </is>
       </c>
       <c r="C370" t="inlineStr">
@@ -18103,11 +18103,11 @@
       </c>
       <c r="E370" t="inlineStr">
         <is>
-          <t>Transportes TMS Limitada</t>
+          <t>Molina Quimicos S.A.</t>
         </is>
       </c>
       <c r="F370" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="G370" t="inlineStr">
         <is>
@@ -18121,7 +18121,7 @@
       </c>
       <c r="I370" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6003582&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6003607&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J370" t="inlineStr">
@@ -18136,7 +18136,7 @@
       </c>
       <c r="B371" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas entre la I, II y III Regiones"</t>
+          <t>Nuevas Instalaciones para Mantención Mina</t>
         </is>
       </c>
       <c r="C371" t="inlineStr">
@@ -18146,16 +18146,16 @@
       </c>
       <c r="D371" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E371" t="inlineStr">
         <is>
-          <t>Molina Quimicos S.A.</t>
+          <t>MINERA ESCONDIDA LIMITADA</t>
         </is>
       </c>
       <c r="F371" t="n">
-        <v>100</v>
+        <v>635000</v>
       </c>
       <c r="G371" t="inlineStr">
         <is>
@@ -18164,12 +18164,12 @@
       </c>
       <c r="H371" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I371" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6003607&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5931343&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J371" t="inlineStr">
@@ -20392,7 +20392,7 @@
       </c>
       <c r="B418" t="inlineStr">
         <is>
-          <t>II MODIFICACIÓN DIA "TRANSPORTE Y MANEJO IN SITU DE RESIDUOS SÓLIDOS Y LÍQUIDOS PELIGROSOS Y NO PELIGROSOS"</t>
+          <t>"Transporte de acido sulfurico concentrado para minera Las Cenizas, Taltal."</t>
         </is>
       </c>
       <c r="C418" t="inlineStr">
@@ -20402,16 +20402,16 @@
       </c>
       <c r="D418" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E418" t="inlineStr">
         <is>
-          <t>Mol Ambiente S.A.</t>
+          <t>Translog S.A.</t>
         </is>
       </c>
       <c r="F418" t="n">
-        <v>75000</v>
+        <v>600</v>
       </c>
       <c r="G418" t="inlineStr">
         <is>
@@ -20420,12 +20420,12 @@
       </c>
       <c r="H418" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I418" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5118945&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5114868&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J418" t="inlineStr">
@@ -20440,7 +20440,7 @@
       </c>
       <c r="B419" t="inlineStr">
         <is>
-          <t>"Transporte de acido sulfurico concentrado para minera Las Cenizas, Taltal."</t>
+          <t>II MODIFICACIÓN DIA "TRANSPORTE Y MANEJO IN SITU DE RESIDUOS SÓLIDOS Y LÍQUIDOS PELIGROSOS Y NO PELIGROSOS"</t>
         </is>
       </c>
       <c r="C419" t="inlineStr">
@@ -20450,16 +20450,16 @@
       </c>
       <c r="D419" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E419" t="inlineStr">
         <is>
-          <t>Translog S.A.</t>
+          <t>Mol Ambiente S.A.</t>
         </is>
       </c>
       <c r="F419" t="n">
-        <v>600</v>
+        <v>75000</v>
       </c>
       <c r="G419" t="inlineStr">
         <is>
@@ -20468,12 +20468,12 @@
       </c>
       <c r="H419" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I419" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5114868&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5118945&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J419" t="inlineStr">
@@ -21928,7 +21928,7 @@
       </c>
       <c r="B450" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE RESIDUOS PELIGROSOS POR RUTAS DE LA REGIÓN DE ANTOFAGASTA</t>
+          <t>Proyecto Laboratorios Químicos CIMM T&amp;S SA. La Negra</t>
         </is>
       </c>
       <c r="C450" t="inlineStr">
@@ -21943,11 +21943,11 @@
       </c>
       <c r="E450" t="inlineStr">
         <is>
-          <t>Limfosep S.A</t>
+          <t>Yancko Gonzalez Rozas</t>
         </is>
       </c>
       <c r="F450" t="n">
-        <v>1000</v>
+        <v>8000</v>
       </c>
       <c r="G450" t="inlineStr">
         <is>
@@ -21956,12 +21956,12 @@
       </c>
       <c r="H450" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I450" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4698232&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4670031&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J450" t="inlineStr">
@@ -21976,7 +21976,7 @@
       </c>
       <c r="B451" t="inlineStr">
         <is>
-          <t>Proyecto Laboratorios Químicos CIMM T&amp;S SA. La Negra</t>
+          <t>TRANSPORTE DE RESIDUOS PELIGROSOS POR RUTAS DE LA REGIÓN DE ANTOFAGASTA</t>
         </is>
       </c>
       <c r="C451" t="inlineStr">
@@ -21991,11 +21991,11 @@
       </c>
       <c r="E451" t="inlineStr">
         <is>
-          <t>Yancko Gonzalez Rozas</t>
+          <t>Limfosep S.A</t>
         </is>
       </c>
       <c r="F451" t="n">
-        <v>8000</v>
+        <v>1000</v>
       </c>
       <c r="G451" t="inlineStr">
         <is>
@@ -22004,12 +22004,12 @@
       </c>
       <c r="H451" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I451" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4670031&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4698232&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J451" t="inlineStr">
@@ -22408,7 +22408,7 @@
       </c>
       <c r="B460" t="inlineStr">
         <is>
-          <t>EXPANSION DEPOSITO DE RELAVES FILTRADOS FAENA EL PEÑÓN</t>
+          <t>Nuevo Transporte Interregional de Cianuro de Sodio</t>
         </is>
       </c>
       <c r="C460" t="inlineStr">
@@ -22418,16 +22418,16 @@
       </c>
       <c r="D460" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E460" t="inlineStr">
         <is>
-          <t>Minera Meridian Limitada</t>
+          <t>OXIQUIM S.A.</t>
         </is>
       </c>
       <c r="F460" t="n">
-        <v>688</v>
+        <v>85</v>
       </c>
       <c r="G460" t="inlineStr">
         <is>
@@ -22436,12 +22436,12 @@
       </c>
       <c r="H460" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I460" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4601640&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4594007&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J460" t="inlineStr">
@@ -22456,7 +22456,7 @@
       </c>
       <c r="B461" t="inlineStr">
         <is>
-          <t>Nuevo Transporte Interregional de Cianuro de Sodio</t>
+          <t>EXPANSION DEPOSITO DE RELAVES FILTRADOS FAENA EL PEÑÓN</t>
         </is>
       </c>
       <c r="C461" t="inlineStr">
@@ -22466,16 +22466,16 @@
       </c>
       <c r="D461" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E461" t="inlineStr">
         <is>
-          <t>OXIQUIM S.A.</t>
+          <t>Minera Meridian Limitada</t>
         </is>
       </c>
       <c r="F461" t="n">
-        <v>85</v>
+        <v>688</v>
       </c>
       <c r="G461" t="inlineStr">
         <is>
@@ -22484,12 +22484,12 @@
       </c>
       <c r="H461" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I461" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4594007&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4601640&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J461" t="inlineStr">
@@ -23224,7 +23224,7 @@
       </c>
       <c r="B477" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligroso, Transporte Bello</t>
+          <t>Transporte de Barros Anódicos</t>
         </is>
       </c>
       <c r="C477" t="inlineStr">
@@ -23239,11 +23239,11 @@
       </c>
       <c r="E477" t="inlineStr">
         <is>
-          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
+          <t>CODELCO CHILE</t>
         </is>
       </c>
       <c r="F477" t="n">
-        <v>4050</v>
+        <v>0</v>
       </c>
       <c r="G477" t="inlineStr">
         <is>
@@ -23257,7 +23257,7 @@
       </c>
       <c r="I477" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4455518&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4429880&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J477" t="inlineStr">
@@ -23272,7 +23272,7 @@
       </c>
       <c r="B478" t="inlineStr">
         <is>
-          <t>Transporte de Barros Anódicos</t>
+          <t>Transporte de Residuos Peligroso, Transporte Bello</t>
         </is>
       </c>
       <c r="C478" t="inlineStr">
@@ -23287,11 +23287,11 @@
       </c>
       <c r="E478" t="inlineStr">
         <is>
-          <t>CODELCO CHILE</t>
+          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
         </is>
       </c>
       <c r="F478" t="n">
-        <v>0</v>
+        <v>4050</v>
       </c>
       <c r="G478" t="inlineStr">
         <is>
@@ -23305,7 +23305,7 @@
       </c>
       <c r="I478" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4429880&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4455518&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J478" t="inlineStr">
@@ -23416,7 +23416,7 @@
       </c>
       <c r="B481" t="inlineStr">
         <is>
-          <t>Modificacion Proyecto Minero Algorta Sector Pampa</t>
+          <t>Transporte y Almacenamiento temporal de Residuos Peligrosos M&amp;M ltda.</t>
         </is>
       </c>
       <c r="C481" t="inlineStr">
@@ -23426,16 +23426,16 @@
       </c>
       <c r="D481" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E481" t="inlineStr">
         <is>
-          <t>Algorta Norte S.A</t>
+          <t>Transportes Moscoso y Moscoso Ltda.</t>
         </is>
       </c>
       <c r="F481" t="n">
-        <v>6400</v>
+        <v>41075</v>
       </c>
       <c r="G481" t="inlineStr">
         <is>
@@ -23449,7 +23449,7 @@
       </c>
       <c r="I481" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4432700&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4422237&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J481" t="inlineStr">
@@ -23464,7 +23464,7 @@
       </c>
       <c r="B482" t="inlineStr">
         <is>
-          <t>Transporte y Almacenamiento temporal de Residuos Peligrosos M&amp;M ltda.</t>
+          <t>Modificacion Proyecto Minero Algorta Sector Pampa</t>
         </is>
       </c>
       <c r="C482" t="inlineStr">
@@ -23474,16 +23474,16 @@
       </c>
       <c r="D482" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E482" t="inlineStr">
         <is>
-          <t>Transportes Moscoso y Moscoso Ltda.</t>
+          <t>Algorta Norte S.A</t>
         </is>
       </c>
       <c r="F482" t="n">
-        <v>41075</v>
+        <v>6400</v>
       </c>
       <c r="G482" t="inlineStr">
         <is>
@@ -23497,7 +23497,7 @@
       </c>
       <c r="I482" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4422237&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4432700&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J482" t="inlineStr">

--- a/data/Antofagasta.xlsx
+++ b/data/Antofagasta.xlsx
@@ -1076,7 +1076,7 @@
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>En Calificación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">

--- a/data/Antofagasta.xlsx
+++ b/data/Antofagasta.xlsx
@@ -6212,7 +6212,7 @@
       </c>
       <c r="H122" t="inlineStr">
         <is>
-          <t>En Calificación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I122" t="inlineStr">

--- a/data/Antofagasta.xlsx
+++ b/data/Antofagasta.xlsx
@@ -424,7 +424,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Ajustes Operacionales Área Mina</t>
+          <t>Parque Fotovoltaico Cristales</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -439,15 +439,15 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Compañía Minera Zaldívar SpA</t>
+          <t>Cristales SpA</t>
         </is>
       </c>
       <c r="F2" t="n">
-        <v>1200</v>
+        <v>710000</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>17/03/2023</t>
+          <t>18/04/2023</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
@@ -457,7 +457,7 @@
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2158438731&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2158765112&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
@@ -472,7 +472,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Parque Fotovoltaico Cristales</t>
+          <t>Ajustes Operacionales Área Mina</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -487,25 +487,25 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Cristales SpA</t>
+          <t>Compañía Minera Zaldívar SpA</t>
         </is>
       </c>
       <c r="F3" t="n">
-        <v>710000</v>
+        <v>1200</v>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>16/03/2023</t>
+          <t>17/03/2023</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>Ingresados Art.94 RSEIA</t>
+          <t>En Admisión</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2158765112&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2158438731&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
@@ -12184,7 +12184,7 @@
       </c>
       <c r="B247" t="inlineStr">
         <is>
-          <t>Transporte Interregional de Sustancias Peligrosas - AGREDUCAM VI Región</t>
+          <t>Planta de Fabricación de Tuberías PEX (polietileno reticulado)</t>
         </is>
       </c>
       <c r="C247" t="inlineStr">
@@ -12194,16 +12194,16 @@
       </c>
       <c r="D247" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E247" t="inlineStr">
         <is>
-          <t>Asociación Gremial de Dueños de Camiones de la Sexta Región</t>
+          <t>CROSSPIPE SYSTEMS S.A.</t>
         </is>
       </c>
       <c r="F247" t="n">
-        <v>1200</v>
+        <v>12400</v>
       </c>
       <c r="G247" t="inlineStr">
         <is>
@@ -12217,7 +12217,7 @@
       </c>
       <c r="I247" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128964620&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128954293&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J247" t="inlineStr">
@@ -12232,7 +12232,7 @@
       </c>
       <c r="B248" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos por las Rutas Indicadas</t>
+          <t>Transporte Interregional de Sustancias Peligrosas - AGREDUCAM VI Región</t>
         </is>
       </c>
       <c r="C248" t="inlineStr">
@@ -12247,11 +12247,11 @@
       </c>
       <c r="E248" t="inlineStr">
         <is>
-          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
+          <t>Asociación Gremial de Dueños de Camiones de la Sexta Región</t>
         </is>
       </c>
       <c r="F248" t="n">
-        <v>0</v>
+        <v>1200</v>
       </c>
       <c r="G248" t="inlineStr">
         <is>
@@ -12265,7 +12265,7 @@
       </c>
       <c r="I248" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128972489&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128964620&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J248" t="inlineStr">
@@ -12280,7 +12280,7 @@
       </c>
       <c r="B249" t="inlineStr">
         <is>
-          <t>Planta de Fabricación de Tuberías PEX (polietileno reticulado)</t>
+          <t>Transporte de Residuos Peligrosos por las Rutas Indicadas</t>
         </is>
       </c>
       <c r="C249" t="inlineStr">
@@ -12290,16 +12290,16 @@
       </c>
       <c r="D249" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E249" t="inlineStr">
         <is>
-          <t>CROSSPIPE SYSTEMS S.A.</t>
+          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
         </is>
       </c>
       <c r="F249" t="n">
-        <v>12400</v>
+        <v>0</v>
       </c>
       <c r="G249" t="inlineStr">
         <is>
@@ -12313,7 +12313,7 @@
       </c>
       <c r="I249" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128954293&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128972489&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J249" t="inlineStr">
@@ -13912,26 +13912,26 @@
       </c>
       <c r="B283" t="inlineStr">
         <is>
-          <t>RT Sulfuros</t>
+          <t>Transporte de Sustancias Peligrosas Transaltisa Chile Ltda</t>
         </is>
       </c>
       <c r="C283" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D283" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E283" t="inlineStr">
         <is>
-          <t>CODELCO Chile, División Radomiro Tomic</t>
+          <t>Transaltisa Chile Ltda.</t>
         </is>
       </c>
       <c r="F283" t="n">
-        <v>5.4</v>
+        <v>2050</v>
       </c>
       <c r="G283" t="inlineStr">
         <is>
@@ -13940,12 +13940,12 @@
       </c>
       <c r="H283" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I283" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8210090&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8218613&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J283" t="inlineStr">
@@ -13960,26 +13960,26 @@
       </c>
       <c r="B284" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas Transaltisa Chile Ltda</t>
+          <t>RT Sulfuros</t>
         </is>
       </c>
       <c r="C284" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D284" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E284" t="inlineStr">
         <is>
-          <t>Transaltisa Chile Ltda.</t>
+          <t>CODELCO Chile, División Radomiro Tomic</t>
         </is>
       </c>
       <c r="F284" t="n">
-        <v>2050</v>
+        <v>5.4</v>
       </c>
       <c r="G284" t="inlineStr">
         <is>
@@ -13988,12 +13988,12 @@
       </c>
       <c r="H284" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I284" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8218613&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8210090&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J284" t="inlineStr">
@@ -16648,7 +16648,7 @@
       </c>
       <c r="B340" t="inlineStr">
         <is>
-          <t>Parque Fotovoltaico Los Andes</t>
+          <t>CENTRO DE RECUPERACIÓN DE TAMBORES Y CONTENEDORES IBC CONTAMINADOS, PLAMBIENTAL LA NEGRA</t>
         </is>
       </c>
       <c r="C340" t="inlineStr">
@@ -16663,11 +16663,11 @@
       </c>
       <c r="E340" t="inlineStr">
         <is>
-          <t>Andes Solar SPA</t>
+          <t>VEOLIA SERVICIOS MINEROS INTEGRALES CHILE SpA</t>
         </is>
       </c>
       <c r="F340" t="n">
-        <v>572000</v>
+        <v>60</v>
       </c>
       <c r="G340" t="inlineStr">
         <is>
@@ -16676,12 +16676,12 @@
       </c>
       <c r="H340" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Caducado</t>
         </is>
       </c>
       <c r="I340" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6581267&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6592870&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J340" t="inlineStr">
@@ -16696,7 +16696,7 @@
       </c>
       <c r="B341" t="inlineStr">
         <is>
-          <t>CENTRO DE RECUPERACIÓN DE TAMBORES Y CONTENEDORES IBC CONTAMINADOS, PLAMBIENTAL LA NEGRA</t>
+          <t>CENTRO DE ALMACENAMIENTO DE RESIDUOS INDUSTRIALES, GESAM LA NEGRA</t>
         </is>
       </c>
       <c r="C341" t="inlineStr">
@@ -16715,7 +16715,7 @@
         </is>
       </c>
       <c r="F341" t="n">
-        <v>60</v>
+        <v>360</v>
       </c>
       <c r="G341" t="inlineStr">
         <is>
@@ -16729,7 +16729,7 @@
       </c>
       <c r="I341" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6592870&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6595234&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J341" t="inlineStr">
@@ -16744,7 +16744,7 @@
       </c>
       <c r="B342" t="inlineStr">
         <is>
-          <t>CENTRO DE ALMACENAMIENTO DE RESIDUOS INDUSTRIALES, GESAM LA NEGRA</t>
+          <t>Parque Fotovoltaico Los Andes</t>
         </is>
       </c>
       <c r="C342" t="inlineStr">
@@ -16759,11 +16759,11 @@
       </c>
       <c r="E342" t="inlineStr">
         <is>
-          <t>VEOLIA SERVICIOS MINEROS INTEGRALES CHILE SpA</t>
+          <t>Andes Solar SPA</t>
         </is>
       </c>
       <c r="F342" t="n">
-        <v>360</v>
+        <v>572000</v>
       </c>
       <c r="G342" t="inlineStr">
         <is>
@@ -16772,12 +16772,12 @@
       </c>
       <c r="H342" t="inlineStr">
         <is>
-          <t>Caducado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I342" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6595234&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6581267&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J342" t="inlineStr">
@@ -17608,7 +17608,7 @@
       </c>
       <c r="B360" t="inlineStr">
         <is>
-          <t>Extracción de Áridos Empréstito E17L</t>
+          <t>Modificación Proyecto Transporte de Acido Sulfurico a granel entre la Primera y Décima Regiones de Chile</t>
         </is>
       </c>
       <c r="C360" t="inlineStr">
@@ -17618,16 +17618,16 @@
       </c>
       <c r="D360" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E360" t="inlineStr">
         <is>
-          <t>Skanska Chile S.A.</t>
+          <t>Transportes Herrmann Limitada</t>
         </is>
       </c>
       <c r="F360" t="n">
-        <v>500</v>
+        <v>0</v>
       </c>
       <c r="G360" t="inlineStr">
         <is>
@@ -17636,12 +17636,12 @@
       </c>
       <c r="H360" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I360" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6156264&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6159602&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J360" t="inlineStr">
@@ -17656,7 +17656,7 @@
       </c>
       <c r="B361" t="inlineStr">
         <is>
-          <t>Modificación Proyecto Transporte de Acido Sulfurico a granel entre la Primera y Décima Regiones de Chile</t>
+          <t>Extracción de Áridos Empréstito E17L</t>
         </is>
       </c>
       <c r="C361" t="inlineStr">
@@ -17666,16 +17666,16 @@
       </c>
       <c r="D361" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E361" t="inlineStr">
         <is>
-          <t>Transportes Herrmann Limitada</t>
+          <t>Skanska Chile S.A.</t>
         </is>
       </c>
       <c r="F361" t="n">
-        <v>0</v>
+        <v>500</v>
       </c>
       <c r="G361" t="inlineStr">
         <is>
@@ -17684,12 +17684,12 @@
       </c>
       <c r="H361" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I361" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6159602&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6156264&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J361" t="inlineStr">
@@ -18136,7 +18136,7 @@
       </c>
       <c r="B371" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos</t>
+          <t>Nuevas Instalaciones para Mantención Mina</t>
         </is>
       </c>
       <c r="C371" t="inlineStr">
@@ -18146,16 +18146,16 @@
       </c>
       <c r="D371" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E371" t="inlineStr">
         <is>
-          <t>Transportes TMS Limitada</t>
+          <t>MINERA ESCONDIDA LIMITADA</t>
         </is>
       </c>
       <c r="F371" t="n">
-        <v>200</v>
+        <v>635000</v>
       </c>
       <c r="G371" t="inlineStr">
         <is>
@@ -18164,12 +18164,12 @@
       </c>
       <c r="H371" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I371" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6003582&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5931343&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J371" t="inlineStr">
@@ -18184,7 +18184,7 @@
       </c>
       <c r="B372" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas entre la I, II y III Regiones"</t>
+          <t>Transporte de Residuos Peligrosos</t>
         </is>
       </c>
       <c r="C372" t="inlineStr">
@@ -18199,11 +18199,11 @@
       </c>
       <c r="E372" t="inlineStr">
         <is>
-          <t>Molina Quimicos S.A.</t>
+          <t>Transportes TMS Limitada</t>
         </is>
       </c>
       <c r="F372" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="G372" t="inlineStr">
         <is>
@@ -18217,7 +18217,7 @@
       </c>
       <c r="I372" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6003607&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6003582&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J372" t="inlineStr">
@@ -18232,7 +18232,7 @@
       </c>
       <c r="B373" t="inlineStr">
         <is>
-          <t>Nuevas Instalaciones para Mantención Mina</t>
+          <t>Transporte de Sustancias Peligrosas entre la I, II y III Regiones"</t>
         </is>
       </c>
       <c r="C373" t="inlineStr">
@@ -18242,16 +18242,16 @@
       </c>
       <c r="D373" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E373" t="inlineStr">
         <is>
-          <t>MINERA ESCONDIDA LIMITADA</t>
+          <t>Molina Quimicos S.A.</t>
         </is>
       </c>
       <c r="F373" t="n">
-        <v>635000</v>
+        <v>100</v>
       </c>
       <c r="G373" t="inlineStr">
         <is>
@@ -18260,12 +18260,12 @@
       </c>
       <c r="H373" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I373" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5931343&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6003607&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J373" t="inlineStr">
@@ -20488,7 +20488,7 @@
       </c>
       <c r="B420" t="inlineStr">
         <is>
-          <t>"Transporte de acido sulfurico concentrado para minera Las Cenizas, Taltal."</t>
+          <t>II MODIFICACIÓN DIA "TRANSPORTE Y MANEJO IN SITU DE RESIDUOS SÓLIDOS Y LÍQUIDOS PELIGROSOS Y NO PELIGROSOS"</t>
         </is>
       </c>
       <c r="C420" t="inlineStr">
@@ -20498,16 +20498,16 @@
       </c>
       <c r="D420" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E420" t="inlineStr">
         <is>
-          <t>Translog S.A.</t>
+          <t>Mol Ambiente S.A.</t>
         </is>
       </c>
       <c r="F420" t="n">
-        <v>600</v>
+        <v>75000</v>
       </c>
       <c r="G420" t="inlineStr">
         <is>
@@ -20516,12 +20516,12 @@
       </c>
       <c r="H420" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I420" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5114868&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5118945&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J420" t="inlineStr">
@@ -20536,7 +20536,7 @@
       </c>
       <c r="B421" t="inlineStr">
         <is>
-          <t>II MODIFICACIÓN DIA "TRANSPORTE Y MANEJO IN SITU DE RESIDUOS SÓLIDOS Y LÍQUIDOS PELIGROSOS Y NO PELIGROSOS"</t>
+          <t>"Transporte de acido sulfurico concentrado para minera Las Cenizas, Taltal."</t>
         </is>
       </c>
       <c r="C421" t="inlineStr">
@@ -20546,16 +20546,16 @@
       </c>
       <c r="D421" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E421" t="inlineStr">
         <is>
-          <t>Mol Ambiente S.A.</t>
+          <t>Translog S.A.</t>
         </is>
       </c>
       <c r="F421" t="n">
-        <v>75000</v>
+        <v>600</v>
       </c>
       <c r="G421" t="inlineStr">
         <is>
@@ -20564,12 +20564,12 @@
       </c>
       <c r="H421" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I421" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5118945&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5114868&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J421" t="inlineStr">
@@ -22024,7 +22024,7 @@
       </c>
       <c r="B452" t="inlineStr">
         <is>
-          <t>Proyecto Laboratorios Químicos CIMM T&amp;S SA. La Negra</t>
+          <t>TRANSPORTE DE RESIDUOS PELIGROSOS POR RUTAS DE LA REGIÓN DE ANTOFAGASTA</t>
         </is>
       </c>
       <c r="C452" t="inlineStr">
@@ -22039,11 +22039,11 @@
       </c>
       <c r="E452" t="inlineStr">
         <is>
-          <t>Yancko Gonzalez Rozas</t>
+          <t>Limfosep S.A</t>
         </is>
       </c>
       <c r="F452" t="n">
-        <v>8000</v>
+        <v>1000</v>
       </c>
       <c r="G452" t="inlineStr">
         <is>
@@ -22052,12 +22052,12 @@
       </c>
       <c r="H452" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I452" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4670031&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4698232&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J452" t="inlineStr">
@@ -22072,7 +22072,7 @@
       </c>
       <c r="B453" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE RESIDUOS PELIGROSOS POR RUTAS DE LA REGIÓN DE ANTOFAGASTA</t>
+          <t>Proyecto Laboratorios Químicos CIMM T&amp;S SA. La Negra</t>
         </is>
       </c>
       <c r="C453" t="inlineStr">
@@ -22087,11 +22087,11 @@
       </c>
       <c r="E453" t="inlineStr">
         <is>
-          <t>Limfosep S.A</t>
+          <t>Yancko Gonzalez Rozas</t>
         </is>
       </c>
       <c r="F453" t="n">
-        <v>1000</v>
+        <v>8000</v>
       </c>
       <c r="G453" t="inlineStr">
         <is>
@@ -22100,12 +22100,12 @@
       </c>
       <c r="H453" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I453" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4698232&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4670031&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J453" t="inlineStr">
@@ -22504,7 +22504,7 @@
       </c>
       <c r="B462" t="inlineStr">
         <is>
-          <t>Nuevo Transporte Interregional de Cianuro de Sodio</t>
+          <t>EXPANSION DEPOSITO DE RELAVES FILTRADOS FAENA EL PEÑÓN</t>
         </is>
       </c>
       <c r="C462" t="inlineStr">
@@ -22514,16 +22514,16 @@
       </c>
       <c r="D462" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E462" t="inlineStr">
         <is>
-          <t>OXIQUIM S.A.</t>
+          <t>Minera Meridian Limitada</t>
         </is>
       </c>
       <c r="F462" t="n">
-        <v>85</v>
+        <v>688</v>
       </c>
       <c r="G462" t="inlineStr">
         <is>
@@ -22532,12 +22532,12 @@
       </c>
       <c r="H462" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I462" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4594007&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4601640&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J462" t="inlineStr">
@@ -22552,7 +22552,7 @@
       </c>
       <c r="B463" t="inlineStr">
         <is>
-          <t>EXPANSION DEPOSITO DE RELAVES FILTRADOS FAENA EL PEÑÓN</t>
+          <t>Nuevo Transporte Interregional de Cianuro de Sodio</t>
         </is>
       </c>
       <c r="C463" t="inlineStr">
@@ -22562,16 +22562,16 @@
       </c>
       <c r="D463" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E463" t="inlineStr">
         <is>
-          <t>Minera Meridian Limitada</t>
+          <t>OXIQUIM S.A.</t>
         </is>
       </c>
       <c r="F463" t="n">
-        <v>688</v>
+        <v>85</v>
       </c>
       <c r="G463" t="inlineStr">
         <is>
@@ -22580,12 +22580,12 @@
       </c>
       <c r="H463" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I463" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4601640&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4594007&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J463" t="inlineStr">

--- a/data/Antofagasta.xlsx
+++ b/data/Antofagasta.xlsx
@@ -12184,7 +12184,7 @@
       </c>
       <c r="B247" t="inlineStr">
         <is>
-          <t>Planta de Fabricación de Tuberías PEX (polietileno reticulado)</t>
+          <t>Transporte Interregional de Sustancias Peligrosas - AGREDUCAM VI Región</t>
         </is>
       </c>
       <c r="C247" t="inlineStr">
@@ -12194,16 +12194,16 @@
       </c>
       <c r="D247" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E247" t="inlineStr">
         <is>
-          <t>CROSSPIPE SYSTEMS S.A.</t>
+          <t>Asociación Gremial de Dueños de Camiones de la Sexta Región</t>
         </is>
       </c>
       <c r="F247" t="n">
-        <v>12400</v>
+        <v>1200</v>
       </c>
       <c r="G247" t="inlineStr">
         <is>
@@ -12217,7 +12217,7 @@
       </c>
       <c r="I247" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128954293&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128964620&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J247" t="inlineStr">
@@ -12232,7 +12232,7 @@
       </c>
       <c r="B248" t="inlineStr">
         <is>
-          <t>Transporte Interregional de Sustancias Peligrosas - AGREDUCAM VI Región</t>
+          <t>Transporte de Residuos Peligrosos por las Rutas Indicadas</t>
         </is>
       </c>
       <c r="C248" t="inlineStr">
@@ -12247,11 +12247,11 @@
       </c>
       <c r="E248" t="inlineStr">
         <is>
-          <t>Asociación Gremial de Dueños de Camiones de la Sexta Región</t>
+          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
         </is>
       </c>
       <c r="F248" t="n">
-        <v>1200</v>
+        <v>0</v>
       </c>
       <c r="G248" t="inlineStr">
         <is>
@@ -12265,7 +12265,7 @@
       </c>
       <c r="I248" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128964620&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128972489&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J248" t="inlineStr">
@@ -12280,7 +12280,7 @@
       </c>
       <c r="B249" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos por las Rutas Indicadas</t>
+          <t>Planta de Fabricación de Tuberías PEX (polietileno reticulado)</t>
         </is>
       </c>
       <c r="C249" t="inlineStr">
@@ -12290,16 +12290,16 @@
       </c>
       <c r="D249" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E249" t="inlineStr">
         <is>
-          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
+          <t>CROSSPIPE SYSTEMS S.A.</t>
         </is>
       </c>
       <c r="F249" t="n">
-        <v>0</v>
+        <v>12400</v>
       </c>
       <c r="G249" t="inlineStr">
         <is>
@@ -12313,7 +12313,7 @@
       </c>
       <c r="I249" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128972489&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128954293&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J249" t="inlineStr">
@@ -13912,26 +13912,26 @@
       </c>
       <c r="B283" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas Transaltisa Chile Ltda</t>
+          <t>RT Sulfuros</t>
         </is>
       </c>
       <c r="C283" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D283" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E283" t="inlineStr">
         <is>
-          <t>Transaltisa Chile Ltda.</t>
+          <t>CODELCO Chile, División Radomiro Tomic</t>
         </is>
       </c>
       <c r="F283" t="n">
-        <v>2050</v>
+        <v>5.4</v>
       </c>
       <c r="G283" t="inlineStr">
         <is>
@@ -13940,12 +13940,12 @@
       </c>
       <c r="H283" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I283" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8218613&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8210090&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J283" t="inlineStr">
@@ -13960,26 +13960,26 @@
       </c>
       <c r="B284" t="inlineStr">
         <is>
-          <t>RT Sulfuros</t>
+          <t>Transporte de Sustancias Peligrosas Transaltisa Chile Ltda</t>
         </is>
       </c>
       <c r="C284" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D284" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E284" t="inlineStr">
         <is>
-          <t>CODELCO Chile, División Radomiro Tomic</t>
+          <t>Transaltisa Chile Ltda.</t>
         </is>
       </c>
       <c r="F284" t="n">
-        <v>5.4</v>
+        <v>2050</v>
       </c>
       <c r="G284" t="inlineStr">
         <is>
@@ -13988,12 +13988,12 @@
       </c>
       <c r="H284" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I284" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8210090&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8218613&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J284" t="inlineStr">
@@ -16648,7 +16648,7 @@
       </c>
       <c r="B340" t="inlineStr">
         <is>
-          <t>CENTRO DE RECUPERACIÓN DE TAMBORES Y CONTENEDORES IBC CONTAMINADOS, PLAMBIENTAL LA NEGRA</t>
+          <t>Parque Fotovoltaico Los Andes</t>
         </is>
       </c>
       <c r="C340" t="inlineStr">
@@ -16663,11 +16663,11 @@
       </c>
       <c r="E340" t="inlineStr">
         <is>
-          <t>VEOLIA SERVICIOS MINEROS INTEGRALES CHILE SpA</t>
+          <t>Andes Solar SPA</t>
         </is>
       </c>
       <c r="F340" t="n">
-        <v>60</v>
+        <v>572000</v>
       </c>
       <c r="G340" t="inlineStr">
         <is>
@@ -16676,12 +16676,12 @@
       </c>
       <c r="H340" t="inlineStr">
         <is>
-          <t>Caducado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I340" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6592870&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6581267&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J340" t="inlineStr">
@@ -16696,7 +16696,7 @@
       </c>
       <c r="B341" t="inlineStr">
         <is>
-          <t>CENTRO DE ALMACENAMIENTO DE RESIDUOS INDUSTRIALES, GESAM LA NEGRA</t>
+          <t>CENTRO DE RECUPERACIÓN DE TAMBORES Y CONTENEDORES IBC CONTAMINADOS, PLAMBIENTAL LA NEGRA</t>
         </is>
       </c>
       <c r="C341" t="inlineStr">
@@ -16715,7 +16715,7 @@
         </is>
       </c>
       <c r="F341" t="n">
-        <v>360</v>
+        <v>60</v>
       </c>
       <c r="G341" t="inlineStr">
         <is>
@@ -16729,7 +16729,7 @@
       </c>
       <c r="I341" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6595234&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6592870&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J341" t="inlineStr">
@@ -16744,7 +16744,7 @@
       </c>
       <c r="B342" t="inlineStr">
         <is>
-          <t>Parque Fotovoltaico Los Andes</t>
+          <t>CENTRO DE ALMACENAMIENTO DE RESIDUOS INDUSTRIALES, GESAM LA NEGRA</t>
         </is>
       </c>
       <c r="C342" t="inlineStr">
@@ -16759,11 +16759,11 @@
       </c>
       <c r="E342" t="inlineStr">
         <is>
-          <t>Andes Solar SPA</t>
+          <t>VEOLIA SERVICIOS MINEROS INTEGRALES CHILE SpA</t>
         </is>
       </c>
       <c r="F342" t="n">
-        <v>572000</v>
+        <v>360</v>
       </c>
       <c r="G342" t="inlineStr">
         <is>
@@ -16772,12 +16772,12 @@
       </c>
       <c r="H342" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Caducado</t>
         </is>
       </c>
       <c r="I342" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6581267&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6595234&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J342" t="inlineStr">
@@ -17608,7 +17608,7 @@
       </c>
       <c r="B360" t="inlineStr">
         <is>
-          <t>Modificación Proyecto Transporte de Acido Sulfurico a granel entre la Primera y Décima Regiones de Chile</t>
+          <t>Extracción de Áridos Empréstito E17L</t>
         </is>
       </c>
       <c r="C360" t="inlineStr">
@@ -17618,16 +17618,16 @@
       </c>
       <c r="D360" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E360" t="inlineStr">
         <is>
-          <t>Transportes Herrmann Limitada</t>
+          <t>Skanska Chile S.A.</t>
         </is>
       </c>
       <c r="F360" t="n">
-        <v>0</v>
+        <v>500</v>
       </c>
       <c r="G360" t="inlineStr">
         <is>
@@ -17636,12 +17636,12 @@
       </c>
       <c r="H360" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I360" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6159602&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6156264&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J360" t="inlineStr">
@@ -17656,7 +17656,7 @@
       </c>
       <c r="B361" t="inlineStr">
         <is>
-          <t>Extracción de Áridos Empréstito E17L</t>
+          <t>Modificación Proyecto Transporte de Acido Sulfurico a granel entre la Primera y Décima Regiones de Chile</t>
         </is>
       </c>
       <c r="C361" t="inlineStr">
@@ -17666,16 +17666,16 @@
       </c>
       <c r="D361" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E361" t="inlineStr">
         <is>
-          <t>Skanska Chile S.A.</t>
+          <t>Transportes Herrmann Limitada</t>
         </is>
       </c>
       <c r="F361" t="n">
-        <v>500</v>
+        <v>0</v>
       </c>
       <c r="G361" t="inlineStr">
         <is>
@@ -17684,12 +17684,12 @@
       </c>
       <c r="H361" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I361" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6156264&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6159602&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J361" t="inlineStr">
@@ -18136,7 +18136,7 @@
       </c>
       <c r="B371" t="inlineStr">
         <is>
-          <t>Nuevas Instalaciones para Mantención Mina</t>
+          <t>Transporte de Residuos Peligrosos</t>
         </is>
       </c>
       <c r="C371" t="inlineStr">
@@ -18146,16 +18146,16 @@
       </c>
       <c r="D371" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E371" t="inlineStr">
         <is>
-          <t>MINERA ESCONDIDA LIMITADA</t>
+          <t>Transportes TMS Limitada</t>
         </is>
       </c>
       <c r="F371" t="n">
-        <v>635000</v>
+        <v>200</v>
       </c>
       <c r="G371" t="inlineStr">
         <is>
@@ -18164,12 +18164,12 @@
       </c>
       <c r="H371" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I371" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5931343&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6003582&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J371" t="inlineStr">
@@ -18184,7 +18184,7 @@
       </c>
       <c r="B372" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos</t>
+          <t>Transporte de Sustancias Peligrosas entre la I, II y III Regiones"</t>
         </is>
       </c>
       <c r="C372" t="inlineStr">
@@ -18199,11 +18199,11 @@
       </c>
       <c r="E372" t="inlineStr">
         <is>
-          <t>Transportes TMS Limitada</t>
+          <t>Molina Quimicos S.A.</t>
         </is>
       </c>
       <c r="F372" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="G372" t="inlineStr">
         <is>
@@ -18217,7 +18217,7 @@
       </c>
       <c r="I372" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6003582&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6003607&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J372" t="inlineStr">
@@ -18232,7 +18232,7 @@
       </c>
       <c r="B373" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas entre la I, II y III Regiones"</t>
+          <t>Nuevas Instalaciones para Mantención Mina</t>
         </is>
       </c>
       <c r="C373" t="inlineStr">
@@ -18242,16 +18242,16 @@
       </c>
       <c r="D373" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E373" t="inlineStr">
         <is>
-          <t>Molina Quimicos S.A.</t>
+          <t>MINERA ESCONDIDA LIMITADA</t>
         </is>
       </c>
       <c r="F373" t="n">
-        <v>100</v>
+        <v>635000</v>
       </c>
       <c r="G373" t="inlineStr">
         <is>
@@ -18260,12 +18260,12 @@
       </c>
       <c r="H373" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I373" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6003607&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5931343&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J373" t="inlineStr">
@@ -20488,7 +20488,7 @@
       </c>
       <c r="B420" t="inlineStr">
         <is>
-          <t>II MODIFICACIÓN DIA "TRANSPORTE Y MANEJO IN SITU DE RESIDUOS SÓLIDOS Y LÍQUIDOS PELIGROSOS Y NO PELIGROSOS"</t>
+          <t>"Transporte de acido sulfurico concentrado para minera Las Cenizas, Taltal."</t>
         </is>
       </c>
       <c r="C420" t="inlineStr">
@@ -20498,16 +20498,16 @@
       </c>
       <c r="D420" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E420" t="inlineStr">
         <is>
-          <t>Mol Ambiente S.A.</t>
+          <t>Translog S.A.</t>
         </is>
       </c>
       <c r="F420" t="n">
-        <v>75000</v>
+        <v>600</v>
       </c>
       <c r="G420" t="inlineStr">
         <is>
@@ -20516,12 +20516,12 @@
       </c>
       <c r="H420" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I420" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5118945&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5114868&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J420" t="inlineStr">
@@ -20536,7 +20536,7 @@
       </c>
       <c r="B421" t="inlineStr">
         <is>
-          <t>"Transporte de acido sulfurico concentrado para minera Las Cenizas, Taltal."</t>
+          <t>II MODIFICACIÓN DIA "TRANSPORTE Y MANEJO IN SITU DE RESIDUOS SÓLIDOS Y LÍQUIDOS PELIGROSOS Y NO PELIGROSOS"</t>
         </is>
       </c>
       <c r="C421" t="inlineStr">
@@ -20546,16 +20546,16 @@
       </c>
       <c r="D421" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E421" t="inlineStr">
         <is>
-          <t>Translog S.A.</t>
+          <t>Mol Ambiente S.A.</t>
         </is>
       </c>
       <c r="F421" t="n">
-        <v>600</v>
+        <v>75000</v>
       </c>
       <c r="G421" t="inlineStr">
         <is>
@@ -20564,12 +20564,12 @@
       </c>
       <c r="H421" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I421" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5114868&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5118945&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J421" t="inlineStr">
@@ -22024,7 +22024,7 @@
       </c>
       <c r="B452" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE RESIDUOS PELIGROSOS POR RUTAS DE LA REGIÓN DE ANTOFAGASTA</t>
+          <t>Proyecto Laboratorios Químicos CIMM T&amp;S SA. La Negra</t>
         </is>
       </c>
       <c r="C452" t="inlineStr">
@@ -22039,11 +22039,11 @@
       </c>
       <c r="E452" t="inlineStr">
         <is>
-          <t>Limfosep S.A</t>
+          <t>Yancko Gonzalez Rozas</t>
         </is>
       </c>
       <c r="F452" t="n">
-        <v>1000</v>
+        <v>8000</v>
       </c>
       <c r="G452" t="inlineStr">
         <is>
@@ -22052,12 +22052,12 @@
       </c>
       <c r="H452" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I452" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4698232&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4670031&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J452" t="inlineStr">
@@ -22072,7 +22072,7 @@
       </c>
       <c r="B453" t="inlineStr">
         <is>
-          <t>Proyecto Laboratorios Químicos CIMM T&amp;S SA. La Negra</t>
+          <t>TRANSPORTE DE RESIDUOS PELIGROSOS POR RUTAS DE LA REGIÓN DE ANTOFAGASTA</t>
         </is>
       </c>
       <c r="C453" t="inlineStr">
@@ -22087,11 +22087,11 @@
       </c>
       <c r="E453" t="inlineStr">
         <is>
-          <t>Yancko Gonzalez Rozas</t>
+          <t>Limfosep S.A</t>
         </is>
       </c>
       <c r="F453" t="n">
-        <v>8000</v>
+        <v>1000</v>
       </c>
       <c r="G453" t="inlineStr">
         <is>
@@ -22100,12 +22100,12 @@
       </c>
       <c r="H453" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I453" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4670031&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4698232&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J453" t="inlineStr">
@@ -22504,7 +22504,7 @@
       </c>
       <c r="B462" t="inlineStr">
         <is>
-          <t>EXPANSION DEPOSITO DE RELAVES FILTRADOS FAENA EL PEÑÓN</t>
+          <t>Nuevo Transporte Interregional de Cianuro de Sodio</t>
         </is>
       </c>
       <c r="C462" t="inlineStr">
@@ -22514,16 +22514,16 @@
       </c>
       <c r="D462" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E462" t="inlineStr">
         <is>
-          <t>Minera Meridian Limitada</t>
+          <t>OXIQUIM S.A.</t>
         </is>
       </c>
       <c r="F462" t="n">
-        <v>688</v>
+        <v>85</v>
       </c>
       <c r="G462" t="inlineStr">
         <is>
@@ -22532,12 +22532,12 @@
       </c>
       <c r="H462" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I462" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4601640&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4594007&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J462" t="inlineStr">
@@ -22552,7 +22552,7 @@
       </c>
       <c r="B463" t="inlineStr">
         <is>
-          <t>Nuevo Transporte Interregional de Cianuro de Sodio</t>
+          <t>EXPANSION DEPOSITO DE RELAVES FILTRADOS FAENA EL PEÑÓN</t>
         </is>
       </c>
       <c r="C463" t="inlineStr">
@@ -22562,16 +22562,16 @@
       </c>
       <c r="D463" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E463" t="inlineStr">
         <is>
-          <t>OXIQUIM S.A.</t>
+          <t>Minera Meridian Limitada</t>
         </is>
       </c>
       <c r="F463" t="n">
-        <v>85</v>
+        <v>688</v>
       </c>
       <c r="G463" t="inlineStr">
         <is>
@@ -22580,12 +22580,12 @@
       </c>
       <c r="H463" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I463" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4594007&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4601640&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J463" t="inlineStr">

--- a/data/Antofagasta.xlsx
+++ b/data/Antofagasta.xlsx
@@ -12184,7 +12184,7 @@
       </c>
       <c r="B247" t="inlineStr">
         <is>
-          <t>Transporte Interregional de Sustancias Peligrosas - AGREDUCAM VI Región</t>
+          <t>Planta de Fabricación de Tuberías PEX (polietileno reticulado)</t>
         </is>
       </c>
       <c r="C247" t="inlineStr">
@@ -12194,16 +12194,16 @@
       </c>
       <c r="D247" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E247" t="inlineStr">
         <is>
-          <t>Asociación Gremial de Dueños de Camiones de la Sexta Región</t>
+          <t>CROSSPIPE SYSTEMS S.A.</t>
         </is>
       </c>
       <c r="F247" t="n">
-        <v>1200</v>
+        <v>12400</v>
       </c>
       <c r="G247" t="inlineStr">
         <is>
@@ -12217,7 +12217,7 @@
       </c>
       <c r="I247" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128964620&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128954293&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J247" t="inlineStr">
@@ -12232,7 +12232,7 @@
       </c>
       <c r="B248" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos por las Rutas Indicadas</t>
+          <t>Transporte Interregional de Sustancias Peligrosas - AGREDUCAM VI Región</t>
         </is>
       </c>
       <c r="C248" t="inlineStr">
@@ -12247,11 +12247,11 @@
       </c>
       <c r="E248" t="inlineStr">
         <is>
-          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
+          <t>Asociación Gremial de Dueños de Camiones de la Sexta Región</t>
         </is>
       </c>
       <c r="F248" t="n">
-        <v>0</v>
+        <v>1200</v>
       </c>
       <c r="G248" t="inlineStr">
         <is>
@@ -12265,7 +12265,7 @@
       </c>
       <c r="I248" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128972489&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128964620&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J248" t="inlineStr">
@@ -12280,7 +12280,7 @@
       </c>
       <c r="B249" t="inlineStr">
         <is>
-          <t>Planta de Fabricación de Tuberías PEX (polietileno reticulado)</t>
+          <t>Transporte de Residuos Peligrosos por las Rutas Indicadas</t>
         </is>
       </c>
       <c r="C249" t="inlineStr">
@@ -12290,16 +12290,16 @@
       </c>
       <c r="D249" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E249" t="inlineStr">
         <is>
-          <t>CROSSPIPE SYSTEMS S.A.</t>
+          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
         </is>
       </c>
       <c r="F249" t="n">
-        <v>12400</v>
+        <v>0</v>
       </c>
       <c r="G249" t="inlineStr">
         <is>
@@ -12313,7 +12313,7 @@
       </c>
       <c r="I249" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128954293&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128972489&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J249" t="inlineStr">
@@ -13912,26 +13912,26 @@
       </c>
       <c r="B283" t="inlineStr">
         <is>
-          <t>RT Sulfuros</t>
+          <t>Transporte de Sustancias Peligrosas Transaltisa Chile Ltda</t>
         </is>
       </c>
       <c r="C283" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D283" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E283" t="inlineStr">
         <is>
-          <t>CODELCO Chile, División Radomiro Tomic</t>
+          <t>Transaltisa Chile Ltda.</t>
         </is>
       </c>
       <c r="F283" t="n">
-        <v>5.4</v>
+        <v>2050</v>
       </c>
       <c r="G283" t="inlineStr">
         <is>
@@ -13940,12 +13940,12 @@
       </c>
       <c r="H283" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I283" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8210090&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8218613&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J283" t="inlineStr">
@@ -13960,26 +13960,26 @@
       </c>
       <c r="B284" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas Transaltisa Chile Ltda</t>
+          <t>RT Sulfuros</t>
         </is>
       </c>
       <c r="C284" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D284" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E284" t="inlineStr">
         <is>
-          <t>Transaltisa Chile Ltda.</t>
+          <t>CODELCO Chile, División Radomiro Tomic</t>
         </is>
       </c>
       <c r="F284" t="n">
-        <v>2050</v>
+        <v>5.4</v>
       </c>
       <c r="G284" t="inlineStr">
         <is>
@@ -13988,12 +13988,12 @@
       </c>
       <c r="H284" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I284" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8218613&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8210090&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J284" t="inlineStr">
@@ -16648,7 +16648,7 @@
       </c>
       <c r="B340" t="inlineStr">
         <is>
-          <t>Parque Fotovoltaico Los Andes</t>
+          <t>CENTRO DE RECUPERACIÓN DE TAMBORES Y CONTENEDORES IBC CONTAMINADOS, PLAMBIENTAL LA NEGRA</t>
         </is>
       </c>
       <c r="C340" t="inlineStr">
@@ -16663,11 +16663,11 @@
       </c>
       <c r="E340" t="inlineStr">
         <is>
-          <t>Andes Solar SPA</t>
+          <t>VEOLIA SERVICIOS MINEROS INTEGRALES CHILE SpA</t>
         </is>
       </c>
       <c r="F340" t="n">
-        <v>572000</v>
+        <v>60</v>
       </c>
       <c r="G340" t="inlineStr">
         <is>
@@ -16676,12 +16676,12 @@
       </c>
       <c r="H340" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Caducado</t>
         </is>
       </c>
       <c r="I340" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6581267&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6592870&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J340" t="inlineStr">
@@ -16696,7 +16696,7 @@
       </c>
       <c r="B341" t="inlineStr">
         <is>
-          <t>CENTRO DE RECUPERACIÓN DE TAMBORES Y CONTENEDORES IBC CONTAMINADOS, PLAMBIENTAL LA NEGRA</t>
+          <t>CENTRO DE ALMACENAMIENTO DE RESIDUOS INDUSTRIALES, GESAM LA NEGRA</t>
         </is>
       </c>
       <c r="C341" t="inlineStr">
@@ -16715,7 +16715,7 @@
         </is>
       </c>
       <c r="F341" t="n">
-        <v>60</v>
+        <v>360</v>
       </c>
       <c r="G341" t="inlineStr">
         <is>
@@ -16729,7 +16729,7 @@
       </c>
       <c r="I341" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6592870&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6595234&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J341" t="inlineStr">
@@ -16744,7 +16744,7 @@
       </c>
       <c r="B342" t="inlineStr">
         <is>
-          <t>CENTRO DE ALMACENAMIENTO DE RESIDUOS INDUSTRIALES, GESAM LA NEGRA</t>
+          <t>Parque Fotovoltaico Los Andes</t>
         </is>
       </c>
       <c r="C342" t="inlineStr">
@@ -16759,11 +16759,11 @@
       </c>
       <c r="E342" t="inlineStr">
         <is>
-          <t>VEOLIA SERVICIOS MINEROS INTEGRALES CHILE SpA</t>
+          <t>Andes Solar SPA</t>
         </is>
       </c>
       <c r="F342" t="n">
-        <v>360</v>
+        <v>572000</v>
       </c>
       <c r="G342" t="inlineStr">
         <is>
@@ -16772,12 +16772,12 @@
       </c>
       <c r="H342" t="inlineStr">
         <is>
-          <t>Caducado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I342" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6595234&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6581267&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J342" t="inlineStr">
@@ -17608,7 +17608,7 @@
       </c>
       <c r="B360" t="inlineStr">
         <is>
-          <t>Extracción de Áridos Empréstito E17L</t>
+          <t>Modificación Proyecto Transporte de Acido Sulfurico a granel entre la Primera y Décima Regiones de Chile</t>
         </is>
       </c>
       <c r="C360" t="inlineStr">
@@ -17618,16 +17618,16 @@
       </c>
       <c r="D360" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E360" t="inlineStr">
         <is>
-          <t>Skanska Chile S.A.</t>
+          <t>Transportes Herrmann Limitada</t>
         </is>
       </c>
       <c r="F360" t="n">
-        <v>500</v>
+        <v>0</v>
       </c>
       <c r="G360" t="inlineStr">
         <is>
@@ -17636,12 +17636,12 @@
       </c>
       <c r="H360" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I360" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6156264&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6159602&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J360" t="inlineStr">
@@ -17656,7 +17656,7 @@
       </c>
       <c r="B361" t="inlineStr">
         <is>
-          <t>Modificación Proyecto Transporte de Acido Sulfurico a granel entre la Primera y Décima Regiones de Chile</t>
+          <t>Extracción de Áridos Empréstito E17L</t>
         </is>
       </c>
       <c r="C361" t="inlineStr">
@@ -17666,16 +17666,16 @@
       </c>
       <c r="D361" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E361" t="inlineStr">
         <is>
-          <t>Transportes Herrmann Limitada</t>
+          <t>Skanska Chile S.A.</t>
         </is>
       </c>
       <c r="F361" t="n">
-        <v>0</v>
+        <v>500</v>
       </c>
       <c r="G361" t="inlineStr">
         <is>
@@ -17684,12 +17684,12 @@
       </c>
       <c r="H361" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I361" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6159602&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6156264&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J361" t="inlineStr">
@@ -18136,7 +18136,7 @@
       </c>
       <c r="B371" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos</t>
+          <t>Nuevas Instalaciones para Mantención Mina</t>
         </is>
       </c>
       <c r="C371" t="inlineStr">
@@ -18146,16 +18146,16 @@
       </c>
       <c r="D371" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E371" t="inlineStr">
         <is>
-          <t>Transportes TMS Limitada</t>
+          <t>MINERA ESCONDIDA LIMITADA</t>
         </is>
       </c>
       <c r="F371" t="n">
-        <v>200</v>
+        <v>635000</v>
       </c>
       <c r="G371" t="inlineStr">
         <is>
@@ -18164,12 +18164,12 @@
       </c>
       <c r="H371" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I371" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6003582&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5931343&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J371" t="inlineStr">
@@ -18184,7 +18184,7 @@
       </c>
       <c r="B372" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas entre la I, II y III Regiones"</t>
+          <t>Transporte de Residuos Peligrosos</t>
         </is>
       </c>
       <c r="C372" t="inlineStr">
@@ -18199,11 +18199,11 @@
       </c>
       <c r="E372" t="inlineStr">
         <is>
-          <t>Molina Quimicos S.A.</t>
+          <t>Transportes TMS Limitada</t>
         </is>
       </c>
       <c r="F372" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="G372" t="inlineStr">
         <is>
@@ -18217,7 +18217,7 @@
       </c>
       <c r="I372" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6003607&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6003582&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J372" t="inlineStr">
@@ -18232,7 +18232,7 @@
       </c>
       <c r="B373" t="inlineStr">
         <is>
-          <t>Nuevas Instalaciones para Mantención Mina</t>
+          <t>Transporte de Sustancias Peligrosas entre la I, II y III Regiones"</t>
         </is>
       </c>
       <c r="C373" t="inlineStr">
@@ -18242,16 +18242,16 @@
       </c>
       <c r="D373" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E373" t="inlineStr">
         <is>
-          <t>MINERA ESCONDIDA LIMITADA</t>
+          <t>Molina Quimicos S.A.</t>
         </is>
       </c>
       <c r="F373" t="n">
-        <v>635000</v>
+        <v>100</v>
       </c>
       <c r="G373" t="inlineStr">
         <is>
@@ -18260,12 +18260,12 @@
       </c>
       <c r="H373" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I373" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5931343&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6003607&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J373" t="inlineStr">
@@ -20488,7 +20488,7 @@
       </c>
       <c r="B420" t="inlineStr">
         <is>
-          <t>"Transporte de acido sulfurico concentrado para minera Las Cenizas, Taltal."</t>
+          <t>II MODIFICACIÓN DIA "TRANSPORTE Y MANEJO IN SITU DE RESIDUOS SÓLIDOS Y LÍQUIDOS PELIGROSOS Y NO PELIGROSOS"</t>
         </is>
       </c>
       <c r="C420" t="inlineStr">
@@ -20498,16 +20498,16 @@
       </c>
       <c r="D420" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E420" t="inlineStr">
         <is>
-          <t>Translog S.A.</t>
+          <t>Mol Ambiente S.A.</t>
         </is>
       </c>
       <c r="F420" t="n">
-        <v>600</v>
+        <v>75000</v>
       </c>
       <c r="G420" t="inlineStr">
         <is>
@@ -20516,12 +20516,12 @@
       </c>
       <c r="H420" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I420" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5114868&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5118945&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J420" t="inlineStr">
@@ -20536,7 +20536,7 @@
       </c>
       <c r="B421" t="inlineStr">
         <is>
-          <t>II MODIFICACIÓN DIA "TRANSPORTE Y MANEJO IN SITU DE RESIDUOS SÓLIDOS Y LÍQUIDOS PELIGROSOS Y NO PELIGROSOS"</t>
+          <t>"Transporte de acido sulfurico concentrado para minera Las Cenizas, Taltal."</t>
         </is>
       </c>
       <c r="C421" t="inlineStr">
@@ -20546,16 +20546,16 @@
       </c>
       <c r="D421" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E421" t="inlineStr">
         <is>
-          <t>Mol Ambiente S.A.</t>
+          <t>Translog S.A.</t>
         </is>
       </c>
       <c r="F421" t="n">
-        <v>75000</v>
+        <v>600</v>
       </c>
       <c r="G421" t="inlineStr">
         <is>
@@ -20564,12 +20564,12 @@
       </c>
       <c r="H421" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I421" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5118945&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5114868&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J421" t="inlineStr">
@@ -22024,7 +22024,7 @@
       </c>
       <c r="B452" t="inlineStr">
         <is>
-          <t>Proyecto Laboratorios Químicos CIMM T&amp;S SA. La Negra</t>
+          <t>TRANSPORTE DE RESIDUOS PELIGROSOS POR RUTAS DE LA REGIÓN DE ANTOFAGASTA</t>
         </is>
       </c>
       <c r="C452" t="inlineStr">
@@ -22039,11 +22039,11 @@
       </c>
       <c r="E452" t="inlineStr">
         <is>
-          <t>Yancko Gonzalez Rozas</t>
+          <t>Limfosep S.A</t>
         </is>
       </c>
       <c r="F452" t="n">
-        <v>8000</v>
+        <v>1000</v>
       </c>
       <c r="G452" t="inlineStr">
         <is>
@@ -22052,12 +22052,12 @@
       </c>
       <c r="H452" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I452" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4670031&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4698232&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J452" t="inlineStr">
@@ -22072,7 +22072,7 @@
       </c>
       <c r="B453" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE RESIDUOS PELIGROSOS POR RUTAS DE LA REGIÓN DE ANTOFAGASTA</t>
+          <t>Proyecto Laboratorios Químicos CIMM T&amp;S SA. La Negra</t>
         </is>
       </c>
       <c r="C453" t="inlineStr">
@@ -22087,11 +22087,11 @@
       </c>
       <c r="E453" t="inlineStr">
         <is>
-          <t>Limfosep S.A</t>
+          <t>Yancko Gonzalez Rozas</t>
         </is>
       </c>
       <c r="F453" t="n">
-        <v>1000</v>
+        <v>8000</v>
       </c>
       <c r="G453" t="inlineStr">
         <is>
@@ -22100,12 +22100,12 @@
       </c>
       <c r="H453" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I453" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4698232&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4670031&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J453" t="inlineStr">
@@ -22504,7 +22504,7 @@
       </c>
       <c r="B462" t="inlineStr">
         <is>
-          <t>Nuevo Transporte Interregional de Cianuro de Sodio</t>
+          <t>EXPANSION DEPOSITO DE RELAVES FILTRADOS FAENA EL PEÑÓN</t>
         </is>
       </c>
       <c r="C462" t="inlineStr">
@@ -22514,16 +22514,16 @@
       </c>
       <c r="D462" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E462" t="inlineStr">
         <is>
-          <t>OXIQUIM S.A.</t>
+          <t>Minera Meridian Limitada</t>
         </is>
       </c>
       <c r="F462" t="n">
-        <v>85</v>
+        <v>688</v>
       </c>
       <c r="G462" t="inlineStr">
         <is>
@@ -22532,12 +22532,12 @@
       </c>
       <c r="H462" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I462" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4594007&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4601640&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J462" t="inlineStr">
@@ -22552,7 +22552,7 @@
       </c>
       <c r="B463" t="inlineStr">
         <is>
-          <t>EXPANSION DEPOSITO DE RELAVES FILTRADOS FAENA EL PEÑÓN</t>
+          <t>Nuevo Transporte Interregional de Cianuro de Sodio</t>
         </is>
       </c>
       <c r="C463" t="inlineStr">
@@ -22562,16 +22562,16 @@
       </c>
       <c r="D463" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E463" t="inlineStr">
         <is>
-          <t>Minera Meridian Limitada</t>
+          <t>OXIQUIM S.A.</t>
         </is>
       </c>
       <c r="F463" t="n">
-        <v>688</v>
+        <v>85</v>
       </c>
       <c r="G463" t="inlineStr">
         <is>
@@ -22580,12 +22580,12 @@
       </c>
       <c r="H463" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I463" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4601640&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4594007&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J463" t="inlineStr">

--- a/data/Antofagasta.xlsx
+++ b/data/Antofagasta.xlsx
@@ -447,12 +447,12 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>18/04/2023</t>
+          <t>22/03/2023</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>En Admisión</t>
+          <t>En Calificación</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">

--- a/data/Antofagasta.xlsx
+++ b/data/Antofagasta.xlsx
@@ -424,7 +424,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Parque Fotovoltaico Cristales</t>
+          <t>Ajustes Operacionales Área Mina</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -439,15 +439,15 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Cristales SpA</t>
+          <t>Compañía Minera Zaldívar SpA</t>
         </is>
       </c>
       <c r="F2" t="n">
-        <v>710000</v>
+        <v>1200</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>22/03/2023</t>
+          <t>23/03/2023</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
@@ -457,7 +457,7 @@
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2158765112&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2158438731&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
@@ -472,7 +472,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Ajustes Operacionales Área Mina</t>
+          <t>Parque Fotovoltaico Cristales</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -487,25 +487,25 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Compañía Minera Zaldívar SpA</t>
+          <t>Cristales SpA</t>
         </is>
       </c>
       <c r="F3" t="n">
-        <v>1200</v>
+        <v>710000</v>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>17/03/2023</t>
+          <t>22/03/2023</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>En Admisión</t>
+          <t>En Calificación</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2158438731&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2158765112&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
@@ -6343,7 +6343,7 @@
       </c>
       <c r="E125" t="inlineStr">
         <is>
-          <t>Kal Tire S.A.</t>
+          <t>Kal Tire Recycling Chile SpA</t>
         </is>
       </c>
       <c r="F125" t="n">
@@ -12184,7 +12184,7 @@
       </c>
       <c r="B247" t="inlineStr">
         <is>
-          <t>Planta de Fabricación de Tuberías PEX (polietileno reticulado)</t>
+          <t>Transporte Interregional de Sustancias Peligrosas - AGREDUCAM VI Región</t>
         </is>
       </c>
       <c r="C247" t="inlineStr">
@@ -12194,16 +12194,16 @@
       </c>
       <c r="D247" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E247" t="inlineStr">
         <is>
-          <t>CROSSPIPE SYSTEMS S.A.</t>
+          <t>Asociación Gremial de Dueños de Camiones de la Sexta Región</t>
         </is>
       </c>
       <c r="F247" t="n">
-        <v>12400</v>
+        <v>1200</v>
       </c>
       <c r="G247" t="inlineStr">
         <is>
@@ -12217,7 +12217,7 @@
       </c>
       <c r="I247" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128954293&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128964620&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J247" t="inlineStr">
@@ -12232,7 +12232,7 @@
       </c>
       <c r="B248" t="inlineStr">
         <is>
-          <t>Transporte Interregional de Sustancias Peligrosas - AGREDUCAM VI Región</t>
+          <t>Transporte de Residuos Peligrosos por las Rutas Indicadas</t>
         </is>
       </c>
       <c r="C248" t="inlineStr">
@@ -12247,11 +12247,11 @@
       </c>
       <c r="E248" t="inlineStr">
         <is>
-          <t>Asociación Gremial de Dueños de Camiones de la Sexta Región</t>
+          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
         </is>
       </c>
       <c r="F248" t="n">
-        <v>1200</v>
+        <v>0</v>
       </c>
       <c r="G248" t="inlineStr">
         <is>
@@ -12265,7 +12265,7 @@
       </c>
       <c r="I248" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128964620&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128972489&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J248" t="inlineStr">
@@ -12280,7 +12280,7 @@
       </c>
       <c r="B249" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos por las Rutas Indicadas</t>
+          <t>Planta de Fabricación de Tuberías PEX (polietileno reticulado)</t>
         </is>
       </c>
       <c r="C249" t="inlineStr">
@@ -12290,16 +12290,16 @@
       </c>
       <c r="D249" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E249" t="inlineStr">
         <is>
-          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
+          <t>CROSSPIPE SYSTEMS S.A.</t>
         </is>
       </c>
       <c r="F249" t="n">
-        <v>0</v>
+        <v>12400</v>
       </c>
       <c r="G249" t="inlineStr">
         <is>
@@ -12313,7 +12313,7 @@
       </c>
       <c r="I249" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128972489&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128954293&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J249" t="inlineStr">
@@ -13912,26 +13912,26 @@
       </c>
       <c r="B283" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas Transaltisa Chile Ltda</t>
+          <t>RT Sulfuros</t>
         </is>
       </c>
       <c r="C283" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D283" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E283" t="inlineStr">
         <is>
-          <t>Transaltisa Chile Ltda.</t>
+          <t>CODELCO Chile, División Radomiro Tomic</t>
         </is>
       </c>
       <c r="F283" t="n">
-        <v>2050</v>
+        <v>5.4</v>
       </c>
       <c r="G283" t="inlineStr">
         <is>
@@ -13940,12 +13940,12 @@
       </c>
       <c r="H283" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I283" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8218613&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8210090&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J283" t="inlineStr">
@@ -13960,26 +13960,26 @@
       </c>
       <c r="B284" t="inlineStr">
         <is>
-          <t>RT Sulfuros</t>
+          <t>Transporte de Sustancias Peligrosas Transaltisa Chile Ltda</t>
         </is>
       </c>
       <c r="C284" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D284" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E284" t="inlineStr">
         <is>
-          <t>CODELCO Chile, División Radomiro Tomic</t>
+          <t>Transaltisa Chile Ltda.</t>
         </is>
       </c>
       <c r="F284" t="n">
-        <v>5.4</v>
+        <v>2050</v>
       </c>
       <c r="G284" t="inlineStr">
         <is>
@@ -13988,12 +13988,12 @@
       </c>
       <c r="H284" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I284" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8210090&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8218613&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J284" t="inlineStr">
@@ -16648,7 +16648,7 @@
       </c>
       <c r="B340" t="inlineStr">
         <is>
-          <t>CENTRO DE RECUPERACIÓN DE TAMBORES Y CONTENEDORES IBC CONTAMINADOS, PLAMBIENTAL LA NEGRA</t>
+          <t>Parque Fotovoltaico Los Andes</t>
         </is>
       </c>
       <c r="C340" t="inlineStr">
@@ -16663,11 +16663,11 @@
       </c>
       <c r="E340" t="inlineStr">
         <is>
-          <t>VEOLIA SERVICIOS MINEROS INTEGRALES CHILE SpA</t>
+          <t>Andes Solar SPA</t>
         </is>
       </c>
       <c r="F340" t="n">
-        <v>60</v>
+        <v>572000</v>
       </c>
       <c r="G340" t="inlineStr">
         <is>
@@ -16676,12 +16676,12 @@
       </c>
       <c r="H340" t="inlineStr">
         <is>
-          <t>Caducado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I340" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6592870&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6581267&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J340" t="inlineStr">
@@ -16696,7 +16696,7 @@
       </c>
       <c r="B341" t="inlineStr">
         <is>
-          <t>CENTRO DE ALMACENAMIENTO DE RESIDUOS INDUSTRIALES, GESAM LA NEGRA</t>
+          <t>CENTRO DE RECUPERACIÓN DE TAMBORES Y CONTENEDORES IBC CONTAMINADOS, PLAMBIENTAL LA NEGRA</t>
         </is>
       </c>
       <c r="C341" t="inlineStr">
@@ -16715,7 +16715,7 @@
         </is>
       </c>
       <c r="F341" t="n">
-        <v>360</v>
+        <v>60</v>
       </c>
       <c r="G341" t="inlineStr">
         <is>
@@ -16729,7 +16729,7 @@
       </c>
       <c r="I341" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6595234&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6592870&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J341" t="inlineStr">
@@ -16744,7 +16744,7 @@
       </c>
       <c r="B342" t="inlineStr">
         <is>
-          <t>Parque Fotovoltaico Los Andes</t>
+          <t>CENTRO DE ALMACENAMIENTO DE RESIDUOS INDUSTRIALES, GESAM LA NEGRA</t>
         </is>
       </c>
       <c r="C342" t="inlineStr">
@@ -16759,11 +16759,11 @@
       </c>
       <c r="E342" t="inlineStr">
         <is>
-          <t>Andes Solar SPA</t>
+          <t>VEOLIA SERVICIOS MINEROS INTEGRALES CHILE SpA</t>
         </is>
       </c>
       <c r="F342" t="n">
-        <v>572000</v>
+        <v>360</v>
       </c>
       <c r="G342" t="inlineStr">
         <is>
@@ -16772,12 +16772,12 @@
       </c>
       <c r="H342" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Caducado</t>
         </is>
       </c>
       <c r="I342" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6581267&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6595234&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J342" t="inlineStr">
@@ -17608,7 +17608,7 @@
       </c>
       <c r="B360" t="inlineStr">
         <is>
-          <t>Modificación Proyecto Transporte de Acido Sulfurico a granel entre la Primera y Décima Regiones de Chile</t>
+          <t>Extracción de Áridos Empréstito E17L</t>
         </is>
       </c>
       <c r="C360" t="inlineStr">
@@ -17618,16 +17618,16 @@
       </c>
       <c r="D360" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E360" t="inlineStr">
         <is>
-          <t>Transportes Herrmann Limitada</t>
+          <t>Skanska Chile S.A.</t>
         </is>
       </c>
       <c r="F360" t="n">
-        <v>0</v>
+        <v>500</v>
       </c>
       <c r="G360" t="inlineStr">
         <is>
@@ -17636,12 +17636,12 @@
       </c>
       <c r="H360" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I360" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6159602&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6156264&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J360" t="inlineStr">
@@ -17656,7 +17656,7 @@
       </c>
       <c r="B361" t="inlineStr">
         <is>
-          <t>Extracción de Áridos Empréstito E17L</t>
+          <t>Modificación Proyecto Transporte de Acido Sulfurico a granel entre la Primera y Décima Regiones de Chile</t>
         </is>
       </c>
       <c r="C361" t="inlineStr">
@@ -17666,16 +17666,16 @@
       </c>
       <c r="D361" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E361" t="inlineStr">
         <is>
-          <t>Skanska Chile S.A.</t>
+          <t>Transportes Herrmann Limitada</t>
         </is>
       </c>
       <c r="F361" t="n">
-        <v>500</v>
+        <v>0</v>
       </c>
       <c r="G361" t="inlineStr">
         <is>
@@ -17684,12 +17684,12 @@
       </c>
       <c r="H361" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I361" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6156264&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6159602&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J361" t="inlineStr">
@@ -18136,7 +18136,7 @@
       </c>
       <c r="B371" t="inlineStr">
         <is>
-          <t>Nuevas Instalaciones para Mantención Mina</t>
+          <t>Transporte de Residuos Peligrosos</t>
         </is>
       </c>
       <c r="C371" t="inlineStr">
@@ -18146,16 +18146,16 @@
       </c>
       <c r="D371" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E371" t="inlineStr">
         <is>
-          <t>MINERA ESCONDIDA LIMITADA</t>
+          <t>Transportes TMS Limitada</t>
         </is>
       </c>
       <c r="F371" t="n">
-        <v>635000</v>
+        <v>200</v>
       </c>
       <c r="G371" t="inlineStr">
         <is>
@@ -18164,12 +18164,12 @@
       </c>
       <c r="H371" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I371" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5931343&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6003582&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J371" t="inlineStr">
@@ -18184,7 +18184,7 @@
       </c>
       <c r="B372" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos</t>
+          <t>Transporte de Sustancias Peligrosas entre la I, II y III Regiones"</t>
         </is>
       </c>
       <c r="C372" t="inlineStr">
@@ -18199,11 +18199,11 @@
       </c>
       <c r="E372" t="inlineStr">
         <is>
-          <t>Transportes TMS Limitada</t>
+          <t>Molina Quimicos S.A.</t>
         </is>
       </c>
       <c r="F372" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="G372" t="inlineStr">
         <is>
@@ -18217,7 +18217,7 @@
       </c>
       <c r="I372" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6003582&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6003607&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J372" t="inlineStr">
@@ -18232,7 +18232,7 @@
       </c>
       <c r="B373" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas entre la I, II y III Regiones"</t>
+          <t>Nuevas Instalaciones para Mantención Mina</t>
         </is>
       </c>
       <c r="C373" t="inlineStr">
@@ -18242,16 +18242,16 @@
       </c>
       <c r="D373" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E373" t="inlineStr">
         <is>
-          <t>Molina Quimicos S.A.</t>
+          <t>MINERA ESCONDIDA LIMITADA</t>
         </is>
       </c>
       <c r="F373" t="n">
-        <v>100</v>
+        <v>635000</v>
       </c>
       <c r="G373" t="inlineStr">
         <is>
@@ -18260,12 +18260,12 @@
       </c>
       <c r="H373" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I373" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6003607&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5931343&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J373" t="inlineStr">
@@ -20488,7 +20488,7 @@
       </c>
       <c r="B420" t="inlineStr">
         <is>
-          <t>II MODIFICACIÓN DIA "TRANSPORTE Y MANEJO IN SITU DE RESIDUOS SÓLIDOS Y LÍQUIDOS PELIGROSOS Y NO PELIGROSOS"</t>
+          <t>"Transporte de acido sulfurico concentrado para minera Las Cenizas, Taltal."</t>
         </is>
       </c>
       <c r="C420" t="inlineStr">
@@ -20498,16 +20498,16 @@
       </c>
       <c r="D420" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E420" t="inlineStr">
         <is>
-          <t>Mol Ambiente S.A.</t>
+          <t>Translog S.A.</t>
         </is>
       </c>
       <c r="F420" t="n">
-        <v>75000</v>
+        <v>600</v>
       </c>
       <c r="G420" t="inlineStr">
         <is>
@@ -20516,12 +20516,12 @@
       </c>
       <c r="H420" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I420" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5118945&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5114868&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J420" t="inlineStr">
@@ -20536,7 +20536,7 @@
       </c>
       <c r="B421" t="inlineStr">
         <is>
-          <t>"Transporte de acido sulfurico concentrado para minera Las Cenizas, Taltal."</t>
+          <t>II MODIFICACIÓN DIA "TRANSPORTE Y MANEJO IN SITU DE RESIDUOS SÓLIDOS Y LÍQUIDOS PELIGROSOS Y NO PELIGROSOS"</t>
         </is>
       </c>
       <c r="C421" t="inlineStr">
@@ -20546,16 +20546,16 @@
       </c>
       <c r="D421" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E421" t="inlineStr">
         <is>
-          <t>Translog S.A.</t>
+          <t>Mol Ambiente S.A.</t>
         </is>
       </c>
       <c r="F421" t="n">
-        <v>600</v>
+        <v>75000</v>
       </c>
       <c r="G421" t="inlineStr">
         <is>
@@ -20564,12 +20564,12 @@
       </c>
       <c r="H421" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I421" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5114868&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5118945&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J421" t="inlineStr">
@@ -22024,7 +22024,7 @@
       </c>
       <c r="B452" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE RESIDUOS PELIGROSOS POR RUTAS DE LA REGIÓN DE ANTOFAGASTA</t>
+          <t>Proyecto Laboratorios Químicos CIMM T&amp;S SA. La Negra</t>
         </is>
       </c>
       <c r="C452" t="inlineStr">
@@ -22039,11 +22039,11 @@
       </c>
       <c r="E452" t="inlineStr">
         <is>
-          <t>Limfosep S.A</t>
+          <t>Yancko Gonzalez Rozas</t>
         </is>
       </c>
       <c r="F452" t="n">
-        <v>1000</v>
+        <v>8000</v>
       </c>
       <c r="G452" t="inlineStr">
         <is>
@@ -22052,12 +22052,12 @@
       </c>
       <c r="H452" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I452" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4698232&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4670031&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J452" t="inlineStr">
@@ -22072,7 +22072,7 @@
       </c>
       <c r="B453" t="inlineStr">
         <is>
-          <t>Proyecto Laboratorios Químicos CIMM T&amp;S SA. La Negra</t>
+          <t>TRANSPORTE DE RESIDUOS PELIGROSOS POR RUTAS DE LA REGIÓN DE ANTOFAGASTA</t>
         </is>
       </c>
       <c r="C453" t="inlineStr">
@@ -22087,11 +22087,11 @@
       </c>
       <c r="E453" t="inlineStr">
         <is>
-          <t>Yancko Gonzalez Rozas</t>
+          <t>Limfosep S.A</t>
         </is>
       </c>
       <c r="F453" t="n">
-        <v>8000</v>
+        <v>1000</v>
       </c>
       <c r="G453" t="inlineStr">
         <is>
@@ -22100,12 +22100,12 @@
       </c>
       <c r="H453" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I453" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4670031&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4698232&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J453" t="inlineStr">
@@ -22504,7 +22504,7 @@
       </c>
       <c r="B462" t="inlineStr">
         <is>
-          <t>EXPANSION DEPOSITO DE RELAVES FILTRADOS FAENA EL PEÑÓN</t>
+          <t>Nuevo Transporte Interregional de Cianuro de Sodio</t>
         </is>
       </c>
       <c r="C462" t="inlineStr">
@@ -22514,16 +22514,16 @@
       </c>
       <c r="D462" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E462" t="inlineStr">
         <is>
-          <t>Minera Meridian Limitada</t>
+          <t>OXIQUIM S.A.</t>
         </is>
       </c>
       <c r="F462" t="n">
-        <v>688</v>
+        <v>85</v>
       </c>
       <c r="G462" t="inlineStr">
         <is>
@@ -22532,12 +22532,12 @@
       </c>
       <c r="H462" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I462" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4601640&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4594007&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J462" t="inlineStr">
@@ -22552,7 +22552,7 @@
       </c>
       <c r="B463" t="inlineStr">
         <is>
-          <t>Nuevo Transporte Interregional de Cianuro de Sodio</t>
+          <t>EXPANSION DEPOSITO DE RELAVES FILTRADOS FAENA EL PEÑÓN</t>
         </is>
       </c>
       <c r="C463" t="inlineStr">
@@ -22562,16 +22562,16 @@
       </c>
       <c r="D463" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E463" t="inlineStr">
         <is>
-          <t>OXIQUIM S.A.</t>
+          <t>Minera Meridian Limitada</t>
         </is>
       </c>
       <c r="F463" t="n">
-        <v>85</v>
+        <v>688</v>
       </c>
       <c r="G463" t="inlineStr">
         <is>
@@ -22580,12 +22580,12 @@
       </c>
       <c r="H463" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I463" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4594007&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4601640&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J463" t="inlineStr">

--- a/data/Antofagasta.xlsx
+++ b/data/Antofagasta.xlsx
@@ -12184,7 +12184,7 @@
       </c>
       <c r="B247" t="inlineStr">
         <is>
-          <t>Transporte Interregional de Sustancias Peligrosas - AGREDUCAM VI Región</t>
+          <t>Planta de Fabricación de Tuberías PEX (polietileno reticulado)</t>
         </is>
       </c>
       <c r="C247" t="inlineStr">
@@ -12194,16 +12194,16 @@
       </c>
       <c r="D247" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E247" t="inlineStr">
         <is>
-          <t>Asociación Gremial de Dueños de Camiones de la Sexta Región</t>
+          <t>CROSSPIPE SYSTEMS S.A.</t>
         </is>
       </c>
       <c r="F247" t="n">
-        <v>1200</v>
+        <v>12400</v>
       </c>
       <c r="G247" t="inlineStr">
         <is>
@@ -12217,7 +12217,7 @@
       </c>
       <c r="I247" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128964620&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128954293&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J247" t="inlineStr">
@@ -12232,7 +12232,7 @@
       </c>
       <c r="B248" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos por las Rutas Indicadas</t>
+          <t>Transporte Interregional de Sustancias Peligrosas - AGREDUCAM VI Región</t>
         </is>
       </c>
       <c r="C248" t="inlineStr">
@@ -12247,11 +12247,11 @@
       </c>
       <c r="E248" t="inlineStr">
         <is>
-          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
+          <t>Asociación Gremial de Dueños de Camiones de la Sexta Región</t>
         </is>
       </c>
       <c r="F248" t="n">
-        <v>0</v>
+        <v>1200</v>
       </c>
       <c r="G248" t="inlineStr">
         <is>
@@ -12265,7 +12265,7 @@
       </c>
       <c r="I248" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128972489&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128964620&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J248" t="inlineStr">
@@ -12280,7 +12280,7 @@
       </c>
       <c r="B249" t="inlineStr">
         <is>
-          <t>Planta de Fabricación de Tuberías PEX (polietileno reticulado)</t>
+          <t>Transporte de Residuos Peligrosos por las Rutas Indicadas</t>
         </is>
       </c>
       <c r="C249" t="inlineStr">
@@ -12290,16 +12290,16 @@
       </c>
       <c r="D249" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E249" t="inlineStr">
         <is>
-          <t>CROSSPIPE SYSTEMS S.A.</t>
+          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
         </is>
       </c>
       <c r="F249" t="n">
-        <v>12400</v>
+        <v>0</v>
       </c>
       <c r="G249" t="inlineStr">
         <is>
@@ -12313,7 +12313,7 @@
       </c>
       <c r="I249" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128954293&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128972489&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J249" t="inlineStr">
@@ -13912,26 +13912,26 @@
       </c>
       <c r="B283" t="inlineStr">
         <is>
-          <t>RT Sulfuros</t>
+          <t>Transporte de Sustancias Peligrosas Transaltisa Chile Ltda</t>
         </is>
       </c>
       <c r="C283" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D283" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E283" t="inlineStr">
         <is>
-          <t>CODELCO Chile, División Radomiro Tomic</t>
+          <t>Transaltisa Chile Ltda.</t>
         </is>
       </c>
       <c r="F283" t="n">
-        <v>5.4</v>
+        <v>2050</v>
       </c>
       <c r="G283" t="inlineStr">
         <is>
@@ -13940,12 +13940,12 @@
       </c>
       <c r="H283" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I283" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8210090&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8218613&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J283" t="inlineStr">
@@ -13960,26 +13960,26 @@
       </c>
       <c r="B284" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas Transaltisa Chile Ltda</t>
+          <t>RT Sulfuros</t>
         </is>
       </c>
       <c r="C284" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D284" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E284" t="inlineStr">
         <is>
-          <t>Transaltisa Chile Ltda.</t>
+          <t>CODELCO Chile, División Radomiro Tomic</t>
         </is>
       </c>
       <c r="F284" t="n">
-        <v>2050</v>
+        <v>5.4</v>
       </c>
       <c r="G284" t="inlineStr">
         <is>
@@ -13988,12 +13988,12 @@
       </c>
       <c r="H284" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I284" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8218613&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8210090&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J284" t="inlineStr">
@@ -16648,7 +16648,7 @@
       </c>
       <c r="B340" t="inlineStr">
         <is>
-          <t>Parque Fotovoltaico Los Andes</t>
+          <t>CENTRO DE RECUPERACIÓN DE TAMBORES Y CONTENEDORES IBC CONTAMINADOS, PLAMBIENTAL LA NEGRA</t>
         </is>
       </c>
       <c r="C340" t="inlineStr">
@@ -16663,11 +16663,11 @@
       </c>
       <c r="E340" t="inlineStr">
         <is>
-          <t>Andes Solar SPA</t>
+          <t>VEOLIA SERVICIOS MINEROS INTEGRALES CHILE SpA</t>
         </is>
       </c>
       <c r="F340" t="n">
-        <v>572000</v>
+        <v>60</v>
       </c>
       <c r="G340" t="inlineStr">
         <is>
@@ -16676,12 +16676,12 @@
       </c>
       <c r="H340" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Caducado</t>
         </is>
       </c>
       <c r="I340" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6581267&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6592870&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J340" t="inlineStr">
@@ -16696,7 +16696,7 @@
       </c>
       <c r="B341" t="inlineStr">
         <is>
-          <t>CENTRO DE RECUPERACIÓN DE TAMBORES Y CONTENEDORES IBC CONTAMINADOS, PLAMBIENTAL LA NEGRA</t>
+          <t>CENTRO DE ALMACENAMIENTO DE RESIDUOS INDUSTRIALES, GESAM LA NEGRA</t>
         </is>
       </c>
       <c r="C341" t="inlineStr">
@@ -16715,7 +16715,7 @@
         </is>
       </c>
       <c r="F341" t="n">
-        <v>60</v>
+        <v>360</v>
       </c>
       <c r="G341" t="inlineStr">
         <is>
@@ -16729,7 +16729,7 @@
       </c>
       <c r="I341" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6592870&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6595234&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J341" t="inlineStr">
@@ -16744,7 +16744,7 @@
       </c>
       <c r="B342" t="inlineStr">
         <is>
-          <t>CENTRO DE ALMACENAMIENTO DE RESIDUOS INDUSTRIALES, GESAM LA NEGRA</t>
+          <t>Parque Fotovoltaico Los Andes</t>
         </is>
       </c>
       <c r="C342" t="inlineStr">
@@ -16759,11 +16759,11 @@
       </c>
       <c r="E342" t="inlineStr">
         <is>
-          <t>VEOLIA SERVICIOS MINEROS INTEGRALES CHILE SpA</t>
+          <t>Andes Solar SPA</t>
         </is>
       </c>
       <c r="F342" t="n">
-        <v>360</v>
+        <v>572000</v>
       </c>
       <c r="G342" t="inlineStr">
         <is>
@@ -16772,12 +16772,12 @@
       </c>
       <c r="H342" t="inlineStr">
         <is>
-          <t>Caducado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I342" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6595234&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6581267&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J342" t="inlineStr">
@@ -17608,7 +17608,7 @@
       </c>
       <c r="B360" t="inlineStr">
         <is>
-          <t>Extracción de Áridos Empréstito E17L</t>
+          <t>Modificación Proyecto Transporte de Acido Sulfurico a granel entre la Primera y Décima Regiones de Chile</t>
         </is>
       </c>
       <c r="C360" t="inlineStr">
@@ -17618,16 +17618,16 @@
       </c>
       <c r="D360" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E360" t="inlineStr">
         <is>
-          <t>Skanska Chile S.A.</t>
+          <t>Transportes Herrmann Limitada</t>
         </is>
       </c>
       <c r="F360" t="n">
-        <v>500</v>
+        <v>0</v>
       </c>
       <c r="G360" t="inlineStr">
         <is>
@@ -17636,12 +17636,12 @@
       </c>
       <c r="H360" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I360" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6156264&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6159602&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J360" t="inlineStr">
@@ -17656,7 +17656,7 @@
       </c>
       <c r="B361" t="inlineStr">
         <is>
-          <t>Modificación Proyecto Transporte de Acido Sulfurico a granel entre la Primera y Décima Regiones de Chile</t>
+          <t>Extracción de Áridos Empréstito E17L</t>
         </is>
       </c>
       <c r="C361" t="inlineStr">
@@ -17666,16 +17666,16 @@
       </c>
       <c r="D361" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E361" t="inlineStr">
         <is>
-          <t>Transportes Herrmann Limitada</t>
+          <t>Skanska Chile S.A.</t>
         </is>
       </c>
       <c r="F361" t="n">
-        <v>0</v>
+        <v>500</v>
       </c>
       <c r="G361" t="inlineStr">
         <is>
@@ -17684,12 +17684,12 @@
       </c>
       <c r="H361" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I361" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6159602&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6156264&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J361" t="inlineStr">
@@ -17848,7 +17848,7 @@
       </c>
       <c r="B365" t="inlineStr">
         <is>
-          <t>Extracción de Áridos Empréstito E-63</t>
+          <t>Proyecto Optimización de Emplazamiento de Instalaciones en Minera Escondida</t>
         </is>
       </c>
       <c r="C365" t="inlineStr">
@@ -17863,11 +17863,11 @@
       </c>
       <c r="E365" t="inlineStr">
         <is>
-          <t>Skanska Chile S.A.</t>
+          <t>MINERA ESCONDIDA LIMITADA</t>
         </is>
       </c>
       <c r="F365" t="n">
-        <v>500</v>
+        <v>120000</v>
       </c>
       <c r="G365" t="inlineStr">
         <is>
@@ -17881,7 +17881,7 @@
       </c>
       <c r="I365" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6092873&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6080052&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J365" t="inlineStr">
@@ -17896,7 +17896,7 @@
       </c>
       <c r="B366" t="inlineStr">
         <is>
-          <t>Proyecto Optimización de Emplazamiento de Instalaciones en Minera Escondida</t>
+          <t>Extracción de Áridos Empréstito E-63</t>
         </is>
       </c>
       <c r="C366" t="inlineStr">
@@ -17911,11 +17911,11 @@
       </c>
       <c r="E366" t="inlineStr">
         <is>
-          <t>MINERA ESCONDIDA LIMITADA</t>
+          <t>Skanska Chile S.A.</t>
         </is>
       </c>
       <c r="F366" t="n">
-        <v>120000</v>
+        <v>500</v>
       </c>
       <c r="G366" t="inlineStr">
         <is>
@@ -17929,7 +17929,7 @@
       </c>
       <c r="I366" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6080052&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6092873&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J366" t="inlineStr">
@@ -18136,7 +18136,7 @@
       </c>
       <c r="B371" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos</t>
+          <t>Nuevas Instalaciones para Mantención Mina</t>
         </is>
       </c>
       <c r="C371" t="inlineStr">
@@ -18146,16 +18146,16 @@
       </c>
       <c r="D371" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E371" t="inlineStr">
         <is>
-          <t>Transportes TMS Limitada</t>
+          <t>MINERA ESCONDIDA LIMITADA</t>
         </is>
       </c>
       <c r="F371" t="n">
-        <v>200</v>
+        <v>635000</v>
       </c>
       <c r="G371" t="inlineStr">
         <is>
@@ -18164,12 +18164,12 @@
       </c>
       <c r="H371" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I371" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6003582&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5931343&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J371" t="inlineStr">
@@ -18184,7 +18184,7 @@
       </c>
       <c r="B372" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas entre la I, II y III Regiones"</t>
+          <t>Transporte de Residuos Peligrosos</t>
         </is>
       </c>
       <c r="C372" t="inlineStr">
@@ -18199,11 +18199,11 @@
       </c>
       <c r="E372" t="inlineStr">
         <is>
-          <t>Molina Quimicos S.A.</t>
+          <t>Transportes TMS Limitada</t>
         </is>
       </c>
       <c r="F372" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="G372" t="inlineStr">
         <is>
@@ -18217,7 +18217,7 @@
       </c>
       <c r="I372" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6003607&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6003582&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J372" t="inlineStr">
@@ -18232,7 +18232,7 @@
       </c>
       <c r="B373" t="inlineStr">
         <is>
-          <t>Nuevas Instalaciones para Mantención Mina</t>
+          <t>Transporte de Sustancias Peligrosas entre la I, II y III Regiones"</t>
         </is>
       </c>
       <c r="C373" t="inlineStr">
@@ -18242,16 +18242,16 @@
       </c>
       <c r="D373" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E373" t="inlineStr">
         <is>
-          <t>MINERA ESCONDIDA LIMITADA</t>
+          <t>Molina Quimicos S.A.</t>
         </is>
       </c>
       <c r="F373" t="n">
-        <v>635000</v>
+        <v>100</v>
       </c>
       <c r="G373" t="inlineStr">
         <is>
@@ -18260,12 +18260,12 @@
       </c>
       <c r="H373" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I373" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5931343&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6003607&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J373" t="inlineStr">
@@ -20488,7 +20488,7 @@
       </c>
       <c r="B420" t="inlineStr">
         <is>
-          <t>"Transporte de acido sulfurico concentrado para minera Las Cenizas, Taltal."</t>
+          <t>II MODIFICACIÓN DIA "TRANSPORTE Y MANEJO IN SITU DE RESIDUOS SÓLIDOS Y LÍQUIDOS PELIGROSOS Y NO PELIGROSOS"</t>
         </is>
       </c>
       <c r="C420" t="inlineStr">
@@ -20498,16 +20498,16 @@
       </c>
       <c r="D420" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E420" t="inlineStr">
         <is>
-          <t>Translog S.A.</t>
+          <t>Mol Ambiente S.A.</t>
         </is>
       </c>
       <c r="F420" t="n">
-        <v>600</v>
+        <v>75000</v>
       </c>
       <c r="G420" t="inlineStr">
         <is>
@@ -20516,12 +20516,12 @@
       </c>
       <c r="H420" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I420" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5114868&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5118945&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J420" t="inlineStr">
@@ -20536,7 +20536,7 @@
       </c>
       <c r="B421" t="inlineStr">
         <is>
-          <t>II MODIFICACIÓN DIA "TRANSPORTE Y MANEJO IN SITU DE RESIDUOS SÓLIDOS Y LÍQUIDOS PELIGROSOS Y NO PELIGROSOS"</t>
+          <t>"Transporte de acido sulfurico concentrado para minera Las Cenizas, Taltal."</t>
         </is>
       </c>
       <c r="C421" t="inlineStr">
@@ -20546,16 +20546,16 @@
       </c>
       <c r="D421" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E421" t="inlineStr">
         <is>
-          <t>Mol Ambiente S.A.</t>
+          <t>Translog S.A.</t>
         </is>
       </c>
       <c r="F421" t="n">
-        <v>75000</v>
+        <v>600</v>
       </c>
       <c r="G421" t="inlineStr">
         <is>
@@ -20564,12 +20564,12 @@
       </c>
       <c r="H421" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I421" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5118945&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5114868&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J421" t="inlineStr">
@@ -22024,7 +22024,7 @@
       </c>
       <c r="B452" t="inlineStr">
         <is>
-          <t>Proyecto Laboratorios Químicos CIMM T&amp;S SA. La Negra</t>
+          <t>TRANSPORTE DE RESIDUOS PELIGROSOS POR RUTAS DE LA REGIÓN DE ANTOFAGASTA</t>
         </is>
       </c>
       <c r="C452" t="inlineStr">
@@ -22039,11 +22039,11 @@
       </c>
       <c r="E452" t="inlineStr">
         <is>
-          <t>Yancko Gonzalez Rozas</t>
+          <t>Limfosep S.A</t>
         </is>
       </c>
       <c r="F452" t="n">
-        <v>8000</v>
+        <v>1000</v>
       </c>
       <c r="G452" t="inlineStr">
         <is>
@@ -22052,12 +22052,12 @@
       </c>
       <c r="H452" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I452" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4670031&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4698232&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J452" t="inlineStr">
@@ -22072,7 +22072,7 @@
       </c>
       <c r="B453" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE RESIDUOS PELIGROSOS POR RUTAS DE LA REGIÓN DE ANTOFAGASTA</t>
+          <t>Proyecto Laboratorios Químicos CIMM T&amp;S SA. La Negra</t>
         </is>
       </c>
       <c r="C453" t="inlineStr">
@@ -22087,11 +22087,11 @@
       </c>
       <c r="E453" t="inlineStr">
         <is>
-          <t>Limfosep S.A</t>
+          <t>Yancko Gonzalez Rozas</t>
         </is>
       </c>
       <c r="F453" t="n">
-        <v>1000</v>
+        <v>8000</v>
       </c>
       <c r="G453" t="inlineStr">
         <is>
@@ -22100,12 +22100,12 @@
       </c>
       <c r="H453" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I453" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4698232&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4670031&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J453" t="inlineStr">
@@ -22504,7 +22504,7 @@
       </c>
       <c r="B462" t="inlineStr">
         <is>
-          <t>Nuevo Transporte Interregional de Cianuro de Sodio</t>
+          <t>EXPANSION DEPOSITO DE RELAVES FILTRADOS FAENA EL PEÑÓN</t>
         </is>
       </c>
       <c r="C462" t="inlineStr">
@@ -22514,16 +22514,16 @@
       </c>
       <c r="D462" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E462" t="inlineStr">
         <is>
-          <t>OXIQUIM S.A.</t>
+          <t>Minera Meridian Limitada</t>
         </is>
       </c>
       <c r="F462" t="n">
-        <v>85</v>
+        <v>688</v>
       </c>
       <c r="G462" t="inlineStr">
         <is>
@@ -22532,12 +22532,12 @@
       </c>
       <c r="H462" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I462" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4594007&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4601640&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J462" t="inlineStr">
@@ -22552,7 +22552,7 @@
       </c>
       <c r="B463" t="inlineStr">
         <is>
-          <t>EXPANSION DEPOSITO DE RELAVES FILTRADOS FAENA EL PEÑÓN</t>
+          <t>Nuevo Transporte Interregional de Cianuro de Sodio</t>
         </is>
       </c>
       <c r="C463" t="inlineStr">
@@ -22562,16 +22562,16 @@
       </c>
       <c r="D463" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E463" t="inlineStr">
         <is>
-          <t>Minera Meridian Limitada</t>
+          <t>OXIQUIM S.A.</t>
         </is>
       </c>
       <c r="F463" t="n">
-        <v>688</v>
+        <v>85</v>
       </c>
       <c r="G463" t="inlineStr">
         <is>
@@ -22580,12 +22580,12 @@
       </c>
       <c r="H463" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I463" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4601640&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4594007&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J463" t="inlineStr">
@@ -23320,7 +23320,7 @@
       </c>
       <c r="B479" t="inlineStr">
         <is>
-          <t>Transporte de Barros Anódicos</t>
+          <t>Transporte de Residuos Peligroso, Transporte Bello</t>
         </is>
       </c>
       <c r="C479" t="inlineStr">
@@ -23335,11 +23335,11 @@
       </c>
       <c r="E479" t="inlineStr">
         <is>
-          <t>CODELCO CHILE</t>
+          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
         </is>
       </c>
       <c r="F479" t="n">
-        <v>0</v>
+        <v>4050</v>
       </c>
       <c r="G479" t="inlineStr">
         <is>
@@ -23353,7 +23353,7 @@
       </c>
       <c r="I479" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4429880&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4455518&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J479" t="inlineStr">
@@ -23368,7 +23368,7 @@
       </c>
       <c r="B480" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligroso, Transporte Bello</t>
+          <t>Transporte de Barros Anódicos</t>
         </is>
       </c>
       <c r="C480" t="inlineStr">
@@ -23383,11 +23383,11 @@
       </c>
       <c r="E480" t="inlineStr">
         <is>
-          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
+          <t>CODELCO CHILE</t>
         </is>
       </c>
       <c r="F480" t="n">
-        <v>4050</v>
+        <v>0</v>
       </c>
       <c r="G480" t="inlineStr">
         <is>
@@ -23401,7 +23401,7 @@
       </c>
       <c r="I480" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4455518&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4429880&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J480" t="inlineStr">
@@ -23512,7 +23512,7 @@
       </c>
       <c r="B483" t="inlineStr">
         <is>
-          <t>Transporte y Almacenamiento temporal de Residuos Peligrosos M&amp;M ltda.</t>
+          <t>Modificacion Proyecto Minero Algorta Sector Pampa</t>
         </is>
       </c>
       <c r="C483" t="inlineStr">
@@ -23522,16 +23522,16 @@
       </c>
       <c r="D483" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E483" t="inlineStr">
         <is>
-          <t>Transportes Moscoso y Moscoso Ltda.</t>
+          <t>Algorta Norte S.A</t>
         </is>
       </c>
       <c r="F483" t="n">
-        <v>41075</v>
+        <v>6400</v>
       </c>
       <c r="G483" t="inlineStr">
         <is>
@@ -23545,7 +23545,7 @@
       </c>
       <c r="I483" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4422237&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4432700&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J483" t="inlineStr">
@@ -23560,7 +23560,7 @@
       </c>
       <c r="B484" t="inlineStr">
         <is>
-          <t>Modificacion Proyecto Minero Algorta Sector Pampa</t>
+          <t>Transporte y Almacenamiento temporal de Residuos Peligrosos M&amp;M ltda.</t>
         </is>
       </c>
       <c r="C484" t="inlineStr">
@@ -23570,16 +23570,16 @@
       </c>
       <c r="D484" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E484" t="inlineStr">
         <is>
-          <t>Algorta Norte S.A</t>
+          <t>Transportes Moscoso y Moscoso Ltda.</t>
         </is>
       </c>
       <c r="F484" t="n">
-        <v>6400</v>
+        <v>41075</v>
       </c>
       <c r="G484" t="inlineStr">
         <is>
@@ -23593,7 +23593,7 @@
       </c>
       <c r="I484" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4432700&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4422237&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J484" t="inlineStr">

--- a/data/Antofagasta.xlsx
+++ b/data/Antofagasta.xlsx
@@ -12184,7 +12184,7 @@
       </c>
       <c r="B247" t="inlineStr">
         <is>
-          <t>Planta de Fabricación de Tuberías PEX (polietileno reticulado)</t>
+          <t>Transporte Interregional de Sustancias Peligrosas - AGREDUCAM VI Región</t>
         </is>
       </c>
       <c r="C247" t="inlineStr">
@@ -12194,16 +12194,16 @@
       </c>
       <c r="D247" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E247" t="inlineStr">
         <is>
-          <t>CROSSPIPE SYSTEMS S.A.</t>
+          <t>Asociación Gremial de Dueños de Camiones de la Sexta Región</t>
         </is>
       </c>
       <c r="F247" t="n">
-        <v>12400</v>
+        <v>1200</v>
       </c>
       <c r="G247" t="inlineStr">
         <is>
@@ -12217,7 +12217,7 @@
       </c>
       <c r="I247" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128954293&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128964620&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J247" t="inlineStr">
@@ -12232,7 +12232,7 @@
       </c>
       <c r="B248" t="inlineStr">
         <is>
-          <t>Transporte Interregional de Sustancias Peligrosas - AGREDUCAM VI Región</t>
+          <t>Transporte de Residuos Peligrosos por las Rutas Indicadas</t>
         </is>
       </c>
       <c r="C248" t="inlineStr">
@@ -12247,11 +12247,11 @@
       </c>
       <c r="E248" t="inlineStr">
         <is>
-          <t>Asociación Gremial de Dueños de Camiones de la Sexta Región</t>
+          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
         </is>
       </c>
       <c r="F248" t="n">
-        <v>1200</v>
+        <v>0</v>
       </c>
       <c r="G248" t="inlineStr">
         <is>
@@ -12265,7 +12265,7 @@
       </c>
       <c r="I248" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128964620&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128972489&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J248" t="inlineStr">
@@ -12280,7 +12280,7 @@
       </c>
       <c r="B249" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos por las Rutas Indicadas</t>
+          <t>Planta de Fabricación de Tuberías PEX (polietileno reticulado)</t>
         </is>
       </c>
       <c r="C249" t="inlineStr">
@@ -12290,16 +12290,16 @@
       </c>
       <c r="D249" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E249" t="inlineStr">
         <is>
-          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
+          <t>CROSSPIPE SYSTEMS S.A.</t>
         </is>
       </c>
       <c r="F249" t="n">
-        <v>0</v>
+        <v>12400</v>
       </c>
       <c r="G249" t="inlineStr">
         <is>
@@ -12313,7 +12313,7 @@
       </c>
       <c r="I249" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128972489&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128954293&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J249" t="inlineStr">
@@ -13912,26 +13912,26 @@
       </c>
       <c r="B283" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas Transaltisa Chile Ltda</t>
+          <t>RT Sulfuros</t>
         </is>
       </c>
       <c r="C283" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D283" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E283" t="inlineStr">
         <is>
-          <t>Transaltisa Chile Ltda.</t>
+          <t>CODELCO Chile, División Radomiro Tomic</t>
         </is>
       </c>
       <c r="F283" t="n">
-        <v>2050</v>
+        <v>5.4</v>
       </c>
       <c r="G283" t="inlineStr">
         <is>
@@ -13940,12 +13940,12 @@
       </c>
       <c r="H283" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I283" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8218613&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8210090&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J283" t="inlineStr">
@@ -13960,26 +13960,26 @@
       </c>
       <c r="B284" t="inlineStr">
         <is>
-          <t>RT Sulfuros</t>
+          <t>Transporte de Sustancias Peligrosas Transaltisa Chile Ltda</t>
         </is>
       </c>
       <c r="C284" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D284" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E284" t="inlineStr">
         <is>
-          <t>CODELCO Chile, División Radomiro Tomic</t>
+          <t>Transaltisa Chile Ltda.</t>
         </is>
       </c>
       <c r="F284" t="n">
-        <v>5.4</v>
+        <v>2050</v>
       </c>
       <c r="G284" t="inlineStr">
         <is>
@@ -13988,12 +13988,12 @@
       </c>
       <c r="H284" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I284" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8210090&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8218613&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J284" t="inlineStr">
@@ -16648,7 +16648,7 @@
       </c>
       <c r="B340" t="inlineStr">
         <is>
-          <t>CENTRO DE RECUPERACIÓN DE TAMBORES Y CONTENEDORES IBC CONTAMINADOS, PLAMBIENTAL LA NEGRA</t>
+          <t>Parque Fotovoltaico Los Andes</t>
         </is>
       </c>
       <c r="C340" t="inlineStr">
@@ -16663,11 +16663,11 @@
       </c>
       <c r="E340" t="inlineStr">
         <is>
-          <t>VEOLIA SERVICIOS MINEROS INTEGRALES CHILE SpA</t>
+          <t>Andes Solar SPA</t>
         </is>
       </c>
       <c r="F340" t="n">
-        <v>60</v>
+        <v>572000</v>
       </c>
       <c r="G340" t="inlineStr">
         <is>
@@ -16676,12 +16676,12 @@
       </c>
       <c r="H340" t="inlineStr">
         <is>
-          <t>Caducado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I340" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6592870&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6581267&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J340" t="inlineStr">
@@ -16696,7 +16696,7 @@
       </c>
       <c r="B341" t="inlineStr">
         <is>
-          <t>CENTRO DE ALMACENAMIENTO DE RESIDUOS INDUSTRIALES, GESAM LA NEGRA</t>
+          <t>CENTRO DE RECUPERACIÓN DE TAMBORES Y CONTENEDORES IBC CONTAMINADOS, PLAMBIENTAL LA NEGRA</t>
         </is>
       </c>
       <c r="C341" t="inlineStr">
@@ -16715,7 +16715,7 @@
         </is>
       </c>
       <c r="F341" t="n">
-        <v>360</v>
+        <v>60</v>
       </c>
       <c r="G341" t="inlineStr">
         <is>
@@ -16729,7 +16729,7 @@
       </c>
       <c r="I341" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6595234&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6592870&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J341" t="inlineStr">
@@ -16744,7 +16744,7 @@
       </c>
       <c r="B342" t="inlineStr">
         <is>
-          <t>Parque Fotovoltaico Los Andes</t>
+          <t>CENTRO DE ALMACENAMIENTO DE RESIDUOS INDUSTRIALES, GESAM LA NEGRA</t>
         </is>
       </c>
       <c r="C342" t="inlineStr">
@@ -16759,11 +16759,11 @@
       </c>
       <c r="E342" t="inlineStr">
         <is>
-          <t>Andes Solar SPA</t>
+          <t>VEOLIA SERVICIOS MINEROS INTEGRALES CHILE SpA</t>
         </is>
       </c>
       <c r="F342" t="n">
-        <v>572000</v>
+        <v>360</v>
       </c>
       <c r="G342" t="inlineStr">
         <is>
@@ -16772,12 +16772,12 @@
       </c>
       <c r="H342" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Caducado</t>
         </is>
       </c>
       <c r="I342" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6581267&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6595234&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J342" t="inlineStr">
@@ -17608,7 +17608,7 @@
       </c>
       <c r="B360" t="inlineStr">
         <is>
-          <t>Modificación Proyecto Transporte de Acido Sulfurico a granel entre la Primera y Décima Regiones de Chile</t>
+          <t>Extracción de Áridos Empréstito E17L</t>
         </is>
       </c>
       <c r="C360" t="inlineStr">
@@ -17618,16 +17618,16 @@
       </c>
       <c r="D360" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E360" t="inlineStr">
         <is>
-          <t>Transportes Herrmann Limitada</t>
+          <t>Skanska Chile S.A.</t>
         </is>
       </c>
       <c r="F360" t="n">
-        <v>0</v>
+        <v>500</v>
       </c>
       <c r="G360" t="inlineStr">
         <is>
@@ -17636,12 +17636,12 @@
       </c>
       <c r="H360" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I360" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6159602&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6156264&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J360" t="inlineStr">
@@ -17656,7 +17656,7 @@
       </c>
       <c r="B361" t="inlineStr">
         <is>
-          <t>Extracción de Áridos Empréstito E17L</t>
+          <t>Modificación Proyecto Transporte de Acido Sulfurico a granel entre la Primera y Décima Regiones de Chile</t>
         </is>
       </c>
       <c r="C361" t="inlineStr">
@@ -17666,16 +17666,16 @@
       </c>
       <c r="D361" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E361" t="inlineStr">
         <is>
-          <t>Skanska Chile S.A.</t>
+          <t>Transportes Herrmann Limitada</t>
         </is>
       </c>
       <c r="F361" t="n">
-        <v>500</v>
+        <v>0</v>
       </c>
       <c r="G361" t="inlineStr">
         <is>
@@ -17684,12 +17684,12 @@
       </c>
       <c r="H361" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I361" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6156264&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6159602&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J361" t="inlineStr">
@@ -17848,7 +17848,7 @@
       </c>
       <c r="B365" t="inlineStr">
         <is>
-          <t>Proyecto Optimización de Emplazamiento de Instalaciones en Minera Escondida</t>
+          <t>Extracción de Áridos Empréstito E-63</t>
         </is>
       </c>
       <c r="C365" t="inlineStr">
@@ -17863,11 +17863,11 @@
       </c>
       <c r="E365" t="inlineStr">
         <is>
-          <t>MINERA ESCONDIDA LIMITADA</t>
+          <t>Skanska Chile S.A.</t>
         </is>
       </c>
       <c r="F365" t="n">
-        <v>120000</v>
+        <v>500</v>
       </c>
       <c r="G365" t="inlineStr">
         <is>
@@ -17881,7 +17881,7 @@
       </c>
       <c r="I365" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6080052&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6092873&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J365" t="inlineStr">
@@ -17896,7 +17896,7 @@
       </c>
       <c r="B366" t="inlineStr">
         <is>
-          <t>Extracción de Áridos Empréstito E-63</t>
+          <t>Proyecto Optimización de Emplazamiento de Instalaciones en Minera Escondida</t>
         </is>
       </c>
       <c r="C366" t="inlineStr">
@@ -17911,11 +17911,11 @@
       </c>
       <c r="E366" t="inlineStr">
         <is>
-          <t>Skanska Chile S.A.</t>
+          <t>MINERA ESCONDIDA LIMITADA</t>
         </is>
       </c>
       <c r="F366" t="n">
-        <v>500</v>
+        <v>120000</v>
       </c>
       <c r="G366" t="inlineStr">
         <is>
@@ -17929,7 +17929,7 @@
       </c>
       <c r="I366" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6092873&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6080052&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J366" t="inlineStr">
@@ -18136,7 +18136,7 @@
       </c>
       <c r="B371" t="inlineStr">
         <is>
-          <t>Nuevas Instalaciones para Mantención Mina</t>
+          <t>Transporte de Residuos Peligrosos</t>
         </is>
       </c>
       <c r="C371" t="inlineStr">
@@ -18146,16 +18146,16 @@
       </c>
       <c r="D371" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E371" t="inlineStr">
         <is>
-          <t>MINERA ESCONDIDA LIMITADA</t>
+          <t>Transportes TMS Limitada</t>
         </is>
       </c>
       <c r="F371" t="n">
-        <v>635000</v>
+        <v>200</v>
       </c>
       <c r="G371" t="inlineStr">
         <is>
@@ -18164,12 +18164,12 @@
       </c>
       <c r="H371" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I371" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5931343&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6003582&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J371" t="inlineStr">
@@ -18184,7 +18184,7 @@
       </c>
       <c r="B372" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos</t>
+          <t>Transporte de Sustancias Peligrosas entre la I, II y III Regiones"</t>
         </is>
       </c>
       <c r="C372" t="inlineStr">
@@ -18199,11 +18199,11 @@
       </c>
       <c r="E372" t="inlineStr">
         <is>
-          <t>Transportes TMS Limitada</t>
+          <t>Molina Quimicos S.A.</t>
         </is>
       </c>
       <c r="F372" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="G372" t="inlineStr">
         <is>
@@ -18217,7 +18217,7 @@
       </c>
       <c r="I372" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6003582&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6003607&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J372" t="inlineStr">
@@ -18232,7 +18232,7 @@
       </c>
       <c r="B373" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas entre la I, II y III Regiones"</t>
+          <t>Nuevas Instalaciones para Mantención Mina</t>
         </is>
       </c>
       <c r="C373" t="inlineStr">
@@ -18242,16 +18242,16 @@
       </c>
       <c r="D373" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E373" t="inlineStr">
         <is>
-          <t>Molina Quimicos S.A.</t>
+          <t>MINERA ESCONDIDA LIMITADA</t>
         </is>
       </c>
       <c r="F373" t="n">
-        <v>100</v>
+        <v>635000</v>
       </c>
       <c r="G373" t="inlineStr">
         <is>
@@ -18260,12 +18260,12 @@
       </c>
       <c r="H373" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I373" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6003607&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5931343&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J373" t="inlineStr">
@@ -20488,7 +20488,7 @@
       </c>
       <c r="B420" t="inlineStr">
         <is>
-          <t>II MODIFICACIÓN DIA "TRANSPORTE Y MANEJO IN SITU DE RESIDUOS SÓLIDOS Y LÍQUIDOS PELIGROSOS Y NO PELIGROSOS"</t>
+          <t>"Transporte de acido sulfurico concentrado para minera Las Cenizas, Taltal."</t>
         </is>
       </c>
       <c r="C420" t="inlineStr">
@@ -20498,16 +20498,16 @@
       </c>
       <c r="D420" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E420" t="inlineStr">
         <is>
-          <t>Mol Ambiente S.A.</t>
+          <t>Translog S.A.</t>
         </is>
       </c>
       <c r="F420" t="n">
-        <v>75000</v>
+        <v>600</v>
       </c>
       <c r="G420" t="inlineStr">
         <is>
@@ -20516,12 +20516,12 @@
       </c>
       <c r="H420" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I420" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5118945&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5114868&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J420" t="inlineStr">
@@ -20536,7 +20536,7 @@
       </c>
       <c r="B421" t="inlineStr">
         <is>
-          <t>"Transporte de acido sulfurico concentrado para minera Las Cenizas, Taltal."</t>
+          <t>II MODIFICACIÓN DIA "TRANSPORTE Y MANEJO IN SITU DE RESIDUOS SÓLIDOS Y LÍQUIDOS PELIGROSOS Y NO PELIGROSOS"</t>
         </is>
       </c>
       <c r="C421" t="inlineStr">
@@ -20546,16 +20546,16 @@
       </c>
       <c r="D421" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E421" t="inlineStr">
         <is>
-          <t>Translog S.A.</t>
+          <t>Mol Ambiente S.A.</t>
         </is>
       </c>
       <c r="F421" t="n">
-        <v>600</v>
+        <v>75000</v>
       </c>
       <c r="G421" t="inlineStr">
         <is>
@@ -20564,12 +20564,12 @@
       </c>
       <c r="H421" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I421" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5114868&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5118945&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J421" t="inlineStr">
@@ -22024,7 +22024,7 @@
       </c>
       <c r="B452" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE RESIDUOS PELIGROSOS POR RUTAS DE LA REGIÓN DE ANTOFAGASTA</t>
+          <t>Proyecto Laboratorios Químicos CIMM T&amp;S SA. La Negra</t>
         </is>
       </c>
       <c r="C452" t="inlineStr">
@@ -22039,11 +22039,11 @@
       </c>
       <c r="E452" t="inlineStr">
         <is>
-          <t>Limfosep S.A</t>
+          <t>Yancko Gonzalez Rozas</t>
         </is>
       </c>
       <c r="F452" t="n">
-        <v>1000</v>
+        <v>8000</v>
       </c>
       <c r="G452" t="inlineStr">
         <is>
@@ -22052,12 +22052,12 @@
       </c>
       <c r="H452" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I452" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4698232&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4670031&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J452" t="inlineStr">
@@ -22072,7 +22072,7 @@
       </c>
       <c r="B453" t="inlineStr">
         <is>
-          <t>Proyecto Laboratorios Químicos CIMM T&amp;S SA. La Negra</t>
+          <t>TRANSPORTE DE RESIDUOS PELIGROSOS POR RUTAS DE LA REGIÓN DE ANTOFAGASTA</t>
         </is>
       </c>
       <c r="C453" t="inlineStr">
@@ -22087,11 +22087,11 @@
       </c>
       <c r="E453" t="inlineStr">
         <is>
-          <t>Yancko Gonzalez Rozas</t>
+          <t>Limfosep S.A</t>
         </is>
       </c>
       <c r="F453" t="n">
-        <v>8000</v>
+        <v>1000</v>
       </c>
       <c r="G453" t="inlineStr">
         <is>
@@ -22100,12 +22100,12 @@
       </c>
       <c r="H453" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I453" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4670031&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4698232&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J453" t="inlineStr">
@@ -22504,7 +22504,7 @@
       </c>
       <c r="B462" t="inlineStr">
         <is>
-          <t>EXPANSION DEPOSITO DE RELAVES FILTRADOS FAENA EL PEÑÓN</t>
+          <t>Nuevo Transporte Interregional de Cianuro de Sodio</t>
         </is>
       </c>
       <c r="C462" t="inlineStr">
@@ -22514,16 +22514,16 @@
       </c>
       <c r="D462" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E462" t="inlineStr">
         <is>
-          <t>Minera Meridian Limitada</t>
+          <t>OXIQUIM S.A.</t>
         </is>
       </c>
       <c r="F462" t="n">
-        <v>688</v>
+        <v>85</v>
       </c>
       <c r="G462" t="inlineStr">
         <is>
@@ -22532,12 +22532,12 @@
       </c>
       <c r="H462" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I462" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4601640&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4594007&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J462" t="inlineStr">
@@ -22552,7 +22552,7 @@
       </c>
       <c r="B463" t="inlineStr">
         <is>
-          <t>Nuevo Transporte Interregional de Cianuro de Sodio</t>
+          <t>EXPANSION DEPOSITO DE RELAVES FILTRADOS FAENA EL PEÑÓN</t>
         </is>
       </c>
       <c r="C463" t="inlineStr">
@@ -22562,16 +22562,16 @@
       </c>
       <c r="D463" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E463" t="inlineStr">
         <is>
-          <t>OXIQUIM S.A.</t>
+          <t>Minera Meridian Limitada</t>
         </is>
       </c>
       <c r="F463" t="n">
-        <v>85</v>
+        <v>688</v>
       </c>
       <c r="G463" t="inlineStr">
         <is>
@@ -22580,12 +22580,12 @@
       </c>
       <c r="H463" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I463" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4594007&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4601640&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J463" t="inlineStr">
@@ -23320,7 +23320,7 @@
       </c>
       <c r="B479" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligroso, Transporte Bello</t>
+          <t>Transporte de Barros Anódicos</t>
         </is>
       </c>
       <c r="C479" t="inlineStr">
@@ -23335,11 +23335,11 @@
       </c>
       <c r="E479" t="inlineStr">
         <is>
-          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
+          <t>CODELCO CHILE</t>
         </is>
       </c>
       <c r="F479" t="n">
-        <v>4050</v>
+        <v>0</v>
       </c>
       <c r="G479" t="inlineStr">
         <is>
@@ -23353,7 +23353,7 @@
       </c>
       <c r="I479" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4455518&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4429880&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J479" t="inlineStr">
@@ -23368,7 +23368,7 @@
       </c>
       <c r="B480" t="inlineStr">
         <is>
-          <t>Transporte de Barros Anódicos</t>
+          <t>Transporte de Residuos Peligroso, Transporte Bello</t>
         </is>
       </c>
       <c r="C480" t="inlineStr">
@@ -23383,11 +23383,11 @@
       </c>
       <c r="E480" t="inlineStr">
         <is>
-          <t>CODELCO CHILE</t>
+          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
         </is>
       </c>
       <c r="F480" t="n">
-        <v>0</v>
+        <v>4050</v>
       </c>
       <c r="G480" t="inlineStr">
         <is>
@@ -23401,7 +23401,7 @@
       </c>
       <c r="I480" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4429880&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4455518&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J480" t="inlineStr">
@@ -23512,7 +23512,7 @@
       </c>
       <c r="B483" t="inlineStr">
         <is>
-          <t>Modificacion Proyecto Minero Algorta Sector Pampa</t>
+          <t>Transporte y Almacenamiento temporal de Residuos Peligrosos M&amp;M ltda.</t>
         </is>
       </c>
       <c r="C483" t="inlineStr">
@@ -23522,16 +23522,16 @@
       </c>
       <c r="D483" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E483" t="inlineStr">
         <is>
-          <t>Algorta Norte S.A</t>
+          <t>Transportes Moscoso y Moscoso Ltda.</t>
         </is>
       </c>
       <c r="F483" t="n">
-        <v>6400</v>
+        <v>41075</v>
       </c>
       <c r="G483" t="inlineStr">
         <is>
@@ -23545,7 +23545,7 @@
       </c>
       <c r="I483" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4432700&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4422237&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J483" t="inlineStr">
@@ -23560,7 +23560,7 @@
       </c>
       <c r="B484" t="inlineStr">
         <is>
-          <t>Transporte y Almacenamiento temporal de Residuos Peligrosos M&amp;M ltda.</t>
+          <t>Modificacion Proyecto Minero Algorta Sector Pampa</t>
         </is>
       </c>
       <c r="C484" t="inlineStr">
@@ -23570,16 +23570,16 @@
       </c>
       <c r="D484" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E484" t="inlineStr">
         <is>
-          <t>Transportes Moscoso y Moscoso Ltda.</t>
+          <t>Algorta Norte S.A</t>
         </is>
       </c>
       <c r="F484" t="n">
-        <v>41075</v>
+        <v>6400</v>
       </c>
       <c r="G484" t="inlineStr">
         <is>
@@ -23593,7 +23593,7 @@
       </c>
       <c r="I484" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4422237&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4432700&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J484" t="inlineStr">

--- a/data/Antofagasta.xlsx
+++ b/data/Antofagasta.xlsx
@@ -12280,7 +12280,7 @@
       </c>
       <c r="B249" t="inlineStr">
         <is>
-          <t>Transporte Interregional de Sustancias Peligrosas - AGREDUCAM VI Región</t>
+          <t>Planta de Fabricación de Tuberías PEX (polietileno reticulado)</t>
         </is>
       </c>
       <c r="C249" t="inlineStr">
@@ -12290,16 +12290,16 @@
       </c>
       <c r="D249" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E249" t="inlineStr">
         <is>
-          <t>Asociación Gremial de Dueños de Camiones de la Sexta Región</t>
+          <t>CROSSPIPE SYSTEMS S.A.</t>
         </is>
       </c>
       <c r="F249" t="n">
-        <v>1200</v>
+        <v>12400</v>
       </c>
       <c r="G249" t="inlineStr">
         <is>
@@ -12313,7 +12313,7 @@
       </c>
       <c r="I249" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128964620&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128954293&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J249" t="inlineStr">
@@ -12328,7 +12328,7 @@
       </c>
       <c r="B250" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos por las Rutas Indicadas</t>
+          <t>Transporte Interregional de Sustancias Peligrosas - AGREDUCAM VI Región</t>
         </is>
       </c>
       <c r="C250" t="inlineStr">
@@ -12343,11 +12343,11 @@
       </c>
       <c r="E250" t="inlineStr">
         <is>
-          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
+          <t>Asociación Gremial de Dueños de Camiones de la Sexta Región</t>
         </is>
       </c>
       <c r="F250" t="n">
-        <v>0</v>
+        <v>1200</v>
       </c>
       <c r="G250" t="inlineStr">
         <is>
@@ -12361,7 +12361,7 @@
       </c>
       <c r="I250" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128972489&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128964620&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J250" t="inlineStr">
@@ -12376,7 +12376,7 @@
       </c>
       <c r="B251" t="inlineStr">
         <is>
-          <t>Planta de Fabricación de Tuberías PEX (polietileno reticulado)</t>
+          <t>Transporte de Residuos Peligrosos por las Rutas Indicadas</t>
         </is>
       </c>
       <c r="C251" t="inlineStr">
@@ -12386,16 +12386,16 @@
       </c>
       <c r="D251" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E251" t="inlineStr">
         <is>
-          <t>CROSSPIPE SYSTEMS S.A.</t>
+          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
         </is>
       </c>
       <c r="F251" t="n">
-        <v>12400</v>
+        <v>0</v>
       </c>
       <c r="G251" t="inlineStr">
         <is>
@@ -12409,7 +12409,7 @@
       </c>
       <c r="I251" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128954293&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128972489&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J251" t="inlineStr">
@@ -14008,26 +14008,26 @@
       </c>
       <c r="B285" t="inlineStr">
         <is>
-          <t>RT Sulfuros</t>
+          <t>Transporte de Sustancias Peligrosas Transaltisa Chile Ltda</t>
         </is>
       </c>
       <c r="C285" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D285" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E285" t="inlineStr">
         <is>
-          <t>CODELCO Chile, División Radomiro Tomic</t>
+          <t>Transaltisa Chile Ltda.</t>
         </is>
       </c>
       <c r="F285" t="n">
-        <v>5.4</v>
+        <v>2050</v>
       </c>
       <c r="G285" t="inlineStr">
         <is>
@@ -14036,12 +14036,12 @@
       </c>
       <c r="H285" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I285" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8210090&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8218613&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J285" t="inlineStr">
@@ -14056,26 +14056,26 @@
       </c>
       <c r="B286" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas Transaltisa Chile Ltda</t>
+          <t>RT Sulfuros</t>
         </is>
       </c>
       <c r="C286" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D286" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E286" t="inlineStr">
         <is>
-          <t>Transaltisa Chile Ltda.</t>
+          <t>CODELCO Chile, División Radomiro Tomic</t>
         </is>
       </c>
       <c r="F286" t="n">
-        <v>2050</v>
+        <v>5.4</v>
       </c>
       <c r="G286" t="inlineStr">
         <is>
@@ -14084,12 +14084,12 @@
       </c>
       <c r="H286" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I286" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8218613&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8210090&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J286" t="inlineStr">
@@ -16744,7 +16744,7 @@
       </c>
       <c r="B342" t="inlineStr">
         <is>
-          <t>Parque Fotovoltaico Los Andes</t>
+          <t>CENTRO DE RECUPERACIÓN DE TAMBORES Y CONTENEDORES IBC CONTAMINADOS, PLAMBIENTAL LA NEGRA</t>
         </is>
       </c>
       <c r="C342" t="inlineStr">
@@ -16759,11 +16759,11 @@
       </c>
       <c r="E342" t="inlineStr">
         <is>
-          <t>Andes Solar SPA</t>
+          <t>VEOLIA SERVICIOS MINEROS INTEGRALES CHILE SpA</t>
         </is>
       </c>
       <c r="F342" t="n">
-        <v>572000</v>
+        <v>60</v>
       </c>
       <c r="G342" t="inlineStr">
         <is>
@@ -16772,12 +16772,12 @@
       </c>
       <c r="H342" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Caducado</t>
         </is>
       </c>
       <c r="I342" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6581267&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6592870&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J342" t="inlineStr">
@@ -16792,7 +16792,7 @@
       </c>
       <c r="B343" t="inlineStr">
         <is>
-          <t>CENTRO DE RECUPERACIÓN DE TAMBORES Y CONTENEDORES IBC CONTAMINADOS, PLAMBIENTAL LA NEGRA</t>
+          <t>CENTRO DE ALMACENAMIENTO DE RESIDUOS INDUSTRIALES, GESAM LA NEGRA</t>
         </is>
       </c>
       <c r="C343" t="inlineStr">
@@ -16811,7 +16811,7 @@
         </is>
       </c>
       <c r="F343" t="n">
-        <v>60</v>
+        <v>360</v>
       </c>
       <c r="G343" t="inlineStr">
         <is>
@@ -16825,7 +16825,7 @@
       </c>
       <c r="I343" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6592870&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6595234&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J343" t="inlineStr">
@@ -16840,7 +16840,7 @@
       </c>
       <c r="B344" t="inlineStr">
         <is>
-          <t>CENTRO DE ALMACENAMIENTO DE RESIDUOS INDUSTRIALES, GESAM LA NEGRA</t>
+          <t>Parque Fotovoltaico Los Andes</t>
         </is>
       </c>
       <c r="C344" t="inlineStr">
@@ -16855,11 +16855,11 @@
       </c>
       <c r="E344" t="inlineStr">
         <is>
-          <t>VEOLIA SERVICIOS MINEROS INTEGRALES CHILE SpA</t>
+          <t>Andes Solar SPA</t>
         </is>
       </c>
       <c r="F344" t="n">
-        <v>360</v>
+        <v>572000</v>
       </c>
       <c r="G344" t="inlineStr">
         <is>
@@ -16868,12 +16868,12 @@
       </c>
       <c r="H344" t="inlineStr">
         <is>
-          <t>Caducado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I344" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6595234&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6581267&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J344" t="inlineStr">
@@ -17704,7 +17704,7 @@
       </c>
       <c r="B362" t="inlineStr">
         <is>
-          <t>Extracción de Áridos Empréstito E17L</t>
+          <t>Modificación Proyecto Transporte de Acido Sulfurico a granel entre la Primera y Décima Regiones de Chile</t>
         </is>
       </c>
       <c r="C362" t="inlineStr">
@@ -17714,16 +17714,16 @@
       </c>
       <c r="D362" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E362" t="inlineStr">
         <is>
-          <t>Skanska Chile S.A.</t>
+          <t>Transportes Herrmann Limitada</t>
         </is>
       </c>
       <c r="F362" t="n">
-        <v>500</v>
+        <v>0</v>
       </c>
       <c r="G362" t="inlineStr">
         <is>
@@ -17732,12 +17732,12 @@
       </c>
       <c r="H362" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I362" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6156264&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6159602&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J362" t="inlineStr">
@@ -17752,7 +17752,7 @@
       </c>
       <c r="B363" t="inlineStr">
         <is>
-          <t>Modificación Proyecto Transporte de Acido Sulfurico a granel entre la Primera y Décima Regiones de Chile</t>
+          <t>Extracción de Áridos Empréstito E17L</t>
         </is>
       </c>
       <c r="C363" t="inlineStr">
@@ -17762,16 +17762,16 @@
       </c>
       <c r="D363" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E363" t="inlineStr">
         <is>
-          <t>Transportes Herrmann Limitada</t>
+          <t>Skanska Chile S.A.</t>
         </is>
       </c>
       <c r="F363" t="n">
-        <v>0</v>
+        <v>500</v>
       </c>
       <c r="G363" t="inlineStr">
         <is>
@@ -17780,12 +17780,12 @@
       </c>
       <c r="H363" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I363" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6159602&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6156264&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J363" t="inlineStr">
@@ -18232,7 +18232,7 @@
       </c>
       <c r="B373" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos</t>
+          <t>Nuevas Instalaciones para Mantención Mina</t>
         </is>
       </c>
       <c r="C373" t="inlineStr">
@@ -18242,16 +18242,16 @@
       </c>
       <c r="D373" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E373" t="inlineStr">
         <is>
-          <t>Transportes TMS Limitada</t>
+          <t>MINERA ESCONDIDA LIMITADA</t>
         </is>
       </c>
       <c r="F373" t="n">
-        <v>200</v>
+        <v>635000</v>
       </c>
       <c r="G373" t="inlineStr">
         <is>
@@ -18260,12 +18260,12 @@
       </c>
       <c r="H373" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I373" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6003582&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5931343&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J373" t="inlineStr">
@@ -18280,7 +18280,7 @@
       </c>
       <c r="B374" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas entre la I, II y III Regiones"</t>
+          <t>Transporte de Residuos Peligrosos</t>
         </is>
       </c>
       <c r="C374" t="inlineStr">
@@ -18295,11 +18295,11 @@
       </c>
       <c r="E374" t="inlineStr">
         <is>
-          <t>Molina Quimicos S.A.</t>
+          <t>Transportes TMS Limitada</t>
         </is>
       </c>
       <c r="F374" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="G374" t="inlineStr">
         <is>
@@ -18313,7 +18313,7 @@
       </c>
       <c r="I374" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6003607&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6003582&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J374" t="inlineStr">
@@ -18328,7 +18328,7 @@
       </c>
       <c r="B375" t="inlineStr">
         <is>
-          <t>Nuevas Instalaciones para Mantención Mina</t>
+          <t>Transporte de Sustancias Peligrosas entre la I, II y III Regiones"</t>
         </is>
       </c>
       <c r="C375" t="inlineStr">
@@ -18338,16 +18338,16 @@
       </c>
       <c r="D375" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E375" t="inlineStr">
         <is>
-          <t>MINERA ESCONDIDA LIMITADA</t>
+          <t>Molina Quimicos S.A.</t>
         </is>
       </c>
       <c r="F375" t="n">
-        <v>635000</v>
+        <v>100</v>
       </c>
       <c r="G375" t="inlineStr">
         <is>
@@ -18356,12 +18356,12 @@
       </c>
       <c r="H375" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I375" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5931343&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6003607&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J375" t="inlineStr">
@@ -20584,7 +20584,7 @@
       </c>
       <c r="B422" t="inlineStr">
         <is>
-          <t>"Transporte de acido sulfurico concentrado para minera Las Cenizas, Taltal."</t>
+          <t>II MODIFICACIÓN DIA "TRANSPORTE Y MANEJO IN SITU DE RESIDUOS SÓLIDOS Y LÍQUIDOS PELIGROSOS Y NO PELIGROSOS"</t>
         </is>
       </c>
       <c r="C422" t="inlineStr">
@@ -20594,16 +20594,16 @@
       </c>
       <c r="D422" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E422" t="inlineStr">
         <is>
-          <t>Translog S.A.</t>
+          <t>Mol Ambiente S.A.</t>
         </is>
       </c>
       <c r="F422" t="n">
-        <v>600</v>
+        <v>75000</v>
       </c>
       <c r="G422" t="inlineStr">
         <is>
@@ -20612,12 +20612,12 @@
       </c>
       <c r="H422" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I422" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5114868&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5118945&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J422" t="inlineStr">
@@ -20632,7 +20632,7 @@
       </c>
       <c r="B423" t="inlineStr">
         <is>
-          <t>II MODIFICACIÓN DIA "TRANSPORTE Y MANEJO IN SITU DE RESIDUOS SÓLIDOS Y LÍQUIDOS PELIGROSOS Y NO PELIGROSOS"</t>
+          <t>"Transporte de acido sulfurico concentrado para minera Las Cenizas, Taltal."</t>
         </is>
       </c>
       <c r="C423" t="inlineStr">
@@ -20642,16 +20642,16 @@
       </c>
       <c r="D423" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E423" t="inlineStr">
         <is>
-          <t>Mol Ambiente S.A.</t>
+          <t>Translog S.A.</t>
         </is>
       </c>
       <c r="F423" t="n">
-        <v>75000</v>
+        <v>600</v>
       </c>
       <c r="G423" t="inlineStr">
         <is>
@@ -20660,12 +20660,12 @@
       </c>
       <c r="H423" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I423" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5118945&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5114868&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J423" t="inlineStr">
@@ -22120,7 +22120,7 @@
       </c>
       <c r="B454" t="inlineStr">
         <is>
-          <t>Proyecto Laboratorios Químicos CIMM T&amp;S SA. La Negra</t>
+          <t>TRANSPORTE DE RESIDUOS PELIGROSOS POR RUTAS DE LA REGIÓN DE ANTOFAGASTA</t>
         </is>
       </c>
       <c r="C454" t="inlineStr">
@@ -22135,11 +22135,11 @@
       </c>
       <c r="E454" t="inlineStr">
         <is>
-          <t>Yancko Gonzalez Rozas</t>
+          <t>Limfosep S.A</t>
         </is>
       </c>
       <c r="F454" t="n">
-        <v>8000</v>
+        <v>1000</v>
       </c>
       <c r="G454" t="inlineStr">
         <is>
@@ -22148,12 +22148,12 @@
       </c>
       <c r="H454" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I454" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4670031&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4698232&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J454" t="inlineStr">
@@ -22168,7 +22168,7 @@
       </c>
       <c r="B455" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE RESIDUOS PELIGROSOS POR RUTAS DE LA REGIÓN DE ANTOFAGASTA</t>
+          <t>Proyecto Laboratorios Químicos CIMM T&amp;S SA. La Negra</t>
         </is>
       </c>
       <c r="C455" t="inlineStr">
@@ -22183,11 +22183,11 @@
       </c>
       <c r="E455" t="inlineStr">
         <is>
-          <t>Limfosep S.A</t>
+          <t>Yancko Gonzalez Rozas</t>
         </is>
       </c>
       <c r="F455" t="n">
-        <v>1000</v>
+        <v>8000</v>
       </c>
       <c r="G455" t="inlineStr">
         <is>
@@ -22196,12 +22196,12 @@
       </c>
       <c r="H455" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I455" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4698232&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4670031&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J455" t="inlineStr">
@@ -22600,7 +22600,7 @@
       </c>
       <c r="B464" t="inlineStr">
         <is>
-          <t>Nuevo Transporte Interregional de Cianuro de Sodio</t>
+          <t>EXPANSION DEPOSITO DE RELAVES FILTRADOS FAENA EL PEÑÓN</t>
         </is>
       </c>
       <c r="C464" t="inlineStr">
@@ -22610,16 +22610,16 @@
       </c>
       <c r="D464" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E464" t="inlineStr">
         <is>
-          <t>OXIQUIM S.A.</t>
+          <t>Minera Meridian Limitada</t>
         </is>
       </c>
       <c r="F464" t="n">
-        <v>85</v>
+        <v>688</v>
       </c>
       <c r="G464" t="inlineStr">
         <is>
@@ -22628,12 +22628,12 @@
       </c>
       <c r="H464" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I464" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4594007&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4601640&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J464" t="inlineStr">
@@ -22648,7 +22648,7 @@
       </c>
       <c r="B465" t="inlineStr">
         <is>
-          <t>EXPANSION DEPOSITO DE RELAVES FILTRADOS FAENA EL PEÑÓN</t>
+          <t>Nuevo Transporte Interregional de Cianuro de Sodio</t>
         </is>
       </c>
       <c r="C465" t="inlineStr">
@@ -22658,16 +22658,16 @@
       </c>
       <c r="D465" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E465" t="inlineStr">
         <is>
-          <t>Minera Meridian Limitada</t>
+          <t>OXIQUIM S.A.</t>
         </is>
       </c>
       <c r="F465" t="n">
-        <v>688</v>
+        <v>85</v>
       </c>
       <c r="G465" t="inlineStr">
         <is>
@@ -22676,12 +22676,12 @@
       </c>
       <c r="H465" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I465" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4601640&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4594007&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J465" t="inlineStr">

--- a/data/Antofagasta.xlsx
+++ b/data/Antofagasta.xlsx
@@ -12280,7 +12280,7 @@
       </c>
       <c r="B249" t="inlineStr">
         <is>
-          <t>Planta de Fabricación de Tuberías PEX (polietileno reticulado)</t>
+          <t>Transporte Interregional de Sustancias Peligrosas - AGREDUCAM VI Región</t>
         </is>
       </c>
       <c r="C249" t="inlineStr">
@@ -12290,16 +12290,16 @@
       </c>
       <c r="D249" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E249" t="inlineStr">
         <is>
-          <t>CROSSPIPE SYSTEMS S.A.</t>
+          <t>Asociación Gremial de Dueños de Camiones de la Sexta Región</t>
         </is>
       </c>
       <c r="F249" t="n">
-        <v>12400</v>
+        <v>1200</v>
       </c>
       <c r="G249" t="inlineStr">
         <is>
@@ -12313,7 +12313,7 @@
       </c>
       <c r="I249" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128954293&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128964620&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J249" t="inlineStr">
@@ -12328,7 +12328,7 @@
       </c>
       <c r="B250" t="inlineStr">
         <is>
-          <t>Transporte Interregional de Sustancias Peligrosas - AGREDUCAM VI Región</t>
+          <t>Transporte de Residuos Peligrosos por las Rutas Indicadas</t>
         </is>
       </c>
       <c r="C250" t="inlineStr">
@@ -12343,11 +12343,11 @@
       </c>
       <c r="E250" t="inlineStr">
         <is>
-          <t>Asociación Gremial de Dueños de Camiones de la Sexta Región</t>
+          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
         </is>
       </c>
       <c r="F250" t="n">
-        <v>1200</v>
+        <v>0</v>
       </c>
       <c r="G250" t="inlineStr">
         <is>
@@ -12361,7 +12361,7 @@
       </c>
       <c r="I250" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128964620&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128972489&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J250" t="inlineStr">
@@ -12376,7 +12376,7 @@
       </c>
       <c r="B251" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos por las Rutas Indicadas</t>
+          <t>Planta de Fabricación de Tuberías PEX (polietileno reticulado)</t>
         </is>
       </c>
       <c r="C251" t="inlineStr">
@@ -12386,16 +12386,16 @@
       </c>
       <c r="D251" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E251" t="inlineStr">
         <is>
-          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
+          <t>CROSSPIPE SYSTEMS S.A.</t>
         </is>
       </c>
       <c r="F251" t="n">
-        <v>0</v>
+        <v>12400</v>
       </c>
       <c r="G251" t="inlineStr">
         <is>
@@ -12409,7 +12409,7 @@
       </c>
       <c r="I251" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128972489&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128954293&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J251" t="inlineStr">
@@ -14008,26 +14008,26 @@
       </c>
       <c r="B285" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas Transaltisa Chile Ltda</t>
+          <t>RT Sulfuros</t>
         </is>
       </c>
       <c r="C285" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D285" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E285" t="inlineStr">
         <is>
-          <t>Transaltisa Chile Ltda.</t>
+          <t>CODELCO Chile, División Radomiro Tomic</t>
         </is>
       </c>
       <c r="F285" t="n">
-        <v>2050</v>
+        <v>5.4</v>
       </c>
       <c r="G285" t="inlineStr">
         <is>
@@ -14036,12 +14036,12 @@
       </c>
       <c r="H285" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I285" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8218613&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8210090&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J285" t="inlineStr">
@@ -14056,26 +14056,26 @@
       </c>
       <c r="B286" t="inlineStr">
         <is>
-          <t>RT Sulfuros</t>
+          <t>Transporte de Sustancias Peligrosas Transaltisa Chile Ltda</t>
         </is>
       </c>
       <c r="C286" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D286" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E286" t="inlineStr">
         <is>
-          <t>CODELCO Chile, División Radomiro Tomic</t>
+          <t>Transaltisa Chile Ltda.</t>
         </is>
       </c>
       <c r="F286" t="n">
-        <v>5.4</v>
+        <v>2050</v>
       </c>
       <c r="G286" t="inlineStr">
         <is>
@@ -14084,12 +14084,12 @@
       </c>
       <c r="H286" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I286" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8210090&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8218613&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J286" t="inlineStr">
@@ -16744,7 +16744,7 @@
       </c>
       <c r="B342" t="inlineStr">
         <is>
-          <t>CENTRO DE RECUPERACIÓN DE TAMBORES Y CONTENEDORES IBC CONTAMINADOS, PLAMBIENTAL LA NEGRA</t>
+          <t>Parque Fotovoltaico Los Andes</t>
         </is>
       </c>
       <c r="C342" t="inlineStr">
@@ -16759,11 +16759,11 @@
       </c>
       <c r="E342" t="inlineStr">
         <is>
-          <t>VEOLIA SERVICIOS MINEROS INTEGRALES CHILE SpA</t>
+          <t>Andes Solar SPA</t>
         </is>
       </c>
       <c r="F342" t="n">
-        <v>60</v>
+        <v>572000</v>
       </c>
       <c r="G342" t="inlineStr">
         <is>
@@ -16772,12 +16772,12 @@
       </c>
       <c r="H342" t="inlineStr">
         <is>
-          <t>Caducado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I342" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6592870&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6581267&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J342" t="inlineStr">
@@ -16792,7 +16792,7 @@
       </c>
       <c r="B343" t="inlineStr">
         <is>
-          <t>CENTRO DE ALMACENAMIENTO DE RESIDUOS INDUSTRIALES, GESAM LA NEGRA</t>
+          <t>CENTRO DE RECUPERACIÓN DE TAMBORES Y CONTENEDORES IBC CONTAMINADOS, PLAMBIENTAL LA NEGRA</t>
         </is>
       </c>
       <c r="C343" t="inlineStr">
@@ -16811,7 +16811,7 @@
         </is>
       </c>
       <c r="F343" t="n">
-        <v>360</v>
+        <v>60</v>
       </c>
       <c r="G343" t="inlineStr">
         <is>
@@ -16825,7 +16825,7 @@
       </c>
       <c r="I343" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6595234&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6592870&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J343" t="inlineStr">
@@ -16840,7 +16840,7 @@
       </c>
       <c r="B344" t="inlineStr">
         <is>
-          <t>Parque Fotovoltaico Los Andes</t>
+          <t>CENTRO DE ALMACENAMIENTO DE RESIDUOS INDUSTRIALES, GESAM LA NEGRA</t>
         </is>
       </c>
       <c r="C344" t="inlineStr">
@@ -16855,11 +16855,11 @@
       </c>
       <c r="E344" t="inlineStr">
         <is>
-          <t>Andes Solar SPA</t>
+          <t>VEOLIA SERVICIOS MINEROS INTEGRALES CHILE SpA</t>
         </is>
       </c>
       <c r="F344" t="n">
-        <v>572000</v>
+        <v>360</v>
       </c>
       <c r="G344" t="inlineStr">
         <is>
@@ -16868,12 +16868,12 @@
       </c>
       <c r="H344" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Caducado</t>
         </is>
       </c>
       <c r="I344" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6581267&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6595234&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J344" t="inlineStr">
@@ -17704,7 +17704,7 @@
       </c>
       <c r="B362" t="inlineStr">
         <is>
-          <t>Modificación Proyecto Transporte de Acido Sulfurico a granel entre la Primera y Décima Regiones de Chile</t>
+          <t>Extracción de Áridos Empréstito E17L</t>
         </is>
       </c>
       <c r="C362" t="inlineStr">
@@ -17714,16 +17714,16 @@
       </c>
       <c r="D362" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E362" t="inlineStr">
         <is>
-          <t>Transportes Herrmann Limitada</t>
+          <t>Skanska Chile S.A.</t>
         </is>
       </c>
       <c r="F362" t="n">
-        <v>0</v>
+        <v>500</v>
       </c>
       <c r="G362" t="inlineStr">
         <is>
@@ -17732,12 +17732,12 @@
       </c>
       <c r="H362" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I362" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6159602&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6156264&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J362" t="inlineStr">
@@ -17752,7 +17752,7 @@
       </c>
       <c r="B363" t="inlineStr">
         <is>
-          <t>Extracción de Áridos Empréstito E17L</t>
+          <t>Modificación Proyecto Transporte de Acido Sulfurico a granel entre la Primera y Décima Regiones de Chile</t>
         </is>
       </c>
       <c r="C363" t="inlineStr">
@@ -17762,16 +17762,16 @@
       </c>
       <c r="D363" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E363" t="inlineStr">
         <is>
-          <t>Skanska Chile S.A.</t>
+          <t>Transportes Herrmann Limitada</t>
         </is>
       </c>
       <c r="F363" t="n">
-        <v>500</v>
+        <v>0</v>
       </c>
       <c r="G363" t="inlineStr">
         <is>
@@ -17780,12 +17780,12 @@
       </c>
       <c r="H363" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I363" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6156264&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6159602&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J363" t="inlineStr">
@@ -18232,7 +18232,7 @@
       </c>
       <c r="B373" t="inlineStr">
         <is>
-          <t>Nuevas Instalaciones para Mantención Mina</t>
+          <t>Transporte de Residuos Peligrosos</t>
         </is>
       </c>
       <c r="C373" t="inlineStr">
@@ -18242,16 +18242,16 @@
       </c>
       <c r="D373" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E373" t="inlineStr">
         <is>
-          <t>MINERA ESCONDIDA LIMITADA</t>
+          <t>Transportes TMS Limitada</t>
         </is>
       </c>
       <c r="F373" t="n">
-        <v>635000</v>
+        <v>200</v>
       </c>
       <c r="G373" t="inlineStr">
         <is>
@@ -18260,12 +18260,12 @@
       </c>
       <c r="H373" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I373" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5931343&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6003582&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J373" t="inlineStr">
@@ -18280,7 +18280,7 @@
       </c>
       <c r="B374" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos</t>
+          <t>Transporte de Sustancias Peligrosas entre la I, II y III Regiones"</t>
         </is>
       </c>
       <c r="C374" t="inlineStr">
@@ -18295,11 +18295,11 @@
       </c>
       <c r="E374" t="inlineStr">
         <is>
-          <t>Transportes TMS Limitada</t>
+          <t>Molina Quimicos S.A.</t>
         </is>
       </c>
       <c r="F374" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="G374" t="inlineStr">
         <is>
@@ -18313,7 +18313,7 @@
       </c>
       <c r="I374" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6003582&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6003607&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J374" t="inlineStr">
@@ -18328,7 +18328,7 @@
       </c>
       <c r="B375" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas entre la I, II y III Regiones"</t>
+          <t>Nuevas Instalaciones para Mantención Mina</t>
         </is>
       </c>
       <c r="C375" t="inlineStr">
@@ -18338,16 +18338,16 @@
       </c>
       <c r="D375" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E375" t="inlineStr">
         <is>
-          <t>Molina Quimicos S.A.</t>
+          <t>MINERA ESCONDIDA LIMITADA</t>
         </is>
       </c>
       <c r="F375" t="n">
-        <v>100</v>
+        <v>635000</v>
       </c>
       <c r="G375" t="inlineStr">
         <is>
@@ -18356,12 +18356,12 @@
       </c>
       <c r="H375" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I375" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6003607&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5931343&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J375" t="inlineStr">
@@ -20584,7 +20584,7 @@
       </c>
       <c r="B422" t="inlineStr">
         <is>
-          <t>II MODIFICACIÓN DIA "TRANSPORTE Y MANEJO IN SITU DE RESIDUOS SÓLIDOS Y LÍQUIDOS PELIGROSOS Y NO PELIGROSOS"</t>
+          <t>"Transporte de acido sulfurico concentrado para minera Las Cenizas, Taltal."</t>
         </is>
       </c>
       <c r="C422" t="inlineStr">
@@ -20594,16 +20594,16 @@
       </c>
       <c r="D422" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E422" t="inlineStr">
         <is>
-          <t>Mol Ambiente S.A.</t>
+          <t>Translog S.A.</t>
         </is>
       </c>
       <c r="F422" t="n">
-        <v>75000</v>
+        <v>600</v>
       </c>
       <c r="G422" t="inlineStr">
         <is>
@@ -20612,12 +20612,12 @@
       </c>
       <c r="H422" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I422" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5118945&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5114868&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J422" t="inlineStr">
@@ -20632,7 +20632,7 @@
       </c>
       <c r="B423" t="inlineStr">
         <is>
-          <t>"Transporte de acido sulfurico concentrado para minera Las Cenizas, Taltal."</t>
+          <t>II MODIFICACIÓN DIA "TRANSPORTE Y MANEJO IN SITU DE RESIDUOS SÓLIDOS Y LÍQUIDOS PELIGROSOS Y NO PELIGROSOS"</t>
         </is>
       </c>
       <c r="C423" t="inlineStr">
@@ -20642,16 +20642,16 @@
       </c>
       <c r="D423" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E423" t="inlineStr">
         <is>
-          <t>Translog S.A.</t>
+          <t>Mol Ambiente S.A.</t>
         </is>
       </c>
       <c r="F423" t="n">
-        <v>600</v>
+        <v>75000</v>
       </c>
       <c r="G423" t="inlineStr">
         <is>
@@ -20660,12 +20660,12 @@
       </c>
       <c r="H423" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I423" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5114868&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5118945&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J423" t="inlineStr">
@@ -22120,7 +22120,7 @@
       </c>
       <c r="B454" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE RESIDUOS PELIGROSOS POR RUTAS DE LA REGIÓN DE ANTOFAGASTA</t>
+          <t>Proyecto Laboratorios Químicos CIMM T&amp;S SA. La Negra</t>
         </is>
       </c>
       <c r="C454" t="inlineStr">
@@ -22135,11 +22135,11 @@
       </c>
       <c r="E454" t="inlineStr">
         <is>
-          <t>Limfosep S.A</t>
+          <t>Yancko Gonzalez Rozas</t>
         </is>
       </c>
       <c r="F454" t="n">
-        <v>1000</v>
+        <v>8000</v>
       </c>
       <c r="G454" t="inlineStr">
         <is>
@@ -22148,12 +22148,12 @@
       </c>
       <c r="H454" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I454" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4698232&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4670031&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J454" t="inlineStr">
@@ -22168,7 +22168,7 @@
       </c>
       <c r="B455" t="inlineStr">
         <is>
-          <t>Proyecto Laboratorios Químicos CIMM T&amp;S SA. La Negra</t>
+          <t>TRANSPORTE DE RESIDUOS PELIGROSOS POR RUTAS DE LA REGIÓN DE ANTOFAGASTA</t>
         </is>
       </c>
       <c r="C455" t="inlineStr">
@@ -22183,11 +22183,11 @@
       </c>
       <c r="E455" t="inlineStr">
         <is>
-          <t>Yancko Gonzalez Rozas</t>
+          <t>Limfosep S.A</t>
         </is>
       </c>
       <c r="F455" t="n">
-        <v>8000</v>
+        <v>1000</v>
       </c>
       <c r="G455" t="inlineStr">
         <is>
@@ -22196,12 +22196,12 @@
       </c>
       <c r="H455" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I455" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4670031&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4698232&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J455" t="inlineStr">
@@ -22600,7 +22600,7 @@
       </c>
       <c r="B464" t="inlineStr">
         <is>
-          <t>EXPANSION DEPOSITO DE RELAVES FILTRADOS FAENA EL PEÑÓN</t>
+          <t>Nuevo Transporte Interregional de Cianuro de Sodio</t>
         </is>
       </c>
       <c r="C464" t="inlineStr">
@@ -22610,16 +22610,16 @@
       </c>
       <c r="D464" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E464" t="inlineStr">
         <is>
-          <t>Minera Meridian Limitada</t>
+          <t>OXIQUIM S.A.</t>
         </is>
       </c>
       <c r="F464" t="n">
-        <v>688</v>
+        <v>85</v>
       </c>
       <c r="G464" t="inlineStr">
         <is>
@@ -22628,12 +22628,12 @@
       </c>
       <c r="H464" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I464" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4601640&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4594007&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J464" t="inlineStr">
@@ -22648,7 +22648,7 @@
       </c>
       <c r="B465" t="inlineStr">
         <is>
-          <t>Nuevo Transporte Interregional de Cianuro de Sodio</t>
+          <t>EXPANSION DEPOSITO DE RELAVES FILTRADOS FAENA EL PEÑÓN</t>
         </is>
       </c>
       <c r="C465" t="inlineStr">
@@ -22658,16 +22658,16 @@
       </c>
       <c r="D465" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E465" t="inlineStr">
         <is>
-          <t>OXIQUIM S.A.</t>
+          <t>Minera Meridian Limitada</t>
         </is>
       </c>
       <c r="F465" t="n">
-        <v>85</v>
+        <v>688</v>
       </c>
       <c r="G465" t="inlineStr">
         <is>
@@ -22676,12 +22676,12 @@
       </c>
       <c r="H465" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I465" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4594007&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4601640&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J465" t="inlineStr">

--- a/data/Antofagasta.xlsx
+++ b/data/Antofagasta.xlsx
@@ -424,12 +424,12 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Actualización de Recursos y Reserva Parte II, Explotación Subterránea Pampa Augusta Victoria de Faena Minera El Peñón</t>
+          <t>Extensión El Way Este</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -439,25 +439,25 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Minera Meridian Limitada</t>
+          <t>Bio Bio Cementos S.A.</t>
         </is>
       </c>
       <c r="F2" t="n">
-        <v>5600</v>
+        <v>75000</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>19/04/2023</t>
+          <t>24/04/2023</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>En Admisión</t>
+          <t>En Calificación</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2158921029&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2158996386&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
@@ -472,12 +472,12 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Extensión El Way Este</t>
+          <t>Actualización de Recursos y Reserva Parte II, Explotación Subterránea Pampa Augusta Victoria de Faena Minera El Peñón</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -487,15 +487,15 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Bio Bio Cementos S.A.</t>
+          <t>Minera Meridian Limitada</t>
         </is>
       </c>
       <c r="F3" t="n">
-        <v>75000</v>
+        <v>5600</v>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>17/04/2023</t>
+          <t>19/04/2023</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
@@ -505,7 +505,7 @@
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2158996386&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2158921029&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">

--- a/data/Antofagasta.xlsx
+++ b/data/Antofagasta.xlsx
@@ -424,12 +424,12 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Extensión El Way Este</t>
+          <t>Actualización de Recursos y Reserva Parte II, Explotación Subterránea Pampa Augusta Victoria de Faena Minera El Peñón</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -439,15 +439,15 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Bio Bio Cementos S.A.</t>
+          <t>Minera Meridian Limitada</t>
         </is>
       </c>
       <c r="F2" t="n">
-        <v>75000</v>
+        <v>5600</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>24/04/2023</t>
+          <t>25/04/2023</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
@@ -457,7 +457,7 @@
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2158996386&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2158921029&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
@@ -472,12 +472,12 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Actualización de Recursos y Reserva Parte II, Explotación Subterránea Pampa Augusta Victoria de Faena Minera El Peñón</t>
+          <t>Extensión El Way Este</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -487,25 +487,25 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Minera Meridian Limitada</t>
+          <t>Bio Bio Cementos S.A.</t>
         </is>
       </c>
       <c r="F3" t="n">
-        <v>5600</v>
+        <v>75000</v>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>19/04/2023</t>
+          <t>24/04/2023</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>En Admisión</t>
+          <t>En Calificación</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2158921029&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2158996386&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
@@ -12280,7 +12280,7 @@
       </c>
       <c r="B249" t="inlineStr">
         <is>
-          <t>Transporte Interregional de Sustancias Peligrosas - AGREDUCAM VI Región</t>
+          <t>Planta de Fabricación de Tuberías PEX (polietileno reticulado)</t>
         </is>
       </c>
       <c r="C249" t="inlineStr">
@@ -12290,16 +12290,16 @@
       </c>
       <c r="D249" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E249" t="inlineStr">
         <is>
-          <t>Asociación Gremial de Dueños de Camiones de la Sexta Región</t>
+          <t>CROSSPIPE SYSTEMS S.A.</t>
         </is>
       </c>
       <c r="F249" t="n">
-        <v>1200</v>
+        <v>12400</v>
       </c>
       <c r="G249" t="inlineStr">
         <is>
@@ -12313,7 +12313,7 @@
       </c>
       <c r="I249" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128964620&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128954293&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J249" t="inlineStr">
@@ -12328,7 +12328,7 @@
       </c>
       <c r="B250" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos por las Rutas Indicadas</t>
+          <t>Transporte Interregional de Sustancias Peligrosas - AGREDUCAM VI Región</t>
         </is>
       </c>
       <c r="C250" t="inlineStr">
@@ -12343,11 +12343,11 @@
       </c>
       <c r="E250" t="inlineStr">
         <is>
-          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
+          <t>Asociación Gremial de Dueños de Camiones de la Sexta Región</t>
         </is>
       </c>
       <c r="F250" t="n">
-        <v>0</v>
+        <v>1200</v>
       </c>
       <c r="G250" t="inlineStr">
         <is>
@@ -12361,7 +12361,7 @@
       </c>
       <c r="I250" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128972489&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128964620&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J250" t="inlineStr">
@@ -12376,7 +12376,7 @@
       </c>
       <c r="B251" t="inlineStr">
         <is>
-          <t>Planta de Fabricación de Tuberías PEX (polietileno reticulado)</t>
+          <t>Transporte de Residuos Peligrosos por las Rutas Indicadas</t>
         </is>
       </c>
       <c r="C251" t="inlineStr">
@@ -12386,16 +12386,16 @@
       </c>
       <c r="D251" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E251" t="inlineStr">
         <is>
-          <t>CROSSPIPE SYSTEMS S.A.</t>
+          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
         </is>
       </c>
       <c r="F251" t="n">
-        <v>12400</v>
+        <v>0</v>
       </c>
       <c r="G251" t="inlineStr">
         <is>
@@ -12409,7 +12409,7 @@
       </c>
       <c r="I251" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128954293&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128972489&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J251" t="inlineStr">
@@ -14008,26 +14008,26 @@
       </c>
       <c r="B285" t="inlineStr">
         <is>
-          <t>RT Sulfuros</t>
+          <t>Transporte de Sustancias Peligrosas Transaltisa Chile Ltda</t>
         </is>
       </c>
       <c r="C285" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D285" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E285" t="inlineStr">
         <is>
-          <t>CODELCO Chile, División Radomiro Tomic</t>
+          <t>Transaltisa Chile Ltda.</t>
         </is>
       </c>
       <c r="F285" t="n">
-        <v>5.4</v>
+        <v>2050</v>
       </c>
       <c r="G285" t="inlineStr">
         <is>
@@ -14036,12 +14036,12 @@
       </c>
       <c r="H285" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I285" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8210090&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8218613&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J285" t="inlineStr">
@@ -14056,26 +14056,26 @@
       </c>
       <c r="B286" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas Transaltisa Chile Ltda</t>
+          <t>RT Sulfuros</t>
         </is>
       </c>
       <c r="C286" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D286" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E286" t="inlineStr">
         <is>
-          <t>Transaltisa Chile Ltda.</t>
+          <t>CODELCO Chile, División Radomiro Tomic</t>
         </is>
       </c>
       <c r="F286" t="n">
-        <v>2050</v>
+        <v>5.4</v>
       </c>
       <c r="G286" t="inlineStr">
         <is>
@@ -14084,12 +14084,12 @@
       </c>
       <c r="H286" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I286" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8218613&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8210090&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J286" t="inlineStr">
@@ -16744,7 +16744,7 @@
       </c>
       <c r="B342" t="inlineStr">
         <is>
-          <t>Parque Fotovoltaico Los Andes</t>
+          <t>CENTRO DE RECUPERACIÓN DE TAMBORES Y CONTENEDORES IBC CONTAMINADOS, PLAMBIENTAL LA NEGRA</t>
         </is>
       </c>
       <c r="C342" t="inlineStr">
@@ -16759,11 +16759,11 @@
       </c>
       <c r="E342" t="inlineStr">
         <is>
-          <t>Andes Solar SPA</t>
+          <t>VEOLIA SERVICIOS MINEROS INTEGRALES CHILE SpA</t>
         </is>
       </c>
       <c r="F342" t="n">
-        <v>572000</v>
+        <v>60</v>
       </c>
       <c r="G342" t="inlineStr">
         <is>
@@ -16772,12 +16772,12 @@
       </c>
       <c r="H342" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Caducado</t>
         </is>
       </c>
       <c r="I342" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6581267&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6592870&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J342" t="inlineStr">
@@ -16792,7 +16792,7 @@
       </c>
       <c r="B343" t="inlineStr">
         <is>
-          <t>CENTRO DE RECUPERACIÓN DE TAMBORES Y CONTENEDORES IBC CONTAMINADOS, PLAMBIENTAL LA NEGRA</t>
+          <t>CENTRO DE ALMACENAMIENTO DE RESIDUOS INDUSTRIALES, GESAM LA NEGRA</t>
         </is>
       </c>
       <c r="C343" t="inlineStr">
@@ -16811,7 +16811,7 @@
         </is>
       </c>
       <c r="F343" t="n">
-        <v>60</v>
+        <v>360</v>
       </c>
       <c r="G343" t="inlineStr">
         <is>
@@ -16825,7 +16825,7 @@
       </c>
       <c r="I343" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6592870&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6595234&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J343" t="inlineStr">
@@ -16840,7 +16840,7 @@
       </c>
       <c r="B344" t="inlineStr">
         <is>
-          <t>CENTRO DE ALMACENAMIENTO DE RESIDUOS INDUSTRIALES, GESAM LA NEGRA</t>
+          <t>Parque Fotovoltaico Los Andes</t>
         </is>
       </c>
       <c r="C344" t="inlineStr">
@@ -16855,11 +16855,11 @@
       </c>
       <c r="E344" t="inlineStr">
         <is>
-          <t>VEOLIA SERVICIOS MINEROS INTEGRALES CHILE SpA</t>
+          <t>Andes Solar SPA</t>
         </is>
       </c>
       <c r="F344" t="n">
-        <v>360</v>
+        <v>572000</v>
       </c>
       <c r="G344" t="inlineStr">
         <is>
@@ -16868,12 +16868,12 @@
       </c>
       <c r="H344" t="inlineStr">
         <is>
-          <t>Caducado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I344" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6595234&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6581267&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J344" t="inlineStr">
@@ -17032,7 +17032,7 @@
       </c>
       <c r="B348" t="inlineStr">
         <is>
-          <t>MODIFICACION DE LA DECLARACIÓN DE IMPACTO AMBIENTAL PROYECTO TRANSPORTE DE SULFHIDRATO DE SODIO EN LA PRIMERA Y SEGUNDA REGION</t>
+          <t>Transporte de Residuos Peligrosos</t>
         </is>
       </c>
       <c r="C348" t="inlineStr">
@@ -17047,11 +17047,11 @@
       </c>
       <c r="E348" t="inlineStr">
         <is>
-          <t>Sociedad de Transportes Camaro Ltda.</t>
+          <t>Transportes TMS Limitada</t>
         </is>
       </c>
       <c r="F348" t="n">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="G348" t="inlineStr">
         <is>
@@ -17065,7 +17065,7 @@
       </c>
       <c r="I348" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6450945&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6479568&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J348" t="inlineStr">
@@ -17080,7 +17080,7 @@
       </c>
       <c r="B349" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos</t>
+          <t>MODIFICACION DE LA DECLARACIÓN DE IMPACTO AMBIENTAL PROYECTO TRANSPORTE DE SULFHIDRATO DE SODIO EN LA PRIMERA Y SEGUNDA REGION</t>
         </is>
       </c>
       <c r="C349" t="inlineStr">
@@ -17095,11 +17095,11 @@
       </c>
       <c r="E349" t="inlineStr">
         <is>
-          <t>Transportes TMS Limitada</t>
+          <t>Sociedad de Transportes Camaro Ltda.</t>
         </is>
       </c>
       <c r="F349" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="G349" t="inlineStr">
         <is>
@@ -17113,7 +17113,7 @@
       </c>
       <c r="I349" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6479568&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6450945&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J349" t="inlineStr">
@@ -17704,7 +17704,7 @@
       </c>
       <c r="B362" t="inlineStr">
         <is>
-          <t>Extracción de Áridos Empréstito E17L</t>
+          <t>Modificación Proyecto Transporte de Acido Sulfurico a granel entre la Primera y Décima Regiones de Chile</t>
         </is>
       </c>
       <c r="C362" t="inlineStr">
@@ -17714,16 +17714,16 @@
       </c>
       <c r="D362" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E362" t="inlineStr">
         <is>
-          <t>Skanska Chile S.A.</t>
+          <t>Transportes Herrmann Limitada</t>
         </is>
       </c>
       <c r="F362" t="n">
-        <v>500</v>
+        <v>0</v>
       </c>
       <c r="G362" t="inlineStr">
         <is>
@@ -17732,12 +17732,12 @@
       </c>
       <c r="H362" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I362" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6156264&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6159602&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J362" t="inlineStr">
@@ -17752,7 +17752,7 @@
       </c>
       <c r="B363" t="inlineStr">
         <is>
-          <t>Modificación Proyecto Transporte de Acido Sulfurico a granel entre la Primera y Décima Regiones de Chile</t>
+          <t>Extracción de Áridos Empréstito E17L</t>
         </is>
       </c>
       <c r="C363" t="inlineStr">
@@ -17762,16 +17762,16 @@
       </c>
       <c r="D363" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E363" t="inlineStr">
         <is>
-          <t>Transportes Herrmann Limitada</t>
+          <t>Skanska Chile S.A.</t>
         </is>
       </c>
       <c r="F363" t="n">
-        <v>0</v>
+        <v>500</v>
       </c>
       <c r="G363" t="inlineStr">
         <is>
@@ -17780,12 +17780,12 @@
       </c>
       <c r="H363" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I363" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6159602&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6156264&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J363" t="inlineStr">
@@ -18232,7 +18232,7 @@
       </c>
       <c r="B373" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos</t>
+          <t>Nuevas Instalaciones para Mantención Mina</t>
         </is>
       </c>
       <c r="C373" t="inlineStr">
@@ -18242,16 +18242,16 @@
       </c>
       <c r="D373" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E373" t="inlineStr">
         <is>
-          <t>Transportes TMS Limitada</t>
+          <t>MINERA ESCONDIDA LIMITADA</t>
         </is>
       </c>
       <c r="F373" t="n">
-        <v>200</v>
+        <v>635000</v>
       </c>
       <c r="G373" t="inlineStr">
         <is>
@@ -18260,12 +18260,12 @@
       </c>
       <c r="H373" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I373" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6003582&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5931343&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J373" t="inlineStr">
@@ -18280,7 +18280,7 @@
       </c>
       <c r="B374" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas entre la I, II y III Regiones"</t>
+          <t>Transporte de Residuos Peligrosos</t>
         </is>
       </c>
       <c r="C374" t="inlineStr">
@@ -18295,11 +18295,11 @@
       </c>
       <c r="E374" t="inlineStr">
         <is>
-          <t>Molina Quimicos S.A.</t>
+          <t>Transportes TMS Limitada</t>
         </is>
       </c>
       <c r="F374" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="G374" t="inlineStr">
         <is>
@@ -18313,7 +18313,7 @@
       </c>
       <c r="I374" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6003607&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6003582&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J374" t="inlineStr">
@@ -18328,7 +18328,7 @@
       </c>
       <c r="B375" t="inlineStr">
         <is>
-          <t>Nuevas Instalaciones para Mantención Mina</t>
+          <t>Transporte de Sustancias Peligrosas entre la I, II y III Regiones"</t>
         </is>
       </c>
       <c r="C375" t="inlineStr">
@@ -18338,16 +18338,16 @@
       </c>
       <c r="D375" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E375" t="inlineStr">
         <is>
-          <t>MINERA ESCONDIDA LIMITADA</t>
+          <t>Molina Quimicos S.A.</t>
         </is>
       </c>
       <c r="F375" t="n">
-        <v>635000</v>
+        <v>100</v>
       </c>
       <c r="G375" t="inlineStr">
         <is>
@@ -18356,12 +18356,12 @@
       </c>
       <c r="H375" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I375" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5931343&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6003607&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J375" t="inlineStr">
@@ -20584,7 +20584,7 @@
       </c>
       <c r="B422" t="inlineStr">
         <is>
-          <t>"Transporte de acido sulfurico concentrado para minera Las Cenizas, Taltal."</t>
+          <t>II MODIFICACIÓN DIA "TRANSPORTE Y MANEJO IN SITU DE RESIDUOS SÓLIDOS Y LÍQUIDOS PELIGROSOS Y NO PELIGROSOS"</t>
         </is>
       </c>
       <c r="C422" t="inlineStr">
@@ -20594,16 +20594,16 @@
       </c>
       <c r="D422" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E422" t="inlineStr">
         <is>
-          <t>Translog S.A.</t>
+          <t>Mol Ambiente S.A.</t>
         </is>
       </c>
       <c r="F422" t="n">
-        <v>600</v>
+        <v>75000</v>
       </c>
       <c r="G422" t="inlineStr">
         <is>
@@ -20612,12 +20612,12 @@
       </c>
       <c r="H422" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I422" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5114868&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5118945&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J422" t="inlineStr">
@@ -20632,7 +20632,7 @@
       </c>
       <c r="B423" t="inlineStr">
         <is>
-          <t>II MODIFICACIÓN DIA "TRANSPORTE Y MANEJO IN SITU DE RESIDUOS SÓLIDOS Y LÍQUIDOS PELIGROSOS Y NO PELIGROSOS"</t>
+          <t>"Transporte de acido sulfurico concentrado para minera Las Cenizas, Taltal."</t>
         </is>
       </c>
       <c r="C423" t="inlineStr">
@@ -20642,16 +20642,16 @@
       </c>
       <c r="D423" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E423" t="inlineStr">
         <is>
-          <t>Mol Ambiente S.A.</t>
+          <t>Translog S.A.</t>
         </is>
       </c>
       <c r="F423" t="n">
-        <v>75000</v>
+        <v>600</v>
       </c>
       <c r="G423" t="inlineStr">
         <is>
@@ -20660,12 +20660,12 @@
       </c>
       <c r="H423" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I423" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5118945&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5114868&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J423" t="inlineStr">
@@ -22120,7 +22120,7 @@
       </c>
       <c r="B454" t="inlineStr">
         <is>
-          <t>Proyecto Laboratorios Químicos CIMM T&amp;S SA. La Negra</t>
+          <t>TRANSPORTE DE RESIDUOS PELIGROSOS POR RUTAS DE LA REGIÓN DE ANTOFAGASTA</t>
         </is>
       </c>
       <c r="C454" t="inlineStr">
@@ -22135,11 +22135,11 @@
       </c>
       <c r="E454" t="inlineStr">
         <is>
-          <t>Yancko Gonzalez Rozas</t>
+          <t>Limfosep S.A</t>
         </is>
       </c>
       <c r="F454" t="n">
-        <v>8000</v>
+        <v>1000</v>
       </c>
       <c r="G454" t="inlineStr">
         <is>
@@ -22148,12 +22148,12 @@
       </c>
       <c r="H454" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I454" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4670031&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4698232&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J454" t="inlineStr">
@@ -22168,7 +22168,7 @@
       </c>
       <c r="B455" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE RESIDUOS PELIGROSOS POR RUTAS DE LA REGIÓN DE ANTOFAGASTA</t>
+          <t>Proyecto Laboratorios Químicos CIMM T&amp;S SA. La Negra</t>
         </is>
       </c>
       <c r="C455" t="inlineStr">
@@ -22183,11 +22183,11 @@
       </c>
       <c r="E455" t="inlineStr">
         <is>
-          <t>Limfosep S.A</t>
+          <t>Yancko Gonzalez Rozas</t>
         </is>
       </c>
       <c r="F455" t="n">
-        <v>1000</v>
+        <v>8000</v>
       </c>
       <c r="G455" t="inlineStr">
         <is>
@@ -22196,12 +22196,12 @@
       </c>
       <c r="H455" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I455" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4698232&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4670031&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J455" t="inlineStr">
@@ -22600,7 +22600,7 @@
       </c>
       <c r="B464" t="inlineStr">
         <is>
-          <t>Nuevo Transporte Interregional de Cianuro de Sodio</t>
+          <t>EXPANSION DEPOSITO DE RELAVES FILTRADOS FAENA EL PEÑÓN</t>
         </is>
       </c>
       <c r="C464" t="inlineStr">
@@ -22610,16 +22610,16 @@
       </c>
       <c r="D464" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E464" t="inlineStr">
         <is>
-          <t>OXIQUIM S.A.</t>
+          <t>Minera Meridian Limitada</t>
         </is>
       </c>
       <c r="F464" t="n">
-        <v>85</v>
+        <v>688</v>
       </c>
       <c r="G464" t="inlineStr">
         <is>
@@ -22628,12 +22628,12 @@
       </c>
       <c r="H464" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I464" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4594007&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4601640&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J464" t="inlineStr">
@@ -22648,7 +22648,7 @@
       </c>
       <c r="B465" t="inlineStr">
         <is>
-          <t>EXPANSION DEPOSITO DE RELAVES FILTRADOS FAENA EL PEÑÓN</t>
+          <t>Nuevo Transporte Interregional de Cianuro de Sodio</t>
         </is>
       </c>
       <c r="C465" t="inlineStr">
@@ -22658,16 +22658,16 @@
       </c>
       <c r="D465" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E465" t="inlineStr">
         <is>
-          <t>Minera Meridian Limitada</t>
+          <t>OXIQUIM S.A.</t>
         </is>
       </c>
       <c r="F465" t="n">
-        <v>688</v>
+        <v>85</v>
       </c>
       <c r="G465" t="inlineStr">
         <is>
@@ -22676,12 +22676,12 @@
       </c>
       <c r="H465" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I465" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4601640&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4594007&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J465" t="inlineStr">
@@ -23416,7 +23416,7 @@
       </c>
       <c r="B481" t="inlineStr">
         <is>
-          <t>Transporte de Barros Anódicos</t>
+          <t>Transporte de Residuos Peligroso, Transporte Bello</t>
         </is>
       </c>
       <c r="C481" t="inlineStr">
@@ -23431,11 +23431,11 @@
       </c>
       <c r="E481" t="inlineStr">
         <is>
-          <t>CODELCO CHILE</t>
+          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
         </is>
       </c>
       <c r="F481" t="n">
-        <v>0</v>
+        <v>4050</v>
       </c>
       <c r="G481" t="inlineStr">
         <is>
@@ -23449,7 +23449,7 @@
       </c>
       <c r="I481" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4429880&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4455518&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J481" t="inlineStr">
@@ -23464,7 +23464,7 @@
       </c>
       <c r="B482" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligroso, Transporte Bello</t>
+          <t>Transporte de Barros Anódicos</t>
         </is>
       </c>
       <c r="C482" t="inlineStr">
@@ -23479,11 +23479,11 @@
       </c>
       <c r="E482" t="inlineStr">
         <is>
-          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
+          <t>CODELCO CHILE</t>
         </is>
       </c>
       <c r="F482" t="n">
-        <v>4050</v>
+        <v>0</v>
       </c>
       <c r="G482" t="inlineStr">
         <is>
@@ -23497,7 +23497,7 @@
       </c>
       <c r="I482" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4455518&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4429880&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J482" t="inlineStr">
@@ -23608,7 +23608,7 @@
       </c>
       <c r="B485" t="inlineStr">
         <is>
-          <t>Transporte y Almacenamiento temporal de Residuos Peligrosos M&amp;M ltda.</t>
+          <t>Modificacion Proyecto Minero Algorta Sector Pampa</t>
         </is>
       </c>
       <c r="C485" t="inlineStr">
@@ -23618,16 +23618,16 @@
       </c>
       <c r="D485" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E485" t="inlineStr">
         <is>
-          <t>Transportes Moscoso y Moscoso Ltda.</t>
+          <t>Algorta Norte S.A</t>
         </is>
       </c>
       <c r="F485" t="n">
-        <v>41075</v>
+        <v>6400</v>
       </c>
       <c r="G485" t="inlineStr">
         <is>
@@ -23641,7 +23641,7 @@
       </c>
       <c r="I485" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4422237&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4432700&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J485" t="inlineStr">
@@ -23656,7 +23656,7 @@
       </c>
       <c r="B486" t="inlineStr">
         <is>
-          <t>Modificacion Proyecto Minero Algorta Sector Pampa</t>
+          <t>Transporte y Almacenamiento temporal de Residuos Peligrosos M&amp;M ltda.</t>
         </is>
       </c>
       <c r="C486" t="inlineStr">
@@ -23666,16 +23666,16 @@
       </c>
       <c r="D486" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E486" t="inlineStr">
         <is>
-          <t>Algorta Norte S.A</t>
+          <t>Transportes Moscoso y Moscoso Ltda.</t>
         </is>
       </c>
       <c r="F486" t="n">
-        <v>6400</v>
+        <v>41075</v>
       </c>
       <c r="G486" t="inlineStr">
         <is>
@@ -23689,7 +23689,7 @@
       </c>
       <c r="I486" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4432700&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4422237&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J486" t="inlineStr">

--- a/data/Antofagasta.xlsx
+++ b/data/Antofagasta.xlsx
@@ -12280,7 +12280,7 @@
       </c>
       <c r="B249" t="inlineStr">
         <is>
-          <t>Planta de Fabricación de Tuberías PEX (polietileno reticulado)</t>
+          <t>Transporte Interregional de Sustancias Peligrosas - AGREDUCAM VI Región</t>
         </is>
       </c>
       <c r="C249" t="inlineStr">
@@ -12290,16 +12290,16 @@
       </c>
       <c r="D249" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E249" t="inlineStr">
         <is>
-          <t>CROSSPIPE SYSTEMS S.A.</t>
+          <t>Asociación Gremial de Dueños de Camiones de la Sexta Región</t>
         </is>
       </c>
       <c r="F249" t="n">
-        <v>12400</v>
+        <v>1200</v>
       </c>
       <c r="G249" t="inlineStr">
         <is>
@@ -12313,7 +12313,7 @@
       </c>
       <c r="I249" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128954293&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128964620&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J249" t="inlineStr">
@@ -12328,7 +12328,7 @@
       </c>
       <c r="B250" t="inlineStr">
         <is>
-          <t>Transporte Interregional de Sustancias Peligrosas - AGREDUCAM VI Región</t>
+          <t>Transporte de Residuos Peligrosos por las Rutas Indicadas</t>
         </is>
       </c>
       <c r="C250" t="inlineStr">
@@ -12343,11 +12343,11 @@
       </c>
       <c r="E250" t="inlineStr">
         <is>
-          <t>Asociación Gremial de Dueños de Camiones de la Sexta Región</t>
+          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
         </is>
       </c>
       <c r="F250" t="n">
-        <v>1200</v>
+        <v>0</v>
       </c>
       <c r="G250" t="inlineStr">
         <is>
@@ -12361,7 +12361,7 @@
       </c>
       <c r="I250" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128964620&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128972489&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J250" t="inlineStr">
@@ -12376,7 +12376,7 @@
       </c>
       <c r="B251" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos por las Rutas Indicadas</t>
+          <t>Planta de Fabricación de Tuberías PEX (polietileno reticulado)</t>
         </is>
       </c>
       <c r="C251" t="inlineStr">
@@ -12386,16 +12386,16 @@
       </c>
       <c r="D251" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E251" t="inlineStr">
         <is>
-          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
+          <t>CROSSPIPE SYSTEMS S.A.</t>
         </is>
       </c>
       <c r="F251" t="n">
-        <v>0</v>
+        <v>12400</v>
       </c>
       <c r="G251" t="inlineStr">
         <is>
@@ -12409,7 +12409,7 @@
       </c>
       <c r="I251" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128972489&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128954293&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J251" t="inlineStr">
@@ -14008,26 +14008,26 @@
       </c>
       <c r="B285" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas Transaltisa Chile Ltda</t>
+          <t>RT Sulfuros</t>
         </is>
       </c>
       <c r="C285" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D285" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E285" t="inlineStr">
         <is>
-          <t>Transaltisa Chile Ltda.</t>
+          <t>CODELCO Chile, División Radomiro Tomic</t>
         </is>
       </c>
       <c r="F285" t="n">
-        <v>2050</v>
+        <v>5.4</v>
       </c>
       <c r="G285" t="inlineStr">
         <is>
@@ -14036,12 +14036,12 @@
       </c>
       <c r="H285" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I285" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8218613&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8210090&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J285" t="inlineStr">
@@ -14056,26 +14056,26 @@
       </c>
       <c r="B286" t="inlineStr">
         <is>
-          <t>RT Sulfuros</t>
+          <t>Transporte de Sustancias Peligrosas Transaltisa Chile Ltda</t>
         </is>
       </c>
       <c r="C286" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D286" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E286" t="inlineStr">
         <is>
-          <t>CODELCO Chile, División Radomiro Tomic</t>
+          <t>Transaltisa Chile Ltda.</t>
         </is>
       </c>
       <c r="F286" t="n">
-        <v>5.4</v>
+        <v>2050</v>
       </c>
       <c r="G286" t="inlineStr">
         <is>
@@ -14084,12 +14084,12 @@
       </c>
       <c r="H286" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I286" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8210090&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8218613&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J286" t="inlineStr">
@@ -16744,7 +16744,7 @@
       </c>
       <c r="B342" t="inlineStr">
         <is>
-          <t>CENTRO DE RECUPERACIÓN DE TAMBORES Y CONTENEDORES IBC CONTAMINADOS, PLAMBIENTAL LA NEGRA</t>
+          <t>Parque Fotovoltaico Los Andes</t>
         </is>
       </c>
       <c r="C342" t="inlineStr">
@@ -16759,11 +16759,11 @@
       </c>
       <c r="E342" t="inlineStr">
         <is>
-          <t>VEOLIA SERVICIOS MINEROS INTEGRALES CHILE SpA</t>
+          <t>Andes Solar SPA</t>
         </is>
       </c>
       <c r="F342" t="n">
-        <v>60</v>
+        <v>572000</v>
       </c>
       <c r="G342" t="inlineStr">
         <is>
@@ -16772,12 +16772,12 @@
       </c>
       <c r="H342" t="inlineStr">
         <is>
-          <t>Caducado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I342" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6592870&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6581267&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J342" t="inlineStr">
@@ -16792,7 +16792,7 @@
       </c>
       <c r="B343" t="inlineStr">
         <is>
-          <t>CENTRO DE ALMACENAMIENTO DE RESIDUOS INDUSTRIALES, GESAM LA NEGRA</t>
+          <t>CENTRO DE RECUPERACIÓN DE TAMBORES Y CONTENEDORES IBC CONTAMINADOS, PLAMBIENTAL LA NEGRA</t>
         </is>
       </c>
       <c r="C343" t="inlineStr">
@@ -16811,7 +16811,7 @@
         </is>
       </c>
       <c r="F343" t="n">
-        <v>360</v>
+        <v>60</v>
       </c>
       <c r="G343" t="inlineStr">
         <is>
@@ -16825,7 +16825,7 @@
       </c>
       <c r="I343" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6595234&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6592870&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J343" t="inlineStr">
@@ -16840,7 +16840,7 @@
       </c>
       <c r="B344" t="inlineStr">
         <is>
-          <t>Parque Fotovoltaico Los Andes</t>
+          <t>CENTRO DE ALMACENAMIENTO DE RESIDUOS INDUSTRIALES, GESAM LA NEGRA</t>
         </is>
       </c>
       <c r="C344" t="inlineStr">
@@ -16855,11 +16855,11 @@
       </c>
       <c r="E344" t="inlineStr">
         <is>
-          <t>Andes Solar SPA</t>
+          <t>VEOLIA SERVICIOS MINEROS INTEGRALES CHILE SpA</t>
         </is>
       </c>
       <c r="F344" t="n">
-        <v>572000</v>
+        <v>360</v>
       </c>
       <c r="G344" t="inlineStr">
         <is>
@@ -16868,12 +16868,12 @@
       </c>
       <c r="H344" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Caducado</t>
         </is>
       </c>
       <c r="I344" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6581267&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6595234&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J344" t="inlineStr">
@@ -17032,7 +17032,7 @@
       </c>
       <c r="B348" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos</t>
+          <t>MODIFICACION DE LA DECLARACIÓN DE IMPACTO AMBIENTAL PROYECTO TRANSPORTE DE SULFHIDRATO DE SODIO EN LA PRIMERA Y SEGUNDA REGION</t>
         </is>
       </c>
       <c r="C348" t="inlineStr">
@@ -17047,11 +17047,11 @@
       </c>
       <c r="E348" t="inlineStr">
         <is>
-          <t>Transportes TMS Limitada</t>
+          <t>Sociedad de Transportes Camaro Ltda.</t>
         </is>
       </c>
       <c r="F348" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="G348" t="inlineStr">
         <is>
@@ -17065,7 +17065,7 @@
       </c>
       <c r="I348" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6479568&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6450945&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J348" t="inlineStr">
@@ -17080,7 +17080,7 @@
       </c>
       <c r="B349" t="inlineStr">
         <is>
-          <t>MODIFICACION DE LA DECLARACIÓN DE IMPACTO AMBIENTAL PROYECTO TRANSPORTE DE SULFHIDRATO DE SODIO EN LA PRIMERA Y SEGUNDA REGION</t>
+          <t>Transporte de Residuos Peligrosos</t>
         </is>
       </c>
       <c r="C349" t="inlineStr">
@@ -17095,11 +17095,11 @@
       </c>
       <c r="E349" t="inlineStr">
         <is>
-          <t>Sociedad de Transportes Camaro Ltda.</t>
+          <t>Transportes TMS Limitada</t>
         </is>
       </c>
       <c r="F349" t="n">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="G349" t="inlineStr">
         <is>
@@ -17113,7 +17113,7 @@
       </c>
       <c r="I349" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6450945&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6479568&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J349" t="inlineStr">
@@ -17704,7 +17704,7 @@
       </c>
       <c r="B362" t="inlineStr">
         <is>
-          <t>Modificación Proyecto Transporte de Acido Sulfurico a granel entre la Primera y Décima Regiones de Chile</t>
+          <t>Extracción de Áridos Empréstito E17L</t>
         </is>
       </c>
       <c r="C362" t="inlineStr">
@@ -17714,16 +17714,16 @@
       </c>
       <c r="D362" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E362" t="inlineStr">
         <is>
-          <t>Transportes Herrmann Limitada</t>
+          <t>Skanska Chile S.A.</t>
         </is>
       </c>
       <c r="F362" t="n">
-        <v>0</v>
+        <v>500</v>
       </c>
       <c r="G362" t="inlineStr">
         <is>
@@ -17732,12 +17732,12 @@
       </c>
       <c r="H362" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I362" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6159602&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6156264&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J362" t="inlineStr">
@@ -17752,7 +17752,7 @@
       </c>
       <c r="B363" t="inlineStr">
         <is>
-          <t>Extracción de Áridos Empréstito E17L</t>
+          <t>Modificación Proyecto Transporte de Acido Sulfurico a granel entre la Primera y Décima Regiones de Chile</t>
         </is>
       </c>
       <c r="C363" t="inlineStr">
@@ -17762,16 +17762,16 @@
       </c>
       <c r="D363" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E363" t="inlineStr">
         <is>
-          <t>Skanska Chile S.A.</t>
+          <t>Transportes Herrmann Limitada</t>
         </is>
       </c>
       <c r="F363" t="n">
-        <v>500</v>
+        <v>0</v>
       </c>
       <c r="G363" t="inlineStr">
         <is>
@@ -17780,12 +17780,12 @@
       </c>
       <c r="H363" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I363" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6156264&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6159602&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J363" t="inlineStr">
@@ -18232,7 +18232,7 @@
       </c>
       <c r="B373" t="inlineStr">
         <is>
-          <t>Nuevas Instalaciones para Mantención Mina</t>
+          <t>Transporte de Residuos Peligrosos</t>
         </is>
       </c>
       <c r="C373" t="inlineStr">
@@ -18242,16 +18242,16 @@
       </c>
       <c r="D373" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E373" t="inlineStr">
         <is>
-          <t>MINERA ESCONDIDA LIMITADA</t>
+          <t>Transportes TMS Limitada</t>
         </is>
       </c>
       <c r="F373" t="n">
-        <v>635000</v>
+        <v>200</v>
       </c>
       <c r="G373" t="inlineStr">
         <is>
@@ -18260,12 +18260,12 @@
       </c>
       <c r="H373" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I373" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5931343&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6003582&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J373" t="inlineStr">
@@ -18280,7 +18280,7 @@
       </c>
       <c r="B374" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos</t>
+          <t>Transporte de Sustancias Peligrosas entre la I, II y III Regiones"</t>
         </is>
       </c>
       <c r="C374" t="inlineStr">
@@ -18295,11 +18295,11 @@
       </c>
       <c r="E374" t="inlineStr">
         <is>
-          <t>Transportes TMS Limitada</t>
+          <t>Molina Quimicos S.A.</t>
         </is>
       </c>
       <c r="F374" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="G374" t="inlineStr">
         <is>
@@ -18313,7 +18313,7 @@
       </c>
       <c r="I374" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6003582&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6003607&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J374" t="inlineStr">
@@ -18328,7 +18328,7 @@
       </c>
       <c r="B375" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas entre la I, II y III Regiones"</t>
+          <t>Nuevas Instalaciones para Mantención Mina</t>
         </is>
       </c>
       <c r="C375" t="inlineStr">
@@ -18338,16 +18338,16 @@
       </c>
       <c r="D375" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E375" t="inlineStr">
         <is>
-          <t>Molina Quimicos S.A.</t>
+          <t>MINERA ESCONDIDA LIMITADA</t>
         </is>
       </c>
       <c r="F375" t="n">
-        <v>100</v>
+        <v>635000</v>
       </c>
       <c r="G375" t="inlineStr">
         <is>
@@ -18356,12 +18356,12 @@
       </c>
       <c r="H375" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I375" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6003607&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5931343&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J375" t="inlineStr">
@@ -20584,7 +20584,7 @@
       </c>
       <c r="B422" t="inlineStr">
         <is>
-          <t>II MODIFICACIÓN DIA "TRANSPORTE Y MANEJO IN SITU DE RESIDUOS SÓLIDOS Y LÍQUIDOS PELIGROSOS Y NO PELIGROSOS"</t>
+          <t>"Transporte de acido sulfurico concentrado para minera Las Cenizas, Taltal."</t>
         </is>
       </c>
       <c r="C422" t="inlineStr">
@@ -20594,16 +20594,16 @@
       </c>
       <c r="D422" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E422" t="inlineStr">
         <is>
-          <t>Mol Ambiente S.A.</t>
+          <t>Translog S.A.</t>
         </is>
       </c>
       <c r="F422" t="n">
-        <v>75000</v>
+        <v>600</v>
       </c>
       <c r="G422" t="inlineStr">
         <is>
@@ -20612,12 +20612,12 @@
       </c>
       <c r="H422" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I422" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5118945&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5114868&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J422" t="inlineStr">
@@ -20632,7 +20632,7 @@
       </c>
       <c r="B423" t="inlineStr">
         <is>
-          <t>"Transporte de acido sulfurico concentrado para minera Las Cenizas, Taltal."</t>
+          <t>II MODIFICACIÓN DIA "TRANSPORTE Y MANEJO IN SITU DE RESIDUOS SÓLIDOS Y LÍQUIDOS PELIGROSOS Y NO PELIGROSOS"</t>
         </is>
       </c>
       <c r="C423" t="inlineStr">
@@ -20642,16 +20642,16 @@
       </c>
       <c r="D423" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E423" t="inlineStr">
         <is>
-          <t>Translog S.A.</t>
+          <t>Mol Ambiente S.A.</t>
         </is>
       </c>
       <c r="F423" t="n">
-        <v>600</v>
+        <v>75000</v>
       </c>
       <c r="G423" t="inlineStr">
         <is>
@@ -20660,12 +20660,12 @@
       </c>
       <c r="H423" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I423" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5114868&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5118945&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J423" t="inlineStr">
@@ -22120,7 +22120,7 @@
       </c>
       <c r="B454" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE RESIDUOS PELIGROSOS POR RUTAS DE LA REGIÓN DE ANTOFAGASTA</t>
+          <t>Proyecto Laboratorios Químicos CIMM T&amp;S SA. La Negra</t>
         </is>
       </c>
       <c r="C454" t="inlineStr">
@@ -22135,11 +22135,11 @@
       </c>
       <c r="E454" t="inlineStr">
         <is>
-          <t>Limfosep S.A</t>
+          <t>Yancko Gonzalez Rozas</t>
         </is>
       </c>
       <c r="F454" t="n">
-        <v>1000</v>
+        <v>8000</v>
       </c>
       <c r="G454" t="inlineStr">
         <is>
@@ -22148,12 +22148,12 @@
       </c>
       <c r="H454" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I454" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4698232&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4670031&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J454" t="inlineStr">
@@ -22168,7 +22168,7 @@
       </c>
       <c r="B455" t="inlineStr">
         <is>
-          <t>Proyecto Laboratorios Químicos CIMM T&amp;S SA. La Negra</t>
+          <t>TRANSPORTE DE RESIDUOS PELIGROSOS POR RUTAS DE LA REGIÓN DE ANTOFAGASTA</t>
         </is>
       </c>
       <c r="C455" t="inlineStr">
@@ -22183,11 +22183,11 @@
       </c>
       <c r="E455" t="inlineStr">
         <is>
-          <t>Yancko Gonzalez Rozas</t>
+          <t>Limfosep S.A</t>
         </is>
       </c>
       <c r="F455" t="n">
-        <v>8000</v>
+        <v>1000</v>
       </c>
       <c r="G455" t="inlineStr">
         <is>
@@ -22196,12 +22196,12 @@
       </c>
       <c r="H455" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I455" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4670031&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4698232&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J455" t="inlineStr">
@@ -22600,7 +22600,7 @@
       </c>
       <c r="B464" t="inlineStr">
         <is>
-          <t>EXPANSION DEPOSITO DE RELAVES FILTRADOS FAENA EL PEÑÓN</t>
+          <t>Nuevo Transporte Interregional de Cianuro de Sodio</t>
         </is>
       </c>
       <c r="C464" t="inlineStr">
@@ -22610,16 +22610,16 @@
       </c>
       <c r="D464" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E464" t="inlineStr">
         <is>
-          <t>Minera Meridian Limitada</t>
+          <t>OXIQUIM S.A.</t>
         </is>
       </c>
       <c r="F464" t="n">
-        <v>688</v>
+        <v>85</v>
       </c>
       <c r="G464" t="inlineStr">
         <is>
@@ -22628,12 +22628,12 @@
       </c>
       <c r="H464" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I464" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4601640&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4594007&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J464" t="inlineStr">
@@ -22648,7 +22648,7 @@
       </c>
       <c r="B465" t="inlineStr">
         <is>
-          <t>Nuevo Transporte Interregional de Cianuro de Sodio</t>
+          <t>EXPANSION DEPOSITO DE RELAVES FILTRADOS FAENA EL PEÑÓN</t>
         </is>
       </c>
       <c r="C465" t="inlineStr">
@@ -22658,16 +22658,16 @@
       </c>
       <c r="D465" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E465" t="inlineStr">
         <is>
-          <t>OXIQUIM S.A.</t>
+          <t>Minera Meridian Limitada</t>
         </is>
       </c>
       <c r="F465" t="n">
-        <v>85</v>
+        <v>688</v>
       </c>
       <c r="G465" t="inlineStr">
         <is>
@@ -22676,12 +22676,12 @@
       </c>
       <c r="H465" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I465" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4594007&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4601640&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J465" t="inlineStr">
@@ -23416,7 +23416,7 @@
       </c>
       <c r="B481" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligroso, Transporte Bello</t>
+          <t>Transporte de Barros Anódicos</t>
         </is>
       </c>
       <c r="C481" t="inlineStr">
@@ -23431,11 +23431,11 @@
       </c>
       <c r="E481" t="inlineStr">
         <is>
-          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
+          <t>CODELCO CHILE</t>
         </is>
       </c>
       <c r="F481" t="n">
-        <v>4050</v>
+        <v>0</v>
       </c>
       <c r="G481" t="inlineStr">
         <is>
@@ -23449,7 +23449,7 @@
       </c>
       <c r="I481" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4455518&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4429880&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J481" t="inlineStr">
@@ -23464,7 +23464,7 @@
       </c>
       <c r="B482" t="inlineStr">
         <is>
-          <t>Transporte de Barros Anódicos</t>
+          <t>Transporte de Residuos Peligroso, Transporte Bello</t>
         </is>
       </c>
       <c r="C482" t="inlineStr">
@@ -23479,11 +23479,11 @@
       </c>
       <c r="E482" t="inlineStr">
         <is>
-          <t>CODELCO CHILE</t>
+          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
         </is>
       </c>
       <c r="F482" t="n">
-        <v>0</v>
+        <v>4050</v>
       </c>
       <c r="G482" t="inlineStr">
         <is>
@@ -23497,7 +23497,7 @@
       </c>
       <c r="I482" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4429880&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4455518&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J482" t="inlineStr">
@@ -23608,7 +23608,7 @@
       </c>
       <c r="B485" t="inlineStr">
         <is>
-          <t>Modificacion Proyecto Minero Algorta Sector Pampa</t>
+          <t>Transporte y Almacenamiento temporal de Residuos Peligrosos M&amp;M ltda.</t>
         </is>
       </c>
       <c r="C485" t="inlineStr">
@@ -23618,16 +23618,16 @@
       </c>
       <c r="D485" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E485" t="inlineStr">
         <is>
-          <t>Algorta Norte S.A</t>
+          <t>Transportes Moscoso y Moscoso Ltda.</t>
         </is>
       </c>
       <c r="F485" t="n">
-        <v>6400</v>
+        <v>41075</v>
       </c>
       <c r="G485" t="inlineStr">
         <is>
@@ -23641,7 +23641,7 @@
       </c>
       <c r="I485" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4432700&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4422237&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J485" t="inlineStr">
@@ -23656,7 +23656,7 @@
       </c>
       <c r="B486" t="inlineStr">
         <is>
-          <t>Transporte y Almacenamiento temporal de Residuos Peligrosos M&amp;M ltda.</t>
+          <t>Modificacion Proyecto Minero Algorta Sector Pampa</t>
         </is>
       </c>
       <c r="C486" t="inlineStr">
@@ -23666,16 +23666,16 @@
       </c>
       <c r="D486" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E486" t="inlineStr">
         <is>
-          <t>Transportes Moscoso y Moscoso Ltda.</t>
+          <t>Algorta Norte S.A</t>
         </is>
       </c>
       <c r="F486" t="n">
-        <v>41075</v>
+        <v>6400</v>
       </c>
       <c r="G486" t="inlineStr">
         <is>
@@ -23689,7 +23689,7 @@
       </c>
       <c r="I486" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4422237&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4432700&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J486" t="inlineStr">

--- a/data/Antofagasta.xlsx
+++ b/data/Antofagasta.xlsx
@@ -12280,7 +12280,7 @@
       </c>
       <c r="B249" t="inlineStr">
         <is>
-          <t>Transporte Interregional de Sustancias Peligrosas - AGREDUCAM VI Región</t>
+          <t>Planta de Fabricación de Tuberías PEX (polietileno reticulado)</t>
         </is>
       </c>
       <c r="C249" t="inlineStr">
@@ -12290,16 +12290,16 @@
       </c>
       <c r="D249" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E249" t="inlineStr">
         <is>
-          <t>Asociación Gremial de Dueños de Camiones de la Sexta Región</t>
+          <t>CROSSPIPE SYSTEMS S.A.</t>
         </is>
       </c>
       <c r="F249" t="n">
-        <v>1200</v>
+        <v>12400</v>
       </c>
       <c r="G249" t="inlineStr">
         <is>
@@ -12313,7 +12313,7 @@
       </c>
       <c r="I249" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128964620&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128954293&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J249" t="inlineStr">
@@ -12328,7 +12328,7 @@
       </c>
       <c r="B250" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos por las Rutas Indicadas</t>
+          <t>Transporte Interregional de Sustancias Peligrosas - AGREDUCAM VI Región</t>
         </is>
       </c>
       <c r="C250" t="inlineStr">
@@ -12343,11 +12343,11 @@
       </c>
       <c r="E250" t="inlineStr">
         <is>
-          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
+          <t>Asociación Gremial de Dueños de Camiones de la Sexta Región</t>
         </is>
       </c>
       <c r="F250" t="n">
-        <v>0</v>
+        <v>1200</v>
       </c>
       <c r="G250" t="inlineStr">
         <is>
@@ -12361,7 +12361,7 @@
       </c>
       <c r="I250" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128972489&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128964620&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J250" t="inlineStr">
@@ -12376,7 +12376,7 @@
       </c>
       <c r="B251" t="inlineStr">
         <is>
-          <t>Planta de Fabricación de Tuberías PEX (polietileno reticulado)</t>
+          <t>Transporte de Residuos Peligrosos por las Rutas Indicadas</t>
         </is>
       </c>
       <c r="C251" t="inlineStr">
@@ -12386,16 +12386,16 @@
       </c>
       <c r="D251" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E251" t="inlineStr">
         <is>
-          <t>CROSSPIPE SYSTEMS S.A.</t>
+          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
         </is>
       </c>
       <c r="F251" t="n">
-        <v>12400</v>
+        <v>0</v>
       </c>
       <c r="G251" t="inlineStr">
         <is>
@@ -12409,7 +12409,7 @@
       </c>
       <c r="I251" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128954293&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128972489&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J251" t="inlineStr">
@@ -14008,26 +14008,26 @@
       </c>
       <c r="B285" t="inlineStr">
         <is>
-          <t>RT Sulfuros</t>
+          <t>Transporte de Sustancias Peligrosas Transaltisa Chile Ltda</t>
         </is>
       </c>
       <c r="C285" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D285" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E285" t="inlineStr">
         <is>
-          <t>CODELCO Chile, División Radomiro Tomic</t>
+          <t>Transaltisa Chile Ltda.</t>
         </is>
       </c>
       <c r="F285" t="n">
-        <v>5.4</v>
+        <v>2050</v>
       </c>
       <c r="G285" t="inlineStr">
         <is>
@@ -14036,12 +14036,12 @@
       </c>
       <c r="H285" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I285" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8210090&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8218613&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J285" t="inlineStr">
@@ -14056,26 +14056,26 @@
       </c>
       <c r="B286" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas Transaltisa Chile Ltda</t>
+          <t>RT Sulfuros</t>
         </is>
       </c>
       <c r="C286" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D286" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E286" t="inlineStr">
         <is>
-          <t>Transaltisa Chile Ltda.</t>
+          <t>CODELCO Chile, División Radomiro Tomic</t>
         </is>
       </c>
       <c r="F286" t="n">
-        <v>2050</v>
+        <v>5.4</v>
       </c>
       <c r="G286" t="inlineStr">
         <is>
@@ -14084,12 +14084,12 @@
       </c>
       <c r="H286" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I286" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8218613&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8210090&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J286" t="inlineStr">
@@ -16744,7 +16744,7 @@
       </c>
       <c r="B342" t="inlineStr">
         <is>
-          <t>Parque Fotovoltaico Los Andes</t>
+          <t>CENTRO DE RECUPERACIÓN DE TAMBORES Y CONTENEDORES IBC CONTAMINADOS, PLAMBIENTAL LA NEGRA</t>
         </is>
       </c>
       <c r="C342" t="inlineStr">
@@ -16759,11 +16759,11 @@
       </c>
       <c r="E342" t="inlineStr">
         <is>
-          <t>Andes Solar SPA</t>
+          <t>VEOLIA SERVICIOS MINEROS INTEGRALES CHILE SpA</t>
         </is>
       </c>
       <c r="F342" t="n">
-        <v>572000</v>
+        <v>60</v>
       </c>
       <c r="G342" t="inlineStr">
         <is>
@@ -16772,12 +16772,12 @@
       </c>
       <c r="H342" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Caducado</t>
         </is>
       </c>
       <c r="I342" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6581267&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6592870&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J342" t="inlineStr">
@@ -16792,7 +16792,7 @@
       </c>
       <c r="B343" t="inlineStr">
         <is>
-          <t>CENTRO DE RECUPERACIÓN DE TAMBORES Y CONTENEDORES IBC CONTAMINADOS, PLAMBIENTAL LA NEGRA</t>
+          <t>CENTRO DE ALMACENAMIENTO DE RESIDUOS INDUSTRIALES, GESAM LA NEGRA</t>
         </is>
       </c>
       <c r="C343" t="inlineStr">
@@ -16811,7 +16811,7 @@
         </is>
       </c>
       <c r="F343" t="n">
-        <v>60</v>
+        <v>360</v>
       </c>
       <c r="G343" t="inlineStr">
         <is>
@@ -16825,7 +16825,7 @@
       </c>
       <c r="I343" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6592870&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6595234&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J343" t="inlineStr">
@@ -16840,7 +16840,7 @@
       </c>
       <c r="B344" t="inlineStr">
         <is>
-          <t>CENTRO DE ALMACENAMIENTO DE RESIDUOS INDUSTRIALES, GESAM LA NEGRA</t>
+          <t>Parque Fotovoltaico Los Andes</t>
         </is>
       </c>
       <c r="C344" t="inlineStr">
@@ -16855,11 +16855,11 @@
       </c>
       <c r="E344" t="inlineStr">
         <is>
-          <t>VEOLIA SERVICIOS MINEROS INTEGRALES CHILE SpA</t>
+          <t>Andes Solar SPA</t>
         </is>
       </c>
       <c r="F344" t="n">
-        <v>360</v>
+        <v>572000</v>
       </c>
       <c r="G344" t="inlineStr">
         <is>
@@ -16868,12 +16868,12 @@
       </c>
       <c r="H344" t="inlineStr">
         <is>
-          <t>Caducado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I344" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6595234&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6581267&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J344" t="inlineStr">
@@ -17032,7 +17032,7 @@
       </c>
       <c r="B348" t="inlineStr">
         <is>
-          <t>MODIFICACION DE LA DECLARACIÓN DE IMPACTO AMBIENTAL PROYECTO TRANSPORTE DE SULFHIDRATO DE SODIO EN LA PRIMERA Y SEGUNDA REGION</t>
+          <t>Transporte de Residuos Peligrosos</t>
         </is>
       </c>
       <c r="C348" t="inlineStr">
@@ -17047,11 +17047,11 @@
       </c>
       <c r="E348" t="inlineStr">
         <is>
-          <t>Sociedad de Transportes Camaro Ltda.</t>
+          <t>Transportes TMS Limitada</t>
         </is>
       </c>
       <c r="F348" t="n">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="G348" t="inlineStr">
         <is>
@@ -17065,7 +17065,7 @@
       </c>
       <c r="I348" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6450945&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6479568&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J348" t="inlineStr">
@@ -17080,7 +17080,7 @@
       </c>
       <c r="B349" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos</t>
+          <t>MODIFICACION DE LA DECLARACIÓN DE IMPACTO AMBIENTAL PROYECTO TRANSPORTE DE SULFHIDRATO DE SODIO EN LA PRIMERA Y SEGUNDA REGION</t>
         </is>
       </c>
       <c r="C349" t="inlineStr">
@@ -17095,11 +17095,11 @@
       </c>
       <c r="E349" t="inlineStr">
         <is>
-          <t>Transportes TMS Limitada</t>
+          <t>Sociedad de Transportes Camaro Ltda.</t>
         </is>
       </c>
       <c r="F349" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="G349" t="inlineStr">
         <is>
@@ -17113,7 +17113,7 @@
       </c>
       <c r="I349" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6479568&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6450945&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J349" t="inlineStr">
@@ -17704,7 +17704,7 @@
       </c>
       <c r="B362" t="inlineStr">
         <is>
-          <t>Extracción de Áridos Empréstito E17L</t>
+          <t>Modificación Proyecto Transporte de Acido Sulfurico a granel entre la Primera y Décima Regiones de Chile</t>
         </is>
       </c>
       <c r="C362" t="inlineStr">
@@ -17714,16 +17714,16 @@
       </c>
       <c r="D362" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E362" t="inlineStr">
         <is>
-          <t>Skanska Chile S.A.</t>
+          <t>Transportes Herrmann Limitada</t>
         </is>
       </c>
       <c r="F362" t="n">
-        <v>500</v>
+        <v>0</v>
       </c>
       <c r="G362" t="inlineStr">
         <is>
@@ -17732,12 +17732,12 @@
       </c>
       <c r="H362" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I362" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6156264&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6159602&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J362" t="inlineStr">
@@ -17752,7 +17752,7 @@
       </c>
       <c r="B363" t="inlineStr">
         <is>
-          <t>Modificación Proyecto Transporte de Acido Sulfurico a granel entre la Primera y Décima Regiones de Chile</t>
+          <t>Extracción de Áridos Empréstito E17L</t>
         </is>
       </c>
       <c r="C363" t="inlineStr">
@@ -17762,16 +17762,16 @@
       </c>
       <c r="D363" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E363" t="inlineStr">
         <is>
-          <t>Transportes Herrmann Limitada</t>
+          <t>Skanska Chile S.A.</t>
         </is>
       </c>
       <c r="F363" t="n">
-        <v>0</v>
+        <v>500</v>
       </c>
       <c r="G363" t="inlineStr">
         <is>
@@ -17780,12 +17780,12 @@
       </c>
       <c r="H363" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I363" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6159602&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6156264&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J363" t="inlineStr">
@@ -18232,7 +18232,7 @@
       </c>
       <c r="B373" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos</t>
+          <t>Nuevas Instalaciones para Mantención Mina</t>
         </is>
       </c>
       <c r="C373" t="inlineStr">
@@ -18242,16 +18242,16 @@
       </c>
       <c r="D373" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E373" t="inlineStr">
         <is>
-          <t>Transportes TMS Limitada</t>
+          <t>MINERA ESCONDIDA LIMITADA</t>
         </is>
       </c>
       <c r="F373" t="n">
-        <v>200</v>
+        <v>635000</v>
       </c>
       <c r="G373" t="inlineStr">
         <is>
@@ -18260,12 +18260,12 @@
       </c>
       <c r="H373" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I373" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6003582&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5931343&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J373" t="inlineStr">
@@ -18280,7 +18280,7 @@
       </c>
       <c r="B374" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas entre la I, II y III Regiones"</t>
+          <t>Transporte de Residuos Peligrosos</t>
         </is>
       </c>
       <c r="C374" t="inlineStr">
@@ -18295,11 +18295,11 @@
       </c>
       <c r="E374" t="inlineStr">
         <is>
-          <t>Molina Quimicos S.A.</t>
+          <t>Transportes TMS Limitada</t>
         </is>
       </c>
       <c r="F374" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="G374" t="inlineStr">
         <is>
@@ -18313,7 +18313,7 @@
       </c>
       <c r="I374" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6003607&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6003582&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J374" t="inlineStr">
@@ -18328,7 +18328,7 @@
       </c>
       <c r="B375" t="inlineStr">
         <is>
-          <t>Nuevas Instalaciones para Mantención Mina</t>
+          <t>Transporte de Sustancias Peligrosas entre la I, II y III Regiones"</t>
         </is>
       </c>
       <c r="C375" t="inlineStr">
@@ -18338,16 +18338,16 @@
       </c>
       <c r="D375" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E375" t="inlineStr">
         <is>
-          <t>MINERA ESCONDIDA LIMITADA</t>
+          <t>Molina Quimicos S.A.</t>
         </is>
       </c>
       <c r="F375" t="n">
-        <v>635000</v>
+        <v>100</v>
       </c>
       <c r="G375" t="inlineStr">
         <is>
@@ -18356,12 +18356,12 @@
       </c>
       <c r="H375" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I375" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5931343&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6003607&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J375" t="inlineStr">
@@ -20584,7 +20584,7 @@
       </c>
       <c r="B422" t="inlineStr">
         <is>
-          <t>"Transporte de acido sulfurico concentrado para minera Las Cenizas, Taltal."</t>
+          <t>II MODIFICACIÓN DIA "TRANSPORTE Y MANEJO IN SITU DE RESIDUOS SÓLIDOS Y LÍQUIDOS PELIGROSOS Y NO PELIGROSOS"</t>
         </is>
       </c>
       <c r="C422" t="inlineStr">
@@ -20594,16 +20594,16 @@
       </c>
       <c r="D422" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E422" t="inlineStr">
         <is>
-          <t>Translog S.A.</t>
+          <t>Mol Ambiente S.A.</t>
         </is>
       </c>
       <c r="F422" t="n">
-        <v>600</v>
+        <v>75000</v>
       </c>
       <c r="G422" t="inlineStr">
         <is>
@@ -20612,12 +20612,12 @@
       </c>
       <c r="H422" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I422" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5114868&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5118945&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J422" t="inlineStr">
@@ -20632,7 +20632,7 @@
       </c>
       <c r="B423" t="inlineStr">
         <is>
-          <t>II MODIFICACIÓN DIA "TRANSPORTE Y MANEJO IN SITU DE RESIDUOS SÓLIDOS Y LÍQUIDOS PELIGROSOS Y NO PELIGROSOS"</t>
+          <t>"Transporte de acido sulfurico concentrado para minera Las Cenizas, Taltal."</t>
         </is>
       </c>
       <c r="C423" t="inlineStr">
@@ -20642,16 +20642,16 @@
       </c>
       <c r="D423" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E423" t="inlineStr">
         <is>
-          <t>Mol Ambiente S.A.</t>
+          <t>Translog S.A.</t>
         </is>
       </c>
       <c r="F423" t="n">
-        <v>75000</v>
+        <v>600</v>
       </c>
       <c r="G423" t="inlineStr">
         <is>
@@ -20660,12 +20660,12 @@
       </c>
       <c r="H423" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I423" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5118945&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5114868&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J423" t="inlineStr">
@@ -22120,7 +22120,7 @@
       </c>
       <c r="B454" t="inlineStr">
         <is>
-          <t>Proyecto Laboratorios Químicos CIMM T&amp;S SA. La Negra</t>
+          <t>TRANSPORTE DE RESIDUOS PELIGROSOS POR RUTAS DE LA REGIÓN DE ANTOFAGASTA</t>
         </is>
       </c>
       <c r="C454" t="inlineStr">
@@ -22135,11 +22135,11 @@
       </c>
       <c r="E454" t="inlineStr">
         <is>
-          <t>Yancko Gonzalez Rozas</t>
+          <t>Limfosep S.A</t>
         </is>
       </c>
       <c r="F454" t="n">
-        <v>8000</v>
+        <v>1000</v>
       </c>
       <c r="G454" t="inlineStr">
         <is>
@@ -22148,12 +22148,12 @@
       </c>
       <c r="H454" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I454" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4670031&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4698232&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J454" t="inlineStr">
@@ -22168,7 +22168,7 @@
       </c>
       <c r="B455" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE RESIDUOS PELIGROSOS POR RUTAS DE LA REGIÓN DE ANTOFAGASTA</t>
+          <t>Proyecto Laboratorios Químicos CIMM T&amp;S SA. La Negra</t>
         </is>
       </c>
       <c r="C455" t="inlineStr">
@@ -22183,11 +22183,11 @@
       </c>
       <c r="E455" t="inlineStr">
         <is>
-          <t>Limfosep S.A</t>
+          <t>Yancko Gonzalez Rozas</t>
         </is>
       </c>
       <c r="F455" t="n">
-        <v>1000</v>
+        <v>8000</v>
       </c>
       <c r="G455" t="inlineStr">
         <is>
@@ -22196,12 +22196,12 @@
       </c>
       <c r="H455" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I455" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4698232&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4670031&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J455" t="inlineStr">
@@ -22600,7 +22600,7 @@
       </c>
       <c r="B464" t="inlineStr">
         <is>
-          <t>Nuevo Transporte Interregional de Cianuro de Sodio</t>
+          <t>EXPANSION DEPOSITO DE RELAVES FILTRADOS FAENA EL PEÑÓN</t>
         </is>
       </c>
       <c r="C464" t="inlineStr">
@@ -22610,16 +22610,16 @@
       </c>
       <c r="D464" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E464" t="inlineStr">
         <is>
-          <t>OXIQUIM S.A.</t>
+          <t>Minera Meridian Limitada</t>
         </is>
       </c>
       <c r="F464" t="n">
-        <v>85</v>
+        <v>688</v>
       </c>
       <c r="G464" t="inlineStr">
         <is>
@@ -22628,12 +22628,12 @@
       </c>
       <c r="H464" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I464" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4594007&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4601640&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J464" t="inlineStr">
@@ -22648,7 +22648,7 @@
       </c>
       <c r="B465" t="inlineStr">
         <is>
-          <t>EXPANSION DEPOSITO DE RELAVES FILTRADOS FAENA EL PEÑÓN</t>
+          <t>Nuevo Transporte Interregional de Cianuro de Sodio</t>
         </is>
       </c>
       <c r="C465" t="inlineStr">
@@ -22658,16 +22658,16 @@
       </c>
       <c r="D465" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E465" t="inlineStr">
         <is>
-          <t>Minera Meridian Limitada</t>
+          <t>OXIQUIM S.A.</t>
         </is>
       </c>
       <c r="F465" t="n">
-        <v>688</v>
+        <v>85</v>
       </c>
       <c r="G465" t="inlineStr">
         <is>
@@ -22676,12 +22676,12 @@
       </c>
       <c r="H465" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I465" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4601640&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4594007&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J465" t="inlineStr">
@@ -23416,7 +23416,7 @@
       </c>
       <c r="B481" t="inlineStr">
         <is>
-          <t>Transporte de Barros Anódicos</t>
+          <t>Transporte de Residuos Peligroso, Transporte Bello</t>
         </is>
       </c>
       <c r="C481" t="inlineStr">
@@ -23431,11 +23431,11 @@
       </c>
       <c r="E481" t="inlineStr">
         <is>
-          <t>CODELCO CHILE</t>
+          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
         </is>
       </c>
       <c r="F481" t="n">
-        <v>0</v>
+        <v>4050</v>
       </c>
       <c r="G481" t="inlineStr">
         <is>
@@ -23449,7 +23449,7 @@
       </c>
       <c r="I481" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4429880&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4455518&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J481" t="inlineStr">
@@ -23464,7 +23464,7 @@
       </c>
       <c r="B482" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligroso, Transporte Bello</t>
+          <t>Transporte de Barros Anódicos</t>
         </is>
       </c>
       <c r="C482" t="inlineStr">
@@ -23479,11 +23479,11 @@
       </c>
       <c r="E482" t="inlineStr">
         <is>
-          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
+          <t>CODELCO CHILE</t>
         </is>
       </c>
       <c r="F482" t="n">
-        <v>4050</v>
+        <v>0</v>
       </c>
       <c r="G482" t="inlineStr">
         <is>
@@ -23497,7 +23497,7 @@
       </c>
       <c r="I482" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4455518&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4429880&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J482" t="inlineStr">
@@ -23608,7 +23608,7 @@
       </c>
       <c r="B485" t="inlineStr">
         <is>
-          <t>Transporte y Almacenamiento temporal de Residuos Peligrosos M&amp;M ltda.</t>
+          <t>Modificacion Proyecto Minero Algorta Sector Pampa</t>
         </is>
       </c>
       <c r="C485" t="inlineStr">
@@ -23618,16 +23618,16 @@
       </c>
       <c r="D485" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E485" t="inlineStr">
         <is>
-          <t>Transportes Moscoso y Moscoso Ltda.</t>
+          <t>Algorta Norte S.A</t>
         </is>
       </c>
       <c r="F485" t="n">
-        <v>41075</v>
+        <v>6400</v>
       </c>
       <c r="G485" t="inlineStr">
         <is>
@@ -23641,7 +23641,7 @@
       </c>
       <c r="I485" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4422237&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4432700&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J485" t="inlineStr">
@@ -23656,7 +23656,7 @@
       </c>
       <c r="B486" t="inlineStr">
         <is>
-          <t>Modificacion Proyecto Minero Algorta Sector Pampa</t>
+          <t>Transporte y Almacenamiento temporal de Residuos Peligrosos M&amp;M ltda.</t>
         </is>
       </c>
       <c r="C486" t="inlineStr">
@@ -23666,16 +23666,16 @@
       </c>
       <c r="D486" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E486" t="inlineStr">
         <is>
-          <t>Algorta Norte S.A</t>
+          <t>Transportes Moscoso y Moscoso Ltda.</t>
         </is>
       </c>
       <c r="F486" t="n">
-        <v>6400</v>
+        <v>41075</v>
       </c>
       <c r="G486" t="inlineStr">
         <is>
@@ -23689,7 +23689,7 @@
       </c>
       <c r="I486" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4432700&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4422237&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J486" t="inlineStr">

--- a/data/Antofagasta.xlsx
+++ b/data/Antofagasta.xlsx
@@ -6199,7 +6199,7 @@
       </c>
       <c r="E122" t="inlineStr">
         <is>
-          <t>Enel Green Power Chile S.A.</t>
+          <t>Arcadia Generación Solar S.A.</t>
         </is>
       </c>
       <c r="F122" t="n">
@@ -12280,7 +12280,7 @@
       </c>
       <c r="B249" t="inlineStr">
         <is>
-          <t>Planta de Fabricación de Tuberías PEX (polietileno reticulado)</t>
+          <t>Transporte Interregional de Sustancias Peligrosas - AGREDUCAM VI Región</t>
         </is>
       </c>
       <c r="C249" t="inlineStr">
@@ -12290,16 +12290,16 @@
       </c>
       <c r="D249" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E249" t="inlineStr">
         <is>
-          <t>CROSSPIPE SYSTEMS S.A.</t>
+          <t>Asociación Gremial de Dueños de Camiones de la Sexta Región</t>
         </is>
       </c>
       <c r="F249" t="n">
-        <v>12400</v>
+        <v>1200</v>
       </c>
       <c r="G249" t="inlineStr">
         <is>
@@ -12313,7 +12313,7 @@
       </c>
       <c r="I249" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128954293&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128964620&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J249" t="inlineStr">
@@ -12328,7 +12328,7 @@
       </c>
       <c r="B250" t="inlineStr">
         <is>
-          <t>Transporte Interregional de Sustancias Peligrosas - AGREDUCAM VI Región</t>
+          <t>Transporte de Residuos Peligrosos por las Rutas Indicadas</t>
         </is>
       </c>
       <c r="C250" t="inlineStr">
@@ -12343,11 +12343,11 @@
       </c>
       <c r="E250" t="inlineStr">
         <is>
-          <t>Asociación Gremial de Dueños de Camiones de la Sexta Región</t>
+          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
         </is>
       </c>
       <c r="F250" t="n">
-        <v>1200</v>
+        <v>0</v>
       </c>
       <c r="G250" t="inlineStr">
         <is>
@@ -12361,7 +12361,7 @@
       </c>
       <c r="I250" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128964620&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128972489&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J250" t="inlineStr">
@@ -12376,7 +12376,7 @@
       </c>
       <c r="B251" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos por las Rutas Indicadas</t>
+          <t>Planta de Fabricación de Tuberías PEX (polietileno reticulado)</t>
         </is>
       </c>
       <c r="C251" t="inlineStr">
@@ -12386,16 +12386,16 @@
       </c>
       <c r="D251" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E251" t="inlineStr">
         <is>
-          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
+          <t>CROSSPIPE SYSTEMS S.A.</t>
         </is>
       </c>
       <c r="F251" t="n">
-        <v>0</v>
+        <v>12400</v>
       </c>
       <c r="G251" t="inlineStr">
         <is>
@@ -12409,7 +12409,7 @@
       </c>
       <c r="I251" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128972489&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128954293&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J251" t="inlineStr">
@@ -14008,26 +14008,26 @@
       </c>
       <c r="B285" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas Transaltisa Chile Ltda</t>
+          <t>RT Sulfuros</t>
         </is>
       </c>
       <c r="C285" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D285" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E285" t="inlineStr">
         <is>
-          <t>Transaltisa Chile Ltda.</t>
+          <t>CODELCO Chile, División Radomiro Tomic</t>
         </is>
       </c>
       <c r="F285" t="n">
-        <v>2050</v>
+        <v>5.4</v>
       </c>
       <c r="G285" t="inlineStr">
         <is>
@@ -14036,12 +14036,12 @@
       </c>
       <c r="H285" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I285" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8218613&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8210090&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J285" t="inlineStr">
@@ -14056,26 +14056,26 @@
       </c>
       <c r="B286" t="inlineStr">
         <is>
-          <t>RT Sulfuros</t>
+          <t>Transporte de Sustancias Peligrosas Transaltisa Chile Ltda</t>
         </is>
       </c>
       <c r="C286" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D286" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E286" t="inlineStr">
         <is>
-          <t>CODELCO Chile, División Radomiro Tomic</t>
+          <t>Transaltisa Chile Ltda.</t>
         </is>
       </c>
       <c r="F286" t="n">
-        <v>5.4</v>
+        <v>2050</v>
       </c>
       <c r="G286" t="inlineStr">
         <is>
@@ -14084,12 +14084,12 @@
       </c>
       <c r="H286" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I286" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8210090&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8218613&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J286" t="inlineStr">
@@ -16231,7 +16231,7 @@
       </c>
       <c r="E331" t="inlineStr">
         <is>
-          <t>Enel Green Power Chile S.A.</t>
+          <t>Arcadia Generación Solar S.A.</t>
         </is>
       </c>
       <c r="F331" t="n">
@@ -16744,7 +16744,7 @@
       </c>
       <c r="B342" t="inlineStr">
         <is>
-          <t>CENTRO DE RECUPERACIÓN DE TAMBORES Y CONTENEDORES IBC CONTAMINADOS, PLAMBIENTAL LA NEGRA</t>
+          <t>Parque Fotovoltaico Los Andes</t>
         </is>
       </c>
       <c r="C342" t="inlineStr">
@@ -16759,11 +16759,11 @@
       </c>
       <c r="E342" t="inlineStr">
         <is>
-          <t>VEOLIA SERVICIOS MINEROS INTEGRALES CHILE SpA</t>
+          <t>Andes Solar SPA</t>
         </is>
       </c>
       <c r="F342" t="n">
-        <v>60</v>
+        <v>572000</v>
       </c>
       <c r="G342" t="inlineStr">
         <is>
@@ -16772,12 +16772,12 @@
       </c>
       <c r="H342" t="inlineStr">
         <is>
-          <t>Caducado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I342" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6592870&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6581267&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J342" t="inlineStr">
@@ -16792,7 +16792,7 @@
       </c>
       <c r="B343" t="inlineStr">
         <is>
-          <t>CENTRO DE ALMACENAMIENTO DE RESIDUOS INDUSTRIALES, GESAM LA NEGRA</t>
+          <t>CENTRO DE RECUPERACIÓN DE TAMBORES Y CONTENEDORES IBC CONTAMINADOS, PLAMBIENTAL LA NEGRA</t>
         </is>
       </c>
       <c r="C343" t="inlineStr">
@@ -16811,7 +16811,7 @@
         </is>
       </c>
       <c r="F343" t="n">
-        <v>360</v>
+        <v>60</v>
       </c>
       <c r="G343" t="inlineStr">
         <is>
@@ -16825,7 +16825,7 @@
       </c>
       <c r="I343" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6595234&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6592870&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J343" t="inlineStr">
@@ -16840,7 +16840,7 @@
       </c>
       <c r="B344" t="inlineStr">
         <is>
-          <t>Parque Fotovoltaico Los Andes</t>
+          <t>CENTRO DE ALMACENAMIENTO DE RESIDUOS INDUSTRIALES, GESAM LA NEGRA</t>
         </is>
       </c>
       <c r="C344" t="inlineStr">
@@ -16855,11 +16855,11 @@
       </c>
       <c r="E344" t="inlineStr">
         <is>
-          <t>Andes Solar SPA</t>
+          <t>VEOLIA SERVICIOS MINEROS INTEGRALES CHILE SpA</t>
         </is>
       </c>
       <c r="F344" t="n">
-        <v>572000</v>
+        <v>360</v>
       </c>
       <c r="G344" t="inlineStr">
         <is>
@@ -16868,12 +16868,12 @@
       </c>
       <c r="H344" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Caducado</t>
         </is>
       </c>
       <c r="I344" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6581267&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6595234&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J344" t="inlineStr">
@@ -17032,7 +17032,7 @@
       </c>
       <c r="B348" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos</t>
+          <t>MODIFICACION DE LA DECLARACIÓN DE IMPACTO AMBIENTAL PROYECTO TRANSPORTE DE SULFHIDRATO DE SODIO EN LA PRIMERA Y SEGUNDA REGION</t>
         </is>
       </c>
       <c r="C348" t="inlineStr">
@@ -17047,11 +17047,11 @@
       </c>
       <c r="E348" t="inlineStr">
         <is>
-          <t>Transportes TMS Limitada</t>
+          <t>Sociedad de Transportes Camaro Ltda.</t>
         </is>
       </c>
       <c r="F348" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="G348" t="inlineStr">
         <is>
@@ -17065,7 +17065,7 @@
       </c>
       <c r="I348" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6479568&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6450945&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J348" t="inlineStr">
@@ -17080,7 +17080,7 @@
       </c>
       <c r="B349" t="inlineStr">
         <is>
-          <t>MODIFICACION DE LA DECLARACIÓN DE IMPACTO AMBIENTAL PROYECTO TRANSPORTE DE SULFHIDRATO DE SODIO EN LA PRIMERA Y SEGUNDA REGION</t>
+          <t>Transporte de Residuos Peligrosos</t>
         </is>
       </c>
       <c r="C349" t="inlineStr">
@@ -17095,11 +17095,11 @@
       </c>
       <c r="E349" t="inlineStr">
         <is>
-          <t>Sociedad de Transportes Camaro Ltda.</t>
+          <t>Transportes TMS Limitada</t>
         </is>
       </c>
       <c r="F349" t="n">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="G349" t="inlineStr">
         <is>
@@ -17113,7 +17113,7 @@
       </c>
       <c r="I349" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6450945&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6479568&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J349" t="inlineStr">
@@ -17704,7 +17704,7 @@
       </c>
       <c r="B362" t="inlineStr">
         <is>
-          <t>Modificación Proyecto Transporte de Acido Sulfurico a granel entre la Primera y Décima Regiones de Chile</t>
+          <t>Extracción de Áridos Empréstito E17L</t>
         </is>
       </c>
       <c r="C362" t="inlineStr">
@@ -17714,16 +17714,16 @@
       </c>
       <c r="D362" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E362" t="inlineStr">
         <is>
-          <t>Transportes Herrmann Limitada</t>
+          <t>Skanska Chile S.A.</t>
         </is>
       </c>
       <c r="F362" t="n">
-        <v>0</v>
+        <v>500</v>
       </c>
       <c r="G362" t="inlineStr">
         <is>
@@ -17732,12 +17732,12 @@
       </c>
       <c r="H362" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I362" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6159602&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6156264&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J362" t="inlineStr">
@@ -17752,7 +17752,7 @@
       </c>
       <c r="B363" t="inlineStr">
         <is>
-          <t>Extracción de Áridos Empréstito E17L</t>
+          <t>Modificación Proyecto Transporte de Acido Sulfurico a granel entre la Primera y Décima Regiones de Chile</t>
         </is>
       </c>
       <c r="C363" t="inlineStr">
@@ -17762,16 +17762,16 @@
       </c>
       <c r="D363" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E363" t="inlineStr">
         <is>
-          <t>Skanska Chile S.A.</t>
+          <t>Transportes Herrmann Limitada</t>
         </is>
       </c>
       <c r="F363" t="n">
-        <v>500</v>
+        <v>0</v>
       </c>
       <c r="G363" t="inlineStr">
         <is>
@@ -17780,12 +17780,12 @@
       </c>
       <c r="H363" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I363" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6156264&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6159602&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J363" t="inlineStr">
@@ -18232,7 +18232,7 @@
       </c>
       <c r="B373" t="inlineStr">
         <is>
-          <t>Nuevas Instalaciones para Mantención Mina</t>
+          <t>Transporte de Residuos Peligrosos</t>
         </is>
       </c>
       <c r="C373" t="inlineStr">
@@ -18242,16 +18242,16 @@
       </c>
       <c r="D373" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E373" t="inlineStr">
         <is>
-          <t>MINERA ESCONDIDA LIMITADA</t>
+          <t>Transportes TMS Limitada</t>
         </is>
       </c>
       <c r="F373" t="n">
-        <v>635000</v>
+        <v>200</v>
       </c>
       <c r="G373" t="inlineStr">
         <is>
@@ -18260,12 +18260,12 @@
       </c>
       <c r="H373" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I373" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5931343&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6003582&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J373" t="inlineStr">
@@ -18280,7 +18280,7 @@
       </c>
       <c r="B374" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos</t>
+          <t>Transporte de Sustancias Peligrosas entre la I, II y III Regiones"</t>
         </is>
       </c>
       <c r="C374" t="inlineStr">
@@ -18295,11 +18295,11 @@
       </c>
       <c r="E374" t="inlineStr">
         <is>
-          <t>Transportes TMS Limitada</t>
+          <t>Molina Quimicos S.A.</t>
         </is>
       </c>
       <c r="F374" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="G374" t="inlineStr">
         <is>
@@ -18313,7 +18313,7 @@
       </c>
       <c r="I374" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6003582&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6003607&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J374" t="inlineStr">
@@ -18328,7 +18328,7 @@
       </c>
       <c r="B375" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas entre la I, II y III Regiones"</t>
+          <t>Nuevas Instalaciones para Mantención Mina</t>
         </is>
       </c>
       <c r="C375" t="inlineStr">
@@ -18338,16 +18338,16 @@
       </c>
       <c r="D375" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E375" t="inlineStr">
         <is>
-          <t>Molina Quimicos S.A.</t>
+          <t>MINERA ESCONDIDA LIMITADA</t>
         </is>
       </c>
       <c r="F375" t="n">
-        <v>100</v>
+        <v>635000</v>
       </c>
       <c r="G375" t="inlineStr">
         <is>
@@ -18356,12 +18356,12 @@
       </c>
       <c r="H375" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I375" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6003607&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5931343&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J375" t="inlineStr">
@@ -20584,7 +20584,7 @@
       </c>
       <c r="B422" t="inlineStr">
         <is>
-          <t>II MODIFICACIÓN DIA "TRANSPORTE Y MANEJO IN SITU DE RESIDUOS SÓLIDOS Y LÍQUIDOS PELIGROSOS Y NO PELIGROSOS"</t>
+          <t>"Transporte de acido sulfurico concentrado para minera Las Cenizas, Taltal."</t>
         </is>
       </c>
       <c r="C422" t="inlineStr">
@@ -20594,16 +20594,16 @@
       </c>
       <c r="D422" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E422" t="inlineStr">
         <is>
-          <t>Mol Ambiente S.A.</t>
+          <t>Translog S.A.</t>
         </is>
       </c>
       <c r="F422" t="n">
-        <v>75000</v>
+        <v>600</v>
       </c>
       <c r="G422" t="inlineStr">
         <is>
@@ -20612,12 +20612,12 @@
       </c>
       <c r="H422" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I422" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5118945&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5114868&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J422" t="inlineStr">
@@ -20632,7 +20632,7 @@
       </c>
       <c r="B423" t="inlineStr">
         <is>
-          <t>"Transporte de acido sulfurico concentrado para minera Las Cenizas, Taltal."</t>
+          <t>II MODIFICACIÓN DIA "TRANSPORTE Y MANEJO IN SITU DE RESIDUOS SÓLIDOS Y LÍQUIDOS PELIGROSOS Y NO PELIGROSOS"</t>
         </is>
       </c>
       <c r="C423" t="inlineStr">
@@ -20642,16 +20642,16 @@
       </c>
       <c r="D423" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E423" t="inlineStr">
         <is>
-          <t>Translog S.A.</t>
+          <t>Mol Ambiente S.A.</t>
         </is>
       </c>
       <c r="F423" t="n">
-        <v>600</v>
+        <v>75000</v>
       </c>
       <c r="G423" t="inlineStr">
         <is>
@@ -20660,12 +20660,12 @@
       </c>
       <c r="H423" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I423" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5114868&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5118945&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J423" t="inlineStr">
@@ -22120,7 +22120,7 @@
       </c>
       <c r="B454" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE RESIDUOS PELIGROSOS POR RUTAS DE LA REGIÓN DE ANTOFAGASTA</t>
+          <t>Proyecto Laboratorios Químicos CIMM T&amp;S SA. La Negra</t>
         </is>
       </c>
       <c r="C454" t="inlineStr">
@@ -22135,11 +22135,11 @@
       </c>
       <c r="E454" t="inlineStr">
         <is>
-          <t>Limfosep S.A</t>
+          <t>Yancko Gonzalez Rozas</t>
         </is>
       </c>
       <c r="F454" t="n">
-        <v>1000</v>
+        <v>8000</v>
       </c>
       <c r="G454" t="inlineStr">
         <is>
@@ -22148,12 +22148,12 @@
       </c>
       <c r="H454" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I454" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4698232&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4670031&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J454" t="inlineStr">
@@ -22168,7 +22168,7 @@
       </c>
       <c r="B455" t="inlineStr">
         <is>
-          <t>Proyecto Laboratorios Químicos CIMM T&amp;S SA. La Negra</t>
+          <t>TRANSPORTE DE RESIDUOS PELIGROSOS POR RUTAS DE LA REGIÓN DE ANTOFAGASTA</t>
         </is>
       </c>
       <c r="C455" t="inlineStr">
@@ -22183,11 +22183,11 @@
       </c>
       <c r="E455" t="inlineStr">
         <is>
-          <t>Yancko Gonzalez Rozas</t>
+          <t>Limfosep S.A</t>
         </is>
       </c>
       <c r="F455" t="n">
-        <v>8000</v>
+        <v>1000</v>
       </c>
       <c r="G455" t="inlineStr">
         <is>
@@ -22196,12 +22196,12 @@
       </c>
       <c r="H455" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I455" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4670031&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4698232&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J455" t="inlineStr">
@@ -22600,7 +22600,7 @@
       </c>
       <c r="B464" t="inlineStr">
         <is>
-          <t>EXPANSION DEPOSITO DE RELAVES FILTRADOS FAENA EL PEÑÓN</t>
+          <t>Nuevo Transporte Interregional de Cianuro de Sodio</t>
         </is>
       </c>
       <c r="C464" t="inlineStr">
@@ -22610,16 +22610,16 @@
       </c>
       <c r="D464" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E464" t="inlineStr">
         <is>
-          <t>Minera Meridian Limitada</t>
+          <t>OXIQUIM S.A.</t>
         </is>
       </c>
       <c r="F464" t="n">
-        <v>688</v>
+        <v>85</v>
       </c>
       <c r="G464" t="inlineStr">
         <is>
@@ -22628,12 +22628,12 @@
       </c>
       <c r="H464" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I464" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4601640&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4594007&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J464" t="inlineStr">
@@ -22648,7 +22648,7 @@
       </c>
       <c r="B465" t="inlineStr">
         <is>
-          <t>Nuevo Transporte Interregional de Cianuro de Sodio</t>
+          <t>EXPANSION DEPOSITO DE RELAVES FILTRADOS FAENA EL PEÑÓN</t>
         </is>
       </c>
       <c r="C465" t="inlineStr">
@@ -22658,16 +22658,16 @@
       </c>
       <c r="D465" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E465" t="inlineStr">
         <is>
-          <t>OXIQUIM S.A.</t>
+          <t>Minera Meridian Limitada</t>
         </is>
       </c>
       <c r="F465" t="n">
-        <v>85</v>
+        <v>688</v>
       </c>
       <c r="G465" t="inlineStr">
         <is>
@@ -22676,12 +22676,12 @@
       </c>
       <c r="H465" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I465" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4594007&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4601640&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J465" t="inlineStr">
@@ -23416,7 +23416,7 @@
       </c>
       <c r="B481" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligroso, Transporte Bello</t>
+          <t>Transporte de Barros Anódicos</t>
         </is>
       </c>
       <c r="C481" t="inlineStr">
@@ -23431,11 +23431,11 @@
       </c>
       <c r="E481" t="inlineStr">
         <is>
-          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
+          <t>CODELCO CHILE</t>
         </is>
       </c>
       <c r="F481" t="n">
-        <v>4050</v>
+        <v>0</v>
       </c>
       <c r="G481" t="inlineStr">
         <is>
@@ -23449,7 +23449,7 @@
       </c>
       <c r="I481" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4455518&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4429880&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J481" t="inlineStr">
@@ -23464,7 +23464,7 @@
       </c>
       <c r="B482" t="inlineStr">
         <is>
-          <t>Transporte de Barros Anódicos</t>
+          <t>Transporte de Residuos Peligroso, Transporte Bello</t>
         </is>
       </c>
       <c r="C482" t="inlineStr">
@@ -23479,11 +23479,11 @@
       </c>
       <c r="E482" t="inlineStr">
         <is>
-          <t>CODELCO CHILE</t>
+          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
         </is>
       </c>
       <c r="F482" t="n">
-        <v>0</v>
+        <v>4050</v>
       </c>
       <c r="G482" t="inlineStr">
         <is>
@@ -23497,7 +23497,7 @@
       </c>
       <c r="I482" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4429880&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4455518&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J482" t="inlineStr">
@@ -23608,7 +23608,7 @@
       </c>
       <c r="B485" t="inlineStr">
         <is>
-          <t>Modificacion Proyecto Minero Algorta Sector Pampa</t>
+          <t>Transporte y Almacenamiento temporal de Residuos Peligrosos M&amp;M ltda.</t>
         </is>
       </c>
       <c r="C485" t="inlineStr">
@@ -23618,16 +23618,16 @@
       </c>
       <c r="D485" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E485" t="inlineStr">
         <is>
-          <t>Algorta Norte S.A</t>
+          <t>Transportes Moscoso y Moscoso Ltda.</t>
         </is>
       </c>
       <c r="F485" t="n">
-        <v>6400</v>
+        <v>41075</v>
       </c>
       <c r="G485" t="inlineStr">
         <is>
@@ -23641,7 +23641,7 @@
       </c>
       <c r="I485" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4432700&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4422237&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J485" t="inlineStr">
@@ -23656,7 +23656,7 @@
       </c>
       <c r="B486" t="inlineStr">
         <is>
-          <t>Transporte y Almacenamiento temporal de Residuos Peligrosos M&amp;M ltda.</t>
+          <t>Modificacion Proyecto Minero Algorta Sector Pampa</t>
         </is>
       </c>
       <c r="C486" t="inlineStr">
@@ -23666,16 +23666,16 @@
       </c>
       <c r="D486" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E486" t="inlineStr">
         <is>
-          <t>Transportes Moscoso y Moscoso Ltda.</t>
+          <t>Algorta Norte S.A</t>
         </is>
       </c>
       <c r="F486" t="n">
-        <v>41075</v>
+        <v>6400</v>
       </c>
       <c r="G486" t="inlineStr">
         <is>
@@ -23689,7 +23689,7 @@
       </c>
       <c r="I486" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4422237&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4432700&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J486" t="inlineStr">

--- a/data/Antofagasta.xlsx
+++ b/data/Antofagasta.xlsx
@@ -2359,7 +2359,7 @@
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>DPP HOLDING CHILE SPA</t>
+          <t>Orión Solar SpA</t>
         </is>
       </c>
       <c r="F42" t="n">

--- a/data/Antofagasta.xlsx
+++ b/data/Antofagasta.xlsx
@@ -12328,7 +12328,7 @@
       </c>
       <c r="B250" t="inlineStr">
         <is>
-          <t>Transporte Interregional de Sustancias Peligrosas - AGREDUCAM VI Región</t>
+          <t>Planta de Fabricación de Tuberías PEX (polietileno reticulado)</t>
         </is>
       </c>
       <c r="C250" t="inlineStr">
@@ -12338,16 +12338,16 @@
       </c>
       <c r="D250" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E250" t="inlineStr">
         <is>
-          <t>Asociación Gremial de Dueños de Camiones de la Sexta Región</t>
+          <t>CROSSPIPE SYSTEMS S.A.</t>
         </is>
       </c>
       <c r="F250" t="n">
-        <v>1200</v>
+        <v>12400</v>
       </c>
       <c r="G250" t="inlineStr">
         <is>
@@ -12361,7 +12361,7 @@
       </c>
       <c r="I250" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128964620&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128954293&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J250" t="inlineStr">
@@ -12376,7 +12376,7 @@
       </c>
       <c r="B251" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos por las Rutas Indicadas</t>
+          <t>Transporte Interregional de Sustancias Peligrosas - AGREDUCAM VI Región</t>
         </is>
       </c>
       <c r="C251" t="inlineStr">
@@ -12391,11 +12391,11 @@
       </c>
       <c r="E251" t="inlineStr">
         <is>
-          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
+          <t>Asociación Gremial de Dueños de Camiones de la Sexta Región</t>
         </is>
       </c>
       <c r="F251" t="n">
-        <v>0</v>
+        <v>1200</v>
       </c>
       <c r="G251" t="inlineStr">
         <is>
@@ -12409,7 +12409,7 @@
       </c>
       <c r="I251" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128972489&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128964620&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J251" t="inlineStr">
@@ -12424,7 +12424,7 @@
       </c>
       <c r="B252" t="inlineStr">
         <is>
-          <t>Planta de Fabricación de Tuberías PEX (polietileno reticulado)</t>
+          <t>Transporte de Residuos Peligrosos por las Rutas Indicadas</t>
         </is>
       </c>
       <c r="C252" t="inlineStr">
@@ -12434,16 +12434,16 @@
       </c>
       <c r="D252" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E252" t="inlineStr">
         <is>
-          <t>CROSSPIPE SYSTEMS S.A.</t>
+          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
         </is>
       </c>
       <c r="F252" t="n">
-        <v>12400</v>
+        <v>0</v>
       </c>
       <c r="G252" t="inlineStr">
         <is>
@@ -12457,7 +12457,7 @@
       </c>
       <c r="I252" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128954293&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128972489&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J252" t="inlineStr">
@@ -14056,26 +14056,26 @@
       </c>
       <c r="B286" t="inlineStr">
         <is>
-          <t>RT Sulfuros</t>
+          <t>Transporte de Sustancias Peligrosas Transaltisa Chile Ltda</t>
         </is>
       </c>
       <c r="C286" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D286" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E286" t="inlineStr">
         <is>
-          <t>CODELCO Chile, División Radomiro Tomic</t>
+          <t>Transaltisa Chile Ltda.</t>
         </is>
       </c>
       <c r="F286" t="n">
-        <v>5.4</v>
+        <v>2050</v>
       </c>
       <c r="G286" t="inlineStr">
         <is>
@@ -14084,12 +14084,12 @@
       </c>
       <c r="H286" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I286" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8210090&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8218613&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J286" t="inlineStr">
@@ -14104,26 +14104,26 @@
       </c>
       <c r="B287" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas Transaltisa Chile Ltda</t>
+          <t>RT Sulfuros</t>
         </is>
       </c>
       <c r="C287" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D287" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E287" t="inlineStr">
         <is>
-          <t>Transaltisa Chile Ltda.</t>
+          <t>CODELCO Chile, División Radomiro Tomic</t>
         </is>
       </c>
       <c r="F287" t="n">
-        <v>2050</v>
+        <v>5.4</v>
       </c>
       <c r="G287" t="inlineStr">
         <is>
@@ -14132,12 +14132,12 @@
       </c>
       <c r="H287" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I287" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8218613&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8210090&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J287" t="inlineStr">
@@ -16792,7 +16792,7 @@
       </c>
       <c r="B343" t="inlineStr">
         <is>
-          <t>Parque Fotovoltaico Los Andes</t>
+          <t>CENTRO DE RECUPERACIÓN DE TAMBORES Y CONTENEDORES IBC CONTAMINADOS, PLAMBIENTAL LA NEGRA</t>
         </is>
       </c>
       <c r="C343" t="inlineStr">
@@ -16807,11 +16807,11 @@
       </c>
       <c r="E343" t="inlineStr">
         <is>
-          <t>Andes Solar SPA</t>
+          <t>VEOLIA SERVICIOS MINEROS INTEGRALES CHILE SpA</t>
         </is>
       </c>
       <c r="F343" t="n">
-        <v>572000</v>
+        <v>60</v>
       </c>
       <c r="G343" t="inlineStr">
         <is>
@@ -16820,12 +16820,12 @@
       </c>
       <c r="H343" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Caducado</t>
         </is>
       </c>
       <c r="I343" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6581267&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6592870&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J343" t="inlineStr">
@@ -16840,7 +16840,7 @@
       </c>
       <c r="B344" t="inlineStr">
         <is>
-          <t>CENTRO DE RECUPERACIÓN DE TAMBORES Y CONTENEDORES IBC CONTAMINADOS, PLAMBIENTAL LA NEGRA</t>
+          <t>CENTRO DE ALMACENAMIENTO DE RESIDUOS INDUSTRIALES, GESAM LA NEGRA</t>
         </is>
       </c>
       <c r="C344" t="inlineStr">
@@ -16859,7 +16859,7 @@
         </is>
       </c>
       <c r="F344" t="n">
-        <v>60</v>
+        <v>360</v>
       </c>
       <c r="G344" t="inlineStr">
         <is>
@@ -16873,7 +16873,7 @@
       </c>
       <c r="I344" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6592870&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6595234&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J344" t="inlineStr">
@@ -16888,7 +16888,7 @@
       </c>
       <c r="B345" t="inlineStr">
         <is>
-          <t>CENTRO DE ALMACENAMIENTO DE RESIDUOS INDUSTRIALES, GESAM LA NEGRA</t>
+          <t>Parque Fotovoltaico Los Andes</t>
         </is>
       </c>
       <c r="C345" t="inlineStr">
@@ -16903,11 +16903,11 @@
       </c>
       <c r="E345" t="inlineStr">
         <is>
-          <t>VEOLIA SERVICIOS MINEROS INTEGRALES CHILE SpA</t>
+          <t>Andes Solar SPA</t>
         </is>
       </c>
       <c r="F345" t="n">
-        <v>360</v>
+        <v>572000</v>
       </c>
       <c r="G345" t="inlineStr">
         <is>
@@ -16916,12 +16916,12 @@
       </c>
       <c r="H345" t="inlineStr">
         <is>
-          <t>Caducado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I345" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6595234&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6581267&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J345" t="inlineStr">
@@ -17752,7 +17752,7 @@
       </c>
       <c r="B363" t="inlineStr">
         <is>
-          <t>Extracción de Áridos Empréstito E17L</t>
+          <t>Modificación Proyecto Transporte de Acido Sulfurico a granel entre la Primera y Décima Regiones de Chile</t>
         </is>
       </c>
       <c r="C363" t="inlineStr">
@@ -17762,16 +17762,16 @@
       </c>
       <c r="D363" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E363" t="inlineStr">
         <is>
-          <t>Skanska Chile S.A.</t>
+          <t>Transportes Herrmann Limitada</t>
         </is>
       </c>
       <c r="F363" t="n">
-        <v>500</v>
+        <v>0</v>
       </c>
       <c r="G363" t="inlineStr">
         <is>
@@ -17780,12 +17780,12 @@
       </c>
       <c r="H363" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I363" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6156264&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6159602&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J363" t="inlineStr">
@@ -17800,7 +17800,7 @@
       </c>
       <c r="B364" t="inlineStr">
         <is>
-          <t>Modificación Proyecto Transporte de Acido Sulfurico a granel entre la Primera y Décima Regiones de Chile</t>
+          <t>Extracción de Áridos Empréstito E17L</t>
         </is>
       </c>
       <c r="C364" t="inlineStr">
@@ -17810,16 +17810,16 @@
       </c>
       <c r="D364" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E364" t="inlineStr">
         <is>
-          <t>Transportes Herrmann Limitada</t>
+          <t>Skanska Chile S.A.</t>
         </is>
       </c>
       <c r="F364" t="n">
-        <v>0</v>
+        <v>500</v>
       </c>
       <c r="G364" t="inlineStr">
         <is>
@@ -17828,12 +17828,12 @@
       </c>
       <c r="H364" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I364" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6159602&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6156264&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J364" t="inlineStr">
@@ -18280,7 +18280,7 @@
       </c>
       <c r="B374" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos</t>
+          <t>Nuevas Instalaciones para Mantención Mina</t>
         </is>
       </c>
       <c r="C374" t="inlineStr">
@@ -18290,16 +18290,16 @@
       </c>
       <c r="D374" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E374" t="inlineStr">
         <is>
-          <t>Transportes TMS Limitada</t>
+          <t>MINERA ESCONDIDA LIMITADA</t>
         </is>
       </c>
       <c r="F374" t="n">
-        <v>200</v>
+        <v>635000</v>
       </c>
       <c r="G374" t="inlineStr">
         <is>
@@ -18308,12 +18308,12 @@
       </c>
       <c r="H374" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I374" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6003582&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5931343&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J374" t="inlineStr">
@@ -18328,7 +18328,7 @@
       </c>
       <c r="B375" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas entre la I, II y III Regiones"</t>
+          <t>Transporte de Residuos Peligrosos</t>
         </is>
       </c>
       <c r="C375" t="inlineStr">
@@ -18343,11 +18343,11 @@
       </c>
       <c r="E375" t="inlineStr">
         <is>
-          <t>Molina Quimicos S.A.</t>
+          <t>Transportes TMS Limitada</t>
         </is>
       </c>
       <c r="F375" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="G375" t="inlineStr">
         <is>
@@ -18361,7 +18361,7 @@
       </c>
       <c r="I375" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6003607&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6003582&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J375" t="inlineStr">
@@ -18376,7 +18376,7 @@
       </c>
       <c r="B376" t="inlineStr">
         <is>
-          <t>Nuevas Instalaciones para Mantención Mina</t>
+          <t>Transporte de Sustancias Peligrosas entre la I, II y III Regiones"</t>
         </is>
       </c>
       <c r="C376" t="inlineStr">
@@ -18386,16 +18386,16 @@
       </c>
       <c r="D376" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E376" t="inlineStr">
         <is>
-          <t>MINERA ESCONDIDA LIMITADA</t>
+          <t>Molina Quimicos S.A.</t>
         </is>
       </c>
       <c r="F376" t="n">
-        <v>635000</v>
+        <v>100</v>
       </c>
       <c r="G376" t="inlineStr">
         <is>
@@ -18404,12 +18404,12 @@
       </c>
       <c r="H376" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I376" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5931343&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6003607&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J376" t="inlineStr">
@@ -20632,7 +20632,7 @@
       </c>
       <c r="B423" t="inlineStr">
         <is>
-          <t>"Transporte de acido sulfurico concentrado para minera Las Cenizas, Taltal."</t>
+          <t>II MODIFICACIÓN DIA "TRANSPORTE Y MANEJO IN SITU DE RESIDUOS SÓLIDOS Y LÍQUIDOS PELIGROSOS Y NO PELIGROSOS"</t>
         </is>
       </c>
       <c r="C423" t="inlineStr">
@@ -20642,16 +20642,16 @@
       </c>
       <c r="D423" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E423" t="inlineStr">
         <is>
-          <t>Translog S.A.</t>
+          <t>Mol Ambiente S.A.</t>
         </is>
       </c>
       <c r="F423" t="n">
-        <v>600</v>
+        <v>75000</v>
       </c>
       <c r="G423" t="inlineStr">
         <is>
@@ -20660,12 +20660,12 @@
       </c>
       <c r="H423" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I423" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5114868&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5118945&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J423" t="inlineStr">
@@ -20680,7 +20680,7 @@
       </c>
       <c r="B424" t="inlineStr">
         <is>
-          <t>II MODIFICACIÓN DIA "TRANSPORTE Y MANEJO IN SITU DE RESIDUOS SÓLIDOS Y LÍQUIDOS PELIGROSOS Y NO PELIGROSOS"</t>
+          <t>"Transporte de acido sulfurico concentrado para minera Las Cenizas, Taltal."</t>
         </is>
       </c>
       <c r="C424" t="inlineStr">
@@ -20690,16 +20690,16 @@
       </c>
       <c r="D424" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E424" t="inlineStr">
         <is>
-          <t>Mol Ambiente S.A.</t>
+          <t>Translog S.A.</t>
         </is>
       </c>
       <c r="F424" t="n">
-        <v>75000</v>
+        <v>600</v>
       </c>
       <c r="G424" t="inlineStr">
         <is>
@@ -20708,12 +20708,12 @@
       </c>
       <c r="H424" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I424" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5118945&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5114868&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J424" t="inlineStr">
@@ -22168,7 +22168,7 @@
       </c>
       <c r="B455" t="inlineStr">
         <is>
-          <t>Proyecto Laboratorios Químicos CIMM T&amp;S SA. La Negra</t>
+          <t>TRANSPORTE DE RESIDUOS PELIGROSOS POR RUTAS DE LA REGIÓN DE ANTOFAGASTA</t>
         </is>
       </c>
       <c r="C455" t="inlineStr">
@@ -22183,11 +22183,11 @@
       </c>
       <c r="E455" t="inlineStr">
         <is>
-          <t>Yancko Gonzalez Rozas</t>
+          <t>Limfosep S.A</t>
         </is>
       </c>
       <c r="F455" t="n">
-        <v>8000</v>
+        <v>1000</v>
       </c>
       <c r="G455" t="inlineStr">
         <is>
@@ -22196,12 +22196,12 @@
       </c>
       <c r="H455" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I455" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4670031&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4698232&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J455" t="inlineStr">
@@ -22216,7 +22216,7 @@
       </c>
       <c r="B456" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE RESIDUOS PELIGROSOS POR RUTAS DE LA REGIÓN DE ANTOFAGASTA</t>
+          <t>Proyecto Laboratorios Químicos CIMM T&amp;S SA. La Negra</t>
         </is>
       </c>
       <c r="C456" t="inlineStr">
@@ -22231,11 +22231,11 @@
       </c>
       <c r="E456" t="inlineStr">
         <is>
-          <t>Limfosep S.A</t>
+          <t>Yancko Gonzalez Rozas</t>
         </is>
       </c>
       <c r="F456" t="n">
-        <v>1000</v>
+        <v>8000</v>
       </c>
       <c r="G456" t="inlineStr">
         <is>
@@ -22244,12 +22244,12 @@
       </c>
       <c r="H456" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I456" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4698232&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4670031&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J456" t="inlineStr">
@@ -22648,7 +22648,7 @@
       </c>
       <c r="B465" t="inlineStr">
         <is>
-          <t>Nuevo Transporte Interregional de Cianuro de Sodio</t>
+          <t>EXPANSION DEPOSITO DE RELAVES FILTRADOS FAENA EL PEÑÓN</t>
         </is>
       </c>
       <c r="C465" t="inlineStr">
@@ -22658,16 +22658,16 @@
       </c>
       <c r="D465" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E465" t="inlineStr">
         <is>
-          <t>OXIQUIM S.A.</t>
+          <t>Minera Meridian Limitada</t>
         </is>
       </c>
       <c r="F465" t="n">
-        <v>85</v>
+        <v>688</v>
       </c>
       <c r="G465" t="inlineStr">
         <is>
@@ -22676,12 +22676,12 @@
       </c>
       <c r="H465" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I465" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4594007&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4601640&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J465" t="inlineStr">
@@ -22696,7 +22696,7 @@
       </c>
       <c r="B466" t="inlineStr">
         <is>
-          <t>EXPANSION DEPOSITO DE RELAVES FILTRADOS FAENA EL PEÑÓN</t>
+          <t>Nuevo Transporte Interregional de Cianuro de Sodio</t>
         </is>
       </c>
       <c r="C466" t="inlineStr">
@@ -22706,16 +22706,16 @@
       </c>
       <c r="D466" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E466" t="inlineStr">
         <is>
-          <t>Minera Meridian Limitada</t>
+          <t>OXIQUIM S.A.</t>
         </is>
       </c>
       <c r="F466" t="n">
-        <v>688</v>
+        <v>85</v>
       </c>
       <c r="G466" t="inlineStr">
         <is>
@@ -22724,12 +22724,12 @@
       </c>
       <c r="H466" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I466" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4601640&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4594007&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J466" t="inlineStr">
@@ -23464,7 +23464,7 @@
       </c>
       <c r="B482" t="inlineStr">
         <is>
-          <t>Transporte de Barros Anódicos</t>
+          <t>Transporte de Residuos Peligroso, Transporte Bello</t>
         </is>
       </c>
       <c r="C482" t="inlineStr">
@@ -23479,11 +23479,11 @@
       </c>
       <c r="E482" t="inlineStr">
         <is>
-          <t>CODELCO CHILE</t>
+          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
         </is>
       </c>
       <c r="F482" t="n">
-        <v>0</v>
+        <v>4050</v>
       </c>
       <c r="G482" t="inlineStr">
         <is>
@@ -23497,7 +23497,7 @@
       </c>
       <c r="I482" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4429880&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4455518&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J482" t="inlineStr">
@@ -23512,7 +23512,7 @@
       </c>
       <c r="B483" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligroso, Transporte Bello</t>
+          <t>Transporte de Barros Anódicos</t>
         </is>
       </c>
       <c r="C483" t="inlineStr">
@@ -23527,11 +23527,11 @@
       </c>
       <c r="E483" t="inlineStr">
         <is>
-          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
+          <t>CODELCO CHILE</t>
         </is>
       </c>
       <c r="F483" t="n">
-        <v>4050</v>
+        <v>0</v>
       </c>
       <c r="G483" t="inlineStr">
         <is>
@@ -23545,7 +23545,7 @@
       </c>
       <c r="I483" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4455518&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4429880&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J483" t="inlineStr">
@@ -23656,7 +23656,7 @@
       </c>
       <c r="B486" t="inlineStr">
         <is>
-          <t>Transporte y Almacenamiento temporal de Residuos Peligrosos M&amp;M ltda.</t>
+          <t>Modificacion Proyecto Minero Algorta Sector Pampa</t>
         </is>
       </c>
       <c r="C486" t="inlineStr">
@@ -23666,16 +23666,16 @@
       </c>
       <c r="D486" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E486" t="inlineStr">
         <is>
-          <t>Transportes Moscoso y Moscoso Ltda.</t>
+          <t>Algorta Norte S.A</t>
         </is>
       </c>
       <c r="F486" t="n">
-        <v>41075</v>
+        <v>6400</v>
       </c>
       <c r="G486" t="inlineStr">
         <is>
@@ -23689,7 +23689,7 @@
       </c>
       <c r="I486" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4422237&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4432700&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J486" t="inlineStr">
@@ -23704,7 +23704,7 @@
       </c>
       <c r="B487" t="inlineStr">
         <is>
-          <t>Modificacion Proyecto Minero Algorta Sector Pampa</t>
+          <t>Transporte y Almacenamiento temporal de Residuos Peligrosos M&amp;M ltda.</t>
         </is>
       </c>
       <c r="C487" t="inlineStr">
@@ -23714,16 +23714,16 @@
       </c>
       <c r="D487" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E487" t="inlineStr">
         <is>
-          <t>Algorta Norte S.A</t>
+          <t>Transportes Moscoso y Moscoso Ltda.</t>
         </is>
       </c>
       <c r="F487" t="n">
-        <v>6400</v>
+        <v>41075</v>
       </c>
       <c r="G487" t="inlineStr">
         <is>
@@ -23737,7 +23737,7 @@
       </c>
       <c r="I487" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4432700&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4422237&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J487" t="inlineStr">

--- a/data/Antofagasta.xlsx
+++ b/data/Antofagasta.xlsx
@@ -12328,7 +12328,7 @@
       </c>
       <c r="B250" t="inlineStr">
         <is>
-          <t>Planta de Fabricación de Tuberías PEX (polietileno reticulado)</t>
+          <t>Transporte Interregional de Sustancias Peligrosas - AGREDUCAM VI Región</t>
         </is>
       </c>
       <c r="C250" t="inlineStr">
@@ -12338,16 +12338,16 @@
       </c>
       <c r="D250" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E250" t="inlineStr">
         <is>
-          <t>CROSSPIPE SYSTEMS S.A.</t>
+          <t>Asociación Gremial de Dueños de Camiones de la Sexta Región</t>
         </is>
       </c>
       <c r="F250" t="n">
-        <v>12400</v>
+        <v>1200</v>
       </c>
       <c r="G250" t="inlineStr">
         <is>
@@ -12361,7 +12361,7 @@
       </c>
       <c r="I250" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128954293&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128964620&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J250" t="inlineStr">
@@ -12376,7 +12376,7 @@
       </c>
       <c r="B251" t="inlineStr">
         <is>
-          <t>Transporte Interregional de Sustancias Peligrosas - AGREDUCAM VI Región</t>
+          <t>Transporte de Residuos Peligrosos por las Rutas Indicadas</t>
         </is>
       </c>
       <c r="C251" t="inlineStr">
@@ -12391,11 +12391,11 @@
       </c>
       <c r="E251" t="inlineStr">
         <is>
-          <t>Asociación Gremial de Dueños de Camiones de la Sexta Región</t>
+          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
         </is>
       </c>
       <c r="F251" t="n">
-        <v>1200</v>
+        <v>0</v>
       </c>
       <c r="G251" t="inlineStr">
         <is>
@@ -12409,7 +12409,7 @@
       </c>
       <c r="I251" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128964620&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128972489&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J251" t="inlineStr">
@@ -12424,7 +12424,7 @@
       </c>
       <c r="B252" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos por las Rutas Indicadas</t>
+          <t>Planta de Fabricación de Tuberías PEX (polietileno reticulado)</t>
         </is>
       </c>
       <c r="C252" t="inlineStr">
@@ -12434,16 +12434,16 @@
       </c>
       <c r="D252" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E252" t="inlineStr">
         <is>
-          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
+          <t>CROSSPIPE SYSTEMS S.A.</t>
         </is>
       </c>
       <c r="F252" t="n">
-        <v>0</v>
+        <v>12400</v>
       </c>
       <c r="G252" t="inlineStr">
         <is>
@@ -12457,7 +12457,7 @@
       </c>
       <c r="I252" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128972489&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128954293&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J252" t="inlineStr">
@@ -14056,26 +14056,26 @@
       </c>
       <c r="B286" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas Transaltisa Chile Ltda</t>
+          <t>RT Sulfuros</t>
         </is>
       </c>
       <c r="C286" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D286" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E286" t="inlineStr">
         <is>
-          <t>Transaltisa Chile Ltda.</t>
+          <t>CODELCO Chile, División Radomiro Tomic</t>
         </is>
       </c>
       <c r="F286" t="n">
-        <v>2050</v>
+        <v>5.4</v>
       </c>
       <c r="G286" t="inlineStr">
         <is>
@@ -14084,12 +14084,12 @@
       </c>
       <c r="H286" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I286" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8218613&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8210090&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J286" t="inlineStr">
@@ -14104,26 +14104,26 @@
       </c>
       <c r="B287" t="inlineStr">
         <is>
-          <t>RT Sulfuros</t>
+          <t>Transporte de Sustancias Peligrosas Transaltisa Chile Ltda</t>
         </is>
       </c>
       <c r="C287" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D287" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E287" t="inlineStr">
         <is>
-          <t>CODELCO Chile, División Radomiro Tomic</t>
+          <t>Transaltisa Chile Ltda.</t>
         </is>
       </c>
       <c r="F287" t="n">
-        <v>5.4</v>
+        <v>2050</v>
       </c>
       <c r="G287" t="inlineStr">
         <is>
@@ -14132,12 +14132,12 @@
       </c>
       <c r="H287" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I287" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8210090&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8218613&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J287" t="inlineStr">
@@ -16792,7 +16792,7 @@
       </c>
       <c r="B343" t="inlineStr">
         <is>
-          <t>CENTRO DE RECUPERACIÓN DE TAMBORES Y CONTENEDORES IBC CONTAMINADOS, PLAMBIENTAL LA NEGRA</t>
+          <t>Parque Fotovoltaico Los Andes</t>
         </is>
       </c>
       <c r="C343" t="inlineStr">
@@ -16807,11 +16807,11 @@
       </c>
       <c r="E343" t="inlineStr">
         <is>
-          <t>VEOLIA SERVICIOS MINEROS INTEGRALES CHILE SpA</t>
+          <t>Andes Solar SPA</t>
         </is>
       </c>
       <c r="F343" t="n">
-        <v>60</v>
+        <v>572000</v>
       </c>
       <c r="G343" t="inlineStr">
         <is>
@@ -16820,12 +16820,12 @@
       </c>
       <c r="H343" t="inlineStr">
         <is>
-          <t>Caducado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I343" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6592870&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6581267&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J343" t="inlineStr">
@@ -16840,7 +16840,7 @@
       </c>
       <c r="B344" t="inlineStr">
         <is>
-          <t>CENTRO DE ALMACENAMIENTO DE RESIDUOS INDUSTRIALES, GESAM LA NEGRA</t>
+          <t>CENTRO DE RECUPERACIÓN DE TAMBORES Y CONTENEDORES IBC CONTAMINADOS, PLAMBIENTAL LA NEGRA</t>
         </is>
       </c>
       <c r="C344" t="inlineStr">
@@ -16859,7 +16859,7 @@
         </is>
       </c>
       <c r="F344" t="n">
-        <v>360</v>
+        <v>60</v>
       </c>
       <c r="G344" t="inlineStr">
         <is>
@@ -16873,7 +16873,7 @@
       </c>
       <c r="I344" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6595234&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6592870&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J344" t="inlineStr">
@@ -16888,7 +16888,7 @@
       </c>
       <c r="B345" t="inlineStr">
         <is>
-          <t>Parque Fotovoltaico Los Andes</t>
+          <t>CENTRO DE ALMACENAMIENTO DE RESIDUOS INDUSTRIALES, GESAM LA NEGRA</t>
         </is>
       </c>
       <c r="C345" t="inlineStr">
@@ -16903,11 +16903,11 @@
       </c>
       <c r="E345" t="inlineStr">
         <is>
-          <t>Andes Solar SPA</t>
+          <t>VEOLIA SERVICIOS MINEROS INTEGRALES CHILE SpA</t>
         </is>
       </c>
       <c r="F345" t="n">
-        <v>572000</v>
+        <v>360</v>
       </c>
       <c r="G345" t="inlineStr">
         <is>
@@ -16916,12 +16916,12 @@
       </c>
       <c r="H345" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Caducado</t>
         </is>
       </c>
       <c r="I345" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6581267&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6595234&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J345" t="inlineStr">
@@ -17752,7 +17752,7 @@
       </c>
       <c r="B363" t="inlineStr">
         <is>
-          <t>Modificación Proyecto Transporte de Acido Sulfurico a granel entre la Primera y Décima Regiones de Chile</t>
+          <t>Extracción de Áridos Empréstito E17L</t>
         </is>
       </c>
       <c r="C363" t="inlineStr">
@@ -17762,16 +17762,16 @@
       </c>
       <c r="D363" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E363" t="inlineStr">
         <is>
-          <t>Transportes Herrmann Limitada</t>
+          <t>Skanska Chile S.A.</t>
         </is>
       </c>
       <c r="F363" t="n">
-        <v>0</v>
+        <v>500</v>
       </c>
       <c r="G363" t="inlineStr">
         <is>
@@ -17780,12 +17780,12 @@
       </c>
       <c r="H363" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I363" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6159602&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6156264&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J363" t="inlineStr">
@@ -17800,7 +17800,7 @@
       </c>
       <c r="B364" t="inlineStr">
         <is>
-          <t>Extracción de Áridos Empréstito E17L</t>
+          <t>Modificación Proyecto Transporte de Acido Sulfurico a granel entre la Primera y Décima Regiones de Chile</t>
         </is>
       </c>
       <c r="C364" t="inlineStr">
@@ -17810,16 +17810,16 @@
       </c>
       <c r="D364" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E364" t="inlineStr">
         <is>
-          <t>Skanska Chile S.A.</t>
+          <t>Transportes Herrmann Limitada</t>
         </is>
       </c>
       <c r="F364" t="n">
-        <v>500</v>
+        <v>0</v>
       </c>
       <c r="G364" t="inlineStr">
         <is>
@@ -17828,12 +17828,12 @@
       </c>
       <c r="H364" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I364" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6156264&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6159602&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J364" t="inlineStr">
@@ -18280,7 +18280,7 @@
       </c>
       <c r="B374" t="inlineStr">
         <is>
-          <t>Nuevas Instalaciones para Mantención Mina</t>
+          <t>Transporte de Residuos Peligrosos</t>
         </is>
       </c>
       <c r="C374" t="inlineStr">
@@ -18290,16 +18290,16 @@
       </c>
       <c r="D374" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E374" t="inlineStr">
         <is>
-          <t>MINERA ESCONDIDA LIMITADA</t>
+          <t>Transportes TMS Limitada</t>
         </is>
       </c>
       <c r="F374" t="n">
-        <v>635000</v>
+        <v>200</v>
       </c>
       <c r="G374" t="inlineStr">
         <is>
@@ -18308,12 +18308,12 @@
       </c>
       <c r="H374" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I374" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5931343&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6003582&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J374" t="inlineStr">
@@ -18328,7 +18328,7 @@
       </c>
  